--- a/intento70-30.xlsx
+++ b/intento70-30.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dieboldnixdorf-my.sharepoint.com/personal/lucas_rodriguez_dieboldnixdorf_com/Documents/Escritorio/Codigo/PARTES/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_1245B48E5B305A640F1B3611595ED87656CE9CEA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CE31403-F937-4F01-BDFE-D8BCB79E3C72}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_3CA5378F5B10D340DFFB3311595ED87656CE802F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23AF13C0-AEA1-4910-ADEB-A7410BB7762F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$577</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$564</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="349">
   <si>
     <t>NOMBRE CLIENTE</t>
   </si>
@@ -247,9 +247,6 @@
     <t>NOSP. 11/01/24. PARTE 1750188546 DEPÓSITO DE SOBRES CINEO: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
-    <t>NOSP. 05/03/24. PARTE 1750109659 V4 STACKER + 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
     <t>NOSP. 17/04/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750109615 DOUBLE EXTRACTOR DISPONIBLE EN STOCK". (MINIACI)</t>
   </si>
   <si>
@@ -346,9 +343,6 @@
     <t>NOSP. 22/02/24. PARTE 1750220330 RM3 IO TRAY + 1750248000 RM3 IO COLLECTOR + 1750200435 RM3 VS MODULE: SIN SPARE PARTS PARA SU REPARACIÓN. (FRANCO)</t>
   </si>
   <si>
-    <t>NOSP. 11/04/24. PARTE 1750109659 V4 STACKER: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
     <t>49211436000A</t>
   </si>
   <si>
@@ -415,9 +409,6 @@
     <t>NOSP. 07/03/24. PARTE 1750109659 V4 STACKER: SIN SPARE PARTS PARA REPARACIÓN.  --  "PARTE 1750053977 V4 CLAMP DISPONIBLE". (MINIACI)</t>
   </si>
   <si>
-    <t>NOWIP. 21/03/24. PARTE 1750125260 OPERATOR PANEL: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
     <t>NOSP. 05/03/24. PARTE 1750109659 V4 STACKER: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
@@ -439,16 +430,7 @@
     <t>NOSP. 08/03/24. PARTE 1750183289 V5 STACKER: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
-    <t>BANCO CIUDAD</t>
-  </si>
-  <si>
-    <t>NOSP. 11/03/24. PARTE 1750109659 V4 STACKER: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
     <t>NOWIP. 08/04/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 11/03/24. PARTE 1750109658 V4 STACKER S/SR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
     <t>BANCO PIANO</t>
@@ -513,9 +495,6 @@
     <t>NOSP. 14/03/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
-    <t>STOCK. 15/4/24 REPUESTO 1750109659 STACKER CMD V4 DISPONIBLE EN STOCK NODO TRELEW (IPARRAGUIRRE).</t>
-  </si>
-  <si>
     <t>49225262000A</t>
   </si>
   <si>
@@ -534,6 +513,9 @@
     <t>NOSP. 08/04/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750053977 CLAMP DISPONIBLE EN STOCK". (MINIACI)</t>
   </si>
   <si>
+    <t>NOSP. 18/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
     <t>NOSP. 18/03/24. PARTE 1750092824 DEPÓSITO DE SOBRES CINE: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
@@ -543,15 +525,15 @@
     <t>NOSP. 20/03/24. PARTE 1750109659 V4 STACKER: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
+    <t>NOSP. 18/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750200541        DISTRIBUTOR MODULE CRS DISPONIBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
     <t>NOWIP. 19/03/24. PARTE 1750154145 TOUCH CONTROLLER + 1750105988 LECTORA V2X USB + 1750169942 MONITOR 15": SIN SALDO EN WIP. (MINIACI)</t>
   </si>
   <si>
     <t>NOSP. 19/03/24. PARTE 1750109659 V4 STACKER: SIN SPARE PARTS PARA REPARACIÓN.  (MINIACI)</t>
   </si>
   <si>
-    <t>STOCK. 12/4/24. MAIN MODULE 1750193275 Y TRANSPORT 1750245555 DISPONIBLE EN EXPEDICION (SORIANO)</t>
-  </si>
-  <si>
     <t>NOWIP. 08/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SALDO EN WIP. (MINIACI)</t>
   </si>
   <si>
@@ -600,6 +582,9 @@
     <t>NOWIP. 11/04/24. PARTE 1750200435 RM3 VS MODUL + 1750220330 IO TRAY + 1750248000 IO COLLECTOR: SIN SALDO EN WIP. (MINIACI)</t>
   </si>
   <si>
+    <t>NOSP. 18/04/24. PARTE 1750215294 V5 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
     <t>NOSP. 16/04/24. PARTE 1750109659 V4 STACKER + 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
@@ -621,210 +606,206 @@
     <t>NOSP. 08/04/24. PARTE 1750109659 V4 STACKER: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
+    <t>NOSP. 18/04/24. PARTE 1750044668 V4 DDU: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 21/03/24. PARTE 1750092824 DEPOSITO DE SOBRES PROCASH: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 27/03/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 27/03/24. PARTE "MONITOR/TOUCH" N° DE PARTE SIN IDENTIFICACIÓN CORRECTA 1750350686 + 1750301986: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 25/03/34. PARTE 1750109659 V4 STACKER: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>ETR. 16/04/24. PARTE 1750155446 CCDM AMPLIFIER: EN REPARACIÓN. ETR: 22/04/24.  --  "PARTE 175016397 MB CCDM DCDC DISPONIBLE". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 27/03/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN  / "TRABA" 1750067867 SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 15/04/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>RC. 18/04/2024 PARTE 1750109659 WINCOR STACKER CON SINGLE REJECT A ESPERA DE REPARACIOM, PARTE 1750109615 V4 EXTRACTOR INFERIOR DISPONIBLE (MAITLAND)</t>
+  </si>
+  <si>
+    <t>NOSP. 16/04/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL + 1750214647 RM3 TRANSFER UNIT: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 08/04/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>BIO.26/3/2024 TICKET PENDIENTE POR BIOMETRICO (CORREA)</t>
+  </si>
+  <si>
+    <t>ETR. 16/04/24. PARTE 49208102003M AFD CCA DISPENSER: EN REPARACIÓN. ETR: 19/04/24. (MINIACI)</t>
+  </si>
+  <si>
+    <t>ETR. 17/04/24. PARTE 49208102003M AFD CCA DISPENSER: EN REPARACIÓN. ETR: 22/04/24. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 27/03/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>HASAR</t>
+  </si>
+  <si>
+    <t>NOWIP. 03/04/24. PARTE 1750222982 SHUTTER PC 280: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>49218289X0BB</t>
+  </si>
+  <si>
+    <t>NOWIP. 16/04/24. PARTE 49202967X0CC BOQUILLA DE LECTORA DIP: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 27/03/24. PARTE 1750109659 V4 STACKER: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 15/04/24. PARTE 1750044878 V4 DISTRIBUTOR BOARD: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 10/04/24. PARTE 1750109659 V4 STACKER: SIN SPARE PARTS PARA REPARACIÓN.  --  "extractor 1750109615 disponible". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 17/04/24. PARTE 1750109659 V4 STACKER: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 09/04/24. PARTE SV219839000E ENA UDD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 08/04/24. PARTE 1750200435 RM3 VS MODUL + 1750214647 RM3 SAFE TRANSPORT: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 03/04/24. PARTE 1750092824 DEPÓSITO DE SOBRES PROCASH: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>BIO. 27/3/24. PENDIENTE POR BIOMETRICO (SORIANO)</t>
+  </si>
+  <si>
+    <t>NOWIP. 08/04/24. PARTE 1750126457 RM3 REEL STORAGE: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 03/04/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 15/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>RC. 18/4/24. LECTORA 1750173205 A ESPERA DE REPARACION, ESCROW 1750177464 DISPONIBLE (SORIANO)</t>
+  </si>
+  <si>
+    <t>BANCO DE CORDOBA</t>
+  </si>
+  <si>
+    <t>NOWIP. 18/04/24. PARTE 1750044878 V4 BOARD DISTRIBUTOR: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>BANCO CREDICOOP</t>
+  </si>
+  <si>
+    <t>ETR: 18/04/24. PARTE 1750044878 V4 BOARD DISTRIBUTOR: EN REPARACIÓN. ETR: 23/04/24. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 08/04/24. SE CORRIGE COMENTARIO ANTERIOR. PARTE 1750193275 RM3 MAIN MODULE: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 15/04/24. PARTE 1750188523 CCDM CHASIS + 1750263341 RM3 TRANSPORT UNIT HEAD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 11/04/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 10/04/24. PARTE 1750109659 V4 STACKER + 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN.  --  "PARTE 1750100966 CMD V4 SHUTTER VERTIKAL RL STRIP" (SIC STOCK SIN INDICAR CONDICIÓN). (</t>
+  </si>
+  <si>
+    <t>NOSP. 08/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 15/04/24. PARTE 1750109659 V4 STACKER: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>1750173205-35</t>
+  </si>
+  <si>
+    <t>NOSP. 10/04/24. PARTE 1750109659 V4 STACKER: SIN SPARE PARTS PARA REPARACIÓN.  --  "SHUTTER 1750100966  DISPONIBLE". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 08/04/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 09/04/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750187030        REJECT TRANSPORT 3 CCDM DISPONIBLE EN STOCK ". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 15/04/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 09/04/24. PARTE 1750193275 RM3 MAIN MODULE: SIN SALDO EN WIP.  --  "1750220022         INPUT OUTPUT MODULE COLLECTOR UNIT CRS+1750220000 DISPONIBLES EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 09/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 08/04/24. PARTE 1750092824 DEPÓSITO DE SOBRES PROCASH: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 08/04/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>STOCK. 18/04/2024. 
+GUIA Guía 044 30396634 CONFIRMADO.REPUESTO EN ZONA.
+Ya está en sitio (FRETES)</t>
+  </si>
+  <si>
+    <t>RC. 19/04/2024 PARTE 1750109659 WINCOR STACKER CON SINGLE REJECT + ,1750109641 V4 EXTRACTOR SUPERIOR A ESPERA DE REPARACION (MAITLAND)</t>
+  </si>
+  <si>
+    <t>NOSP. 11/04/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 10/04/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 09/04/24. PARTE 1750215294 V5 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 09/04/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 10/04/24. SE CORRIGE COMENTARIO ANTERIOR. PARTE 1750214647 RM3 TRANSFER UNIT SAFE + 1750140781 RM3 HEAD CONTROLLER: SIN SALDO EN WIP.  --  "1750212682         REEL STORAGE BOX DISPONIBLE EN STO</t>
+  </si>
+  <si>
+    <t>NOSP. 15/04/24. PARTE 1750126457 RM3 REEL STORAGE + 1750196174 RM3 MASTERCONTROLLER: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 08/04/24. PARTE 1750109659 V4 STACKER: SIN SPARE PARTS PARA REPARACIÓN.  --  "PLACA CCA 1750105679 DISPONIBLE".  (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 08/04/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 16/04/24. PARTE 1750109659 V4 STACKER: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 11/04/24. PARTE 1750193275 RM3 MAIN MODULE: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>BANCO CIUDAD</t>
+  </si>
+  <si>
+    <t>NOWIP. 10/04/24. PARTE 1750215295 V5 EXTRACTOR INFERIOR + 1750215294 V5 EXTRACTOR INFERIOR: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 15/04/24. PARTE 1750188546 DEPÓSITO DE SOBRES CINEO: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
     <t>49257458000B</t>
   </si>
   <si>
-    <t>49212529304C</t>
-  </si>
-  <si>
-    <t>NOSP. 21/03/24. PARTE 1750092824 DEPOSITO DE SOBRES PROCASH: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 27/03/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>49016971000G</t>
-  </si>
-  <si>
-    <t>BANCO CREDICOOP</t>
-  </si>
-  <si>
-    <t>NOSP. 18/04/24. PARTE 1750109659 V4 STACKER: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 27/03/24. PARTE "MONITOR/TOUCH" N° DE PARTE SIN IDENTIFICACIÓN CORRECTA 1750350686 + 1750301986: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 25/03/34. PARTE 1750109659 V4 STACKER: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>ETR. 16/04/24. PARTE 1750155446 CCDM AMPLIFIER: EN REPARACIÓN. ETR: 22/04/24.  --  "PARTE 175016397 MB CCDM DCDC DISPONIBLE". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 27/03/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN  / "TRABA" 1750067867 SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 15/04/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 27/03/24. PARTE 1750109659 V4 STACKER: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 16/04/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL + 1750214647 RM3 TRANSFER UNIT: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 03/04/24. PARTE S/N DISCO SATA: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 08/04/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>BIO.26/3/2024 TICKET PENDIENTE POR BIOMETRICO (CORREA)</t>
-  </si>
-  <si>
-    <t>ETR. 16/04/24. PARTE 49208102003M AFD CCA DISPENSER: EN REPARACIÓN. ETR: 19/04/24. (MINIACI)</t>
-  </si>
-  <si>
-    <t>ETR. 17/04/24. PARTE 49208102003M AFD CCA DISPENSER: EN REPARACIÓN. ETR: 22/04/24. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 27/03/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>HASAR</t>
-  </si>
-  <si>
-    <t>NOWIP. 03/04/24. PARTE 1750222982 SHUTTER PC 280: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>49218289X0BB</t>
-  </si>
-  <si>
-    <t>NOWIP. 16/04/24. PARTE 49202967X0CC BOQUILLA DE LECTORA DIP: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 15/04/24. PARTE 1750044878 V4 DISTRIBUTOR BOARD: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 10/04/24. PARTE 1750109659 V4 STACKER: SIN SPARE PARTS PARA REPARACIÓN.  --  "extractor 1750109615 disponible". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 17/04/24. PARTE 1750109659 V4 STACKER: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 09/04/24. PARTE SV219839000E ENA UDD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 08/04/24. PARTE 1750200435 RM3 VS MODUL + 1750214647 RM3 SAFE TRANSPORT: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 03/04/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 03/04/24. PARTE 1750092824 DEPÓSITO DE SOBRES PROCASH: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>BIO. 27/3/24. PENDIENTE POR BIOMETRICO (SORIANO)</t>
-  </si>
-  <si>
-    <t>NOWIP. 08/04/24. PARTE 1750126457 RM3 REEL STORAGE: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 15/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>BANCO DE CORDOBA</t>
-  </si>
-  <si>
-    <t>NOSP. 08/04/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750109615        DOUBLE EXTRACTOR UNIT CMD V4 DISPONIBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 08/04/24. SE CORRIGE COMENTARIO ANTERIOR. PARTE 1750193275 RM3 MAIN MODULE: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 15/04/24. PARTE 1750188523 CCDM CHASIS + 1750263341 RM3 TRANSPORT UNIT HEAD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 11/04/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 10/04/24. PARTE 1750109659 V4 STACKER + 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN.  --  "PARTE 1750100966 CMD V4 SHUTTER VERTIKAL RL STRIP" (SIC STOCK SIN INDICAR CONDICIÓN). (</t>
-  </si>
-  <si>
-    <t>NOSP. 08/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 15/04/24. PARTE 1750109659 V4 STACKER: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>1750173205-35</t>
-  </si>
-  <si>
-    <t>NOSP. 10/04/24. PARTE 1750109659 V4 STACKER: SIN SPARE PARTS PARA REPARACIÓN.  --  "SHUTTER 1750100966  DISPONIBLE". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 15/04/24. PARTE 1750109659 V4 STACKER: SIN SPARE PARTS PARA REPARACIÓN.  --  "PARTE 1750053977 V4 CLAMP". (MINIACI)</t>
-  </si>
-  <si>
-    <t>1750097621-BH</t>
-  </si>
-  <si>
-    <t>ETR. 15/04/24. PARTE 49208102003M AFD CCA DISPENSER: EN REPARACIÓN. ETR: 17/04/24. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 08/04/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 09/04/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750187030        REJECT TRANSPORT 3 CCDM DISPONIBLE EN STOCK ". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 15/04/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 09/04/24. PARTE 1750193275 RM3 MAIN MODULE: SIN SALDO EN WIP.  --  "1750220022         INPUT OUTPUT MODULE COLLECTOR UNIT CRS+1750220000 DISPONIBLES EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 09/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 08/04/24. PARTE 1750092824 DEPÓSITO DE SOBRES PROCASH: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 08/04/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 09/04/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 11/04/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 10/04/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 09/04/24. PARTE 1750215294 V5 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 08/04/24. PARTE 1750109658 V4 STACKER S/SR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 10/04/24. SE CORRIGE COMENTARIO ANTERIOR. PARTE 1750214647 RM3 TRANSFER UNIT SAFE + 1750140781 RM3 HEAD CONTROLLER: SIN SALDO EN WIP.  --  "1750212682         REEL STORAGE BOX DISPONIBLE EN STO</t>
-  </si>
-  <si>
-    <t>NOSP. 15/04/24. PARTE 1750126457 RM3 REEL STORAGE + 1750196174 RM3 MASTERCONTROLLER: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 08/04/24. PARTE 1750109659 V4 STACKER: SIN SPARE PARTS PARA REPARACIÓN.  --  "PLACA CCA 1750105679 DISPONIBLE".  (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 08/04/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 16/04/24. PARTE 1750109659 V4 STACKER: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 09/04/24. PARTE 1750248000 RM3 IO COLLECTOR + 1750248000 RM3 IO TRAY: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 11/04/24. PARTE 1750193275 RM3 MAIN MODULE: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 10/04/24. PARTE 1750215295 V5 EXTRACTOR INFERIOR + 1750215294 V5 EXTRACTOR INFERIOR: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 15/04/24. PARTE 1750188546 DEPÓSITO DE SOBRES CINEO: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
     <t>NOSP. 16/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
@@ -834,13 +815,19 @@
     <t>NOSP. 10/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
+    <t>NOSP. 18/04/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
     <t>NOWIP. 10/04/24. PARTE 1750222982 V4 SHUTTER LITE: SIN SALDO EN WIP. (MINIACI)</t>
   </si>
   <si>
+    <t>BANCO DE LA PAMPA</t>
+  </si>
+  <si>
     <t>NOSP. 17/04/24.PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
-    <t>NOWIP. 10/04/24. PARTE 1750248000 RM3 IO COLLECTOR + 1750220330 RM3 IO TRAY: SIN SALDO EN WIP. (MINIACI)</t>
+    <t>ETR. 18/04/24. PARTE 49208102003M AFD CCA DISPENSER: EN REPARACIÓN. ETR: 23/04/24. (MINIACI)</t>
   </si>
   <si>
     <t>NOWIP. 10/04/24. PARTE 1750188523 CCDM CHASIS: SIN SALDO EN WIP.  (MINIACI)</t>
@@ -861,27 +848,24 @@
     <t>NOWIP. 11/04/24. PARTE 1750193275 RM3 MAIN MODULE: SIN SALDO EN WIP. (MINIACI)</t>
   </si>
   <si>
+    <t>NOSP. 11/04/24. PARTE 1750109659 V4 STACKER: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
     <t>NOWIP. 10/04/24. PARTE 1750126457 RM3 REEL STORAGE: SIN SALDO EN WIP.  (MINIACI)</t>
   </si>
   <si>
     <t>NOSP. 11/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
-    <t>NOSP. 16/04/24. PARTE 1750188523 CCDM CHASIS + 1750155446 CCDM AMPLIFIER: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750187030        REJECT TRANSPORT 3 CCDM DISPONIBLE EN STOCK". (MINIACI)</t>
+    <t>RC. 18/04/2024 PARTE 1750222982 SHUTTER LITE DC MOTOR ASSY RL A ESPERA DE REPARACION (MAITLAND)</t>
   </si>
   <si>
     <t>NOSP. 16/04/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
-    <t>NOSP. 15/04/24. PARTE 1750109659 V4 STACKER: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750053977 CLAMP DISPONIBLE EN STOCK ". (MINIACI)</t>
-  </si>
-  <si>
     <t>NOSP. 16/04/24. PARTE 1750109659 V4 STACKER: SIN SPARE PARTS PARA REPARACIÓN.  --  "PARTE 1750053977 V4 CLAMP DISPONIBLE". (MINIACI)</t>
   </si>
   <si>
-    <t>NOWIP. 16/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SALDO EN WIP.  --  "TRABAS DE GAVETAS DISPONIBLES". (MINIACI)</t>
-  </si>
-  <si>
     <t>NOSP. 11/04/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
@@ -903,15 +887,10 @@
     <t>NOSP. 15/04/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
-    <t>STOCK. 16/04/2024. 
-GUIA Guía 19702 CONFIRMADO.REPUESTO EN ZONA.
-Ya está en Luke (FRETES)</t>
-  </si>
-  <si>
-    <t>49229503000A</t>
-  </si>
-  <si>
-    <t>49233126000A</t>
+    <t>SUP.18/4/2024 A LA ESPERA DE CONFIRMACIÓN DE SOLICITUD DEL TÉCNICO (CORREA)</t>
+  </si>
+  <si>
+    <t>BIO. 18/4/24. PENDIENTE POR BIOMETRICO (SORIANO)</t>
   </si>
   <si>
     <t>NOSP. 17/04/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
@@ -920,16 +899,13 @@
     <t>NOWIP. 16/04/24. PARTE 1750214647 RM3 TRANSFER UNIT SAFE + 1750263341 RM3 TRANSPORT UNIT ESCROW: SIN SALDO EN WIP.  --  "1750101956        dispenser module VM3 DISPONIBLE EN STOCK". (MINIACI)</t>
   </si>
   <si>
-    <t>CBA.NOWIP.1/4/2024. PARTE 1750173205	CARD READER CHD V2CU STANDARD:SIN SALDO EN WIP. SE SOLICITA A CABA. (JIMENEZ)</t>
-  </si>
-  <si>
     <t>NOSP. 17/04/24. PARTE 1750248000 RM3 IO COLLECTOR + 1750220330 RM3 IO TRAY: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
     <t>NOSP. 16/04/24. PARTE 1750248000 RM3 IO COLLECTOR + 1750220330 RM3 IO TRAY: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
-    <t>NOSP. 16/04/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750110044        Journal Printer NP06 DISPONIBLE EN STOCK ". (MINIACI)</t>
+    <t>NOWIP. 18/04/24. PARTE 1750065875 CCDM SAFETY SWITCH: SIN SALDO EN WIP. (MINIACI)</t>
   </si>
   <si>
     <t>BIO.16/4/2024 TICKET PENDIENTE POR BIOMETRICO (CORREA)</t>
@@ -938,12 +914,12 @@
     <t>49204013000E</t>
   </si>
   <si>
+    <t>NOWIP. 18/04/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
     <t>NOSP. 17/04/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
-    <t>CBA.NOWIP.1/4/2024. PARTE 1750173205-35	V2CU SMART CARD READER MAGNETIC HICO:SIN SALDO EN WIP. SE SOLICITA A CABA. (JIMENEZ)</t>
-  </si>
-  <si>
     <t>NOWIP. 17/04/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SALDO WN WIP. (MINIACI)</t>
   </si>
   <si>
@@ -962,6 +938,9 @@
     <t>NOSP. 16/04/24. PARTE 1750092824 DEPÓSITO DE SOBRES PROCASH: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
+    <t>RC. 18/4/24. LECTORA 1750105988 A ESPERA DE REPARACION (SORIANO)</t>
+  </si>
+  <si>
     <t>NOSP. 18/04/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
@@ -974,21 +953,24 @@
     <t>ETR. 17/04/24. PARTE S/N "RIELES DE DEPÓSITO DE CHEQUES - OPTEVA 868": EN REPARACIÓN. ETR: 22/04/24. (MINIACI)</t>
   </si>
   <si>
-    <t>49233158000A</t>
-  </si>
-  <si>
     <t>NOSP. 16/04/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
     <t>NOWIP. 16/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SALDO EN WIP.  --  "1750200541        Distributor Module CRS DISPONIBLE EN STOCK". (MINIACI)</t>
   </si>
   <si>
+    <t>RC. 18/04/2024 PARTE 49208102003M CCA DISPENSER A ESPERA DE REPARACION (MAITLAND)</t>
+  </si>
+  <si>
     <t>29011535003A</t>
   </si>
   <si>
     <t>NOSP. 17/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
+    <t>NOSP. 18/04/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN.  --  "PARTE 1750256247 TP 27 + 175010195 VM3 DISPENSER MODULE DISPONIBLE ". (MINIACI)</t>
+  </si>
+  <si>
     <t>NOSP. 17/04/24.PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
@@ -1001,7 +983,7 @@
     <t>NOSP. 17/04/24. PARTE 1750126457 RM3 REEL STORAGE: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
-    <t>NOSP. 17/04/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750069713 Sp head fixture printer DISPONIBLE EN STOCK". (MINIACI)</t>
+    <t>STOCK. 17/4/24. PARTE 49211433000A STACKER AFD + 49211435000A TRANSPORT 720MM. DISPONIBLE PARA SU DESPACHO. (ALEGRE)</t>
   </si>
   <si>
     <t>NOSP. 17/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750289153        CENTRALIZATION UNIT UPPER II DISPONIBLE EN STOCK". (MINIACI)</t>
@@ -1013,44 +995,86 @@
     <t>NOSP. 17/04/24. PARTE 1750214647 RM3 TRANSFER UNIT SAFE: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750200541 DISTRIBUTOR MODULE CRS DISPONIBLEN STOCK ". (MINIACI)</t>
   </si>
   <si>
-    <t>STOCK.17/4/2024. 
-GUIA 044 30396262 CONFIRMADO.REPUESTO EN ZONA.
-Ya está disponible (CORREA)</t>
-  </si>
-  <si>
-    <t>49233199177A</t>
-  </si>
-  <si>
     <t>NOSP. 17/04/24.PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
-    <t>CBA.RC.17/4/24. PARTE 1750109641	DOUBLE EXTRACTOR UNIT MDMS CMD V4+1750109615 DOUBLE EXTRACTOR UNIT CMD V4
-:EN ESPERA DE REPARACIÓN. ETA:22/4/24 (JIMENEZ)</t>
-  </si>
-  <si>
-    <t>49204013000D</t>
-  </si>
-  <si>
     <t>NOSP. 17/04/24.PARTE 1750109659 V4 STACKER: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
     <t>NOWIP. 18/04/24. PARTE 1750248000 RM3 IO COLLECTOR + 1750220330 RM3 IO TRAY: SIN SALDO EN WIP. (MINIACI)</t>
   </si>
   <si>
-    <t>49233165000A</t>
-  </si>
-  <si>
-    <t>CBA.NOWIP.1/4/2024. PARTE 1750208511 Card reader CHD DIP Hybrid ICM300-2:SIN SALDO EN WIP. SE SOLICITA A CABA. (JIMENEZ)</t>
+    <t>NOSP. 18/04/24. PARTE 1750092824 DEPÓSITO DE SOBRES PROCASH: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
     <t>SUP. 17/4/24. A ESPERA DE CONFIRMACION DE NUMERO DE PARTE CORRECTO. (SORIANO)</t>
   </si>
   <si>
+    <t>NOSP. 18/04/24. PARTE 1750248000 RM3 IO COLLECTOR + 1750220330 RM3 IO TRAY: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>RC.18/4/2024 1750055175	Deposit Transport EN ESPERA DE REPARACION (CORREA)</t>
+  </si>
+  <si>
     <t>SV104969000H</t>
+  </si>
+  <si>
+    <t>SUP 18/04/2024. A LA ESPERA DEL NUMERO DE PARTE CORRESPONDIENTE (FRETES)</t>
+  </si>
+  <si>
+    <t>RC. 19/4/24. PARTE 1750188523 CHASSIS 3 CCDM. EN ESPERA DE REPARACION. (ALEGRE)</t>
+  </si>
+  <si>
+    <t>NOSP. 18/04/24. PARTE 1750188546 DEPÓSITO DE SOBRES CINEO: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>MACRO</t>
   </si>
   <si>
     <t>CBA.RC.18/4/24. PARTE 1750109641	DOUBLE EXTRACTOR UNIT MDMS CMD V4¿+}1750109615	DOUBLE EXTRACTOR UNIT CMD V4
 :EN ESPERA DE REPARACIÓN. ETA:22/4/24 (JIMENEZ)</t>
+  </si>
+  <si>
+    <t>RC. 18/4/24. STACKER CSR 1750109659 A ESPERA DE REPARACION, EXTRACTOR 1750109615 DISPONIBLE (SORIANO)</t>
+  </si>
+  <si>
+    <t>NOSP. 18/04/24. PARTE 1750109659 V4 STACKER: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 18/04/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN.  --  " 1750256247        RECEIPT PRINTER TP27 DISPONIBLE EN EXPEDICION ". (MINIACI)</t>
+  </si>
+  <si>
+    <t>49229504000A</t>
+  </si>
+  <si>
+    <t>CBA.NOWIP.19/4/2024. PARTE 49229504000A	 ECRM,ET,RL:SIN SALDO EN WIP. SE SOLICITA A CABA. (JIMENEZ)</t>
+  </si>
+  <si>
+    <t>CBA.RC.18/4/24. PARTE 1750053690	SHUTTER CMD V4 HORIZONTAL RL MONT :EN ESPERA DE REPARACIÓN. ETA:22/4/24 (JIMENEZ)</t>
+  </si>
+  <si>
+    <t>STOCK. 18/4/24. CHASIS 1750188523 A ESPERA DE REPARACION (SORIANO)</t>
+  </si>
+  <si>
+    <t>CBA.NOWIP.19/4/2024. PARTE 1750109615	DOUBLE EXTRACTOR UNIT CMD V4 (x2):SIN SALDO EN WIP. SE SOLICITA A CABA. (JIMENEZ)</t>
+  </si>
+  <si>
+    <t>PEPP5000</t>
+  </si>
+  <si>
+    <t>49233151000A</t>
+  </si>
+  <si>
+    <t>CBA.NOWIP.19/4/2024. PARTE 49233151000A ASSY,UPR XPRT FR,TTW (UTF):SIN SALDO EN WIP. SE SOLICITA A CABA. (JIMENEZ)</t>
+  </si>
+  <si>
+    <t>NOSP. 18/04/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>STOCK.18/4/2024 REPUESTO SE DESPACHA DESDE NODO TRELEW (CORREA)</t>
+  </si>
+  <si>
+    <t>RC. 19/4/24. LECTORA 1750173205 A ESPERA DE REPARACION (SORIANO)</t>
   </si>
 </sst>
 </file>
@@ -1414,17 +1438,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D577"/>
+  <dimension ref="A1:D564"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="194.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2595,7 +2619,7 @@
         <v>44</v>
       </c>
       <c r="B84">
-        <v>7747548</v>
+        <v>7751039</v>
       </c>
       <c r="C84" s="2">
         <v>1750105988</v>
@@ -2609,10 +2633,10 @@
         <v>44</v>
       </c>
       <c r="B85">
-        <v>7747548</v>
+        <v>7751039</v>
       </c>
       <c r="C85" s="2">
-        <v>1750109659</v>
+        <v>1750109615</v>
       </c>
       <c r="D85" t="s">
         <v>74</v>
@@ -2620,13 +2644,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B86">
-        <v>7751039</v>
+        <v>7756487</v>
       </c>
       <c r="C86" s="2">
-        <v>1750105988</v>
+        <v>1750220022</v>
       </c>
       <c r="D86" t="s">
         <v>75</v>
@@ -2634,13 +2658,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B87">
-        <v>7751039</v>
+        <v>7756487</v>
       </c>
       <c r="C87" s="2">
-        <v>1750109615</v>
+        <v>1750220000</v>
       </c>
       <c r="D87" t="s">
         <v>75</v>
@@ -2654,10 +2678,10 @@
         <v>7756487</v>
       </c>
       <c r="C88" s="2">
-        <v>1750220022</v>
+        <v>1750126457</v>
       </c>
       <c r="D88" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -2668,21 +2692,21 @@
         <v>7756487</v>
       </c>
       <c r="C89" s="2">
-        <v>1750220000</v>
+        <v>1750214647</v>
       </c>
       <c r="D89" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="B90">
-        <v>7756487</v>
-      </c>
-      <c r="C90" s="2">
-        <v>1750126457</v>
+        <v>7771880</v>
+      </c>
+      <c r="C90" t="s">
+        <v>46</v>
       </c>
       <c r="D90" t="s">
         <v>76</v>
@@ -2690,13 +2714,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="B91">
-        <v>7756487</v>
-      </c>
-      <c r="C91" s="2">
-        <v>1750214647</v>
+        <v>7771880</v>
+      </c>
+      <c r="C91" t="s">
+        <v>34</v>
       </c>
       <c r="D91" t="s">
         <v>76</v>
@@ -2704,13 +2728,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B92">
-        <v>7771880</v>
+        <v>7774323</v>
       </c>
       <c r="C92" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D92" t="s">
         <v>77</v>
@@ -2718,13 +2742,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B93">
-        <v>7771880</v>
+        <v>7774323</v>
       </c>
       <c r="C93" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="D93" t="s">
         <v>77</v>
@@ -2735,10 +2759,10 @@
         <v>44</v>
       </c>
       <c r="B94">
-        <v>7774323</v>
-      </c>
-      <c r="C94" t="s">
-        <v>32</v>
+        <v>7784634</v>
+      </c>
+      <c r="C94" s="2">
+        <v>1750053977</v>
       </c>
       <c r="D94" t="s">
         <v>78</v>
@@ -2749,10 +2773,10 @@
         <v>44</v>
       </c>
       <c r="B95">
-        <v>7774323</v>
-      </c>
-      <c r="C95" t="s">
-        <v>5</v>
+        <v>7784634</v>
+      </c>
+      <c r="C95" s="2">
+        <v>1750109658</v>
       </c>
       <c r="D95" t="s">
         <v>78</v>
@@ -2763,10 +2787,10 @@
         <v>44</v>
       </c>
       <c r="B96">
-        <v>7784634</v>
-      </c>
-      <c r="C96" s="2">
-        <v>1750053977</v>
+        <v>7789499</v>
+      </c>
+      <c r="C96" t="s">
+        <v>62</v>
       </c>
       <c r="D96" t="s">
         <v>79</v>
@@ -2777,10 +2801,10 @@
         <v>44</v>
       </c>
       <c r="B97">
-        <v>7784634</v>
-      </c>
-      <c r="C97" s="2">
-        <v>1750109658</v>
+        <v>7789499</v>
+      </c>
+      <c r="C97" t="s">
+        <v>80</v>
       </c>
       <c r="D97" t="s">
         <v>79</v>
@@ -2788,30 +2812,30 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="B98">
-        <v>7789499</v>
+        <v>7789891</v>
       </c>
       <c r="C98" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="D98" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="B99">
-        <v>7789499</v>
+        <v>7789891</v>
       </c>
       <c r="C99" t="s">
+        <v>5</v>
+      </c>
+      <c r="D99" t="s">
         <v>81</v>
-      </c>
-      <c r="D99" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -2819,13 +2843,13 @@
         <v>4</v>
       </c>
       <c r="B100">
-        <v>7789891</v>
+        <v>7790497</v>
       </c>
       <c r="C100" t="s">
         <v>32</v>
       </c>
       <c r="D100" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -2833,108 +2857,108 @@
         <v>4</v>
       </c>
       <c r="B101">
-        <v>7789891</v>
+        <v>7790497</v>
       </c>
       <c r="C101" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D101" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="B102">
-        <v>7790497</v>
-      </c>
-      <c r="C102" t="s">
-        <v>32</v>
+        <v>7792025</v>
+      </c>
+      <c r="C102" s="2">
+        <v>1750215294</v>
       </c>
       <c r="D102" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="B103">
-        <v>7790497</v>
-      </c>
-      <c r="C103" t="s">
-        <v>12</v>
+        <v>7792025</v>
+      </c>
+      <c r="C103" s="2">
+        <v>1750215295</v>
       </c>
       <c r="D103" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="B104">
-        <v>7792025</v>
+        <v>7792335</v>
       </c>
       <c r="C104" s="2">
-        <v>1750215294</v>
+        <v>1750289153</v>
       </c>
       <c r="D104" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="B105">
-        <v>7792025</v>
+        <v>7797143</v>
       </c>
       <c r="C105" s="2">
-        <v>1750215295</v>
+        <v>1750177464</v>
       </c>
       <c r="D105" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="B106">
-        <v>7792335</v>
+        <v>7797814</v>
       </c>
       <c r="C106" s="2">
-        <v>1750289153</v>
+        <v>1750215294</v>
       </c>
       <c r="D106" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="B107">
-        <v>7797143</v>
+        <v>7798663</v>
       </c>
       <c r="C107" s="2">
-        <v>1750177464</v>
+        <v>1750109659</v>
       </c>
       <c r="D107" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="B108">
-        <v>7797814</v>
+        <v>7798663</v>
       </c>
       <c r="C108" s="2">
-        <v>1750215294</v>
+        <v>1750053977</v>
       </c>
       <c r="D108" t="s">
         <v>84</v>
@@ -2948,108 +2972,108 @@
         <v>7798663</v>
       </c>
       <c r="C109" s="2">
-        <v>1750109659</v>
+        <v>1750105988</v>
       </c>
       <c r="D109" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="B110">
-        <v>7798663</v>
+        <v>7800803</v>
       </c>
       <c r="C110" s="2">
-        <v>1750053977</v>
+        <v>1750109615</v>
       </c>
       <c r="D110" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="B111">
-        <v>7798663</v>
+        <v>7802611</v>
       </c>
       <c r="C111" s="2">
-        <v>1750105988</v>
+        <v>1750053977</v>
       </c>
       <c r="D111" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="B112">
-        <v>7800803</v>
-      </c>
-      <c r="C112" s="2">
-        <v>1750109615</v>
+        <v>7802993</v>
+      </c>
+      <c r="C112" t="s">
+        <v>5</v>
       </c>
       <c r="D112" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="B113">
-        <v>7802611</v>
-      </c>
-      <c r="C113" s="2">
-        <v>1750053977</v>
+        <v>7803005</v>
+      </c>
+      <c r="C113" t="s">
+        <v>5</v>
       </c>
       <c r="D113" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="B114">
-        <v>7802993</v>
-      </c>
-      <c r="C114" t="s">
-        <v>5</v>
+        <v>7803677</v>
+      </c>
+      <c r="C114" s="2">
+        <v>1750109658</v>
       </c>
       <c r="D114" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="B115">
-        <v>7803005</v>
-      </c>
-      <c r="C115" t="s">
-        <v>5</v>
+        <v>7803677</v>
+      </c>
+      <c r="C115" s="2">
+        <v>1750109615</v>
       </c>
       <c r="D115" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="B116">
-        <v>7803677</v>
+        <v>7804016</v>
       </c>
       <c r="C116" s="2">
-        <v>1750109658</v>
+        <v>1750188546</v>
       </c>
       <c r="D116" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -3057,10 +3081,10 @@
         <v>71</v>
       </c>
       <c r="B117">
-        <v>7803677</v>
+        <v>7806399</v>
       </c>
       <c r="C117" s="2">
-        <v>1750109615</v>
+        <v>1750110043</v>
       </c>
       <c r="D117" t="s">
         <v>72</v>
@@ -3068,16 +3092,16 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B118">
-        <v>7804016</v>
-      </c>
-      <c r="C118" s="2">
-        <v>1750188546</v>
+        <v>7806538</v>
+      </c>
+      <c r="C118" t="s">
+        <v>87</v>
       </c>
       <c r="D118" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -3085,10 +3109,10 @@
         <v>71</v>
       </c>
       <c r="B119">
-        <v>7806399</v>
+        <v>7808461</v>
       </c>
       <c r="C119" s="2">
-        <v>1750110043</v>
+        <v>1750109659</v>
       </c>
       <c r="D119" t="s">
         <v>72</v>
@@ -3096,13 +3120,13 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B120">
-        <v>7806538</v>
-      </c>
-      <c r="C120" t="s">
-        <v>88</v>
+        <v>7814392</v>
+      </c>
+      <c r="C120" s="2">
+        <v>1750189650</v>
       </c>
       <c r="D120" t="s">
         <v>89</v>
@@ -3110,27 +3134,27 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="B121">
-        <v>7808461</v>
+        <v>7814392</v>
       </c>
       <c r="C121" s="2">
-        <v>1750109659</v>
+        <v>1750215295</v>
       </c>
       <c r="D121" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="B122">
-        <v>7814392</v>
+        <v>7814892</v>
       </c>
       <c r="C122" s="2">
-        <v>1750189650</v>
+        <v>1750109615</v>
       </c>
       <c r="D122" t="s">
         <v>90</v>
@@ -3138,13 +3162,13 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="B123">
-        <v>7814392</v>
+        <v>7814892</v>
       </c>
       <c r="C123" s="2">
-        <v>1750215295</v>
+        <v>1750044668</v>
       </c>
       <c r="D123" t="s">
         <v>90</v>
@@ -3152,13 +3176,13 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="B124">
-        <v>7814892</v>
+        <v>7816836</v>
       </c>
       <c r="C124" s="2">
-        <v>1750109615</v>
+        <v>1750200435</v>
       </c>
       <c r="D124" t="s">
         <v>91</v>
@@ -3166,13 +3190,13 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="B125">
-        <v>7814892</v>
+        <v>7816836</v>
       </c>
       <c r="C125" s="2">
-        <v>1750044668</v>
+        <v>1750220330</v>
       </c>
       <c r="D125" t="s">
         <v>91</v>
@@ -3180,13 +3204,13 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B126">
-        <v>7816836</v>
+        <v>7817410</v>
       </c>
       <c r="C126" s="2">
-        <v>1750200435</v>
+        <v>1750105988</v>
       </c>
       <c r="D126" t="s">
         <v>92</v>
@@ -3194,13 +3218,13 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B127">
-        <v>7816836</v>
+        <v>7817410</v>
       </c>
       <c r="C127" s="2">
-        <v>1750220330</v>
+        <v>1750109641</v>
       </c>
       <c r="D127" t="s">
         <v>92</v>
@@ -3208,30 +3232,30 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="B128">
-        <v>7817410</v>
+        <v>7817629</v>
       </c>
       <c r="C128" s="2">
-        <v>1750105988</v>
+        <v>1750053977</v>
       </c>
       <c r="D128" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="B129">
-        <v>7817410</v>
+        <v>7817670</v>
       </c>
       <c r="C129" s="2">
-        <v>1750109641</v>
+        <v>1750109615</v>
       </c>
       <c r="D129" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
@@ -3239,10 +3263,10 @@
         <v>71</v>
       </c>
       <c r="B130">
-        <v>7817629</v>
-      </c>
-      <c r="C130" s="2">
-        <v>1750053977</v>
+        <v>7820507</v>
+      </c>
+      <c r="C130" t="s">
+        <v>93</v>
       </c>
       <c r="D130" t="s">
         <v>72</v>
@@ -3253,10 +3277,10 @@
         <v>71</v>
       </c>
       <c r="B131">
-        <v>7817670</v>
+        <v>7820527</v>
       </c>
       <c r="C131" s="2">
-        <v>1750109615</v>
+        <v>1750344858</v>
       </c>
       <c r="D131" t="s">
         <v>72</v>
@@ -3267,10 +3291,10 @@
         <v>71</v>
       </c>
       <c r="B132">
-        <v>7820507</v>
-      </c>
-      <c r="C132" t="s">
-        <v>94</v>
+        <v>7822042</v>
+      </c>
+      <c r="C132" s="2">
+        <v>1750159971</v>
       </c>
       <c r="D132" t="s">
         <v>72</v>
@@ -3278,16 +3302,16 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="B133">
-        <v>7820527</v>
-      </c>
-      <c r="C133" s="2">
-        <v>1750344858</v>
+        <v>7823382</v>
+      </c>
+      <c r="C133" t="s">
+        <v>46</v>
       </c>
       <c r="D133" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
@@ -3295,10 +3319,10 @@
         <v>71</v>
       </c>
       <c r="B134">
-        <v>7822042</v>
-      </c>
-      <c r="C134" s="2">
-        <v>1750159971</v>
+        <v>7824357</v>
+      </c>
+      <c r="C134" t="s">
+        <v>95</v>
       </c>
       <c r="D134" t="s">
         <v>72</v>
@@ -3306,16 +3330,16 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="B135">
-        <v>7823382</v>
-      </c>
-      <c r="C135" t="s">
-        <v>46</v>
+        <v>7824386</v>
+      </c>
+      <c r="C135" s="2">
+        <v>1750053977</v>
       </c>
       <c r="D135" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
@@ -3323,10 +3347,10 @@
         <v>71</v>
       </c>
       <c r="B136">
-        <v>7824357</v>
-      </c>
-      <c r="C136" t="s">
-        <v>96</v>
+        <v>7832871</v>
+      </c>
+      <c r="C136" s="2">
+        <v>1750105988</v>
       </c>
       <c r="D136" t="s">
         <v>72</v>
@@ -3334,41 +3358,41 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="B137">
-        <v>7824386</v>
-      </c>
-      <c r="C137" s="2">
-        <v>1750053977</v>
+        <v>7833234</v>
+      </c>
+      <c r="C137" t="s">
+        <v>96</v>
       </c>
       <c r="D137" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="B138">
-        <v>7832871</v>
+        <v>7833667</v>
       </c>
       <c r="C138" s="2">
-        <v>1750105988</v>
+        <v>1750215295</v>
       </c>
       <c r="D138" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="B139">
-        <v>7833234</v>
-      </c>
-      <c r="C139" t="s">
-        <v>97</v>
+        <v>7833667</v>
+      </c>
+      <c r="C139" s="2">
+        <v>1750110044</v>
       </c>
       <c r="D139" t="s">
         <v>98</v>
@@ -3376,44 +3400,44 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="B140">
-        <v>7833667</v>
-      </c>
-      <c r="C140" s="2">
-        <v>1750215295</v>
+        <v>7834063</v>
+      </c>
+      <c r="C140" t="s">
+        <v>99</v>
       </c>
       <c r="D140" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B141">
-        <v>7833667</v>
-      </c>
-      <c r="C141" s="2">
-        <v>1750110044</v>
+        <v>7834354</v>
+      </c>
+      <c r="C141" t="s">
+        <v>100</v>
       </c>
       <c r="D141" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="B142">
-        <v>7834063</v>
-      </c>
-      <c r="C142" t="s">
-        <v>100</v>
+        <v>7835403</v>
+      </c>
+      <c r="C142" s="2">
+        <v>1750101952</v>
       </c>
       <c r="D142" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
@@ -3421,10 +3445,10 @@
         <v>44</v>
       </c>
       <c r="B143">
-        <v>7834354</v>
-      </c>
-      <c r="C143" t="s">
-        <v>101</v>
+        <v>7835403</v>
+      </c>
+      <c r="C143" s="2">
+        <v>1750155446</v>
       </c>
       <c r="D143" t="s">
         <v>102</v>
@@ -3438,21 +3462,21 @@
         <v>7835403</v>
       </c>
       <c r="C144" s="2">
-        <v>1750101952</v>
+        <v>1750188523</v>
       </c>
       <c r="D144" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B145">
-        <v>7835403</v>
-      </c>
-      <c r="C145" s="2">
-        <v>1750155446</v>
+        <v>7836685</v>
+      </c>
+      <c r="C145" t="s">
+        <v>32</v>
       </c>
       <c r="D145" t="s">
         <v>103</v>
@@ -3460,13 +3484,13 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B146">
-        <v>7835403</v>
-      </c>
-      <c r="C146" s="2">
-        <v>1750188523</v>
+        <v>7836685</v>
+      </c>
+      <c r="C146" t="s">
+        <v>34</v>
       </c>
       <c r="D146" t="s">
         <v>103</v>
@@ -3480,10 +3504,10 @@
         <v>7836685</v>
       </c>
       <c r="C147" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="D147" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
@@ -3494,21 +3518,21 @@
         <v>7836685</v>
       </c>
       <c r="C148" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D148" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B149">
-        <v>7836685</v>
-      </c>
-      <c r="C149" t="s">
-        <v>5</v>
+        <v>7837095</v>
+      </c>
+      <c r="C149" s="2">
+        <v>1750109658</v>
       </c>
       <c r="D149" t="s">
         <v>104</v>
@@ -3516,27 +3540,27 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="B150">
-        <v>7836685</v>
-      </c>
-      <c r="C150" t="s">
-        <v>12</v>
+        <v>7843526</v>
+      </c>
+      <c r="C150" s="2">
+        <v>1750200435</v>
       </c>
       <c r="D150" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B151">
-        <v>7837095</v>
+        <v>7843526</v>
       </c>
       <c r="C151" s="2">
-        <v>1750109658</v>
+        <v>1750248000</v>
       </c>
       <c r="D151" t="s">
         <v>105</v>
@@ -3544,41 +3568,41 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="B152">
-        <v>7843526</v>
-      </c>
-      <c r="C152" s="2">
-        <v>1750200435</v>
+        <v>7846573</v>
+      </c>
+      <c r="C152" t="s">
+        <v>106</v>
       </c>
       <c r="D152" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="B153">
-        <v>7843526</v>
+        <v>7846685</v>
       </c>
       <c r="C153" s="2">
-        <v>1750248000</v>
+        <v>1750101956</v>
       </c>
       <c r="D153" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B154">
-        <v>7845447</v>
+        <v>7848212</v>
       </c>
       <c r="C154" s="2">
-        <v>1750109659</v>
+        <v>1750204435</v>
       </c>
       <c r="D154" t="s">
         <v>107</v>
@@ -3586,16 +3610,16 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="B155">
-        <v>7846573</v>
-      </c>
-      <c r="C155" t="s">
+        <v>7848308</v>
+      </c>
+      <c r="C155" s="2">
+        <v>1750154145</v>
+      </c>
+      <c r="D155" t="s">
         <v>108</v>
-      </c>
-      <c r="D155" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
@@ -3603,10 +3627,10 @@
         <v>71</v>
       </c>
       <c r="B156">
-        <v>7846685</v>
+        <v>7850263</v>
       </c>
       <c r="C156" s="2">
-        <v>1750101956</v>
+        <v>1750053977</v>
       </c>
       <c r="D156" t="s">
         <v>72</v>
@@ -3614,13 +3638,13 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B157">
-        <v>7848212</v>
-      </c>
-      <c r="C157" s="2">
-        <v>1750204435</v>
+        <v>7850269</v>
+      </c>
+      <c r="C157" t="s">
+        <v>18</v>
       </c>
       <c r="D157" t="s">
         <v>109</v>
@@ -3631,10 +3655,10 @@
         <v>44</v>
       </c>
       <c r="B158">
-        <v>7848308</v>
+        <v>7850612</v>
       </c>
       <c r="C158" s="2">
-        <v>1750154145</v>
+        <v>1750109659</v>
       </c>
       <c r="D158" t="s">
         <v>110</v>
@@ -3642,41 +3666,41 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="B159">
-        <v>7850263</v>
-      </c>
-      <c r="C159" s="2">
-        <v>1750053977</v>
+        <v>7853128</v>
+      </c>
+      <c r="C159" t="s">
+        <v>18</v>
       </c>
       <c r="D159" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B160">
-        <v>7850269</v>
-      </c>
-      <c r="C160" t="s">
-        <v>18</v>
+        <v>7854056</v>
+      </c>
+      <c r="C160" s="2">
+        <v>1750215294</v>
       </c>
       <c r="D160" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B161">
-        <v>7850612</v>
+        <v>7854056</v>
       </c>
       <c r="C161" s="2">
-        <v>1750109659</v>
+        <v>1750215295</v>
       </c>
       <c r="D161" t="s">
         <v>112</v>
@@ -3684,69 +3708,69 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B162">
-        <v>7853128</v>
-      </c>
-      <c r="C162" t="s">
-        <v>18</v>
+        <v>7855166</v>
+      </c>
+      <c r="C162" s="2">
+        <v>1750109659</v>
       </c>
       <c r="D162" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="B163">
-        <v>7854056</v>
+        <v>7858514</v>
       </c>
       <c r="C163" s="2">
-        <v>1750215294</v>
+        <v>1750193275</v>
       </c>
       <c r="D163" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="B164">
-        <v>7854056</v>
+        <v>7858514</v>
       </c>
       <c r="C164" s="2">
-        <v>1750215295</v>
+        <v>1750133348</v>
       </c>
       <c r="D164" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="B165">
-        <v>7855166</v>
+        <v>7858757</v>
       </c>
       <c r="C165" s="2">
-        <v>1750109659</v>
+        <v>1750199149</v>
       </c>
       <c r="D165" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B166">
-        <v>7858514</v>
-      </c>
-      <c r="C166" s="2">
-        <v>1750193275</v>
+        <v>7859082</v>
+      </c>
+      <c r="C166" t="s">
+        <v>114</v>
       </c>
       <c r="D166" t="s">
         <v>115</v>
@@ -3754,30 +3778,30 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B167">
-        <v>7858514</v>
+        <v>7859146</v>
       </c>
       <c r="C167" s="2">
-        <v>1750133348</v>
+        <v>1750053977</v>
       </c>
       <c r="D167" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="B168">
-        <v>7858757</v>
+        <v>7859146</v>
       </c>
       <c r="C168" s="2">
-        <v>1750199149</v>
+        <v>1750109659</v>
       </c>
       <c r="D168" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
@@ -3785,41 +3809,41 @@
         <v>44</v>
       </c>
       <c r="B169">
-        <v>7859082</v>
-      </c>
-      <c r="C169" t="s">
+        <v>7859146</v>
+      </c>
+      <c r="C169" s="2">
+        <v>1750256248</v>
+      </c>
+      <c r="D169" t="s">
         <v>116</v>
-      </c>
-      <c r="D169" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="B170">
-        <v>7859146</v>
+        <v>7859726</v>
       </c>
       <c r="C170" s="2">
-        <v>1750053977</v>
+        <v>1750222982</v>
       </c>
       <c r="D170" t="s">
-        <v>118</v>
+        <v>72</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B171">
-        <v>7859146</v>
+        <v>7860248</v>
       </c>
       <c r="C171" s="2">
-        <v>1750109659</v>
+        <v>1750105986</v>
       </c>
       <c r="D171" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
@@ -3827,10 +3851,10 @@
         <v>44</v>
       </c>
       <c r="B172">
-        <v>7859146</v>
+        <v>7860390</v>
       </c>
       <c r="C172" s="2">
-        <v>1750256248</v>
+        <v>1750177464</v>
       </c>
       <c r="D172" t="s">
         <v>118</v>
@@ -3838,30 +3862,30 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="B173">
-        <v>7859726</v>
+        <v>7860390</v>
       </c>
       <c r="C173" s="2">
-        <v>1750222982</v>
+        <v>1750101952</v>
       </c>
       <c r="D173" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B174">
-        <v>7860248</v>
+        <v>7860390</v>
       </c>
       <c r="C174" s="2">
-        <v>1750105986</v>
+        <v>1750053977</v>
       </c>
       <c r="D174" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
@@ -3872,10 +3896,10 @@
         <v>7860390</v>
       </c>
       <c r="C175" s="2">
-        <v>1750177464</v>
+        <v>1750109659</v>
       </c>
       <c r="D175" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
@@ -3883,13 +3907,13 @@
         <v>44</v>
       </c>
       <c r="B176">
-        <v>7860390</v>
-      </c>
-      <c r="C176" s="2">
-        <v>1750101952</v>
+        <v>7863395</v>
+      </c>
+      <c r="C176" t="s">
+        <v>18</v>
       </c>
       <c r="D176" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
@@ -3897,13 +3921,13 @@
         <v>44</v>
       </c>
       <c r="B177">
-        <v>7860390</v>
-      </c>
-      <c r="C177" s="2">
-        <v>1750053977</v>
+        <v>7863795</v>
+      </c>
+      <c r="C177" t="s">
+        <v>18</v>
       </c>
       <c r="D177" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
@@ -3911,10 +3935,10 @@
         <v>44</v>
       </c>
       <c r="B178">
-        <v>7860390</v>
-      </c>
-      <c r="C178" s="2">
-        <v>1750109659</v>
+        <v>7863852</v>
+      </c>
+      <c r="C178" t="s">
+        <v>18</v>
       </c>
       <c r="D178" t="s">
         <v>120</v>
@@ -3922,13 +3946,13 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B179">
-        <v>7863395</v>
-      </c>
-      <c r="C179" t="s">
-        <v>18</v>
+        <v>7866217</v>
+      </c>
+      <c r="C179" s="2">
+        <v>1750174768</v>
       </c>
       <c r="D179" t="s">
         <v>121</v>
@@ -3936,13 +3960,13 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B180">
-        <v>7863795</v>
-      </c>
-      <c r="C180" t="s">
-        <v>18</v>
+        <v>7866217</v>
+      </c>
+      <c r="C180" s="2">
+        <v>1750215295</v>
       </c>
       <c r="D180" t="s">
         <v>121</v>
@@ -3950,41 +3974,41 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B181">
-        <v>7863852</v>
-      </c>
-      <c r="C181" t="s">
-        <v>18</v>
+        <v>7866217</v>
+      </c>
+      <c r="C181" s="2">
+        <v>1750215294</v>
       </c>
       <c r="D181" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="B182">
-        <v>7866217</v>
+        <v>7867214</v>
       </c>
       <c r="C182" s="2">
-        <v>1750174768</v>
+        <v>1750256247</v>
       </c>
       <c r="D182" t="s">
-        <v>123</v>
+        <v>72</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B183">
-        <v>7866217</v>
-      </c>
-      <c r="C183" s="2">
-        <v>1750215295</v>
+        <v>7867607</v>
+      </c>
+      <c r="C183" t="s">
+        <v>122</v>
       </c>
       <c r="D183" t="s">
         <v>123</v>
@@ -3992,30 +4016,30 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B184">
-        <v>7866217</v>
+        <v>7868488</v>
       </c>
       <c r="C184" s="2">
-        <v>1750215294</v>
+        <v>1750100966</v>
       </c>
       <c r="D184" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="B185">
-        <v>7867214</v>
+        <v>7870489</v>
       </c>
       <c r="C185" s="2">
-        <v>1750256247</v>
+        <v>1750109659</v>
       </c>
       <c r="D185" t="s">
-        <v>72</v>
+        <v>125</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
@@ -4023,10 +4047,10 @@
         <v>44</v>
       </c>
       <c r="B186">
-        <v>7867607</v>
-      </c>
-      <c r="C186" t="s">
-        <v>124</v>
+        <v>7870489</v>
+      </c>
+      <c r="C186" s="2">
+        <v>1750053977</v>
       </c>
       <c r="D186" t="s">
         <v>125</v>
@@ -4037,10 +4061,10 @@
         <v>44</v>
       </c>
       <c r="B187">
-        <v>7868488</v>
-      </c>
-      <c r="C187" s="2">
-        <v>1750100966</v>
+        <v>7871860</v>
+      </c>
+      <c r="C187" t="s">
+        <v>80</v>
       </c>
       <c r="D187" t="s">
         <v>126</v>
@@ -4051,13 +4075,13 @@
         <v>44</v>
       </c>
       <c r="B188">
-        <v>7870489</v>
-      </c>
-      <c r="C188" s="2">
-        <v>1750109659</v>
+        <v>7871860</v>
+      </c>
+      <c r="C188" t="s">
+        <v>62</v>
       </c>
       <c r="D188" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
@@ -4065,108 +4089,108 @@
         <v>44</v>
       </c>
       <c r="B189">
-        <v>7870489</v>
-      </c>
-      <c r="C189" s="2">
-        <v>1750053977</v>
+        <v>7871860</v>
+      </c>
+      <c r="C189" t="s">
+        <v>106</v>
       </c>
       <c r="D189" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="B190">
-        <v>7871860</v>
-      </c>
-      <c r="C190" t="s">
-        <v>81</v>
+        <v>7873878</v>
+      </c>
+      <c r="C190" s="2">
+        <v>1750105679</v>
       </c>
       <c r="D190" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="B191">
-        <v>7871860</v>
-      </c>
-      <c r="C191" t="s">
-        <v>62</v>
+        <v>7873878</v>
+      </c>
+      <c r="C191" s="2">
+        <v>1750109658</v>
       </c>
       <c r="D191" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="B192">
-        <v>7871860</v>
-      </c>
-      <c r="C192" t="s">
-        <v>108</v>
+        <v>7878427</v>
+      </c>
+      <c r="C192" s="2">
+        <v>1750214647</v>
       </c>
       <c r="D192" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="B193">
-        <v>7873878</v>
+        <v>7879325</v>
       </c>
       <c r="C193" s="2">
-        <v>1750105679</v>
+        <v>1750059284</v>
       </c>
       <c r="D193" t="s">
-        <v>72</v>
+        <v>127</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="B194">
-        <v>7873878</v>
+        <v>7882705</v>
       </c>
       <c r="C194" s="2">
-        <v>1750109658</v>
+        <v>1750053977</v>
       </c>
       <c r="D194" t="s">
-        <v>72</v>
+        <v>128</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="B195">
-        <v>7878427</v>
+        <v>7882705</v>
       </c>
       <c r="C195" s="2">
-        <v>1750214647</v>
+        <v>1750109659</v>
       </c>
       <c r="D195" t="s">
-        <v>72</v>
+        <v>128</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B196">
-        <v>7879325</v>
+        <v>7882915</v>
       </c>
       <c r="C196" s="2">
-        <v>1750059284</v>
+        <v>1750105988</v>
       </c>
       <c r="D196" t="s">
         <v>129</v>
@@ -4174,13 +4198,13 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B197">
-        <v>7879729</v>
+        <v>7884812</v>
       </c>
       <c r="C197" s="2">
-        <v>1750125260</v>
+        <v>1750109659</v>
       </c>
       <c r="D197" t="s">
         <v>130</v>
@@ -4188,30 +4212,30 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B198">
-        <v>7882705</v>
+        <v>7884812</v>
       </c>
       <c r="C198" s="2">
-        <v>1750053977</v>
+        <v>1750109641</v>
       </c>
       <c r="D198" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="B199">
-        <v>7882705</v>
+        <v>7884952</v>
       </c>
       <c r="C199" s="2">
-        <v>1750109659</v>
+        <v>1750053977</v>
       </c>
       <c r="D199" t="s">
-        <v>131</v>
+        <v>72</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
@@ -4219,13 +4243,13 @@
         <v>10</v>
       </c>
       <c r="B200">
-        <v>7882915</v>
+        <v>7885226</v>
       </c>
       <c r="C200" s="2">
-        <v>1750105988</v>
+        <v>1750105679</v>
       </c>
       <c r="D200" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
@@ -4233,41 +4257,41 @@
         <v>10</v>
       </c>
       <c r="B201">
-        <v>7884812</v>
+        <v>7885226</v>
       </c>
       <c r="C201" s="2">
         <v>1750109659</v>
       </c>
       <c r="D201" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B202">
-        <v>7884812</v>
-      </c>
-      <c r="C202" s="2">
-        <v>1750109641</v>
+        <v>7885396</v>
+      </c>
+      <c r="C202" t="s">
+        <v>62</v>
       </c>
       <c r="D202" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="B203">
-        <v>7884952</v>
+        <v>7885717</v>
       </c>
       <c r="C203" s="2">
-        <v>1750053977</v>
+        <v>1804610970</v>
       </c>
       <c r="D203" t="s">
-        <v>72</v>
+        <v>133</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
@@ -4275,24 +4299,24 @@
         <v>10</v>
       </c>
       <c r="B204">
-        <v>7885226</v>
+        <v>7885717</v>
       </c>
       <c r="C204" s="2">
-        <v>1750105679</v>
+        <v>1770031910</v>
       </c>
       <c r="D204" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="B205">
-        <v>7885226</v>
+        <v>7885866</v>
       </c>
       <c r="C205" s="2">
-        <v>1750109659</v>
+        <v>1750189650</v>
       </c>
       <c r="D205" t="s">
         <v>134</v>
@@ -4300,13 +4324,13 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B206">
-        <v>7885396</v>
-      </c>
-      <c r="C206" t="s">
-        <v>62</v>
+        <v>7887831</v>
+      </c>
+      <c r="C206" s="2">
+        <v>1750215295</v>
       </c>
       <c r="D206" t="s">
         <v>135</v>
@@ -4314,16 +4338,16 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>10</v>
+        <v>136</v>
       </c>
       <c r="B207">
-        <v>7885717</v>
-      </c>
-      <c r="C207" s="2">
-        <v>1804610970</v>
+        <v>7888819</v>
+      </c>
+      <c r="C207" t="s">
+        <v>18</v>
       </c>
       <c r="D207" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
@@ -4331,83 +4355,83 @@
         <v>10</v>
       </c>
       <c r="B208">
-        <v>7885717</v>
+        <v>7888837</v>
       </c>
       <c r="C208" s="2">
-        <v>1770031910</v>
+        <v>1750105988</v>
       </c>
       <c r="D208" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="B209">
-        <v>7885866</v>
-      </c>
-      <c r="C209" s="2">
-        <v>1750189650</v>
+        <v>7889619</v>
+      </c>
+      <c r="C209" t="s">
+        <v>139</v>
       </c>
       <c r="D209" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>138</v>
+        <v>10</v>
       </c>
       <c r="B210">
-        <v>7887648</v>
+        <v>7889973</v>
       </c>
       <c r="C210" s="2">
         <v>1750109659</v>
       </c>
       <c r="D210" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B211">
-        <v>7887831</v>
+        <v>7889973</v>
       </c>
       <c r="C211" s="2">
-        <v>1750215295</v>
+        <v>1750053977</v>
       </c>
       <c r="D211" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="B212">
-        <v>7888300</v>
+        <v>7890266</v>
       </c>
       <c r="C212" s="2">
-        <v>1750109658</v>
+        <v>1750215294</v>
       </c>
       <c r="D212" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>142</v>
+        <v>10</v>
       </c>
       <c r="B213">
-        <v>7888819</v>
+        <v>7890694</v>
       </c>
       <c r="C213" t="s">
-        <v>18</v>
+        <v>143</v>
       </c>
       <c r="D213" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
@@ -4415,10 +4439,10 @@
         <v>10</v>
       </c>
       <c r="B214">
-        <v>7888837</v>
-      </c>
-      <c r="C214" s="2">
-        <v>1750105988</v>
+        <v>7890694</v>
+      </c>
+      <c r="C214" t="s">
+        <v>62</v>
       </c>
       <c r="D214" t="s">
         <v>144</v>
@@ -4426,30 +4450,30 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B215">
-        <v>7889619</v>
-      </c>
-      <c r="C215" t="s">
+        <v>7894612</v>
+      </c>
+      <c r="C215" s="2">
+        <v>1750109641</v>
+      </c>
+      <c r="D215" t="s">
         <v>145</v>
-      </c>
-      <c r="D215" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="B216">
-        <v>7889973</v>
+        <v>7894613</v>
       </c>
       <c r="C216" s="2">
-        <v>1750109659</v>
+        <v>1750261447</v>
       </c>
       <c r="D216" t="s">
-        <v>147</v>
+        <v>72</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
@@ -4457,41 +4481,41 @@
         <v>10</v>
       </c>
       <c r="B217">
-        <v>7889973</v>
+        <v>7895605</v>
       </c>
       <c r="C217" s="2">
-        <v>1750053977</v>
+        <v>1770031910</v>
       </c>
       <c r="D217" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B218">
-        <v>7890266</v>
-      </c>
-      <c r="C218" s="2">
-        <v>1750215294</v>
+        <v>7897120</v>
+      </c>
+      <c r="C218" t="s">
+        <v>63</v>
       </c>
       <c r="D218" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="B219">
-        <v>7890694</v>
-      </c>
-      <c r="C219" t="s">
-        <v>149</v>
+        <v>7897299</v>
+      </c>
+      <c r="C219">
+        <v>1750193275</v>
       </c>
       <c r="D219" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
@@ -4499,13 +4523,13 @@
         <v>10</v>
       </c>
       <c r="B220">
-        <v>7890694</v>
-      </c>
-      <c r="C220" t="s">
-        <v>62</v>
+        <v>7897312</v>
+      </c>
+      <c r="C220" s="2">
+        <v>1750109615</v>
       </c>
       <c r="D220" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
@@ -4513,38 +4537,38 @@
         <v>10</v>
       </c>
       <c r="B221">
-        <v>7894612</v>
+        <v>7897312</v>
       </c>
       <c r="C221" s="2">
         <v>1750109641</v>
       </c>
       <c r="D221" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>71</v>
+        <v>150</v>
       </c>
       <c r="B222">
-        <v>7894613</v>
+        <v>7897435</v>
       </c>
       <c r="C222" s="2">
-        <v>1750261447</v>
+        <v>1770041364</v>
       </c>
       <c r="D222" t="s">
-        <v>72</v>
+        <v>151</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="B223">
-        <v>7895605</v>
-      </c>
-      <c r="C223" s="2">
-        <v>1770031910</v>
+        <v>7897438</v>
+      </c>
+      <c r="C223" t="s">
+        <v>46</v>
       </c>
       <c r="D223" t="s">
         <v>152</v>
@@ -4552,86 +4576,86 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="B224">
-        <v>7897120</v>
-      </c>
-      <c r="C224" t="s">
-        <v>63</v>
+        <v>7897869</v>
+      </c>
+      <c r="C224" s="2">
+        <v>1750261447</v>
       </c>
       <c r="D224" t="s">
-        <v>153</v>
+        <v>72</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B225">
-        <v>7897299</v>
-      </c>
-      <c r="C225" t="s">
-        <v>18</v>
+        <v>7897950</v>
+      </c>
+      <c r="C225" s="2">
+        <v>1750053977</v>
       </c>
       <c r="D225" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B226">
-        <v>7897312</v>
+        <v>7897950</v>
       </c>
       <c r="C226" s="2">
-        <v>1750109615</v>
+        <v>1750109658</v>
       </c>
       <c r="D226" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B227">
-        <v>7897312</v>
+        <v>7897977</v>
       </c>
       <c r="C227" s="2">
-        <v>1750109641</v>
+        <v>1750109658</v>
       </c>
       <c r="D227" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>156</v>
+        <v>44</v>
       </c>
       <c r="B228">
-        <v>7897435</v>
+        <v>7897977</v>
       </c>
       <c r="C228" s="2">
-        <v>1770041364</v>
+        <v>1750256248</v>
       </c>
       <c r="D228" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>156</v>
+        <v>10</v>
       </c>
       <c r="B229">
-        <v>7897438</v>
-      </c>
-      <c r="C229" t="s">
-        <v>46</v>
+        <v>7898416</v>
+      </c>
+      <c r="C229" s="2">
+        <v>1750105988</v>
       </c>
       <c r="D229" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
@@ -4639,10 +4663,10 @@
         <v>71</v>
       </c>
       <c r="B230">
-        <v>7897869</v>
+        <v>7899433</v>
       </c>
       <c r="C230" s="2">
-        <v>1750261447</v>
+        <v>1750208512</v>
       </c>
       <c r="D230" t="s">
         <v>72</v>
@@ -4650,58 +4674,58 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="B231">
-        <v>7897950</v>
-      </c>
-      <c r="C231" s="2">
-        <v>1750053977</v>
+        <v>7900491</v>
+      </c>
+      <c r="C231" t="s">
+        <v>156</v>
       </c>
       <c r="D231" t="s">
-        <v>159</v>
+        <v>72</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="B232">
-        <v>7897950</v>
-      </c>
-      <c r="C232" s="2">
-        <v>1750109658</v>
+        <v>7900491</v>
+      </c>
+      <c r="C232" t="s">
+        <v>157</v>
       </c>
       <c r="D232" t="s">
-        <v>159</v>
+        <v>72</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B233">
-        <v>7897977</v>
+        <v>7901882</v>
       </c>
       <c r="C233" s="2">
-        <v>1750109658</v>
+        <v>1750109659</v>
       </c>
       <c r="D233" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B234">
-        <v>7897977</v>
+        <v>7901882</v>
       </c>
       <c r="C234" s="2">
-        <v>1750256248</v>
+        <v>1750053977</v>
       </c>
       <c r="D234" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
@@ -4709,69 +4733,69 @@
         <v>10</v>
       </c>
       <c r="B235">
-        <v>7898416</v>
+        <v>7901957</v>
       </c>
       <c r="C235" s="2">
-        <v>1750105988</v>
+        <v>1750109659</v>
       </c>
       <c r="D235" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B236">
-        <v>7899432</v>
+        <v>7902050</v>
       </c>
       <c r="C236" s="2">
         <v>1750109659</v>
       </c>
       <c r="D236" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>71</v>
+        <v>160</v>
       </c>
       <c r="B237">
-        <v>7899433</v>
+        <v>7902276</v>
       </c>
       <c r="C237" s="2">
-        <v>1750208512</v>
+        <v>1750053977</v>
       </c>
       <c r="D237" t="s">
-        <v>72</v>
+        <v>161</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>71</v>
+        <v>160</v>
       </c>
       <c r="B238">
-        <v>7900491</v>
-      </c>
-      <c r="C238" t="s">
-        <v>163</v>
+        <v>7902276</v>
+      </c>
+      <c r="C238" s="2">
+        <v>1750109641</v>
       </c>
       <c r="D238" t="s">
-        <v>72</v>
+        <v>161</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="B239">
-        <v>7900491</v>
-      </c>
-      <c r="C239" t="s">
-        <v>164</v>
+        <v>7902511</v>
+      </c>
+      <c r="C239" s="2">
+        <v>1750173205</v>
       </c>
       <c r="D239" t="s">
-        <v>72</v>
+        <v>162</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
@@ -4779,111 +4803,111 @@
         <v>10</v>
       </c>
       <c r="B240">
-        <v>7901882</v>
+        <v>7902699</v>
       </c>
       <c r="C240" s="2">
-        <v>1750109659</v>
+        <v>1750092824</v>
       </c>
       <c r="D240" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B241">
-        <v>7901882</v>
-      </c>
-      <c r="C241" s="2">
-        <v>1750053977</v>
+        <v>7902979</v>
+      </c>
+      <c r="C241" t="s">
+        <v>157</v>
       </c>
       <c r="D241" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B242">
-        <v>7901957</v>
-      </c>
-      <c r="C242" s="2">
-        <v>1750109659</v>
+        <v>7902979</v>
+      </c>
+      <c r="C242" t="s">
+        <v>50</v>
       </c>
       <c r="D242" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B243">
-        <v>7902050</v>
-      </c>
-      <c r="C243" s="2">
-        <v>1750109659</v>
+        <v>7902979</v>
+      </c>
+      <c r="C243" t="s">
+        <v>99</v>
       </c>
       <c r="D243" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>167</v>
+        <v>39</v>
       </c>
       <c r="B244">
-        <v>7902276</v>
+        <v>7904031</v>
       </c>
       <c r="C244" s="2">
         <v>1750053977</v>
       </c>
       <c r="D244" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>167</v>
+        <v>39</v>
       </c>
       <c r="B245">
-        <v>7902276</v>
+        <v>7904031</v>
       </c>
       <c r="C245" s="2">
-        <v>1750109641</v>
+        <v>1750109659</v>
       </c>
       <c r="D245" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="B246">
-        <v>7902699</v>
+        <v>7904305</v>
       </c>
       <c r="C246" s="2">
-        <v>1750092824</v>
+        <v>1750200541</v>
       </c>
       <c r="D246" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B247">
-        <v>7902979</v>
-      </c>
-      <c r="C247" t="s">
-        <v>164</v>
+        <v>7904305</v>
+      </c>
+      <c r="C247" s="2">
+        <v>1750200435</v>
       </c>
       <c r="D247" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
@@ -4891,13 +4915,13 @@
         <v>44</v>
       </c>
       <c r="B248">
-        <v>7902979</v>
-      </c>
-      <c r="C248" t="s">
-        <v>50</v>
+        <v>7905109</v>
+      </c>
+      <c r="C248" s="2">
+        <v>1750169942</v>
       </c>
       <c r="D248" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
@@ -4905,55 +4929,55 @@
         <v>44</v>
       </c>
       <c r="B249">
-        <v>7902979</v>
-      </c>
-      <c r="C249" t="s">
-        <v>100</v>
+        <v>7905109</v>
+      </c>
+      <c r="C249" s="2">
+        <v>1750154145</v>
       </c>
       <c r="D249" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B250">
-        <v>7904031</v>
+        <v>7905109</v>
       </c>
       <c r="C250" s="2">
-        <v>1750053977</v>
+        <v>1750105988</v>
       </c>
       <c r="D250" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="B251">
-        <v>7904031</v>
+        <v>7905388</v>
       </c>
       <c r="C251" s="2">
         <v>1750109659</v>
       </c>
       <c r="D251" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="B252">
-        <v>7904305</v>
+        <v>7905388</v>
       </c>
       <c r="C252" s="2">
-        <v>1750200541</v>
+        <v>1750053977</v>
       </c>
       <c r="D252" t="s">
-        <v>72</v>
+        <v>168</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
@@ -4961,52 +4985,52 @@
         <v>54</v>
       </c>
       <c r="B253">
-        <v>7904305</v>
+        <v>7906715</v>
       </c>
       <c r="C253" s="2">
         <v>1750200435</v>
       </c>
       <c r="D253" t="s">
-        <v>72</v>
+        <v>169</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B254">
-        <v>7905109</v>
+        <v>7908747</v>
       </c>
       <c r="C254" s="2">
-        <v>1750169942</v>
+        <v>1750105988</v>
       </c>
       <c r="D254" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B255">
-        <v>7905109</v>
+        <v>7908798</v>
       </c>
       <c r="C255" s="2">
-        <v>1750154145</v>
+        <v>1750125260</v>
       </c>
       <c r="D255" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B256">
-        <v>7905109</v>
+        <v>7908839</v>
       </c>
       <c r="C256" s="2">
-        <v>1750105988</v>
+        <v>1750109641</v>
       </c>
       <c r="D256" t="s">
         <v>172</v>
@@ -5017,24 +5041,24 @@
         <v>10</v>
       </c>
       <c r="B257">
-        <v>7905388</v>
+        <v>7908839</v>
       </c>
       <c r="C257" s="2">
-        <v>1750109659</v>
+        <v>1750053977</v>
       </c>
       <c r="D257" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="B258">
-        <v>7905388</v>
+        <v>7908959</v>
       </c>
       <c r="C258" s="2">
-        <v>1750053977</v>
+        <v>1750126457</v>
       </c>
       <c r="D258" t="s">
         <v>173</v>
@@ -5045,27 +5069,27 @@
         <v>54</v>
       </c>
       <c r="B259">
-        <v>7906321</v>
+        <v>7908959</v>
       </c>
       <c r="C259" s="2">
-        <v>1750193275</v>
+        <v>1750212682</v>
       </c>
       <c r="D259" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="B260">
-        <v>7906715</v>
+        <v>7909031</v>
       </c>
       <c r="C260" s="2">
-        <v>1750200435</v>
+        <v>1750173205</v>
       </c>
       <c r="D260" t="s">
-        <v>175</v>
+        <v>72</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
@@ -5073,111 +5097,111 @@
         <v>10</v>
       </c>
       <c r="B261">
-        <v>7908747</v>
+        <v>7909108</v>
       </c>
       <c r="C261" s="2">
-        <v>1750105988</v>
+        <v>1750109659</v>
       </c>
       <c r="D261" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B262">
-        <v>7908798</v>
+        <v>7909307</v>
       </c>
       <c r="C262" s="2">
-        <v>1750125260</v>
+        <v>1750188523</v>
       </c>
       <c r="D262" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B263">
-        <v>7908839</v>
+        <v>7909750</v>
       </c>
       <c r="C263" s="2">
-        <v>1750109641</v>
+        <v>1750109659</v>
       </c>
       <c r="D263" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B264">
-        <v>7908839</v>
+        <v>7909750</v>
       </c>
       <c r="C264" s="2">
         <v>1750053977</v>
       </c>
       <c r="D264" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="B265">
-        <v>7908959</v>
+        <v>7910329</v>
       </c>
       <c r="C265" s="2">
-        <v>1750126457</v>
+        <v>1750105988</v>
       </c>
       <c r="D265" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="B266">
-        <v>7908959</v>
+        <v>7910355</v>
       </c>
       <c r="C266" s="2">
-        <v>1750212682</v>
+        <v>1770031910</v>
       </c>
       <c r="D266" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="B267">
-        <v>7909031</v>
+        <v>7911836</v>
       </c>
       <c r="C267" s="2">
-        <v>1750173205</v>
+        <v>1750109641</v>
       </c>
       <c r="D267" t="s">
-        <v>72</v>
+        <v>178</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B268">
-        <v>7909108</v>
+        <v>7911836</v>
       </c>
       <c r="C268" s="2">
-        <v>1750109659</v>
+        <v>1750053977</v>
       </c>
       <c r="D268" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
@@ -5185,66 +5209,66 @@
         <v>44</v>
       </c>
       <c r="B269">
-        <v>7909307</v>
+        <v>7911933</v>
       </c>
       <c r="C269" s="2">
-        <v>1750188523</v>
+        <v>1750109659</v>
       </c>
       <c r="D269" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>44</v>
+        <v>179</v>
       </c>
       <c r="B270">
-        <v>7909750</v>
+        <v>7912013</v>
       </c>
       <c r="C270" s="2">
-        <v>1750109659</v>
+        <v>1750109641</v>
       </c>
       <c r="D270" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B271">
-        <v>7909750</v>
+        <v>7912331</v>
       </c>
       <c r="C271" s="2">
-        <v>1750053977</v>
+        <v>1750105679</v>
       </c>
       <c r="D271" t="s">
-        <v>182</v>
+        <v>72</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B272">
-        <v>7910329</v>
-      </c>
-      <c r="C272" s="2">
-        <v>1750105988</v>
+        <v>7912433</v>
+      </c>
+      <c r="C272" t="s">
+        <v>181</v>
       </c>
       <c r="D272" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="B273">
-        <v>7910355</v>
+        <v>7912437</v>
       </c>
       <c r="C273" s="2">
-        <v>1770031910</v>
+        <v>1770041364</v>
       </c>
       <c r="D273" t="s">
         <v>183</v>
@@ -5255,125 +5279,125 @@
         <v>44</v>
       </c>
       <c r="B274">
-        <v>7911836</v>
+        <v>7912684</v>
       </c>
       <c r="C274" s="2">
-        <v>1750109641</v>
+        <v>1750171419</v>
       </c>
       <c r="D274" t="s">
-        <v>184</v>
+        <v>72</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="B275">
-        <v>7911836</v>
+        <v>7912762</v>
       </c>
       <c r="C275" s="2">
-        <v>1750053977</v>
+        <v>1804610970</v>
       </c>
       <c r="D275" t="s">
-        <v>184</v>
+        <v>72</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="B276">
-        <v>7911933</v>
+        <v>7912762</v>
       </c>
       <c r="C276" s="2">
-        <v>1750109659</v>
+        <v>1770031910</v>
       </c>
       <c r="D276" t="s">
-        <v>171</v>
+        <v>72</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>185</v>
+        <v>54</v>
       </c>
       <c r="B277">
-        <v>7912013</v>
+        <v>7912817</v>
       </c>
       <c r="C277" s="2">
-        <v>1750109641</v>
+        <v>1750200435</v>
       </c>
       <c r="D277" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B278">
-        <v>7912433</v>
-      </c>
-      <c r="C278" t="s">
-        <v>187</v>
+        <v>7912817</v>
+      </c>
+      <c r="C278" s="2">
+        <v>1750288271</v>
       </c>
       <c r="D278" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>156</v>
+        <v>54</v>
       </c>
       <c r="B279">
-        <v>7912437</v>
+        <v>7912817</v>
       </c>
       <c r="C279" s="2">
-        <v>1770041364</v>
+        <v>1750295447</v>
       </c>
       <c r="D279" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="B280">
-        <v>7912762</v>
+        <v>7912856</v>
       </c>
       <c r="C280" s="2">
-        <v>1804610970</v>
+        <v>1750215294</v>
       </c>
       <c r="D280" t="s">
-        <v>72</v>
+        <v>185</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="B281">
-        <v>7912762</v>
+        <v>7913086</v>
       </c>
       <c r="C281" s="2">
-        <v>1770031910</v>
+        <v>1750109659</v>
       </c>
       <c r="D281" t="s">
-        <v>72</v>
+        <v>186</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B282">
-        <v>7912817</v>
+        <v>7913086</v>
       </c>
       <c r="C282" s="2">
-        <v>1750200435</v>
+        <v>1750105988</v>
       </c>
       <c r="D282" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
@@ -5381,153 +5405,153 @@
         <v>54</v>
       </c>
       <c r="B283">
-        <v>7912817</v>
+        <v>7913107</v>
       </c>
       <c r="C283" s="2">
-        <v>1750288271</v>
+        <v>1750200435</v>
       </c>
       <c r="D283" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="B284">
-        <v>7912817</v>
+        <v>7913187</v>
       </c>
       <c r="C284" s="2">
-        <v>1750295447</v>
+        <v>1750105988</v>
       </c>
       <c r="D284" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B285">
-        <v>7913086</v>
+        <v>7913395</v>
       </c>
       <c r="C285" s="2">
-        <v>1750109659</v>
+        <v>1750105988</v>
       </c>
       <c r="D285" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>44</v>
+        <v>179</v>
       </c>
       <c r="B286">
-        <v>7913086</v>
+        <v>7914409</v>
       </c>
       <c r="C286" s="2">
-        <v>1750105988</v>
+        <v>1750109641</v>
       </c>
       <c r="D286" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>54</v>
+        <v>179</v>
       </c>
       <c r="B287">
-        <v>7913107</v>
+        <v>7914409</v>
       </c>
       <c r="C287" s="2">
-        <v>1750200435</v>
+        <v>1750105679</v>
       </c>
       <c r="D287" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="B288">
-        <v>7913187</v>
+        <v>7914619</v>
       </c>
       <c r="C288" s="2">
-        <v>1750105988</v>
+        <v>1750200435</v>
       </c>
       <c r="D288" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="B289">
-        <v>7913395</v>
+        <v>7914619</v>
       </c>
       <c r="C289" s="2">
-        <v>1750105988</v>
+        <v>1750214647</v>
       </c>
       <c r="D289" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>185</v>
+        <v>10</v>
       </c>
       <c r="B290">
-        <v>7914409</v>
+        <v>7914660</v>
       </c>
       <c r="C290" s="2">
-        <v>1750109641</v>
+        <v>1750053977</v>
       </c>
       <c r="D290" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>185</v>
+        <v>10</v>
       </c>
       <c r="B291">
-        <v>7914409</v>
+        <v>7914660</v>
       </c>
       <c r="C291" s="2">
-        <v>1750105679</v>
+        <v>1750109659</v>
       </c>
       <c r="D291" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="B292">
-        <v>7914619</v>
-      </c>
-      <c r="C292" s="2">
-        <v>1750200435</v>
+        <v>7915108</v>
+      </c>
+      <c r="C292" t="s">
+        <v>106</v>
       </c>
       <c r="D292" t="s">
-        <v>196</v>
+        <v>72</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B293">
-        <v>7914619</v>
+        <v>7915179</v>
       </c>
       <c r="C293" s="2">
-        <v>1750214647</v>
+        <v>1750044668</v>
       </c>
       <c r="D293" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
@@ -5535,80 +5559,80 @@
         <v>10</v>
       </c>
       <c r="B294">
-        <v>7914660</v>
+        <v>7915512</v>
       </c>
       <c r="C294" s="2">
-        <v>1750053977</v>
+        <v>1750092824</v>
       </c>
       <c r="D294" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B295">
-        <v>7914660</v>
+        <v>7916993</v>
       </c>
       <c r="C295" s="2">
-        <v>1750109659</v>
+        <v>1770031910</v>
       </c>
       <c r="D295" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>44</v>
+        <v>160</v>
       </c>
       <c r="B296">
-        <v>7914783</v>
-      </c>
-      <c r="C296" t="s">
-        <v>198</v>
+        <v>7917231</v>
+      </c>
+      <c r="C296" s="2">
+        <v>1750350686</v>
       </c>
       <c r="D296" t="s">
-        <v>72</v>
+        <v>196</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>44</v>
+        <v>160</v>
       </c>
       <c r="B297">
-        <v>7914783</v>
-      </c>
-      <c r="C297" t="s">
-        <v>199</v>
+        <v>7917231</v>
+      </c>
+      <c r="C297" s="2">
+        <v>1750301986</v>
       </c>
       <c r="D297" t="s">
-        <v>72</v>
+        <v>196</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="B298">
-        <v>7914783</v>
-      </c>
-      <c r="C298" t="s">
-        <v>69</v>
+        <v>7917276</v>
+      </c>
+      <c r="C298" s="2">
+        <v>1750109659</v>
       </c>
       <c r="D298" t="s">
-        <v>72</v>
+        <v>197</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="B299">
-        <v>7914783</v>
+        <v>7917418</v>
       </c>
       <c r="C299" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D299" t="s">
         <v>72</v>
@@ -5616,44 +5640,44 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="B300">
-        <v>7915108</v>
-      </c>
-      <c r="C300" t="s">
-        <v>108</v>
+        <v>7917542</v>
+      </c>
+      <c r="C300" s="2">
+        <v>1750155446</v>
       </c>
       <c r="D300" t="s">
-        <v>72</v>
+        <v>198</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B301">
-        <v>7915337</v>
+        <v>7917542</v>
       </c>
       <c r="C301" s="2">
-        <v>1750109641</v>
+        <v>1750163970</v>
       </c>
       <c r="D301" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="B302">
-        <v>7915512</v>
+        <v>7917809</v>
       </c>
       <c r="C302" s="2">
-        <v>1750092824</v>
+        <v>1750256247</v>
       </c>
       <c r="D302" t="s">
-        <v>200</v>
+        <v>72</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
@@ -5661,195 +5685,195 @@
         <v>44</v>
       </c>
       <c r="B303">
-        <v>7916993</v>
+        <v>7918027</v>
       </c>
       <c r="C303" s="2">
-        <v>1770031910</v>
+        <v>1750105988</v>
       </c>
       <c r="D303" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="B304">
-        <v>7917056</v>
-      </c>
-      <c r="C304" t="s">
-        <v>94</v>
+        <v>7919567</v>
+      </c>
+      <c r="C304" s="2">
+        <v>1750190038</v>
       </c>
       <c r="D304" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B305">
-        <v>7917056</v>
-      </c>
-      <c r="C305" t="s">
-        <v>202</v>
+        <v>7919667</v>
+      </c>
+      <c r="C305" s="2">
+        <v>1750067867</v>
       </c>
       <c r="D305" t="s">
-        <v>102</v>
+        <v>199</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>203</v>
+        <v>44</v>
       </c>
       <c r="B306">
-        <v>7917224</v>
+        <v>7919667</v>
       </c>
       <c r="C306" s="2">
-        <v>1750109659</v>
+        <v>1750105988</v>
       </c>
       <c r="D306" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>167</v>
+        <v>44</v>
       </c>
       <c r="B307">
-        <v>7917231</v>
+        <v>7919692</v>
       </c>
       <c r="C307" s="2">
-        <v>1750350686</v>
+        <v>1750173205</v>
       </c>
       <c r="D307" t="s">
-        <v>205</v>
+        <v>170</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>167</v>
+        <v>44</v>
       </c>
       <c r="B308">
-        <v>7917231</v>
+        <v>7919692</v>
       </c>
       <c r="C308" s="2">
-        <v>1750301986</v>
+        <v>1750105988</v>
       </c>
       <c r="D308" t="s">
-        <v>205</v>
+        <v>170</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B309">
-        <v>7917276</v>
+        <v>7920165</v>
       </c>
       <c r="C309" s="2">
-        <v>1750109659</v>
+        <v>1750044604</v>
       </c>
       <c r="D309" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="B310">
-        <v>7917418</v>
-      </c>
-      <c r="C310" t="s">
-        <v>94</v>
+        <v>7920165</v>
+      </c>
+      <c r="C310" s="2">
+        <v>1750053060</v>
       </c>
       <c r="D310" t="s">
-        <v>72</v>
+        <v>200</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B311">
-        <v>7917542</v>
+        <v>7920272</v>
       </c>
       <c r="C311" s="2">
-        <v>1750155446</v>
+        <v>1750109659</v>
       </c>
       <c r="D311" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B312">
-        <v>7917542</v>
+        <v>7920272</v>
       </c>
       <c r="C312" s="2">
-        <v>1750163970</v>
+        <v>1750109615</v>
       </c>
       <c r="D312" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="B313">
-        <v>7917809</v>
+        <v>7920574</v>
       </c>
       <c r="C313" s="2">
-        <v>1750256247</v>
+        <v>1750200435</v>
       </c>
       <c r="D313" t="s">
-        <v>72</v>
+        <v>202</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B314">
-        <v>7918027</v>
+        <v>7920574</v>
       </c>
       <c r="C314" s="2">
-        <v>1750105988</v>
+        <v>1750214647</v>
       </c>
       <c r="D314" t="s">
-        <v>176</v>
+        <v>202</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="B315">
-        <v>7919567</v>
+        <v>7921936</v>
       </c>
       <c r="C315" s="2">
-        <v>1750190038</v>
+        <v>1750200435</v>
       </c>
       <c r="D315" t="s">
-        <v>72</v>
+        <v>187</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B316">
-        <v>7919667</v>
+        <v>7924319</v>
       </c>
       <c r="C316" s="2">
-        <v>1750067867</v>
+        <v>1770041364</v>
       </c>
       <c r="D316" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
@@ -5857,27 +5881,27 @@
         <v>44</v>
       </c>
       <c r="B317">
-        <v>7919667</v>
-      </c>
-      <c r="C317" s="2">
-        <v>1750105988</v>
+        <v>7924355</v>
+      </c>
+      <c r="C317" t="s">
+        <v>5</v>
       </c>
       <c r="D317" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B318">
-        <v>7919692</v>
+        <v>7924902</v>
       </c>
       <c r="C318" s="2">
-        <v>1750173205</v>
+        <v>1750200435</v>
       </c>
       <c r="D318" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
@@ -5885,80 +5909,80 @@
         <v>44</v>
       </c>
       <c r="B319">
-        <v>7919692</v>
-      </c>
-      <c r="C319" s="2">
-        <v>1750105988</v>
+        <v>7924930</v>
+      </c>
+      <c r="C319" t="s">
+        <v>157</v>
       </c>
       <c r="D319" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B320">
-        <v>7920165</v>
-      </c>
-      <c r="C320" s="2">
-        <v>1750044604</v>
+        <v>7924940</v>
+      </c>
+      <c r="C320" t="s">
+        <v>157</v>
       </c>
       <c r="D320" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B321">
-        <v>7920165</v>
+        <v>7924946</v>
       </c>
       <c r="C321" s="2">
-        <v>1750053060</v>
+        <v>1750105988</v>
       </c>
       <c r="D321" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B322">
-        <v>7920272</v>
+        <v>7925113</v>
       </c>
       <c r="C322" s="2">
-        <v>1750109659</v>
+        <v>1750215295</v>
       </c>
       <c r="D322" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>54</v>
+        <v>208</v>
       </c>
       <c r="B323">
-        <v>7920574</v>
+        <v>7925266</v>
       </c>
       <c r="C323" s="2">
-        <v>1750200435</v>
+        <v>1750222982</v>
       </c>
       <c r="D323" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="B324">
-        <v>7920574</v>
-      </c>
-      <c r="C324" s="2">
-        <v>1750214647</v>
+        <v>7926268</v>
+      </c>
+      <c r="C324" t="s">
+        <v>210</v>
       </c>
       <c r="D324" t="s">
         <v>211</v>
@@ -5966,27 +5990,27 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="B325">
-        <v>7921936</v>
+        <v>7926300</v>
       </c>
       <c r="C325" s="2">
-        <v>1750200435</v>
+        <v>1750109659</v>
       </c>
       <c r="D325" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>203</v>
+        <v>10</v>
       </c>
       <c r="B326">
-        <v>7922810</v>
-      </c>
-      <c r="C326" t="s">
-        <v>18</v>
+        <v>7926300</v>
+      </c>
+      <c r="C326" s="2">
+        <v>1750053977</v>
       </c>
       <c r="D326" t="s">
         <v>212</v>
@@ -5994,142 +6018,142 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B327">
-        <v>7924319</v>
+        <v>7926350</v>
       </c>
       <c r="C327" s="2">
-        <v>1770041364</v>
+        <v>1750044668</v>
       </c>
       <c r="D327" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="B328">
-        <v>7924355</v>
-      </c>
-      <c r="C328" t="s">
-        <v>5</v>
+        <v>7926363</v>
+      </c>
+      <c r="C328" s="2">
+        <v>1750044878</v>
       </c>
       <c r="D328" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="B329">
-        <v>7924902</v>
+        <v>7926430</v>
       </c>
       <c r="C329" s="2">
-        <v>1750200435</v>
+        <v>1750109659</v>
       </c>
       <c r="D329" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B330">
-        <v>7924930</v>
-      </c>
-      <c r="C330" t="s">
-        <v>164</v>
+        <v>7926430</v>
+      </c>
+      <c r="C330" s="2">
+        <v>1750109615</v>
       </c>
       <c r="D330" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B331">
-        <v>7924940</v>
-      </c>
-      <c r="C331" t="s">
-        <v>164</v>
+        <v>7926480</v>
+      </c>
+      <c r="C331" s="2">
+        <v>1750109659</v>
       </c>
       <c r="D331" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="B332">
-        <v>7924946</v>
+        <v>7926496</v>
       </c>
       <c r="C332" s="2">
-        <v>1750105988</v>
+        <v>1750200435</v>
       </c>
       <c r="D332" t="s">
-        <v>213</v>
+        <v>72</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="B333">
-        <v>7925113</v>
+        <v>7926501</v>
       </c>
       <c r="C333" s="2">
-        <v>1750215295</v>
+        <v>1750110044</v>
       </c>
       <c r="D333" t="s">
-        <v>217</v>
+        <v>72</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>218</v>
+        <v>44</v>
       </c>
       <c r="B334">
-        <v>7925266</v>
-      </c>
-      <c r="C334" s="2">
-        <v>1750222982</v>
+        <v>7926812</v>
+      </c>
+      <c r="C334" t="s">
+        <v>62</v>
       </c>
       <c r="D334" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="B335">
-        <v>7926268</v>
-      </c>
-      <c r="C335" t="s">
-        <v>220</v>
+        <v>7926898</v>
+      </c>
+      <c r="C335" s="2">
+        <v>1750126457</v>
       </c>
       <c r="D335" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="B336">
-        <v>7926300</v>
+        <v>7926898</v>
       </c>
       <c r="C336" s="2">
-        <v>1750109659</v>
+        <v>1750200435</v>
       </c>
       <c r="D336" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.3">
@@ -6137,178 +6161,178 @@
         <v>10</v>
       </c>
       <c r="B337">
-        <v>7926300</v>
+        <v>7928091</v>
       </c>
       <c r="C337" s="2">
-        <v>1750053977</v>
+        <v>1750092824</v>
       </c>
       <c r="D337" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="B338">
-        <v>7926363</v>
-      </c>
-      <c r="C338" s="2">
-        <v>1750044878</v>
+        <v>7928114</v>
+      </c>
+      <c r="C338" t="s">
+        <v>5</v>
       </c>
       <c r="D338" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="B339">
-        <v>7926430</v>
+        <v>7929027</v>
       </c>
       <c r="C339" s="2">
-        <v>1750109659</v>
+        <v>1750105679</v>
       </c>
       <c r="D339" t="s">
-        <v>223</v>
+        <v>72</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="B340">
-        <v>7926430</v>
+        <v>7929035</v>
       </c>
       <c r="C340" s="2">
-        <v>1750109615</v>
+        <v>1750126457</v>
       </c>
       <c r="D340" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B341">
-        <v>7926480</v>
+        <v>7929157</v>
       </c>
       <c r="C341" s="2">
-        <v>1750109659</v>
+        <v>1750044668</v>
       </c>
       <c r="D341" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>71</v>
+        <v>150</v>
       </c>
       <c r="B342">
-        <v>7926496</v>
+        <v>7929246</v>
       </c>
       <c r="C342" s="2">
-        <v>1750200435</v>
+        <v>1770041364</v>
       </c>
       <c r="D342" t="s">
-        <v>72</v>
+        <v>222</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="B343">
-        <v>7926501</v>
+        <v>7929257</v>
       </c>
       <c r="C343" s="2">
-        <v>1750110044</v>
+        <v>1750173205</v>
       </c>
       <c r="D343" t="s">
-        <v>72</v>
+        <v>223</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B344">
-        <v>7926812</v>
-      </c>
-      <c r="C344" t="s">
-        <v>62</v>
+        <v>7929257</v>
+      </c>
+      <c r="C344" s="2">
+        <v>1750177464</v>
       </c>
       <c r="D344" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>54</v>
+        <v>224</v>
       </c>
       <c r="B345">
-        <v>7926898</v>
+        <v>7929354</v>
       </c>
       <c r="C345" s="2">
-        <v>1750126457</v>
+        <v>1750044878</v>
       </c>
       <c r="D345" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>54</v>
+        <v>226</v>
       </c>
       <c r="B346">
-        <v>7926898</v>
+        <v>7929531</v>
       </c>
       <c r="C346" s="2">
-        <v>1750200435</v>
+        <v>1750044878</v>
       </c>
       <c r="D346" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B347">
-        <v>7927044</v>
+        <v>7930608</v>
       </c>
       <c r="C347" s="2">
-        <v>1750109641</v>
+        <v>1750193275</v>
       </c>
       <c r="D347" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="B348">
-        <v>7928091</v>
+        <v>7931010</v>
       </c>
       <c r="C348" s="2">
-        <v>1750092824</v>
+        <v>1750188523</v>
       </c>
       <c r="D348" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B349">
-        <v>7928114</v>
-      </c>
-      <c r="C349" t="s">
-        <v>5</v>
+        <v>7931010</v>
+      </c>
+      <c r="C349" s="2">
+        <v>1750263341</v>
       </c>
       <c r="D349" t="s">
         <v>229</v>
@@ -6316,30 +6340,30 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="B350">
-        <v>7929027</v>
+        <v>7931010</v>
       </c>
       <c r="C350" s="2">
-        <v>1750105679</v>
+        <v>1750245555</v>
       </c>
       <c r="D350" t="s">
-        <v>72</v>
+        <v>229</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="B351">
-        <v>7929035</v>
+        <v>7942380</v>
       </c>
       <c r="C351" s="2">
-        <v>1750126457</v>
+        <v>1750109615</v>
       </c>
       <c r="D351" t="s">
-        <v>230</v>
+        <v>72</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.3">
@@ -6347,24 +6371,24 @@
         <v>10</v>
       </c>
       <c r="B352">
-        <v>7929157</v>
+        <v>7942536</v>
       </c>
       <c r="C352" s="2">
-        <v>1750044668</v>
+        <v>1750105986</v>
       </c>
       <c r="D352" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>156</v>
+        <v>44</v>
       </c>
       <c r="B353">
-        <v>7929246</v>
+        <v>7942589</v>
       </c>
       <c r="C353" s="2">
-        <v>1770041364</v>
+        <v>1750100966</v>
       </c>
       <c r="D353" t="s">
         <v>231</v>
@@ -6372,100 +6396,100 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>232</v>
+        <v>10</v>
       </c>
       <c r="B354">
-        <v>7929354</v>
+        <v>7942633</v>
       </c>
       <c r="C354" s="2">
-        <v>1750109615</v>
+        <v>1750109659</v>
       </c>
       <c r="D354" t="s">
-        <v>233</v>
+        <v>124</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>54</v>
+        <v>224</v>
       </c>
       <c r="B355">
-        <v>7930608</v>
+        <v>7942649</v>
       </c>
       <c r="C355" s="2">
-        <v>1750193275</v>
+        <v>1750173205</v>
       </c>
       <c r="D355" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="B356">
-        <v>7931010</v>
+        <v>7942790</v>
       </c>
       <c r="C356" s="2">
-        <v>1750188523</v>
+        <v>1750109659</v>
       </c>
       <c r="D356" t="s">
-        <v>235</v>
+        <v>192</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>54</v>
+        <v>208</v>
       </c>
       <c r="B357">
-        <v>7931010</v>
+        <v>7942981</v>
       </c>
       <c r="C357" s="2">
-        <v>1750263341</v>
+        <v>1750109659</v>
       </c>
       <c r="D357" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>54</v>
+        <v>224</v>
       </c>
       <c r="B358">
-        <v>7931010</v>
-      </c>
-      <c r="C358" s="2">
-        <v>1750245555</v>
+        <v>7943106</v>
+      </c>
+      <c r="C358" t="s">
+        <v>234</v>
       </c>
       <c r="D358" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="B359">
-        <v>7942380</v>
+        <v>7943149</v>
       </c>
       <c r="C359" s="2">
-        <v>1750109615</v>
+        <v>1750200435</v>
       </c>
       <c r="D359" t="s">
-        <v>72</v>
+        <v>169</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>232</v>
+        <v>10</v>
       </c>
       <c r="B360">
-        <v>7942443</v>
+        <v>7943190</v>
       </c>
       <c r="C360" s="2">
-        <v>1750105988</v>
+        <v>1750045330</v>
       </c>
       <c r="D360" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.3">
@@ -6473,94 +6497,94 @@
         <v>10</v>
       </c>
       <c r="B361">
-        <v>7942536</v>
+        <v>7943190</v>
       </c>
       <c r="C361" s="2">
-        <v>1750105986</v>
+        <v>1750109659</v>
       </c>
       <c r="D361" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B362">
-        <v>7942589</v>
+        <v>7943238</v>
       </c>
       <c r="C362" s="2">
-        <v>1750100966</v>
+        <v>1750105988</v>
       </c>
       <c r="D362" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B363">
-        <v>7942633</v>
+        <v>7943753</v>
       </c>
       <c r="C363" s="2">
-        <v>1750109659</v>
+        <v>1770041364</v>
       </c>
       <c r="D363" t="s">
-        <v>126</v>
+        <v>203</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>232</v>
+        <v>39</v>
       </c>
       <c r="B364">
-        <v>7942649</v>
+        <v>7945233</v>
       </c>
       <c r="C364" s="2">
-        <v>1750173205</v>
+        <v>1750215295</v>
       </c>
       <c r="D364" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B365">
-        <v>7942790</v>
+        <v>7945257</v>
       </c>
       <c r="C365" s="2">
-        <v>1750109659</v>
+        <v>1750187030</v>
       </c>
       <c r="D365" t="s">
-        <v>197</v>
+        <v>237</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>218</v>
+        <v>8</v>
       </c>
       <c r="B366">
-        <v>7942981</v>
+        <v>7945257</v>
       </c>
       <c r="C366" s="2">
-        <v>1750109659</v>
+        <v>1750188523</v>
       </c>
       <c r="D366" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>232</v>
+        <v>8</v>
       </c>
       <c r="B367">
-        <v>7943106</v>
-      </c>
-      <c r="C367" t="s">
-        <v>240</v>
+        <v>7945271</v>
+      </c>
+      <c r="C367" s="2">
+        <v>1750188523</v>
       </c>
       <c r="D367" t="s">
         <v>238</v>
@@ -6571,94 +6595,94 @@
         <v>54</v>
       </c>
       <c r="B368">
-        <v>7943149</v>
+        <v>7945303</v>
       </c>
       <c r="C368" s="2">
-        <v>1750200435</v>
+        <v>1750220000</v>
       </c>
       <c r="D368" t="s">
-        <v>175</v>
+        <v>239</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="B369">
-        <v>7943190</v>
+        <v>7945303</v>
       </c>
       <c r="C369" s="2">
-        <v>1750045330</v>
+        <v>1750220022</v>
       </c>
       <c r="D369" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="B370">
-        <v>7943190</v>
+        <v>7945303</v>
       </c>
       <c r="C370" s="2">
-        <v>1750109659</v>
+        <v>1750193275</v>
       </c>
       <c r="D370" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="B371">
-        <v>7943238</v>
+        <v>7945437</v>
       </c>
       <c r="C371" s="2">
-        <v>1750105988</v>
+        <v>1750200435</v>
       </c>
       <c r="D371" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>44</v>
+        <v>226</v>
       </c>
       <c r="B372">
-        <v>7943354</v>
-      </c>
-      <c r="C372" t="s">
-        <v>70</v>
+        <v>7945510</v>
+      </c>
+      <c r="C372" s="2">
+        <v>1750092824</v>
       </c>
       <c r="D372" t="s">
-        <v>72</v>
+        <v>241</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B373">
-        <v>7943753</v>
+        <v>7945643</v>
       </c>
       <c r="C373" s="2">
-        <v>1770041364</v>
+        <v>1750109659</v>
       </c>
       <c r="D373" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="B374">
-        <v>7944145</v>
+        <v>7945828</v>
       </c>
       <c r="C374" s="2">
-        <v>1750053977</v>
+        <v>1750109641</v>
       </c>
       <c r="D374" t="s">
         <v>242</v>
@@ -6666,41 +6690,41 @@
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>203</v>
+        <v>54</v>
       </c>
       <c r="B375">
-        <v>7944145</v>
+        <v>7946172</v>
       </c>
       <c r="C375" t="s">
+        <v>18</v>
+      </c>
+      <c r="D375" t="s">
         <v>243</v>
-      </c>
-      <c r="D375" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
+        <v>4</v>
+      </c>
+      <c r="B376">
+        <v>7946324</v>
+      </c>
+      <c r="C376" s="2">
+        <v>1750105988</v>
+      </c>
+      <c r="D376" t="s">
         <v>203</v>
-      </c>
-      <c r="B376">
-        <v>7944145</v>
-      </c>
-      <c r="C376" s="2">
-        <v>1750109659</v>
-      </c>
-      <c r="D376" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>138</v>
+        <v>44</v>
       </c>
       <c r="B377">
-        <v>7944213</v>
-      </c>
-      <c r="C377" t="s">
-        <v>164</v>
+        <v>7946338</v>
+      </c>
+      <c r="C377" s="2">
+        <v>1750109659</v>
       </c>
       <c r="D377" t="s">
         <v>244</v>
@@ -6708,44 +6732,44 @@
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B378">
-        <v>7945233</v>
+        <v>7946338</v>
       </c>
       <c r="C378" s="2">
-        <v>1750215295</v>
+        <v>1750109641</v>
       </c>
       <c r="D378" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B379">
-        <v>7945257</v>
+        <v>7946603</v>
       </c>
       <c r="C379" s="2">
-        <v>1750187030</v>
+        <v>1750109659</v>
       </c>
       <c r="D379" t="s">
-        <v>246</v>
+        <v>192</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>8</v>
+        <v>226</v>
       </c>
       <c r="B380">
-        <v>7945257</v>
+        <v>7946835</v>
       </c>
       <c r="C380" s="2">
-        <v>1750188523</v>
+        <v>1750044668</v>
       </c>
       <c r="D380" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.3">
@@ -6753,13 +6777,13 @@
         <v>8</v>
       </c>
       <c r="B381">
-        <v>7945271</v>
+        <v>7946868</v>
       </c>
       <c r="C381" s="2">
         <v>1750188523</v>
       </c>
       <c r="D381" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.3">
@@ -6767,139 +6791,139 @@
         <v>54</v>
       </c>
       <c r="B382">
-        <v>7945303</v>
+        <v>7946970</v>
       </c>
       <c r="C382" s="2">
-        <v>1750220000</v>
+        <v>1750200435</v>
       </c>
       <c r="D382" t="s">
-        <v>248</v>
+        <v>169</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="B383">
-        <v>7945303</v>
+        <v>7947704</v>
       </c>
       <c r="C383" s="2">
-        <v>1750220022</v>
+        <v>1750105988</v>
       </c>
       <c r="D383" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="B384">
-        <v>7945303</v>
+        <v>7947736</v>
       </c>
       <c r="C384" s="2">
-        <v>1750193275</v>
+        <v>1750215294</v>
       </c>
       <c r="D384" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="B385">
-        <v>7945437</v>
+        <v>7947739</v>
       </c>
       <c r="C385" s="2">
-        <v>1750200435</v>
+        <v>1750188523</v>
       </c>
       <c r="D385" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>203</v>
+        <v>150</v>
       </c>
       <c r="B386">
-        <v>7945510</v>
+        <v>7947799</v>
       </c>
       <c r="C386" s="2">
-        <v>1750092824</v>
+        <v>1770041364</v>
       </c>
       <c r="D386" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="B387">
-        <v>7945643</v>
+        <v>7947847</v>
       </c>
       <c r="C387" s="2">
-        <v>1750109659</v>
+        <v>1750214647</v>
       </c>
       <c r="D387" t="s">
-        <v>197</v>
+        <v>249</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>203</v>
+        <v>54</v>
       </c>
       <c r="B388">
-        <v>7945828</v>
+        <v>7947847</v>
       </c>
       <c r="C388" s="2">
-        <v>1750109641</v>
+        <v>1750212682</v>
       </c>
       <c r="D388" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="B389">
-        <v>7946324</v>
+        <v>7947847</v>
       </c>
       <c r="C389" s="2">
-        <v>1750105988</v>
+        <v>1750140781</v>
       </c>
       <c r="D389" t="s">
-        <v>213</v>
+        <v>249</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B390">
-        <v>7946338</v>
+        <v>7947866</v>
       </c>
       <c r="C390" s="2">
-        <v>1750273344</v>
+        <v>1750126457</v>
       </c>
       <c r="D390" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B391">
-        <v>7946338</v>
+        <v>7947866</v>
       </c>
       <c r="C391" s="2">
-        <v>1750044668</v>
+        <v>1750196174</v>
       </c>
       <c r="D391" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.3">
@@ -6907,167 +6931,167 @@
         <v>10</v>
       </c>
       <c r="B392">
-        <v>7946603</v>
+        <v>7947912</v>
       </c>
       <c r="C392" s="2">
         <v>1750109659</v>
       </c>
       <c r="D392" t="s">
-        <v>197</v>
+        <v>251</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B393">
-        <v>7946733</v>
+        <v>7947912</v>
       </c>
       <c r="C393" s="2">
-        <v>1750188523</v>
+        <v>1750105679</v>
       </c>
       <c r="D393" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>203</v>
+        <v>71</v>
       </c>
       <c r="B394">
-        <v>7946835</v>
+        <v>7947978</v>
       </c>
       <c r="C394" s="2">
-        <v>1750044668</v>
+        <v>1750105679</v>
       </c>
       <c r="D394" t="s">
-        <v>251</v>
+        <v>72</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="B395">
-        <v>7946868</v>
+        <v>7947978</v>
       </c>
       <c r="C395" s="2">
-        <v>1750188523</v>
+        <v>1750109615</v>
       </c>
       <c r="D395" t="s">
-        <v>253</v>
+        <v>72</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="B396">
-        <v>7946970</v>
+        <v>7948365</v>
       </c>
       <c r="C396" s="2">
-        <v>1750200435</v>
+        <v>1750188523</v>
       </c>
       <c r="D396" t="s">
-        <v>175</v>
+        <v>252</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B397">
-        <v>7947704</v>
+        <v>7948446</v>
       </c>
       <c r="C397" s="2">
-        <v>1750105988</v>
+        <v>1750109659</v>
       </c>
       <c r="D397" t="s">
-        <v>254</v>
+        <v>192</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B398">
-        <v>7947736</v>
+        <v>7948510</v>
       </c>
       <c r="C398" s="2">
-        <v>1750215294</v>
+        <v>1750169942</v>
       </c>
       <c r="D398" t="s">
-        <v>255</v>
+        <v>72</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B399">
-        <v>7947739</v>
-      </c>
-      <c r="C399" s="2">
-        <v>1750188523</v>
+        <v>7948510</v>
+      </c>
+      <c r="C399" t="s">
+        <v>69</v>
       </c>
       <c r="D399" t="s">
-        <v>252</v>
+        <v>72</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B400">
-        <v>7947783</v>
+        <v>7948863</v>
       </c>
       <c r="C400" s="2">
-        <v>1750109658</v>
+        <v>1750109659</v>
       </c>
       <c r="D400" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>156</v>
+        <v>54</v>
       </c>
       <c r="B401">
-        <v>7947799</v>
+        <v>7949223</v>
       </c>
       <c r="C401" s="2">
-        <v>1770041364</v>
+        <v>1750193275</v>
       </c>
       <c r="D401" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>54</v>
+        <v>255</v>
       </c>
       <c r="B402">
-        <v>7947847</v>
+        <v>7952624</v>
       </c>
       <c r="C402" s="2">
-        <v>1750214647</v>
+        <v>1750173205</v>
       </c>
       <c r="D402" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="B403">
-        <v>7947847</v>
-      </c>
-      <c r="C403" s="2">
-        <v>1750212682</v>
+        <v>7952640</v>
+      </c>
+      <c r="C403" t="s">
+        <v>95</v>
       </c>
       <c r="D403" t="s">
-        <v>257</v>
+        <v>72</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.3">
@@ -7075,13 +7099,13 @@
         <v>54</v>
       </c>
       <c r="B404">
-        <v>7947847</v>
+        <v>7952699</v>
       </c>
       <c r="C404" s="2">
-        <v>1750140781</v>
+        <v>1750215295</v>
       </c>
       <c r="D404" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.3">
@@ -7089,41 +7113,41 @@
         <v>54</v>
       </c>
       <c r="B405">
-        <v>7947866</v>
+        <v>7952699</v>
       </c>
       <c r="C405" s="2">
-        <v>1750126457</v>
+        <v>1750215294</v>
       </c>
       <c r="D405" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="B406">
-        <v>7947866</v>
+        <v>7952778</v>
       </c>
       <c r="C406" s="2">
-        <v>1750196174</v>
+        <v>1750188546</v>
       </c>
       <c r="D406" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="B407">
-        <v>7947912</v>
-      </c>
-      <c r="C407" s="2">
-        <v>1750109659</v>
+        <v>7952908</v>
+      </c>
+      <c r="C407" t="s">
+        <v>258</v>
       </c>
       <c r="D407" t="s">
-        <v>259</v>
+        <v>72</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.3">
@@ -7131,52 +7155,52 @@
         <v>10</v>
       </c>
       <c r="B408">
-        <v>7947912</v>
+        <v>7952921</v>
       </c>
       <c r="C408" s="2">
-        <v>1750105679</v>
+        <v>1750173205</v>
       </c>
       <c r="D408" t="s">
-        <v>259</v>
+        <v>230</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="B409">
-        <v>7947978</v>
+        <v>7952925</v>
       </c>
       <c r="C409" s="2">
-        <v>1750105679</v>
+        <v>1750200435</v>
       </c>
       <c r="D409" t="s">
-        <v>72</v>
+        <v>259</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="B410">
-        <v>7947978</v>
+        <v>7952995</v>
       </c>
       <c r="C410" s="2">
-        <v>1750109615</v>
+        <v>1750109659</v>
       </c>
       <c r="D410" t="s">
-        <v>72</v>
+        <v>124</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>8</v>
+        <v>224</v>
       </c>
       <c r="B411">
-        <v>7948365</v>
+        <v>7953330</v>
       </c>
       <c r="C411" s="2">
-        <v>1750188523</v>
+        <v>1750053977</v>
       </c>
       <c r="D411" t="s">
         <v>260</v>
@@ -7184,55 +7208,55 @@
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>4</v>
+        <v>224</v>
       </c>
       <c r="B412">
-        <v>7948446</v>
+        <v>7953330</v>
       </c>
       <c r="C412" s="2">
-        <v>1750109659</v>
+        <v>1750173205</v>
       </c>
       <c r="D412" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>218</v>
+        <v>44</v>
       </c>
       <c r="B413">
-        <v>7948620</v>
-      </c>
-      <c r="C413" t="s">
-        <v>69</v>
+        <v>7953371</v>
+      </c>
+      <c r="C413" s="2">
+        <v>1750173205</v>
       </c>
       <c r="D413" t="s">
-        <v>72</v>
+        <v>261</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B414">
-        <v>7948863</v>
+        <v>7953388</v>
       </c>
       <c r="C414" s="2">
-        <v>1750109659</v>
+        <v>1750109641</v>
       </c>
       <c r="D414" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B415">
-        <v>7948965</v>
+        <v>7953388</v>
       </c>
       <c r="C415" s="2">
-        <v>1750248000</v>
+        <v>1750035762</v>
       </c>
       <c r="D415" t="s">
         <v>262</v>
@@ -7240,55 +7264,55 @@
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="B416">
-        <v>7948965</v>
+        <v>7953664</v>
       </c>
       <c r="C416" s="2">
-        <v>1750220000</v>
+        <v>1750222982</v>
       </c>
       <c r="D416" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B417">
-        <v>7949223</v>
+        <v>7954123</v>
       </c>
       <c r="C417" s="2">
-        <v>1750193275</v>
+        <v>1750173205</v>
       </c>
       <c r="D417" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>138</v>
+        <v>10</v>
       </c>
       <c r="B418">
-        <v>7952624</v>
+        <v>7954333</v>
       </c>
       <c r="C418" s="2">
-        <v>1750173205</v>
+        <v>1750222982</v>
       </c>
       <c r="D418" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>71</v>
+        <v>264</v>
       </c>
       <c r="B419">
-        <v>7952640</v>
-      </c>
-      <c r="C419" t="s">
-        <v>96</v>
+        <v>7954373</v>
+      </c>
+      <c r="C419" s="2">
+        <v>1750295447</v>
       </c>
       <c r="D419" t="s">
         <v>72</v>
@@ -7296,16 +7320,16 @@
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="B420">
-        <v>7952699</v>
+        <v>7955617</v>
       </c>
       <c r="C420" s="2">
-        <v>1750215295</v>
+        <v>1750109659</v>
       </c>
       <c r="D420" t="s">
-        <v>264</v>
+        <v>124</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.3">
@@ -7313,377 +7337,377 @@
         <v>54</v>
       </c>
       <c r="B421">
-        <v>7952699</v>
+        <v>7955643</v>
       </c>
       <c r="C421" s="2">
-        <v>1750215294</v>
+        <v>1750188523</v>
       </c>
       <c r="D421" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B422">
-        <v>7952778</v>
-      </c>
-      <c r="C422" s="2">
-        <v>1750188546</v>
+        <v>7955813</v>
+      </c>
+      <c r="C422" t="s">
+        <v>157</v>
       </c>
       <c r="D422" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="B423">
-        <v>7952908</v>
-      </c>
-      <c r="C423" t="s">
-        <v>198</v>
+        <v>7955840</v>
+      </c>
+      <c r="C423" s="2">
+        <v>1750188523</v>
       </c>
       <c r="D423" t="s">
-        <v>72</v>
+        <v>267</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>10</v>
+        <v>226</v>
       </c>
       <c r="B424">
-        <v>7952921</v>
+        <v>7955976</v>
       </c>
       <c r="C424" s="2">
-        <v>1750173205</v>
+        <v>1750092824</v>
       </c>
       <c r="D424" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="B425">
-        <v>7952925</v>
+        <v>7956267</v>
       </c>
       <c r="C425" s="2">
-        <v>1750200435</v>
+        <v>1750188523</v>
       </c>
       <c r="D425" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>39</v>
+        <v>226</v>
       </c>
       <c r="B426">
-        <v>7952995</v>
+        <v>7956511</v>
       </c>
       <c r="C426" s="2">
-        <v>1750109659</v>
+        <v>1750109641</v>
       </c>
       <c r="D426" t="s">
-        <v>126</v>
+        <v>270</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>232</v>
+        <v>44</v>
       </c>
       <c r="B427">
-        <v>7953330</v>
+        <v>7956551</v>
       </c>
       <c r="C427" s="2">
-        <v>1750053977</v>
+        <v>1750222982</v>
       </c>
       <c r="D427" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>232</v>
+        <v>54</v>
       </c>
       <c r="B428">
-        <v>7953330</v>
+        <v>7956585</v>
       </c>
       <c r="C428" s="2">
-        <v>1750173205</v>
+        <v>1750193275</v>
       </c>
       <c r="D428" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="B429">
-        <v>7953371</v>
+        <v>7956807</v>
       </c>
       <c r="C429" s="2">
-        <v>1750173205</v>
+        <v>1750056193</v>
       </c>
       <c r="D429" t="s">
-        <v>268</v>
+        <v>72</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B430">
-        <v>7953664</v>
-      </c>
-      <c r="C430" s="2">
-        <v>1750222982</v>
+        <v>7957143</v>
+      </c>
+      <c r="C430">
+        <v>1750109659</v>
       </c>
       <c r="D430" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>232</v>
+        <v>10</v>
       </c>
       <c r="B431">
-        <v>7953706</v>
+        <v>7957145</v>
       </c>
       <c r="C431" s="2">
-        <v>1750222982</v>
+        <v>1750105986</v>
       </c>
       <c r="D431" t="s">
-        <v>269</v>
+        <v>230</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B432">
-        <v>7954123</v>
+        <v>7957257</v>
       </c>
       <c r="C432" s="2">
-        <v>1750173205</v>
+        <v>1750126457</v>
       </c>
       <c r="D432" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>10</v>
+        <v>255</v>
       </c>
       <c r="B433">
-        <v>7954333</v>
+        <v>7958191</v>
       </c>
       <c r="C433" s="2">
-        <v>1750222982</v>
+        <v>1750053977</v>
       </c>
       <c r="D433" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>4</v>
+        <v>255</v>
       </c>
       <c r="B434">
-        <v>7955617</v>
+        <v>7958191</v>
       </c>
       <c r="C434" s="2">
         <v>1750109659</v>
       </c>
       <c r="D434" t="s">
-        <v>126</v>
+        <v>273</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>54</v>
+        <v>150</v>
       </c>
       <c r="B435">
-        <v>7955643</v>
+        <v>7958243</v>
       </c>
       <c r="C435" s="2">
-        <v>1750188523</v>
+        <v>1770041364</v>
       </c>
       <c r="D435" t="s">
-        <v>270</v>
+        <v>222</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>54</v>
+        <v>224</v>
       </c>
       <c r="B436">
-        <v>7955646</v>
-      </c>
-      <c r="C436" s="2">
-        <v>1750220330</v>
+        <v>7958244</v>
+      </c>
+      <c r="C436" t="s">
+        <v>234</v>
       </c>
       <c r="D436" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B437">
-        <v>7955813</v>
-      </c>
-      <c r="C437" t="s">
-        <v>164</v>
+        <v>7958425</v>
+      </c>
+      <c r="C437" s="2">
+        <v>1750222982</v>
       </c>
       <c r="D437" t="s">
-        <v>72</v>
+        <v>276</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="B438">
-        <v>7955840</v>
+        <v>7958635</v>
       </c>
       <c r="C438" s="2">
         <v>1750188523</v>
       </c>
       <c r="D438" t="s">
-        <v>272</v>
+        <v>245</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>203</v>
+        <v>10</v>
       </c>
       <c r="B439">
-        <v>7955976</v>
+        <v>7958645</v>
       </c>
       <c r="C439" s="2">
-        <v>1750092824</v>
+        <v>1750109641</v>
       </c>
       <c r="D439" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="B440">
-        <v>7956267</v>
+        <v>7959486</v>
       </c>
       <c r="C440" s="2">
         <v>1750188523</v>
       </c>
       <c r="D440" t="s">
-        <v>274</v>
+        <v>245</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>203</v>
+        <v>44</v>
       </c>
       <c r="B441">
-        <v>7956511</v>
+        <v>7959520</v>
       </c>
       <c r="C441" s="2">
         <v>1750109641</v>
       </c>
       <c r="D441" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B442">
-        <v>7956551</v>
+        <v>7959577</v>
       </c>
       <c r="C442" s="2">
-        <v>1750222982</v>
+        <v>1750053977</v>
       </c>
       <c r="D442" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="B443">
-        <v>7956585</v>
+        <v>7959577</v>
       </c>
       <c r="C443" s="2">
-        <v>1750193275</v>
+        <v>1750077727</v>
       </c>
       <c r="D443" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>203</v>
+        <v>44</v>
       </c>
       <c r="B444">
-        <v>7956643</v>
+        <v>7959828</v>
       </c>
       <c r="C444" s="2">
-        <v>1750105988</v>
+        <v>1750053977</v>
       </c>
       <c r="D444" t="s">
-        <v>236</v>
+        <v>273</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="B445">
-        <v>7956807</v>
+        <v>7959828</v>
       </c>
       <c r="C445" s="2">
-        <v>1750056193</v>
+        <v>1750109659</v>
       </c>
       <c r="D445" t="s">
-        <v>72</v>
+        <v>273</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B446">
-        <v>7957143</v>
+        <v>7959985</v>
       </c>
       <c r="C446" s="2">
-        <v>1750109659</v>
+        <v>1750215295</v>
       </c>
       <c r="D446" t="s">
-        <v>107</v>
+        <v>279</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="B447">
-        <v>7957145</v>
+        <v>7960728</v>
       </c>
       <c r="C447" s="2">
-        <v>1750105986</v>
+        <v>1750189650</v>
       </c>
       <c r="D447" t="s">
-        <v>236</v>
+        <v>280</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.3">
@@ -7691,153 +7715,153 @@
         <v>54</v>
       </c>
       <c r="B448">
-        <v>7957257</v>
+        <v>7960728</v>
       </c>
       <c r="C448" s="2">
-        <v>1750126457</v>
+        <v>1750053977</v>
       </c>
       <c r="D448" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>138</v>
+        <v>54</v>
       </c>
       <c r="B449">
-        <v>7958191</v>
+        <v>7960730</v>
       </c>
       <c r="C449" s="2">
-        <v>1750053977</v>
+        <v>1750200435</v>
       </c>
       <c r="D449" t="s">
-        <v>107</v>
+        <v>281</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>138</v>
+        <v>54</v>
       </c>
       <c r="B450">
-        <v>7958191</v>
+        <v>7960732</v>
       </c>
       <c r="C450" s="2">
-        <v>1750109659</v>
+        <v>1750193275</v>
       </c>
       <c r="D450" t="s">
-        <v>107</v>
+        <v>282</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>156</v>
+        <v>4</v>
       </c>
       <c r="B451">
-        <v>7958243</v>
+        <v>7960780</v>
       </c>
       <c r="C451" s="2">
-        <v>1770041364</v>
+        <v>1750092824</v>
       </c>
       <c r="D451" t="s">
-        <v>231</v>
+        <v>283</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>232</v>
+        <v>54</v>
       </c>
       <c r="B452">
-        <v>7958244</v>
-      </c>
-      <c r="C452" t="s">
-        <v>240</v>
+        <v>7961200</v>
+      </c>
+      <c r="C452" s="2">
+        <v>1750200435</v>
       </c>
       <c r="D452" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B453">
-        <v>7958425</v>
+        <v>7961343</v>
       </c>
       <c r="C453" s="2">
-        <v>1750109641</v>
+        <v>1750188523</v>
       </c>
       <c r="D453" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="B454">
-        <v>7958613</v>
+        <v>7961672</v>
       </c>
       <c r="C454" s="2">
-        <v>1750155446</v>
+        <v>1750188546</v>
       </c>
       <c r="D454" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B455">
-        <v>7958613</v>
+        <v>7961753</v>
       </c>
       <c r="C455" s="2">
-        <v>1750187030</v>
+        <v>1770041364</v>
       </c>
       <c r="D455" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="B456">
-        <v>7958613</v>
+        <v>7961919</v>
       </c>
       <c r="C456" s="2">
-        <v>1750188523</v>
+        <v>1750109659</v>
       </c>
       <c r="D456" t="s">
-        <v>280</v>
+        <v>233</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B457">
-        <v>7958635</v>
-      </c>
-      <c r="C457" s="2">
-        <v>1750188523</v>
+        <v>7961978</v>
+      </c>
+      <c r="C457" t="s">
+        <v>18</v>
       </c>
       <c r="D457" t="s">
-        <v>253</v>
+        <v>286</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B458">
-        <v>7958645</v>
-      </c>
-      <c r="C458" s="2">
-        <v>1750109641</v>
+        <v>7963480</v>
+      </c>
+      <c r="C458" t="s">
+        <v>5</v>
       </c>
       <c r="D458" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.3">
@@ -7845,13 +7869,13 @@
         <v>8</v>
       </c>
       <c r="B459">
-        <v>7959277</v>
+        <v>7963808</v>
       </c>
       <c r="C459" s="2">
-        <v>1750188524</v>
+        <v>1750109615</v>
       </c>
       <c r="D459" t="s">
-        <v>72</v>
+        <v>288</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.3">
@@ -7859,97 +7883,97 @@
         <v>8</v>
       </c>
       <c r="B460">
-        <v>7959277</v>
+        <v>7963808</v>
       </c>
       <c r="C460" s="2">
-        <v>1750101956</v>
+        <v>1750109641</v>
       </c>
       <c r="D460" t="s">
-        <v>72</v>
+        <v>288</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
-        <v>54</v>
+        <v>226</v>
       </c>
       <c r="B461">
-        <v>7959486</v>
+        <v>7963828</v>
       </c>
       <c r="C461" s="2">
-        <v>1750188523</v>
+        <v>1750105986</v>
       </c>
       <c r="D461" t="s">
-        <v>253</v>
+        <v>117</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B462">
-        <v>7959520</v>
+        <v>7964068</v>
       </c>
       <c r="C462" s="2">
-        <v>1750109641</v>
+        <v>1750214647</v>
       </c>
       <c r="D462" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="B463">
-        <v>7959529</v>
+        <v>7964068</v>
       </c>
       <c r="C463" s="2">
-        <v>1750109659</v>
+        <v>1750263341</v>
       </c>
       <c r="D463" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="B464">
-        <v>7959529</v>
+        <v>7964068</v>
       </c>
       <c r="C464" s="2">
-        <v>1750053977</v>
+        <v>1750101956</v>
       </c>
       <c r="D464" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="B465">
-        <v>7959577</v>
+        <v>7964164</v>
       </c>
       <c r="C465" s="2">
-        <v>1750053977</v>
+        <v>1770041364</v>
       </c>
       <c r="D465" t="s">
-        <v>283</v>
+        <v>222</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="B466">
-        <v>7959577</v>
+        <v>7964165</v>
       </c>
       <c r="C466" s="2">
-        <v>1750077727</v>
+        <v>1770041364</v>
       </c>
       <c r="D466" t="s">
-        <v>283</v>
+        <v>162</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.3">
@@ -7957,13 +7981,13 @@
         <v>54</v>
       </c>
       <c r="B467">
-        <v>7959649</v>
+        <v>7966435</v>
       </c>
       <c r="C467" s="2">
-        <v>1750234240</v>
+        <v>1750220000</v>
       </c>
       <c r="D467" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.3">
@@ -7971,41 +7995,41 @@
         <v>54</v>
       </c>
       <c r="B468">
-        <v>7959649</v>
+        <v>7966435</v>
       </c>
       <c r="C468" s="2">
-        <v>1750200435</v>
+        <v>1750248000</v>
       </c>
       <c r="D468" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B469">
-        <v>7959828</v>
+        <v>7967194</v>
       </c>
       <c r="C469" s="2">
-        <v>1750053977</v>
+        <v>1750220000</v>
       </c>
       <c r="D469" t="s">
-        <v>107</v>
+        <v>291</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B470">
-        <v>7959828</v>
+        <v>7967194</v>
       </c>
       <c r="C470" s="2">
-        <v>1750109659</v>
+        <v>1750220022</v>
       </c>
       <c r="D470" t="s">
-        <v>107</v>
+        <v>291</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.3">
@@ -8013,755 +8037,755 @@
         <v>54</v>
       </c>
       <c r="B471">
-        <v>7959985</v>
+        <v>7967716</v>
       </c>
       <c r="C471" s="2">
-        <v>1750215295</v>
+        <v>1750078197</v>
       </c>
       <c r="D471" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B472">
-        <v>7960728</v>
-      </c>
-      <c r="C472" s="2">
-        <v>1750189650</v>
+        <v>7967726</v>
+      </c>
+      <c r="C472" t="s">
+        <v>5</v>
       </c>
       <c r="D472" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="B473">
-        <v>7960728</v>
-      </c>
-      <c r="C473" s="2">
-        <v>1750053977</v>
+        <v>7967730</v>
+      </c>
+      <c r="C473" t="s">
+        <v>294</v>
       </c>
       <c r="D473" t="s">
-        <v>286</v>
+        <v>72</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="B474">
-        <v>7960730</v>
-      </c>
-      <c r="C474" s="2">
-        <v>1750200435</v>
+        <v>7967730</v>
+      </c>
+      <c r="C474" t="s">
+        <v>93</v>
       </c>
       <c r="D474" t="s">
-        <v>287</v>
+        <v>72</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
-        <v>54</v>
+        <v>150</v>
       </c>
       <c r="B475">
-        <v>7960732</v>
+        <v>7967733</v>
       </c>
       <c r="C475" s="2">
-        <v>1750193275</v>
+        <v>1750222982</v>
       </c>
       <c r="D475" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B476">
-        <v>7960739</v>
+        <v>7967764</v>
       </c>
       <c r="C476" s="2">
-        <v>1750193275</v>
+        <v>1770041364</v>
       </c>
       <c r="D476" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
-        <v>4</v>
+        <v>150</v>
       </c>
       <c r="B477">
-        <v>7960780</v>
+        <v>7967779</v>
       </c>
       <c r="C477" s="2">
-        <v>1750092824</v>
+        <v>1770041364</v>
       </c>
       <c r="D477" t="s">
-        <v>289</v>
+        <v>162</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="B478">
-        <v>7961200</v>
+        <v>7967809</v>
       </c>
       <c r="C478" s="2">
-        <v>1750200435</v>
+        <v>1750053690</v>
       </c>
       <c r="D478" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
-        <v>8</v>
+        <v>226</v>
       </c>
       <c r="B479">
-        <v>7961343</v>
+        <v>7967825</v>
       </c>
       <c r="C479" s="2">
-        <v>1750188523</v>
+        <v>1750304622</v>
       </c>
       <c r="D479" t="s">
-        <v>253</v>
+        <v>298</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
-        <v>10</v>
+        <v>226</v>
       </c>
       <c r="B480">
-        <v>7961672</v>
-      </c>
-      <c r="C480" s="2">
-        <v>1750188546</v>
+        <v>7967825</v>
+      </c>
+      <c r="C480" t="s">
+        <v>299</v>
       </c>
       <c r="D480" t="s">
-        <v>265</v>
+        <v>298</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
-        <v>44</v>
+        <v>179</v>
       </c>
       <c r="B481">
-        <v>7961753</v>
+        <v>7967829</v>
       </c>
       <c r="C481" s="2">
-        <v>1770041364</v>
+        <v>1750222982</v>
       </c>
       <c r="D481" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
-        <v>10</v>
+        <v>179</v>
       </c>
       <c r="B482">
-        <v>7961919</v>
+        <v>7967829</v>
       </c>
       <c r="C482" s="2">
-        <v>1750109659</v>
+        <v>1750105679</v>
       </c>
       <c r="D482" t="s">
-        <v>239</v>
+        <v>300</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
-        <v>36</v>
+        <v>179</v>
       </c>
       <c r="B483">
-        <v>7961978</v>
-      </c>
-      <c r="C483" t="s">
-        <v>18</v>
+        <v>7967900</v>
+      </c>
+      <c r="C483" s="2">
+        <v>1750109659</v>
       </c>
       <c r="D483" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
-        <v>36</v>
+        <v>179</v>
       </c>
       <c r="B484">
-        <v>7962332</v>
-      </c>
-      <c r="C484" t="s">
-        <v>293</v>
+        <v>7967900</v>
+      </c>
+      <c r="C484" s="2">
+        <v>1750053977</v>
       </c>
       <c r="D484" t="s">
-        <v>72</v>
+        <v>253</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B485">
-        <v>7962332</v>
-      </c>
-      <c r="C485" t="s">
-        <v>294</v>
+        <v>7968148</v>
+      </c>
+      <c r="C485" s="2">
+        <v>1750053977</v>
       </c>
       <c r="D485" t="s">
-        <v>72</v>
+        <v>301</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B486">
-        <v>7963808</v>
+        <v>7968148</v>
       </c>
       <c r="C486" s="2">
-        <v>1750109615</v>
+        <v>1750105988</v>
       </c>
       <c r="D486" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B487">
-        <v>7963808</v>
+        <v>7968150</v>
       </c>
       <c r="C487" s="2">
-        <v>1750109641</v>
+        <v>1750109659</v>
       </c>
       <c r="D487" t="s">
-        <v>295</v>
+        <v>215</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
-        <v>203</v>
+        <v>44</v>
       </c>
       <c r="B488">
-        <v>7963828</v>
+        <v>7968150</v>
       </c>
       <c r="C488" s="2">
-        <v>1750105986</v>
+        <v>1750053977</v>
       </c>
       <c r="D488" t="s">
-        <v>119</v>
+        <v>215</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="B489">
-        <v>7964068</v>
+        <v>7968250</v>
       </c>
       <c r="C489" s="2">
-        <v>1750214647</v>
+        <v>1750188523</v>
       </c>
       <c r="D489" t="s">
-        <v>296</v>
+        <v>175</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="B490">
-        <v>7964068</v>
+        <v>7968426</v>
       </c>
       <c r="C490" s="2">
-        <v>1750263341</v>
+        <v>1750092824</v>
       </c>
       <c r="D490" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="B491">
-        <v>7964068</v>
+        <v>7968433</v>
       </c>
       <c r="C491" s="2">
-        <v>1750101956</v>
+        <v>1750105988</v>
       </c>
       <c r="D491" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
-        <v>156</v>
+        <v>224</v>
       </c>
       <c r="B492">
-        <v>7964164</v>
+        <v>7968447</v>
       </c>
       <c r="C492" s="2">
-        <v>1770041364</v>
+        <v>1750222982</v>
       </c>
       <c r="D492" t="s">
-        <v>231</v>
+        <v>72</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
-        <v>156</v>
+        <v>44</v>
       </c>
       <c r="B493">
-        <v>7964165</v>
+        <v>7968518</v>
       </c>
       <c r="C493" s="2">
-        <v>1770041364</v>
+        <v>1750173205</v>
       </c>
       <c r="D493" t="s">
-        <v>297</v>
+        <v>162</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="B494">
-        <v>7966435</v>
+        <v>7968555</v>
       </c>
       <c r="C494" s="2">
-        <v>1750220000</v>
+        <v>1750105988</v>
       </c>
       <c r="D494" t="s">
-        <v>298</v>
+        <v>117</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="B495">
-        <v>7966435</v>
+        <v>7968577</v>
       </c>
       <c r="C495" s="2">
-        <v>1750248000</v>
+        <v>1750105988</v>
       </c>
       <c r="D495" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="B496">
-        <v>7967194</v>
+        <v>7968615</v>
       </c>
       <c r="C496" s="2">
-        <v>1750220000</v>
+        <v>1750109641</v>
       </c>
       <c r="D496" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="B497">
-        <v>7967194</v>
+        <v>7968615</v>
       </c>
       <c r="C497" s="2">
-        <v>1750220022</v>
+        <v>1750035762</v>
       </c>
       <c r="D497" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B498">
-        <v>7967713</v>
-      </c>
-      <c r="C498" t="s">
-        <v>108</v>
+        <v>7968759</v>
+      </c>
+      <c r="C498" s="2">
+        <v>1750188546</v>
       </c>
       <c r="D498" t="s">
-        <v>72</v>
+        <v>305</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="B499">
-        <v>7967719</v>
-      </c>
-      <c r="C499" s="2">
-        <v>1750110044</v>
+        <v>7968846</v>
+      </c>
+      <c r="C499" t="s">
+        <v>306</v>
       </c>
       <c r="D499" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="B500">
-        <v>7967719</v>
+        <v>7968924</v>
       </c>
       <c r="C500" s="2">
-        <v>1750105988</v>
+        <v>1750109659</v>
       </c>
       <c r="D500" t="s">
-        <v>300</v>
+        <v>72</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B501">
-        <v>7967726</v>
-      </c>
-      <c r="C501" t="s">
-        <v>5</v>
+        <v>7969037</v>
+      </c>
+      <c r="C501" s="2">
+        <v>1750215295</v>
       </c>
       <c r="D501" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="B502">
-        <v>7967730</v>
-      </c>
-      <c r="C502" t="s">
-        <v>302</v>
+        <v>7969146</v>
+      </c>
+      <c r="C502" s="2">
+        <v>1750200435</v>
       </c>
       <c r="D502" t="s">
-        <v>72</v>
+        <v>309</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="B503">
-        <v>7967730</v>
-      </c>
-      <c r="C503" t="s">
-        <v>94</v>
+        <v>7969146</v>
+      </c>
+      <c r="C503" s="2">
+        <v>1750200541</v>
       </c>
       <c r="D503" t="s">
-        <v>72</v>
+        <v>309</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
-        <v>156</v>
+        <v>44</v>
       </c>
       <c r="B504">
-        <v>7967733</v>
-      </c>
-      <c r="C504" s="2">
-        <v>1750222982</v>
+        <v>7969156</v>
+      </c>
+      <c r="C504" t="s">
+        <v>157</v>
       </c>
       <c r="D504" t="s">
-        <v>72</v>
+        <v>310</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="B505">
-        <v>7967764</v>
+        <v>7969191</v>
       </c>
       <c r="C505" s="2">
         <v>1770041364</v>
       </c>
       <c r="D505" t="s">
-        <v>303</v>
+        <v>162</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
-        <v>156</v>
+        <v>44</v>
       </c>
       <c r="B506">
-        <v>7967779</v>
-      </c>
-      <c r="C506" s="2">
-        <v>1770041364</v>
+        <v>7969196</v>
+      </c>
+      <c r="C506" t="s">
+        <v>311</v>
       </c>
       <c r="D506" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B507">
-        <v>7967809</v>
+        <v>7969367</v>
       </c>
       <c r="C507" s="2">
-        <v>1750053690</v>
+        <v>1750256247</v>
       </c>
       <c r="D507" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
-        <v>203</v>
+        <v>8</v>
       </c>
       <c r="B508">
-        <v>7967825</v>
+        <v>7969367</v>
       </c>
       <c r="C508" s="2">
-        <v>1750304622</v>
+        <v>1750064500</v>
       </c>
       <c r="D508" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
-        <v>203</v>
+        <v>8</v>
       </c>
       <c r="B509">
-        <v>7967825</v>
-      </c>
-      <c r="C509" t="s">
-        <v>307</v>
+        <v>7969367</v>
+      </c>
+      <c r="C509" s="2">
+        <v>1750101956</v>
       </c>
       <c r="D509" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
-        <v>185</v>
+        <v>54</v>
       </c>
       <c r="B510">
-        <v>7967829</v>
+        <v>7969374</v>
       </c>
       <c r="C510" s="2">
-        <v>1750222982</v>
+        <v>1750200435</v>
       </c>
       <c r="D510" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
-        <v>185</v>
+        <v>10</v>
       </c>
       <c r="B511">
-        <v>7967829</v>
-      </c>
-      <c r="C511" s="2">
-        <v>1750105679</v>
+        <v>7970246</v>
+      </c>
+      <c r="C511" t="s">
+        <v>156</v>
       </c>
       <c r="D511" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
-        <v>185</v>
+        <v>10</v>
       </c>
       <c r="B512">
-        <v>7967900</v>
-      </c>
-      <c r="C512" s="2">
-        <v>1750109659</v>
+        <v>7970246</v>
+      </c>
+      <c r="C512" t="s">
+        <v>316</v>
       </c>
       <c r="D512" t="s">
-        <v>261</v>
+        <v>315</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
-        <v>185</v>
+        <v>71</v>
       </c>
       <c r="B513">
-        <v>7967900</v>
+        <v>7970295</v>
       </c>
       <c r="C513" s="2">
-        <v>1750053977</v>
+        <v>1750159971</v>
       </c>
       <c r="D513" t="s">
-        <v>261</v>
+        <v>72</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B514">
-        <v>7968148</v>
+        <v>7970353</v>
       </c>
       <c r="C514" s="2">
-        <v>1750053977</v>
+        <v>1750126457</v>
       </c>
       <c r="D514" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B515">
-        <v>7968148</v>
+        <v>7970375</v>
       </c>
       <c r="C515" s="2">
-        <v>1750105988</v>
+        <v>1750101956</v>
       </c>
       <c r="D515" t="s">
-        <v>309</v>
+        <v>72</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
-        <v>44</v>
+        <v>136</v>
       </c>
       <c r="B516">
-        <v>7968150</v>
-      </c>
-      <c r="C516" s="2">
-        <v>1750109659</v>
+        <v>7970398</v>
+      </c>
+      <c r="C516" t="s">
+        <v>157</v>
       </c>
       <c r="D516" t="s">
-        <v>224</v>
+        <v>318</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
-        <v>44</v>
+        <v>226</v>
       </c>
       <c r="B517">
-        <v>7968150</v>
+        <v>7970413</v>
       </c>
       <c r="C517" s="2">
-        <v>1750053977</v>
+        <v>1750109659</v>
       </c>
       <c r="D517" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="B518">
-        <v>7968250</v>
+        <v>7970415</v>
       </c>
       <c r="C518" s="2">
-        <v>1750188523</v>
+        <v>1750200435</v>
       </c>
       <c r="D518" t="s">
-        <v>181</v>
+        <v>319</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="B519">
-        <v>7968426</v>
+        <v>7970415</v>
       </c>
       <c r="C519" s="2">
-        <v>1750092824</v>
+        <v>1750289153</v>
       </c>
       <c r="D519" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
-        <v>10</v>
+        <v>136</v>
       </c>
       <c r="B520">
-        <v>7968555</v>
-      </c>
-      <c r="C520" s="2">
-        <v>1750105988</v>
+        <v>7970508</v>
+      </c>
+      <c r="C520" t="s">
+        <v>99</v>
       </c>
       <c r="D520" t="s">
-        <v>119</v>
+        <v>320</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="B521">
-        <v>7968577</v>
+        <v>7970595</v>
       </c>
       <c r="C521" s="2">
-        <v>1750105988</v>
+        <v>1750200541</v>
       </c>
       <c r="D521" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="B522">
-        <v>7968599</v>
+        <v>7970595</v>
       </c>
       <c r="C522" s="2">
-        <v>1750109659</v>
+        <v>1750214647</v>
       </c>
       <c r="D522" t="s">
-        <v>261</v>
+        <v>321</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B523">
-        <v>7968615</v>
+        <v>7970731</v>
       </c>
       <c r="C523" s="2">
-        <v>1750109641</v>
+        <v>1770041364</v>
       </c>
       <c r="D523" t="s">
-        <v>281</v>
+        <v>72</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
-        <v>142</v>
+        <v>8</v>
       </c>
       <c r="B524">
-        <v>7968615</v>
+        <v>7971053</v>
       </c>
       <c r="C524" s="2">
-        <v>1750035762</v>
+        <v>1750188523</v>
       </c>
       <c r="D524" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.3">
@@ -8769,38 +8793,38 @@
         <v>10</v>
       </c>
       <c r="B525">
-        <v>7968759</v>
+        <v>7971177</v>
       </c>
       <c r="C525" s="2">
-        <v>1750188546</v>
+        <v>1750173205</v>
       </c>
       <c r="D525" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="B526">
-        <v>7968846</v>
-      </c>
-      <c r="C526" t="s">
-        <v>313</v>
+        <v>7971224</v>
+      </c>
+      <c r="C526" s="2">
+        <v>1750101956</v>
       </c>
       <c r="D526" t="s">
-        <v>314</v>
+        <v>72</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="B527">
-        <v>7968850</v>
-      </c>
-      <c r="C527" t="s">
-        <v>315</v>
+        <v>7971224</v>
+      </c>
+      <c r="C527" s="2">
+        <v>1750188524</v>
       </c>
       <c r="D527" t="s">
         <v>72</v>
@@ -8808,16 +8832,16 @@
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="B528">
-        <v>7968924</v>
+        <v>7971859</v>
       </c>
       <c r="C528" s="2">
         <v>1750109659</v>
       </c>
       <c r="D528" t="s">
-        <v>72</v>
+        <v>323</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.3">
@@ -8825,13 +8849,13 @@
         <v>54</v>
       </c>
       <c r="B529">
-        <v>7969037</v>
+        <v>7972029</v>
       </c>
       <c r="C529" s="2">
-        <v>1750215295</v>
+        <v>1750248000</v>
       </c>
       <c r="D529" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.3">
@@ -8839,150 +8863,150 @@
         <v>54</v>
       </c>
       <c r="B530">
-        <v>7969146</v>
+        <v>7972029</v>
       </c>
       <c r="C530" s="2">
-        <v>1750200435</v>
+        <v>1750220330</v>
       </c>
       <c r="D530" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="B531">
-        <v>7969146</v>
+        <v>7973193</v>
       </c>
       <c r="C531" s="2">
-        <v>1750200541</v>
+        <v>1750092824</v>
       </c>
       <c r="D531" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B532">
-        <v>7969191</v>
+        <v>7973242</v>
       </c>
       <c r="C532" s="2">
         <v>1770041364</v>
       </c>
       <c r="D532" t="s">
-        <v>72</v>
+        <v>162</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B533">
-        <v>7969196</v>
-      </c>
-      <c r="C533" t="s">
-        <v>318</v>
+        <v>7973328</v>
+      </c>
+      <c r="C533" s="2">
+        <v>1750173205</v>
       </c>
       <c r="D533" t="s">
-        <v>319</v>
+        <v>162</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="B534">
-        <v>7969374</v>
+        <v>7973345</v>
       </c>
       <c r="C534" s="2">
-        <v>1750200435</v>
+        <v>1750105988</v>
       </c>
       <c r="D534" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
-        <v>138</v>
+        <v>54</v>
       </c>
       <c r="B535">
-        <v>7969801</v>
-      </c>
-      <c r="C535" t="s">
-        <v>96</v>
+        <v>7973357</v>
+      </c>
+      <c r="C535" s="2">
+        <v>1750220022</v>
       </c>
       <c r="D535" t="s">
-        <v>72</v>
+        <v>327</v>
       </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="B536">
-        <v>7970246</v>
-      </c>
-      <c r="C536" t="s">
-        <v>163</v>
+        <v>7973357</v>
+      </c>
+      <c r="C536" s="2">
+        <v>1750220000</v>
       </c>
       <c r="D536" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="B537">
-        <v>7970246</v>
-      </c>
-      <c r="C537" t="s">
-        <v>322</v>
+        <v>7973357</v>
+      </c>
+      <c r="C537" s="2">
+        <v>1750200435</v>
       </c>
       <c r="D537" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
-        <v>71</v>
+        <v>226</v>
       </c>
       <c r="B538">
-        <v>7970295</v>
+        <v>7973383</v>
       </c>
       <c r="C538" s="2">
-        <v>1750159971</v>
+        <v>1750055175</v>
       </c>
       <c r="D538" t="s">
-        <v>72</v>
+        <v>328</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="B539">
-        <v>7970353</v>
-      </c>
-      <c r="C539" s="2">
-        <v>1750126457</v>
+        <v>7973399</v>
+      </c>
+      <c r="C539" t="s">
+        <v>329</v>
       </c>
       <c r="D539" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
-        <v>8</v>
+        <v>226</v>
       </c>
       <c r="B540">
-        <v>7970375</v>
+        <v>7973428</v>
       </c>
       <c r="C540" s="2">
-        <v>1750101956</v>
+        <v>1750302897</v>
       </c>
       <c r="D540" t="s">
         <v>72</v>
@@ -8990,184 +9014,184 @@
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B541">
-        <v>7970406</v>
+        <v>7973493</v>
       </c>
       <c r="C541" s="2">
-        <v>1750105988</v>
+        <v>1750188523</v>
       </c>
       <c r="D541" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B542">
-        <v>7970406</v>
+        <v>7973637</v>
       </c>
       <c r="C542" s="2">
-        <v>1750069713</v>
+        <v>1750188546</v>
       </c>
       <c r="D542" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
-        <v>203</v>
+        <v>333</v>
       </c>
       <c r="B543">
-        <v>7970413</v>
-      </c>
-      <c r="C543" s="2">
-        <v>1750109659</v>
+        <v>7973702</v>
+      </c>
+      <c r="C543" t="s">
+        <v>18</v>
       </c>
       <c r="D543" t="s">
-        <v>224</v>
+        <v>330</v>
       </c>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="B544">
-        <v>7970415</v>
+        <v>7973842</v>
       </c>
       <c r="C544" s="2">
-        <v>1750200435</v>
+        <v>1750109615</v>
       </c>
       <c r="D544" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="B545">
-        <v>7970415</v>
+        <v>7974004</v>
       </c>
       <c r="C545" s="2">
-        <v>1750289153</v>
+        <v>1750109659</v>
       </c>
       <c r="D545" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
-        <v>142</v>
+        <v>10</v>
       </c>
       <c r="B546">
-        <v>7970508</v>
-      </c>
-      <c r="C546" t="s">
-        <v>100</v>
+        <v>7974004</v>
+      </c>
+      <c r="C546" s="2">
+        <v>1750109615</v>
       </c>
       <c r="D546" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
-        <v>54</v>
+        <v>224</v>
       </c>
       <c r="B547">
-        <v>7970595</v>
+        <v>7974611</v>
       </c>
       <c r="C547" s="2">
-        <v>1750200541</v>
+        <v>1750173205</v>
       </c>
       <c r="D547" t="s">
-        <v>327</v>
+        <v>162</v>
       </c>
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="B548">
-        <v>7970595</v>
+        <v>7974671</v>
       </c>
       <c r="C548" s="2">
-        <v>1750214647</v>
+        <v>1750105986</v>
       </c>
       <c r="D548" t="s">
-        <v>327</v>
+        <v>304</v>
       </c>
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
-        <v>156</v>
+        <v>8</v>
       </c>
       <c r="B549">
-        <v>7970731</v>
+        <v>7974711</v>
       </c>
       <c r="C549" s="2">
-        <v>1770041364</v>
+        <v>1750109659</v>
       </c>
       <c r="D549" t="s">
-        <v>72</v>
+        <v>336</v>
       </c>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B550">
-        <v>7970812</v>
-      </c>
-      <c r="C550" t="s">
-        <v>69</v>
+        <v>7974717</v>
+      </c>
+      <c r="C550" s="2">
+        <v>1750256247</v>
       </c>
       <c r="D550" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="B551">
-        <v>7970853</v>
-      </c>
-      <c r="C551" t="s">
-        <v>329</v>
+        <v>7974717</v>
+      </c>
+      <c r="C551" s="2">
+        <v>1750188523</v>
       </c>
       <c r="D551" t="s">
-        <v>72</v>
+        <v>337</v>
       </c>
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B552">
-        <v>7971053</v>
-      </c>
-      <c r="C552" s="2">
-        <v>1750188523</v>
+        <v>7974718</v>
+      </c>
+      <c r="C552" t="s">
+        <v>338</v>
       </c>
       <c r="D552" t="s">
-        <v>270</v>
+        <v>339</v>
       </c>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
-        <v>10</v>
+        <v>224</v>
       </c>
       <c r="B553">
-        <v>7971177</v>
+        <v>7974836</v>
       </c>
       <c r="C553" s="2">
-        <v>1750173205</v>
+        <v>1750053690</v>
       </c>
       <c r="D553" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.3">
@@ -9175,24 +9199,24 @@
         <v>8</v>
       </c>
       <c r="B554">
-        <v>7971224</v>
+        <v>7975608</v>
       </c>
       <c r="C554" s="2">
-        <v>1750101956</v>
+        <v>1750188523</v>
       </c>
       <c r="D554" t="s">
-        <v>72</v>
+        <v>341</v>
       </c>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="B555">
-        <v>7971224</v>
+        <v>7976007</v>
       </c>
       <c r="C555" s="2">
-        <v>1750188524</v>
+        <v>1750134478</v>
       </c>
       <c r="D555" t="s">
         <v>72</v>
@@ -9200,30 +9224,30 @@
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
-        <v>232</v>
+        <v>54</v>
       </c>
       <c r="B556">
-        <v>7971637</v>
+        <v>7976007</v>
       </c>
       <c r="C556" s="2">
-        <v>1750109615</v>
+        <v>1750214647</v>
       </c>
       <c r="D556" t="s">
-        <v>331</v>
+        <v>72</v>
       </c>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
-        <v>232</v>
+        <v>8</v>
       </c>
       <c r="B557">
-        <v>7971637</v>
+        <v>7976043</v>
       </c>
       <c r="C557" s="2">
-        <v>1750109641</v>
+        <v>1750035762</v>
       </c>
       <c r="D557" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.3">
@@ -9231,10 +9255,10 @@
         <v>44</v>
       </c>
       <c r="B558">
-        <v>7971663</v>
+        <v>7976062</v>
       </c>
       <c r="C558" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="D558" t="s">
         <v>72</v>
@@ -9242,13 +9266,13 @@
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
-        <v>203</v>
+        <v>54</v>
       </c>
       <c r="B559">
-        <v>7971711</v>
+        <v>7976155</v>
       </c>
       <c r="C559" s="2">
-        <v>1750109641</v>
+        <v>1750154866</v>
       </c>
       <c r="D559" t="s">
         <v>72</v>
@@ -9256,13 +9280,13 @@
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
-        <v>203</v>
+        <v>54</v>
       </c>
       <c r="B560">
-        <v>7971711</v>
+        <v>7976155</v>
       </c>
       <c r="C560" s="2">
-        <v>1750109615</v>
+        <v>1750108340</v>
       </c>
       <c r="D560" t="s">
         <v>72</v>
@@ -9270,244 +9294,62 @@
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B561">
-        <v>7971859</v>
-      </c>
-      <c r="C561" s="2">
-        <v>1750109659</v>
+        <v>7976225</v>
+      </c>
+      <c r="C561" t="s">
+        <v>344</v>
       </c>
       <c r="D561" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="B562">
-        <v>7972029</v>
+        <v>7976347</v>
       </c>
       <c r="C562" s="2">
-        <v>1750248000</v>
+        <v>1750188523</v>
       </c>
       <c r="D562" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="B563">
-        <v>7972029</v>
+        <v>7976609</v>
       </c>
       <c r="C563" s="2">
-        <v>1750220330</v>
+        <v>1750109615</v>
       </c>
       <c r="D563" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
-        <v>156</v>
+        <v>8</v>
       </c>
       <c r="B564">
-        <v>7973242</v>
+        <v>7977336</v>
       </c>
       <c r="C564" s="2">
-        <v>1770041364</v>
+        <v>1750173205</v>
       </c>
       <c r="D564" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A565" t="s">
-        <v>36</v>
-      </c>
-      <c r="B565">
-        <v>7973261</v>
-      </c>
-      <c r="C565" t="s">
-        <v>335</v>
-      </c>
-      <c r="D565" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A566" t="s">
-        <v>44</v>
-      </c>
-      <c r="B566">
-        <v>7973280</v>
-      </c>
-      <c r="C566" t="s">
-        <v>108</v>
-      </c>
-      <c r="D566" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A567" t="s">
-        <v>156</v>
-      </c>
-      <c r="B567">
-        <v>7973282</v>
-      </c>
-      <c r="C567" s="2">
-        <v>1750208511</v>
-      </c>
-      <c r="D567" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A568" t="s">
-        <v>10</v>
-      </c>
-      <c r="B568">
-        <v>7973328</v>
-      </c>
-      <c r="C568" s="2">
-        <v>1750173205</v>
-      </c>
-      <c r="D568" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A569" t="s">
-        <v>10</v>
-      </c>
-      <c r="B569">
-        <v>7973345</v>
-      </c>
-      <c r="C569" s="2">
-        <v>1750105988</v>
-      </c>
-      <c r="D569" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A570" t="s">
-        <v>54</v>
-      </c>
-      <c r="B570">
-        <v>7973357</v>
-      </c>
-      <c r="C570" s="2">
-        <v>1750220022</v>
-      </c>
-      <c r="D570" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A571" t="s">
-        <v>54</v>
-      </c>
-      <c r="B571">
-        <v>7973357</v>
-      </c>
-      <c r="C571" s="2">
-        <v>1750220000</v>
-      </c>
-      <c r="D571" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A572" t="s">
-        <v>54</v>
-      </c>
-      <c r="B572">
-        <v>7973357</v>
-      </c>
-      <c r="C572" s="2">
-        <v>1750200435</v>
-      </c>
-      <c r="D572" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A573" t="s">
-        <v>36</v>
-      </c>
-      <c r="B573">
-        <v>7973381</v>
-      </c>
-      <c r="C573" s="2">
-        <v>1750295447</v>
-      </c>
-      <c r="D573" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A574" t="s">
-        <v>36</v>
-      </c>
-      <c r="B574">
-        <v>7973381</v>
-      </c>
-      <c r="C574" s="2">
-        <v>1750288271</v>
-      </c>
-      <c r="D574" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A575" t="s">
-        <v>36</v>
-      </c>
-      <c r="B575">
-        <v>7973399</v>
-      </c>
-      <c r="C575" t="s">
-        <v>338</v>
-      </c>
-      <c r="D575" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A576" t="s">
-        <v>203</v>
-      </c>
-      <c r="B576">
-        <v>7973428</v>
-      </c>
-      <c r="C576" s="2">
-        <v>1750302897</v>
-      </c>
-      <c r="D576" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A577" t="s">
-        <v>10</v>
-      </c>
-      <c r="B577">
-        <v>7973842</v>
-      </c>
-      <c r="C577" s="2">
-        <v>1750109615</v>
-      </c>
-      <c r="D577" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D577" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:D564" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/intento70-30.xlsx
+++ b/intento70-30.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas.rodriguez\OneDrive - Diebold Nixdorf\Escritorio\Codigo\PARTES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dieboldnixdorf-my.sharepoint.com/personal/lucas_rodriguez_dieboldnixdorf_com/Documents/Escritorio/Codigo/PARTES/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C21186-FFD7-4917-92C9-5866CFA55D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="11_6E09968E5B005A17B75A3D11595ED87656CFE8E4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93DDEB73-000F-47DD-8BE5-677DDD766BA2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$492</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$470</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="309">
   <si>
     <t>NOMBRE CLIENTE</t>
   </si>
@@ -259,9 +259,6 @@
     <t>NOWIP. 02/02/24. PARTE 1750215294 V5 EXTRACTOR INFERIOR: SIN SALDO EN WIP.  --  "DISPONIBLE LA PARTE FASCIA 280". (MINIACI)</t>
   </si>
   <si>
-    <t>NOSP. 21/02/24. PARTE 1750109659 V4 STACKER + 1750053977 V4 CLAMP + 1750105988 LECTORA V2XU USB: SIN SPARE PARTS PARA SU REPARACIÓN. (FRANCO)</t>
-  </si>
-  <si>
     <t>BIO.2/2/2024 TICKET PENDIENTE POR BIOMÉTRICO (CORREA)</t>
   </si>
   <si>
@@ -313,31 +310,19 @@
     <t>STOCK. 1/3/24. FASCIA 2100 SIN BIOMETRICO, CON MARCO 15" Y JACK 3,5MM A ESPERA DE DESARME (SORIANO)</t>
   </si>
   <si>
-    <t>NOSP. 07/03/24. PARTE 1750109659 V4 STACKER: SIN SPARE PARTS PARA REPARACIÓN.  --  "PARTE 1750053977 V4 CLAMP + 1750177464 CCDM ESCROW 3 + 1750101952 DISTANCE TRANSPORT DISPONIBLES ". (MINIACI)</t>
-  </si>
-  <si>
-    <t>SUP.27/2/2024 A ESPERA DE NÚMERO DE PARTE CORRECTO (CORREA)</t>
-  </si>
-  <si>
     <t>SV226262000D</t>
   </si>
   <si>
     <t>NOWIP. 05/03/24. PARTE SV226262000D ENA TAPA DE GAVETAS: SIN SALDO EN WIP. (MINIACI)</t>
   </si>
   <si>
-    <t>NOSP. 10/04/24. PARTE 1750109659 V4 STACKER: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 04/03/24. PARTE 1750109659 V4 STACKER: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+    <t>SUP. 2/5/24. A ESPERA DE CONFIRMACION DE REPUESTOS SOLICITADOS (SORIANO)</t>
   </si>
   <si>
     <t>NOSP. 20/03/24. PARTE SV219839000E ENA UDD: SIN SPARE PARTS PARA REPARACIÓN.  --  "SV217424000F        ASSY,ENA,CI,PACKAGED+ 49211436000A Transport 620mm lenght SRL DISPONIBLE EN STOCK". (MINIACI)</t>
   </si>
   <si>
-    <t>NOSP. 07/03/24. PARTE 1750109659 V4 STACKER: SIN SPARE PARTS PARA REPARACIÓN.  --  "PARTE 1750053977 V4 CLAMP DISPONIBLE". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 11/03/24. PARTE 1750109659 V4 STACKER: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750105679 CMD Controller II USB assd. with cover REPUESTO DISPONIBLE EN STOCK". (MINIACI)</t>
+    <t>49225262000A</t>
   </si>
   <si>
     <t>NOSP. 15/03/24. PARTE SV219839000E ENA UDD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
@@ -355,9 +340,6 @@
     <t>STOCK. 03/04/2024 A ESPERA DE DESARME DE FRENTE FASCIA 720 FL + GUIAS PARA 720 FL (MAITLAND)</t>
   </si>
   <si>
-    <t>NOSP. 13/03/24. PARTE 1750109659 V4 STACKER: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
     <t>NOSP. 21/03/24. PARTE 1750215294 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
@@ -367,231 +349,216 @@
     <t>NOWIP. 08/04/24. PARTE 1750193275 RM3 MAIN MODULE: SIN SALDO EN WIP. (MINIACI)</t>
   </si>
   <si>
+    <t>NOSP. 14/03/24. PARTE 1750109658 V4 STACKER S/SR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>49208102000H</t>
+  </si>
+  <si>
+    <t>STOCK. 29/04/24 REPUESTO 1750109659 STACKER DISPONIBLE EN STOCK NODO TRELEW (IPARRAGUIRRE).</t>
+  </si>
+  <si>
+    <t>NOSP. 18/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750200541        DISTRIBUTOR MODULE CRS DISPONIBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
+    <t>OKETR. 02/05/24. PARTE 1750059284 V4 TRANSPORTE HORIZONTAL RL 124MM: REPARADO. EN FGI PARA TRANSFERIR A STOCK. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 19/03/24. PARTE 1750154145 TOUCH CONTROLLER + 1750105988 LECTORA V2X USB + 1750169942 MONITOR 15": SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 17/04/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 29/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 18/04/24. PARTE 1750215294 V5 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 16/04/24. PARTE 1750109659 V4 STACKER + 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 08/04/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 08/04/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL + 1750214647 RM3 TRANSFER UNIT SAFE: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>CAJERO EXPRESS - LINK</t>
+  </si>
+  <si>
+    <t>NOWIP. 27/03/24. PARTE "MONITOR/TOUCH" N° DE PARTE SIN IDENTIFICACIÓN CORRECTA 1750350686 + 1750301986: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 27/03/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN  / "TRABA" 1750067867 SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 19/04/24. PARTE 1750109659 V4 STACKER: SIN SPARE PARTS PARA REPARACIÓN.  --  "PARTE 1750109615 V4 EXTRACTOR INFERIOR DISPONIBLE". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 16/04/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL + 1750214647 RM3 TRANSFER UNIT: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>BIO.26/3/2024 TICKET PENDIENTE POR BIOMETRICO (CORREA)</t>
+  </si>
+  <si>
+    <t>ETR. 23/04/24. PARTE 49208102003M AFD CCA DISPENSER: EN REPARACIÓN. ETR: 30/04/24. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 27/03/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>HASAR</t>
+  </si>
+  <si>
+    <t>NOWIP. 03/04/24. PARTE 1750222982 SHUTTER PC 280: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>49218289X0BB</t>
+  </si>
+  <si>
+    <t>NOWIP. 16/04/24. PARTE 49202967X0CC BOQUILLA DE LECTORA DIP: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 15/04/24. PARTE 1750044878 V4 DISTRIBUTOR BOARD: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 10/04/24. PARTE 1750109659 V4 STACKER: SIN SPARE PARTS PARA REPARACIÓN.  --  "extractor 1750109615 disponible". (MINIACI)</t>
+  </si>
+  <si>
+    <t>RIEL</t>
+  </si>
+  <si>
+    <t>NOSP. 03/04/24. PARTE 1750092824 DEPÓSITO DE SOBRES PROCASH: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 23/04/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750101956 DISPENSER MODULE DISPONIBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 08/04/24. SE CORRIGE COMENTARIO ANTERIOR. PARTE 1750193275 RM3 MAIN MODULE: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 24/04/24. PARTE 1750248000 RM3 IO COLLECTOR + 1750220330 RM3 IO TRAY + 1750193275 RM3 MAIN MODULE: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 15/04/24. PARTE 1750188523 CCDM CHASIS + 1750263341 RM3 TRANSPORT UNIT HEAD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>49208102002M</t>
+  </si>
+  <si>
+    <t>ETR. 25/04/24. PARTE 49208102003M AFD CCA DISPENSER: EN REPARACIÓN. ETR: 03/05/24. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 10/04/24. PARTE 1750109659 V4 STACKER + 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN.  --  "PARTE 1750100966 CMD V4 SHUTTER VERTIKAL RL STRIP" (SIC STOCK SIN INDICAR CONDICIÓN). (</t>
+  </si>
+  <si>
+    <t>NOWIP. 08/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 08/04/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 02/05/24. PARTE 1750193275 RM3 MAIN MODULE: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 09/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>BANCO CREDICOOP</t>
+  </si>
+  <si>
+    <t>RC. 03/05/2024 PARTE 1750092824 DEPOSITO DE SOBRES A ESPERA DE REPARACION (MAITLAND)</t>
+  </si>
+  <si>
+    <t>NOSP. 19/04/24. PARTE 1750109659 V4 STACKER + 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 22/04/24. PARTE 1750155446 CCDM AMPLIFIER: SIN SALDO EN WIP.  --  "REJECT TRANSPORT 1750187030 DISPONIBLE". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 09/04/24. PARTE 1750215294 V5 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 10/04/24. SE CORRIGE COMENTARIO ANTERIOR. PARTE 1750214647 RM3 TRANSFER UNIT SAFE + 1750140781 RM3 HEAD CONTROLLER: SIN SALDO EN WIP.  --  "1750212682         REEL STORAGE BOX DISPONIBLE EN STO</t>
+  </si>
+  <si>
+    <t>NOSP. 15/04/24. PARTE 1750126457 RM3 REEL STORAGE + 1750196174 RM3 MASTERCONTROLLER: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 11/04/24. PARTE 1750193275 RM3 MAIN MODULE: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 10/04/24. PARTE 1750215295 V5 EXTRACTOR INFERIOR + 1750215294 V5 EXTRACTOR INFERIOR: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 15/04/24. PARTE 1750188546 DEPÓSITO DE SOBRES CINEO: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>49257458000B</t>
+  </si>
+  <si>
+    <t>NOSP. 16/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 18/04/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>ETR. 22/04/24. PARTE 49208102003M AFD CCA DISPENSER: EN REPARACIÓN. ETR: 29/04/24. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 10/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 22/04/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>ETR. 30/04/24. PARTE 49208102003M AFD CCA DISPENSER: EN REPARACIÓN. ETR: 08/05/24. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 15/04/24. PARTE 1750222982 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 10/04/24. PARTE 1750126457 RM3 REEL STORAGE: SIN SALDO EN WIP.  (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 19/04/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 16/04/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 11/04/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 16/04/24. PARTE 1750183289 V5 STACKER: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750053977 CLAMP DISPONIBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 15/04/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 15/04/24. PARTE 1750193275 RM3 MAIN MODULE: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 19/04/24. PARTE 1750193275 RM3 MAIN MODULE: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 15/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 02/05/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>BIO. 18/4/24. PENDIENTE POR BIOMETRICO (SORIANO)</t>
+  </si>
+  <si>
+    <t>NOWIP. 16/04/24. PARTE 1750214647 RM3 TRANSFER UNIT SAFE + 1750263341 RM3 TRANSPORT UNIT ESCROW: SIN SALDO EN WIP.  --  "1750101956        dispenser module VM3 DISPONIBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
     <t>NUEVO BANCO DEL CHACO</t>
   </si>
   <si>
-    <t>NOWIP. 15/03/24. PARTE 1750245766 FASCIA PC280: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 14/03/24. PARTE 1750109658 V4 STACKER S/SR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>49225262000A</t>
-  </si>
-  <si>
-    <t>49208102000H</t>
-  </si>
-  <si>
-    <t>STOCK. 29/04/24 REPUESTO 1750109659 STACKER DISPONIBLE EN STOCK NODO TRELEW (IPARRAGUIRRE).</t>
-  </si>
-  <si>
-    <t>NOSP. 18/03/24. PARTE 1750092824 DEPÓSITO DE SOBRES CINE: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 18/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750200541        DISTRIBUTOR MODULE CRS DISPONIBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 19/03/24. PARTE 1750154145 TOUCH CONTROLLER + 1750105988 LECTORA V2X USB + 1750169942 MONITOR 15": SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 17/04/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 03/04/34. PARTE 1750109659 V4 STACKER: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 29/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 18/04/24. PARTE 1750215294 V5 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 16/04/24. PARTE 1750109659 V4 STACKER + 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 08/04/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 08/04/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL + 1750214647 RM3 TRANSFER UNIT SAFE: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 21/03/24. PARTE 1750092824 DEPOSITO DE SOBRES PROCASH: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>CAJERO EXPRESS - LINK</t>
-  </si>
-  <si>
-    <t>NOWIP. 27/03/24. PARTE "MONITOR/TOUCH" N° DE PARTE SIN IDENTIFICACIÓN CORRECTA 1750350686 + 1750301986: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 27/03/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN  / "TRABA" 1750067867 SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 19/04/24. PARTE 1750109659 V4 STACKER: SIN SPARE PARTS PARA REPARACIÓN.  --  "PARTE 1750109615 V4 EXTRACTOR INFERIOR DISPONIBLE". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 16/04/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL + 1750214647 RM3 TRANSFER UNIT: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>BIO.26/3/2024 TICKET PENDIENTE POR BIOMETRICO (CORREA)</t>
-  </si>
-  <si>
-    <t>ETR. 23/04/24. PARTE 49208102003M AFD CCA DISPENSER: EN REPARACIÓN. ETR: 30/04/24. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 27/03/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>HASAR</t>
-  </si>
-  <si>
-    <t>NOWIP. 03/04/24. PARTE 1750222982 SHUTTER PC 280: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>49218289X0BB</t>
-  </si>
-  <si>
-    <t>NOWIP. 16/04/24. PARTE 49202967X0CC BOQUILLA DE LECTORA DIP: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 15/04/24. PARTE 1750044878 V4 DISTRIBUTOR BOARD: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 10/04/24. PARTE 1750109659 V4 STACKER: SIN SPARE PARTS PARA REPARACIÓN.  --  "extractor 1750109615 disponible". (MINIACI)</t>
-  </si>
-  <si>
-    <t>RIEL</t>
-  </si>
-  <si>
-    <t>NOSP. 03/04/24. PARTE 1750092824 DEPÓSITO DE SOBRES PROCASH: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 23/04/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750101956 DISPENSER MODULE DISPONIBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 08/04/24. SE CORRIGE COMENTARIO ANTERIOR. PARTE 1750193275 RM3 MAIN MODULE: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 24/04/24. PARTE 1750248000 RM3 IO COLLECTOR + 1750220330 RM3 IO TRAY + 1750193275 RM3 MAIN MODULE: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 15/04/24. PARTE 1750188523 CCDM CHASIS + 1750263341 RM3 TRANSPORT UNIT HEAD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>49208102002M</t>
-  </si>
-  <si>
-    <t>ETR. 25/04/24. PARTE 49208102003M AFD CCA DISPENSER: EN REPARACIÓN. ETR: 03/05/24. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 10/04/24. PARTE 1750109659 V4 STACKER + 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN.  --  "PARTE 1750100966 CMD V4 SHUTTER VERTIKAL RL STRIP" (SIC STOCK SIN INDICAR CONDICIÓN). (</t>
-  </si>
-  <si>
-    <t>NOWIP. 08/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 08/04/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>CBA.NOWIP. 02/5/2024. PARTE 1750193275 MAIN MODULE HEAD W. DRIVE CRS CPT. :SIN SALDO EN WIP. SE SOLICITA A CABA. (JIMENEZ)</t>
-  </si>
-  <si>
-    <t>NOWIP. 09/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 08/04/24. PARTE 1750109659 V4 STACKER: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 19/04/24. PARTE 1750109659 V4 STACKER + 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>STOCK. 30/04/24 REPUESTO 1750109659 STACKER DISPONIBLE EN STOCK NODO TRELEW (IPARRAGUIRRE).</t>
-  </si>
-  <si>
-    <t>NOWIP. 22/04/24. PARTE 1750155446 CCDM AMPLIFIER: SIN SALDO EN WIP.  --  "REJECT TRANSPORT 1750187030 DISPONIBLE". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 09/04/24. PARTE 1750215294 V5 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 10/04/24. SE CORRIGE COMENTARIO ANTERIOR. PARTE 1750214647 RM3 TRANSFER UNIT SAFE + 1750140781 RM3 HEAD CONTROLLER: SIN SALDO EN WIP.  --  "1750212682         REEL STORAGE BOX DISPONIBLE EN STO</t>
-  </si>
-  <si>
-    <t>NOSP. 15/04/24. PARTE 1750126457 RM3 REEL STORAGE + 1750196174 RM3 MASTERCONTROLLER: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 11/04/24. PARTE 1750193275 RM3 MAIN MODULE: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 10/04/24. PARTE 1750215295 V5 EXTRACTOR INFERIOR + 1750215294 V5 EXTRACTOR INFERIOR: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 15/04/24. PARTE 1750188546 DEPÓSITO DE SOBRES CINEO: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>49257458000B</t>
-  </si>
-  <si>
-    <t>NOSP. 16/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 18/04/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>ETR. 22/04/24. PARTE 49208102003M AFD CCA DISPENSER: EN REPARACIÓN. ETR: 29/04/24. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 10/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 22/04/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>ETR. 30/04/24. PARTE 49208102003M AFD CCA DISPENSER: EN REPARACIÓN. ETR: 08/05/24. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 15/04/24. PARTE 1750222982 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 10/04/24. PARTE 1750126457 RM3 REEL STORAGE: SIN SALDO EN WIP.  (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 19/04/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>49201152000D</t>
-  </si>
-  <si>
-    <t>NOSP. 16/04/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 16/04/24. PARTE 1750109659 V4 STACKER: SIN SPARE PARTS PARA REPARACIÓN.  --  "PARTE 1750053977 V4 CLAMP DISPONIBLE". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 11/04/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 16/04/24. PARTE 1750183289 V5 STACKER: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750053977 CLAMP DISPONIBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 15/04/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 15/04/24. PARTE 1750193275 RM3 MAIN MODULE: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 19/04/24. PARTE 1750193275 RM3 MAIN MODULE: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 15/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>BIO. 18/4/24. PENDIENTE POR BIOMETRICO (SORIANO)</t>
-  </si>
-  <si>
-    <t>NOWIP. 16/04/24. PARTE 1750214647 RM3 TRANSFER UNIT SAFE + 1750263341 RM3 TRANSPORT UNIT ESCROW: SIN SALDO EN WIP.  --  "1750101956        dispenser module VM3 DISPONIBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
     <t>NOSP. 25/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
@@ -610,9 +577,6 @@
     <t>NOSP. 17/04/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
-    <t>BANCO CREDICOOP</t>
-  </si>
-  <si>
     <t>NOWIP. 17/04/24. PARTE 49254690000N AFD 2.0 STACKER: SIN SALDO WN WIP.  --  "ARTE 1750304622 CHD-mot ICT3H5-3AD2792 SecPac2 DISPONIBLE". (MINIACI)</t>
   </si>
   <si>
@@ -625,9 +589,6 @@
     <t>NOWIP. 16/04/24. PARTE 1750222982 SHUTTER PC280 LITE: SIN SALDO EN WIP.  --  "1750105679        CMD Controller II USB assd. with cover DISPONIBLE EN STOCK". (MINIACI)</t>
   </si>
   <si>
-    <t>NOSP. 02/05/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
     <t>NOSP. 16/04/24. PARTE 1750092824 DEPÓSITO DE SOBRES PROCASH: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
@@ -670,7 +631,7 @@
     <t>NOWIP. 18/04/24. PARTE 1750248000 RM3 IO COLLECTOR + 1750220330 RM3 IO TRAY: SIN SALDO EN WIP. (MINIACI)</t>
   </si>
   <si>
-    <t>NOSP. 18/04/24. PARTE 1750092824 DEPÓSITO DE SOBRES PROCASH: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+    <t>NOWIP. 02/05/24. PARTE 1750134478 RM3 CCU + 1750263341 RM3 TRANSPORT UNIT HEAD ESCROW: SIN SALDO EN WIP.  --  "1750200541 Distributor Module CRS+ 1750245555 transport unit head short path CRS/ATS DISP</t>
   </si>
   <si>
     <t>NOSP. 18/04/24. PARTE 1750248000 RM3 IO COLLECTOR + 1750220330 RM3 IO TRAY: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
@@ -682,9 +643,6 @@
     <t>NOWIP. 22/04/24. PARTE 49217353000A "ASSEMBLY PRINTER CARTRIDGE": SIN SALDO EN WIP. (MINIACI)</t>
   </si>
   <si>
-    <t>ETR. 19/04/24. PARTE 49208102003M AFD CCA DISPENSER: EN REPARACIÓN. ETR: 26/04/24. (MINIACI)</t>
-  </si>
-  <si>
     <t>NOSP. 30/04/24. PARTE 1750188523 CCDM CHASIS + 1750154866 CCDM VALIDADOR CASH CHECK: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750188524 ALIGNMENT STATION 3 CCDM+ 1750101952 DISTANCE TRANSPORT VM3 DISPO</t>
   </si>
   <si>
@@ -697,9 +655,6 @@
     <t>NOSP. 18/04/24. PARTE 1750188546 DEPÓSITO DE SOBRES CINEO: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
-    <t>NOSP. 25/04/24. PARTE 1750109659 V4 STACKER: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
     <t>NOSP. 19/04/24. PARTE 1750109659 V4 STACKER: SIN SPARE PARTS PARA REPARACIÓN.  --  "EXTRACTOR 1750109615 DISPONIBLE". (MINIACI)</t>
   </si>
   <si>
@@ -733,9 +688,6 @@
     <t>NOSP. 22/04/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR + 1750215294 V5 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
-    <t>NOSP. 23/04/24. PARTE 1750109659 V4 STACKER: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
     <t>ETR. 24/04/24. PARTE 49208102003M AFD CCA DISPENSER: EN REPARACIÓN. ETR: 30/04/24. (MINIACI)</t>
   </si>
   <si>
@@ -760,9 +712,6 @@
     <t>NOWIP. 23/04/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
   </si>
   <si>
-    <t>49208102003M</t>
-  </si>
-  <si>
     <t>NOSP. 29/04/24. PARTE 1750177464 CCDM ESCROW: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
@@ -814,6 +763,9 @@
     <t>NOSP. 24/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
+    <t>RC. 3/5/24. LECTORA 1750105988 A ESPERA DE REPARACION (SORIANO)</t>
+  </si>
+  <si>
     <t>NOSP. 25/04/24. PARTE 1750188523 CCDM CHASIS + 1750177464 CCDM ESCROW: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
@@ -832,24 +784,9 @@
     <t>NOSP. 25/04/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
-    <t>NOSP. 24/04/24. PARTE 1750109659 V4 STACKER: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750256248 TP28 DISPONIBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>CBA.RC.24/4/24. PARTE 1750130600	CMD-OUTSERT CHASSIS QUAD. PREASSD.+1750109615	DOUBLE EXTRACTOR UNIT CMD V4:EN ESPERA DE REPARACIÓN. ETA:30/4/24 (JIMENEZ)</t>
-  </si>
-  <si>
-    <t>NOWIP. 29/04/24. PARTE S/N DISCO SATA: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 26/04/24. PARTE 1750109659 V4 STACKER S/SR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
     <t>NOSP. 25/04/24. PARTE 1750100966 V4 SHUTTER VERTICAL RL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
-    <t>CBA.RC.30/4/24. PARTE 1750109641	DOUBLE EXTRACTOR UNIT MDMS CMD V4:EN ESPERA DE REPARACIÓN. ETA:3/5/24 (JIMENEZ)</t>
-  </si>
-  <si>
     <t>NOSP. 30/04/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
@@ -874,24 +811,18 @@
     <t>NOSP. 30/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
-    <t>STOCK.25/4/2024 REPUESTO SE DESPACHA DESDE NODO TRELEW (CORREA)</t>
-  </si>
-  <si>
-    <t>NOSP. 26/04/24. PARTE 1750214641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
     <t>NOSP. 30/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750053977 CLAMP DISPONIBLE EN STOCK". (MINIACI)</t>
   </si>
   <si>
     <t>NOSP. 30/04/24. PARTE 1750214647 RM3 TRANSFER UNIT SAFE + 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN.  --  "PARTE 1750133348 TMHLP + 1750245555 TUH DISPONIBLES"</t>
   </si>
   <si>
+    <t>STOCK. 3/5/24. ACRILICO (MODELO IDEAL UNO DE 1500) A ESPERA DE DESARME (SORIANO)</t>
+  </si>
+  <si>
     <t>NOSP. 29/04/24. PARTE 1750193275 RM3 MAIN MODULE + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
-    <t>NOWIP. 30/04/24. PARTE S/N DISCO SATA: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
     <t>NOSP. 26/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
@@ -904,30 +835,45 @@
     <t>NOSP. 29/04/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750234950 EPP V7 ESP South America ST DISPONIBLE EN STOCK". (MINIACI)</t>
   </si>
   <si>
-    <t>NOSP. 29/04/24. PARTE 1750109659 V4 STACKER: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+    <t>NOSP. 02/05/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
     <t>NOSP. 02/05/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
+    <t>49226313000B</t>
+  </si>
+  <si>
+    <t>CBA.DISP.02/05/24. PARTE 1750159523  KEYBOARD V6 EPP ESP SOUTH AMERICA CES.: DISPONIBLE EN COORDINACIÓN PARA DESPACHO. (JIMENEZ)</t>
+  </si>
+  <si>
+    <t>cH.nowip.02/05/2024. parte 1750173205-35 v2cu smart card reader magnetic hico: sin saldo en wip. se solicita a caba.(veron)</t>
+  </si>
+  <si>
     <t>NOWIP. 30/04/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
   </si>
   <si>
     <t>NOSP. 30/04/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
+    <t>1750173205-35</t>
+  </si>
+  <si>
+    <t>RC 02/05/2024. PARTE 1750173205 CARD READER. A ESPERA DE REPARACION (FRETES)</t>
+  </si>
+  <si>
+    <t>NOSP. 02/05/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
     <t>ETR. 30/04/24. PARTE 49208102003M AFD CCA DISPENSER: EN REPARACIÓN. ETR: 09/05/24. (MINIACI)</t>
   </si>
   <si>
+    <t>RC. 3/5/24. EXTRACTOR 1750109615 A ESPERA DE REPARACION (SORIANO)</t>
+  </si>
+  <si>
     <t>CBA.RC.29/4/24. PARTE 1750222982	SHUTTER LITE DC MOTOR ASSY RL:EN ESPERA DE REPARACIÓN. ETA:3/5/24 (JIMENEZ)</t>
   </si>
   <si>
-    <t>NOSP. 02/05/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>SUP. 30/4/24. A ESPERA DE CONFIRMACION DE MARCO NECESARIO (SORIANO)</t>
-  </si>
-  <si>
     <t>NOSP. 30/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
@@ -949,40 +895,61 @@
     <t>NOSP. 30/04/24. PARTE 1750193275 RM3 MAIN MODULE : SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
-    <t>STOCK 02/05/2024. PARTE 49225262000A	PICKER AFD 1.5 . DISPONIBLE PARA DESPACHO (FRETES)</t>
+    <t>RC. 3/5/24. EXTRACTOR 1750109615 A ESPERA DE REPARACION, SHUTTER  1750256956 DISPONIBLE (SORIANO)</t>
+  </si>
+  <si>
+    <t>cH.nowip.02/05/2024. parte 1750177464 ESCROW 3 CCDM MODULE: sin saldo en wip. se solicita a caba. (VERON)</t>
+  </si>
+  <si>
+    <t>NOWIP. 02/05/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
   </si>
   <si>
     <t>NOWIP. 30/04/24. PARTE 1750304916 "SHUTTER I-O TRAY NSL": SIN SALDO EN WIP. (MINIACI)</t>
   </si>
   <si>
-    <t>OKETR. 30/04/24. PARTE 1750154866 CCDM VALIDADOR CASH CHECK: REPARADO. EN FGI PARA TRANSFERIR A STOCK. (MINIACI)</t>
-  </si>
-  <si>
     <t>NOSP. 30/04/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
-    <t>MACRO</t>
-  </si>
-  <si>
     <t>NOSP. 02/05/24. PARTE 1750215294 V5 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
     <t>SUP. 30/4/24. A ESPERA DE CONFIRMACION DE TRABA NECESARIA (SORIANO)</t>
   </si>
   <si>
-    <t>OCTAGON S.A</t>
-  </si>
-  <si>
-    <t>SUP. 2/5/24. A ESPERA DE CONFIRMACION DE NUMERO SENSOR DE PUERTA SOLICITADO (SORIANO)</t>
-  </si>
-  <si>
-    <t>49247984000A</t>
-  </si>
-  <si>
-    <t>CBA.NOWIP. 02/5/2024. PARTE 49247984000A THRM,JNL,PRNTR  NP-255:SIN SALDO EN WIP. SE SOLICITA A CABA. (JIMENEZ)</t>
-  </si>
-  <si>
-    <t>SUP</t>
+    <t>49201784000C</t>
+  </si>
+  <si>
+    <t>RC. 02/05/2024 A ESPERA DE DESARME DE 522 RL POR PARTE 49201784000C MONITOR OPERADOR, PARTE 49221669000A TECLADO OPERADOR DISPONIBLE (MAITLAND)</t>
+  </si>
+  <si>
+    <t>RC.2/5/2024 1750200435 VS-modul-recycling EN ESPERA DE REPARACION (CORREA)</t>
+  </si>
+  <si>
+    <t>RC. 3/5/24. PLACA VERTICAL 1750044878 A ESPERA DE REPARACION (SORIANO)</t>
+  </si>
+  <si>
+    <t>RC. 2/5/24. LECTORA 1750173205 A ESPERA DE REPARACION (SORIANO)</t>
+  </si>
+  <si>
+    <t>CBA.NOWIP. 02/5/2024. PARTE 1750154866  LINE-XSA CASH CHECK:SIN SALDO EN WIP. SE SOLICITA A CABA. (JIMENEZ)</t>
+  </si>
+  <si>
+    <t>RC. 2/5/24. STACKER CSR 1750109659 A ESPERA DE REPARACION (SORIANO)</t>
+  </si>
+  <si>
+    <t>RC. 03/05/2024 PARTE 1750109659 WINCOR STACKER CON SINGLE REJECT A ESPERA DE REPARACION (MAITLAND)</t>
+  </si>
+  <si>
+    <t>49202789000B</t>
+  </si>
+  <si>
+    <t>49202790000A</t>
+  </si>
+  <si>
+    <t>RC. 2/5/24. VS 1750200435 A ESPERA DE REPARACION (SORIANO)</t>
+  </si>
+  <si>
+    <t>ACRILICO</t>
   </si>
 </sst>
 </file>
@@ -1346,16 +1313,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D492"/>
+  <dimension ref="A1:D470"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="195.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1856,7 +1825,7 @@
         <v>7633149</v>
       </c>
       <c r="C36" t="s">
-        <v>319</v>
+        <v>18</v>
       </c>
       <c r="D36" t="s">
         <v>45</v>
@@ -2662,41 +2631,41 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="B94">
-        <v>7798663</v>
+        <v>7800803</v>
       </c>
       <c r="C94" s="2">
-        <v>1750109659</v>
+        <v>1750109615</v>
       </c>
       <c r="D94" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="B95">
-        <v>7798663</v>
+        <v>7802611</v>
       </c>
       <c r="C95" s="2">
         <v>1750053977</v>
       </c>
       <c r="D95" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B96">
-        <v>7798663</v>
-      </c>
-      <c r="C96" s="2">
-        <v>1750105988</v>
+        <v>7802993</v>
+      </c>
+      <c r="C96" t="s">
+        <v>5</v>
       </c>
       <c r="D96" t="s">
         <v>78</v>
@@ -2704,16 +2673,16 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B97">
-        <v>7800803</v>
-      </c>
-      <c r="C97" s="2">
-        <v>1750109615</v>
+        <v>7803005</v>
+      </c>
+      <c r="C97" t="s">
+        <v>5</v>
       </c>
       <c r="D97" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -2721,10 +2690,10 @@
         <v>65</v>
       </c>
       <c r="B98">
-        <v>7802611</v>
+        <v>7803677</v>
       </c>
       <c r="C98" s="2">
-        <v>1750053977</v>
+        <v>1750109658</v>
       </c>
       <c r="D98" t="s">
         <v>66</v>
@@ -2732,27 +2701,27 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="B99">
-        <v>7802993</v>
-      </c>
-      <c r="C99" t="s">
-        <v>5</v>
+        <v>7803677</v>
+      </c>
+      <c r="C99" s="2">
+        <v>1750109615</v>
       </c>
       <c r="D99" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B100">
-        <v>7803005</v>
-      </c>
-      <c r="C100" t="s">
-        <v>5</v>
+        <v>7804016</v>
+      </c>
+      <c r="C100" s="2">
+        <v>1750188546</v>
       </c>
       <c r="D100" t="s">
         <v>79</v>
@@ -2763,10 +2732,10 @@
         <v>65</v>
       </c>
       <c r="B101">
-        <v>7803677</v>
+        <v>7806399</v>
       </c>
       <c r="C101" s="2">
-        <v>1750109658</v>
+        <v>1750110043</v>
       </c>
       <c r="D101" t="s">
         <v>66</v>
@@ -2774,55 +2743,55 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="B102">
-        <v>7803677</v>
-      </c>
-      <c r="C102" s="2">
-        <v>1750109615</v>
+        <v>7806538</v>
+      </c>
+      <c r="C102" t="s">
+        <v>80</v>
       </c>
       <c r="D102" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="B103">
-        <v>7804016</v>
+        <v>7808461</v>
       </c>
       <c r="C103" s="2">
-        <v>1750188546</v>
+        <v>1750109659</v>
       </c>
       <c r="D103" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B104">
-        <v>7806399</v>
+        <v>7814392</v>
       </c>
       <c r="C104" s="2">
-        <v>1750110043</v>
+        <v>1750189650</v>
       </c>
       <c r="D104" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B105">
-        <v>7806538</v>
-      </c>
-      <c r="C105" t="s">
-        <v>81</v>
+        <v>7814392</v>
+      </c>
+      <c r="C105" s="2">
+        <v>1750215295</v>
       </c>
       <c r="D105" t="s">
         <v>82</v>
@@ -2833,10 +2802,10 @@
         <v>65</v>
       </c>
       <c r="B106">
-        <v>7808461</v>
+        <v>7817629</v>
       </c>
       <c r="C106" s="2">
-        <v>1750109659</v>
+        <v>1750053977</v>
       </c>
       <c r="D106" t="s">
         <v>66</v>
@@ -2844,30 +2813,30 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="B107">
-        <v>7814392</v>
+        <v>7817670</v>
       </c>
       <c r="C107" s="2">
-        <v>1750189650</v>
+        <v>1750109615</v>
       </c>
       <c r="D107" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="B108">
-        <v>7814392</v>
-      </c>
-      <c r="C108" s="2">
-        <v>1750215295</v>
+        <v>7820507</v>
+      </c>
+      <c r="C108" t="s">
+        <v>83</v>
       </c>
       <c r="D108" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -2875,10 +2844,10 @@
         <v>65</v>
       </c>
       <c r="B109">
-        <v>7817629</v>
+        <v>7820527</v>
       </c>
       <c r="C109" s="2">
-        <v>1750053977</v>
+        <v>1750344858</v>
       </c>
       <c r="D109" t="s">
         <v>66</v>
@@ -2889,10 +2858,10 @@
         <v>65</v>
       </c>
       <c r="B110">
-        <v>7817670</v>
+        <v>7822042</v>
       </c>
       <c r="C110" s="2">
-        <v>1750109615</v>
+        <v>1750159971</v>
       </c>
       <c r="D110" t="s">
         <v>66</v>
@@ -2900,16 +2869,16 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="B111">
-        <v>7820507</v>
+        <v>7823382</v>
       </c>
       <c r="C111" t="s">
+        <v>42</v>
+      </c>
+      <c r="D111" t="s">
         <v>84</v>
-      </c>
-      <c r="D111" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -2917,10 +2886,10 @@
         <v>65</v>
       </c>
       <c r="B112">
-        <v>7820527</v>
-      </c>
-      <c r="C112" s="2">
-        <v>1750344858</v>
+        <v>7824357</v>
+      </c>
+      <c r="C112" t="s">
+        <v>85</v>
       </c>
       <c r="D112" t="s">
         <v>66</v>
@@ -2931,10 +2900,10 @@
         <v>65</v>
       </c>
       <c r="B113">
-        <v>7822042</v>
+        <v>7824386</v>
       </c>
       <c r="C113" s="2">
-        <v>1750159971</v>
+        <v>1750053977</v>
       </c>
       <c r="D113" t="s">
         <v>66</v>
@@ -2942,114 +2911,114 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="B114">
-        <v>7823382</v>
-      </c>
-      <c r="C114" t="s">
-        <v>42</v>
+        <v>7832871</v>
+      </c>
+      <c r="C114" s="2">
+        <v>1750105988</v>
       </c>
       <c r="D114" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B115">
-        <v>7824357</v>
+        <v>7833234</v>
       </c>
       <c r="C115" t="s">
         <v>86</v>
       </c>
       <c r="D115" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="B116">
-        <v>7824386</v>
+        <v>7833667</v>
       </c>
       <c r="C116" s="2">
-        <v>1750053977</v>
+        <v>1750215295</v>
       </c>
       <c r="D116" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="B117">
-        <v>7832871</v>
+        <v>7833667</v>
       </c>
       <c r="C117" s="2">
-        <v>1750105988</v>
+        <v>1750110044</v>
       </c>
       <c r="D117" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="B118">
-        <v>7833234</v>
+        <v>7846573</v>
       </c>
       <c r="C118" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D118" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="B119">
-        <v>7833667</v>
+        <v>7846685</v>
       </c>
       <c r="C119" s="2">
-        <v>1750215295</v>
+        <v>1750101956</v>
       </c>
       <c r="D119" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="B120">
-        <v>7833667</v>
+        <v>7848212</v>
       </c>
       <c r="C120" s="2">
-        <v>1750110044</v>
+        <v>1750204435</v>
       </c>
       <c r="D120" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="B121">
-        <v>7846573</v>
-      </c>
-      <c r="C121" t="s">
-        <v>90</v>
+        <v>7848308</v>
+      </c>
+      <c r="C121" s="2">
+        <v>1750154145</v>
       </c>
       <c r="D121" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
@@ -3057,10 +3026,10 @@
         <v>65</v>
       </c>
       <c r="B122">
-        <v>7846685</v>
+        <v>7850263</v>
       </c>
       <c r="C122" s="2">
-        <v>1750101956</v>
+        <v>1750053977</v>
       </c>
       <c r="D122" t="s">
         <v>66</v>
@@ -3068,27 +3037,27 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B123">
-        <v>7848212</v>
+        <v>7858514</v>
       </c>
       <c r="C123" s="2">
-        <v>1750204435</v>
+        <v>1750193275</v>
       </c>
       <c r="D123" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B124">
-        <v>7848308</v>
+        <v>7858514</v>
       </c>
       <c r="C124" s="2">
-        <v>1750154145</v>
+        <v>1750133348</v>
       </c>
       <c r="D124" t="s">
         <v>92</v>
@@ -3099,10 +3068,10 @@
         <v>65</v>
       </c>
       <c r="B125">
-        <v>7850263</v>
+        <v>7858757</v>
       </c>
       <c r="C125" s="2">
-        <v>1750053977</v>
+        <v>1750199149</v>
       </c>
       <c r="D125" t="s">
         <v>66</v>
@@ -3110,30 +3079,30 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B126">
-        <v>7858514</v>
-      </c>
-      <c r="C126" s="2">
-        <v>1750193275</v>
+        <v>7859082</v>
+      </c>
+      <c r="C126" t="s">
+        <v>93</v>
       </c>
       <c r="D126" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="B127">
-        <v>7858514</v>
+        <v>7859726</v>
       </c>
       <c r="C127" s="2">
-        <v>1750133348</v>
+        <v>1750222982</v>
       </c>
       <c r="D127" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
@@ -3141,10 +3110,10 @@
         <v>65</v>
       </c>
       <c r="B128">
-        <v>7858757</v>
+        <v>7867214</v>
       </c>
       <c r="C128" s="2">
-        <v>1750199149</v>
+        <v>1750256247</v>
       </c>
       <c r="D128" t="s">
         <v>66</v>
@@ -3155,27 +3124,27 @@
         <v>46</v>
       </c>
       <c r="B129">
-        <v>7859082</v>
+        <v>7867607</v>
       </c>
       <c r="C129" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D129" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="B130">
-        <v>7859726</v>
+        <v>7868488</v>
       </c>
       <c r="C130" s="2">
-        <v>1750222982</v>
+        <v>1750100966</v>
       </c>
       <c r="D130" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
@@ -3183,13 +3152,13 @@
         <v>46</v>
       </c>
       <c r="B131">
-        <v>7860390</v>
-      </c>
-      <c r="C131" s="2">
-        <v>1750177464</v>
+        <v>7871860</v>
+      </c>
+      <c r="C131" t="s">
+        <v>74</v>
       </c>
       <c r="D131" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
@@ -3197,13 +3166,13 @@
         <v>46</v>
       </c>
       <c r="B132">
-        <v>7860390</v>
-      </c>
-      <c r="C132" s="2">
-        <v>1750101952</v>
+        <v>7871860</v>
+      </c>
+      <c r="C132" t="s">
+        <v>58</v>
       </c>
       <c r="D132" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
@@ -3211,13 +3180,13 @@
         <v>46</v>
       </c>
       <c r="B133">
-        <v>7860390</v>
-      </c>
-      <c r="C133" s="2">
-        <v>1750053977</v>
+        <v>7871860</v>
+      </c>
+      <c r="C133" t="s">
+        <v>89</v>
       </c>
       <c r="D133" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
@@ -3225,41 +3194,41 @@
         <v>46</v>
       </c>
       <c r="B134">
-        <v>7860390</v>
-      </c>
-      <c r="C134" s="2">
-        <v>1750109659</v>
+        <v>7873480</v>
+      </c>
+      <c r="C134" t="s">
+        <v>99</v>
       </c>
       <c r="D134" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="B135">
-        <v>7863395</v>
-      </c>
-      <c r="C135" t="s">
-        <v>319</v>
+        <v>7873878</v>
+      </c>
+      <c r="C135" s="2">
+        <v>1750105679</v>
       </c>
       <c r="D135" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="B136">
-        <v>7863795</v>
-      </c>
-      <c r="C136" t="s">
-        <v>319</v>
+        <v>7873878</v>
+      </c>
+      <c r="C136" s="2">
+        <v>1750109658</v>
       </c>
       <c r="D136" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
@@ -3267,10 +3236,10 @@
         <v>65</v>
       </c>
       <c r="B137">
-        <v>7867214</v>
+        <v>7878427</v>
       </c>
       <c r="C137" s="2">
-        <v>1750256247</v>
+        <v>1750214647</v>
       </c>
       <c r="D137" t="s">
         <v>66</v>
@@ -3278,16 +3247,16 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="B138">
-        <v>7867607</v>
-      </c>
-      <c r="C138" t="s">
-        <v>98</v>
+        <v>7884952</v>
+      </c>
+      <c r="C138" s="2">
+        <v>1750053977</v>
       </c>
       <c r="D138" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
@@ -3295,10 +3264,10 @@
         <v>46</v>
       </c>
       <c r="B139">
-        <v>7868488</v>
-      </c>
-      <c r="C139" s="2">
-        <v>1750100966</v>
+        <v>7885396</v>
+      </c>
+      <c r="C139" t="s">
+        <v>58</v>
       </c>
       <c r="D139" t="s">
         <v>100</v>
@@ -3306,13 +3275,13 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B140">
-        <v>7870489</v>
+        <v>7885866</v>
       </c>
       <c r="C140" s="2">
-        <v>1750109659</v>
+        <v>1750189650</v>
       </c>
       <c r="D140" t="s">
         <v>101</v>
@@ -3320,86 +3289,86 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="B141">
-        <v>7870489</v>
+        <v>7887831</v>
       </c>
       <c r="C141" s="2">
-        <v>1750053977</v>
+        <v>1750215295</v>
       </c>
       <c r="D141" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="B142">
-        <v>7871860</v>
+        <v>7888819</v>
       </c>
       <c r="C142" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="D142" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B143">
-        <v>7871860</v>
-      </c>
-      <c r="C143" t="s">
-        <v>58</v>
+        <v>7890266</v>
+      </c>
+      <c r="C143" s="2">
+        <v>1750215294</v>
       </c>
       <c r="D143" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="B144">
-        <v>7871860</v>
-      </c>
-      <c r="C144" t="s">
-        <v>90</v>
+        <v>7894613</v>
+      </c>
+      <c r="C144" s="2">
+        <v>1750261447</v>
       </c>
       <c r="D144" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="B145">
-        <v>7873878</v>
-      </c>
-      <c r="C145" s="2">
-        <v>1750105679</v>
+        <v>7897120</v>
+      </c>
+      <c r="C145" t="s">
+        <v>59</v>
       </c>
       <c r="D145" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B146">
-        <v>7873878</v>
-      </c>
-      <c r="C146" s="2">
-        <v>1750109658</v>
+        <v>7897299</v>
+      </c>
+      <c r="C146">
+        <v>1750193275</v>
       </c>
       <c r="D146" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
@@ -3407,10 +3376,10 @@
         <v>65</v>
       </c>
       <c r="B147">
-        <v>7878427</v>
+        <v>7897869</v>
       </c>
       <c r="C147" s="2">
-        <v>1750214647</v>
+        <v>1750261447</v>
       </c>
       <c r="D147" t="s">
         <v>66</v>
@@ -3421,111 +3390,111 @@
         <v>46</v>
       </c>
       <c r="B148">
-        <v>7879325</v>
+        <v>7897950</v>
       </c>
       <c r="C148" s="2">
-        <v>1750059284</v>
+        <v>1750053977</v>
       </c>
       <c r="D148" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="B149">
-        <v>7884952</v>
+        <v>7897950</v>
       </c>
       <c r="C149" s="2">
-        <v>1750053977</v>
+        <v>1750109658</v>
       </c>
       <c r="D149" t="s">
-        <v>66</v>
+        <v>108</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="B150">
-        <v>7885226</v>
+        <v>7899433</v>
       </c>
       <c r="C150" s="2">
-        <v>1750105679</v>
+        <v>1750208512</v>
       </c>
       <c r="D150" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="B151">
-        <v>7885226</v>
-      </c>
-      <c r="C151" s="2">
-        <v>1750109659</v>
+        <v>7900491</v>
+      </c>
+      <c r="C151" t="s">
+        <v>99</v>
       </c>
       <c r="D151" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="B152">
-        <v>7885396</v>
+        <v>7900491</v>
       </c>
       <c r="C152" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="D152" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="B153">
-        <v>7885866</v>
+        <v>7902050</v>
       </c>
       <c r="C153" s="2">
-        <v>1750189650</v>
+        <v>1750109659</v>
       </c>
       <c r="D153" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="B154">
-        <v>7887831</v>
+        <v>7904305</v>
       </c>
       <c r="C154" s="2">
-        <v>1750215295</v>
+        <v>1750200541</v>
       </c>
       <c r="D154" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="B155">
-        <v>7888819</v>
-      </c>
-      <c r="C155" t="s">
-        <v>18</v>
+        <v>7904305</v>
+      </c>
+      <c r="C155" s="2">
+        <v>1750200435</v>
       </c>
       <c r="D155" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
@@ -3533,94 +3502,94 @@
         <v>10</v>
       </c>
       <c r="B156">
-        <v>7889973</v>
+        <v>7905105</v>
       </c>
       <c r="C156" s="2">
-        <v>1750109659</v>
+        <v>1750059284</v>
       </c>
       <c r="D156" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="B157">
-        <v>7889973</v>
+        <v>7905109</v>
       </c>
       <c r="C157" s="2">
-        <v>1750053977</v>
+        <v>1750169942</v>
       </c>
       <c r="D157" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B158">
-        <v>7890266</v>
+        <v>7905109</v>
       </c>
       <c r="C158" s="2">
-        <v>1750215294</v>
+        <v>1750154145</v>
       </c>
       <c r="D158" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="B159">
-        <v>7894613</v>
+        <v>7905109</v>
       </c>
       <c r="C159" s="2">
-        <v>1750261447</v>
+        <v>1750105988</v>
       </c>
       <c r="D159" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="B160">
-        <v>7897120</v>
-      </c>
-      <c r="C160" t="s">
-        <v>59</v>
+        <v>7909031</v>
+      </c>
+      <c r="C160" s="2">
+        <v>1750173205</v>
       </c>
       <c r="D160" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B161">
-        <v>7897299</v>
-      </c>
-      <c r="C161">
-        <v>1750193275</v>
+        <v>7909307</v>
+      </c>
+      <c r="C161" s="2">
+        <v>1750188523</v>
       </c>
       <c r="D161" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>114</v>
+        <v>38</v>
       </c>
       <c r="B162">
-        <v>7897438</v>
-      </c>
-      <c r="C162" t="s">
-        <v>42</v>
+        <v>7910329</v>
+      </c>
+      <c r="C162" s="2">
+        <v>1750173205</v>
       </c>
       <c r="D162" t="s">
         <v>115</v>
@@ -3631,10 +3600,10 @@
         <v>65</v>
       </c>
       <c r="B163">
-        <v>7897869</v>
+        <v>7912762</v>
       </c>
       <c r="C163" s="2">
-        <v>1750261447</v>
+        <v>1804610970</v>
       </c>
       <c r="D163" t="s">
         <v>66</v>
@@ -3642,27 +3611,27 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="B164">
-        <v>7897950</v>
+        <v>7912762</v>
       </c>
       <c r="C164" s="2">
-        <v>1750053977</v>
+        <v>1770031910</v>
       </c>
       <c r="D164" t="s">
-        <v>116</v>
+        <v>66</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B165">
-        <v>7897950</v>
+        <v>7912856</v>
       </c>
       <c r="C165" s="2">
-        <v>1750109658</v>
+        <v>1750215294</v>
       </c>
       <c r="D165" t="s">
         <v>116</v>
@@ -3670,55 +3639,55 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="B166">
-        <v>7899433</v>
+        <v>7913086</v>
       </c>
       <c r="C166" s="2">
-        <v>1750208512</v>
+        <v>1750109659</v>
       </c>
       <c r="D166" t="s">
-        <v>66</v>
+        <v>117</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="B167">
-        <v>7900491</v>
-      </c>
-      <c r="C167" t="s">
+        <v>7913086</v>
+      </c>
+      <c r="C167" s="2">
+        <v>1750105988</v>
+      </c>
+      <c r="D167" t="s">
         <v>117</v>
-      </c>
-      <c r="D167" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B168">
-        <v>7900491</v>
-      </c>
-      <c r="C168" t="s">
+        <v>7913107</v>
+      </c>
+      <c r="C168" s="2">
+        <v>1750200435</v>
+      </c>
+      <c r="D168" t="s">
         <v>118</v>
-      </c>
-      <c r="D168" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B169">
-        <v>7902050</v>
+        <v>7914619</v>
       </c>
       <c r="C169" s="2">
-        <v>1750109659</v>
+        <v>1750200435</v>
       </c>
       <c r="D169" t="s">
         <v>119</v>
@@ -3726,41 +3695,41 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B170">
-        <v>7902699</v>
+        <v>7914619</v>
       </c>
       <c r="C170" s="2">
-        <v>1750092824</v>
+        <v>1750214647</v>
       </c>
       <c r="D170" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="B171">
-        <v>7904305</v>
-      </c>
-      <c r="C171" s="2">
-        <v>1750200541</v>
+        <v>7915108</v>
+      </c>
+      <c r="C171" t="s">
+        <v>89</v>
       </c>
       <c r="D171" t="s">
-        <v>121</v>
+        <v>66</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="B172">
-        <v>7904305</v>
+        <v>7917231</v>
       </c>
       <c r="C172" s="2">
-        <v>1750200435</v>
+        <v>1750350686</v>
       </c>
       <c r="D172" t="s">
         <v>121</v>
@@ -3768,44 +3737,44 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="B173">
-        <v>7905109</v>
+        <v>7917231</v>
       </c>
       <c r="C173" s="2">
-        <v>1750169942</v>
+        <v>1750301986</v>
       </c>
       <c r="D173" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="B174">
-        <v>7905109</v>
-      </c>
-      <c r="C174" s="2">
-        <v>1750154145</v>
+        <v>7917418</v>
+      </c>
+      <c r="C174" t="s">
+        <v>83</v>
       </c>
       <c r="D174" t="s">
-        <v>122</v>
+        <v>66</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="B175">
-        <v>7905109</v>
+        <v>7917809</v>
       </c>
       <c r="C175" s="2">
-        <v>1750105988</v>
+        <v>1750256247</v>
       </c>
       <c r="D175" t="s">
-        <v>122</v>
+        <v>66</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
@@ -3813,10 +3782,10 @@
         <v>65</v>
       </c>
       <c r="B176">
-        <v>7909031</v>
+        <v>7919567</v>
       </c>
       <c r="C176" s="2">
-        <v>1750173205</v>
+        <v>1750190038</v>
       </c>
       <c r="D176" t="s">
         <v>66</v>
@@ -3827,13 +3796,13 @@
         <v>46</v>
       </c>
       <c r="B177">
-        <v>7909307</v>
+        <v>7919667</v>
       </c>
       <c r="C177" s="2">
-        <v>1750188523</v>
+        <v>1750067867</v>
       </c>
       <c r="D177" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
@@ -3841,13 +3810,13 @@
         <v>46</v>
       </c>
       <c r="B178">
-        <v>7909750</v>
+        <v>7919667</v>
       </c>
       <c r="C178" s="2">
-        <v>1750109659</v>
+        <v>1750105988</v>
       </c>
       <c r="D178" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
@@ -3855,55 +3824,55 @@
         <v>46</v>
       </c>
       <c r="B179">
-        <v>7909750</v>
+        <v>7920272</v>
       </c>
       <c r="C179" s="2">
-        <v>1750053977</v>
+        <v>1750109659</v>
       </c>
       <c r="D179" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B180">
-        <v>7910329</v>
+        <v>7920272</v>
       </c>
       <c r="C180" s="2">
-        <v>1750173205</v>
+        <v>1750109615</v>
       </c>
       <c r="D180" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B181">
-        <v>7912762</v>
+        <v>7920574</v>
       </c>
       <c r="C181" s="2">
-        <v>1804610970</v>
+        <v>1750200435</v>
       </c>
       <c r="D181" t="s">
-        <v>66</v>
+        <v>124</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B182">
-        <v>7912762</v>
+        <v>7920574</v>
       </c>
       <c r="C182" s="2">
-        <v>1770031910</v>
+        <v>1750214647</v>
       </c>
       <c r="D182" t="s">
-        <v>66</v>
+        <v>124</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
@@ -3911,13 +3880,13 @@
         <v>50</v>
       </c>
       <c r="B183">
-        <v>7912856</v>
+        <v>7921936</v>
       </c>
       <c r="C183" s="2">
-        <v>1750215294</v>
+        <v>1750200435</v>
       </c>
       <c r="D183" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
@@ -3925,66 +3894,66 @@
         <v>46</v>
       </c>
       <c r="B184">
-        <v>7913086</v>
-      </c>
-      <c r="C184" s="2">
-        <v>1750109659</v>
+        <v>7924355</v>
+      </c>
+      <c r="C184" t="s">
+        <v>5</v>
       </c>
       <c r="D184" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B185">
-        <v>7913086</v>
+        <v>7924902</v>
       </c>
       <c r="C185" s="2">
-        <v>1750105988</v>
+        <v>1750200435</v>
       </c>
       <c r="D185" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B186">
-        <v>7913107</v>
-      </c>
-      <c r="C186" s="2">
-        <v>1750200435</v>
+        <v>7924940</v>
+      </c>
+      <c r="C186" t="s">
+        <v>109</v>
       </c>
       <c r="D186" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B187">
-        <v>7914619</v>
+        <v>7925113</v>
       </c>
       <c r="C187" s="2">
-        <v>1750200435</v>
+        <v>1750215295</v>
       </c>
       <c r="D187" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="B188">
-        <v>7914619</v>
+        <v>7925266</v>
       </c>
       <c r="C188" s="2">
-        <v>1750214647</v>
+        <v>1750222982</v>
       </c>
       <c r="D188" t="s">
         <v>129</v>
@@ -3992,58 +3961,58 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="B189">
-        <v>7915108</v>
+        <v>7926268</v>
       </c>
       <c r="C189" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="D189" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B190">
-        <v>7915512</v>
+        <v>7926363</v>
       </c>
       <c r="C190" s="2">
-        <v>1750092824</v>
+        <v>1750044878</v>
       </c>
       <c r="D190" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="B191">
-        <v>7917231</v>
+        <v>7926430</v>
       </c>
       <c r="C191" s="2">
-        <v>1750350686</v>
+        <v>1750109659</v>
       </c>
       <c r="D191" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="B192">
-        <v>7917231</v>
+        <v>7926430</v>
       </c>
       <c r="C192" s="2">
-        <v>1750301986</v>
+        <v>1750109615</v>
       </c>
       <c r="D192" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
@@ -4051,10 +4020,10 @@
         <v>65</v>
       </c>
       <c r="B193">
-        <v>7917418</v>
+        <v>7926496</v>
       </c>
       <c r="C193" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="D193" t="s">
         <v>66</v>
@@ -4065,10 +4034,10 @@
         <v>65</v>
       </c>
       <c r="B194">
-        <v>7917809</v>
+        <v>7926501</v>
       </c>
       <c r="C194" s="2">
-        <v>1750256247</v>
+        <v>1750110044</v>
       </c>
       <c r="D194" t="s">
         <v>66</v>
@@ -4076,72 +4045,72 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="B195">
-        <v>7919567</v>
+        <v>7928091</v>
       </c>
       <c r="C195" s="2">
-        <v>1750190038</v>
+        <v>1750092824</v>
       </c>
       <c r="D195" t="s">
-        <v>66</v>
+        <v>135</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="B196">
-        <v>7919667</v>
+        <v>7929027</v>
       </c>
       <c r="C196" s="2">
-        <v>1750067867</v>
+        <v>1750105679</v>
       </c>
       <c r="D196" t="s">
-        <v>133</v>
+        <v>66</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="B197">
-        <v>7919667</v>
+        <v>7929932</v>
       </c>
       <c r="C197" s="2">
-        <v>1750105988</v>
+        <v>1750188523</v>
       </c>
       <c r="D197" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="B198">
-        <v>7920272</v>
+        <v>7929932</v>
       </c>
       <c r="C198" s="2">
-        <v>1750109659</v>
+        <v>1750101956</v>
       </c>
       <c r="D198" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B199">
-        <v>7920272</v>
+        <v>7930608</v>
       </c>
       <c r="C199" s="2">
-        <v>1750109615</v>
+        <v>1750193275</v>
       </c>
       <c r="D199" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
@@ -4149,13 +4118,13 @@
         <v>50</v>
       </c>
       <c r="B200">
-        <v>7920574</v>
+        <v>7930610</v>
       </c>
       <c r="C200" s="2">
-        <v>1750200435</v>
+        <v>1750193276</v>
       </c>
       <c r="D200" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
@@ -4163,13 +4132,13 @@
         <v>50</v>
       </c>
       <c r="B201">
-        <v>7920574</v>
+        <v>7930610</v>
       </c>
       <c r="C201" s="2">
-        <v>1750214647</v>
+        <v>1750220330</v>
       </c>
       <c r="D201" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
@@ -4177,27 +4146,27 @@
         <v>50</v>
       </c>
       <c r="B202">
-        <v>7921936</v>
+        <v>7930610</v>
       </c>
       <c r="C202" s="2">
-        <v>1750200435</v>
+        <v>1750248000</v>
       </c>
       <c r="D202" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B203">
-        <v>7924355</v>
-      </c>
-      <c r="C203" t="s">
-        <v>5</v>
+        <v>7930610</v>
+      </c>
+      <c r="C203" s="2">
+        <v>1750220022</v>
       </c>
       <c r="D203" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
@@ -4205,108 +4174,108 @@
         <v>50</v>
       </c>
       <c r="B204">
-        <v>7924902</v>
+        <v>7931010</v>
       </c>
       <c r="C204" s="2">
-        <v>1750200435</v>
+        <v>1750188523</v>
       </c>
       <c r="D204" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B205">
-        <v>7924940</v>
-      </c>
-      <c r="C205" t="s">
-        <v>118</v>
+        <v>7931010</v>
+      </c>
+      <c r="C205" s="2">
+        <v>1750263341</v>
       </c>
       <c r="D205" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="B206">
-        <v>7925113</v>
+        <v>7931010</v>
       </c>
       <c r="C206" s="2">
-        <v>1750215295</v>
+        <v>1750245555</v>
       </c>
       <c r="D206" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>139</v>
+        <v>65</v>
       </c>
       <c r="B207">
-        <v>7925266</v>
+        <v>7942380</v>
       </c>
       <c r="C207" s="2">
-        <v>1750222982</v>
+        <v>1750109615</v>
       </c>
       <c r="D207" t="s">
-        <v>140</v>
+        <v>66</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="B208">
-        <v>7926268</v>
+        <v>7942448</v>
       </c>
       <c r="C208" t="s">
+        <v>140</v>
+      </c>
+      <c r="D208" t="s">
         <v>141</v>
-      </c>
-      <c r="D208" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="B209">
-        <v>7926363</v>
+        <v>7942589</v>
       </c>
       <c r="C209" s="2">
-        <v>1750044878</v>
+        <v>1750100966</v>
       </c>
       <c r="D209" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B210">
-        <v>7926430</v>
+        <v>7943149</v>
       </c>
       <c r="C210" s="2">
-        <v>1750109659</v>
+        <v>1750200435</v>
       </c>
       <c r="D210" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="B211">
-        <v>7926430</v>
+        <v>7945233</v>
       </c>
       <c r="C211" s="2">
-        <v>1750109615</v>
+        <v>1750215295</v>
       </c>
       <c r="D211" t="s">
         <v>144</v>
@@ -4314,72 +4283,72 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B212">
-        <v>7926496</v>
-      </c>
-      <c r="C212" t="s">
+        <v>7945303</v>
+      </c>
+      <c r="C212" s="2">
+        <v>1750193275</v>
+      </c>
+      <c r="D212" t="s">
         <v>145</v>
-      </c>
-      <c r="D212" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B213">
-        <v>7926501</v>
+        <v>7945437</v>
       </c>
       <c r="C213" s="2">
-        <v>1750110044</v>
+        <v>1750200435</v>
       </c>
       <c r="D213" t="s">
-        <v>66</v>
+        <v>146</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="B214">
-        <v>7928091</v>
+        <v>7945510</v>
       </c>
       <c r="C214" s="2">
         <v>1750092824</v>
       </c>
       <c r="D214" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="B215">
-        <v>7929027</v>
+        <v>7946338</v>
       </c>
       <c r="C215" s="2">
-        <v>1750105679</v>
+        <v>1750109659</v>
       </c>
       <c r="D215" t="s">
-        <v>66</v>
+        <v>149</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B216">
-        <v>7929932</v>
+        <v>7946338</v>
       </c>
       <c r="C216" s="2">
-        <v>1750188523</v>
+        <v>1750109641</v>
       </c>
       <c r="D216" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
@@ -4387,27 +4356,27 @@
         <v>8</v>
       </c>
       <c r="B217">
-        <v>7929932</v>
+        <v>7946733</v>
       </c>
       <c r="C217" s="2">
-        <v>1750101956</v>
+        <v>1750155446</v>
       </c>
       <c r="D217" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B218">
-        <v>7930608</v>
+        <v>7946733</v>
       </c>
       <c r="C218" s="2">
-        <v>1750193275</v>
+        <v>1750187030</v>
       </c>
       <c r="D218" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
@@ -4415,27 +4384,27 @@
         <v>50</v>
       </c>
       <c r="B219">
-        <v>7930610</v>
+        <v>7946970</v>
       </c>
       <c r="C219" s="2">
-        <v>1750193276</v>
+        <v>1750200435</v>
       </c>
       <c r="D219" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B220">
-        <v>7930610</v>
+        <v>7947736</v>
       </c>
       <c r="C220" s="2">
-        <v>1750220330</v>
+        <v>1750215294</v>
       </c>
       <c r="D220" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
@@ -4443,13 +4412,13 @@
         <v>50</v>
       </c>
       <c r="B221">
-        <v>7930610</v>
+        <v>7947847</v>
       </c>
       <c r="C221" s="2">
-        <v>1750248000</v>
+        <v>1750214647</v>
       </c>
       <c r="D221" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
@@ -4457,13 +4426,13 @@
         <v>50</v>
       </c>
       <c r="B222">
-        <v>7930610</v>
+        <v>7947847</v>
       </c>
       <c r="C222" s="2">
-        <v>1750220022</v>
+        <v>1750212682</v>
       </c>
       <c r="D222" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
@@ -4471,13 +4440,13 @@
         <v>50</v>
       </c>
       <c r="B223">
-        <v>7931010</v>
+        <v>7947847</v>
       </c>
       <c r="C223" s="2">
-        <v>1750188523</v>
+        <v>1750140781</v>
       </c>
       <c r="D223" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
@@ -4485,13 +4454,13 @@
         <v>50</v>
       </c>
       <c r="B224">
-        <v>7931010</v>
+        <v>7947866</v>
       </c>
       <c r="C224" s="2">
-        <v>1750263341</v>
+        <v>1750126457</v>
       </c>
       <c r="D224" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
@@ -4499,13 +4468,13 @@
         <v>50</v>
       </c>
       <c r="B225">
-        <v>7931010</v>
+        <v>7947866</v>
       </c>
       <c r="C225" s="2">
-        <v>1750245555</v>
+        <v>1750196174</v>
       </c>
       <c r="D225" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
@@ -4513,10 +4482,10 @@
         <v>65</v>
       </c>
       <c r="B226">
-        <v>7942380</v>
+        <v>7947978</v>
       </c>
       <c r="C226" s="2">
-        <v>1750109615</v>
+        <v>1750105679</v>
       </c>
       <c r="D226" t="s">
         <v>66</v>
@@ -4524,44 +4493,44 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="B227">
-        <v>7942448</v>
-      </c>
-      <c r="C227" t="s">
-        <v>151</v>
+        <v>7947978</v>
+      </c>
+      <c r="C227" s="2">
+        <v>1750109615</v>
       </c>
       <c r="D227" t="s">
-        <v>152</v>
+        <v>66</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B228">
-        <v>7942589</v>
+        <v>7949223</v>
       </c>
       <c r="C228" s="2">
-        <v>1750100966</v>
+        <v>1750193275</v>
       </c>
       <c r="D228" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="B229">
-        <v>7942633</v>
-      </c>
-      <c r="C229" s="2">
-        <v>1750109659</v>
+        <v>7952640</v>
+      </c>
+      <c r="C229" t="s">
+        <v>85</v>
       </c>
       <c r="D229" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
@@ -4569,24 +4538,24 @@
         <v>50</v>
       </c>
       <c r="B230">
-        <v>7943149</v>
+        <v>7952699</v>
       </c>
       <c r="C230" s="2">
-        <v>1750200435</v>
+        <v>1750215295</v>
       </c>
       <c r="D230" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B231">
-        <v>7945233</v>
+        <v>7952699</v>
       </c>
       <c r="C231" s="2">
-        <v>1750215295</v>
+        <v>1750215294</v>
       </c>
       <c r="D231" t="s">
         <v>155</v>
@@ -4594,13 +4563,13 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B232">
-        <v>7945303</v>
+        <v>7952778</v>
       </c>
       <c r="C232" s="2">
-        <v>1750193275</v>
+        <v>1750188546</v>
       </c>
       <c r="D232" t="s">
         <v>156</v>
@@ -4608,27 +4577,27 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="B233">
-        <v>7945437</v>
-      </c>
-      <c r="C233" s="2">
-        <v>1750200435</v>
+        <v>7952908</v>
+      </c>
+      <c r="C233" t="s">
+        <v>157</v>
       </c>
       <c r="D233" t="s">
-        <v>157</v>
+        <v>66</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B234">
-        <v>7945643</v>
+        <v>7952925</v>
       </c>
       <c r="C234" s="2">
-        <v>1750109659</v>
+        <v>1750200435</v>
       </c>
       <c r="D234" t="s">
         <v>158</v>
@@ -4639,10 +4608,10 @@
         <v>46</v>
       </c>
       <c r="B235">
-        <v>7946338</v>
+        <v>7953388</v>
       </c>
       <c r="C235" s="2">
-        <v>1750109659</v>
+        <v>1750109641</v>
       </c>
       <c r="D235" t="s">
         <v>159</v>
@@ -4653,10 +4622,10 @@
         <v>46</v>
       </c>
       <c r="B236">
-        <v>7946338</v>
+        <v>7953388</v>
       </c>
       <c r="C236" s="2">
-        <v>1750109641</v>
+        <v>1750035762</v>
       </c>
       <c r="D236" t="s">
         <v>159</v>
@@ -4664,13 +4633,13 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="B237">
-        <v>7946603</v>
-      </c>
-      <c r="C237" s="2">
-        <v>1750109659</v>
+        <v>7953848</v>
+      </c>
+      <c r="C237" t="s">
+        <v>109</v>
       </c>
       <c r="D237" t="s">
         <v>160</v>
@@ -4678,13 +4647,13 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B238">
-        <v>7946733</v>
+        <v>7954123</v>
       </c>
       <c r="C238" s="2">
-        <v>1750155446</v>
+        <v>1750173205</v>
       </c>
       <c r="D238" t="s">
         <v>161</v>
@@ -4692,58 +4661,58 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="B239">
-        <v>7946733</v>
+        <v>7955646</v>
       </c>
       <c r="C239" s="2">
-        <v>1750187030</v>
+        <v>1750200435</v>
       </c>
       <c r="D239" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B240">
-        <v>7946970</v>
-      </c>
-      <c r="C240" s="2">
-        <v>1750200435</v>
+        <v>7955813</v>
+      </c>
+      <c r="C240" t="s">
+        <v>109</v>
       </c>
       <c r="D240" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B241">
-        <v>7947736</v>
+        <v>7956551</v>
       </c>
       <c r="C241" s="2">
-        <v>1750215294</v>
+        <v>1750222982</v>
       </c>
       <c r="D241" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="B242">
-        <v>7947847</v>
+        <v>7956807</v>
       </c>
       <c r="C242" s="2">
-        <v>1750214647</v>
+        <v>1750056193</v>
       </c>
       <c r="D242" t="s">
-        <v>163</v>
+        <v>66</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
@@ -4751,41 +4720,41 @@
         <v>50</v>
       </c>
       <c r="B243">
-        <v>7947847</v>
+        <v>7957257</v>
       </c>
       <c r="C243" s="2">
-        <v>1750212682</v>
+        <v>1750126457</v>
       </c>
       <c r="D243" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="B244">
-        <v>7947847</v>
+        <v>7958425</v>
       </c>
       <c r="C244" s="2">
-        <v>1750140781</v>
+        <v>1750222982</v>
       </c>
       <c r="D244" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B245">
-        <v>7947866</v>
+        <v>7959520</v>
       </c>
       <c r="C245" s="2">
-        <v>1750126457</v>
+        <v>1750109641</v>
       </c>
       <c r="D245" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
@@ -4793,41 +4762,41 @@
         <v>50</v>
       </c>
       <c r="B246">
-        <v>7947866</v>
+        <v>7959985</v>
       </c>
       <c r="C246" s="2">
-        <v>1750196174</v>
+        <v>1750215295</v>
       </c>
       <c r="D246" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B247">
-        <v>7947978</v>
+        <v>7960728</v>
       </c>
       <c r="C247" s="2">
-        <v>1750105679</v>
+        <v>1750189650</v>
       </c>
       <c r="D247" t="s">
-        <v>66</v>
+        <v>169</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B248">
-        <v>7947978</v>
+        <v>7960728</v>
       </c>
       <c r="C248" s="2">
-        <v>1750109615</v>
+        <v>1750053977</v>
       </c>
       <c r="D248" t="s">
-        <v>66</v>
+        <v>169</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
@@ -4835,27 +4804,27 @@
         <v>50</v>
       </c>
       <c r="B249">
-        <v>7949223</v>
+        <v>7960730</v>
       </c>
       <c r="C249" s="2">
-        <v>1750193275</v>
+        <v>1750200435</v>
       </c>
       <c r="D249" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B250">
-        <v>7952640</v>
-      </c>
-      <c r="C250" t="s">
-        <v>86</v>
+        <v>7960732</v>
+      </c>
+      <c r="C250" s="2">
+        <v>1750193275</v>
       </c>
       <c r="D250" t="s">
-        <v>66</v>
+        <v>171</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
@@ -4863,13 +4832,13 @@
         <v>50</v>
       </c>
       <c r="B251">
-        <v>7952699</v>
+        <v>7960739</v>
       </c>
       <c r="C251" s="2">
-        <v>1750215295</v>
+        <v>1750193275</v>
       </c>
       <c r="D251" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
@@ -4877,111 +4846,111 @@
         <v>50</v>
       </c>
       <c r="B252">
-        <v>7952699</v>
+        <v>7961200</v>
       </c>
       <c r="C252" s="2">
-        <v>1750215294</v>
+        <v>1750200435</v>
       </c>
       <c r="D252" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="B253">
-        <v>7952778</v>
+        <v>7961672</v>
       </c>
       <c r="C253" s="2">
         <v>1750188546</v>
       </c>
       <c r="D253" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="B254">
-        <v>7952908</v>
-      </c>
-      <c r="C254" t="s">
-        <v>168</v>
+        <v>7961919</v>
+      </c>
+      <c r="C254" s="2">
+        <v>1750044668</v>
       </c>
       <c r="D254" t="s">
-        <v>66</v>
+        <v>174</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B255">
-        <v>7952925</v>
-      </c>
-      <c r="C255" s="2">
-        <v>1750200435</v>
+        <v>7963480</v>
+      </c>
+      <c r="C255" t="s">
+        <v>5</v>
       </c>
       <c r="D255" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B256">
-        <v>7953388</v>
+        <v>7964068</v>
       </c>
       <c r="C256" s="2">
-        <v>1750109641</v>
+        <v>1750214647</v>
       </c>
       <c r="D256" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B257">
-        <v>7953388</v>
+        <v>7964068</v>
       </c>
       <c r="C257" s="2">
-        <v>1750035762</v>
+        <v>1750263341</v>
       </c>
       <c r="D257" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B258">
-        <v>7953848</v>
-      </c>
-      <c r="C258" t="s">
-        <v>118</v>
+        <v>7964068</v>
+      </c>
+      <c r="C258" s="2">
+        <v>1750101956</v>
       </c>
       <c r="D258" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>46</v>
+        <v>177</v>
       </c>
       <c r="B259">
-        <v>7954123</v>
+        <v>7964164</v>
       </c>
       <c r="C259" s="2">
-        <v>1750173205</v>
+        <v>1770041364</v>
       </c>
       <c r="D259" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
@@ -4989,94 +4958,94 @@
         <v>50</v>
       </c>
       <c r="B260">
-        <v>7955646</v>
+        <v>7966435</v>
       </c>
       <c r="C260" s="2">
-        <v>1750200435</v>
+        <v>1750220000</v>
       </c>
       <c r="D260" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B261">
-        <v>7955813</v>
-      </c>
-      <c r="C261" t="s">
-        <v>118</v>
+        <v>7966435</v>
+      </c>
+      <c r="C261" s="2">
+        <v>1750248000</v>
       </c>
       <c r="D261" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B262">
-        <v>7956551</v>
+        <v>7967194</v>
       </c>
       <c r="C262" s="2">
-        <v>1750222982</v>
+        <v>1750220000</v>
       </c>
       <c r="D262" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B263">
-        <v>7956807</v>
+        <v>7967194</v>
       </c>
       <c r="C263" s="2">
-        <v>1750056193</v>
+        <v>1750220022</v>
       </c>
       <c r="D263" t="s">
-        <v>66</v>
+        <v>180</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B264">
-        <v>7957257</v>
-      </c>
-      <c r="C264" s="2">
-        <v>1750126457</v>
+        <v>7967726</v>
+      </c>
+      <c r="C264" t="s">
+        <v>5</v>
       </c>
       <c r="D264" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="B265">
-        <v>7958425</v>
-      </c>
-      <c r="C265" s="2">
-        <v>1750222982</v>
+        <v>7967730</v>
+      </c>
+      <c r="C265" t="s">
+        <v>182</v>
       </c>
       <c r="D265" t="s">
-        <v>177</v>
+        <v>66</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="B266">
-        <v>7959385</v>
+        <v>7967730</v>
       </c>
       <c r="C266" t="s">
-        <v>178</v>
+        <v>83</v>
       </c>
       <c r="D266" t="s">
         <v>66</v>
@@ -5087,167 +5056,167 @@
         <v>46</v>
       </c>
       <c r="B267">
-        <v>7959520</v>
+        <v>7967764</v>
       </c>
       <c r="C267" s="2">
-        <v>1750109641</v>
+        <v>1770041364</v>
       </c>
       <c r="D267" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="B268">
-        <v>7959577</v>
+        <v>7967825</v>
       </c>
       <c r="C268" s="2">
-        <v>1750053977</v>
+        <v>1750304622</v>
       </c>
       <c r="D268" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="B269">
-        <v>7959577</v>
-      </c>
-      <c r="C269" s="2">
-        <v>1750077727</v>
+        <v>7967825</v>
+      </c>
+      <c r="C269" t="s">
+        <v>185</v>
       </c>
       <c r="D269" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>50</v>
+        <v>186</v>
       </c>
       <c r="B270">
-        <v>7959985</v>
+        <v>7967829</v>
       </c>
       <c r="C270" s="2">
-        <v>1750215295</v>
+        <v>1750222982</v>
       </c>
       <c r="D270" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>50</v>
+        <v>186</v>
       </c>
       <c r="B271">
-        <v>7960728</v>
+        <v>7967829</v>
       </c>
       <c r="C271" s="2">
-        <v>1750189650</v>
+        <v>1750105679</v>
       </c>
       <c r="D271" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B272">
-        <v>7960728</v>
+        <v>7968148</v>
       </c>
       <c r="C272" s="2">
-        <v>1750053977</v>
+        <v>1750109641</v>
       </c>
       <c r="D272" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="B273">
-        <v>7960730</v>
+        <v>7968426</v>
       </c>
       <c r="C273" s="2">
-        <v>1750200435</v>
+        <v>1750092824</v>
       </c>
       <c r="D273" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B274">
-        <v>7960732</v>
+        <v>7968518</v>
       </c>
       <c r="C274" s="2">
-        <v>1750193275</v>
+        <v>1750173205</v>
       </c>
       <c r="D274" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="B275">
-        <v>7960739</v>
+        <v>7968759</v>
       </c>
       <c r="C275" s="2">
-        <v>1750193275</v>
+        <v>1750188546</v>
       </c>
       <c r="D275" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="B276">
-        <v>7961200</v>
+        <v>7968924</v>
       </c>
       <c r="C276" s="2">
-        <v>1750200435</v>
+        <v>1750109659</v>
       </c>
       <c r="D276" t="s">
-        <v>186</v>
+        <v>66</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B277">
-        <v>7961672</v>
+        <v>7969037</v>
       </c>
       <c r="C277" s="2">
-        <v>1750188546</v>
+        <v>1750215295</v>
       </c>
       <c r="D277" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B278">
-        <v>7963480</v>
-      </c>
-      <c r="C278" t="s">
-        <v>5</v>
+        <v>7969146</v>
+      </c>
+      <c r="C278" s="2">
+        <v>1750200435</v>
       </c>
       <c r="D278" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
@@ -5255,83 +5224,83 @@
         <v>50</v>
       </c>
       <c r="B279">
-        <v>7964068</v>
+        <v>7969146</v>
       </c>
       <c r="C279" s="2">
-        <v>1750214647</v>
+        <v>1750200541</v>
       </c>
       <c r="D279" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B280">
-        <v>7964068</v>
-      </c>
-      <c r="C280" s="2">
-        <v>1750263341</v>
+        <v>7969156</v>
+      </c>
+      <c r="C280" t="s">
+        <v>109</v>
       </c>
       <c r="D280" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B281">
-        <v>7964068</v>
+        <v>7969367</v>
       </c>
       <c r="C281" s="2">
-        <v>1750101956</v>
+        <v>1750188523</v>
       </c>
       <c r="D281" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="B282">
-        <v>7964164</v>
+        <v>7969374</v>
       </c>
       <c r="C282" s="2">
-        <v>1770041364</v>
+        <v>1750200435</v>
       </c>
       <c r="D282" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="B283">
-        <v>7966435</v>
-      </c>
-      <c r="C283" s="2">
-        <v>1750220000</v>
+        <v>7970398</v>
+      </c>
+      <c r="C283" t="s">
+        <v>140</v>
       </c>
       <c r="D283" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="B284">
-        <v>7966435</v>
-      </c>
-      <c r="C284" s="2">
-        <v>1750248000</v>
+        <v>7970398</v>
+      </c>
+      <c r="C284" t="s">
+        <v>63</v>
       </c>
       <c r="D284" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
@@ -5339,13 +5308,13 @@
         <v>50</v>
       </c>
       <c r="B285">
-        <v>7967194</v>
+        <v>7970595</v>
       </c>
       <c r="C285" s="2">
-        <v>1750220000</v>
+        <v>1750200541</v>
       </c>
       <c r="D285" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
@@ -5353,178 +5322,178 @@
         <v>50</v>
       </c>
       <c r="B286">
-        <v>7967194</v>
+        <v>7970595</v>
       </c>
       <c r="C286" s="2">
-        <v>1750220022</v>
+        <v>1750214647</v>
       </c>
       <c r="D286" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="B287">
-        <v>7967726</v>
-      </c>
-      <c r="C287" t="s">
-        <v>5</v>
+        <v>7971064</v>
+      </c>
+      <c r="C287" s="2">
+        <v>1750109641</v>
       </c>
       <c r="D287" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="B288">
-        <v>7967730</v>
-      </c>
-      <c r="C288" t="s">
-        <v>193</v>
+        <v>7971177</v>
+      </c>
+      <c r="C288" s="2">
+        <v>1750173205</v>
       </c>
       <c r="D288" t="s">
-        <v>66</v>
+        <v>198</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B289">
-        <v>7967730</v>
-      </c>
-      <c r="C289" t="s">
-        <v>84</v>
+        <v>7971383</v>
+      </c>
+      <c r="C289" s="2">
+        <v>1750200435</v>
       </c>
       <c r="D289" t="s">
-        <v>66</v>
+        <v>199</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B290">
-        <v>7967764</v>
+        <v>7971741</v>
       </c>
       <c r="C290" s="2">
-        <v>1770041364</v>
+        <v>1750200435</v>
       </c>
       <c r="D290" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>195</v>
+        <v>50</v>
       </c>
       <c r="B291">
-        <v>7967825</v>
+        <v>7972029</v>
       </c>
       <c r="C291" s="2">
-        <v>1750304622</v>
+        <v>1750248000</v>
       </c>
       <c r="D291" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>195</v>
+        <v>50</v>
       </c>
       <c r="B292">
-        <v>7967825</v>
-      </c>
-      <c r="C292" t="s">
-        <v>197</v>
+        <v>7972029</v>
+      </c>
+      <c r="C292" s="2">
+        <v>1750220330</v>
       </c>
       <c r="D292" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>198</v>
+        <v>50</v>
       </c>
       <c r="B293">
-        <v>7967829</v>
+        <v>7973015</v>
       </c>
       <c r="C293" s="2">
-        <v>1750222982</v>
+        <v>1750200541</v>
       </c>
       <c r="D293" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>198</v>
+        <v>50</v>
       </c>
       <c r="B294">
-        <v>7967829</v>
+        <v>7973015</v>
       </c>
       <c r="C294" s="2">
-        <v>1750105679</v>
+        <v>1750245555</v>
       </c>
       <c r="D294" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B295">
-        <v>7968148</v>
+        <v>7973015</v>
       </c>
       <c r="C295" s="2">
-        <v>1750109641</v>
+        <v>1750134478</v>
       </c>
       <c r="D295" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B296">
-        <v>7968426</v>
+        <v>7973015</v>
       </c>
       <c r="C296" s="2">
-        <v>1750092824</v>
+        <v>1750263341</v>
       </c>
       <c r="D296" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B297">
-        <v>7968518</v>
+        <v>7973357</v>
       </c>
       <c r="C297" s="2">
-        <v>1750173205</v>
+        <v>1750220022</v>
       </c>
       <c r="D297" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B298">
-        <v>7968759</v>
+        <v>7973357</v>
       </c>
       <c r="C298" s="2">
-        <v>1750188546</v>
+        <v>1750220000</v>
       </c>
       <c r="D298" t="s">
         <v>203</v>
@@ -5532,72 +5501,72 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B299">
-        <v>7968924</v>
+        <v>7973357</v>
       </c>
       <c r="C299" s="2">
-        <v>1750109659</v>
+        <v>1750200435</v>
       </c>
       <c r="D299" t="s">
-        <v>66</v>
+        <v>203</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="B300">
-        <v>7969037</v>
-      </c>
-      <c r="C300" s="2">
-        <v>1750215295</v>
+        <v>7973399</v>
+      </c>
+      <c r="C300" t="s">
+        <v>204</v>
       </c>
       <c r="D300" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B301">
-        <v>7969146</v>
+        <v>7973493</v>
       </c>
       <c r="C301" s="2">
-        <v>1750200435</v>
+        <v>1750101956</v>
       </c>
       <c r="D301" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B302">
-        <v>7969146</v>
+        <v>7973493</v>
       </c>
       <c r="C302" s="2">
-        <v>1750200541</v>
+        <v>1750188523</v>
       </c>
       <c r="D302" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="B303">
-        <v>7969156</v>
-      </c>
-      <c r="C303" t="s">
-        <v>118</v>
+        <v>7973493</v>
+      </c>
+      <c r="C303" s="2">
+        <v>1750101952</v>
       </c>
       <c r="D303" t="s">
-        <v>174</v>
+        <v>206</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
@@ -5605,10 +5574,10 @@
         <v>8</v>
       </c>
       <c r="B304">
-        <v>7969367</v>
+        <v>7973493</v>
       </c>
       <c r="C304" s="2">
-        <v>1750188523</v>
+        <v>1750188524</v>
       </c>
       <c r="D304" t="s">
         <v>206</v>
@@ -5616,55 +5585,55 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B305">
-        <v>7969374</v>
-      </c>
-      <c r="C305" s="2">
-        <v>1750200435</v>
+        <v>7973493</v>
+      </c>
+      <c r="C305" t="s">
+        <v>207</v>
       </c>
       <c r="D305" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>108</v>
+        <v>8</v>
       </c>
       <c r="B306">
-        <v>7970398</v>
+        <v>7973493</v>
       </c>
       <c r="C306" t="s">
-        <v>151</v>
+        <v>208</v>
       </c>
       <c r="D306" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>108</v>
+        <v>8</v>
       </c>
       <c r="B307">
-        <v>7970398</v>
+        <v>7973493</v>
       </c>
       <c r="C307" t="s">
-        <v>63</v>
+        <v>208</v>
       </c>
       <c r="D307" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="B308">
-        <v>7970595</v>
+        <v>7973637</v>
       </c>
       <c r="C308" s="2">
-        <v>1750200541</v>
+        <v>1750188546</v>
       </c>
       <c r="D308" t="s">
         <v>209</v>
@@ -5672,16 +5641,16 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="B309">
-        <v>7970595</v>
+        <v>7974004</v>
       </c>
       <c r="C309" s="2">
-        <v>1750214647</v>
+        <v>1750109659</v>
       </c>
       <c r="D309" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
@@ -5689,10 +5658,10 @@
         <v>10</v>
       </c>
       <c r="B310">
-        <v>7971064</v>
+        <v>7974004</v>
       </c>
       <c r="C310" s="2">
-        <v>1750109641</v>
+        <v>1750109615</v>
       </c>
       <c r="D310" t="s">
         <v>210</v>
@@ -5700,41 +5669,41 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="B311">
-        <v>7971177</v>
+        <v>7974287</v>
       </c>
       <c r="C311" s="2">
-        <v>1750173205</v>
+        <v>1750130600</v>
       </c>
       <c r="D311" t="s">
-        <v>211</v>
+        <v>66</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="B312">
-        <v>7971383</v>
+        <v>7974671</v>
       </c>
       <c r="C312" s="2">
-        <v>1750200435</v>
+        <v>1750105986</v>
       </c>
       <c r="D312" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>50</v>
+        <v>212</v>
       </c>
       <c r="B313">
-        <v>7971741</v>
+        <v>7975903</v>
       </c>
       <c r="C313" s="2">
-        <v>1750200435</v>
+        <v>1750053690</v>
       </c>
       <c r="D313" t="s">
         <v>213</v>
@@ -5745,7 +5714,7 @@
         <v>50</v>
       </c>
       <c r="B314">
-        <v>7972029</v>
+        <v>7975982</v>
       </c>
       <c r="C314" s="2">
         <v>1750248000</v>
@@ -5759,7 +5728,7 @@
         <v>50</v>
       </c>
       <c r="B315">
-        <v>7972029</v>
+        <v>7975982</v>
       </c>
       <c r="C315" s="2">
         <v>1750220330</v>
@@ -5770,44 +5739,44 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="B316">
-        <v>7973015</v>
+        <v>7976330</v>
       </c>
       <c r="C316" s="2">
-        <v>1750200541</v>
+        <v>1750222982</v>
       </c>
       <c r="D316" t="s">
-        <v>66</v>
+        <v>215</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B317">
-        <v>7973015</v>
+        <v>7976347</v>
       </c>
       <c r="C317" s="2">
-        <v>1750245555</v>
+        <v>1750177464</v>
       </c>
       <c r="D317" t="s">
-        <v>66</v>
+        <v>216</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B318">
-        <v>7973015</v>
+        <v>7976745</v>
       </c>
       <c r="C318" s="2">
-        <v>1750134478</v>
+        <v>1750105988</v>
       </c>
       <c r="D318" t="s">
-        <v>66</v>
+        <v>217</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
@@ -5815,27 +5784,27 @@
         <v>50</v>
       </c>
       <c r="B319">
-        <v>7973015</v>
+        <v>7977137</v>
       </c>
       <c r="C319" s="2">
-        <v>1750263341</v>
+        <v>1750200435</v>
       </c>
       <c r="D319" t="s">
-        <v>66</v>
+        <v>218</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B320">
-        <v>7973193</v>
+        <v>7977336</v>
       </c>
       <c r="C320" s="2">
-        <v>1750092824</v>
+        <v>1750173205</v>
       </c>
       <c r="D320" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.3">
@@ -5843,13 +5812,13 @@
         <v>50</v>
       </c>
       <c r="B321">
-        <v>7973357</v>
+        <v>7978510</v>
       </c>
       <c r="C321" s="2">
-        <v>1750220022</v>
+        <v>1750215294</v>
       </c>
       <c r="D321" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
@@ -5857,164 +5826,164 @@
         <v>50</v>
       </c>
       <c r="B322">
-        <v>7973357</v>
+        <v>7978510</v>
       </c>
       <c r="C322" s="2">
-        <v>1750220000</v>
+        <v>1750215295</v>
       </c>
       <c r="D322" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B323">
-        <v>7973357</v>
+        <v>7978626</v>
       </c>
       <c r="C323" s="2">
-        <v>1750200435</v>
+        <v>1750173205</v>
       </c>
       <c r="D323" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="B324">
-        <v>7973399</v>
-      </c>
-      <c r="C324" t="s">
-        <v>217</v>
+        <v>7978655</v>
+      </c>
+      <c r="C324" s="2">
+        <v>1750220022</v>
       </c>
       <c r="D324" t="s">
-        <v>218</v>
+        <v>66</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="B325">
-        <v>7973429</v>
-      </c>
-      <c r="C325" t="s">
-        <v>118</v>
+        <v>7978655</v>
+      </c>
+      <c r="C325" s="2">
+        <v>1750220330</v>
       </c>
       <c r="D325" t="s">
-        <v>219</v>
+        <v>66</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="B326">
-        <v>7973493</v>
+        <v>7978655</v>
       </c>
       <c r="C326" s="2">
-        <v>1750101956</v>
+        <v>1750239538</v>
       </c>
       <c r="D326" t="s">
-        <v>220</v>
+        <v>66</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="B327">
-        <v>7973493</v>
+        <v>7978655</v>
       </c>
       <c r="C327" s="2">
-        <v>1750188523</v>
+        <v>1750289153</v>
       </c>
       <c r="D327" t="s">
-        <v>220</v>
+        <v>66</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B328">
-        <v>7973493</v>
-      </c>
-      <c r="C328" s="2">
-        <v>1750101952</v>
+        <v>7978826</v>
+      </c>
+      <c r="C328" t="s">
+        <v>109</v>
       </c>
       <c r="D328" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B329">
-        <v>7973493</v>
+        <v>7979255</v>
       </c>
       <c r="C329" s="2">
-        <v>1750188524</v>
+        <v>1750105988</v>
       </c>
       <c r="D329" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="B330">
-        <v>7973493</v>
-      </c>
-      <c r="C330" t="s">
-        <v>221</v>
+        <v>7979396</v>
+      </c>
+      <c r="C330" s="2">
+        <v>1750053977</v>
       </c>
       <c r="D330" t="s">
-        <v>220</v>
+        <v>66</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="B331">
-        <v>7973493</v>
-      </c>
-      <c r="C331" t="s">
+        <v>7979436</v>
+      </c>
+      <c r="C331" s="2">
+        <v>1750200435</v>
+      </c>
+      <c r="D331" t="s">
         <v>222</v>
-      </c>
-      <c r="D331" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="B332">
-        <v>7973493</v>
-      </c>
-      <c r="C332" t="s">
-        <v>222</v>
+        <v>7979551</v>
+      </c>
+      <c r="C332" s="2">
+        <v>1750134478</v>
       </c>
       <c r="D332" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B333">
-        <v>7973637</v>
+        <v>7979551</v>
       </c>
       <c r="C333" s="2">
-        <v>1750188546</v>
+        <v>1750214647</v>
       </c>
       <c r="D333" t="s">
         <v>223</v>
@@ -6022,170 +5991,170 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B334">
-        <v>7973679</v>
+        <v>7979609</v>
       </c>
       <c r="C334" s="2">
-        <v>1750109658</v>
+        <v>1750200435</v>
       </c>
       <c r="D334" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>10</v>
+        <v>212</v>
       </c>
       <c r="B335">
-        <v>7974004</v>
+        <v>7979806</v>
       </c>
       <c r="C335" s="2">
-        <v>1750109659</v>
+        <v>1750261447</v>
       </c>
       <c r="D335" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="B336">
-        <v>7974004</v>
+        <v>7979880</v>
       </c>
       <c r="C336" s="2">
-        <v>1750109615</v>
+        <v>1750105988</v>
       </c>
       <c r="D336" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="B337">
-        <v>7974287</v>
+        <v>7983248</v>
       </c>
       <c r="C337" s="2">
-        <v>1750130600</v>
+        <v>1750109615</v>
       </c>
       <c r="D337" t="s">
-        <v>66</v>
+        <v>225</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="B338">
-        <v>7974671</v>
+        <v>7983283</v>
       </c>
       <c r="C338" s="2">
-        <v>1750105986</v>
+        <v>1750105679</v>
       </c>
       <c r="D338" t="s">
-        <v>226</v>
+        <v>66</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>227</v>
+        <v>36</v>
       </c>
       <c r="B339">
-        <v>7975903</v>
+        <v>7983301</v>
       </c>
       <c r="C339" s="2">
-        <v>1750053690</v>
+        <v>1750302850</v>
       </c>
       <c r="D339" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="B340">
-        <v>7975982</v>
+        <v>7983301</v>
       </c>
       <c r="C340" s="2">
-        <v>1750248000</v>
+        <v>1750266439</v>
       </c>
       <c r="D340" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="B341">
-        <v>7975982</v>
+        <v>7983301</v>
       </c>
       <c r="C341" s="2">
-        <v>1750220330</v>
+        <v>1750296744</v>
       </c>
       <c r="D341" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="B342">
-        <v>7976330</v>
+        <v>7983301</v>
       </c>
       <c r="C342" s="2">
-        <v>1750222982</v>
+        <v>1750221968</v>
       </c>
       <c r="D342" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="B343">
-        <v>7976347</v>
-      </c>
-      <c r="C343" s="2">
-        <v>1750177464</v>
+        <v>7983339</v>
+      </c>
+      <c r="C343">
+        <v>1750188523</v>
       </c>
       <c r="D343" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B344">
-        <v>7976745</v>
-      </c>
-      <c r="C344" s="2">
-        <v>1750105988</v>
+        <v>7983339</v>
+      </c>
+      <c r="C344">
+        <v>1750177464</v>
       </c>
       <c r="D344" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>50</v>
+        <v>212</v>
       </c>
       <c r="B345">
-        <v>7977137</v>
+        <v>7983535</v>
       </c>
       <c r="C345" s="2">
-        <v>1750200435</v>
+        <v>1750053690</v>
       </c>
       <c r="D345" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.3">
@@ -6193,27 +6162,27 @@
         <v>8</v>
       </c>
       <c r="B346">
-        <v>7977336</v>
+        <v>7983972</v>
       </c>
       <c r="C346" s="2">
-        <v>1750173205</v>
+        <v>1750177464</v>
       </c>
       <c r="D346" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="B347">
-        <v>7978510</v>
+        <v>7984027</v>
       </c>
       <c r="C347" s="2">
-        <v>1750215294</v>
+        <v>1750222982</v>
       </c>
       <c r="D347" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.3">
@@ -6221,83 +6190,83 @@
         <v>50</v>
       </c>
       <c r="B348">
-        <v>7978510</v>
+        <v>7984086</v>
       </c>
       <c r="C348" s="2">
-        <v>1750215295</v>
+        <v>1750220330</v>
       </c>
       <c r="D348" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="B349">
-        <v>7978626</v>
+        <v>7984086</v>
       </c>
       <c r="C349" s="2">
-        <v>1750173205</v>
+        <v>1750248000</v>
       </c>
       <c r="D349" t="s">
-        <v>189</v>
+        <v>231</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="B350">
-        <v>7978655</v>
+        <v>7984118</v>
       </c>
       <c r="C350" s="2">
-        <v>1750220022</v>
+        <v>1750109641</v>
       </c>
       <c r="D350" t="s">
-        <v>66</v>
+        <v>232</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B351">
-        <v>7978655</v>
+        <v>7984368</v>
       </c>
       <c r="C351" s="2">
-        <v>1750220330</v>
+        <v>1750263341</v>
       </c>
       <c r="D351" t="s">
-        <v>66</v>
+        <v>233</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B352">
-        <v>7978655</v>
+        <v>7984368</v>
       </c>
       <c r="C352" s="2">
-        <v>1750239538</v>
+        <v>1750291701</v>
       </c>
       <c r="D352" t="s">
-        <v>66</v>
+        <v>233</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B353">
-        <v>7978655</v>
+        <v>7984368</v>
       </c>
       <c r="C353" s="2">
-        <v>1750289153</v>
+        <v>1770041364</v>
       </c>
       <c r="D353" t="s">
-        <v>66</v>
+        <v>233</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.3">
@@ -6305,248 +6274,251 @@
         <v>10</v>
       </c>
       <c r="B354">
-        <v>7978720</v>
+        <v>7984464</v>
       </c>
       <c r="C354" s="2">
-        <v>1750109659</v>
+        <v>1750109615</v>
       </c>
       <c r="D354" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="B355">
-        <v>7978826</v>
-      </c>
-      <c r="C355" t="s">
-        <v>118</v>
+        <v>7985665</v>
+      </c>
+      <c r="C355" s="2">
+        <v>1750109615</v>
       </c>
       <c r="D355" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B356">
-        <v>7979255</v>
+        <v>7985903</v>
       </c>
       <c r="C356" s="2">
-        <v>1750105988</v>
+        <v>1750177464</v>
       </c>
       <c r="D356" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>65</v>
+        <v>177</v>
       </c>
       <c r="B357">
-        <v>7979396</v>
-      </c>
-      <c r="C357" s="2">
-        <v>1750053977</v>
+        <v>7985978</v>
+      </c>
+      <c r="C357" t="s">
+        <v>42</v>
       </c>
       <c r="D357" t="s">
-        <v>66</v>
+        <v>235</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B358">
-        <v>7979436</v>
+        <v>7986967</v>
       </c>
       <c r="C358" s="2">
-        <v>1750200435</v>
+        <v>1750173205</v>
       </c>
       <c r="D358" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B359">
-        <v>7979551</v>
+        <v>7987099</v>
       </c>
       <c r="C359" s="2">
-        <v>1750134478</v>
+        <v>1750044878</v>
       </c>
       <c r="D359" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B360">
-        <v>7979551</v>
+        <v>7987111</v>
       </c>
       <c r="C360" s="2">
-        <v>1750214647</v>
+        <v>1750105988</v>
       </c>
       <c r="D360" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B361">
-        <v>7979609</v>
+        <v>7987211</v>
       </c>
       <c r="C361" s="2">
-        <v>1750200435</v>
+        <v>1750109658</v>
       </c>
       <c r="D361" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>227</v>
+        <v>46</v>
       </c>
       <c r="B362">
-        <v>7979806</v>
+        <v>7987240</v>
       </c>
       <c r="C362" s="2">
-        <v>1750261447</v>
+        <v>1750109615</v>
       </c>
       <c r="D362" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="B363">
-        <v>7979880</v>
+        <v>7987317</v>
       </c>
       <c r="C363" s="2">
-        <v>1750105988</v>
+        <v>1750109615</v>
       </c>
       <c r="D363" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>8</v>
+        <v>241</v>
       </c>
       <c r="B364">
-        <v>7983248</v>
-      </c>
-      <c r="C364" s="2">
-        <v>1750109615</v>
+        <v>7987322</v>
+      </c>
+      <c r="C364" t="s">
+        <v>242</v>
       </c>
       <c r="D364" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="B365">
-        <v>7983283</v>
+        <v>7987370</v>
       </c>
       <c r="C365" s="2">
-        <v>1750105679</v>
+        <v>1750188523</v>
       </c>
       <c r="D365" t="s">
-        <v>66</v>
+        <v>244</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="B366">
-        <v>7983301</v>
+        <v>7987406</v>
       </c>
       <c r="C366" s="2">
-        <v>1750302850</v>
+        <v>1750173205</v>
       </c>
       <c r="D366" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B367">
-        <v>7983301</v>
+        <v>7987434</v>
       </c>
       <c r="C367" s="2">
-        <v>1750266439</v>
+        <v>1750105988</v>
       </c>
       <c r="D367" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="B368">
-        <v>7983301</v>
+        <v>7987462</v>
       </c>
       <c r="C368" s="2">
-        <v>1750296744</v>
+        <v>1750188523</v>
       </c>
       <c r="D368" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="B369">
-        <v>7983301</v>
+        <v>7987462</v>
       </c>
       <c r="C369" s="2">
-        <v>1750221968</v>
+        <v>1750177464</v>
       </c>
       <c r="D369" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B370">
-        <v>7983339</v>
+        <v>7987538</v>
       </c>
       <c r="C370" s="2">
-        <v>1750188523</v>
+        <v>1750109615</v>
+      </c>
+      <c r="D370" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B371">
-        <v>7983339</v>
-      </c>
-      <c r="C371">
-        <v>1750177464</v>
+        <v>7987578</v>
+      </c>
+      <c r="C371" s="2">
+        <v>1750105988</v>
       </c>
       <c r="D371" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.3">
@@ -6554,125 +6526,125 @@
         <v>10</v>
       </c>
       <c r="B372">
-        <v>7983511</v>
+        <v>7987872</v>
       </c>
       <c r="C372" s="2">
-        <v>1750109659</v>
+        <v>1750092824</v>
       </c>
       <c r="D372" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>10</v>
+        <v>212</v>
       </c>
       <c r="B373">
-        <v>7983511</v>
+        <v>7987999</v>
       </c>
       <c r="C373" s="2">
-        <v>1750053977</v>
+        <v>1750346607</v>
       </c>
       <c r="D373" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>227</v>
+        <v>147</v>
       </c>
       <c r="B374">
-        <v>7983535</v>
+        <v>7988026</v>
       </c>
       <c r="C374" s="2">
-        <v>1750053690</v>
+        <v>1750109615</v>
       </c>
       <c r="D374" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>46</v>
+        <v>212</v>
       </c>
       <c r="B375">
-        <v>7983732</v>
-      </c>
-      <c r="C375" t="s">
-        <v>245</v>
+        <v>7988101</v>
+      </c>
+      <c r="C375" s="2">
+        <v>1750222982</v>
       </c>
       <c r="D375" t="s">
-        <v>174</v>
+        <v>224</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="B376">
-        <v>7983972</v>
+        <v>7988124</v>
       </c>
       <c r="C376" s="2">
-        <v>1750177464</v>
+        <v>1750109615</v>
       </c>
       <c r="D376" t="s">
-        <v>246</v>
+        <v>66</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="B377">
-        <v>7984027</v>
+        <v>7989437</v>
       </c>
       <c r="C377" s="2">
-        <v>1750222982</v>
+        <v>1750101956</v>
       </c>
       <c r="D377" t="s">
-        <v>247</v>
+        <v>66</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="B378">
-        <v>7984086</v>
+        <v>7989974</v>
       </c>
       <c r="C378" s="2">
-        <v>1750220330</v>
+        <v>1750173205</v>
       </c>
       <c r="D378" t="s">
-        <v>248</v>
+        <v>178</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="B379">
-        <v>7984086</v>
+        <v>7990410</v>
       </c>
       <c r="C379" s="2">
-        <v>1750248000</v>
+        <v>1750109615</v>
       </c>
       <c r="D379" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="B380">
-        <v>7984118</v>
+        <v>7990418</v>
       </c>
       <c r="C380" s="2">
-        <v>1750109641</v>
+        <v>1750100966</v>
       </c>
       <c r="D380" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.3">
@@ -6680,195 +6652,195 @@
         <v>50</v>
       </c>
       <c r="B381">
-        <v>7984368</v>
-      </c>
-      <c r="C381" s="2">
-        <v>1750263341</v>
+        <v>7991709</v>
+      </c>
+      <c r="C381">
+        <v>1750188523</v>
       </c>
       <c r="D381" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>50</v>
+        <v>147</v>
       </c>
       <c r="B382">
-        <v>7984368</v>
+        <v>7991786</v>
       </c>
       <c r="C382" s="2">
-        <v>1750291701</v>
+        <v>1750109615</v>
       </c>
       <c r="D382" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B383">
-        <v>7984368</v>
+        <v>7992146</v>
       </c>
       <c r="C383" s="2">
-        <v>1770041364</v>
+        <v>1750053977</v>
       </c>
       <c r="D383" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="B384">
-        <v>7984464</v>
+        <v>7992146</v>
       </c>
       <c r="C384" s="2">
-        <v>1750109615</v>
+        <v>1750105988</v>
       </c>
       <c r="D384" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B385">
-        <v>7985665</v>
+        <v>7992155</v>
       </c>
       <c r="C385" s="2">
-        <v>1750109615</v>
+        <v>1750215295</v>
       </c>
       <c r="D385" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B386">
-        <v>7985903</v>
-      </c>
-      <c r="C386" s="2">
-        <v>1750177464</v>
+        <v>7992193</v>
+      </c>
+      <c r="C386" t="s">
+        <v>63</v>
       </c>
       <c r="D386" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="B387">
-        <v>7985978</v>
-      </c>
-      <c r="C387" t="s">
-        <v>42</v>
+        <v>7992217</v>
+      </c>
+      <c r="C387" s="2">
+        <v>1750109658</v>
       </c>
       <c r="D387" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B388">
-        <v>7986967</v>
+        <v>7992231</v>
       </c>
       <c r="C388" s="2">
-        <v>1750173205</v>
+        <v>1750109641</v>
       </c>
       <c r="D388" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B389">
-        <v>7987099</v>
+        <v>7993496</v>
       </c>
       <c r="C389" s="2">
-        <v>1750044878</v>
+        <v>1750101956</v>
       </c>
       <c r="D389" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="B390">
-        <v>7987111</v>
+        <v>7993496</v>
       </c>
       <c r="C390" s="2">
-        <v>1750105988</v>
+        <v>1750188523</v>
       </c>
       <c r="D390" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="B391">
-        <v>7987211</v>
+        <v>7993547</v>
       </c>
       <c r="C391" s="2">
-        <v>1750109658</v>
+        <v>1750173205</v>
       </c>
       <c r="D391" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>46</v>
+        <v>212</v>
       </c>
       <c r="B392">
-        <v>7987240</v>
+        <v>7993736</v>
       </c>
       <c r="C392" s="2">
-        <v>1750109615</v>
+        <v>1750053977</v>
       </c>
       <c r="D392" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>8</v>
+        <v>212</v>
       </c>
       <c r="B393">
-        <v>7987317</v>
+        <v>7993736</v>
       </c>
       <c r="C393" s="2">
-        <v>1750109615</v>
+        <v>1750173205</v>
       </c>
       <c r="D393" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>258</v>
+        <v>50</v>
       </c>
       <c r="B394">
-        <v>7987322</v>
-      </c>
-      <c r="C394" t="s">
-        <v>259</v>
+        <v>7993882</v>
+      </c>
+      <c r="C394" s="2">
+        <v>1750245555</v>
       </c>
       <c r="D394" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.3">
@@ -6876,38 +6848,38 @@
         <v>50</v>
       </c>
       <c r="B395">
-        <v>7987370</v>
+        <v>7993882</v>
       </c>
       <c r="C395" s="2">
-        <v>1750188523</v>
+        <v>1750200435</v>
       </c>
       <c r="D395" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="B396">
-        <v>7987406</v>
+        <v>7993882</v>
       </c>
       <c r="C396" s="2">
-        <v>1750173205</v>
+        <v>1750133348</v>
       </c>
       <c r="D396" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="B397">
-        <v>7987462</v>
+        <v>7993882</v>
       </c>
       <c r="C397" s="2">
-        <v>1750188523</v>
+        <v>1750214647</v>
       </c>
       <c r="D397" t="s">
         <v>263</v>
@@ -6915,41 +6887,41 @@
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>8</v>
+        <v>147</v>
       </c>
       <c r="B398">
-        <v>7987462</v>
-      </c>
-      <c r="C398" s="2">
-        <v>1750177464</v>
+        <v>7993886</v>
+      </c>
+      <c r="C398" t="s">
+        <v>308</v>
       </c>
       <c r="D398" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="B399">
-        <v>7987538</v>
+        <v>7994017</v>
       </c>
       <c r="C399" s="2">
-        <v>1750109615</v>
+        <v>1750193275</v>
       </c>
       <c r="D399" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B400">
-        <v>7987578</v>
+        <v>7994017</v>
       </c>
       <c r="C400" s="2">
-        <v>1750105988</v>
+        <v>1750200435</v>
       </c>
       <c r="D400" t="s">
         <v>265</v>
@@ -6957,100 +6929,100 @@
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B401">
-        <v>7987872</v>
+        <v>7994308</v>
       </c>
       <c r="C401" s="2">
-        <v>1750092824</v>
+        <v>1750173205</v>
       </c>
       <c r="D401" t="s">
-        <v>266</v>
+        <v>178</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="B402">
-        <v>7987999</v>
+        <v>7994720</v>
       </c>
       <c r="C402" s="2">
-        <v>1750346607</v>
+        <v>1750109641</v>
       </c>
       <c r="D402" t="s">
-        <v>267</v>
+        <v>66</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>195</v>
+        <v>8</v>
       </c>
       <c r="B403">
-        <v>7988026</v>
+        <v>7996721</v>
       </c>
       <c r="C403" s="2">
-        <v>1750109615</v>
+        <v>1770041364</v>
       </c>
       <c r="D403" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B404">
-        <v>7988034</v>
+        <v>7996728</v>
       </c>
       <c r="C404" s="2">
-        <v>1750109659</v>
+        <v>1750245555</v>
       </c>
       <c r="D404" t="s">
-        <v>224</v>
+        <v>267</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>227</v>
+        <v>50</v>
       </c>
       <c r="B405">
-        <v>7988101</v>
+        <v>7996728</v>
       </c>
       <c r="C405" s="2">
-        <v>1750222982</v>
+        <v>1750289153</v>
       </c>
       <c r="D405" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B406">
-        <v>7988121</v>
+        <v>7996728</v>
       </c>
       <c r="C406" s="2">
-        <v>1750256248</v>
+        <v>1750263341</v>
       </c>
       <c r="D406" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B407">
-        <v>7988121</v>
+        <v>7996728</v>
       </c>
       <c r="C407" s="2">
-        <v>1750109659</v>
+        <v>1750200435</v>
       </c>
       <c r="D407" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.3">
@@ -7058,209 +7030,209 @@
         <v>46</v>
       </c>
       <c r="B408">
-        <v>7988121</v>
-      </c>
-      <c r="C408" s="2">
-        <v>1750053977</v>
+        <v>7996739</v>
+      </c>
+      <c r="C408" t="s">
+        <v>109</v>
       </c>
       <c r="D408" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="B409">
-        <v>7988124</v>
-      </c>
-      <c r="C409" s="2">
-        <v>1750109615</v>
+        <v>7996739</v>
+      </c>
+      <c r="C409" t="s">
+        <v>99</v>
       </c>
       <c r="D409" t="s">
-        <v>66</v>
+        <v>268</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>227</v>
+        <v>8</v>
       </c>
       <c r="B410">
-        <v>7989367</v>
+        <v>7996907</v>
       </c>
       <c r="C410" s="2">
         <v>1750109615</v>
       </c>
       <c r="D410" t="s">
-        <v>270</v>
+        <v>225</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="B411">
-        <v>7989367</v>
+        <v>7997042</v>
       </c>
       <c r="C411" s="2">
-        <v>1750130600</v>
+        <v>1750234950</v>
       </c>
       <c r="D411" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>65</v>
+        <v>212</v>
       </c>
       <c r="B412">
-        <v>7989437</v>
+        <v>7997042</v>
       </c>
       <c r="C412" s="2">
-        <v>1750101956</v>
+        <v>1750222982</v>
       </c>
       <c r="D412" t="s">
-        <v>66</v>
+        <v>269</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>114</v>
+        <v>4</v>
       </c>
       <c r="B413">
-        <v>7989498</v>
-      </c>
-      <c r="C413" t="s">
-        <v>63</v>
+        <v>7997152</v>
+      </c>
+      <c r="C413" s="2">
+        <v>1750109641</v>
       </c>
       <c r="D413" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B414">
-        <v>7989974</v>
+        <v>7999875</v>
       </c>
       <c r="C414" s="2">
         <v>1750173205</v>
       </c>
       <c r="D414" t="s">
-        <v>189</v>
+        <v>271</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>10</v>
+        <v>212</v>
       </c>
       <c r="B415">
-        <v>7990234</v>
-      </c>
-      <c r="C415" s="2">
-        <v>1750109658</v>
+        <v>8001897</v>
+      </c>
+      <c r="C415" t="s">
+        <v>272</v>
       </c>
       <c r="D415" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>10</v>
+        <v>177</v>
       </c>
       <c r="B416">
-        <v>7990410</v>
+        <v>8001909</v>
       </c>
       <c r="C416" s="2">
-        <v>1750109615</v>
+        <v>1750173205</v>
       </c>
       <c r="D416" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>10</v>
+        <v>186</v>
       </c>
       <c r="B417">
-        <v>7990418</v>
+        <v>8001946</v>
       </c>
       <c r="C417" s="2">
-        <v>1750100966</v>
+        <v>1750222982</v>
       </c>
       <c r="D417" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>227</v>
+        <v>10</v>
       </c>
       <c r="B418">
-        <v>7990488</v>
+        <v>8001964</v>
       </c>
       <c r="C418" s="2">
-        <v>1750109641</v>
+        <v>1750261447</v>
       </c>
       <c r="D418" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B419">
-        <v>7991709</v>
-      </c>
-      <c r="C419">
-        <v>1750188523</v>
+        <v>8001995</v>
+      </c>
+      <c r="C419" s="2">
+        <v>1750177464</v>
       </c>
       <c r="D419" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>195</v>
+        <v>50</v>
       </c>
       <c r="B420">
-        <v>7991786</v>
+        <v>8002016</v>
       </c>
       <c r="C420" s="2">
-        <v>1750109615</v>
+        <v>1750200435</v>
       </c>
       <c r="D420" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>10</v>
+        <v>212</v>
       </c>
       <c r="B421">
-        <v>7991896</v>
-      </c>
-      <c r="C421" s="2">
-        <v>1750035762</v>
+        <v>8002017</v>
+      </c>
+      <c r="C421" t="s">
+        <v>277</v>
       </c>
       <c r="D421" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="B422">
-        <v>7992146</v>
+        <v>8002044</v>
       </c>
       <c r="C422" s="2">
-        <v>1750053977</v>
+        <v>1750215295</v>
       </c>
       <c r="D422" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.3">
@@ -7268,41 +7240,41 @@
         <v>46</v>
       </c>
       <c r="B423">
-        <v>7992146</v>
-      </c>
-      <c r="C423" s="2">
-        <v>1750105988</v>
+        <v>8002045</v>
+      </c>
+      <c r="C423" t="s">
+        <v>109</v>
       </c>
       <c r="D423" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B424">
-        <v>7992155</v>
+        <v>8002169</v>
       </c>
       <c r="C424" s="2">
-        <v>1750215295</v>
+        <v>1750109615</v>
       </c>
       <c r="D424" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="B425">
-        <v>7992193</v>
-      </c>
-      <c r="C425" t="s">
-        <v>63</v>
+        <v>8002212</v>
+      </c>
+      <c r="C425" s="2">
+        <v>1750222982</v>
       </c>
       <c r="D425" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.3">
@@ -7310,27 +7282,27 @@
         <v>46</v>
       </c>
       <c r="B426">
-        <v>7992217</v>
+        <v>8002230</v>
       </c>
       <c r="C426" s="2">
-        <v>1750109658</v>
+        <v>1750173205</v>
       </c>
       <c r="D426" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="B427">
-        <v>7992231</v>
+        <v>8002257</v>
       </c>
       <c r="C427" s="2">
-        <v>1750109641</v>
+        <v>1750109615</v>
       </c>
       <c r="D427" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.3">
@@ -7338,13 +7310,13 @@
         <v>8</v>
       </c>
       <c r="B428">
-        <v>7993496</v>
+        <v>8002272</v>
       </c>
       <c r="C428" s="2">
-        <v>1750101956</v>
+        <v>1804610970</v>
       </c>
       <c r="D428" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.3">
@@ -7352,66 +7324,66 @@
         <v>8</v>
       </c>
       <c r="B429">
-        <v>7993496</v>
+        <v>8002272</v>
       </c>
       <c r="C429" s="2">
-        <v>1750188523</v>
+        <v>1770031910</v>
       </c>
       <c r="D429" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B430">
-        <v>7993547</v>
+        <v>8002373</v>
       </c>
       <c r="C430" s="2">
-        <v>1750173205</v>
+        <v>1750200435</v>
       </c>
       <c r="D430" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B431">
-        <v>7993555</v>
+        <v>8002398</v>
       </c>
       <c r="C431" s="2">
-        <v>1750109659</v>
+        <v>1750173205</v>
       </c>
       <c r="D431" t="s">
-        <v>224</v>
+        <v>115</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="B432">
-        <v>7993641</v>
+        <v>8002519</v>
       </c>
       <c r="C432" s="2">
-        <v>1750110039</v>
+        <v>1750109615</v>
       </c>
       <c r="D432" t="s">
-        <v>283</v>
+        <v>240</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B433">
-        <v>7993683</v>
-      </c>
-      <c r="C433" s="2">
-        <v>1750214641</v>
+        <v>8002614</v>
+      </c>
+      <c r="C433" t="s">
+        <v>5</v>
       </c>
       <c r="D433" t="s">
         <v>284</v>
@@ -7422,24 +7394,24 @@
         <v>50</v>
       </c>
       <c r="B434">
-        <v>7993683</v>
+        <v>8002694</v>
       </c>
       <c r="C434" s="2">
-        <v>1750200541</v>
+        <v>1750173205</v>
       </c>
       <c r="D434" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>227</v>
+        <v>50</v>
       </c>
       <c r="B435">
-        <v>7993736</v>
+        <v>8002694</v>
       </c>
       <c r="C435" s="2">
-        <v>1750053977</v>
+        <v>1750193275</v>
       </c>
       <c r="D435" t="s">
         <v>285</v>
@@ -7447,58 +7419,58 @@
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>227</v>
+        <v>46</v>
       </c>
       <c r="B436">
-        <v>7993736</v>
+        <v>8002753</v>
       </c>
       <c r="C436" s="2">
-        <v>1750173205</v>
+        <v>1750102901</v>
       </c>
       <c r="D436" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="B437">
-        <v>7993882</v>
+        <v>8002811</v>
       </c>
       <c r="C437" s="2">
-        <v>1750245555</v>
+        <v>1750295447</v>
       </c>
       <c r="D437" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="B438">
-        <v>7993882</v>
+        <v>8002811</v>
       </c>
       <c r="C438" s="2">
-        <v>1750200435</v>
+        <v>1750288271</v>
       </c>
       <c r="D438" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B439">
-        <v>7993882</v>
+        <v>8002883</v>
       </c>
       <c r="C439" s="2">
-        <v>1750133348</v>
+        <v>1750188523</v>
       </c>
       <c r="D439" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.3">
@@ -7506,69 +7478,69 @@
         <v>50</v>
       </c>
       <c r="B440">
-        <v>7993882</v>
+        <v>8003159</v>
       </c>
       <c r="C440" s="2">
-        <v>1750214647</v>
+        <v>1750193275</v>
       </c>
       <c r="D440" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B441">
-        <v>7994017</v>
+        <v>8003380</v>
       </c>
       <c r="C441" s="2">
-        <v>1750193275</v>
+        <v>1750109615</v>
       </c>
       <c r="D441" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B442">
-        <v>7994017</v>
+        <v>8003380</v>
       </c>
       <c r="C442" s="2">
-        <v>1750200435</v>
+        <v>1750256956</v>
       </c>
       <c r="D442" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B443">
-        <v>7994308</v>
+        <v>8003456</v>
       </c>
       <c r="C443" s="2">
         <v>1750173205</v>
       </c>
       <c r="D443" t="s">
-        <v>189</v>
+        <v>261</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>227</v>
+        <v>103</v>
       </c>
       <c r="B444">
-        <v>7996620</v>
-      </c>
-      <c r="C444" t="s">
-        <v>63</v>
+        <v>8003492</v>
+      </c>
+      <c r="C444" s="2">
+        <v>1750109615</v>
       </c>
       <c r="D444" t="s">
-        <v>288</v>
+        <v>254</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.3">
@@ -7576,55 +7548,55 @@
         <v>8</v>
       </c>
       <c r="B445">
-        <v>7996721</v>
+        <v>8003561</v>
       </c>
       <c r="C445" s="2">
-        <v>1770041364</v>
+        <v>1750177464</v>
       </c>
       <c r="D445" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="B446">
-        <v>7996728</v>
+        <v>8004495</v>
       </c>
       <c r="C446" s="2">
-        <v>1750245555</v>
+        <v>1750222982</v>
       </c>
       <c r="D446" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>50</v>
+        <v>147</v>
       </c>
       <c r="B447">
-        <v>7996728</v>
+        <v>8004526</v>
       </c>
       <c r="C447" s="2">
-        <v>1750289153</v>
+        <v>1750304916</v>
       </c>
       <c r="D447" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>50</v>
+        <v>177</v>
       </c>
       <c r="B448">
-        <v>7996728</v>
+        <v>8004625</v>
       </c>
       <c r="C448" s="2">
-        <v>1750263341</v>
+        <v>1770041364</v>
       </c>
       <c r="D448" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.3">
@@ -7632,27 +7604,27 @@
         <v>50</v>
       </c>
       <c r="B449">
-        <v>7996728</v>
+        <v>8004699</v>
       </c>
       <c r="C449" s="2">
-        <v>1750200435</v>
+        <v>1750188523</v>
       </c>
       <c r="D449" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B450">
-        <v>7996739</v>
-      </c>
-      <c r="C450" t="s">
-        <v>118</v>
+        <v>8004774</v>
+      </c>
+      <c r="C450" s="2">
+        <v>1750215294</v>
       </c>
       <c r="D450" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.3">
@@ -7660,83 +7632,83 @@
         <v>46</v>
       </c>
       <c r="B451">
-        <v>7996739</v>
-      </c>
-      <c r="C451" t="s">
-        <v>117</v>
+        <v>8004898</v>
+      </c>
+      <c r="C451" s="2">
+        <v>1750130600</v>
       </c>
       <c r="D451" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="B452">
-        <v>7996907</v>
-      </c>
-      <c r="C452" s="2">
-        <v>1750109615</v>
+        <v>8005129</v>
+      </c>
+      <c r="C452" t="s">
+        <v>297</v>
       </c>
       <c r="D452" t="s">
-        <v>241</v>
+        <v>298</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>227</v>
+        <v>103</v>
       </c>
       <c r="B453">
-        <v>7997042</v>
-      </c>
-      <c r="C453" s="2">
-        <v>1750234950</v>
+        <v>8005129</v>
+      </c>
+      <c r="C453" t="s">
+        <v>47</v>
       </c>
       <c r="D453" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
-        <v>227</v>
+        <v>46</v>
       </c>
       <c r="B454">
-        <v>7997042</v>
-      </c>
-      <c r="C454" s="2">
-        <v>1750222982</v>
+        <v>8005739</v>
+      </c>
+      <c r="C454" t="s">
+        <v>64</v>
       </c>
       <c r="D454" t="s">
-        <v>292</v>
+        <v>66</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B455">
-        <v>7998072</v>
+        <v>8006044</v>
       </c>
       <c r="C455" s="2">
-        <v>1750109659</v>
+        <v>1750105988</v>
       </c>
       <c r="D455" t="s">
-        <v>293</v>
+        <v>246</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="B456">
-        <v>7998072</v>
+        <v>8006110</v>
       </c>
       <c r="C456" s="2">
-        <v>1750053977</v>
+        <v>1750200435</v>
       </c>
       <c r="D456" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.3">
@@ -7744,41 +7716,41 @@
         <v>8</v>
       </c>
       <c r="B457">
-        <v>7999875</v>
+        <v>8006162</v>
       </c>
       <c r="C457" s="2">
-        <v>1750173205</v>
+        <v>1750044878</v>
       </c>
       <c r="D457" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>198</v>
+        <v>8</v>
       </c>
       <c r="B458">
-        <v>8001946</v>
+        <v>8008898</v>
       </c>
       <c r="C458" s="2">
-        <v>1750222982</v>
+        <v>1750173205</v>
       </c>
       <c r="D458" t="s">
-        <v>295</v>
+        <v>271</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B459">
-        <v>8001964</v>
+        <v>8009111</v>
       </c>
       <c r="C459" s="2">
-        <v>1750261447</v>
+        <v>1750173205</v>
       </c>
       <c r="D459" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.3">
@@ -7786,27 +7758,27 @@
         <v>8</v>
       </c>
       <c r="B460">
-        <v>8001995</v>
-      </c>
-      <c r="C460" s="2">
-        <v>1750177464</v>
+        <v>8009122</v>
+      </c>
+      <c r="C460" t="s">
+        <v>207</v>
       </c>
       <c r="D460" t="s">
-        <v>246</v>
+        <v>302</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B461">
-        <v>8002016</v>
-      </c>
-      <c r="C461" s="2">
-        <v>1750200435</v>
+        <v>8009122</v>
+      </c>
+      <c r="C461" t="s">
+        <v>208</v>
       </c>
       <c r="D461" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.3">
@@ -7814,437 +7786,129 @@
         <v>46</v>
       </c>
       <c r="B462">
-        <v>8002045</v>
-      </c>
-      <c r="C462" t="s">
-        <v>118</v>
+        <v>8009168</v>
+      </c>
+      <c r="C462" s="2">
+        <v>1750173205</v>
       </c>
       <c r="D462" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="B463">
-        <v>8002212</v>
+        <v>8009172</v>
       </c>
       <c r="C463" s="2">
-        <v>1750222982</v>
+        <v>1750109615</v>
       </c>
       <c r="D463" t="s">
-        <v>298</v>
+        <v>270</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="B464">
-        <v>8002230</v>
-      </c>
-      <c r="C464" s="2">
-        <v>1750173205</v>
+        <v>8009396</v>
+      </c>
+      <c r="C464">
+        <v>1750109659</v>
       </c>
       <c r="D464" t="s">
-        <v>282</v>
+        <v>303</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
-        <v>108</v>
+        <v>177</v>
       </c>
       <c r="B465">
-        <v>8002257</v>
+        <v>8009761</v>
       </c>
       <c r="C465" s="2">
-        <v>1750109615</v>
+        <v>1770041364</v>
       </c>
       <c r="D465" t="s">
-        <v>299</v>
+        <v>274</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B466">
-        <v>8002272</v>
+        <v>8009876</v>
       </c>
       <c r="C466" s="2">
-        <v>1804610970</v>
+        <v>1750053977</v>
       </c>
       <c r="D466" t="s">
-        <v>282</v>
+        <v>304</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B467">
-        <v>8002272</v>
+        <v>8009876</v>
       </c>
       <c r="C467" s="2">
-        <v>1770031910</v>
+        <v>1750109659</v>
       </c>
       <c r="D467" t="s">
-        <v>282</v>
+        <v>304</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="B468">
-        <v>8002279</v>
+        <v>8009999</v>
       </c>
       <c r="C468" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="D468" t="s">
-        <v>300</v>
+        <v>66</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="B469">
-        <v>8002373</v>
-      </c>
-      <c r="C469" s="2">
-        <v>1750200435</v>
+        <v>8009999</v>
+      </c>
+      <c r="C469" t="s">
+        <v>306</v>
       </c>
       <c r="D469" t="s">
-        <v>301</v>
+        <v>66</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="B470">
-        <v>8002398</v>
+        <v>8010058</v>
       </c>
       <c r="C470" s="2">
-        <v>1750173205</v>
+        <v>1750200435</v>
       </c>
       <c r="D470" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A471" t="s">
-        <v>46</v>
-      </c>
-      <c r="B471">
-        <v>8002519</v>
-      </c>
-      <c r="C471" s="2">
-        <v>1750109615</v>
-      </c>
-      <c r="D471" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A472" t="s">
-        <v>46</v>
-      </c>
-      <c r="B472">
-        <v>8002614</v>
-      </c>
-      <c r="C472" t="s">
-        <v>5</v>
-      </c>
-      <c r="D472" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A473" t="s">
-        <v>50</v>
-      </c>
-      <c r="B473">
-        <v>8002694</v>
-      </c>
-      <c r="C473" s="2">
-        <v>1750173205</v>
-      </c>
-      <c r="D473" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A474" t="s">
-        <v>50</v>
-      </c>
-      <c r="B474">
-        <v>8002694</v>
-      </c>
-      <c r="C474" s="2">
-        <v>1750193275</v>
-      </c>
-      <c r="D474" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A475" t="s">
-        <v>46</v>
-      </c>
-      <c r="B475">
-        <v>8002753</v>
-      </c>
-      <c r="C475" s="2">
-        <v>1750102901</v>
-      </c>
-      <c r="D475" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A476" t="s">
-        <v>36</v>
-      </c>
-      <c r="B476">
-        <v>8002811</v>
-      </c>
-      <c r="C476" s="2">
-        <v>1750295447</v>
-      </c>
-      <c r="D476" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A477" t="s">
-        <v>36</v>
-      </c>
-      <c r="B477">
-        <v>8002811</v>
-      </c>
-      <c r="C477" s="2">
-        <v>1750288271</v>
-      </c>
-      <c r="D477" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A478" t="s">
-        <v>46</v>
-      </c>
-      <c r="B478">
-        <v>8002883</v>
-      </c>
-      <c r="C478" s="2">
-        <v>1750188523</v>
-      </c>
-      <c r="D478" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A479" t="s">
-        <v>50</v>
-      </c>
-      <c r="B479">
-        <v>8003159</v>
-      </c>
-      <c r="C479" s="2">
-        <v>1750193275</v>
-      </c>
-      <c r="D479" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A480" t="s">
-        <v>8</v>
-      </c>
-      <c r="B480">
-        <v>8003456</v>
-      </c>
-      <c r="C480" s="2">
-        <v>1750173205</v>
-      </c>
-      <c r="D480" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A481" t="s">
-        <v>108</v>
-      </c>
-      <c r="B481">
-        <v>8003492</v>
-      </c>
-      <c r="C481" s="2">
-        <v>1750109615</v>
-      </c>
-      <c r="D481" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A482" t="s">
-        <v>10</v>
-      </c>
-      <c r="B482">
-        <v>8004495</v>
-      </c>
-      <c r="C482" s="2">
-        <v>1750222982</v>
-      </c>
-      <c r="D482" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A483" t="s">
-        <v>10</v>
-      </c>
-      <c r="B483">
-        <v>8004497</v>
-      </c>
-      <c r="C483" t="s">
-        <v>117</v>
-      </c>
-      <c r="D483" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A484" t="s">
-        <v>195</v>
-      </c>
-      <c r="B484">
-        <v>8004526</v>
-      </c>
-      <c r="C484" s="2">
-        <v>1750304916</v>
-      </c>
-      <c r="D484" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A485" t="s">
-        <v>114</v>
-      </c>
-      <c r="B485">
-        <v>8004625</v>
-      </c>
-      <c r="C485" s="2">
-        <v>1770041364</v>
-      </c>
-      <c r="D485" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A486" t="s">
-        <v>8</v>
-      </c>
-      <c r="B486">
-        <v>8004676</v>
-      </c>
-      <c r="C486" s="2">
-        <v>1750154866</v>
-      </c>
-      <c r="D486" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A487" t="s">
-        <v>50</v>
-      </c>
-      <c r="B487">
-        <v>8004699</v>
-      </c>
-      <c r="C487" s="2">
-        <v>1750188523</v>
-      </c>
-      <c r="D487" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A488" t="s">
-        <v>312</v>
-      </c>
-      <c r="B488">
-        <v>8004755</v>
-      </c>
-      <c r="C488" s="2">
-        <v>1750291701</v>
-      </c>
-      <c r="D488" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A489" t="s">
-        <v>50</v>
-      </c>
-      <c r="B489">
-        <v>8004774</v>
-      </c>
-      <c r="C489" s="2">
-        <v>1750215294</v>
-      </c>
-      <c r="D489" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A490" t="s">
-        <v>46</v>
-      </c>
-      <c r="B490">
-        <v>8004898</v>
-      </c>
-      <c r="C490" s="2">
-        <v>1750130600</v>
-      </c>
-      <c r="D490" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A491" t="s">
-        <v>315</v>
-      </c>
-      <c r="B491">
-        <v>8005348</v>
-      </c>
-      <c r="C491" t="s">
-        <v>319</v>
-      </c>
-      <c r="D491" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A492" t="s">
-        <v>10</v>
-      </c>
-      <c r="B492">
-        <v>8005877</v>
-      </c>
-      <c r="C492" t="s">
-        <v>317</v>
-      </c>
-      <c r="D492" t="s">
-        <v>318</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:D492" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:D470" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/intento70-30.xlsx
+++ b/intento70-30.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dieboldnixdorf-my.sharepoint.com/personal/lucas_rodriguez_dieboldnixdorf_com/Documents/Escritorio/Codigo/PARTES/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="11_6E09968E5B005A17B75A3D11595ED87656CFE8E4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93DDEB73-000F-47DD-8BE5-677DDD766BA2}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="11_4F5D569F5BD05403079B2211595ED87656CFC848" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1443F15-BB26-4BA0-B19C-66F9359FA758}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$470</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$481</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="296">
   <si>
     <t>NOMBRE CLIENTE</t>
   </si>
@@ -139,18 +139,15 @@
     <t>BIO. 26/3/24. PENDIENTE POR BIOMETRICO (SORIANO)</t>
   </si>
   <si>
+    <t>BIO.26/4/2024 PENDIENTE POR BIOMETRICO MARCA XELIOS (CORREA)</t>
+  </si>
+  <si>
+    <t>BIO. 12-10-2023. PENDIENTE POR CABLE DE BIOMETRICO XELIOS. (ALEGRE)</t>
+  </si>
+  <si>
     <t>BANCO COLUMBIA</t>
   </si>
   <si>
-    <t>EXT. 18/08/23. PARTE 1750188546 DEPÓSITO DE SOBRES CINEO: SIN SPARE PARTS PARA SU REPARACIÓN.  ETA 3/5/2023 SIRA (23073SIRA081615Z) (VEGA)</t>
-  </si>
-  <si>
-    <t>BIO.26/4/2024 PENDIENTE POR BIOMETRICO MARCA XELIOS (CORREA)</t>
-  </si>
-  <si>
-    <t>BIO. 12-10-2023. PENDIENTE POR CABLE DE BIOMETRICO XELIOS. (ALEGRE)</t>
-  </si>
-  <si>
     <t>FASCIA_280</t>
   </si>
   <si>
@@ -163,793 +160,757 @@
     <t>SUP. 12/3/24. PENDIENTE POR NUEVA VISITA. (ALEGRE)</t>
   </si>
   <si>
+    <t>ICBC</t>
+  </si>
+  <si>
+    <t>BIO. 6/2/2024. PARTE BIOMETRICO. PENDIENTE POR BIOMETRICO. (ALEGRE)</t>
+  </si>
+  <si>
+    <t>SUP. 27/2/24. A LA ESPERA DE CONFIRMACION DE REPUESTO. (ALEGRE)</t>
+  </si>
+  <si>
     <t>BANCO PROVINCIA DE BUENOS AIRES</t>
   </si>
   <si>
+    <t>BIO. 14/12/23. PENDIENTE POR BIOMETRICO. MOLDURA DISPONIBLE (SORIANO)</t>
+  </si>
+  <si>
+    <t>49204083X0BA</t>
+  </si>
+  <si>
+    <t>NOWIP. 22/12/23. PARTE 49204083X0BA FASCIA: NO EXISTE EN WIP. LA PARTE NO ES REPARABLE POR RC. --  "SV219839000E ASSY,TAKEAWAY,UDD,PACKAGED+ 49220945000A CA, CCA, UDD REPUESTO DISPONIBLE EN STOCK ". (</t>
+  </si>
+  <si>
+    <t>SV219839000E</t>
+  </si>
+  <si>
+    <t>49220945000A</t>
+  </si>
+  <si>
+    <t>NOWIP. 10/04/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR + 1750206350 ANTI FRAUD 2: SIN SALDO EN WIP – SIN STOCK DE DESARME. -- “PARTE 1750109615 V4 EXTRACTOR INFERIOR + 1750105679 CMD CONTROLLER II DI</t>
+  </si>
+  <si>
+    <t>NOSP. 05/01/24. PARTE 1750188546 DEPÓSITO DE SOBRES CINEO: SIN SPARE PARTS PARA SU REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 04/03/24. PARTE 1750105988 LECTORA V2X USB + 1750105679 V4 CMD CONTROLLER II USB + DISCO SATA: SIN SALDO EN WIP.  --  "PARTE 1750109641 + 1750109615 V4 EXTRACTORES + 1750169942 LCD BOX 15 + 175</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>BANCO NEUQUÉN</t>
+  </si>
+  <si>
+    <t>Ticket Pendiente por Repuesto</t>
+  </si>
+  <si>
+    <t>NOSP. 11/01/24. PARTE 1750188546 DEPÓSITO DE SOBRES CINEO: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 17/04/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750109615 DOUBLE EXTRACTOR DISPONIBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
+    <t>STOCK. 22/01/2024  PENDIENTE POR PARTE FASCIA 280 Y MOLDURA EN ESPERA DE REPARACION (RODRIGUEZ)</t>
+  </si>
+  <si>
+    <t>BIO.26/1/2024 TICKET PENDIENTE POR BIOMÉTRICO (CORREA)</t>
+  </si>
+  <si>
+    <t>NOSP. 02/05/24. PARTE 1750109659 V4 STACKER + 1750044878 V4 DISTRIBUTOR BOARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 28/02/24. PARTE SV219839000E ENA UDD: SIN SPARE PARTS PARA REPARACIÓN.  --  "SV217424000F CI DISPONIBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
+    <t>SV217424000F</t>
+  </si>
+  <si>
+    <t>BIO.25/1/2024 TICKET PENDIENTE POR BIOMÉTRICO (CORREA)</t>
+  </si>
+  <si>
+    <t>NOSP. 29/01/24. PARTE 1750215294 V5 EXTRACTOR INFERIOR + 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 02/02/24. PARTE 1750215294 V5 EXTRACTOR INFERIOR: SIN SALDO EN WIP.  --  "DISPONIBLE LA PARTE FASCIA 280". (MINIACI)</t>
+  </si>
+  <si>
+    <t>BIO.2/2/2024 TICKET PENDIENTE POR BIOMÉTRICO (CORREA)</t>
+  </si>
+  <si>
+    <t>NOSP. 06/02/24. PARTE 1750188546 DEPÓSITO DE SOBRES CINEO: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>49200908X01A</t>
+  </si>
+  <si>
+    <t>NOWIP. 08/04/24. PARTE 49200908X01A "Side Trim Bezel Aspen": SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 08/02/24. PARTE 1750189650 V5 STACKER + 1750215295 V5 EXTRACTOR SUPERIOR: SIN SALDO EN WIP (MINIACI)</t>
+  </si>
+  <si>
+    <t>49204018000E</t>
+  </si>
+  <si>
+    <t>STOCK. 16/4/24. PARTE FASCIA 280. A ESPERA DE REPARACION POR PARTE DE TECNOS. (ALEGRE)</t>
+  </si>
+  <si>
+    <t>49209542000F</t>
+  </si>
+  <si>
+    <t>05000322000O</t>
+  </si>
+  <si>
+    <t>BIO 22/02/2024. PENDIENTE POR BIOMETRICO (FRETES)</t>
+  </si>
+  <si>
+    <t>NOSP. 19/02/24. PARTE 1750215295 V5 DOUBLE EXTRACTOR UNIT MDMS + 1750110044 JOURNAL PRINTER NP06: SIN SPARE PARTS PARA REPARACIÓN. (FRANCO)</t>
+  </si>
+  <si>
+    <t>49211436000A</t>
+  </si>
+  <si>
+    <t>NOWIP. PARTE 1750204435 PANEL OPERADOR PC280: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 06/03/24. PARTE 1750193275 RM3 MAIN MODULE + 1750133348 RM3 TRANSPORT MODULE: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>FASCIA2100</t>
+  </si>
+  <si>
+    <t>STOCK. 1/3/24. FASCIA 2100 SIN BIOMETRICO, CON MARCO 15" Y JACK 3,5MM A ESPERA DE DESARME (SORIANO)</t>
+  </si>
+  <si>
+    <t>NOSP. 03/05/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 03/05/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR + 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>SV226262000D</t>
+  </si>
+  <si>
+    <t>NOWIP. 05/03/24. PARTE SV226262000D ENA TAPA DE GAVETAS: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 20/03/24. PARTE SV219839000E ENA UDD: SIN SPARE PARTS PARA REPARACIÓN.  --  "SV217424000F        ASSY,ENA,CI,PACKAGED+ 49211436000A Transport 620mm lenght SRL DISPONIBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 15/03/24. PARTE SV219839000E ENA UDD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 08/03/24. PARTE 1750183289 V5 STACKER: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>BANCO PIANO</t>
+  </si>
+  <si>
+    <t>STOCK. 03/04/2024 A ESPERA DE DESARME DE FRENTE FASCIA 720 FL + GUIAS PARA 720 FL (MAITLAND)</t>
+  </si>
+  <si>
+    <t>NOSP. 21/03/24. PARTE 1750215294 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 08/04/24. PARTE SV219839000E ENA UDD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 08/04/24. PARTE 1750193275 RM3 MAIN MODULE: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 14/03/24. PARTE 1750109658 V4 STACKER S/SR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>49225262000A</t>
+  </si>
+  <si>
+    <t>49208102000H</t>
+  </si>
+  <si>
+    <t>NOSP. 18/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750200541        DISTRIBUTOR MODULE CRS DISPONIBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 19/03/24. PARTE 1750154145 TOUCH CONTROLLER + 1750105988 LECTORA V2X USB + 1750169942 MONITOR 15": SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 17/04/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 29/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 18/04/24. PARTE 1750215294 V5 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 08/04/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 08/04/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL + 1750214647 RM3 TRANSFER UNIT SAFE: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>CAJERO EXPRESS - LINK</t>
+  </si>
+  <si>
+    <t>NOWIP. 27/03/24. PARTE "MONITOR/TOUCH" N° DE PARTE SIN IDENTIFICACIÓN CORRECTA 1750350686 + 1750301986: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 27/03/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN  / "TRABA" 1750067867 SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 19/04/24. PARTE 1750109659 V4 STACKER: SIN SPARE PARTS PARA REPARACIÓN.  --  "PARTE 1750109615 V4 EXTRACTOR INFERIOR DISPONIBLE". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 16/04/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL + 1750214647 RM3 TRANSFER UNIT: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>BIO.26/3/2024 TICKET PENDIENTE POR BIOMETRICO (CORREA)</t>
+  </si>
+  <si>
+    <t>ETR. 23/04/24. PARTE 49208102003M AFD CCA DISPENSER: EN REPARACIÓN. ETR: 30/04/24. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 27/03/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>HASAR</t>
+  </si>
+  <si>
+    <t>NOWIP. 03/04/24. PARTE 1750222982 SHUTTER PC 280: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>49218289X0BB</t>
+  </si>
+  <si>
+    <t>NOWIP. 16/04/24. PARTE 49202967X0CC BOQUILLA DE LECTORA DIP: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 15/04/24. PARTE 1750044878 V4 DISTRIBUTOR BOARD: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 10/04/24. PARTE 1750109659 V4 STACKER: SIN SPARE PARTS PARA REPARACIÓN.  --  "extractor 1750109615 disponible". (MINIACI)</t>
+  </si>
+  <si>
+    <t>RIEL</t>
+  </si>
+  <si>
+    <t>NOSP. 23/04/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750101956 DISPENSER MODULE DISPONIBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 08/04/24. SE CORRIGE COMENTARIO ANTERIOR. PARTE 1750193275 RM3 MAIN MODULE: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 24/04/24. PARTE 1750248000 RM3 IO COLLECTOR + 1750220330 RM3 IO TRAY + 1750193275 RM3 MAIN MODULE: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 15/04/24. PARTE 1750188523 CCDM CHASIS + 1750263341 RM3 TRANSPORT UNIT HEAD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>49208102002M</t>
+  </si>
+  <si>
+    <t>ETR. 25/04/24. PARTE 49208102003M AFD CCA DISPENSER: EN REPARACIÓN. ETR: 03/05/24. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 10/04/24. PARTE 1750109659 V4 STACKER + 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN.  --  "PARTE 1750100966 CMD V4 SHUTTER VERTIKAL RL STRIP" (SIC STOCK SIN INDICAR CONDICIÓN). (</t>
+  </si>
+  <si>
+    <t>NOWIP. 08/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 08/04/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 02/05/24. PARTE 1750193275 RM3 MAIN MODULE: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 22/04/24. PARTE 1750155446 CCDM AMPLIFIER: SIN SALDO EN WIP.  --  "REJECT TRANSPORT 1750187030 DISPONIBLE". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 09/04/24. PARTE 1750215294 V5 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 10/04/24. SE CORRIGE COMENTARIO ANTERIOR. PARTE 1750214647 RM3 TRANSFER UNIT SAFE + 1750140781 RM3 HEAD CONTROLLER: SIN SALDO EN WIP.  --  "1750212682         REEL STORAGE BOX DISPONIBLE EN STO</t>
+  </si>
+  <si>
+    <t>NOSP. 15/04/24. PARTE 1750126457 RM3 REEL STORAGE + 1750196174 RM3 MASTERCONTROLLER: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 03/05/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 03/05/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>BANCO CIUDAD</t>
+  </si>
+  <si>
+    <t>NOWIP. 10/04/24. PARTE 1750215295 V5 EXTRACTOR INFERIOR + 1750215294 V5 EXTRACTOR INFERIOR: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 15/04/24. PARTE 1750188546 DEPÓSITO DE SOBRES CINEO: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>49257458000B</t>
+  </si>
+  <si>
+    <t>NOSP. 16/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 18/04/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 10/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 22/04/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>ETR. 30/04/24. PARTE 49208102003M AFD CCA DISPENSER: EN REPARACIÓN. ETR: 08/05/24. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 15/04/24. PARTE 1750222982 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 10/04/24. PARTE 1750126457 RM3 REEL STORAGE: SIN SALDO EN WIP.  (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 19/04/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 16/04/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 11/04/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 16/04/24. PARTE 1750183289 V5 STACKER: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750053977 CLAMP DISPONIBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 15/04/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 15/04/24. PARTE 1750193275 RM3 MAIN MODULE: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 19/04/24. PARTE 1750193275 RM3 MAIN MODULE: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 15/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 02/05/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>BIO. 18/4/24. PENDIENTE POR BIOMETRICO (SORIANO)</t>
+  </si>
+  <si>
+    <t>NOWIP. 16/04/24. PARTE 1750214647 RM3 TRANSFER UNIT SAFE + 1750263341 RM3 TRANSPORT UNIT ESCROW: SIN SALDO EN WIP.  --  "1750101956        dispenser module VM3 DISPONIBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NUEVO BANCO DEL CHACO</t>
+  </si>
+  <si>
+    <t>NOSP. 25/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 17/04/24. PARTE 1750248000 RM3 IO COLLECTOR + 1750220330 RM3 IO TRAY: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 16/04/24. PARTE 1750248000 RM3 IO COLLECTOR + 1750220330 RM3 IO TRAY: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>BIO.16/4/2024 TICKET PENDIENTE POR BIOMETRICO (CORREA)</t>
+  </si>
+  <si>
+    <t>49204013000E</t>
+  </si>
+  <si>
+    <t>NOSP. 17/04/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>BANCO CREDICOOP</t>
+  </si>
+  <si>
+    <t>NOWIP. 17/04/24. PARTE 49254690000N AFD 2.0 STACKER: SIN SALDO WN WIP.  --  "ARTE 1750304622 CHD-mot ICT3H5-3AD2792 SecPac2 DISPONIBLE". (MINIACI)</t>
+  </si>
+  <si>
+    <t>49254690000N</t>
+  </si>
+  <si>
+    <t>GIRE S.A</t>
+  </si>
+  <si>
+    <t>NOWIP. 16/04/24. PARTE 1750222982 SHUTTER PC280 LITE: SIN SALDO EN WIP.  --  "1750105679        CMD Controller II USB assd. with cover DISPONIBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 16/04/24. PARTE 1750092824 DEPÓSITO DE SOBRES PROCASH: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 18/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 16/04/24. PARTE 1750188546 DEPÓSITO DE SOBRES CINEO: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 16/04/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 16/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SALDO EN WIP.  --  "1750200541        Distributor Module CRS DISPONIBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 26/04/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 25/04/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>ETR. 30/04/24. PARTE 49208102003M AFD CCA DISPENSER: EN REPARACIÓN. ETR: 10/05/24.  --  "DISCO SSD DISPONIBLE". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 17/04/24. PARTE 1750214647 RM3 TRANSFER UNIT SAFE: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750200541 DISTRIBUTOR MODULE CRS DISPONIBLEN STOCK ". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 24/04/24. PARTE 1750109658 V4 STACKER S/SR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 17/04/24.PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 22/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 23/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 18/04/24. PARTE 1750248000 RM3 IO COLLECTOR + 1750220330 RM3 IO TRAY: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 02/05/24. PARTE 1750134478 RM3 CCU + 1750263341 RM3 TRANSPORT UNIT HEAD ESCROW: SIN SALDO EN WIP.  --  "1750200541 Distributor Module CRS+ 1750245555 transport unit head short path CRS/ATS DISP</t>
+  </si>
+  <si>
+    <t>NOSP. 18/04/24. PARTE 1750248000 RM3 IO COLLECTOR + 1750220330 RM3 IO TRAY: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>SV104969000H</t>
+  </si>
+  <si>
+    <t>NOWIP. 22/04/24. PARTE 49217353000A "ASSEMBLY PRINTER CARTRIDGE": SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 30/04/24. PARTE 1750188523 CCDM CHASIS + 1750154866 CCDM VALIDADOR CASH CHECK: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750188524 ALIGNMENT STATION 3 CCDM+ 1750101952 DISTANCE TRANSPORT VM3 DISPO</t>
+  </si>
+  <si>
+    <t>1750199517-25</t>
+  </si>
+  <si>
+    <t>1750195517-20</t>
+  </si>
+  <si>
+    <t>NOSP. 18/04/24. PARTE 1750188546 DEPÓSITO DE SOBRES CINEO: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 19/04/24. PARTE 1750109659 V4 STACKER: SIN SPARE PARTS PARA REPARACIÓN.  --  "EXTRACTOR 1750109615 DISPONIBLE". (MINIACI)</t>
+  </si>
+  <si>
+    <t>STOCK. 3/05/24 REPUESTO 1750105988 CARD READER V2XU DISPONIBLE EN STOCK NODO TRELEW (IPARRAGUIRRE).</t>
+  </si>
+  <si>
+    <t>BANCO DE CORDOBA</t>
+  </si>
+  <si>
+    <t>NOWIP 22/04/2024. PARTE 1750222982	V4 SHUTTER LITE PC 280: SIN SALDO WN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 19/04/24. PARTE 1750248000 RM3 IO COLLECTOR + 1750220330 RM3 IO TRAY: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 22/04/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 22/04/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 19/04/24. PARTE 1750200435 VS MODUL: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 19/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 22/04/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR + 1750215294 V5 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>ETR. 24/04/24. PARTE 49208102003M AFD CCA DISPENSER: EN REPARACIÓN. ETR: 30/04/24. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 25/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 23/04/24. PARTE 1750214647 RM3 TRANSFER UNIT SAFE: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750134478        CENTRALIZATION UNIT UPPER PART CRS/ATS DISPONIBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
+    <t>CBA.RC.24/4/24. PARTE 1750222982	SHUTTER LITE DC MOTOR ASSY RL:EN ESPERA DE REPARACIÓN. ETA:30/4/24 (JIMENEZ)</t>
+  </si>
+  <si>
+    <t>NOSP. 26/04/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 23/04/24. PARTE 1750188523 CCDM CHASIS + 1750177464 CCDM ESCROW: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 23/04/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>RC. 6/5/24. PLACA CCA 49208102000H A ESPERA DE REPARACION (SORIANO)</t>
+  </si>
+  <si>
+    <t>NOSP. 29/04/24. PARTE 1750177464 CCDM ESCROW: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 23/04/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 25/04/24. PARTE 1750220330 RM3 IO TRAY + 1750248000 RM3 IO COLLECTOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 23/04/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 24/04/24. PARTE 1750263341 RM3 TRANSPORT UNIT HEAD + 1750126457 RM3 REEL STORAGE + 1750173205 LECTORA V2CU STANDARD: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 23/04/24. PARTE 1750177464 CCDM ESCROW: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>STOCK 25/04/2024. FASCIA 280. A LA ESPERA DE REPARACION POR PARTE DE TECNOS (FRETES)</t>
+  </si>
+  <si>
+    <t>NOSP. 23/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 23/04/24. PARTE 1750044878 V4 BOARD DISTRIBUTOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 25/04/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>SV221800000C</t>
+  </si>
+  <si>
+    <t>NOSP. 25/04/24. PARTE SV221800000C ENA UPPER ALIGN: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 29/04/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 24/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 03/05/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 25/04/24. PARTE 1750188523 CCDM CHASIS + 1750177464 CCDM ESCROW: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 23/04/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 24/04/24. PARTE 1750092824 DEPÓSITO DE SOBRES PROCASH: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 25/04/24. PARTE 1750346607 SHUTTER IO TRAY II: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 25/04/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 25/04/24. PARTE 1750100966 V4 SHUTTER VERTICAL RL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 25/04/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN.  --  "CLAMP 1750053977 DISPONIBLE". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 25/04/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 30/04/24. PARTE S/N DISCO SÓLIDO: SIN SALDO EN WIP.  --  "PARTE 49257458000B IMPRESORA DE CLIENTE DISPONIBLE". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 30/04/24. PARTE 1750109658 V4 STACKER S/SR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 25/04/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 25/04/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750101956	DISPENSER MODULE VM3 DISPONIBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 30/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 30/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750053977 CLAMP DISPONIBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 30/04/24. PARTE 1750214647 RM3 TRANSFER UNIT SAFE + 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN.  --  "PARTE 1750133348 TMHLP + 1750245555 TUH DISPONIBLES"</t>
+  </si>
+  <si>
+    <t>RC. 04/05/24. ACRILICO  (MODELO IDEAL UNO DE 1500) A ESPERA DE DESARME (SORIANO)</t>
+  </si>
+  <si>
+    <t>NOSP. 29/04/24. PARTE 1750193275 RM3 MAIN MODULE + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>49211433000A</t>
+  </si>
+  <si>
+    <t>NOWIP. 03/05/24. PARTE 49211433000A AFD STACKER: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 26/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOSP. 29/04/24. PARTE 1750263341 RM3 TRANSPORT UNIT HEAD + 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750245555 transport unit head short path CRS/ATS+ </t>
+  </si>
+  <si>
+    <t>ETR. 30/04/24. PARTE 49208102003M AFD CCA DISPENSER: EN REPARACIÓN. ETR: 09/05/24.  --  "49225262000A PICKER AFD 1.5 DISPONIBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 29/04/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750234950 EPP V7 ESP South America ST DISPONIBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 02/05/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 03/05/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 30/04/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 30/04/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>1750173205-35</t>
+  </si>
+  <si>
+    <t>NOSP. 02/05/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>ETR. 30/04/24. PARTE 49208102003M AFD CCA DISPENSER: EN REPARACIÓN. ETR: 09/05/24. (MINIACI)</t>
+  </si>
+  <si>
+    <t>CBA.RC.29/4/24. PARTE 1750222982	SHUTTER LITE DC MOTOR ASSY RL:EN ESPERA DE REPARACIÓN. ETA:3/5/24 (JIMENEZ)</t>
+  </si>
+  <si>
+    <t>NOSP. 02/05/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 30/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 29/04/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>BIO. 29/04/2024 PENDIENTE POR BIOMETRICO (MAITLAND)</t>
+  </si>
+  <si>
+    <t>NOSP. 30/04/24. PARTE 1750193275 RM3 MAIN MODULE + 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>SUP. 30/04/2024 A ESPERA DE CONFIRMACION DE FASCIA CORRECTA (MAITLAND)</t>
+  </si>
+  <si>
+    <t>OKETR. 30/04/24. PARTE 1750295447 RM4 IO COLLECTOR + 1750288271 RM4 IO TRAY: REPARADO. EN FGI PARA TRANSFERIR A STOCK. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 02/05/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 30/04/24. PARTE 1750193275 RM3 MAIN MODULE : SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 30/04/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 03/05/24. PARTE 1750177464 CCDM ESCROW: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 02/05/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 30/04/24. PARTE 1750304916 "SHUTTER I-O TRAY NSL": SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 06/05/24. PARTE 1750261447 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 30/04/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>SUP. 30/4/24. A ESPERA DE CONFIRMACION DE TRABA NECESARIA (SORIANO)</t>
+  </si>
+  <si>
+    <t>CBA.NOWIP. 6/5/2024. PARTE 1750055614 FLAT CABLE FOR CCDM+ 1750155446 CCDM CONTROLLER III B - AMPLIFIER ASSD.:SIN SALDO EN WIP. SE SOLICITA A CABA. (JIMENEZ)</t>
+  </si>
+  <si>
+    <t>BANCO DE LA PAMPA</t>
+  </si>
+  <si>
+    <t>NOWIP. 03/05/24. PARTE S/N DISCO SATA: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>49201784000C</t>
+  </si>
+  <si>
+    <t>OKETR. 03/05/24. PARTE 49240457000A MONITOR OPERADOR OPTEVA 10.4": REPARADO. EN FGI PARA TRANSFERIR A STOCK. (MINIACI)</t>
+  </si>
+  <si>
     <t>49221669000A</t>
   </si>
   <si>
-    <t>NOSP. 21/12/23. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA SU REPARACIÓN. - NOWIP. PARTE 49221669000A TECLADO OPTEVA OPERADOR. (MINIACI)</t>
-  </si>
-  <si>
-    <t>EXT. 28/11/23. PARTE 1750188546 DEPÓSITO DE SOBRES CINEO: SIN SPARE PARTS PARA SU REPARACIÓN. A LA ESPERA DE ETA POR PARTE DE PLANTA (VEGA)</t>
-  </si>
-  <si>
-    <t>ICBC</t>
-  </si>
-  <si>
-    <t>BIO. 6/2/2024. PARTE BIOMETRICO. PENDIENTE POR BIOMETRICO. (ALEGRE)</t>
-  </si>
-  <si>
-    <t>SUP. 27/2/24. A LA ESPERA DE CONFIRMACION DE REPUESTO. (ALEGRE)</t>
-  </si>
-  <si>
-    <t>EXT. 18/12/23. PARTE 1750188546 DEPÓSITO DE SOBRES CINEO: SIN SPARE PARTS PARA SU REPARACIÓN. A LA ESPERA DE ETA POR PARTE DE PLANTA (VEGA)</t>
-  </si>
-  <si>
-    <t>ext. 18/12/23. parte 1750188546 depósito de sobres cieno: sin spare parts para su reparación. eta 21/9/2023 (leyack)</t>
-  </si>
-  <si>
-    <t>BIO. 14/12/23. PENDIENTE POR BIOMETRICO. MOLDURA DISPONIBLE (SORIANO)</t>
-  </si>
-  <si>
-    <t>49204083X0BA</t>
-  </si>
-  <si>
-    <t>NOWIP. 22/12/23. PARTE 49204083X0BA FASCIA: NO EXISTE EN WIP. LA PARTE NO ES REPARABLE POR RC. --  "SV219839000E ASSY,TAKEAWAY,UDD,PACKAGED+ 49220945000A CA, CCA, UDD REPUESTO DISPONIBLE EN STOCK ". (</t>
-  </si>
-  <si>
-    <t>SV219839000E</t>
-  </si>
-  <si>
-    <t>49220945000A</t>
-  </si>
-  <si>
-    <t>NOWIP. 10/04/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR + 1750206350 ANTI FRAUD 2: SIN SALDO EN WIP – SIN STOCK DE DESARME. -- “PARTE 1750109615 V4 EXTRACTOR INFERIOR + 1750105679 CMD CONTROLLER II DI</t>
-  </si>
-  <si>
-    <t>NOSP. 05/01/24. PARTE 1750188546 DEPÓSITO DE SOBRES CINEO: SIN SPARE PARTS PARA SU REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 04/03/24. PARTE 1750105988 LECTORA V2X USB + 1750105679 V4 CMD CONTROLLER II USB + DISCO SATA: SIN SALDO EN WIP.  --  "PARTE 1750109641 + 1750109615 V4 EXTRACTORES + 1750169942 LCD BOX 15 + 175</t>
-  </si>
-  <si>
-    <t>DS</t>
-  </si>
-  <si>
-    <t>P1</t>
-  </si>
-  <si>
-    <t>BANCO NEUQUÉN</t>
-  </si>
-  <si>
-    <t>Ticket Pendiente por Repuesto</t>
-  </si>
-  <si>
-    <t>NOSP. 11/01/24. PARTE 1750188546 DEPÓSITO DE SOBRES CINEO: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 17/04/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750109615 DOUBLE EXTRACTOR DISPONIBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>STOCK. 22/01/2024  PENDIENTE POR PARTE FASCIA 280 Y MOLDURA EN ESPERA DE REPARACION (RODRIGUEZ)</t>
-  </si>
-  <si>
-    <t>BIO.26/1/2024 TICKET PENDIENTE POR BIOMÉTRICO (CORREA)</t>
-  </si>
-  <si>
-    <t>NOSP. 02/05/24. PARTE 1750109659 V4 STACKER + 1750044878 V4 DISTRIBUTOR BOARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 19/02/24. PARTE 1750109658 V4 STACKER + 1750053977 V4 CLAMP: SIN SPARE PARTS PARA REPARACIÓN. (FRANCO)</t>
-  </si>
-  <si>
-    <t>NOSP. 28/02/24. PARTE SV219839000E ENA UDD: SIN SPARE PARTS PARA REPARACIÓN.  --  "SV217424000F CI DISPONIBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>SV217424000F</t>
-  </si>
-  <si>
-    <t>BIO.25/1/2024 TICKET PENDIENTE POR BIOMÉTRICO (CORREA)</t>
-  </si>
-  <si>
-    <t>NOSP. 29/01/24. PARTE 1750215294 V5 EXTRACTOR INFERIOR + 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 02/02/24. PARTE 1750215294 V5 EXTRACTOR INFERIOR: SIN SALDO EN WIP.  --  "DISPONIBLE LA PARTE FASCIA 280". (MINIACI)</t>
-  </si>
-  <si>
-    <t>BIO.2/2/2024 TICKET PENDIENTE POR BIOMÉTRICO (CORREA)</t>
-  </si>
-  <si>
-    <t>NOSP. 06/02/24. PARTE 1750188546 DEPÓSITO DE SOBRES CINEO: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>49200908X01A</t>
-  </si>
-  <si>
-    <t>NOWIP. 08/04/24. PARTE 49200908X01A "Side Trim Bezel Aspen": SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 08/02/24. PARTE 1750189650 V5 STACKER + 1750215295 V5 EXTRACTOR SUPERIOR: SIN SALDO EN WIP (MINIACI)</t>
-  </si>
-  <si>
-    <t>49204018000E</t>
-  </si>
-  <si>
-    <t>STOCK. 16/4/24. PARTE FASCIA 280. A ESPERA DE REPARACION POR PARTE DE TECNOS. (ALEGRE)</t>
-  </si>
-  <si>
-    <t>49209542000F</t>
-  </si>
-  <si>
-    <t>05000322000O</t>
-  </si>
-  <si>
-    <t>BIO 22/02/2024. PENDIENTE POR BIOMETRICO (FRETES)</t>
-  </si>
-  <si>
-    <t>NOSP. 19/02/24. PARTE 1750215295 V5 DOUBLE EXTRACTOR UNIT MDMS + 1750110044 JOURNAL PRINTER NP06: SIN SPARE PARTS PARA REPARACIÓN. (FRANCO)</t>
-  </si>
-  <si>
-    <t>49211436000A</t>
-  </si>
-  <si>
-    <t>NOWIP. PARTE 1750204435 PANEL OPERADOR PC280: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 29/02/24. PARTE 1750154145 TOUCHCONTROLLER: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 06/03/24. PARTE 1750193275 RM3 MAIN MODULE + 1750133348 RM3 TRANSPORT MODULE: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>FASCIA2100</t>
-  </si>
-  <si>
-    <t>STOCK. 1/3/24. FASCIA 2100 SIN BIOMETRICO, CON MARCO 15" Y JACK 3,5MM A ESPERA DE DESARME (SORIANO)</t>
-  </si>
-  <si>
-    <t>SV226262000D</t>
-  </si>
-  <si>
-    <t>NOWIP. 05/03/24. PARTE SV226262000D ENA TAPA DE GAVETAS: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>SUP. 2/5/24. A ESPERA DE CONFIRMACION DE REPUESTOS SOLICITADOS (SORIANO)</t>
-  </si>
-  <si>
-    <t>NOSP. 20/03/24. PARTE SV219839000E ENA UDD: SIN SPARE PARTS PARA REPARACIÓN.  --  "SV217424000F        ASSY,ENA,CI,PACKAGED+ 49211436000A Transport 620mm lenght SRL DISPONIBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>49225262000A</t>
-  </si>
-  <si>
-    <t>NOSP. 15/03/24. PARTE SV219839000E ENA UDD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 08/03/24. PARTE 1750183289 V5 STACKER: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 08/04/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>BANCO PIANO</t>
-  </si>
-  <si>
-    <t>STOCK. 03/04/2024 A ESPERA DE DESARME DE FRENTE FASCIA 720 FL + GUIAS PARA 720 FL (MAITLAND)</t>
-  </si>
-  <si>
-    <t>NOSP. 21/03/24. PARTE 1750215294 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 08/04/24. PARTE SV219839000E ENA UDD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 08/04/24. PARTE 1750193275 RM3 MAIN MODULE: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 14/03/24. PARTE 1750109658 V4 STACKER S/SR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>49208102000H</t>
-  </si>
-  <si>
-    <t>STOCK. 29/04/24 REPUESTO 1750109659 STACKER DISPONIBLE EN STOCK NODO TRELEW (IPARRAGUIRRE).</t>
-  </si>
-  <si>
-    <t>NOSP. 18/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750200541        DISTRIBUTOR MODULE CRS DISPONIBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>OKETR. 02/05/24. PARTE 1750059284 V4 TRANSPORTE HORIZONTAL RL 124MM: REPARADO. EN FGI PARA TRANSFERIR A STOCK. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 19/03/24. PARTE 1750154145 TOUCH CONTROLLER + 1750105988 LECTORA V2X USB + 1750169942 MONITOR 15": SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 17/04/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 29/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 18/04/24. PARTE 1750215294 V5 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 16/04/24. PARTE 1750109659 V4 STACKER + 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 08/04/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 08/04/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL + 1750214647 RM3 TRANSFER UNIT SAFE: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>CAJERO EXPRESS - LINK</t>
-  </si>
-  <si>
-    <t>NOWIP. 27/03/24. PARTE "MONITOR/TOUCH" N° DE PARTE SIN IDENTIFICACIÓN CORRECTA 1750350686 + 1750301986: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 27/03/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN  / "TRABA" 1750067867 SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 19/04/24. PARTE 1750109659 V4 STACKER: SIN SPARE PARTS PARA REPARACIÓN.  --  "PARTE 1750109615 V4 EXTRACTOR INFERIOR DISPONIBLE". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 16/04/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL + 1750214647 RM3 TRANSFER UNIT: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>BIO.26/3/2024 TICKET PENDIENTE POR BIOMETRICO (CORREA)</t>
-  </si>
-  <si>
-    <t>ETR. 23/04/24. PARTE 49208102003M AFD CCA DISPENSER: EN REPARACIÓN. ETR: 30/04/24. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 27/03/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>HASAR</t>
-  </si>
-  <si>
-    <t>NOWIP. 03/04/24. PARTE 1750222982 SHUTTER PC 280: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>49218289X0BB</t>
-  </si>
-  <si>
-    <t>NOWIP. 16/04/24. PARTE 49202967X0CC BOQUILLA DE LECTORA DIP: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 15/04/24. PARTE 1750044878 V4 DISTRIBUTOR BOARD: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 10/04/24. PARTE 1750109659 V4 STACKER: SIN SPARE PARTS PARA REPARACIÓN.  --  "extractor 1750109615 disponible". (MINIACI)</t>
-  </si>
-  <si>
-    <t>RIEL</t>
-  </si>
-  <si>
-    <t>NOSP. 03/04/24. PARTE 1750092824 DEPÓSITO DE SOBRES PROCASH: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 23/04/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750101956 DISPENSER MODULE DISPONIBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 08/04/24. SE CORRIGE COMENTARIO ANTERIOR. PARTE 1750193275 RM3 MAIN MODULE: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 24/04/24. PARTE 1750248000 RM3 IO COLLECTOR + 1750220330 RM3 IO TRAY + 1750193275 RM3 MAIN MODULE: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 15/04/24. PARTE 1750188523 CCDM CHASIS + 1750263341 RM3 TRANSPORT UNIT HEAD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>49208102002M</t>
-  </si>
-  <si>
-    <t>ETR. 25/04/24. PARTE 49208102003M AFD CCA DISPENSER: EN REPARACIÓN. ETR: 03/05/24. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 10/04/24. PARTE 1750109659 V4 STACKER + 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN.  --  "PARTE 1750100966 CMD V4 SHUTTER VERTIKAL RL STRIP" (SIC STOCK SIN INDICAR CONDICIÓN). (</t>
-  </si>
-  <si>
-    <t>NOWIP. 08/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 08/04/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 02/05/24. PARTE 1750193275 RM3 MAIN MODULE: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 09/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>BANCO CREDICOOP</t>
-  </si>
-  <si>
-    <t>RC. 03/05/2024 PARTE 1750092824 DEPOSITO DE SOBRES A ESPERA DE REPARACION (MAITLAND)</t>
-  </si>
-  <si>
-    <t>NOSP. 19/04/24. PARTE 1750109659 V4 STACKER + 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 22/04/24. PARTE 1750155446 CCDM AMPLIFIER: SIN SALDO EN WIP.  --  "REJECT TRANSPORT 1750187030 DISPONIBLE". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 09/04/24. PARTE 1750215294 V5 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 10/04/24. SE CORRIGE COMENTARIO ANTERIOR. PARTE 1750214647 RM3 TRANSFER UNIT SAFE + 1750140781 RM3 HEAD CONTROLLER: SIN SALDO EN WIP.  --  "1750212682         REEL STORAGE BOX DISPONIBLE EN STO</t>
-  </si>
-  <si>
-    <t>NOSP. 15/04/24. PARTE 1750126457 RM3 REEL STORAGE + 1750196174 RM3 MASTERCONTROLLER: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 11/04/24. PARTE 1750193275 RM3 MAIN MODULE: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 10/04/24. PARTE 1750215295 V5 EXTRACTOR INFERIOR + 1750215294 V5 EXTRACTOR INFERIOR: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 15/04/24. PARTE 1750188546 DEPÓSITO DE SOBRES CINEO: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>49257458000B</t>
-  </si>
-  <si>
-    <t>NOSP. 16/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 18/04/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>ETR. 22/04/24. PARTE 49208102003M AFD CCA DISPENSER: EN REPARACIÓN. ETR: 29/04/24. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 10/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 22/04/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>ETR. 30/04/24. PARTE 49208102003M AFD CCA DISPENSER: EN REPARACIÓN. ETR: 08/05/24. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 15/04/24. PARTE 1750222982 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 10/04/24. PARTE 1750126457 RM3 REEL STORAGE: SIN SALDO EN WIP.  (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 19/04/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 16/04/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 11/04/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 16/04/24. PARTE 1750183289 V5 STACKER: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750053977 CLAMP DISPONIBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 15/04/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 15/04/24. PARTE 1750193275 RM3 MAIN MODULE: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 19/04/24. PARTE 1750193275 RM3 MAIN MODULE: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 15/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 02/05/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>BIO. 18/4/24. PENDIENTE POR BIOMETRICO (SORIANO)</t>
-  </si>
-  <si>
-    <t>NOWIP. 16/04/24. PARTE 1750214647 RM3 TRANSFER UNIT SAFE + 1750263341 RM3 TRANSPORT UNIT ESCROW: SIN SALDO EN WIP.  --  "1750101956        dispenser module VM3 DISPONIBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NUEVO BANCO DEL CHACO</t>
-  </si>
-  <si>
-    <t>NOSP. 25/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 17/04/24. PARTE 1750248000 RM3 IO COLLECTOR + 1750220330 RM3 IO TRAY: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 16/04/24. PARTE 1750248000 RM3 IO COLLECTOR + 1750220330 RM3 IO TRAY: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>BIO.16/4/2024 TICKET PENDIENTE POR BIOMETRICO (CORREA)</t>
-  </si>
-  <si>
-    <t>49204013000E</t>
-  </si>
-  <si>
-    <t>NOSP. 17/04/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 17/04/24. PARTE 49254690000N AFD 2.0 STACKER: SIN SALDO WN WIP.  --  "ARTE 1750304622 CHD-mot ICT3H5-3AD2792 SecPac2 DISPONIBLE". (MINIACI)</t>
-  </si>
-  <si>
-    <t>49254690000N</t>
-  </si>
-  <si>
-    <t>GIRE S.A</t>
-  </si>
-  <si>
-    <t>NOWIP. 16/04/24. PARTE 1750222982 SHUTTER PC280 LITE: SIN SALDO EN WIP.  --  "1750105679        CMD Controller II USB assd. with cover DISPONIBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 16/04/24. PARTE 1750092824 DEPÓSITO DE SOBRES PROCASH: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 18/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 16/04/24. PARTE 1750188546 DEPÓSITO DE SOBRES CINEO: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 16/04/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 16/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SALDO EN WIP.  --  "1750200541        Distributor Module CRS DISPONIBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 26/04/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 25/04/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>ETR. 30/04/24. PARTE 49208102003M AFD CCA DISPENSER: EN REPARACIÓN. ETR: 10/05/24.  --  "DISCO SSD DISPONIBLE". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 17/04/24. PARTE 1750214647 RM3 TRANSFER UNIT SAFE: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750200541 DISTRIBUTOR MODULE CRS DISPONIBLEN STOCK ". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 24/04/24. PARTE 1750109658 V4 STACKER S/SR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 17/04/24.PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 22/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 23/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 18/04/24. PARTE 1750248000 RM3 IO COLLECTOR + 1750220330 RM3 IO TRAY: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 02/05/24. PARTE 1750134478 RM3 CCU + 1750263341 RM3 TRANSPORT UNIT HEAD ESCROW: SIN SALDO EN WIP.  --  "1750200541 Distributor Module CRS+ 1750245555 transport unit head short path CRS/ATS DISP</t>
-  </si>
-  <si>
-    <t>NOSP. 18/04/24. PARTE 1750248000 RM3 IO COLLECTOR + 1750220330 RM3 IO TRAY: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>SV104969000H</t>
-  </si>
-  <si>
-    <t>NOWIP. 22/04/24. PARTE 49217353000A "ASSEMBLY PRINTER CARTRIDGE": SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 30/04/24. PARTE 1750188523 CCDM CHASIS + 1750154866 CCDM VALIDADOR CASH CHECK: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750188524 ALIGNMENT STATION 3 CCDM+ 1750101952 DISTANCE TRANSPORT VM3 DISPO</t>
-  </si>
-  <si>
-    <t>1750199517-25</t>
-  </si>
-  <si>
-    <t>1750195517-20</t>
-  </si>
-  <si>
-    <t>NOSP. 18/04/24. PARTE 1750188546 DEPÓSITO DE SOBRES CINEO: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 19/04/24. PARTE 1750109659 V4 STACKER: SIN SPARE PARTS PARA REPARACIÓN.  --  "EXTRACTOR 1750109615 DISPONIBLE". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 18/04/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>BANCO DE CORDOBA</t>
-  </si>
-  <si>
-    <t>NOWIP 22/04/2024. PARTE 1750222982	V4 SHUTTER LITE PC 280: SIN SALDO WN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 19/04/24. PARTE 1750248000 RM3 IO COLLECTOR + 1750220330 RM3 IO TRAY: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 22/04/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 26/04/24. PARTE 1750177464 CCDM ESCROW: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 22/04/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 19/04/24. PARTE 1750200435 VS MODUL: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 19/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 22/04/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR + 1750215294 V5 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>ETR. 24/04/24. PARTE 49208102003M AFD CCA DISPENSER: EN REPARACIÓN. ETR: 30/04/24. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 25/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 23/04/24. PARTE 1750214647 RM3 TRANSFER UNIT SAFE: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750134478        CENTRALIZATION UNIT UPPER PART CRS/ATS DISPONIBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>CBA.RC.24/4/24. PARTE 1750222982	SHUTTER LITE DC MOTOR ASSY RL:EN ESPERA DE REPARACIÓN. ETA:30/4/24 (JIMENEZ)</t>
-  </si>
-  <si>
-    <t>NOSP. 26/04/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 22/04/24. PARTE "KIT CAMARAS 1750302850,1750266439,1750296744, flexibles y tape sensor": SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 23/04/24. PARTE 1750188523 CCDM CHASIS + 1750177464 CCDM ESCROW: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 23/04/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 29/04/24. PARTE 1750177464 CCDM ESCROW: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 23/04/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 25/04/24. PARTE 1750220330 RM3 IO TRAY + 1750248000 RM3 IO COLLECTOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 23/04/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 24/04/24. PARTE 1750263341 RM3 TRANSPORT UNIT HEAD + 1750126457 RM3 REEL STORAGE + 1750173205 LECTORA V2CU STANDARD: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 23/04/24. PARTE 1750177464 CCDM ESCROW: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>STOCK 25/04/2024. FASCIA 280. A LA ESPERA DE REPARACION POR PARTE DE TECNOS (FRETES)</t>
-  </si>
-  <si>
-    <t>NOSP. 23/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 23/04/24. PARTE 1750044878 V4 BOARD DISTRIBUTOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 25/04/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 25/04/24. PARTE 1750109658 V4 STACKER S/SR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 29/04/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>BANCO CIUDAD</t>
-  </si>
-  <si>
-    <t>SV221800000C</t>
-  </si>
-  <si>
-    <t>NOSP. 25/04/24. PARTE SV221800000C ENA UPPER ALIGN: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 29/04/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 24/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>RC. 3/5/24. LECTORA 1750105988 A ESPERA DE REPARACION (SORIANO)</t>
-  </si>
-  <si>
-    <t>NOSP. 25/04/24. PARTE 1750188523 CCDM CHASIS + 1750177464 CCDM ESCROW: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 24/04/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 23/04/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 24/04/24. PARTE 1750092824 DEPÓSITO DE SOBRES PROCASH: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 25/04/24. PARTE 1750346607 SHUTTER IO TRAY II: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 25/04/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 25/04/24. PARTE 1750100966 V4 SHUTTER VERTICAL RL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 30/04/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 25/04/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN.  --  "CLAMP 1750053977 DISPONIBLE". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 25/04/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 30/04/24. PARTE S/N DISCO SÓLIDO: SIN SALDO EN WIP.  --  "PARTE 49257458000B IMPRESORA DE CLIENTE DISPONIBLE". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 30/04/24. PARTE 1750109658 V4 STACKER S/SR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 25/04/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 25/04/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750101956	DISPENSER MODULE VM3 DISPONIBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 30/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 30/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750053977 CLAMP DISPONIBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 30/04/24. PARTE 1750214647 RM3 TRANSFER UNIT SAFE + 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN.  --  "PARTE 1750133348 TMHLP + 1750245555 TUH DISPONIBLES"</t>
-  </si>
-  <si>
-    <t>STOCK. 3/5/24. ACRILICO (MODELO IDEAL UNO DE 1500) A ESPERA DE DESARME (SORIANO)</t>
-  </si>
-  <si>
-    <t>NOSP. 29/04/24. PARTE 1750193275 RM3 MAIN MODULE + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 26/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOSP. 29/04/24. PARTE 1750263341 RM3 TRANSPORT UNIT HEAD + 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750245555 transport unit head short path CRS/ATS+ </t>
-  </si>
-  <si>
-    <t>ETR. 30/04/24. PARTE 49208102003M AFD CCA DISPENSER: EN REPARACIÓN. ETR: 09/05/24.  --  "49225262000A PICKER AFD 1.5 DISPONIBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 29/04/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750234950 EPP V7 ESP South America ST DISPONIBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 02/05/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 02/05/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>49226313000B</t>
-  </si>
-  <si>
-    <t>CBA.DISP.02/05/24. PARTE 1750159523  KEYBOARD V6 EPP ESP SOUTH AMERICA CES.: DISPONIBLE EN COORDINACIÓN PARA DESPACHO. (JIMENEZ)</t>
-  </si>
-  <si>
-    <t>cH.nowip.02/05/2024. parte 1750173205-35 v2cu smart card reader magnetic hico: sin saldo en wip. se solicita a caba.(veron)</t>
-  </si>
-  <si>
-    <t>NOWIP. 30/04/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 30/04/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>1750173205-35</t>
-  </si>
-  <si>
-    <t>RC 02/05/2024. PARTE 1750173205 CARD READER. A ESPERA DE REPARACION (FRETES)</t>
-  </si>
-  <si>
-    <t>NOSP. 02/05/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>ETR. 30/04/24. PARTE 49208102003M AFD CCA DISPENSER: EN REPARACIÓN. ETR: 09/05/24. (MINIACI)</t>
-  </si>
-  <si>
-    <t>RC. 3/5/24. EXTRACTOR 1750109615 A ESPERA DE REPARACION (SORIANO)</t>
-  </si>
-  <si>
-    <t>CBA.RC.29/4/24. PARTE 1750222982	SHUTTER LITE DC MOTOR ASSY RL:EN ESPERA DE REPARACIÓN. ETA:3/5/24 (JIMENEZ)</t>
-  </si>
-  <si>
-    <t>NOSP. 30/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>BIO. 29/04/2024 PENDIENTE POR BIOMETRICO (MAITLAND)</t>
-  </si>
-  <si>
-    <t>NOSP. 30/04/24. PARTE 1750193275 RM3 MAIN MODULE + 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>SUP. 30/04/2024 A ESPERA DE CONFIRMACION DE FASCIA CORRECTA (MAITLAND)</t>
-  </si>
-  <si>
-    <t>OKETR. 30/04/24. PARTE 1750295447 RM4 IO COLLECTOR + 1750288271 RM4 IO TRAY: REPARADO. EN FGI PARA TRANSFERIR A STOCK. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 02/05/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 30/04/24. PARTE 1750193275 RM3 MAIN MODULE : SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>RC. 3/5/24. EXTRACTOR 1750109615 A ESPERA DE REPARACION, SHUTTER  1750256956 DISPONIBLE (SORIANO)</t>
-  </si>
-  <si>
-    <t>cH.nowip.02/05/2024. parte 1750177464 ESCROW 3 CCDM MODULE: sin saldo en wip. se solicita a caba. (VERON)</t>
-  </si>
-  <si>
-    <t>NOWIP. 02/05/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 30/04/24. PARTE 1750304916 "SHUTTER I-O TRAY NSL": SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 30/04/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 02/05/24. PARTE 1750215294 V5 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>SUP. 30/4/24. A ESPERA DE CONFIRMACION DE TRABA NECESARIA (SORIANO)</t>
-  </si>
-  <si>
-    <t>49201784000C</t>
-  </si>
-  <si>
-    <t>RC. 02/05/2024 A ESPERA DE DESARME DE 522 RL POR PARTE 49201784000C MONITOR OPERADOR, PARTE 49221669000A TECLADO OPERADOR DISPONIBLE (MAITLAND)</t>
-  </si>
-  <si>
-    <t>RC.2/5/2024 1750200435 VS-modul-recycling EN ESPERA DE REPARACION (CORREA)</t>
-  </si>
-  <si>
-    <t>RC. 3/5/24. PLACA VERTICAL 1750044878 A ESPERA DE REPARACION (SORIANO)</t>
-  </si>
-  <si>
-    <t>RC. 2/5/24. LECTORA 1750173205 A ESPERA DE REPARACION (SORIANO)</t>
-  </si>
-  <si>
-    <t>CBA.NOWIP. 02/5/2024. PARTE 1750154866  LINE-XSA CASH CHECK:SIN SALDO EN WIP. SE SOLICITA A CABA. (JIMENEZ)</t>
-  </si>
-  <si>
-    <t>RC. 2/5/24. STACKER CSR 1750109659 A ESPERA DE REPARACION (SORIANO)</t>
-  </si>
-  <si>
-    <t>RC. 03/05/2024 PARTE 1750109659 WINCOR STACKER CON SINGLE REJECT A ESPERA DE REPARACION (MAITLAND)</t>
-  </si>
-  <si>
-    <t>49202789000B</t>
-  </si>
-  <si>
-    <t>49202790000A</t>
-  </si>
-  <si>
-    <t>RC. 2/5/24. VS 1750200435 A ESPERA DE REPARACION (SORIANO)</t>
+    <t>ETR. 03/05/24. PARTE 1750044878 V4 DISTRIBUTOR BOARD: EN REPARACIÓN. ETR: 06/05/24. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 03/05/24. PARTE 1750215294 V5 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>ETR. 03/05/24. PARTE 1750154866 CCDM VALIDADOR CASH CHECK: EN REPARACIÓN. ETR: 08/05/24. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 03/05/24. PARTE 1750109659 V4 STACKER: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>49202966X0CB</t>
+  </si>
+  <si>
+    <t>CBA.NOWIP. 6/5/2024. PARTE1750222982 SHUTTER LITE DC MOTOR ASSY RL:SIN SALDO EN WIP. SE SOLICITA A CABA. (JIMENEZ)</t>
+  </si>
+  <si>
+    <t>NOWIP. 03/05/24. PARTE 49211433000A AFD STACKER: SIN SALDO EN WIP.  --  "49211436000A Transport 620mm lenght SRL DISPONIBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
+    <t>ETR. 03/05/24. PARTE 1750055175 CCDM DEPOSIT TRANSPORT: EN REPARACIÓN. ETR: 08/05/24. (MINIACI)</t>
+  </si>
+  <si>
+    <t>MACRO</t>
+  </si>
+  <si>
+    <t>RC. 06/05/2024 PARTE 1750200435 VS MODULE A ESPERA DE REPARACION (MAITLAND)</t>
+  </si>
+  <si>
+    <t>NOSP. 03/05/24. PARTE 1750105988 LECTORA V2X USB + 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>49238415000A</t>
   </si>
   <si>
     <t>ACRILICO</t>
+  </si>
+  <si>
+    <t>FASCIA 720 FL</t>
   </si>
 </sst>
 </file>
@@ -1313,15 +1274,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D470"/>
+  <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
     <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="195.44140625" bestFit="1" customWidth="1"/>
@@ -1749,16 +1710,16 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>7530868</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
         <v>38</v>
-      </c>
-      <c r="B31">
-        <v>7463290</v>
-      </c>
-      <c r="C31" s="2">
-        <v>1750188546</v>
-      </c>
-      <c r="D31" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1766,38 +1727,38 @@
         <v>4</v>
       </c>
       <c r="B32">
-        <v>7530868</v>
+        <v>7546734</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>7546734</v>
+        <v>7608630</v>
       </c>
       <c r="C33" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="D33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="B34">
-        <v>7608630</v>
-      </c>
-      <c r="C34" t="s">
-        <v>42</v>
+        <v>7619358</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1750285706</v>
       </c>
       <c r="D34" t="s">
         <v>43</v>
@@ -1805,13 +1766,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>7619358</v>
-      </c>
-      <c r="C35" s="2">
-        <v>1750285706</v>
+        <v>7633149</v>
+      </c>
+      <c r="C35" t="s">
+        <v>18</v>
       </c>
       <c r="D35" t="s">
         <v>44</v>
@@ -1819,209 +1780,209 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B36">
-        <v>7633149</v>
+        <v>7659156</v>
       </c>
       <c r="C36" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>7639019</v>
-      </c>
-      <c r="C37" t="s">
+        <v>7662785</v>
+      </c>
+      <c r="C37" s="2">
+        <v>1750173205</v>
+      </c>
+      <c r="D37" t="s">
         <v>47</v>
-      </c>
-      <c r="D37" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B38">
-        <v>7639019</v>
+        <v>7662785</v>
       </c>
       <c r="C38" s="2">
-        <v>1750188523</v>
+        <v>1750222982</v>
       </c>
       <c r="D38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>7652923</v>
+        <v>7662785</v>
       </c>
       <c r="C39" s="2">
-        <v>1750188546</v>
+        <v>1750062675</v>
       </c>
       <c r="D39" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B40">
-        <v>7659156</v>
-      </c>
-      <c r="C40" t="s">
-        <v>5</v>
+        <v>7662785</v>
+      </c>
+      <c r="C40" s="2">
+        <v>1750190038</v>
       </c>
       <c r="D40" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B41">
         <v>7662785</v>
       </c>
       <c r="C41" s="2">
-        <v>1750173205</v>
+        <v>1750130744</v>
       </c>
       <c r="D41" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>7662785</v>
       </c>
       <c r="C42" s="2">
-        <v>1750222982</v>
+        <v>1750059284</v>
       </c>
       <c r="D42" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B43">
         <v>7662785</v>
       </c>
       <c r="C43" s="2">
-        <v>1750062675</v>
+        <v>1750159523</v>
       </c>
       <c r="D43" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B44">
         <v>7662785</v>
       </c>
       <c r="C44" s="2">
-        <v>1750190038</v>
+        <v>1750187952</v>
       </c>
       <c r="D44" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B45">
-        <v>7662785</v>
-      </c>
-      <c r="C45" s="2">
-        <v>1750130744</v>
+        <v>7695366</v>
+      </c>
+      <c r="C45" t="s">
+        <v>34</v>
       </c>
       <c r="D45" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B46">
-        <v>7662785</v>
-      </c>
-      <c r="C46" s="2">
-        <v>1750059284</v>
+        <v>7695366</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5</v>
       </c>
       <c r="D46" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>7662785</v>
-      </c>
-      <c r="C47" s="2">
-        <v>1750159523</v>
+        <v>7709811</v>
+      </c>
+      <c r="C47" t="s">
+        <v>50</v>
       </c>
       <c r="D47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B48">
-        <v>7662785</v>
-      </c>
-      <c r="C48" s="2">
-        <v>1750187952</v>
+        <v>7709811</v>
+      </c>
+      <c r="C48" t="s">
+        <v>52</v>
       </c>
       <c r="D48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B49">
-        <v>7662929</v>
-      </c>
-      <c r="C49" s="2">
-        <v>1750188546</v>
+        <v>7709811</v>
+      </c>
+      <c r="C49" t="s">
+        <v>53</v>
       </c>
       <c r="D49" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B50">
-        <v>7683432</v>
+        <v>7716199</v>
       </c>
       <c r="C50" s="2">
-        <v>1750188546</v>
+        <v>1750105679</v>
       </c>
       <c r="D50" t="s">
         <v>54</v>
@@ -2029,237 +1990,237 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B51">
-        <v>7695366</v>
+        <v>7716199</v>
       </c>
       <c r="C51" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B52">
-        <v>7695366</v>
-      </c>
-      <c r="C52" t="s">
-        <v>5</v>
+        <v>7716199</v>
+      </c>
+      <c r="C52" s="2">
+        <v>1750206350</v>
       </c>
       <c r="D52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B53">
-        <v>7709811</v>
-      </c>
-      <c r="C53" t="s">
-        <v>56</v>
+        <v>7716199</v>
+      </c>
+      <c r="C53" s="2">
+        <v>1750109615</v>
       </c>
       <c r="D53" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B54">
-        <v>7709811</v>
-      </c>
-      <c r="C54" t="s">
-        <v>58</v>
+        <v>7716199</v>
+      </c>
+      <c r="C54" s="2">
+        <v>1750044668</v>
       </c>
       <c r="D54" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B55">
-        <v>7709811</v>
-      </c>
-      <c r="C55" t="s">
-        <v>59</v>
+        <v>7726520</v>
+      </c>
+      <c r="C55" s="2">
+        <v>1750188546</v>
       </c>
       <c r="D55" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B56">
-        <v>7716199</v>
+        <v>7733518</v>
       </c>
       <c r="C56" s="2">
-        <v>1750105679</v>
+        <v>1750053977</v>
       </c>
       <c r="D56" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B57">
-        <v>7716199</v>
-      </c>
-      <c r="C57" t="s">
-        <v>42</v>
+        <v>7733518</v>
+      </c>
+      <c r="C57" s="2">
+        <v>1750105988</v>
       </c>
       <c r="D57" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B58">
-        <v>7716199</v>
+        <v>7733518</v>
       </c>
       <c r="C58" s="2">
-        <v>1750206350</v>
+        <v>1750109615</v>
       </c>
       <c r="D58" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B59">
-        <v>7716199</v>
+        <v>7733518</v>
       </c>
       <c r="C59" s="2">
-        <v>1750109615</v>
+        <v>1750109641</v>
       </c>
       <c r="D59" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B60">
-        <v>7716199</v>
-      </c>
-      <c r="C60" s="2">
-        <v>1750044668</v>
+        <v>7733518</v>
+      </c>
+      <c r="C60" t="s">
+        <v>57</v>
       </c>
       <c r="D60" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B61">
-        <v>7726520</v>
-      </c>
-      <c r="C61" s="2">
-        <v>1750188546</v>
+        <v>7733518</v>
+      </c>
+      <c r="C61" t="s">
+        <v>58</v>
       </c>
       <c r="D61" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B62">
         <v>7733518</v>
       </c>
       <c r="C62" s="2">
-        <v>1750053977</v>
+        <v>1750169942</v>
       </c>
       <c r="D62" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B63">
-        <v>7733518</v>
+        <v>7738379</v>
       </c>
       <c r="C63" s="2">
-        <v>1750105988</v>
+        <v>1750041251</v>
       </c>
       <c r="D63" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B64">
-        <v>7733518</v>
+        <v>7738379</v>
       </c>
       <c r="C64" s="2">
-        <v>1750109615</v>
+        <v>1750035762</v>
       </c>
       <c r="D64" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B65">
-        <v>7733518</v>
+        <v>7738379</v>
       </c>
       <c r="C65" s="2">
-        <v>1750109641</v>
+        <v>1750157444</v>
       </c>
       <c r="D65" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B66">
-        <v>7733518</v>
-      </c>
-      <c r="C66" t="s">
-        <v>63</v>
+        <v>7739788</v>
+      </c>
+      <c r="C66" s="2">
+        <v>1750188546</v>
       </c>
       <c r="D66" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B67">
-        <v>7733518</v>
-      </c>
-      <c r="C67" t="s">
-        <v>64</v>
+        <v>7751039</v>
+      </c>
+      <c r="C67" s="2">
+        <v>1750105988</v>
       </c>
       <c r="D67" t="s">
         <v>62</v>
@@ -2267,13 +2228,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B68">
-        <v>7733518</v>
+        <v>7751039</v>
       </c>
       <c r="C68" s="2">
-        <v>1750169942</v>
+        <v>1750109615</v>
       </c>
       <c r="D68" t="s">
         <v>62</v>
@@ -2281,2858 +2242,2858 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="B69">
-        <v>7738379</v>
-      </c>
-      <c r="C69" s="2">
-        <v>1750041251</v>
+        <v>7771880</v>
+      </c>
+      <c r="C69" t="s">
+        <v>41</v>
       </c>
       <c r="D69" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="B70">
-        <v>7738379</v>
-      </c>
-      <c r="C70" s="2">
-        <v>1750035762</v>
+        <v>7771880</v>
+      </c>
+      <c r="C70" t="s">
+        <v>34</v>
       </c>
       <c r="D70" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="B71">
-        <v>7738379</v>
-      </c>
-      <c r="C71" s="2">
-        <v>1750157444</v>
+        <v>7774323</v>
+      </c>
+      <c r="C71" t="s">
+        <v>32</v>
       </c>
       <c r="D71" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B72">
-        <v>7739788</v>
-      </c>
-      <c r="C72" s="2">
-        <v>1750188546</v>
+        <v>7774323</v>
+      </c>
+      <c r="C72" t="s">
+        <v>5</v>
       </c>
       <c r="D72" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B73">
-        <v>7751039</v>
+        <v>7784172</v>
       </c>
       <c r="C73" s="2">
-        <v>1750105988</v>
+        <v>1750044878</v>
       </c>
       <c r="D73" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B74">
-        <v>7751039</v>
+        <v>7784172</v>
       </c>
       <c r="C74" s="2">
-        <v>1750109615</v>
+        <v>1750109659</v>
       </c>
       <c r="D74" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B75">
-        <v>7771880</v>
+        <v>7789499</v>
       </c>
       <c r="C75" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D75" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B76">
-        <v>7771880</v>
+        <v>7789499</v>
       </c>
       <c r="C76" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="D76" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="B77">
-        <v>7774323</v>
+        <v>7789891</v>
       </c>
       <c r="C77" t="s">
         <v>32</v>
       </c>
       <c r="D77" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="B78">
-        <v>7774323</v>
+        <v>7789891</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
       </c>
       <c r="D78" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="B79">
-        <v>7784172</v>
-      </c>
-      <c r="C79" s="2">
-        <v>1750044878</v>
+        <v>7790497</v>
+      </c>
+      <c r="C79" t="s">
+        <v>32</v>
       </c>
       <c r="D79" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="B80">
-        <v>7784172</v>
-      </c>
-      <c r="C80" s="2">
-        <v>1750109659</v>
+        <v>7790497</v>
+      </c>
+      <c r="C80" t="s">
+        <v>7</v>
       </c>
       <c r="D80" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B81">
-        <v>7784634</v>
+        <v>7792025</v>
       </c>
       <c r="C81" s="2">
-        <v>1750053977</v>
+        <v>1750215294</v>
       </c>
       <c r="D81" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B82">
-        <v>7784634</v>
+        <v>7792025</v>
       </c>
       <c r="C82" s="2">
-        <v>1750109658</v>
+        <v>1750215295</v>
       </c>
       <c r="D82" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B83">
-        <v>7789499</v>
-      </c>
-      <c r="C83" t="s">
-        <v>58</v>
+        <v>7792335</v>
+      </c>
+      <c r="C83" s="2">
+        <v>1750289153</v>
       </c>
       <c r="D83" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B84">
-        <v>7789499</v>
-      </c>
-      <c r="C84" t="s">
-        <v>74</v>
+        <v>7797143</v>
+      </c>
+      <c r="C84" s="2">
+        <v>1750177464</v>
       </c>
       <c r="D84" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="B85">
-        <v>7789891</v>
-      </c>
-      <c r="C85" t="s">
-        <v>32</v>
+        <v>7797814</v>
+      </c>
+      <c r="C85" s="2">
+        <v>1750215294</v>
       </c>
       <c r="D85" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="B86">
-        <v>7789891</v>
-      </c>
-      <c r="C86" t="s">
-        <v>5</v>
+        <v>7800803</v>
+      </c>
+      <c r="C86" s="2">
+        <v>1750109615</v>
       </c>
       <c r="D86" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="B87">
-        <v>7790497</v>
-      </c>
-      <c r="C87" t="s">
-        <v>32</v>
+        <v>7802611</v>
+      </c>
+      <c r="C87" s="2">
+        <v>1750053977</v>
       </c>
       <c r="D87" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="B88">
-        <v>7790497</v>
+        <v>7802993</v>
       </c>
       <c r="C88" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D88" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B89">
-        <v>7792025</v>
-      </c>
-      <c r="C89" s="2">
-        <v>1750215294</v>
+        <v>7803005</v>
+      </c>
+      <c r="C89" t="s">
+        <v>5</v>
       </c>
       <c r="D89" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B90">
-        <v>7792025</v>
+        <v>7803677</v>
       </c>
       <c r="C90" s="2">
-        <v>1750215295</v>
+        <v>1750109658</v>
       </c>
       <c r="D90" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B91">
-        <v>7792335</v>
+        <v>7803677</v>
       </c>
       <c r="C91" s="2">
-        <v>1750289153</v>
+        <v>1750109615</v>
       </c>
       <c r="D91" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="B92">
-        <v>7797143</v>
+        <v>7804016</v>
       </c>
       <c r="C92" s="2">
-        <v>1750177464</v>
+        <v>1750188546</v>
       </c>
       <c r="D92" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B93">
-        <v>7797814</v>
+        <v>7806399</v>
       </c>
       <c r="C93" s="2">
-        <v>1750215294</v>
+        <v>1750110043</v>
       </c>
       <c r="D93" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="B94">
-        <v>7800803</v>
-      </c>
-      <c r="C94" s="2">
-        <v>1750109615</v>
+        <v>7806538</v>
+      </c>
+      <c r="C94" t="s">
+        <v>73</v>
       </c>
       <c r="D94" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B95">
-        <v>7802611</v>
+        <v>7808461</v>
       </c>
       <c r="C95" s="2">
-        <v>1750053977</v>
+        <v>1750109659</v>
       </c>
       <c r="D95" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B96">
-        <v>7802993</v>
-      </c>
-      <c r="C96" t="s">
-        <v>5</v>
+        <v>7814392</v>
+      </c>
+      <c r="C96" s="2">
+        <v>1750189650</v>
       </c>
       <c r="D96" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B97">
-        <v>7803005</v>
-      </c>
-      <c r="C97" t="s">
-        <v>5</v>
+        <v>7814392</v>
+      </c>
+      <c r="C97" s="2">
+        <v>1750215295</v>
       </c>
       <c r="D97" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B98">
-        <v>7803677</v>
+        <v>7817629</v>
       </c>
       <c r="C98" s="2">
-        <v>1750109658</v>
+        <v>1750053977</v>
       </c>
       <c r="D98" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B99">
-        <v>7803677</v>
+        <v>7817670</v>
       </c>
       <c r="C99" s="2">
         <v>1750109615</v>
       </c>
       <c r="D99" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="B100">
-        <v>7804016</v>
-      </c>
-      <c r="C100" s="2">
-        <v>1750188546</v>
+        <v>7820507</v>
+      </c>
+      <c r="C100" t="s">
+        <v>76</v>
       </c>
       <c r="D100" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B101">
-        <v>7806399</v>
+        <v>7820527</v>
       </c>
       <c r="C101" s="2">
-        <v>1750110043</v>
+        <v>1750344858</v>
       </c>
       <c r="D101" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B102">
-        <v>7806538</v>
-      </c>
-      <c r="C102" t="s">
-        <v>80</v>
+        <v>7822042</v>
+      </c>
+      <c r="C102" s="2">
+        <v>1750159971</v>
       </c>
       <c r="D102" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="B103">
-        <v>7808461</v>
-      </c>
-      <c r="C103" s="2">
-        <v>1750109659</v>
+        <v>7823382</v>
+      </c>
+      <c r="C103" t="s">
+        <v>41</v>
       </c>
       <c r="D103" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B104">
-        <v>7814392</v>
-      </c>
-      <c r="C104" s="2">
-        <v>1750189650</v>
+        <v>7824357</v>
+      </c>
+      <c r="C104" t="s">
+        <v>78</v>
       </c>
       <c r="D104" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B105">
-        <v>7814392</v>
+        <v>7824386</v>
       </c>
       <c r="C105" s="2">
-        <v>1750215295</v>
+        <v>1750053977</v>
       </c>
       <c r="D105" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B106">
-        <v>7817629</v>
+        <v>7832871</v>
       </c>
       <c r="C106" s="2">
-        <v>1750053977</v>
+        <v>1750105988</v>
       </c>
       <c r="D106" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B107">
-        <v>7817670</v>
-      </c>
-      <c r="C107" s="2">
-        <v>1750109615</v>
+        <v>7833234</v>
+      </c>
+      <c r="C107" t="s">
+        <v>79</v>
       </c>
       <c r="D107" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="B108">
-        <v>7820507</v>
-      </c>
-      <c r="C108" t="s">
-        <v>83</v>
+        <v>7833667</v>
+      </c>
+      <c r="C108" s="2">
+        <v>1750215295</v>
       </c>
       <c r="D108" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="B109">
-        <v>7820527</v>
+        <v>7833667</v>
       </c>
       <c r="C109" s="2">
-        <v>1750344858</v>
+        <v>1750110044</v>
       </c>
       <c r="D109" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B110">
-        <v>7822042</v>
-      </c>
-      <c r="C110" s="2">
-        <v>1750159971</v>
+        <v>7846573</v>
+      </c>
+      <c r="C110" t="s">
+        <v>82</v>
       </c>
       <c r="D110" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="B111">
-        <v>7823382</v>
-      </c>
-      <c r="C111" t="s">
-        <v>42</v>
+        <v>7846685</v>
+      </c>
+      <c r="C111" s="2">
+        <v>1750101956</v>
       </c>
       <c r="D111" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="B112">
-        <v>7824357</v>
-      </c>
-      <c r="C112" t="s">
-        <v>85</v>
+        <v>7848212</v>
+      </c>
+      <c r="C112" s="2">
+        <v>1750204435</v>
       </c>
       <c r="D112" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B113">
-        <v>7824386</v>
+        <v>7850263</v>
       </c>
       <c r="C113" s="2">
         <v>1750053977</v>
       </c>
       <c r="D113" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B114">
-        <v>7832871</v>
+        <v>7858514</v>
       </c>
       <c r="C114" s="2">
-        <v>1750105988</v>
+        <v>1750193275</v>
       </c>
       <c r="D114" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B115">
-        <v>7833234</v>
-      </c>
-      <c r="C115" t="s">
-        <v>86</v>
+        <v>7858514</v>
+      </c>
+      <c r="C115" s="2">
+        <v>1750133348</v>
       </c>
       <c r="D115" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="B116">
-        <v>7833667</v>
+        <v>7858757</v>
       </c>
       <c r="C116" s="2">
-        <v>1750215295</v>
+        <v>1750199149</v>
       </c>
       <c r="D116" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B117">
-        <v>7833667</v>
-      </c>
-      <c r="C117" s="2">
-        <v>1750110044</v>
+        <v>7859082</v>
+      </c>
+      <c r="C117" t="s">
+        <v>85</v>
       </c>
       <c r="D117" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="B118">
-        <v>7846573</v>
-      </c>
-      <c r="C118" t="s">
-        <v>89</v>
+        <v>7859146</v>
+      </c>
+      <c r="C118" s="2">
+        <v>1750109615</v>
       </c>
       <c r="D118" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B119">
-        <v>7846685</v>
+        <v>7859726</v>
       </c>
       <c r="C119" s="2">
-        <v>1750101956</v>
+        <v>1750222982</v>
       </c>
       <c r="D119" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B120">
-        <v>7848212</v>
+        <v>7860390</v>
       </c>
       <c r="C120" s="2">
-        <v>1750204435</v>
+        <v>1750109615</v>
       </c>
       <c r="D120" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B121">
-        <v>7848308</v>
+        <v>7860390</v>
       </c>
       <c r="C121" s="2">
-        <v>1750154145</v>
+        <v>1750109641</v>
       </c>
       <c r="D121" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="B122">
-        <v>7850263</v>
+        <v>7860390</v>
       </c>
       <c r="C122" s="2">
-        <v>1750053977</v>
+        <v>1750105679</v>
       </c>
       <c r="D122" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B123">
-        <v>7858514</v>
+        <v>7867214</v>
       </c>
       <c r="C123" s="2">
-        <v>1750193275</v>
+        <v>1750256247</v>
       </c>
       <c r="D123" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B124">
-        <v>7858514</v>
-      </c>
-      <c r="C124" s="2">
-        <v>1750133348</v>
+        <v>7867607</v>
+      </c>
+      <c r="C124" t="s">
+        <v>89</v>
       </c>
       <c r="D124" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="B125">
-        <v>7858757</v>
-      </c>
-      <c r="C125" s="2">
-        <v>1750199149</v>
+        <v>7871860</v>
+      </c>
+      <c r="C125" t="s">
+        <v>67</v>
       </c>
       <c r="D125" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B126">
-        <v>7859082</v>
+        <v>7871860</v>
       </c>
       <c r="C126" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="D126" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="B127">
-        <v>7859726</v>
-      </c>
-      <c r="C127" s="2">
-        <v>1750222982</v>
+        <v>7871860</v>
+      </c>
+      <c r="C127" t="s">
+        <v>82</v>
       </c>
       <c r="D127" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B128">
-        <v>7867214</v>
+        <v>7873878</v>
       </c>
       <c r="C128" s="2">
-        <v>1750256247</v>
+        <v>1750105679</v>
       </c>
       <c r="D128" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B129">
-        <v>7867607</v>
-      </c>
-      <c r="C129" t="s">
-        <v>95</v>
+        <v>7873878</v>
+      </c>
+      <c r="C129" s="2">
+        <v>1750109658</v>
       </c>
       <c r="D129" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B130">
-        <v>7868488</v>
+        <v>7878427</v>
       </c>
       <c r="C130" s="2">
-        <v>1750100966</v>
+        <v>1750214647</v>
       </c>
       <c r="D130" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B131">
-        <v>7871860</v>
-      </c>
-      <c r="C131" t="s">
-        <v>74</v>
+        <v>7884952</v>
+      </c>
+      <c r="C131" s="2">
+        <v>1750053977</v>
       </c>
       <c r="D131" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B132">
-        <v>7871860</v>
+        <v>7885396</v>
       </c>
       <c r="C132" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D132" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B133">
-        <v>7871860</v>
-      </c>
-      <c r="C133" t="s">
-        <v>89</v>
+        <v>7885866</v>
+      </c>
+      <c r="C133" s="2">
+        <v>1750189650</v>
       </c>
       <c r="D133" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="B134">
-        <v>7873480</v>
+        <v>7888819</v>
       </c>
       <c r="C134" t="s">
-        <v>99</v>
+        <v>295</v>
       </c>
       <c r="D134" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B135">
-        <v>7873878</v>
+        <v>7890266</v>
       </c>
       <c r="C135" s="2">
-        <v>1750105679</v>
+        <v>1750215294</v>
       </c>
       <c r="D135" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B136">
-        <v>7873878</v>
+        <v>7894613</v>
       </c>
       <c r="C136" s="2">
-        <v>1750109658</v>
+        <v>1750261447</v>
       </c>
       <c r="D136" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="B137">
-        <v>7878427</v>
-      </c>
-      <c r="C137" s="2">
-        <v>1750214647</v>
+        <v>7897120</v>
+      </c>
+      <c r="C137" t="s">
+        <v>53</v>
       </c>
       <c r="D137" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B138">
-        <v>7884952</v>
-      </c>
-      <c r="C138" s="2">
-        <v>1750053977</v>
+        <v>7897299</v>
+      </c>
+      <c r="C138">
+        <v>1750193275</v>
       </c>
       <c r="D138" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B139">
-        <v>7885396</v>
-      </c>
-      <c r="C139" t="s">
-        <v>58</v>
+        <v>7897869</v>
+      </c>
+      <c r="C139" s="2">
+        <v>1750261447</v>
       </c>
       <c r="D139" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B140">
-        <v>7885866</v>
+        <v>7897950</v>
       </c>
       <c r="C140" s="2">
-        <v>1750189650</v>
+        <v>1750053977</v>
       </c>
       <c r="D140" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B141">
-        <v>7887831</v>
+        <v>7897950</v>
       </c>
       <c r="C141" s="2">
-        <v>1750215295</v>
+        <v>1750109658</v>
       </c>
       <c r="D141" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="B142">
-        <v>7888819</v>
-      </c>
-      <c r="C142" t="s">
-        <v>18</v>
+        <v>7899433</v>
+      </c>
+      <c r="C142" s="2">
+        <v>1750208512</v>
       </c>
       <c r="D142" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B143">
-        <v>7890266</v>
-      </c>
-      <c r="C143" s="2">
-        <v>1750215294</v>
+        <v>7900491</v>
+      </c>
+      <c r="C143" t="s">
+        <v>100</v>
       </c>
       <c r="D143" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B144">
-        <v>7894613</v>
-      </c>
-      <c r="C144" s="2">
-        <v>1750261447</v>
+        <v>7900491</v>
+      </c>
+      <c r="C144" t="s">
+        <v>101</v>
       </c>
       <c r="D144" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B145">
-        <v>7897120</v>
-      </c>
-      <c r="C145" t="s">
-        <v>59</v>
+        <v>7904305</v>
+      </c>
+      <c r="C145" s="2">
+        <v>1750200541</v>
       </c>
       <c r="D145" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B146">
-        <v>7897299</v>
-      </c>
-      <c r="C146">
-        <v>1750193275</v>
+        <v>7904305</v>
+      </c>
+      <c r="C146" s="2">
+        <v>1750200435</v>
       </c>
       <c r="D146" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="B147">
-        <v>7897869</v>
+        <v>7905109</v>
       </c>
       <c r="C147" s="2">
-        <v>1750261447</v>
+        <v>1750169942</v>
       </c>
       <c r="D147" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B148">
-        <v>7897950</v>
+        <v>7905109</v>
       </c>
       <c r="C148" s="2">
-        <v>1750053977</v>
+        <v>1750154145</v>
       </c>
       <c r="D148" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B149">
-        <v>7897950</v>
+        <v>7905109</v>
       </c>
       <c r="C149" s="2">
-        <v>1750109658</v>
+        <v>1750105988</v>
       </c>
       <c r="D149" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B150">
-        <v>7899433</v>
+        <v>7909031</v>
       </c>
       <c r="C150" s="2">
-        <v>1750208512</v>
+        <v>1750173205</v>
       </c>
       <c r="D150" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="B151">
-        <v>7900491</v>
-      </c>
-      <c r="C151" t="s">
-        <v>99</v>
+        <v>7909307</v>
+      </c>
+      <c r="C151" s="2">
+        <v>1750188523</v>
       </c>
       <c r="D151" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="B152">
-        <v>7900491</v>
-      </c>
-      <c r="C152" t="s">
-        <v>109</v>
+        <v>7910329</v>
+      </c>
+      <c r="C152" s="2">
+        <v>1750173205</v>
       </c>
       <c r="D152" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="B153">
-        <v>7902050</v>
+        <v>7912762</v>
       </c>
       <c r="C153" s="2">
-        <v>1750109659</v>
+        <v>1804610970</v>
       </c>
       <c r="D153" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B154">
-        <v>7904305</v>
+        <v>7912762</v>
       </c>
       <c r="C154" s="2">
-        <v>1750200541</v>
+        <v>1770031910</v>
       </c>
       <c r="D154" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B155">
-        <v>7904305</v>
+        <v>7912856</v>
       </c>
       <c r="C155" s="2">
-        <v>1750200435</v>
+        <v>1750215294</v>
       </c>
       <c r="D155" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B156">
-        <v>7905105</v>
+        <v>7913107</v>
       </c>
       <c r="C156" s="2">
-        <v>1750059284</v>
+        <v>1750200435</v>
       </c>
       <c r="D156" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B157">
-        <v>7905109</v>
+        <v>7914619</v>
       </c>
       <c r="C157" s="2">
-        <v>1750169942</v>
+        <v>1750200435</v>
       </c>
       <c r="D157" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B158">
-        <v>7905109</v>
+        <v>7914619</v>
       </c>
       <c r="C158" s="2">
-        <v>1750154145</v>
+        <v>1750214647</v>
       </c>
       <c r="D158" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B159">
-        <v>7905109</v>
-      </c>
-      <c r="C159" s="2">
-        <v>1750105988</v>
+        <v>7915108</v>
+      </c>
+      <c r="C159" t="s">
+        <v>82</v>
       </c>
       <c r="D159" t="s">
-        <v>113</v>
+        <v>60</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="B160">
-        <v>7909031</v>
+        <v>7915512</v>
       </c>
       <c r="C160" s="2">
-        <v>1750173205</v>
+        <v>1750053610</v>
       </c>
       <c r="D160" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="B161">
-        <v>7909307</v>
+        <v>7917231</v>
       </c>
       <c r="C161" s="2">
-        <v>1750188523</v>
+        <v>1750350686</v>
       </c>
       <c r="D161" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="B162">
-        <v>7910329</v>
+        <v>7917231</v>
       </c>
       <c r="C162" s="2">
-        <v>1750173205</v>
+        <v>1750301986</v>
       </c>
       <c r="D162" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B163">
-        <v>7912762</v>
-      </c>
-      <c r="C163" s="2">
-        <v>1804610970</v>
+        <v>7917418</v>
+      </c>
+      <c r="C163" t="s">
+        <v>76</v>
       </c>
       <c r="D163" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B164">
-        <v>7912762</v>
+        <v>7917809</v>
       </c>
       <c r="C164" s="2">
-        <v>1770031910</v>
+        <v>1750256247</v>
       </c>
       <c r="D164" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B165">
-        <v>7912856</v>
+        <v>7919567</v>
       </c>
       <c r="C165" s="2">
-        <v>1750215294</v>
+        <v>1750190038</v>
       </c>
       <c r="D165" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B166">
-        <v>7913086</v>
+        <v>7919667</v>
       </c>
       <c r="C166" s="2">
-        <v>1750109659</v>
+        <v>1750067867</v>
       </c>
       <c r="D166" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B167">
-        <v>7913086</v>
+        <v>7919667</v>
       </c>
       <c r="C167" s="2">
         <v>1750105988</v>
       </c>
       <c r="D167" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B168">
-        <v>7913107</v>
+        <v>7920272</v>
       </c>
       <c r="C168" s="2">
-        <v>1750200435</v>
+        <v>1750109659</v>
       </c>
       <c r="D168" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B169">
-        <v>7914619</v>
+        <v>7920272</v>
       </c>
       <c r="C169" s="2">
-        <v>1750200435</v>
+        <v>1750109615</v>
       </c>
       <c r="D169" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B170">
-        <v>7914619</v>
+        <v>7920574</v>
       </c>
       <c r="C170" s="2">
-        <v>1750214647</v>
+        <v>1750200435</v>
       </c>
       <c r="D170" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B171">
-        <v>7915108</v>
-      </c>
-      <c r="C171" t="s">
-        <v>89</v>
+        <v>7920574</v>
+      </c>
+      <c r="C171" s="2">
+        <v>1750214647</v>
       </c>
       <c r="D171" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="B172">
-        <v>7917231</v>
+        <v>7921936</v>
       </c>
       <c r="C172" s="2">
-        <v>1750350686</v>
+        <v>1750200435</v>
       </c>
       <c r="D172" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="B173">
-        <v>7917231</v>
-      </c>
-      <c r="C173" s="2">
-        <v>1750301986</v>
+        <v>7924355</v>
+      </c>
+      <c r="C173" t="s">
+        <v>5</v>
       </c>
       <c r="D173" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B174">
-        <v>7917418</v>
-      </c>
-      <c r="C174" t="s">
-        <v>83</v>
+        <v>7924902</v>
+      </c>
+      <c r="C174" s="2">
+        <v>1750200435</v>
       </c>
       <c r="D174" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="B175">
-        <v>7917809</v>
-      </c>
-      <c r="C175" s="2">
-        <v>1750256247</v>
+        <v>7924940</v>
+      </c>
+      <c r="C175" t="s">
+        <v>101</v>
       </c>
       <c r="D175" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="B176">
-        <v>7919567</v>
+        <v>7925113</v>
       </c>
       <c r="C176" s="2">
-        <v>1750190038</v>
+        <v>1750215295</v>
       </c>
       <c r="D176" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>46</v>
+        <v>117</v>
       </c>
       <c r="B177">
-        <v>7919667</v>
+        <v>7925266</v>
       </c>
       <c r="C177" s="2">
-        <v>1750067867</v>
+        <v>1750222982</v>
       </c>
       <c r="D177" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="B178">
-        <v>7919667</v>
-      </c>
-      <c r="C178" s="2">
-        <v>1750105988</v>
+        <v>7926268</v>
+      </c>
+      <c r="C178" t="s">
+        <v>119</v>
       </c>
       <c r="D178" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="B179">
-        <v>7920272</v>
+        <v>7926363</v>
       </c>
       <c r="C179" s="2">
-        <v>1750109659</v>
+        <v>1750044878</v>
       </c>
       <c r="D179" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="B180">
-        <v>7920272</v>
+        <v>7926430</v>
       </c>
       <c r="C180" s="2">
-        <v>1750109615</v>
+        <v>1750109659</v>
       </c>
       <c r="D180" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="B181">
-        <v>7920574</v>
+        <v>7926430</v>
       </c>
       <c r="C181" s="2">
-        <v>1750200435</v>
+        <v>1750109615</v>
       </c>
       <c r="D181" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B182">
-        <v>7920574</v>
-      </c>
-      <c r="C182" s="2">
-        <v>1750214647</v>
+        <v>7926496</v>
+      </c>
+      <c r="C182" t="s">
+        <v>123</v>
       </c>
       <c r="D182" t="s">
-        <v>124</v>
+        <v>60</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B183">
-        <v>7921936</v>
+        <v>7926501</v>
       </c>
       <c r="C183" s="2">
-        <v>1750200435</v>
+        <v>1750110044</v>
       </c>
       <c r="D183" t="s">
-        <v>118</v>
+        <v>60</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B184">
-        <v>7924355</v>
-      </c>
-      <c r="C184" t="s">
-        <v>5</v>
+        <v>7929027</v>
+      </c>
+      <c r="C184" s="2">
+        <v>1750105679</v>
       </c>
       <c r="D184" t="s">
-        <v>125</v>
+        <v>60</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B185">
-        <v>7924902</v>
+        <v>7929932</v>
       </c>
       <c r="C185" s="2">
-        <v>1750200435</v>
+        <v>1750188523</v>
       </c>
       <c r="D185" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="B186">
-        <v>7924940</v>
-      </c>
-      <c r="C186" t="s">
-        <v>109</v>
+        <v>7929932</v>
+      </c>
+      <c r="C186" s="2">
+        <v>1750101956</v>
       </c>
       <c r="D186" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="B187">
-        <v>7925113</v>
+        <v>7930608</v>
       </c>
       <c r="C187" s="2">
-        <v>1750215295</v>
+        <v>1750193275</v>
       </c>
       <c r="D187" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="B188">
-        <v>7925266</v>
+        <v>7930610</v>
       </c>
       <c r="C188" s="2">
-        <v>1750222982</v>
+        <v>1750193276</v>
       </c>
       <c r="D188" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="B189">
-        <v>7926268</v>
-      </c>
-      <c r="C189" t="s">
-        <v>130</v>
+        <v>7930610</v>
+      </c>
+      <c r="C189" s="2">
+        <v>1750220330</v>
       </c>
       <c r="D189" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="B190">
-        <v>7926363</v>
+        <v>7930610</v>
       </c>
       <c r="C190" s="2">
-        <v>1750044878</v>
+        <v>1750248000</v>
       </c>
       <c r="D190" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B191">
-        <v>7926430</v>
+        <v>7930610</v>
       </c>
       <c r="C191" s="2">
-        <v>1750109659</v>
+        <v>1750220022</v>
       </c>
       <c r="D191" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B192">
-        <v>7926430</v>
+        <v>7931010</v>
       </c>
       <c r="C192" s="2">
-        <v>1750109615</v>
+        <v>1750188523</v>
       </c>
       <c r="D192" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B193">
-        <v>7926496</v>
-      </c>
-      <c r="C193" t="s">
-        <v>134</v>
+        <v>7931010</v>
+      </c>
+      <c r="C193" s="2">
+        <v>1750263341</v>
       </c>
       <c r="D193" t="s">
-        <v>66</v>
+        <v>127</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B194">
-        <v>7926501</v>
+        <v>7931010</v>
       </c>
       <c r="C194" s="2">
-        <v>1750110044</v>
+        <v>1750245555</v>
       </c>
       <c r="D194" t="s">
-        <v>66</v>
+        <v>127</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="B195">
-        <v>7928091</v>
+        <v>7942380</v>
       </c>
       <c r="C195" s="2">
-        <v>1750092824</v>
+        <v>1750109615</v>
       </c>
       <c r="D195" t="s">
-        <v>135</v>
+        <v>60</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="B196">
-        <v>7929027</v>
-      </c>
-      <c r="C196" s="2">
-        <v>1750105679</v>
+        <v>7942448</v>
+      </c>
+      <c r="C196" t="s">
+        <v>128</v>
       </c>
       <c r="D196" t="s">
-        <v>66</v>
+        <v>129</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B197">
-        <v>7929932</v>
+        <v>7942589</v>
       </c>
       <c r="C197" s="2">
-        <v>1750188523</v>
+        <v>1750100966</v>
       </c>
       <c r="D197" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="B198">
-        <v>7929932</v>
+        <v>7943149</v>
       </c>
       <c r="C198" s="2">
-        <v>1750101956</v>
+        <v>1750200435</v>
       </c>
       <c r="D198" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B199">
-        <v>7930608</v>
+        <v>7945233</v>
       </c>
       <c r="C199" s="2">
-        <v>1750193275</v>
+        <v>1750215295</v>
       </c>
       <c r="D199" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B200">
-        <v>7930610</v>
+        <v>7945303</v>
       </c>
       <c r="C200" s="2">
-        <v>1750193276</v>
+        <v>1750193275</v>
       </c>
       <c r="D200" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B201">
-        <v>7930610</v>
+        <v>7946733</v>
       </c>
       <c r="C201" s="2">
-        <v>1750220330</v>
+        <v>1750155446</v>
       </c>
       <c r="D201" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B202">
-        <v>7930610</v>
+        <v>7946733</v>
       </c>
       <c r="C202" s="2">
-        <v>1750248000</v>
+        <v>1750187030</v>
       </c>
       <c r="D202" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B203">
-        <v>7930610</v>
+        <v>7946970</v>
       </c>
       <c r="C203" s="2">
-        <v>1750220022</v>
+        <v>1750200435</v>
       </c>
       <c r="D203" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B204">
-        <v>7931010</v>
+        <v>7947736</v>
       </c>
       <c r="C204" s="2">
-        <v>1750188523</v>
+        <v>1750215294</v>
       </c>
       <c r="D204" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B205">
-        <v>7931010</v>
+        <v>7947847</v>
       </c>
       <c r="C205" s="2">
-        <v>1750263341</v>
+        <v>1750214647</v>
       </c>
       <c r="D205" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B206">
-        <v>7931010</v>
+        <v>7947847</v>
       </c>
       <c r="C206" s="2">
-        <v>1750245555</v>
+        <v>1750212682</v>
       </c>
       <c r="D206" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B207">
-        <v>7942380</v>
+        <v>7947847</v>
       </c>
       <c r="C207" s="2">
-        <v>1750109615</v>
+        <v>1750140781</v>
       </c>
       <c r="D207" t="s">
-        <v>66</v>
+        <v>136</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B208">
-        <v>7942448</v>
-      </c>
-      <c r="C208" t="s">
-        <v>140</v>
+        <v>7947866</v>
+      </c>
+      <c r="C208" s="2">
+        <v>1750126457</v>
       </c>
       <c r="D208" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B209">
-        <v>7942589</v>
+        <v>7947866</v>
       </c>
       <c r="C209" s="2">
-        <v>1750100966</v>
+        <v>1750196174</v>
       </c>
       <c r="D209" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="B210">
-        <v>7943149</v>
+        <v>7947912</v>
       </c>
       <c r="C210" s="2">
-        <v>1750200435</v>
+        <v>1750109641</v>
       </c>
       <c r="D210" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="B211">
-        <v>7945233</v>
+        <v>7947978</v>
       </c>
       <c r="C211" s="2">
-        <v>1750215295</v>
+        <v>1750105679</v>
       </c>
       <c r="D211" t="s">
-        <v>144</v>
+        <v>60</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B212">
-        <v>7945303</v>
+        <v>7947978</v>
       </c>
       <c r="C212" s="2">
-        <v>1750193275</v>
+        <v>1750109615</v>
       </c>
       <c r="D212" t="s">
-        <v>145</v>
+        <v>60</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B213">
-        <v>7945437</v>
+        <v>7949223</v>
       </c>
       <c r="C213" s="2">
         <v>1750200435</v>
       </c>
       <c r="D213" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>147</v>
+        <v>59</v>
       </c>
       <c r="B214">
-        <v>7945510</v>
-      </c>
-      <c r="C214" s="2">
-        <v>1750092824</v>
+        <v>7952640</v>
+      </c>
+      <c r="C214" t="s">
+        <v>78</v>
       </c>
       <c r="D214" t="s">
-        <v>148</v>
+        <v>60</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B215">
-        <v>7946338</v>
+        <v>7952699</v>
       </c>
       <c r="C215" s="2">
-        <v>1750109659</v>
+        <v>1750215295</v>
       </c>
       <c r="D215" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B216">
-        <v>7946338</v>
+        <v>7952699</v>
       </c>
       <c r="C216" s="2">
-        <v>1750109641</v>
+        <v>1750215294</v>
       </c>
       <c r="D216" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B217">
-        <v>7946733</v>
+        <v>7952778</v>
       </c>
       <c r="C217" s="2">
-        <v>1750155446</v>
+        <v>1750188546</v>
       </c>
       <c r="D217" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="B218">
-        <v>7946733</v>
-      </c>
-      <c r="C218" s="2">
-        <v>1750187030</v>
+        <v>7952908</v>
+      </c>
+      <c r="C218" t="s">
+        <v>143</v>
       </c>
       <c r="D218" t="s">
-        <v>150</v>
+        <v>60</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B219">
-        <v>7946970</v>
+        <v>7952925</v>
       </c>
       <c r="C219" s="2">
         <v>1750200435</v>
       </c>
       <c r="D219" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B220">
-        <v>7947736</v>
+        <v>7953388</v>
       </c>
       <c r="C220" s="2">
-        <v>1750215294</v>
+        <v>1750109641</v>
       </c>
       <c r="D220" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B221">
-        <v>7947847</v>
+        <v>7953388</v>
       </c>
       <c r="C221" s="2">
-        <v>1750214647</v>
+        <v>1750035762</v>
       </c>
       <c r="D221" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B222">
-        <v>7947847</v>
+        <v>7954123</v>
       </c>
       <c r="C222" s="2">
-        <v>1750212682</v>
+        <v>1750173205</v>
       </c>
       <c r="D222" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B223">
-        <v>7947847</v>
+        <v>7955646</v>
       </c>
       <c r="C223" s="2">
-        <v>1750140781</v>
+        <v>1750200435</v>
       </c>
       <c r="D223" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B224">
-        <v>7947866</v>
-      </c>
-      <c r="C224" s="2">
-        <v>1750126457</v>
+        <v>7955813</v>
+      </c>
+      <c r="C224" t="s">
+        <v>101</v>
       </c>
       <c r="D224" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B225">
-        <v>7947866</v>
+        <v>7956551</v>
       </c>
       <c r="C225" s="2">
-        <v>1750196174</v>
+        <v>1750222982</v>
       </c>
       <c r="D225" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B226">
-        <v>7947978</v>
+        <v>7956807</v>
       </c>
       <c r="C226" s="2">
-        <v>1750105679</v>
+        <v>1750056193</v>
       </c>
       <c r="D226" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B227">
-        <v>7947978</v>
+        <v>7957257</v>
       </c>
       <c r="C227" s="2">
-        <v>1750109615</v>
+        <v>1750126457</v>
       </c>
       <c r="D227" t="s">
-        <v>66</v>
+        <v>150</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="B228">
-        <v>7949223</v>
+        <v>7958425</v>
       </c>
       <c r="C228" s="2">
-        <v>1750193275</v>
+        <v>1750222982</v>
       </c>
       <c r="D228" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="B229">
-        <v>7952640</v>
-      </c>
-      <c r="C229" t="s">
-        <v>85</v>
+        <v>7959520</v>
+      </c>
+      <c r="C229" s="2">
+        <v>1750109641</v>
       </c>
       <c r="D229" t="s">
-        <v>66</v>
+        <v>152</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="B230">
-        <v>7952699</v>
+        <v>7959577</v>
       </c>
       <c r="C230" s="2">
-        <v>1750215295</v>
+        <v>1750234950</v>
       </c>
       <c r="D230" t="s">
-        <v>155</v>
+        <v>60</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B231">
-        <v>7952699</v>
+        <v>7959985</v>
       </c>
       <c r="C231" s="2">
-        <v>1750215294</v>
+        <v>1750215295</v>
       </c>
       <c r="D231" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B232">
-        <v>7952778</v>
+        <v>7960728</v>
       </c>
       <c r="C232" s="2">
-        <v>1750188546</v>
+        <v>1750189650</v>
       </c>
       <c r="D232" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B233">
-        <v>7952908</v>
-      </c>
-      <c r="C233" t="s">
-        <v>157</v>
+        <v>7960728</v>
+      </c>
+      <c r="C233" s="2">
+        <v>1750053977</v>
       </c>
       <c r="D233" t="s">
-        <v>66</v>
+        <v>154</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B234">
-        <v>7952925</v>
+        <v>7960730</v>
       </c>
       <c r="C234" s="2">
         <v>1750200435</v>
       </c>
       <c r="D234" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B235">
-        <v>7953388</v>
+        <v>7960732</v>
       </c>
       <c r="C235" s="2">
-        <v>1750109641</v>
+        <v>1750193275</v>
       </c>
       <c r="D235" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B236">
-        <v>7953388</v>
+        <v>7960739</v>
       </c>
       <c r="C236" s="2">
-        <v>1750035762</v>
+        <v>1750193275</v>
       </c>
       <c r="D236" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B237">
-        <v>7953848</v>
-      </c>
-      <c r="C237" t="s">
-        <v>109</v>
+        <v>7961200</v>
+      </c>
+      <c r="C237" s="2">
+        <v>1750200435</v>
       </c>
       <c r="D237" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="B238">
-        <v>7954123</v>
+        <v>7961672</v>
       </c>
       <c r="C238" s="2">
-        <v>1750173205</v>
+        <v>1750188546</v>
       </c>
       <c r="D238" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="B239">
-        <v>7955646</v>
+        <v>7961919</v>
       </c>
       <c r="C239" s="2">
-        <v>1750200435</v>
+        <v>1750044668</v>
       </c>
       <c r="D239" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B240">
-        <v>7955813</v>
+        <v>7963480</v>
       </c>
       <c r="C240" t="s">
-        <v>109</v>
+        <v>5</v>
       </c>
       <c r="D240" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B241">
-        <v>7956551</v>
+        <v>7964068</v>
       </c>
       <c r="C241" s="2">
-        <v>1750222982</v>
+        <v>1750214647</v>
       </c>
       <c r="D241" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B242">
-        <v>7956807</v>
+        <v>7964068</v>
       </c>
       <c r="C242" s="2">
-        <v>1750056193</v>
+        <v>1750263341</v>
       </c>
       <c r="D242" t="s">
-        <v>66</v>
+        <v>161</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B243">
-        <v>7957257</v>
+        <v>7964068</v>
       </c>
       <c r="C243" s="2">
-        <v>1750126457</v>
+        <v>1750101956</v>
       </c>
       <c r="D243" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="B244">
-        <v>7958425</v>
+        <v>7964164</v>
       </c>
       <c r="C244" s="2">
-        <v>1750222982</v>
+        <v>1770041364</v>
       </c>
       <c r="D244" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B245">
-        <v>7959520</v>
+        <v>7966435</v>
       </c>
       <c r="C245" s="2">
-        <v>1750109641</v>
+        <v>1750220000</v>
       </c>
       <c r="D245" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B246">
-        <v>7959985</v>
+        <v>7966435</v>
       </c>
       <c r="C246" s="2">
-        <v>1750215295</v>
+        <v>1750248000</v>
       </c>
       <c r="D246" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B247">
-        <v>7960728</v>
+        <v>7967194</v>
       </c>
       <c r="C247" s="2">
-        <v>1750189650</v>
+        <v>1750220000</v>
       </c>
       <c r="D247" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B248">
-        <v>7960728</v>
+        <v>7967194</v>
       </c>
       <c r="C248" s="2">
-        <v>1750053977</v>
+        <v>1750220022</v>
       </c>
       <c r="D248" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B249">
-        <v>7960730</v>
-      </c>
-      <c r="C249" s="2">
-        <v>1750200435</v>
+        <v>7967726</v>
+      </c>
+      <c r="C249" t="s">
+        <v>5</v>
       </c>
       <c r="D249" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B250">
-        <v>7960732</v>
-      </c>
-      <c r="C250" s="2">
-        <v>1750193275</v>
+        <v>7967730</v>
+      </c>
+      <c r="C250" t="s">
+        <v>167</v>
       </c>
       <c r="D250" t="s">
-        <v>171</v>
+        <v>60</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B251">
-        <v>7960739</v>
-      </c>
-      <c r="C251" s="2">
-        <v>1750193275</v>
+        <v>7967730</v>
+      </c>
+      <c r="C251" t="s">
+        <v>76</v>
       </c>
       <c r="D251" t="s">
-        <v>172</v>
+        <v>60</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B252">
-        <v>7961200</v>
+        <v>7967764</v>
       </c>
       <c r="C252" s="2">
-        <v>1750200435</v>
+        <v>1770041364</v>
       </c>
       <c r="D252" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="B253">
-        <v>7961672</v>
+        <v>7967825</v>
       </c>
       <c r="C253" s="2">
-        <v>1750188546</v>
+        <v>1750304622</v>
       </c>
       <c r="D253" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="B254">
-        <v>7961919</v>
-      </c>
-      <c r="C254" s="2">
-        <v>1750044668</v>
+        <v>7967825</v>
+      </c>
+      <c r="C254" t="s">
+        <v>171</v>
       </c>
       <c r="D254" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>46</v>
+        <v>172</v>
       </c>
       <c r="B255">
-        <v>7963480</v>
-      </c>
-      <c r="C255" t="s">
-        <v>5</v>
+        <v>7967829</v>
+      </c>
+      <c r="C255" s="2">
+        <v>1750222982</v>
       </c>
       <c r="D255" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>50</v>
+        <v>172</v>
       </c>
       <c r="B256">
-        <v>7964068</v>
+        <v>7967829</v>
       </c>
       <c r="C256" s="2">
-        <v>1750214647</v>
+        <v>1750105679</v>
       </c>
       <c r="D256" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B257">
-        <v>7964068</v>
+        <v>7968148</v>
       </c>
       <c r="C257" s="2">
-        <v>1750263341</v>
+        <v>1750109641</v>
       </c>
       <c r="D257" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="B258">
-        <v>7964068</v>
+        <v>7968426</v>
       </c>
       <c r="C258" s="2">
-        <v>1750101956</v>
+        <v>1750092824</v>
       </c>
       <c r="D258" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>177</v>
+        <v>48</v>
       </c>
       <c r="B259">
-        <v>7964164</v>
+        <v>7968518</v>
       </c>
       <c r="C259" s="2">
-        <v>1770041364</v>
+        <v>1750173205</v>
       </c>
       <c r="D259" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="B260">
-        <v>7966435</v>
+        <v>7968759</v>
       </c>
       <c r="C260" s="2">
-        <v>1750220000</v>
+        <v>1750188546</v>
       </c>
       <c r="D260" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B261">
-        <v>7966435</v>
+        <v>7968924</v>
       </c>
       <c r="C261" s="2">
-        <v>1750248000</v>
+        <v>1750109659</v>
       </c>
       <c r="D261" t="s">
-        <v>179</v>
+        <v>60</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B262">
-        <v>7967194</v>
+        <v>7969037</v>
       </c>
       <c r="C262" s="2">
-        <v>1750220000</v>
+        <v>1750215295</v>
       </c>
       <c r="D262" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B263">
-        <v>7967194</v>
+        <v>7969146</v>
       </c>
       <c r="C263" s="2">
-        <v>1750220022</v>
+        <v>1750200435</v>
       </c>
       <c r="D263" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B264">
-        <v>7967726</v>
-      </c>
-      <c r="C264" t="s">
-        <v>5</v>
+        <v>7969146</v>
+      </c>
+      <c r="C264" s="2">
+        <v>1750200541</v>
       </c>
       <c r="D264" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="B265">
-        <v>7967730</v>
+        <v>7969156</v>
       </c>
       <c r="C265" t="s">
-        <v>182</v>
+        <v>101</v>
       </c>
       <c r="D265" t="s">
-        <v>66</v>
+        <v>148</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="B266">
-        <v>7967730</v>
-      </c>
-      <c r="C266" t="s">
-        <v>83</v>
+        <v>7969367</v>
+      </c>
+      <c r="C266" s="2">
+        <v>1750188523</v>
       </c>
       <c r="D266" t="s">
-        <v>66</v>
+        <v>179</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B267">
-        <v>7967764</v>
+        <v>7969374</v>
       </c>
       <c r="C267" s="2">
-        <v>1770041364</v>
+        <v>1750200435</v>
       </c>
       <c r="D267" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>147</v>
+        <v>94</v>
       </c>
       <c r="B268">
-        <v>7967825</v>
-      </c>
-      <c r="C268" s="2">
-        <v>1750304622</v>
+        <v>7970398</v>
+      </c>
+      <c r="C268" t="s">
+        <v>128</v>
       </c>
       <c r="D268" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>147</v>
+        <v>94</v>
       </c>
       <c r="B269">
-        <v>7967825</v>
+        <v>7970398</v>
       </c>
       <c r="C269" t="s">
-        <v>185</v>
+        <v>57</v>
       </c>
       <c r="D269" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>186</v>
+        <v>45</v>
       </c>
       <c r="B270">
-        <v>7967829</v>
+        <v>7970595</v>
       </c>
       <c r="C270" s="2">
-        <v>1750222982</v>
+        <v>1750200541</v>
       </c>
       <c r="D270" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>186</v>
+        <v>45</v>
       </c>
       <c r="B271">
-        <v>7967829</v>
+        <v>7970595</v>
       </c>
       <c r="C271" s="2">
-        <v>1750105679</v>
+        <v>1750214647</v>
       </c>
       <c r="D271" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="B272">
-        <v>7968148</v>
+        <v>7971064</v>
       </c>
       <c r="C272" s="2">
         <v>1750109641</v>
       </c>
       <c r="D272" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
@@ -5140,433 +5101,433 @@
         <v>10</v>
       </c>
       <c r="B273">
-        <v>7968426</v>
+        <v>7971177</v>
       </c>
       <c r="C273" s="2">
-        <v>1750092824</v>
+        <v>1750173205</v>
       </c>
       <c r="D273" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B274">
-        <v>7968518</v>
+        <v>7971383</v>
       </c>
       <c r="C274" s="2">
-        <v>1750173205</v>
+        <v>1750200435</v>
       </c>
       <c r="D274" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B275">
-        <v>7968759</v>
+        <v>7971741</v>
       </c>
       <c r="C275" s="2">
-        <v>1750188546</v>
+        <v>1750200435</v>
       </c>
       <c r="D275" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B276">
-        <v>7968924</v>
+        <v>7972029</v>
       </c>
       <c r="C276" s="2">
-        <v>1750109659</v>
+        <v>1750248000</v>
       </c>
       <c r="D276" t="s">
-        <v>66</v>
+        <v>187</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B277">
-        <v>7969037</v>
+        <v>7972029</v>
       </c>
       <c r="C277" s="2">
-        <v>1750215295</v>
+        <v>1750220330</v>
       </c>
       <c r="D277" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B278">
-        <v>7969146</v>
+        <v>7973015</v>
       </c>
       <c r="C278" s="2">
-        <v>1750200435</v>
+        <v>1750200541</v>
       </c>
       <c r="D278" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B279">
-        <v>7969146</v>
+        <v>7973015</v>
       </c>
       <c r="C279" s="2">
-        <v>1750200541</v>
+        <v>1750245555</v>
       </c>
       <c r="D279" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B280">
-        <v>7969156</v>
-      </c>
-      <c r="C280" t="s">
-        <v>109</v>
+        <v>7973015</v>
+      </c>
+      <c r="C280" s="2">
+        <v>1750134478</v>
       </c>
       <c r="D280" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="B281">
-        <v>7969367</v>
+        <v>7973015</v>
       </c>
       <c r="C281" s="2">
-        <v>1750188523</v>
+        <v>1750263341</v>
       </c>
       <c r="D281" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B282">
-        <v>7969374</v>
+        <v>7973357</v>
       </c>
       <c r="C282" s="2">
-        <v>1750200435</v>
+        <v>1750220022</v>
       </c>
       <c r="D282" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="B283">
-        <v>7970398</v>
-      </c>
-      <c r="C283" t="s">
-        <v>140</v>
+        <v>7973357</v>
+      </c>
+      <c r="C283" s="2">
+        <v>1750220000</v>
       </c>
       <c r="D283" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="B284">
-        <v>7970398</v>
-      </c>
-      <c r="C284" t="s">
-        <v>63</v>
+        <v>7973357</v>
+      </c>
+      <c r="C284" s="2">
+        <v>1750200435</v>
       </c>
       <c r="D284" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="B285">
-        <v>7970595</v>
-      </c>
-      <c r="C285" s="2">
-        <v>1750200541</v>
+        <v>7973399</v>
+      </c>
+      <c r="C285" t="s">
+        <v>190</v>
       </c>
       <c r="D285" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B286">
-        <v>7970595</v>
+        <v>7973493</v>
       </c>
       <c r="C286" s="2">
-        <v>1750214647</v>
+        <v>1750101956</v>
       </c>
       <c r="D286" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B287">
-        <v>7971064</v>
+        <v>7973493</v>
       </c>
       <c r="C287" s="2">
-        <v>1750109641</v>
+        <v>1750188523</v>
       </c>
       <c r="D287" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B288">
-        <v>7971177</v>
+        <v>7973493</v>
       </c>
       <c r="C288" s="2">
-        <v>1750173205</v>
+        <v>1750101952</v>
       </c>
       <c r="D288" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B289">
-        <v>7971383</v>
+        <v>7973493</v>
       </c>
       <c r="C289" s="2">
-        <v>1750200435</v>
+        <v>1750188524</v>
       </c>
       <c r="D289" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B290">
-        <v>7971741</v>
-      </c>
-      <c r="C290" s="2">
-        <v>1750200435</v>
+        <v>7973493</v>
+      </c>
+      <c r="C290" t="s">
+        <v>193</v>
       </c>
       <c r="D290" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B291">
-        <v>7972029</v>
-      </c>
-      <c r="C291" s="2">
-        <v>1750248000</v>
+        <v>7973493</v>
+      </c>
+      <c r="C291" t="s">
+        <v>194</v>
       </c>
       <c r="D291" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B292">
-        <v>7972029</v>
-      </c>
-      <c r="C292" s="2">
-        <v>1750220330</v>
+        <v>7973493</v>
+      </c>
+      <c r="C292" t="s">
+        <v>194</v>
       </c>
       <c r="D292" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="B293">
-        <v>7973015</v>
+        <v>7973637</v>
       </c>
       <c r="C293" s="2">
-        <v>1750200541</v>
+        <v>1750188546</v>
       </c>
       <c r="D293" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="B294">
-        <v>7973015</v>
+        <v>7974004</v>
       </c>
       <c r="C294" s="2">
-        <v>1750245555</v>
+        <v>1750109659</v>
       </c>
       <c r="D294" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="B295">
-        <v>7973015</v>
+        <v>7974004</v>
       </c>
       <c r="C295" s="2">
-        <v>1750134478</v>
+        <v>1750109615</v>
       </c>
       <c r="D295" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B296">
-        <v>7973015</v>
+        <v>7974287</v>
       </c>
       <c r="C296" s="2">
-        <v>1750263341</v>
+        <v>1750130600</v>
       </c>
       <c r="D296" t="s">
-        <v>202</v>
+        <v>60</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="B297">
-        <v>7973357</v>
+        <v>7974671</v>
       </c>
       <c r="C297" s="2">
-        <v>1750220022</v>
+        <v>1750105986</v>
       </c>
       <c r="D297" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>50</v>
+        <v>198</v>
       </c>
       <c r="B298">
-        <v>7973357</v>
+        <v>7975903</v>
       </c>
       <c r="C298" s="2">
-        <v>1750220000</v>
+        <v>1750053690</v>
       </c>
       <c r="D298" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B299">
-        <v>7973357</v>
+        <v>7975982</v>
       </c>
       <c r="C299" s="2">
-        <v>1750200435</v>
+        <v>1750248000</v>
       </c>
       <c r="D299" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B300">
-        <v>7973399</v>
-      </c>
-      <c r="C300" t="s">
-        <v>204</v>
+        <v>7975982</v>
+      </c>
+      <c r="C300" s="2">
+        <v>1750220330</v>
       </c>
       <c r="D300" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B301">
-        <v>7973493</v>
+        <v>7976330</v>
       </c>
       <c r="C301" s="2">
-        <v>1750101956</v>
+        <v>1750222982</v>
       </c>
       <c r="D301" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B302">
-        <v>7973493</v>
+        <v>7976745</v>
       </c>
       <c r="C302" s="2">
-        <v>1750188523</v>
+        <v>1750105988</v>
       </c>
       <c r="D302" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="B303">
-        <v>7973493</v>
+        <v>7977137</v>
       </c>
       <c r="C303" s="2">
-        <v>1750101952</v>
+        <v>1750200435</v>
       </c>
       <c r="D303" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
@@ -5574,41 +5535,41 @@
         <v>8</v>
       </c>
       <c r="B304">
-        <v>7973493</v>
+        <v>7977336</v>
       </c>
       <c r="C304" s="2">
-        <v>1750188524</v>
+        <v>1750173205</v>
       </c>
       <c r="D304" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="B305">
-        <v>7973493</v>
-      </c>
-      <c r="C305" t="s">
-        <v>207</v>
+        <v>7978510</v>
+      </c>
+      <c r="C305" s="2">
+        <v>1750215294</v>
       </c>
       <c r="D305" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="B306">
-        <v>7973493</v>
-      </c>
-      <c r="C306" t="s">
-        <v>208</v>
+        <v>7978510</v>
+      </c>
+      <c r="C306" s="2">
+        <v>1750215295</v>
       </c>
       <c r="D306" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
@@ -5616,69 +5577,69 @@
         <v>8</v>
       </c>
       <c r="B307">
-        <v>7973493</v>
-      </c>
-      <c r="C307" t="s">
-        <v>208</v>
+        <v>7978626</v>
+      </c>
+      <c r="C307" s="2">
+        <v>1750173205</v>
       </c>
       <c r="D307" t="s">
-        <v>206</v>
+        <v>163</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="B308">
-        <v>7973637</v>
+        <v>7978655</v>
       </c>
       <c r="C308" s="2">
-        <v>1750188546</v>
+        <v>1750220022</v>
       </c>
       <c r="D308" t="s">
-        <v>209</v>
+        <v>60</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="B309">
-        <v>7974004</v>
+        <v>7978655</v>
       </c>
       <c r="C309" s="2">
-        <v>1750109659</v>
+        <v>1750220330</v>
       </c>
       <c r="D309" t="s">
-        <v>210</v>
+        <v>60</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="B310">
-        <v>7974004</v>
+        <v>7978655</v>
       </c>
       <c r="C310" s="2">
-        <v>1750109615</v>
+        <v>1750239538</v>
       </c>
       <c r="D310" t="s">
-        <v>210</v>
+        <v>60</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B311">
-        <v>7974287</v>
+        <v>7978655</v>
       </c>
       <c r="C311" s="2">
-        <v>1750130600</v>
+        <v>1750289153</v>
       </c>
       <c r="D311" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
@@ -5686,223 +5647,223 @@
         <v>10</v>
       </c>
       <c r="B312">
-        <v>7974671</v>
-      </c>
-      <c r="C312" s="2">
-        <v>1750105986</v>
+        <v>7978826</v>
+      </c>
+      <c r="C312" t="s">
+        <v>101</v>
       </c>
       <c r="D312" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>212</v>
+        <v>48</v>
       </c>
       <c r="B313">
-        <v>7975903</v>
+        <v>7979255</v>
       </c>
       <c r="C313" s="2">
-        <v>1750053690</v>
+        <v>1750105988</v>
       </c>
       <c r="D313" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B314">
-        <v>7975982</v>
+        <v>7979396</v>
       </c>
       <c r="C314" s="2">
-        <v>1750248000</v>
+        <v>1750053977</v>
       </c>
       <c r="D314" t="s">
-        <v>214</v>
+        <v>60</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B315">
-        <v>7975982</v>
+        <v>7979436</v>
       </c>
       <c r="C315" s="2">
-        <v>1750220330</v>
+        <v>1750200435</v>
       </c>
       <c r="D315" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B316">
-        <v>7976330</v>
+        <v>7979551</v>
       </c>
       <c r="C316" s="2">
-        <v>1750222982</v>
+        <v>1750134478</v>
       </c>
       <c r="D316" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="B317">
-        <v>7976347</v>
+        <v>7979551</v>
       </c>
       <c r="C317" s="2">
-        <v>1750177464</v>
+        <v>1750214647</v>
       </c>
       <c r="D317" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B318">
-        <v>7976745</v>
+        <v>7979609</v>
       </c>
       <c r="C318" s="2">
-        <v>1750105988</v>
+        <v>1750200435</v>
       </c>
       <c r="D318" t="s">
-        <v>217</v>
+        <v>186</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>50</v>
+        <v>198</v>
       </c>
       <c r="B319">
-        <v>7977137</v>
+        <v>7979806</v>
       </c>
       <c r="C319" s="2">
-        <v>1750200435</v>
+        <v>1750261447</v>
       </c>
       <c r="D319" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B320">
-        <v>7977336</v>
+        <v>7979880</v>
       </c>
       <c r="C320" s="2">
-        <v>1750173205</v>
+        <v>1750105988</v>
       </c>
       <c r="D320" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B321">
-        <v>7978510</v>
+        <v>7983248</v>
       </c>
       <c r="C321" s="2">
-        <v>1750215294</v>
+        <v>1750109615</v>
       </c>
       <c r="D321" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B322">
-        <v>7978510</v>
+        <v>7983283</v>
       </c>
       <c r="C322" s="2">
-        <v>1750215295</v>
+        <v>1750105679</v>
       </c>
       <c r="D322" t="s">
-        <v>220</v>
+        <v>60</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="B323">
-        <v>7978626</v>
-      </c>
-      <c r="C323" s="2">
-        <v>1750173205</v>
+        <v>7983339</v>
+      </c>
+      <c r="C323">
+        <v>1750177464</v>
       </c>
       <c r="D323" t="s">
-        <v>178</v>
+        <v>211</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B324">
-        <v>7978655</v>
-      </c>
-      <c r="C324" s="2">
-        <v>1750220022</v>
+        <v>7983339</v>
+      </c>
+      <c r="C324">
+        <v>1750188523</v>
       </c>
       <c r="D324" t="s">
-        <v>66</v>
+        <v>211</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>65</v>
+        <v>198</v>
       </c>
       <c r="B325">
-        <v>7978655</v>
+        <v>7983535</v>
       </c>
       <c r="C325" s="2">
-        <v>1750220330</v>
+        <v>1750053690</v>
       </c>
       <c r="D325" t="s">
-        <v>66</v>
+        <v>212</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="B326">
-        <v>7978655</v>
-      </c>
-      <c r="C326" s="2">
-        <v>1750239538</v>
+        <v>7983732</v>
+      </c>
+      <c r="C326" t="s">
+        <v>101</v>
       </c>
       <c r="D326" t="s">
-        <v>66</v>
+        <v>213</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="B327">
-        <v>7978655</v>
+        <v>7983972</v>
       </c>
       <c r="C327" s="2">
-        <v>1750289153</v>
+        <v>1750177464</v>
       </c>
       <c r="D327" t="s">
-        <v>66</v>
+        <v>214</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.3">
@@ -5910,531 +5871,531 @@
         <v>10</v>
       </c>
       <c r="B328">
-        <v>7978826</v>
-      </c>
-      <c r="C328" t="s">
-        <v>109</v>
+        <v>7984027</v>
+      </c>
+      <c r="C328" s="2">
+        <v>1750222982</v>
       </c>
       <c r="D328" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B329">
-        <v>7979255</v>
+        <v>7984086</v>
       </c>
       <c r="C329" s="2">
-        <v>1750105988</v>
+        <v>1750220330</v>
       </c>
       <c r="D329" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B330">
-        <v>7979396</v>
+        <v>7984086</v>
       </c>
       <c r="C330" s="2">
-        <v>1750053977</v>
+        <v>1750248000</v>
       </c>
       <c r="D330" t="s">
-        <v>66</v>
+        <v>216</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B331">
-        <v>7979436</v>
+        <v>7984118</v>
       </c>
       <c r="C331" s="2">
-        <v>1750200435</v>
+        <v>1750109641</v>
       </c>
       <c r="D331" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B332">
-        <v>7979551</v>
+        <v>7984368</v>
       </c>
       <c r="C332" s="2">
-        <v>1750134478</v>
+        <v>1750263341</v>
       </c>
       <c r="D332" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B333">
-        <v>7979551</v>
+        <v>7984368</v>
       </c>
       <c r="C333" s="2">
-        <v>1750214647</v>
+        <v>1750291701</v>
       </c>
       <c r="D333" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B334">
-        <v>7979609</v>
+        <v>7984368</v>
       </c>
       <c r="C334" s="2">
-        <v>1750200435</v>
+        <v>1770041364</v>
       </c>
       <c r="D334" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>212</v>
+        <v>10</v>
       </c>
       <c r="B335">
-        <v>7979806</v>
+        <v>7984464</v>
       </c>
       <c r="C335" s="2">
-        <v>1750261447</v>
+        <v>1750109615</v>
       </c>
       <c r="D335" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B336">
-        <v>7979880</v>
+        <v>7985665</v>
       </c>
       <c r="C336" s="2">
-        <v>1750105988</v>
+        <v>1750109615</v>
       </c>
       <c r="D336" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="B337">
-        <v>7983248</v>
+        <v>7985903</v>
       </c>
       <c r="C337" s="2">
-        <v>1750109615</v>
+        <v>1750177464</v>
       </c>
       <c r="D337" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>65</v>
+        <v>162</v>
       </c>
       <c r="B338">
-        <v>7983283</v>
-      </c>
-      <c r="C338" s="2">
-        <v>1750105679</v>
+        <v>7985978</v>
+      </c>
+      <c r="C338" t="s">
+        <v>41</v>
       </c>
       <c r="D338" t="s">
-        <v>66</v>
+        <v>220</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="B339">
-        <v>7983301</v>
+        <v>7986967</v>
       </c>
       <c r="C339" s="2">
-        <v>1750302850</v>
+        <v>1750173205</v>
       </c>
       <c r="D339" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="B340">
-        <v>7983301</v>
+        <v>7987099</v>
       </c>
       <c r="C340" s="2">
-        <v>1750266439</v>
+        <v>1750044878</v>
       </c>
       <c r="D340" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B341">
-        <v>7983301</v>
+        <v>7987111</v>
       </c>
       <c r="C341" s="2">
-        <v>1750296744</v>
+        <v>1750105988</v>
       </c>
       <c r="D341" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B342">
-        <v>7983301</v>
+        <v>7987240</v>
       </c>
       <c r="C342" s="2">
-        <v>1750221968</v>
+        <v>1750109615</v>
       </c>
       <c r="D342" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="B343">
-        <v>7983339</v>
-      </c>
-      <c r="C343">
-        <v>1750188523</v>
+        <v>7987322</v>
+      </c>
+      <c r="C343" t="s">
+        <v>224</v>
       </c>
       <c r="D343" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B344">
-        <v>7983339</v>
-      </c>
-      <c r="C344">
-        <v>1750177464</v>
+        <v>7987370</v>
+      </c>
+      <c r="C344" s="2">
+        <v>1750188523</v>
       </c>
       <c r="D344" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>212</v>
+        <v>8</v>
       </c>
       <c r="B345">
-        <v>7983535</v>
+        <v>7987406</v>
       </c>
       <c r="C345" s="2">
-        <v>1750053690</v>
+        <v>1750173205</v>
       </c>
       <c r="D345" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B346">
-        <v>7983972</v>
+        <v>7987434</v>
       </c>
       <c r="C346" s="2">
-        <v>1750177464</v>
+        <v>1750105988</v>
       </c>
       <c r="D346" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B347">
-        <v>7984027</v>
+        <v>7987462</v>
       </c>
       <c r="C347" s="2">
-        <v>1750222982</v>
+        <v>1750188523</v>
       </c>
       <c r="D347" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B348">
-        <v>7984086</v>
+        <v>7987462</v>
       </c>
       <c r="C348" s="2">
-        <v>1750220330</v>
+        <v>1750177464</v>
       </c>
       <c r="D348" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B349">
-        <v>7984086</v>
+        <v>7987578</v>
       </c>
       <c r="C349" s="2">
-        <v>1750248000</v>
+        <v>1750105988</v>
       </c>
       <c r="D349" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="B350">
-        <v>7984118</v>
+        <v>7987872</v>
       </c>
       <c r="C350" s="2">
-        <v>1750109641</v>
+        <v>1750092824</v>
       </c>
       <c r="D350" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>50</v>
+        <v>198</v>
       </c>
       <c r="B351">
-        <v>7984368</v>
+        <v>7987999</v>
       </c>
       <c r="C351" s="2">
-        <v>1750263341</v>
+        <v>1750346607</v>
       </c>
       <c r="D351" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>50</v>
+        <v>198</v>
       </c>
       <c r="B352">
-        <v>7984368</v>
+        <v>7988101</v>
       </c>
       <c r="C352" s="2">
-        <v>1750291701</v>
+        <v>1750222982</v>
       </c>
       <c r="D352" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B353">
-        <v>7984368</v>
+        <v>7988124</v>
       </c>
       <c r="C353" s="2">
-        <v>1770041364</v>
+        <v>1750109615</v>
       </c>
       <c r="D353" t="s">
-        <v>233</v>
+        <v>60</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="B354">
-        <v>7984464</v>
+        <v>7989437</v>
       </c>
       <c r="C354" s="2">
-        <v>1750109615</v>
+        <v>1750101956</v>
       </c>
       <c r="D354" t="s">
-        <v>225</v>
+        <v>60</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="B355">
-        <v>7985665</v>
+        <v>7989974</v>
       </c>
       <c r="C355" s="2">
-        <v>1750109615</v>
+        <v>1750173205</v>
       </c>
       <c r="D355" t="s">
-        <v>225</v>
+        <v>163</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="B356">
-        <v>7985903</v>
+        <v>7990410</v>
       </c>
       <c r="C356" s="2">
-        <v>1750177464</v>
+        <v>1750109615</v>
       </c>
       <c r="D356" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>177</v>
+        <v>10</v>
       </c>
       <c r="B357">
-        <v>7985978</v>
-      </c>
-      <c r="C357" t="s">
-        <v>42</v>
+        <v>7990418</v>
+      </c>
+      <c r="C357" s="2">
+        <v>1750100966</v>
       </c>
       <c r="D357" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="B358">
-        <v>7986967</v>
-      </c>
-      <c r="C358" s="2">
-        <v>1750173205</v>
+        <v>7991709</v>
+      </c>
+      <c r="C358">
+        <v>1750188523</v>
       </c>
       <c r="D358" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="B359">
-        <v>7987099</v>
+        <v>7992146</v>
       </c>
       <c r="C359" s="2">
-        <v>1750044878</v>
+        <v>1750053977</v>
       </c>
       <c r="D359" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B360">
-        <v>7987111</v>
+        <v>7992146</v>
       </c>
       <c r="C360" s="2">
         <v>1750105988</v>
       </c>
       <c r="D360" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B361">
-        <v>7987211</v>
+        <v>7992155</v>
       </c>
       <c r="C361" s="2">
-        <v>1750109658</v>
+        <v>1750215295</v>
       </c>
       <c r="D361" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B362">
-        <v>7987240</v>
-      </c>
-      <c r="C362" s="2">
-        <v>1750109615</v>
+        <v>7992193</v>
+      </c>
+      <c r="C362" t="s">
+        <v>57</v>
       </c>
       <c r="D362" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B363">
-        <v>7987317</v>
+        <v>7992217</v>
       </c>
       <c r="C363" s="2">
-        <v>1750109615</v>
+        <v>1750109658</v>
       </c>
       <c r="D363" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>241</v>
+        <v>48</v>
       </c>
       <c r="B364">
-        <v>7987322</v>
-      </c>
-      <c r="C364" t="s">
-        <v>242</v>
+        <v>7992231</v>
+      </c>
+      <c r="C364" s="2">
+        <v>1750109641</v>
       </c>
       <c r="D364" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B365">
-        <v>7987370</v>
+        <v>7993496</v>
       </c>
       <c r="C365" s="2">
-        <v>1750188523</v>
+        <v>1750101956</v>
       </c>
       <c r="D365" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.3">
@@ -6442,13 +6403,13 @@
         <v>8</v>
       </c>
       <c r="B366">
-        <v>7987406</v>
+        <v>7993496</v>
       </c>
       <c r="C366" s="2">
-        <v>1750173205</v>
+        <v>1750188523</v>
       </c>
       <c r="D366" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.3">
@@ -6456,307 +6417,307 @@
         <v>10</v>
       </c>
       <c r="B367">
-        <v>7987434</v>
+        <v>7993547</v>
       </c>
       <c r="C367" s="2">
-        <v>1750105988</v>
+        <v>1750173205</v>
       </c>
       <c r="D367" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B368">
-        <v>7987462</v>
+        <v>7993626</v>
       </c>
       <c r="C368" s="2">
-        <v>1750188523</v>
+        <v>1750350682</v>
       </c>
       <c r="D368" t="s">
-        <v>247</v>
+        <v>60</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>8</v>
+        <v>198</v>
       </c>
       <c r="B369">
-        <v>7987462</v>
+        <v>7993736</v>
       </c>
       <c r="C369" s="2">
-        <v>1750177464</v>
+        <v>1750053977</v>
       </c>
       <c r="D369" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>8</v>
+        <v>198</v>
       </c>
       <c r="B370">
-        <v>7987538</v>
+        <v>7993736</v>
       </c>
       <c r="C370" s="2">
-        <v>1750109615</v>
+        <v>1750173205</v>
       </c>
       <c r="D370" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B371">
-        <v>7987578</v>
+        <v>7993882</v>
       </c>
       <c r="C371" s="2">
-        <v>1750105988</v>
+        <v>1750245555</v>
       </c>
       <c r="D371" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B372">
-        <v>7987872</v>
+        <v>7993882</v>
       </c>
       <c r="C372" s="2">
-        <v>1750092824</v>
+        <v>1750200435</v>
       </c>
       <c r="D372" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>212</v>
+        <v>45</v>
       </c>
       <c r="B373">
-        <v>7987999</v>
+        <v>7993882</v>
       </c>
       <c r="C373" s="2">
-        <v>1750346607</v>
+        <v>1750133348</v>
       </c>
       <c r="D373" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c r="B374">
-        <v>7988026</v>
+        <v>7993882</v>
       </c>
       <c r="C374" s="2">
-        <v>1750109615</v>
+        <v>1750214647</v>
       </c>
       <c r="D374" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>212</v>
+        <v>169</v>
       </c>
       <c r="B375">
-        <v>7988101</v>
-      </c>
-      <c r="C375" s="2">
-        <v>1750222982</v>
+        <v>7993886</v>
+      </c>
+      <c r="C375" t="s">
+        <v>294</v>
       </c>
       <c r="D375" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B376">
-        <v>7988124</v>
+        <v>7994017</v>
       </c>
       <c r="C376" s="2">
-        <v>1750109615</v>
+        <v>1750193275</v>
       </c>
       <c r="D376" t="s">
-        <v>66</v>
+        <v>245</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B377">
-        <v>7989437</v>
+        <v>7994017</v>
       </c>
       <c r="C377" s="2">
-        <v>1750101956</v>
+        <v>1750200435</v>
       </c>
       <c r="D377" t="s">
-        <v>66</v>
+        <v>245</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B378">
-        <v>7989974</v>
+        <v>7994308</v>
       </c>
       <c r="C378" s="2">
         <v>1750173205</v>
       </c>
       <c r="D378" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B379">
-        <v>7990410</v>
-      </c>
-      <c r="C379" s="2">
-        <v>1750109615</v>
+        <v>7994715</v>
+      </c>
+      <c r="C379" t="s">
+        <v>246</v>
       </c>
       <c r="D379" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B380">
-        <v>7990418</v>
+        <v>7996721</v>
       </c>
       <c r="C380" s="2">
-        <v>1750100966</v>
+        <v>1770041364</v>
       </c>
       <c r="D380" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B381">
-        <v>7991709</v>
-      </c>
-      <c r="C381">
-        <v>1750188523</v>
+        <v>7996728</v>
+      </c>
+      <c r="C381" s="2">
+        <v>1750245555</v>
       </c>
       <c r="D381" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c r="B382">
-        <v>7991786</v>
+        <v>7996728</v>
       </c>
       <c r="C382" s="2">
-        <v>1750109615</v>
+        <v>1750289153</v>
       </c>
       <c r="D382" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B383">
-        <v>7992146</v>
+        <v>7996728</v>
       </c>
       <c r="C383" s="2">
-        <v>1750053977</v>
+        <v>1750263341</v>
       </c>
       <c r="D383" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B384">
-        <v>7992146</v>
+        <v>7996728</v>
       </c>
       <c r="C384" s="2">
-        <v>1750105988</v>
+        <v>1750200435</v>
       </c>
       <c r="D384" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B385">
-        <v>7992155</v>
-      </c>
-      <c r="C385" s="2">
-        <v>1750215295</v>
+        <v>7996739</v>
+      </c>
+      <c r="C385" t="s">
+        <v>101</v>
       </c>
       <c r="D385" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B386">
-        <v>7992193</v>
+        <v>7996739</v>
       </c>
       <c r="C386" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="D386" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>46</v>
+        <v>198</v>
       </c>
       <c r="B387">
-        <v>7992217</v>
+        <v>7997042</v>
       </c>
       <c r="C387" s="2">
-        <v>1750109658</v>
+        <v>1750234950</v>
       </c>
       <c r="D387" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>46</v>
+        <v>198</v>
       </c>
       <c r="B388">
-        <v>7992231</v>
+        <v>7997042</v>
       </c>
       <c r="C388" s="2">
-        <v>1750109641</v>
+        <v>1750222982</v>
       </c>
       <c r="D388" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.3">
@@ -6764,349 +6725,349 @@
         <v>8</v>
       </c>
       <c r="B389">
-        <v>7993496</v>
+        <v>7999875</v>
       </c>
       <c r="C389" s="2">
-        <v>1750101956</v>
+        <v>1750173205</v>
       </c>
       <c r="D389" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>8</v>
+        <v>162</v>
       </c>
       <c r="B390">
-        <v>7993496</v>
+        <v>8001909</v>
       </c>
       <c r="C390" s="2">
-        <v>1750188523</v>
+        <v>1750173205</v>
       </c>
       <c r="D390" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>10</v>
+        <v>172</v>
       </c>
       <c r="B391">
-        <v>7993547</v>
+        <v>8001946</v>
       </c>
       <c r="C391" s="2">
-        <v>1750173205</v>
+        <v>1750222982</v>
       </c>
       <c r="D391" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>212</v>
+        <v>10</v>
       </c>
       <c r="B392">
-        <v>7993736</v>
+        <v>8001964</v>
       </c>
       <c r="C392" s="2">
-        <v>1750053977</v>
+        <v>1750261447</v>
       </c>
       <c r="D392" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>212</v>
+        <v>8</v>
       </c>
       <c r="B393">
-        <v>7993736</v>
+        <v>8001995</v>
       </c>
       <c r="C393" s="2">
-        <v>1750173205</v>
+        <v>1750177464</v>
       </c>
       <c r="D393" t="s">
-        <v>262</v>
+        <v>214</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B394">
-        <v>7993882</v>
+        <v>8002016</v>
       </c>
       <c r="C394" s="2">
-        <v>1750245555</v>
+        <v>1750200435</v>
       </c>
       <c r="D394" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>50</v>
+        <v>198</v>
       </c>
       <c r="B395">
-        <v>7993882</v>
-      </c>
-      <c r="C395" s="2">
-        <v>1750200435</v>
+        <v>8002017</v>
+      </c>
+      <c r="C395" t="s">
+        <v>256</v>
       </c>
       <c r="D395" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B396">
-        <v>7993882</v>
+        <v>8002044</v>
       </c>
       <c r="C396" s="2">
-        <v>1750133348</v>
+        <v>1750215295</v>
       </c>
       <c r="D396" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B397">
-        <v>7993882</v>
-      </c>
-      <c r="C397" s="2">
-        <v>1750214647</v>
+        <v>8002045</v>
+      </c>
+      <c r="C397" t="s">
+        <v>101</v>
       </c>
       <c r="D397" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>147</v>
+        <v>48</v>
       </c>
       <c r="B398">
-        <v>7993886</v>
-      </c>
-      <c r="C398" t="s">
-        <v>308</v>
+        <v>8002169</v>
+      </c>
+      <c r="C398" s="2">
+        <v>1750109615</v>
       </c>
       <c r="D398" t="s">
-        <v>264</v>
+        <v>87</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="B399">
-        <v>7994017</v>
+        <v>8002212</v>
       </c>
       <c r="C399" s="2">
-        <v>1750193275</v>
+        <v>1750222982</v>
       </c>
       <c r="D399" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="B400">
-        <v>7994017</v>
+        <v>8002257</v>
       </c>
       <c r="C400" s="2">
-        <v>1750200435</v>
+        <v>1750109615</v>
       </c>
       <c r="D400" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B401">
-        <v>7994308</v>
+        <v>8002272</v>
       </c>
       <c r="C401" s="2">
-        <v>1750173205</v>
+        <v>1804610970</v>
       </c>
       <c r="D401" t="s">
-        <v>178</v>
+        <v>241</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>212</v>
+        <v>8</v>
       </c>
       <c r="B402">
-        <v>7994720</v>
+        <v>8002272</v>
       </c>
       <c r="C402" s="2">
-        <v>1750109641</v>
+        <v>1770031910</v>
       </c>
       <c r="D402" t="s">
-        <v>66</v>
+        <v>241</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="B403">
-        <v>7996721</v>
+        <v>8002373</v>
       </c>
       <c r="C403" s="2">
-        <v>1770041364</v>
+        <v>1750200435</v>
       </c>
       <c r="D403" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B404">
-        <v>7996728</v>
+        <v>8002398</v>
       </c>
       <c r="C404" s="2">
-        <v>1750245555</v>
+        <v>1750173205</v>
       </c>
       <c r="D404" t="s">
-        <v>267</v>
+        <v>105</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B405">
-        <v>7996728</v>
+        <v>8002519</v>
       </c>
       <c r="C405" s="2">
-        <v>1750289153</v>
+        <v>1750109615</v>
       </c>
       <c r="D405" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B406">
-        <v>7996728</v>
-      </c>
-      <c r="C406" s="2">
-        <v>1750263341</v>
+        <v>8002614</v>
+      </c>
+      <c r="C406" t="s">
+        <v>5</v>
       </c>
       <c r="D406" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B407">
-        <v>7996728</v>
+        <v>8002694</v>
       </c>
       <c r="C407" s="2">
-        <v>1750200435</v>
+        <v>1750173205</v>
       </c>
       <c r="D407" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B408">
-        <v>7996739</v>
-      </c>
-      <c r="C408" t="s">
-        <v>109</v>
+        <v>8002694</v>
+      </c>
+      <c r="C408" s="2">
+        <v>1750193275</v>
       </c>
       <c r="D408" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B409">
-        <v>7996739</v>
-      </c>
-      <c r="C409" t="s">
-        <v>99</v>
+        <v>8002753</v>
+      </c>
+      <c r="C409" s="2">
+        <v>1750102901</v>
       </c>
       <c r="D409" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B410">
-        <v>7996907</v>
+        <v>8002811</v>
       </c>
       <c r="C410" s="2">
-        <v>1750109615</v>
+        <v>1750295447</v>
       </c>
       <c r="D410" t="s">
-        <v>225</v>
+        <v>266</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>212</v>
+        <v>36</v>
       </c>
       <c r="B411">
-        <v>7997042</v>
+        <v>8002811</v>
       </c>
       <c r="C411" s="2">
-        <v>1750234950</v>
+        <v>1750288271</v>
       </c>
       <c r="D411" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>212</v>
+        <v>48</v>
       </c>
       <c r="B412">
-        <v>7997042</v>
+        <v>8002883</v>
       </c>
       <c r="C412" s="2">
-        <v>1750222982</v>
+        <v>1750188523</v>
       </c>
       <c r="D412" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="B413">
-        <v>7997152</v>
+        <v>8003159</v>
       </c>
       <c r="C413" s="2">
-        <v>1750109641</v>
+        <v>1750193275</v>
       </c>
       <c r="D413" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.3">
@@ -7114,237 +7075,237 @@
         <v>8</v>
       </c>
       <c r="B414">
-        <v>7999875</v>
+        <v>8003456</v>
       </c>
       <c r="C414" s="2">
         <v>1750173205</v>
       </c>
       <c r="D414" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>212</v>
+        <v>94</v>
       </c>
       <c r="B415">
-        <v>8001897</v>
-      </c>
-      <c r="C415" t="s">
-        <v>272</v>
+        <v>8003492</v>
+      </c>
+      <c r="C415" s="2">
+        <v>1750109615</v>
       </c>
       <c r="D415" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>177</v>
+        <v>8</v>
       </c>
       <c r="B416">
-        <v>8001909</v>
+        <v>8003561</v>
       </c>
       <c r="C416" s="2">
-        <v>1750173205</v>
+        <v>1750177464</v>
       </c>
       <c r="D416" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>186</v>
+        <v>10</v>
       </c>
       <c r="B417">
-        <v>8001946</v>
+        <v>8004495</v>
       </c>
       <c r="C417" s="2">
         <v>1750222982</v>
       </c>
       <c r="D417" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="B418">
-        <v>8001964</v>
+        <v>8004526</v>
       </c>
       <c r="C418" s="2">
-        <v>1750261447</v>
+        <v>1750304916</v>
       </c>
       <c r="D418" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>8</v>
+        <v>162</v>
       </c>
       <c r="B419">
-        <v>8001995</v>
+        <v>8004585</v>
       </c>
       <c r="C419" s="2">
-        <v>1750177464</v>
+        <v>1750222982</v>
       </c>
       <c r="D419" t="s">
-        <v>229</v>
+        <v>273</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>50</v>
+        <v>162</v>
       </c>
       <c r="B420">
-        <v>8002016</v>
+        <v>8004625</v>
       </c>
       <c r="C420" s="2">
-        <v>1750200435</v>
+        <v>1770041364</v>
       </c>
       <c r="D420" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>212</v>
+        <v>45</v>
       </c>
       <c r="B421">
-        <v>8002017</v>
-      </c>
-      <c r="C421" t="s">
-        <v>277</v>
+        <v>8004699</v>
+      </c>
+      <c r="C421" s="2">
+        <v>1750188523</v>
       </c>
       <c r="D421" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B422">
-        <v>8002044</v>
+        <v>8004898</v>
       </c>
       <c r="C422" s="2">
-        <v>1750215295</v>
+        <v>1750130600</v>
       </c>
       <c r="D422" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="B423">
-        <v>8002045</v>
-      </c>
-      <c r="C423" t="s">
-        <v>109</v>
+        <v>8005093</v>
+      </c>
+      <c r="C423" s="2">
+        <v>1750155446</v>
       </c>
       <c r="D423" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="B424">
-        <v>8002169</v>
+        <v>8005093</v>
       </c>
       <c r="C424" s="2">
-        <v>1750109615</v>
+        <v>1750055614</v>
       </c>
       <c r="D424" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>10</v>
+        <v>277</v>
       </c>
       <c r="B425">
-        <v>8002212</v>
-      </c>
-      <c r="C425" s="2">
-        <v>1750222982</v>
+        <v>8005094</v>
+      </c>
+      <c r="C425" t="s">
+        <v>57</v>
       </c>
       <c r="D425" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="B426">
-        <v>8002230</v>
-      </c>
-      <c r="C426" s="2">
-        <v>1750173205</v>
+        <v>8005129</v>
+      </c>
+      <c r="C426" t="s">
+        <v>279</v>
       </c>
       <c r="D426" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B427">
-        <v>8002257</v>
-      </c>
-      <c r="C427" s="2">
-        <v>1750109615</v>
+        <v>8005129</v>
+      </c>
+      <c r="C427" t="s">
+        <v>281</v>
       </c>
       <c r="D427" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>8</v>
+        <v>117</v>
       </c>
       <c r="B428">
-        <v>8002272</v>
+        <v>8006003</v>
       </c>
       <c r="C428" s="2">
-        <v>1804610970</v>
+        <v>1750105679</v>
       </c>
       <c r="D428" t="s">
-        <v>261</v>
+        <v>60</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B429">
-        <v>8002272</v>
+        <v>8006044</v>
       </c>
       <c r="C429" s="2">
-        <v>1770031910</v>
+        <v>1750105988</v>
       </c>
       <c r="D429" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B430">
-        <v>8002373</v>
+        <v>8006162</v>
       </c>
       <c r="C430" s="2">
-        <v>1750200435</v>
+        <v>1750044878</v>
       </c>
       <c r="D430" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.3">
@@ -7352,139 +7313,139 @@
         <v>8</v>
       </c>
       <c r="B431">
-        <v>8002398</v>
+        <v>8006280</v>
       </c>
       <c r="C431" s="2">
-        <v>1750173205</v>
+        <v>1750187030</v>
       </c>
       <c r="D431" t="s">
-        <v>115</v>
+        <v>60</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="B432">
-        <v>8002519</v>
+        <v>8006280</v>
       </c>
       <c r="C432" s="2">
-        <v>1750109615</v>
+        <v>1750154866</v>
       </c>
       <c r="D432" t="s">
-        <v>240</v>
+        <v>60</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="B433">
-        <v>8002614</v>
+        <v>8006280</v>
       </c>
       <c r="C433" t="s">
-        <v>5</v>
+        <v>193</v>
       </c>
       <c r="D433" t="s">
-        <v>284</v>
+        <v>60</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B434">
-        <v>8002694</v>
-      </c>
-      <c r="C434" s="2">
-        <v>1750173205</v>
+        <v>8006280</v>
+      </c>
+      <c r="C434" t="s">
+        <v>194</v>
       </c>
       <c r="D434" t="s">
-        <v>285</v>
+        <v>60</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B435">
-        <v>8002694</v>
+        <v>8008898</v>
       </c>
       <c r="C435" s="2">
-        <v>1750193275</v>
+        <v>1750173205</v>
       </c>
       <c r="D435" t="s">
-        <v>285</v>
+        <v>252</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B436">
-        <v>8002753</v>
+        <v>8008936</v>
       </c>
       <c r="C436" s="2">
-        <v>1750102901</v>
+        <v>1750215294</v>
       </c>
       <c r="D436" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="B437">
-        <v>8002811</v>
+        <v>8009062</v>
       </c>
       <c r="C437" s="2">
-        <v>1750295447</v>
+        <v>1750177464</v>
       </c>
       <c r="D437" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B438">
-        <v>8002811</v>
+        <v>8009074</v>
       </c>
       <c r="C438" s="2">
-        <v>1750288271</v>
+        <v>1750200435</v>
       </c>
       <c r="D438" t="s">
-        <v>287</v>
+        <v>139</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B439">
-        <v>8002883</v>
+        <v>8009111</v>
       </c>
       <c r="C439" s="2">
-        <v>1750188523</v>
+        <v>1750173205</v>
       </c>
       <c r="D439" t="s">
-        <v>288</v>
+        <v>253</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B440">
-        <v>8003159</v>
-      </c>
-      <c r="C440" s="2">
-        <v>1750193275</v>
+        <v>8009122</v>
+      </c>
+      <c r="C440" t="s">
+        <v>193</v>
       </c>
       <c r="D440" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.3">
@@ -7492,55 +7453,55 @@
         <v>8</v>
       </c>
       <c r="B441">
-        <v>8003380</v>
-      </c>
-      <c r="C441" s="2">
-        <v>1750109615</v>
+        <v>8009122</v>
+      </c>
+      <c r="C441" t="s">
+        <v>194</v>
       </c>
       <c r="D441" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B442">
-        <v>8003380</v>
-      </c>
-      <c r="C442" s="2">
-        <v>1750256956</v>
+        <v>8009161</v>
+      </c>
+      <c r="C442" t="s">
+        <v>41</v>
       </c>
       <c r="D442" t="s">
-        <v>290</v>
+        <v>60</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B443">
-        <v>8003456</v>
+        <v>8009168</v>
       </c>
       <c r="C443" s="2">
         <v>1750173205</v>
       </c>
       <c r="D443" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="B444">
-        <v>8003492</v>
+        <v>8009172</v>
       </c>
       <c r="C444" s="2">
         <v>1750109615</v>
       </c>
       <c r="D444" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.3">
@@ -7548,209 +7509,209 @@
         <v>8</v>
       </c>
       <c r="B445">
-        <v>8003561</v>
-      </c>
-      <c r="C445" s="2">
-        <v>1750177464</v>
+        <v>8009396</v>
+      </c>
+      <c r="C445">
+        <v>1750109659</v>
       </c>
       <c r="D445" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="B446">
-        <v>8004495</v>
+        <v>8009403</v>
       </c>
       <c r="C446" s="2">
-        <v>1750222982</v>
+        <v>1750100966</v>
       </c>
       <c r="D446" t="s">
-        <v>292</v>
+        <v>60</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="B447">
-        <v>8004526</v>
-      </c>
-      <c r="C447" s="2">
-        <v>1750304916</v>
+        <v>8009403</v>
+      </c>
+      <c r="C447" t="s">
+        <v>286</v>
       </c>
       <c r="D447" t="s">
-        <v>293</v>
+        <v>60</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>177</v>
+        <v>10</v>
       </c>
       <c r="B448">
-        <v>8004625</v>
+        <v>8009485</v>
       </c>
       <c r="C448" s="2">
-        <v>1770041364</v>
+        <v>1750136011</v>
       </c>
       <c r="D448" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="B449">
-        <v>8004699</v>
+        <v>8009501</v>
       </c>
       <c r="C449" s="2">
-        <v>1750188523</v>
+        <v>1750109659</v>
       </c>
       <c r="D449" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B450">
-        <v>8004774</v>
-      </c>
-      <c r="C450" s="2">
-        <v>1750215294</v>
+        <v>8009743</v>
+      </c>
+      <c r="C450" t="s">
+        <v>246</v>
       </c>
       <c r="D450" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B451">
-        <v>8004898</v>
-      </c>
-      <c r="C451" s="2">
-        <v>1750130600</v>
+        <v>8009743</v>
+      </c>
+      <c r="C451" t="s">
+        <v>82</v>
       </c>
       <c r="D451" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>103</v>
+        <v>198</v>
       </c>
       <c r="B452">
-        <v>8005129</v>
-      </c>
-      <c r="C452" t="s">
-        <v>297</v>
+        <v>8009824</v>
+      </c>
+      <c r="C452" s="2">
+        <v>1750109641</v>
       </c>
       <c r="D452" t="s">
-        <v>298</v>
+        <v>60</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="B453">
-        <v>8005129</v>
-      </c>
-      <c r="C453" t="s">
-        <v>47</v>
+        <v>8009828</v>
+      </c>
+      <c r="C453" s="2">
+        <v>1750261447</v>
       </c>
       <c r="D453" t="s">
-        <v>298</v>
+        <v>60</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B454">
-        <v>8005739</v>
-      </c>
-      <c r="C454" t="s">
-        <v>64</v>
+        <v>8009835</v>
+      </c>
+      <c r="C454" s="2">
+        <v>1750105988</v>
       </c>
       <c r="D454" t="s">
-        <v>66</v>
+        <v>228</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B455">
-        <v>8006044</v>
+        <v>8009857</v>
       </c>
       <c r="C455" s="2">
-        <v>1750105988</v>
+        <v>1770031910</v>
       </c>
       <c r="D455" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="B456">
-        <v>8006110</v>
+        <v>8009864</v>
       </c>
       <c r="C456" s="2">
-        <v>1750200435</v>
+        <v>1750063787</v>
       </c>
       <c r="D456" t="s">
-        <v>299</v>
+        <v>60</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B457">
-        <v>8006162</v>
+        <v>8009873</v>
       </c>
       <c r="C457" s="2">
-        <v>1750044878</v>
+        <v>1750173205</v>
       </c>
       <c r="D457" t="s">
-        <v>300</v>
+        <v>253</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B458">
-        <v>8008898</v>
+        <v>8009876</v>
       </c>
       <c r="C458" s="2">
-        <v>1750173205</v>
+        <v>1750053977</v>
       </c>
       <c r="D458" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B459">
-        <v>8009111</v>
+        <v>8009876</v>
       </c>
       <c r="C459" s="2">
-        <v>1750173205</v>
+        <v>1750109659</v>
       </c>
       <c r="D459" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.3">
@@ -7758,157 +7719,311 @@
         <v>8</v>
       </c>
       <c r="B460">
-        <v>8009122</v>
-      </c>
-      <c r="C460" t="s">
-        <v>207</v>
+        <v>8009990</v>
+      </c>
+      <c r="C460" s="2">
+        <v>1750055175</v>
       </c>
       <c r="D460" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="B461">
-        <v>8009122</v>
-      </c>
-      <c r="C461" t="s">
-        <v>208</v>
+        <v>8010058</v>
+      </c>
+      <c r="C461" s="2">
+        <v>1750200435</v>
       </c>
       <c r="D461" t="s">
-        <v>302</v>
+        <v>139</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B462">
-        <v>8009168</v>
-      </c>
-      <c r="C462" s="2">
-        <v>1750173205</v>
+        <v>8010620</v>
+      </c>
+      <c r="C462" t="s">
+        <v>78</v>
       </c>
       <c r="D462" t="s">
-        <v>271</v>
+        <v>60</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="B463">
-        <v>8009172</v>
+        <v>8010648</v>
       </c>
       <c r="C463" s="2">
-        <v>1750109615</v>
+        <v>1750109658</v>
       </c>
       <c r="D463" t="s">
-        <v>270</v>
+        <v>60</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B464">
-        <v>8009396</v>
-      </c>
-      <c r="C464">
-        <v>1750109659</v>
+        <v>8010671</v>
+      </c>
+      <c r="C464" s="2">
+        <v>1750109615</v>
       </c>
       <c r="D464" t="s">
-        <v>303</v>
+        <v>87</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
-        <v>177</v>
+        <v>8</v>
       </c>
       <c r="B465">
-        <v>8009761</v>
+        <v>8011061</v>
       </c>
       <c r="C465" s="2">
-        <v>1770041364</v>
+        <v>1750108341</v>
       </c>
       <c r="D465" t="s">
-        <v>274</v>
+        <v>60</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B466">
-        <v>8009876</v>
+        <v>8011156</v>
       </c>
       <c r="C466" s="2">
-        <v>1750053977</v>
+        <v>1750220000</v>
       </c>
       <c r="D466" t="s">
-        <v>304</v>
+        <v>60</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B467">
-        <v>8009876</v>
+        <v>8011156</v>
       </c>
       <c r="C467" s="2">
-        <v>1750109659</v>
+        <v>1750214647</v>
       </c>
       <c r="D467" t="s">
-        <v>304</v>
+        <v>60</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B468">
-        <v>8009999</v>
-      </c>
-      <c r="C468" t="s">
-        <v>305</v>
+        <v>8011156</v>
+      </c>
+      <c r="C468" s="2">
+        <v>1750200541</v>
       </c>
       <c r="D468" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="B469">
-        <v>8009999</v>
-      </c>
-      <c r="C469" t="s">
-        <v>306</v>
+        <v>8012085</v>
+      </c>
+      <c r="C469" s="2">
+        <v>1750044604</v>
       </c>
       <c r="D469" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B470">
-        <v>8010058</v>
+        <v>8012097</v>
       </c>
       <c r="C470" s="2">
+        <v>1750109615</v>
+      </c>
+      <c r="D470" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A471" t="s">
+        <v>290</v>
+      </c>
+      <c r="B471">
+        <v>8012106</v>
+      </c>
+      <c r="C471" s="2">
+        <v>1750301917</v>
+      </c>
+      <c r="D471" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A472" t="s">
+        <v>10</v>
+      </c>
+      <c r="B472">
+        <v>8012139</v>
+      </c>
+      <c r="C472" t="s">
+        <v>100</v>
+      </c>
+      <c r="D472" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A473" t="s">
+        <v>140</v>
+      </c>
+      <c r="B473">
+        <v>8012175</v>
+      </c>
+      <c r="C473" s="2">
+        <v>1750109659</v>
+      </c>
+      <c r="D473" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A474" t="s">
+        <v>169</v>
+      </c>
+      <c r="B474">
+        <v>8012191</v>
+      </c>
+      <c r="C474" s="2">
+        <v>1750101956</v>
+      </c>
+      <c r="D474" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A475" t="s">
+        <v>45</v>
+      </c>
+      <c r="B475">
+        <v>8012267</v>
+      </c>
+      <c r="C475" s="2">
         <v>1750200435</v>
       </c>
-      <c r="D470" t="s">
-        <v>307</v>
+      <c r="D475" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A476" t="s">
+        <v>8</v>
+      </c>
+      <c r="B476">
+        <v>8012284</v>
+      </c>
+      <c r="C476" s="2">
+        <v>1750256956</v>
+      </c>
+      <c r="D476" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A477" t="s">
+        <v>45</v>
+      </c>
+      <c r="B477">
+        <v>8012558</v>
+      </c>
+      <c r="C477" s="2">
+        <v>1750200435</v>
+      </c>
+      <c r="D477" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A478" t="s">
+        <v>48</v>
+      </c>
+      <c r="B478">
+        <v>8012665</v>
+      </c>
+      <c r="C478" s="2">
+        <v>1750105988</v>
+      </c>
+      <c r="D478" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A479" t="s">
+        <v>48</v>
+      </c>
+      <c r="B479">
+        <v>8012665</v>
+      </c>
+      <c r="C479" s="2">
+        <v>1750109641</v>
+      </c>
+      <c r="D479" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A480" t="s">
+        <v>162</v>
+      </c>
+      <c r="B480">
+        <v>8012902</v>
+      </c>
+      <c r="C480" s="2">
+        <v>1770041364</v>
+      </c>
+      <c r="D480" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A481" t="s">
+        <v>36</v>
+      </c>
+      <c r="B481">
+        <v>8013236</v>
+      </c>
+      <c r="C481" t="s">
+        <v>293</v>
+      </c>
+      <c r="D481" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D470" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:D481" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/intento70-30.xlsx
+++ b/intento70-30.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dieboldnixdorf-my.sharepoint.com/personal/lucas_rodriguez_dieboldnixdorf_com/Documents/Escritorio/Codigo/PARTES/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="11_4F5D569F5BD05403079B2211595ED87656CFC848" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1443F15-BB26-4BA0-B19C-66F9359FA758}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="11_10C1D5945BD05B4F3B593D11595ED87656CFC9B5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0D8FDAD-D153-4D1F-BC2A-488D797C5C71}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$481</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$468</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="300">
   <si>
     <t>NOMBRE CLIENTE</t>
   </si>
@@ -154,9 +154,6 @@
     <t>STOCK.13/11/2023 PENDIENTE PARTE FASCIA_280 (CORREA)</t>
   </si>
   <si>
-    <t>NOWIP. 28/02/24. PARTE 1750285706 TOUCH 15": SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
     <t>SUP. 12/3/24. PENDIENTE POR NUEVA VISITA. (ALEGRE)</t>
   </si>
   <si>
@@ -190,9 +187,6 @@
     <t>NOWIP. 10/04/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR + 1750206350 ANTI FRAUD 2: SIN SALDO EN WIP – SIN STOCK DE DESARME. -- “PARTE 1750109615 V4 EXTRACTOR INFERIOR + 1750105679 CMD CONTROLLER II DI</t>
   </si>
   <si>
-    <t>NOSP. 05/01/24. PARTE 1750188546 DEPÓSITO DE SOBRES CINEO: SIN SPARE PARTS PARA SU REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
     <t>NOWIP. 04/03/24. PARTE 1750105988 LECTORA V2X USB + 1750105679 V4 CMD CONTROLLER II USB + DISCO SATA: SIN SALDO EN WIP.  --  "PARTE 1750109641 + 1750109615 V4 EXTRACTORES + 1750169942 LCD BOX 15 + 175</t>
   </si>
   <si>
@@ -208,12 +202,6 @@
     <t>Ticket Pendiente por Repuesto</t>
   </si>
   <si>
-    <t>NOSP. 11/01/24. PARTE 1750188546 DEPÓSITO DE SOBRES CINEO: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 17/04/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750109615 DOUBLE EXTRACTOR DISPONIBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
     <t>STOCK. 22/01/2024  PENDIENTE POR PARTE FASCIA 280 Y MOLDURA EN ESPERA DE REPARACION (RODRIGUEZ)</t>
   </si>
   <si>
@@ -241,9 +229,6 @@
     <t>BIO.2/2/2024 TICKET PENDIENTE POR BIOMÉTRICO (CORREA)</t>
   </si>
   <si>
-    <t>NOSP. 06/02/24. PARTE 1750188546 DEPÓSITO DE SOBRES CINEO: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
     <t>49200908X01A</t>
   </si>
   <si>
@@ -286,631 +271,658 @@
     <t>STOCK. 1/3/24. FASCIA 2100 SIN BIOMETRICO, CON MARCO 15" Y JACK 3,5MM A ESPERA DE DESARME (SORIANO)</t>
   </si>
   <si>
+    <t>SV226262000D</t>
+  </si>
+  <si>
+    <t>NOWIP. 05/03/24. PARTE SV226262000D ENA TAPA DE GAVETAS: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 20/03/24. PARTE SV219839000E ENA UDD: SIN SPARE PARTS PARA REPARACIÓN.  --  "SV217424000F        ASSY,ENA,CI,PACKAGED+ 49211436000A Transport 620mm lenght SRL DISPONIBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 15/03/24. PARTE SV219839000E ENA UDD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 08/03/24. PARTE 1750183289 V5 STACKER: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>BANCO PIANO</t>
+  </si>
+  <si>
+    <t>STOCK. 03/04/2024 A ESPERA DE DESARME DE FRENTE FASCIA 720 FL + GUIAS PARA 720 FL (MAITLAND)</t>
+  </si>
+  <si>
+    <t>NOSP. 21/03/24. PARTE 1750215294 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 08/04/24. PARTE SV219839000E ENA UDD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 08/04/24. PARTE 1750193275 RM3 MAIN MODULE: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>49225262000A</t>
+  </si>
+  <si>
+    <t>PLACARED</t>
+  </si>
+  <si>
+    <t>NOSP. 14/03/24. PARTE 1750109658 V4 STACKER S/SR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>49208102000H</t>
+  </si>
+  <si>
+    <t>NOSP. 18/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750200541        DISTRIBUTOR MODULE CRS DISPONIBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 19/03/24. PARTE 1750154145 TOUCH CONTROLLER + 1750105988 LECTORA V2X USB + 1750169942 MONITOR 15": SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 17/04/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 18/04/24. PARTE 1750215294 V5 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 08/04/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 08/04/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL + 1750214647 RM3 TRANSFER UNIT SAFE: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>CAJERO EXPRESS - LINK</t>
+  </si>
+  <si>
+    <t>NOWIP. 27/03/24. PARTE "MONITOR/TOUCH" N° DE PARTE SIN IDENTIFICACIÓN CORRECTA 1750350686 + 1750301986: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 27/03/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN  / "TRABA" 1750067867 SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 06/05/24. PARTE 1750109659 V4 STACKER + 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 16/04/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL + 1750214647 RM3 TRANSFER UNIT: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>BIO.26/3/2024 TICKET PENDIENTE POR BIOMETRICO (CORREA)</t>
+  </si>
+  <si>
+    <t>NOSP. 27/03/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>HASAR</t>
+  </si>
+  <si>
+    <t>NOWIP. 03/04/24. PARTE 1750222982 SHUTTER PC 280: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>49218289X0BB</t>
+  </si>
+  <si>
+    <t>NOWIP. 16/04/24. PARTE 49202967X0CC BOQUILLA DE LECTORA DIP: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 15/04/24. PARTE 1750044878 V4 DISTRIBUTOR BOARD: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>RIEL</t>
+  </si>
+  <si>
+    <t>NOSP. 23/04/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750101956 DISPENSER MODULE DISPONIBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 08/04/24. SE CORRIGE COMENTARIO ANTERIOR. PARTE 1750193275 RM3 MAIN MODULE: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 24/04/24. PARTE 1750248000 RM3 IO COLLECTOR + 1750220330 RM3 IO TRAY + 1750193275 RM3 MAIN MODULE: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 15/04/24. PARTE 1750188523 CCDM CHASIS + 1750263341 RM3 TRANSPORT UNIT HEAD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>49208102002M</t>
+  </si>
+  <si>
+    <t>ETR. 25/04/24. PARTE 49208102003M AFD CCA DISPENSER: EN REPARACIÓN. ETR: 03/05/24. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 10/04/24. PARTE 1750109659 V4 STACKER + 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN.  --  "PARTE 1750100966 CMD V4 SHUTTER VERTIKAL RL STRIP" (SIC STOCK SIN INDICAR CONDICIÓN). (</t>
+  </si>
+  <si>
+    <t>NOWIP. 08/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 08/04/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 02/05/24. PARTE 1750193275 RM3 MAIN MODULE: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 22/04/24. PARTE 1750155446 CCDM AMPLIFIER: SIN SALDO EN WIP.  --  "REJECT TRANSPORT 1750187030 DISPONIBLE". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 09/04/24. PARTE 1750215294 V5 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 10/04/24. SE CORRIGE COMENTARIO ANTERIOR. PARTE 1750214647 RM3 TRANSFER UNIT SAFE + 1750140781 RM3 HEAD CONTROLLER: SIN SALDO EN WIP.  --  "1750212682         REEL STORAGE BOX DISPONIBLE EN STO</t>
+  </si>
+  <si>
+    <t>NOSP. 15/04/24. PARTE 1750126457 RM3 REEL STORAGE + 1750196174 RM3 MASTERCONTROLLER: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 03/05/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>BANCO CIUDAD</t>
+  </si>
+  <si>
+    <t>COORD. 2/5/24. CORREAS x3 49204013000D Y FASCIA 522 49218289X0BB DISPONIBLE EN EXPEDICION (SORIANO)</t>
+  </si>
+  <si>
+    <t>NOWIP. 10/04/24. PARTE 1750215295 V5 EXTRACTOR INFERIOR + 1750215294 V5 EXTRACTOR INFERIOR: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 15/04/24. PARTE 1750188546 DEPÓSITO DE SOBRES CINEO: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>49257458000B</t>
+  </si>
+  <si>
+    <t>NOSP. 16/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 18/04/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 10/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 22/04/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>ETR. 30/04/24. PARTE 49208102003M AFD CCA DISPENSER: EN REPARACIÓN. ETR: 08/05/24. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 15/04/24. PARTE 1750222982 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 10/04/24. PARTE 1750126457 RM3 REEL STORAGE: SIN SALDO EN WIP.  (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 19/04/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 16/04/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 11/04/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 16/04/24. PARTE 1750183289 V5 STACKER: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750053977 CLAMP DISPONIBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 15/04/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 15/04/24. PARTE 1750193275 RM3 MAIN MODULE: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 19/04/24. PARTE 1750193275 RM3 MAIN MODULE: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>COORD. 29/04/2024 PARTE  49249260291A CARCAGE CANYON DISPONIBLE PARA SU COORDINACION (MAITLAND)</t>
+  </si>
+  <si>
+    <t>NOSP. 15/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>BIO. 18/4/24. PENDIENTE POR BIOMETRICO (SORIANO)</t>
+  </si>
+  <si>
+    <t>NOWIP. 16/04/24. PARTE 1750214647 RM3 TRANSFER UNIT SAFE + 1750263341 RM3 TRANSPORT UNIT ESCROW: SIN SALDO EN WIP.  --  "1750101956        dispenser module VM3 DISPONIBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NUEVO BANCO DEL CHACO</t>
+  </si>
+  <si>
+    <t>NOSP. 25/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 17/04/24. PARTE 1750248000 RM3 IO COLLECTOR + 1750220330 RM3 IO TRAY: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 16/04/24. PARTE 1750248000 RM3 IO COLLECTOR + 1750220330 RM3 IO TRAY: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>49204013000E</t>
+  </si>
+  <si>
+    <t>NOSP. 17/04/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>BANCO CREDICOOP</t>
+  </si>
+  <si>
+    <t>NOWIP. 17/04/24. PARTE 49254690000N AFD 2.0 STACKER: SIN SALDO WN WIP.  --  "ARTE 1750304622 CHD-mot ICT3H5-3AD2792 SecPac2 DISPONIBLE". (MINIACI)</t>
+  </si>
+  <si>
+    <t>49254690000N</t>
+  </si>
+  <si>
+    <t>GIRE S.A</t>
+  </si>
+  <si>
+    <t>NOWIP. 16/04/24. PARTE 1750222982 SHUTTER PC280 LITE: SIN SALDO EN WIP.  --  "1750105679        CMD Controller II USB assd. with cover DISPONIBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 02/05/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 16/04/24. PARTE 1750092824 DEPÓSITO DE SOBRES PROCASH: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 18/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 16/04/24. PARTE 1750188546 DEPÓSITO DE SOBRES CINEO: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 16/04/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 16/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SALDO EN WIP.  --  "1750200541        Distributor Module CRS DISPONIBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 26/04/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 25/04/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>ETR. 30/04/24. PARTE 49208102003M AFD CCA DISPENSER: EN REPARACIÓN. ETR: 10/05/24.  --  "DISCO SSD DISPONIBLE". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 17/04/24. PARTE 1750214647 RM3 TRANSFER UNIT SAFE: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750200541 DISTRIBUTOR MODULE CRS DISPONIBLEN STOCK ". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 24/04/24. PARTE 1750109658 V4 STACKER S/SR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 17/04/24.PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 22/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 23/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 18/04/24. PARTE 1750248000 RM3 IO COLLECTOR + 1750220330 RM3 IO TRAY: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 02/05/24. PARTE 1750134478 RM3 CCU + 1750263341 RM3 TRANSPORT UNIT HEAD ESCROW: SIN SALDO EN WIP.  --  "1750200541 Distributor Module CRS+ 1750245555 transport unit head short path CRS/ATS DISP</t>
+  </si>
+  <si>
+    <t>NOSP. 18/04/24. PARTE 1750248000 RM3 IO COLLECTOR + 1750220330 RM3 IO TRAY: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>SV104969000H</t>
+  </si>
+  <si>
+    <t>NOWIP. 22/04/24. PARTE 49217353000A "ASSEMBLY PRINTER CARTRIDGE": SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 30/04/24. PARTE 1750188523 CCDM CHASIS + 1750154866 CCDM VALIDADOR CASH CHECK: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750188524 ALIGNMENT STATION 3 CCDM+ 1750101952 DISTANCE TRANSPORT VM3 DISPO</t>
+  </si>
+  <si>
+    <t>1750199517-25</t>
+  </si>
+  <si>
+    <t>1750195517-20</t>
+  </si>
+  <si>
+    <t>NOSP. 18/04/24. PARTE 1750188546 DEPÓSITO DE SOBRES CINEO: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>BANCO DE CORDOBA</t>
+  </si>
+  <si>
+    <t>NOWIP 22/04/2024. PARTE 1750222982	V4 SHUTTER LITE PC 280: SIN SALDO WN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 19/04/24. PARTE 1750248000 RM3 IO COLLECTOR + 1750220330 RM3 IO TRAY: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 22/04/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 22/04/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 19/04/24. PARTE 1750200435 VS MODUL: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 22/04/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR + 1750215294 V5 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>ETR. 24/04/24. PARTE 49208102003M AFD CCA DISPENSER: EN REPARACIÓN. ETR: 30/04/24. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 25/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 23/04/24. PARTE 1750214647 RM3 TRANSFER UNIT SAFE: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750134478        CENTRALIZATION UNIT UPPER PART CRS/ATS DISPONIBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
+    <t>CBA.RC.24/4/24. PARTE 1750222982	SHUTTER LITE DC MOTOR ASSY RL:EN ESPERA DE REPARACIÓN. ETA:30/4/24 (JIMENEZ)</t>
+  </si>
+  <si>
+    <t>NOSP. 26/04/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>RC. 7/5/24. SET DE CAMARAS 1750302850 (SORIANO)</t>
+  </si>
+  <si>
+    <t>NOSP. 23/04/24. PARTE 1750188523 CCDM CHASIS + 1750177464 CCDM ESCROW: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 23/04/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 29/04/24. PARTE 1750177464 CCDM ESCROW: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 23/04/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 25/04/24. PARTE 1750220330 RM3 IO TRAY + 1750248000 RM3 IO COLLECTOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 23/04/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 24/04/24. PARTE 1750263341 RM3 TRANSPORT UNIT HEAD + 1750126457 RM3 REEL STORAGE + 1750173205 LECTORA V2CU STANDARD: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 23/04/24. PARTE 1750177464 CCDM ESCROW: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>STOCK 25/04/2024. FASCIA 280. A LA ESPERA DE REPARACION POR PARTE DE TECNOS (FRETES)</t>
+  </si>
+  <si>
+    <t>NOSP. 23/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 23/04/24. PARTE 1750044878 V4 BOARD DISTRIBUTOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 25/04/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>SV221800000C</t>
+  </si>
+  <si>
+    <t>NOSP. 25/04/24. PARTE SV221800000C ENA UPPER ALIGN: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 29/04/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 24/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 03/05/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 25/04/24. PARTE 1750188523 CCDM CHASIS + 1750177464 CCDM ESCROW: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 23/04/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 24/04/24. PARTE 1750092824 DEPÓSITO DE SOBRES PROCASH: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 25/04/24. PARTE 1750346607 SHUTTER IO TRAY II: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 25/04/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 25/04/24. PARTE 1750100966 V4 SHUTTER VERTICAL RL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 25/04/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN.  --  "CLAMP 1750053977 DISPONIBLE". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 25/04/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 30/04/24. PARTE S/N DISCO SÓLIDO: SIN SALDO EN WIP.  --  "PARTE 49257458000B IMPRESORA DE CLIENTE DISPONIBLE". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 30/04/24. PARTE 1750109658 V4 STACKER S/SR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 25/04/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 25/04/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750101956	DISPENSER MODULE VM3 DISPONIBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 30/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 30/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750053977 CLAMP DISPONIBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 30/04/24. PARTE 1750214647 RM3 TRANSFER UNIT SAFE + 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN.  --  "PARTE 1750133348 TMHLP + 1750245555 TUH DISPONIBLES"</t>
+  </si>
+  <si>
+    <t>NOWIP. 06/05/24. PARTE S/N "ACRÍLICO DE FASCIA PC1500": SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 29/04/24. PARTE 1750193275 RM3 MAIN MODULE + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 26/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOSP. 29/04/24. PARTE 1750263341 RM3 TRANSPORT UNIT HEAD + 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750245555 transport unit head short path CRS/ATS+ </t>
+  </si>
+  <si>
+    <t>ETR. 30/04/24. PARTE 49208102003M AFD CCA DISPENSER: EN REPARACIÓN. ETR: 09/05/24.  --  "49225262000A PICKER AFD 1.5 DISPONIBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 29/04/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750234950 EPP V7 ESP South America ST DISPONIBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 02/05/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 03/05/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 30/04/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 30/04/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>1750173205-35</t>
+  </si>
+  <si>
+    <t>NOSP. 02/05/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>ETR. 30/04/24. PARTE 49208102003M AFD CCA DISPENSER: EN REPARACIÓN. ETR: 09/05/24. (MINIACI)</t>
+  </si>
+  <si>
     <t>NOSP. 03/05/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
-    <t>NOSP. 03/05/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR + 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>SV226262000D</t>
-  </si>
-  <si>
-    <t>NOWIP. 05/03/24. PARTE SV226262000D ENA TAPA DE GAVETAS: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 20/03/24. PARTE SV219839000E ENA UDD: SIN SPARE PARTS PARA REPARACIÓN.  --  "SV217424000F        ASSY,ENA,CI,PACKAGED+ 49211436000A Transport 620mm lenght SRL DISPONIBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 15/03/24. PARTE SV219839000E ENA UDD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 08/03/24. PARTE 1750183289 V5 STACKER: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>BANCO PIANO</t>
-  </si>
-  <si>
-    <t>STOCK. 03/04/2024 A ESPERA DE DESARME DE FRENTE FASCIA 720 FL + GUIAS PARA 720 FL (MAITLAND)</t>
-  </si>
-  <si>
-    <t>NOSP. 21/03/24. PARTE 1750215294 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 08/04/24. PARTE SV219839000E ENA UDD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 08/04/24. PARTE 1750193275 RM3 MAIN MODULE: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 14/03/24. PARTE 1750109658 V4 STACKER S/SR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>49225262000A</t>
-  </si>
-  <si>
-    <t>49208102000H</t>
-  </si>
-  <si>
-    <t>NOSP. 18/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750200541        DISTRIBUTOR MODULE CRS DISPONIBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 19/03/24. PARTE 1750154145 TOUCH CONTROLLER + 1750105988 LECTORA V2X USB + 1750169942 MONITOR 15": SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 17/04/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+    <t>CBA.RC.29/4/24. PARTE 1750222982	SHUTTER LITE DC MOTOR ASSY RL:EN ESPERA DE REPARACIÓN. ETA:3/5/24 (JIMENEZ)</t>
+  </si>
+  <si>
+    <t>NOSP. 02/05/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 30/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
     <t>NOSP. 29/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
-    <t>NOSP. 18/04/24. PARTE 1750215294 V5 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 08/04/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 08/04/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL + 1750214647 RM3 TRANSFER UNIT SAFE: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>CAJERO EXPRESS - LINK</t>
-  </si>
-  <si>
-    <t>NOWIP. 27/03/24. PARTE "MONITOR/TOUCH" N° DE PARTE SIN IDENTIFICACIÓN CORRECTA 1750350686 + 1750301986: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 27/03/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN  / "TRABA" 1750067867 SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 19/04/24. PARTE 1750109659 V4 STACKER: SIN SPARE PARTS PARA REPARACIÓN.  --  "PARTE 1750109615 V4 EXTRACTOR INFERIOR DISPONIBLE". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 16/04/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL + 1750214647 RM3 TRANSFER UNIT: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>BIO.26/3/2024 TICKET PENDIENTE POR BIOMETRICO (CORREA)</t>
-  </si>
-  <si>
-    <t>ETR. 23/04/24. PARTE 49208102003M AFD CCA DISPENSER: EN REPARACIÓN. ETR: 30/04/24. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 27/03/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>HASAR</t>
-  </si>
-  <si>
-    <t>NOWIP. 03/04/24. PARTE 1750222982 SHUTTER PC 280: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>49218289X0BB</t>
-  </si>
-  <si>
-    <t>NOWIP. 16/04/24. PARTE 49202967X0CC BOQUILLA DE LECTORA DIP: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 15/04/24. PARTE 1750044878 V4 DISTRIBUTOR BOARD: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 10/04/24. PARTE 1750109659 V4 STACKER: SIN SPARE PARTS PARA REPARACIÓN.  --  "extractor 1750109615 disponible". (MINIACI)</t>
-  </si>
-  <si>
-    <t>RIEL</t>
-  </si>
-  <si>
-    <t>NOSP. 23/04/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750101956 DISPENSER MODULE DISPONIBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 08/04/24. SE CORRIGE COMENTARIO ANTERIOR. PARTE 1750193275 RM3 MAIN MODULE: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 24/04/24. PARTE 1750248000 RM3 IO COLLECTOR + 1750220330 RM3 IO TRAY + 1750193275 RM3 MAIN MODULE: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 15/04/24. PARTE 1750188523 CCDM CHASIS + 1750263341 RM3 TRANSPORT UNIT HEAD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>49208102002M</t>
-  </si>
-  <si>
-    <t>ETR. 25/04/24. PARTE 49208102003M AFD CCA DISPENSER: EN REPARACIÓN. ETR: 03/05/24. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 10/04/24. PARTE 1750109659 V4 STACKER + 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN.  --  "PARTE 1750100966 CMD V4 SHUTTER VERTIKAL RL STRIP" (SIC STOCK SIN INDICAR CONDICIÓN). (</t>
-  </si>
-  <si>
-    <t>NOWIP. 08/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 08/04/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 02/05/24. PARTE 1750193275 RM3 MAIN MODULE: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 22/04/24. PARTE 1750155446 CCDM AMPLIFIER: SIN SALDO EN WIP.  --  "REJECT TRANSPORT 1750187030 DISPONIBLE". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 09/04/24. PARTE 1750215294 V5 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 10/04/24. SE CORRIGE COMENTARIO ANTERIOR. PARTE 1750214647 RM3 TRANSFER UNIT SAFE + 1750140781 RM3 HEAD CONTROLLER: SIN SALDO EN WIP.  --  "1750212682         REEL STORAGE BOX DISPONIBLE EN STO</t>
-  </si>
-  <si>
-    <t>NOSP. 15/04/24. PARTE 1750126457 RM3 REEL STORAGE + 1750196174 RM3 MASTERCONTROLLER: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 03/05/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 03/05/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>BANCO CIUDAD</t>
-  </si>
-  <si>
-    <t>NOWIP. 10/04/24. PARTE 1750215295 V5 EXTRACTOR INFERIOR + 1750215294 V5 EXTRACTOR INFERIOR: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 15/04/24. PARTE 1750188546 DEPÓSITO DE SOBRES CINEO: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>49257458000B</t>
-  </si>
-  <si>
-    <t>NOSP. 16/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 18/04/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 10/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 22/04/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>ETR. 30/04/24. PARTE 49208102003M AFD CCA DISPENSER: EN REPARACIÓN. ETR: 08/05/24. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 15/04/24. PARTE 1750222982 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 10/04/24. PARTE 1750126457 RM3 REEL STORAGE: SIN SALDO EN WIP.  (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 19/04/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 16/04/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 11/04/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 16/04/24. PARTE 1750183289 V5 STACKER: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750053977 CLAMP DISPONIBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 15/04/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 15/04/24. PARTE 1750193275 RM3 MAIN MODULE: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 19/04/24. PARTE 1750193275 RM3 MAIN MODULE: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 15/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 02/05/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>BIO. 18/4/24. PENDIENTE POR BIOMETRICO (SORIANO)</t>
-  </si>
-  <si>
-    <t>NOWIP. 16/04/24. PARTE 1750214647 RM3 TRANSFER UNIT SAFE + 1750263341 RM3 TRANSPORT UNIT ESCROW: SIN SALDO EN WIP.  --  "1750101956        dispenser module VM3 DISPONIBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NUEVO BANCO DEL CHACO</t>
-  </si>
-  <si>
-    <t>NOSP. 25/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 17/04/24. PARTE 1750248000 RM3 IO COLLECTOR + 1750220330 RM3 IO TRAY: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 16/04/24. PARTE 1750248000 RM3 IO COLLECTOR + 1750220330 RM3 IO TRAY: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>BIO.16/4/2024 TICKET PENDIENTE POR BIOMETRICO (CORREA)</t>
-  </si>
-  <si>
-    <t>49204013000E</t>
-  </si>
-  <si>
-    <t>NOSP. 17/04/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>BANCO CREDICOOP</t>
-  </si>
-  <si>
-    <t>NOWIP. 17/04/24. PARTE 49254690000N AFD 2.0 STACKER: SIN SALDO WN WIP.  --  "ARTE 1750304622 CHD-mot ICT3H5-3AD2792 SecPac2 DISPONIBLE". (MINIACI)</t>
-  </si>
-  <si>
-    <t>49254690000N</t>
-  </si>
-  <si>
-    <t>GIRE S.A</t>
-  </si>
-  <si>
-    <t>NOWIP. 16/04/24. PARTE 1750222982 SHUTTER PC280 LITE: SIN SALDO EN WIP.  --  "1750105679        CMD Controller II USB assd. with cover DISPONIBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 16/04/24. PARTE 1750092824 DEPÓSITO DE SOBRES PROCASH: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 18/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 16/04/24. PARTE 1750188546 DEPÓSITO DE SOBRES CINEO: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 16/04/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 16/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SALDO EN WIP.  --  "1750200541        Distributor Module CRS DISPONIBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 26/04/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 25/04/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>ETR. 30/04/24. PARTE 49208102003M AFD CCA DISPENSER: EN REPARACIÓN. ETR: 10/05/24.  --  "DISCO SSD DISPONIBLE". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 17/04/24. PARTE 1750214647 RM3 TRANSFER UNIT SAFE: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750200541 DISTRIBUTOR MODULE CRS DISPONIBLEN STOCK ". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 24/04/24. PARTE 1750109658 V4 STACKER S/SR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 17/04/24.PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 22/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 23/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 18/04/24. PARTE 1750248000 RM3 IO COLLECTOR + 1750220330 RM3 IO TRAY: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 02/05/24. PARTE 1750134478 RM3 CCU + 1750263341 RM3 TRANSPORT UNIT HEAD ESCROW: SIN SALDO EN WIP.  --  "1750200541 Distributor Module CRS+ 1750245555 transport unit head short path CRS/ATS DISP</t>
-  </si>
-  <si>
-    <t>NOSP. 18/04/24. PARTE 1750248000 RM3 IO COLLECTOR + 1750220330 RM3 IO TRAY: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>SV104969000H</t>
-  </si>
-  <si>
-    <t>NOWIP. 22/04/24. PARTE 49217353000A "ASSEMBLY PRINTER CARTRIDGE": SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 30/04/24. PARTE 1750188523 CCDM CHASIS + 1750154866 CCDM VALIDADOR CASH CHECK: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750188524 ALIGNMENT STATION 3 CCDM+ 1750101952 DISTANCE TRANSPORT VM3 DISPO</t>
-  </si>
-  <si>
-    <t>1750199517-25</t>
-  </si>
-  <si>
-    <t>1750195517-20</t>
-  </si>
-  <si>
-    <t>NOSP. 18/04/24. PARTE 1750188546 DEPÓSITO DE SOBRES CINEO: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 19/04/24. PARTE 1750109659 V4 STACKER: SIN SPARE PARTS PARA REPARACIÓN.  --  "EXTRACTOR 1750109615 DISPONIBLE". (MINIACI)</t>
-  </si>
-  <si>
-    <t>STOCK. 3/05/24 REPUESTO 1750105988 CARD READER V2XU DISPONIBLE EN STOCK NODO TRELEW (IPARRAGUIRRE).</t>
-  </si>
-  <si>
-    <t>BANCO DE CORDOBA</t>
-  </si>
-  <si>
-    <t>NOWIP 22/04/2024. PARTE 1750222982	V4 SHUTTER LITE PC 280: SIN SALDO WN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 19/04/24. PARTE 1750248000 RM3 IO COLLECTOR + 1750220330 RM3 IO TRAY: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 22/04/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 22/04/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 19/04/24. PARTE 1750200435 VS MODUL: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 19/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 22/04/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR + 1750215294 V5 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>ETR. 24/04/24. PARTE 49208102003M AFD CCA DISPENSER: EN REPARACIÓN. ETR: 30/04/24. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 25/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 23/04/24. PARTE 1750214647 RM3 TRANSFER UNIT SAFE: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750134478        CENTRALIZATION UNIT UPPER PART CRS/ATS DISPONIBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>CBA.RC.24/4/24. PARTE 1750222982	SHUTTER LITE DC MOTOR ASSY RL:EN ESPERA DE REPARACIÓN. ETA:30/4/24 (JIMENEZ)</t>
-  </si>
-  <si>
-    <t>NOSP. 26/04/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 23/04/24. PARTE 1750188523 CCDM CHASIS + 1750177464 CCDM ESCROW: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 23/04/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
+    <t>NOSP. 29/04/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>BIO. 29/04/2024 PENDIENTE POR BIOMETRICO (MAITLAND)</t>
+  </si>
+  <si>
+    <t>NOSP. 30/04/24. PARTE 1750193275 RM3 MAIN MODULE + 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>RC. 7/5/24. EXTRACTORES 1750109615,1750109641 A ESPERA DE REPARACION (SORIANO)</t>
+  </si>
+  <si>
+    <t>SUP. 30/04/2024 A ESPERA DE CONFIRMACION DE FASCIA CORRECTA (MAITLAND)</t>
+  </si>
+  <si>
+    <t>NOSP. 02/05/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 30/04/24. PARTE 1750193275 RM3 MAIN MODULE : SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 30/04/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 03/05/24. PARTE 1750177464 CCDM ESCROW: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 02/05/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 30/04/24. PARTE 1750304916 "SHUTTER I-O TRAY NSL": SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 06/05/24. PARTE 1750261447 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>SUP. 30/4/24. A ESPERA DE CONFIRMACION DE TRABA NECESARIA (SORIANO)</t>
+  </si>
+  <si>
+    <t>ETR. 06/05/24. PARTE 1750155446 CCDM AMPLIFIER: EN REPARACIÓN. ETR: 13/05/24.  --  "1750055614 FLAT CABLE FOR CCDM DISPONIBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
+    <t>BANCO DE LA PAMPA</t>
+  </si>
+  <si>
+    <t>NOWIP. 03/05/24. PARTE S/N DISCO SATA: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 03/05/24. PARTE 1750215294 V5 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>ETR. 03/05/24. PARTE 1750154866 CCDM VALIDADOR CASH CHECK: EN REPARACIÓN. ETR: 08/05/24. (MINIACI)</t>
+  </si>
+  <si>
+    <t>STOCK. 6/5/24. PARTE FASCIA 280. A ESPERA DE REPARACION DE TECNOS. (ALEGRE)</t>
+  </si>
+  <si>
+    <t>NOSP. 03/05/24. PARTE 1750109659 V4 STACKER: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>ETR. 06/05/24. PARTE 1750100966 V4 SHUTTER VERTICAL RL: EN REPARACIÓN. ETR: 13/05/24.  --  "PARTE 49202966X0CB BEZEL, MTZ CD RDR DISPONIBLE". (MINIACI)</t>
+  </si>
+  <si>
+    <t>49202966X0CB</t>
+  </si>
+  <si>
+    <t>NOWIP. 06/05/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 06/05/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>ETR. 03/05/24. PARTE 1750055175 CCDM DEPOSIT TRANSPORT: EN REPARACIÓN. ETR: 08/05/24. (MINIACI)</t>
+  </si>
+  <si>
+    <t>49211433000A</t>
+  </si>
+  <si>
+    <t>RC.7/5/2024 49208102003M CCA Dispenser EN ESPERA DE REPARACION / 49211433000A Stacker AFD DISPONIBLE EN STOCK (CORREA)</t>
+  </si>
+  <si>
+    <t>NOSP. 06/05/24. PARTE 1750109658  V4 STACKER S/SR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>RC. 7/5/24. PARTE 1750220000 IOC + 1750214647 TRANSFER UNIT SAFE. EN ESPERA DE REPARACION. 1750200541 DISTRIBUTOR MODULE DISPONBLE EN STOCK. (ALEGRE)</t>
+  </si>
+  <si>
+    <t>Stock 03/05/2024 parte 1750349661 afd picker 2.0 x4 disponibles en poder del Coordinador Eric Menzel 17:00 hs (maitland)</t>
+  </si>
+  <si>
+    <t>RC. 7/5/24. EXTRACTOR 1750109641 A ESPERA DE REPARACION (SORIANO)</t>
+  </si>
+  <si>
+    <t>NOSP. 06/05/24. PARTE 1750109659 V4 STACKER: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>RC 07/05/2024. PARTE SD DISCO SATA. EN ESPERA DE REPARACION (FRETES)</t>
+  </si>
+  <si>
+    <t>NOSP. 06/05/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 06/05/24. PARTE 1750256956 V4 SHUTTER 2X RL: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 03/05/24. PARTE 1750105988 LECTORA V2X USB + 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
     <t>RC. 6/5/24. PLACA CCA 49208102000H A ESPERA DE REPARACION (SORIANO)</t>
   </si>
   <si>
-    <t>NOSP. 29/04/24. PARTE 1750177464 CCDM ESCROW: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 23/04/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 25/04/24. PARTE 1750220330 RM3 IO TRAY + 1750248000 RM3 IO COLLECTOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 23/04/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 24/04/24. PARTE 1750263341 RM3 TRANSPORT UNIT HEAD + 1750126457 RM3 REEL STORAGE + 1750173205 LECTORA V2CU STANDARD: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 23/04/24. PARTE 1750177464 CCDM ESCROW: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>STOCK 25/04/2024. FASCIA 280. A LA ESPERA DE REPARACION POR PARTE DE TECNOS (FRETES)</t>
-  </si>
-  <si>
-    <t>NOSP. 23/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 23/04/24. PARTE 1750044878 V4 BOARD DISTRIBUTOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 25/04/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>SV221800000C</t>
-  </si>
-  <si>
-    <t>NOSP. 25/04/24. PARTE SV221800000C ENA UPPER ALIGN: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 29/04/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 24/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 03/05/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 25/04/24. PARTE 1750188523 CCDM CHASIS + 1750177464 CCDM ESCROW: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 23/04/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 24/04/24. PARTE 1750092824 DEPÓSITO DE SOBRES PROCASH: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 25/04/24. PARTE 1750346607 SHUTTER IO TRAY II: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 25/04/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 25/04/24. PARTE 1750100966 V4 SHUTTER VERTICAL RL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 25/04/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN.  --  "CLAMP 1750053977 DISPONIBLE". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 25/04/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 30/04/24. PARTE S/N DISCO SÓLIDO: SIN SALDO EN WIP.  --  "PARTE 49257458000B IMPRESORA DE CLIENTE DISPONIBLE". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 30/04/24. PARTE 1750109658 V4 STACKER S/SR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 25/04/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 25/04/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750101956	DISPENSER MODULE VM3 DISPONIBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 30/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 30/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750053977 CLAMP DISPONIBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 30/04/24. PARTE 1750214647 RM3 TRANSFER UNIT SAFE + 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN.  --  "PARTE 1750133348 TMHLP + 1750245555 TUH DISPONIBLES"</t>
-  </si>
-  <si>
-    <t>RC. 04/05/24. ACRILICO  (MODELO IDEAL UNO DE 1500) A ESPERA DE DESARME (SORIANO)</t>
-  </si>
-  <si>
-    <t>NOSP. 29/04/24. PARTE 1750193275 RM3 MAIN MODULE + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>49211433000A</t>
-  </si>
-  <si>
-    <t>NOWIP. 03/05/24. PARTE 49211433000A AFD STACKER: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 26/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOSP. 29/04/24. PARTE 1750263341 RM3 TRANSPORT UNIT HEAD + 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750245555 transport unit head short path CRS/ATS+ </t>
-  </si>
-  <si>
-    <t>ETR. 30/04/24. PARTE 49208102003M AFD CCA DISPENSER: EN REPARACIÓN. ETR: 09/05/24.  --  "49225262000A PICKER AFD 1.5 DISPONIBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 29/04/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750234950 EPP V7 ESP South America ST DISPONIBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 02/05/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 03/05/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 30/04/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 30/04/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>1750173205-35</t>
-  </si>
-  <si>
-    <t>NOSP. 02/05/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>ETR. 30/04/24. PARTE 49208102003M AFD CCA DISPENSER: EN REPARACIÓN. ETR: 09/05/24. (MINIACI)</t>
-  </si>
-  <si>
-    <t>CBA.RC.29/4/24. PARTE 1750222982	SHUTTER LITE DC MOTOR ASSY RL:EN ESPERA DE REPARACIÓN. ETA:3/5/24 (JIMENEZ)</t>
-  </si>
-  <si>
-    <t>NOSP. 02/05/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 30/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 29/04/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>BIO. 29/04/2024 PENDIENTE POR BIOMETRICO (MAITLAND)</t>
-  </si>
-  <si>
-    <t>NOSP. 30/04/24. PARTE 1750193275 RM3 MAIN MODULE + 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>SUP. 30/04/2024 A ESPERA DE CONFIRMACION DE FASCIA CORRECTA (MAITLAND)</t>
-  </si>
-  <si>
-    <t>OKETR. 30/04/24. PARTE 1750295447 RM4 IO COLLECTOR + 1750288271 RM4 IO TRAY: REPARADO. EN FGI PARA TRANSFERIR A STOCK. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 02/05/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 30/04/24. PARTE 1750193275 RM3 MAIN MODULE : SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 30/04/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 03/05/24. PARTE 1750177464 CCDM ESCROW: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 02/05/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 30/04/24. PARTE 1750304916 "SHUTTER I-O TRAY NSL": SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 06/05/24. PARTE 1750261447 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 30/04/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>SUP. 30/4/24. A ESPERA DE CONFIRMACION DE TRABA NECESARIA (SORIANO)</t>
-  </si>
-  <si>
-    <t>CBA.NOWIP. 6/5/2024. PARTE 1750055614 FLAT CABLE FOR CCDM+ 1750155446 CCDM CONTROLLER III B - AMPLIFIER ASSD.:SIN SALDO EN WIP. SE SOLICITA A CABA. (JIMENEZ)</t>
-  </si>
-  <si>
-    <t>BANCO DE LA PAMPA</t>
-  </si>
-  <si>
-    <t>NOWIP. 03/05/24. PARTE S/N DISCO SATA: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>49201784000C</t>
-  </si>
-  <si>
-    <t>OKETR. 03/05/24. PARTE 49240457000A MONITOR OPERADOR OPTEVA 10.4": REPARADO. EN FGI PARA TRANSFERIR A STOCK. (MINIACI)</t>
-  </si>
-  <si>
-    <t>49221669000A</t>
-  </si>
-  <si>
-    <t>ETR. 03/05/24. PARTE 1750044878 V4 DISTRIBUTOR BOARD: EN REPARACIÓN. ETR: 06/05/24. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 03/05/24. PARTE 1750215294 V5 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>ETR. 03/05/24. PARTE 1750154866 CCDM VALIDADOR CASH CHECK: EN REPARACIÓN. ETR: 08/05/24. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 03/05/24. PARTE 1750109659 V4 STACKER: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>49202966X0CB</t>
-  </si>
-  <si>
-    <t>CBA.NOWIP. 6/5/2024. PARTE1750222982 SHUTTER LITE DC MOTOR ASSY RL:SIN SALDO EN WIP. SE SOLICITA A CABA. (JIMENEZ)</t>
-  </si>
-  <si>
-    <t>NOWIP. 03/05/24. PARTE 49211433000A AFD STACKER: SIN SALDO EN WIP.  --  "49211436000A Transport 620mm lenght SRL DISPONIBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>ETR. 03/05/24. PARTE 1750055175 CCDM DEPOSIT TRANSPORT: EN REPARACIÓN. ETR: 08/05/24. (MINIACI)</t>
-  </si>
-  <si>
-    <t>MACRO</t>
-  </si>
-  <si>
-    <t>RC. 06/05/2024 PARTE 1750200435 VS MODULE A ESPERA DE REPARACION (MAITLAND)</t>
-  </si>
-  <si>
-    <t>NOSP. 03/05/24. PARTE 1750105988 LECTORA V2X USB + 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>49238415000A</t>
-  </si>
-  <si>
-    <t>ACRILICO</t>
+    <t>NOSP. 06/05/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 06/05/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750105679 CMD CONTROLLER II USB ASSD WITH COVER+1750109659 CMD-V4 STACKER MODUL W. SR VERT DISPONIBLE EN</t>
+  </si>
+  <si>
+    <t>49212868000D</t>
+  </si>
+  <si>
+    <t>RC. 6/5/24. EXTRACTOR 1750109615 A ESPERA DE REPARACION (sORIANO)</t>
+  </si>
+  <si>
+    <t>RC. 6/5/24. EXTRACTOR 1750109641 A ESPERA DE REPARACION (SORIANO)</t>
+  </si>
+  <si>
+    <t>NOSP. 06/05/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>RC.6/5/2024 1750109615 Double extractor unit CMD-V4 EN ESPERA DE REPARACION (CORREA)</t>
+  </si>
+  <si>
+    <t>RC. 6/5/24. VS 1750200435 A ESPERA DE REPARACION (SORIANO)</t>
+  </si>
+  <si>
+    <t>RC. 7/5/24. LECTORA 1750105988 A ESPERA DE REPARACION (SORIANO)</t>
+  </si>
+  <si>
+    <t>RC. 7/5/24. LECTORA 1750173205 A ESPERA DE REPARACION (SORIANO)</t>
   </si>
   <si>
     <t>FASCIA 720 FL</t>
+  </si>
+  <si>
+    <t>49249260291A</t>
+  </si>
+  <si>
+    <t>ACRÍLICO</t>
   </si>
 </sst>
 </file>
@@ -1274,18 +1286,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D481"/>
+  <dimension ref="A1:D468"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="1" max="1" width="32.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="195.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="107.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1752,13 +1764,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>7619358</v>
-      </c>
-      <c r="C34" s="2">
-        <v>1750285706</v>
+        <v>7633149</v>
+      </c>
+      <c r="C34" t="s">
+        <v>18</v>
       </c>
       <c r="D34" t="s">
         <v>43</v>
@@ -1766,27 +1778,27 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B35">
-        <v>7633149</v>
+        <v>7659156</v>
       </c>
       <c r="C35" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>7659156</v>
-      </c>
-      <c r="C36" t="s">
-        <v>5</v>
+        <v>7662785</v>
+      </c>
+      <c r="C36" s="2">
+        <v>1750173205</v>
       </c>
       <c r="D36" t="s">
         <v>46</v>
@@ -1800,10 +1812,10 @@
         <v>7662785</v>
       </c>
       <c r="C37" s="2">
-        <v>1750173205</v>
+        <v>1750222982</v>
       </c>
       <c r="D37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1814,10 +1826,10 @@
         <v>7662785</v>
       </c>
       <c r="C38" s="2">
-        <v>1750222982</v>
+        <v>1750062675</v>
       </c>
       <c r="D38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1828,10 +1840,10 @@
         <v>7662785</v>
       </c>
       <c r="C39" s="2">
-        <v>1750062675</v>
+        <v>1750190038</v>
       </c>
       <c r="D39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1842,10 +1854,10 @@
         <v>7662785</v>
       </c>
       <c r="C40" s="2">
-        <v>1750190038</v>
+        <v>1750130744</v>
       </c>
       <c r="D40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1856,10 +1868,10 @@
         <v>7662785</v>
       </c>
       <c r="C41" s="2">
-        <v>1750130744</v>
+        <v>1750059284</v>
       </c>
       <c r="D41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1870,10 +1882,10 @@
         <v>7662785</v>
       </c>
       <c r="C42" s="2">
-        <v>1750059284</v>
+        <v>1750159523</v>
       </c>
       <c r="D42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1884,71 +1896,71 @@
         <v>7662785</v>
       </c>
       <c r="C43" s="2">
-        <v>1750159523</v>
+        <v>1750187952</v>
       </c>
       <c r="D43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>7662785</v>
-      </c>
-      <c r="C44" s="2">
-        <v>1750187952</v>
+        <v>7695366</v>
+      </c>
+      <c r="C44" t="s">
+        <v>34</v>
       </c>
       <c r="D44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45">
         <v>7695366</v>
       </c>
       <c r="C45" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="D45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>7695366</v>
+        <v>7709811</v>
       </c>
       <c r="C46" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="D46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B47">
         <v>7709811</v>
       </c>
       <c r="C47" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47" t="s">
         <v>50</v>
-      </c>
-      <c r="D47" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48">
         <v>7709811</v>
@@ -1957,88 +1969,88 @@
         <v>52</v>
       </c>
       <c r="D48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
-        <v>7709811</v>
-      </c>
-      <c r="C49" t="s">
+        <v>7716199</v>
+      </c>
+      <c r="C49" s="2">
+        <v>1750105679</v>
+      </c>
+      <c r="D49" t="s">
         <v>53</v>
-      </c>
-      <c r="D49" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B50">
         <v>7716199</v>
       </c>
-      <c r="C50" s="2">
-        <v>1750105679</v>
+      <c r="C50" t="s">
+        <v>41</v>
       </c>
       <c r="D50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B51">
         <v>7716199</v>
       </c>
-      <c r="C51" t="s">
-        <v>41</v>
+      <c r="C51" s="2">
+        <v>1750206350</v>
       </c>
       <c r="D51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B52">
         <v>7716199</v>
       </c>
       <c r="C52" s="2">
-        <v>1750206350</v>
+        <v>1750109615</v>
       </c>
       <c r="D52" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B53">
         <v>7716199</v>
       </c>
       <c r="C53" s="2">
-        <v>1750109615</v>
+        <v>1750044668</v>
       </c>
       <c r="D53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B54">
-        <v>7716199</v>
+        <v>7733518</v>
       </c>
       <c r="C54" s="2">
-        <v>1750044668</v>
+        <v>1750053977</v>
       </c>
       <c r="D54" t="s">
         <v>54</v>
@@ -2046,251 +2058,251 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B55">
-        <v>7726520</v>
+        <v>7733518</v>
       </c>
       <c r="C55" s="2">
-        <v>1750188546</v>
+        <v>1750105988</v>
       </c>
       <c r="D55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B56">
         <v>7733518</v>
       </c>
       <c r="C56" s="2">
-        <v>1750053977</v>
+        <v>1750109615</v>
       </c>
       <c r="D56" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B57">
         <v>7733518</v>
       </c>
       <c r="C57" s="2">
-        <v>1750105988</v>
+        <v>1750109641</v>
       </c>
       <c r="D57" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B58">
         <v>7733518</v>
       </c>
-      <c r="C58" s="2">
-        <v>1750109615</v>
+      <c r="C58" t="s">
+        <v>55</v>
       </c>
       <c r="D58" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B59">
         <v>7733518</v>
       </c>
-      <c r="C59" s="2">
-        <v>1750109641</v>
+      <c r="C59" t="s">
+        <v>56</v>
       </c>
       <c r="D59" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B60">
         <v>7733518</v>
       </c>
-      <c r="C60" t="s">
-        <v>57</v>
+      <c r="C60" s="2">
+        <v>1750169942</v>
       </c>
       <c r="D60" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B61">
-        <v>7733518</v>
-      </c>
-      <c r="C61" t="s">
+        <v>7738379</v>
+      </c>
+      <c r="C61" s="2">
+        <v>1750041251</v>
+      </c>
+      <c r="D61" t="s">
         <v>58</v>
-      </c>
-      <c r="D61" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B62">
-        <v>7733518</v>
+        <v>7738379</v>
       </c>
       <c r="C62" s="2">
-        <v>1750169942</v>
+        <v>1750035762</v>
       </c>
       <c r="D62" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B63">
         <v>7738379</v>
       </c>
       <c r="C63" s="2">
-        <v>1750041251</v>
+        <v>1750157444</v>
       </c>
       <c r="D63" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B64">
+        <v>7771880</v>
+      </c>
+      <c r="C64" t="s">
+        <v>41</v>
+      </c>
+      <c r="D64" t="s">
         <v>59</v>
-      </c>
-      <c r="B64">
-        <v>7738379</v>
-      </c>
-      <c r="C64" s="2">
-        <v>1750035762</v>
-      </c>
-      <c r="D64" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B65">
+        <v>7771880</v>
+      </c>
+      <c r="C65" t="s">
+        <v>34</v>
+      </c>
+      <c r="D65" t="s">
         <v>59</v>
-      </c>
-      <c r="B65">
-        <v>7738379</v>
-      </c>
-      <c r="C65" s="2">
-        <v>1750157444</v>
-      </c>
-      <c r="D65" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B66">
-        <v>7739788</v>
-      </c>
-      <c r="C66" s="2">
-        <v>1750188546</v>
+        <v>7774323</v>
+      </c>
+      <c r="C66" t="s">
+        <v>32</v>
       </c>
       <c r="D66" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B67">
-        <v>7751039</v>
-      </c>
-      <c r="C67" s="2">
-        <v>1750105988</v>
+        <v>7774323</v>
+      </c>
+      <c r="C67" t="s">
+        <v>5</v>
       </c>
       <c r="D67" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B68">
-        <v>7751039</v>
+        <v>7784172</v>
       </c>
       <c r="C68" s="2">
-        <v>1750109615</v>
+        <v>1750044878</v>
       </c>
       <c r="D68" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="B69">
-        <v>7771880</v>
-      </c>
-      <c r="C69" t="s">
-        <v>41</v>
+        <v>7784172</v>
+      </c>
+      <c r="C69" s="2">
+        <v>1750109659</v>
       </c>
       <c r="D69" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="B70">
-        <v>7771880</v>
+        <v>7789499</v>
       </c>
       <c r="C70" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="D70" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B71">
-        <v>7774323</v>
+        <v>7789499</v>
       </c>
       <c r="C71" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="D71" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="B72">
-        <v>7774323</v>
+        <v>7789891</v>
       </c>
       <c r="C72" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="D72" t="s">
         <v>64</v>
@@ -2298,1385 +2310,1385 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="B73">
-        <v>7784172</v>
-      </c>
-      <c r="C73" s="2">
-        <v>1750044878</v>
+        <v>7789891</v>
+      </c>
+      <c r="C73" t="s">
+        <v>5</v>
       </c>
       <c r="D73" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="B74">
-        <v>7784172</v>
-      </c>
-      <c r="C74" s="2">
-        <v>1750109659</v>
+        <v>7790497</v>
+      </c>
+      <c r="C74" t="s">
+        <v>32</v>
       </c>
       <c r="D74" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="B75">
-        <v>7789499</v>
+        <v>7790497</v>
       </c>
       <c r="C75" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D75" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B76">
-        <v>7789499</v>
-      </c>
-      <c r="C76" t="s">
-        <v>67</v>
+        <v>7792025</v>
+      </c>
+      <c r="C76" s="2">
+        <v>1750215294</v>
       </c>
       <c r="D76" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="B77">
-        <v>7789891</v>
-      </c>
-      <c r="C77" t="s">
-        <v>32</v>
+        <v>7792025</v>
+      </c>
+      <c r="C77" s="2">
+        <v>1750215295</v>
       </c>
       <c r="D77" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B78">
-        <v>7789891</v>
-      </c>
-      <c r="C78" t="s">
-        <v>5</v>
+        <v>7792335</v>
+      </c>
+      <c r="C78" s="2">
+        <v>1750289153</v>
       </c>
       <c r="D78" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B79">
-        <v>7790497</v>
-      </c>
-      <c r="C79" t="s">
-        <v>32</v>
+        <v>7797143</v>
+      </c>
+      <c r="C79" s="2">
+        <v>1750177464</v>
       </c>
       <c r="D79" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="B80">
-        <v>7790497</v>
-      </c>
-      <c r="C80" t="s">
-        <v>7</v>
+        <v>7797814</v>
+      </c>
+      <c r="C80" s="2">
+        <v>1750215294</v>
       </c>
       <c r="D80" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B81">
-        <v>7792025</v>
+        <v>7798663</v>
       </c>
       <c r="C81" s="2">
-        <v>1750215294</v>
+        <v>1750078264</v>
       </c>
       <c r="D81" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B82">
-        <v>7792025</v>
+        <v>7800803</v>
       </c>
       <c r="C82" s="2">
-        <v>1750215295</v>
+        <v>1750109615</v>
       </c>
       <c r="D82" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B83">
-        <v>7792335</v>
+        <v>7802611</v>
       </c>
       <c r="C83" s="2">
-        <v>1750289153</v>
+        <v>1750053977</v>
       </c>
       <c r="D83" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B84">
-        <v>7797143</v>
-      </c>
-      <c r="C84" s="2">
-        <v>1750177464</v>
+        <v>7802993</v>
+      </c>
+      <c r="C84" t="s">
+        <v>5</v>
       </c>
       <c r="D84" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B85">
-        <v>7797814</v>
-      </c>
-      <c r="C85" s="2">
-        <v>1750215294</v>
+        <v>7803005</v>
+      </c>
+      <c r="C85" t="s">
+        <v>5</v>
       </c>
       <c r="D85" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B86">
-        <v>7800803</v>
+        <v>7803677</v>
       </c>
       <c r="C86" s="2">
-        <v>1750109615</v>
+        <v>1750109658</v>
       </c>
       <c r="D86" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B87">
-        <v>7802611</v>
+        <v>7803677</v>
       </c>
       <c r="C87" s="2">
-        <v>1750053977</v>
+        <v>1750109615</v>
       </c>
       <c r="D87" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B88">
-        <v>7802993</v>
-      </c>
-      <c r="C88" t="s">
-        <v>5</v>
+        <v>7806399</v>
+      </c>
+      <c r="C88" s="2">
+        <v>1750110043</v>
       </c>
       <c r="D88" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B89">
-        <v>7803005</v>
+        <v>7806538</v>
       </c>
       <c r="C89" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="D89" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B90">
-        <v>7803677</v>
+        <v>7808461</v>
       </c>
       <c r="C90" s="2">
-        <v>1750109658</v>
+        <v>1750109659</v>
       </c>
       <c r="D90" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B91">
-        <v>7803677</v>
+        <v>7814392</v>
       </c>
       <c r="C91" s="2">
-        <v>1750109615</v>
+        <v>1750189650</v>
       </c>
       <c r="D91" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B92">
-        <v>7804016</v>
+        <v>7814392</v>
       </c>
       <c r="C92" s="2">
-        <v>1750188546</v>
+        <v>1750215295</v>
       </c>
       <c r="D92" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B93">
-        <v>7806399</v>
+        <v>7817629</v>
       </c>
       <c r="C93" s="2">
-        <v>1750110043</v>
+        <v>1750053977</v>
       </c>
       <c r="D93" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B94">
-        <v>7806538</v>
-      </c>
-      <c r="C94" t="s">
-        <v>73</v>
+        <v>7817670</v>
+      </c>
+      <c r="C94" s="2">
+        <v>1750109615</v>
       </c>
       <c r="D94" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B95">
-        <v>7808461</v>
-      </c>
-      <c r="C95" s="2">
-        <v>1750109659</v>
+        <v>7820507</v>
+      </c>
+      <c r="C95" t="s">
+        <v>71</v>
       </c>
       <c r="D95" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B96">
-        <v>7814392</v>
+        <v>7820527</v>
       </c>
       <c r="C96" s="2">
-        <v>1750189650</v>
+        <v>1750344858</v>
       </c>
       <c r="D96" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B97">
-        <v>7814392</v>
+        <v>7822042</v>
       </c>
       <c r="C97" s="2">
-        <v>1750215295</v>
+        <v>1750159971</v>
       </c>
       <c r="D97" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="B98">
-        <v>7817629</v>
-      </c>
-      <c r="C98" s="2">
-        <v>1750053977</v>
+        <v>7823382</v>
+      </c>
+      <c r="C98" t="s">
+        <v>41</v>
       </c>
       <c r="D98" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B99">
-        <v>7817670</v>
-      </c>
-      <c r="C99" s="2">
-        <v>1750109615</v>
+        <v>7824357</v>
+      </c>
+      <c r="C99" t="s">
+        <v>73</v>
       </c>
       <c r="D99" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B100">
-        <v>7820507</v>
-      </c>
-      <c r="C100" t="s">
-        <v>76</v>
+        <v>7824386</v>
+      </c>
+      <c r="C100" s="2">
+        <v>1750053977</v>
       </c>
       <c r="D100" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B101">
-        <v>7820527</v>
+        <v>7832871</v>
       </c>
       <c r="C101" s="2">
-        <v>1750344858</v>
+        <v>1750105988</v>
       </c>
       <c r="D101" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B102">
-        <v>7822042</v>
-      </c>
-      <c r="C102" s="2">
-        <v>1750159971</v>
+        <v>7833234</v>
+      </c>
+      <c r="C102" t="s">
+        <v>74</v>
       </c>
       <c r="D102" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B103">
-        <v>7823382</v>
-      </c>
-      <c r="C103" t="s">
-        <v>41</v>
+        <v>7833667</v>
+      </c>
+      <c r="C103" s="2">
+        <v>1750215295</v>
       </c>
       <c r="D103" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="B104">
-        <v>7824357</v>
-      </c>
-      <c r="C104" t="s">
-        <v>78</v>
+        <v>7833667</v>
+      </c>
+      <c r="C104" s="2">
+        <v>1750110044</v>
       </c>
       <c r="D104" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B105">
-        <v>7824386</v>
-      </c>
-      <c r="C105" s="2">
-        <v>1750053977</v>
+        <v>7846573</v>
+      </c>
+      <c r="C105" t="s">
+        <v>77</v>
       </c>
       <c r="D105" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B106">
-        <v>7832871</v>
+        <v>7846685</v>
       </c>
       <c r="C106" s="2">
-        <v>1750105988</v>
+        <v>1750101956</v>
       </c>
       <c r="D106" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B107">
-        <v>7833234</v>
-      </c>
-      <c r="C107" t="s">
-        <v>79</v>
+        <v>7848212</v>
+      </c>
+      <c r="C107" s="2">
+        <v>1750204435</v>
       </c>
       <c r="D107" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="B108">
-        <v>7833667</v>
+        <v>7850263</v>
       </c>
       <c r="C108" s="2">
-        <v>1750215295</v>
+        <v>1750053977</v>
       </c>
       <c r="D108" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B109">
-        <v>7833667</v>
+        <v>7858514</v>
       </c>
       <c r="C109" s="2">
-        <v>1750110044</v>
+        <v>1750193275</v>
       </c>
       <c r="D109" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B110">
-        <v>7846573</v>
-      </c>
-      <c r="C110" t="s">
-        <v>82</v>
+        <v>7858514</v>
+      </c>
+      <c r="C110" s="2">
+        <v>1750133348</v>
       </c>
       <c r="D110" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B111">
-        <v>7846685</v>
+        <v>7858757</v>
       </c>
       <c r="C111" s="2">
-        <v>1750101956</v>
+        <v>1750199149</v>
       </c>
       <c r="D111" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="B112">
-        <v>7848212</v>
-      </c>
-      <c r="C112" s="2">
-        <v>1750204435</v>
+        <v>7859082</v>
+      </c>
+      <c r="C112" t="s">
+        <v>80</v>
       </c>
       <c r="D112" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B113">
-        <v>7850263</v>
+        <v>7859726</v>
       </c>
       <c r="C113" s="2">
-        <v>1750053977</v>
+        <v>1750222982</v>
       </c>
       <c r="D113" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B114">
-        <v>7858514</v>
+        <v>7867214</v>
       </c>
       <c r="C114" s="2">
-        <v>1750193275</v>
+        <v>1750256247</v>
       </c>
       <c r="D114" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B115">
-        <v>7858514</v>
-      </c>
-      <c r="C115" s="2">
-        <v>1750133348</v>
+        <v>7867607</v>
+      </c>
+      <c r="C115" t="s">
+        <v>82</v>
       </c>
       <c r="D115" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B116">
-        <v>7858757</v>
-      </c>
-      <c r="C116" s="2">
-        <v>1750199149</v>
+        <v>7871860</v>
+      </c>
+      <c r="C116" t="s">
+        <v>63</v>
       </c>
       <c r="D116" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B117">
-        <v>7859082</v>
+        <v>7871860</v>
       </c>
       <c r="C117" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="D117" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B118">
-        <v>7859146</v>
-      </c>
-      <c r="C118" s="2">
-        <v>1750109615</v>
+        <v>7871860</v>
+      </c>
+      <c r="C118" t="s">
+        <v>77</v>
       </c>
       <c r="D118" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B119">
-        <v>7859726</v>
+        <v>7873878</v>
       </c>
       <c r="C119" s="2">
-        <v>1750222982</v>
+        <v>1750105679</v>
       </c>
       <c r="D119" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B120">
-        <v>7860390</v>
+        <v>7873878</v>
       </c>
       <c r="C120" s="2">
-        <v>1750109615</v>
+        <v>1750109658</v>
       </c>
       <c r="D120" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B121">
-        <v>7860390</v>
+        <v>7878427</v>
       </c>
       <c r="C121" s="2">
-        <v>1750109641</v>
+        <v>1750214647</v>
       </c>
       <c r="D121" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B122">
-        <v>7860390</v>
+        <v>7884952</v>
       </c>
       <c r="C122" s="2">
-        <v>1750105679</v>
+        <v>1750053977</v>
       </c>
       <c r="D122" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B123">
-        <v>7867214</v>
-      </c>
-      <c r="C123" s="2">
-        <v>1750256247</v>
+        <v>7885396</v>
+      </c>
+      <c r="C123" t="s">
+        <v>51</v>
       </c>
       <c r="D123" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B124">
-        <v>7867607</v>
-      </c>
-      <c r="C124" t="s">
-        <v>89</v>
+        <v>7885866</v>
+      </c>
+      <c r="C124" s="2">
+        <v>1750189650</v>
       </c>
       <c r="D124" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="B125">
-        <v>7871860</v>
+        <v>7888819</v>
       </c>
       <c r="C125" t="s">
-        <v>67</v>
+        <v>297</v>
       </c>
       <c r="D125" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B126">
-        <v>7871860</v>
-      </c>
-      <c r="C126" t="s">
-        <v>52</v>
+        <v>7890266</v>
+      </c>
+      <c r="C126" s="2">
+        <v>1750215294</v>
       </c>
       <c r="D126" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B127">
-        <v>7871860</v>
-      </c>
-      <c r="C127" t="s">
-        <v>82</v>
+        <v>7894613</v>
+      </c>
+      <c r="C127" s="2">
+        <v>1750261447</v>
       </c>
       <c r="D127" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B128">
-        <v>7873878</v>
-      </c>
-      <c r="C128" s="2">
-        <v>1750105679</v>
+        <v>7897120</v>
+      </c>
+      <c r="C128" t="s">
+        <v>52</v>
       </c>
       <c r="D128" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B129">
-        <v>7873878</v>
-      </c>
-      <c r="C129" s="2">
-        <v>1750109658</v>
+        <v>7897299</v>
+      </c>
+      <c r="C129">
+        <v>1750193275</v>
       </c>
       <c r="D129" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B130">
-        <v>7878427</v>
-      </c>
-      <c r="C130" s="2">
-        <v>1750214647</v>
+        <v>7897379</v>
+      </c>
+      <c r="C130" t="s">
+        <v>92</v>
       </c>
       <c r="D130" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B131">
-        <v>7884952</v>
-      </c>
-      <c r="C131" s="2">
-        <v>1750053977</v>
+        <v>7897592</v>
+      </c>
+      <c r="C131" t="s">
+        <v>93</v>
       </c>
       <c r="D131" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B132">
-        <v>7885396</v>
-      </c>
-      <c r="C132" t="s">
-        <v>52</v>
+        <v>7897869</v>
+      </c>
+      <c r="C132" s="2">
+        <v>1750261447</v>
       </c>
       <c r="D132" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B133">
-        <v>7885866</v>
+        <v>7897950</v>
       </c>
       <c r="C133" s="2">
-        <v>1750189650</v>
+        <v>1750053977</v>
       </c>
       <c r="D133" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
+        <v>47</v>
+      </c>
+      <c r="B134">
+        <v>7897950</v>
+      </c>
+      <c r="C134" s="2">
+        <v>1750109658</v>
+      </c>
+      <c r="D134" t="s">
         <v>94</v>
-      </c>
-      <c r="B134">
-        <v>7888819</v>
-      </c>
-      <c r="C134" t="s">
-        <v>295</v>
-      </c>
-      <c r="D134" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B135">
-        <v>7890266</v>
+        <v>7899433</v>
       </c>
       <c r="C135" s="2">
-        <v>1750215294</v>
+        <v>1750208512</v>
       </c>
       <c r="D135" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B136">
-        <v>7894613</v>
+        <v>7900350</v>
       </c>
       <c r="C136" s="2">
-        <v>1750261447</v>
+        <v>1750109659</v>
       </c>
       <c r="D136" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B137">
-        <v>7897120</v>
-      </c>
-      <c r="C137" t="s">
-        <v>53</v>
+        <v>7900350</v>
+      </c>
+      <c r="C137" s="2">
+        <v>1750105679</v>
       </c>
       <c r="D137" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B138">
-        <v>7897299</v>
-      </c>
-      <c r="C138">
-        <v>1750193275</v>
+        <v>7900491</v>
+      </c>
+      <c r="C138" t="s">
+        <v>92</v>
       </c>
       <c r="D138" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B139">
-        <v>7897869</v>
-      </c>
-      <c r="C139" s="2">
-        <v>1750261447</v>
+        <v>7900491</v>
+      </c>
+      <c r="C139" t="s">
+        <v>95</v>
       </c>
       <c r="D139" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B140">
-        <v>7897950</v>
+        <v>7904305</v>
       </c>
       <c r="C140" s="2">
-        <v>1750053977</v>
+        <v>1750200541</v>
       </c>
       <c r="D140" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B141">
-        <v>7897950</v>
+        <v>7904305</v>
       </c>
       <c r="C141" s="2">
-        <v>1750109658</v>
+        <v>1750200435</v>
       </c>
       <c r="D141" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B142">
-        <v>7899433</v>
+        <v>7905109</v>
       </c>
       <c r="C142" s="2">
-        <v>1750208512</v>
+        <v>1750169942</v>
       </c>
       <c r="D142" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B143">
-        <v>7900491</v>
-      </c>
-      <c r="C143" t="s">
-        <v>100</v>
+        <v>7905109</v>
+      </c>
+      <c r="C143" s="2">
+        <v>1750154145</v>
       </c>
       <c r="D143" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B144">
-        <v>7900491</v>
-      </c>
-      <c r="C144" t="s">
-        <v>101</v>
+        <v>7905109</v>
+      </c>
+      <c r="C144" s="2">
+        <v>1750105988</v>
       </c>
       <c r="D144" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B145">
-        <v>7904305</v>
+        <v>7909031</v>
       </c>
       <c r="C145" s="2">
-        <v>1750200541</v>
+        <v>1750173205</v>
       </c>
       <c r="D145" t="s">
-        <v>102</v>
+        <v>58</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B146">
-        <v>7904305</v>
+        <v>7909307</v>
       </c>
       <c r="C146" s="2">
-        <v>1750200435</v>
+        <v>1750188523</v>
       </c>
       <c r="D146" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B147">
-        <v>7905109</v>
+        <v>7912762</v>
       </c>
       <c r="C147" s="2">
-        <v>1750169942</v>
+        <v>1804610970</v>
       </c>
       <c r="D147" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B148">
-        <v>7905109</v>
+        <v>7912762</v>
       </c>
       <c r="C148" s="2">
-        <v>1750154145</v>
+        <v>1770031910</v>
       </c>
       <c r="D148" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B149">
-        <v>7905109</v>
+        <v>7912856</v>
       </c>
       <c r="C149" s="2">
-        <v>1750105988</v>
+        <v>1750215294</v>
       </c>
       <c r="D149" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B150">
-        <v>7909031</v>
+        <v>7913107</v>
       </c>
       <c r="C150" s="2">
-        <v>1750173205</v>
+        <v>1750200435</v>
       </c>
       <c r="D150" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B151">
-        <v>7909307</v>
+        <v>7914619</v>
       </c>
       <c r="C151" s="2">
-        <v>1750188523</v>
+        <v>1750200435</v>
       </c>
       <c r="D151" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B152">
-        <v>7910329</v>
+        <v>7914619</v>
       </c>
       <c r="C152" s="2">
-        <v>1750173205</v>
+        <v>1750214647</v>
       </c>
       <c r="D152" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B153">
-        <v>7912762</v>
-      </c>
-      <c r="C153" s="2">
-        <v>1804610970</v>
+        <v>7915108</v>
+      </c>
+      <c r="C153" t="s">
+        <v>77</v>
       </c>
       <c r="D153" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="B154">
-        <v>7912762</v>
+        <v>7917231</v>
       </c>
       <c r="C154" s="2">
-        <v>1770031910</v>
+        <v>1750350686</v>
       </c>
       <c r="D154" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="B155">
-        <v>7912856</v>
+        <v>7917231</v>
       </c>
       <c r="C155" s="2">
-        <v>1750215294</v>
+        <v>1750301986</v>
       </c>
       <c r="D155" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B156">
-        <v>7913107</v>
-      </c>
-      <c r="C156" s="2">
-        <v>1750200435</v>
+        <v>7917418</v>
+      </c>
+      <c r="C156" t="s">
+        <v>71</v>
       </c>
       <c r="D156" t="s">
-        <v>107</v>
+        <v>58</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B157">
-        <v>7914619</v>
+        <v>7917809</v>
       </c>
       <c r="C157" s="2">
-        <v>1750200435</v>
+        <v>1750256247</v>
       </c>
       <c r="D157" t="s">
-        <v>108</v>
+        <v>58</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B158">
-        <v>7914619</v>
+        <v>7919567</v>
       </c>
       <c r="C158" s="2">
-        <v>1750214647</v>
+        <v>1750190038</v>
       </c>
       <c r="D158" t="s">
-        <v>108</v>
+        <v>58</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B159">
-        <v>7915108</v>
-      </c>
-      <c r="C159" t="s">
-        <v>82</v>
+        <v>7919667</v>
+      </c>
+      <c r="C159" s="2">
+        <v>1750067867</v>
       </c>
       <c r="D159" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="B160">
-        <v>7915512</v>
+        <v>7919667</v>
       </c>
       <c r="C160" s="2">
-        <v>1750053610</v>
+        <v>1750105988</v>
       </c>
       <c r="D160" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="B161">
-        <v>7917231</v>
+        <v>7920272</v>
       </c>
       <c r="C161" s="2">
-        <v>1750350686</v>
+        <v>1750109659</v>
       </c>
       <c r="D161" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="B162">
-        <v>7917231</v>
+        <v>7920272</v>
       </c>
       <c r="C162" s="2">
-        <v>1750301986</v>
+        <v>1750109615</v>
       </c>
       <c r="D162" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B163">
-        <v>7917418</v>
-      </c>
-      <c r="C163" t="s">
-        <v>76</v>
+        <v>7920574</v>
+      </c>
+      <c r="C163" s="2">
+        <v>1750200435</v>
       </c>
       <c r="D163" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B164">
-        <v>7917809</v>
+        <v>7920574</v>
       </c>
       <c r="C164" s="2">
-        <v>1750256247</v>
+        <v>1750214647</v>
       </c>
       <c r="D164" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B165">
-        <v>7919567</v>
+        <v>7921936</v>
       </c>
       <c r="C165" s="2">
-        <v>1750190038</v>
+        <v>1750200435</v>
       </c>
       <c r="D165" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B166">
-        <v>7919667</v>
-      </c>
-      <c r="C166" s="2">
-        <v>1750067867</v>
+        <v>7924355</v>
+      </c>
+      <c r="C166" t="s">
+        <v>5</v>
       </c>
       <c r="D166" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B167">
-        <v>7919667</v>
+        <v>7924902</v>
       </c>
       <c r="C167" s="2">
-        <v>1750105988</v>
+        <v>1750200435</v>
       </c>
       <c r="D167" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B168">
-        <v>7920272</v>
+        <v>7925113</v>
       </c>
       <c r="C168" s="2">
-        <v>1750109659</v>
+        <v>1750215295</v>
       </c>
       <c r="D168" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>48</v>
+        <v>109</v>
       </c>
       <c r="B169">
-        <v>7920272</v>
+        <v>7925266</v>
       </c>
       <c r="C169" s="2">
-        <v>1750109615</v>
+        <v>1750222982</v>
       </c>
       <c r="D169" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="B170">
-        <v>7920574</v>
-      </c>
-      <c r="C170" s="2">
-        <v>1750200435</v>
+        <v>7926268</v>
+      </c>
+      <c r="C170" t="s">
+        <v>111</v>
       </c>
       <c r="D170" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="B171">
-        <v>7920574</v>
+        <v>7926363</v>
       </c>
       <c r="C171" s="2">
-        <v>1750214647</v>
+        <v>1750044878</v>
       </c>
       <c r="D171" t="s">
         <v>113</v>
@@ -3684,55 +3696,55 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B172">
-        <v>7921936</v>
-      </c>
-      <c r="C172" s="2">
-        <v>1750200435</v>
+        <v>7926496</v>
+      </c>
+      <c r="C172" t="s">
+        <v>114</v>
       </c>
       <c r="D172" t="s">
-        <v>107</v>
+        <v>58</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B173">
-        <v>7924355</v>
-      </c>
-      <c r="C173" t="s">
-        <v>5</v>
+        <v>7926501</v>
+      </c>
+      <c r="C173" s="2">
+        <v>1750110044</v>
       </c>
       <c r="D173" t="s">
-        <v>114</v>
+        <v>58</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B174">
-        <v>7924902</v>
+        <v>7929027</v>
       </c>
       <c r="C174" s="2">
-        <v>1750200435</v>
+        <v>1750105679</v>
       </c>
       <c r="D174" t="s">
-        <v>107</v>
+        <v>58</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B175">
-        <v>7924940</v>
-      </c>
-      <c r="C175" t="s">
-        <v>101</v>
+        <v>7929932</v>
+      </c>
+      <c r="C175" s="2">
+        <v>1750188523</v>
       </c>
       <c r="D175" t="s">
         <v>115</v>
@@ -3743,388 +3755,388 @@
         <v>8</v>
       </c>
       <c r="B176">
-        <v>7925113</v>
+        <v>7929932</v>
       </c>
       <c r="C176" s="2">
-        <v>1750215295</v>
+        <v>1750101956</v>
       </c>
       <c r="D176" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="B177">
-        <v>7925266</v>
+        <v>7930608</v>
       </c>
       <c r="C177" s="2">
-        <v>1750222982</v>
+        <v>1750193275</v>
       </c>
       <c r="D177" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="B178">
-        <v>7926268</v>
-      </c>
-      <c r="C178" t="s">
-        <v>119</v>
+        <v>7930610</v>
+      </c>
+      <c r="C178" s="2">
+        <v>1750193276</v>
       </c>
       <c r="D178" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="B179">
-        <v>7926363</v>
+        <v>7930610</v>
       </c>
       <c r="C179" s="2">
-        <v>1750044878</v>
+        <v>1750220330</v>
       </c>
       <c r="D179" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B180">
-        <v>7926430</v>
+        <v>7930610</v>
       </c>
       <c r="C180" s="2">
-        <v>1750109659</v>
+        <v>1750248000</v>
       </c>
       <c r="D180" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B181">
-        <v>7926430</v>
+        <v>7930610</v>
       </c>
       <c r="C181" s="2">
-        <v>1750109615</v>
+        <v>1750220022</v>
       </c>
       <c r="D181" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B182">
-        <v>7926496</v>
-      </c>
-      <c r="C182" t="s">
-        <v>123</v>
+        <v>7931010</v>
+      </c>
+      <c r="C182" s="2">
+        <v>1750188523</v>
       </c>
       <c r="D182" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B183">
-        <v>7926501</v>
+        <v>7931010</v>
       </c>
       <c r="C183" s="2">
-        <v>1750110044</v>
+        <v>1750263341</v>
       </c>
       <c r="D183" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B184">
-        <v>7929027</v>
+        <v>7931010</v>
       </c>
       <c r="C184" s="2">
-        <v>1750105679</v>
+        <v>1750245555</v>
       </c>
       <c r="D184" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="B185">
-        <v>7929932</v>
+        <v>7942380</v>
       </c>
       <c r="C185" s="2">
-        <v>1750188523</v>
+        <v>1750109615</v>
       </c>
       <c r="D185" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="B186">
-        <v>7929932</v>
-      </c>
-      <c r="C186" s="2">
-        <v>1750101956</v>
+        <v>7942448</v>
+      </c>
+      <c r="C186" t="s">
+        <v>119</v>
       </c>
       <c r="D186" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B187">
-        <v>7930608</v>
+        <v>7942589</v>
       </c>
       <c r="C187" s="2">
-        <v>1750193275</v>
+        <v>1750100966</v>
       </c>
       <c r="D187" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B188">
-        <v>7930610</v>
+        <v>7943149</v>
       </c>
       <c r="C188" s="2">
-        <v>1750193276</v>
+        <v>1750200435</v>
       </c>
       <c r="D188" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B189">
-        <v>7930610</v>
+        <v>7945233</v>
       </c>
       <c r="C189" s="2">
-        <v>1750220330</v>
+        <v>1750215295</v>
       </c>
       <c r="D189" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B190">
-        <v>7930610</v>
+        <v>7945303</v>
       </c>
       <c r="C190" s="2">
-        <v>1750248000</v>
+        <v>1750193275</v>
       </c>
       <c r="D190" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B191">
-        <v>7930610</v>
+        <v>7946733</v>
       </c>
       <c r="C191" s="2">
-        <v>1750220022</v>
+        <v>1750155446</v>
       </c>
       <c r="D191" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B192">
-        <v>7931010</v>
+        <v>7946733</v>
       </c>
       <c r="C192" s="2">
-        <v>1750188523</v>
+        <v>1750187030</v>
       </c>
       <c r="D192" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B193">
-        <v>7931010</v>
+        <v>7946970</v>
       </c>
       <c r="C193" s="2">
-        <v>1750263341</v>
+        <v>1750200435</v>
       </c>
       <c r="D193" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B194">
-        <v>7931010</v>
+        <v>7947736</v>
       </c>
       <c r="C194" s="2">
-        <v>1750245555</v>
+        <v>1750215294</v>
       </c>
       <c r="D194" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B195">
-        <v>7942380</v>
+        <v>7947847</v>
       </c>
       <c r="C195" s="2">
-        <v>1750109615</v>
+        <v>1750214647</v>
       </c>
       <c r="D195" t="s">
-        <v>60</v>
+        <v>127</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B196">
-        <v>7942448</v>
-      </c>
-      <c r="C196" t="s">
-        <v>128</v>
+        <v>7947847</v>
+      </c>
+      <c r="C196" s="2">
+        <v>1750212682</v>
       </c>
       <c r="D196" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B197">
-        <v>7942589</v>
+        <v>7947847</v>
       </c>
       <c r="C197" s="2">
-        <v>1750100966</v>
+        <v>1750140781</v>
       </c>
       <c r="D197" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B198">
-        <v>7943149</v>
+        <v>7947866</v>
       </c>
       <c r="C198" s="2">
-        <v>1750200435</v>
+        <v>1750126457</v>
       </c>
       <c r="D198" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B199">
-        <v>7945233</v>
+        <v>7947866</v>
       </c>
       <c r="C199" s="2">
-        <v>1750215295</v>
+        <v>1750196174</v>
       </c>
       <c r="D199" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B200">
-        <v>7945303</v>
+        <v>7947978</v>
       </c>
       <c r="C200" s="2">
-        <v>1750193275</v>
+        <v>1750105679</v>
       </c>
       <c r="D200" t="s">
-        <v>133</v>
+        <v>58</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="B201">
-        <v>7946733</v>
+        <v>7947978</v>
       </c>
       <c r="C201" s="2">
-        <v>1750155446</v>
+        <v>1750109615</v>
       </c>
       <c r="D201" t="s">
-        <v>134</v>
+        <v>58</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B202">
-        <v>7946733</v>
+        <v>7949223</v>
       </c>
       <c r="C202" s="2">
-        <v>1750187030</v>
+        <v>1750200435</v>
       </c>
       <c r="D202" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="B203">
-        <v>7946970</v>
-      </c>
-      <c r="C203" s="2">
-        <v>1750200435</v>
+        <v>7950093</v>
+      </c>
+      <c r="C203" t="s">
+        <v>111</v>
       </c>
       <c r="D203" t="s">
         <v>131</v>
@@ -4132,251 +4144,251 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="B204">
-        <v>7947736</v>
-      </c>
-      <c r="C204" s="2">
-        <v>1750215294</v>
+        <v>7952640</v>
+      </c>
+      <c r="C204" t="s">
+        <v>73</v>
       </c>
       <c r="D204" t="s">
-        <v>135</v>
+        <v>58</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B205">
-        <v>7947847</v>
+        <v>7952699</v>
       </c>
       <c r="C205" s="2">
-        <v>1750214647</v>
+        <v>1750215295</v>
       </c>
       <c r="D205" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B206">
-        <v>7947847</v>
+        <v>7952699</v>
       </c>
       <c r="C206" s="2">
-        <v>1750212682</v>
+        <v>1750215294</v>
       </c>
       <c r="D206" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B207">
-        <v>7947847</v>
+        <v>7952778</v>
       </c>
       <c r="C207" s="2">
-        <v>1750140781</v>
+        <v>1750188546</v>
       </c>
       <c r="D207" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B208">
-        <v>7947866</v>
-      </c>
-      <c r="C208" s="2">
-        <v>1750126457</v>
+        <v>7952908</v>
+      </c>
+      <c r="C208" t="s">
+        <v>134</v>
       </c>
       <c r="D208" t="s">
-        <v>137</v>
+        <v>58</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B209">
-        <v>7947866</v>
+        <v>7952925</v>
       </c>
       <c r="C209" s="2">
-        <v>1750196174</v>
+        <v>1750200435</v>
       </c>
       <c r="D209" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="B210">
-        <v>7947912</v>
+        <v>7953388</v>
       </c>
       <c r="C210" s="2">
         <v>1750109641</v>
       </c>
       <c r="D210" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B211">
-        <v>7947978</v>
+        <v>7953388</v>
       </c>
       <c r="C211" s="2">
-        <v>1750105679</v>
+        <v>1750035762</v>
       </c>
       <c r="D211" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B212">
-        <v>7947978</v>
+        <v>7954123</v>
       </c>
       <c r="C212" s="2">
-        <v>1750109615</v>
+        <v>1750173205</v>
       </c>
       <c r="D212" t="s">
-        <v>60</v>
+        <v>137</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B213">
-        <v>7949223</v>
+        <v>7955646</v>
       </c>
       <c r="C213" s="2">
         <v>1750200435</v>
       </c>
       <c r="D213" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B214">
-        <v>7952640</v>
+        <v>7955813</v>
       </c>
       <c r="C214" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="D214" t="s">
-        <v>60</v>
+        <v>139</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B215">
-        <v>7952699</v>
+        <v>7956551</v>
       </c>
       <c r="C215" s="2">
-        <v>1750215295</v>
+        <v>1750222982</v>
       </c>
       <c r="D215" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B216">
-        <v>7952699</v>
+        <v>7956807</v>
       </c>
       <c r="C216" s="2">
-        <v>1750215294</v>
+        <v>1750056193</v>
       </c>
       <c r="D216" t="s">
-        <v>141</v>
+        <v>58</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B217">
-        <v>7952778</v>
+        <v>7957257</v>
       </c>
       <c r="C217" s="2">
-        <v>1750188546</v>
+        <v>1750126457</v>
       </c>
       <c r="D217" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="B218">
-        <v>7952908</v>
-      </c>
-      <c r="C218" t="s">
-        <v>143</v>
+        <v>7958425</v>
+      </c>
+      <c r="C218" s="2">
+        <v>1750222982</v>
       </c>
       <c r="D218" t="s">
-        <v>60</v>
+        <v>142</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B219">
-        <v>7952925</v>
+        <v>7959520</v>
       </c>
       <c r="C219" s="2">
-        <v>1750200435</v>
+        <v>1750109641</v>
       </c>
       <c r="D219" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B220">
-        <v>7953388</v>
+        <v>7959985</v>
       </c>
       <c r="C220" s="2">
-        <v>1750109641</v>
+        <v>1750215295</v>
       </c>
       <c r="D220" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B221">
-        <v>7953388</v>
+        <v>7960728</v>
       </c>
       <c r="C221" s="2">
-        <v>1750035762</v>
+        <v>1750189650</v>
       </c>
       <c r="D221" t="s">
         <v>145</v>
@@ -4384,83 +4396,83 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B222">
-        <v>7954123</v>
+        <v>7960728</v>
       </c>
       <c r="C222" s="2">
-        <v>1750173205</v>
+        <v>1750053977</v>
       </c>
       <c r="D222" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B223">
-        <v>7955646</v>
+        <v>7960730</v>
       </c>
       <c r="C223" s="2">
         <v>1750200435</v>
       </c>
       <c r="D223" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B224">
-        <v>7955813</v>
-      </c>
-      <c r="C224" t="s">
-        <v>101</v>
+        <v>7960732</v>
+      </c>
+      <c r="C224" s="2">
+        <v>1750193275</v>
       </c>
       <c r="D224" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B225">
-        <v>7956551</v>
+        <v>7960739</v>
       </c>
       <c r="C225" s="2">
-        <v>1750222982</v>
+        <v>1750193275</v>
       </c>
       <c r="D225" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B226">
-        <v>7956807</v>
-      </c>
-      <c r="C226" s="2">
-        <v>1750056193</v>
+        <v>7960743</v>
+      </c>
+      <c r="C226" t="s">
+        <v>298</v>
       </c>
       <c r="D226" t="s">
-        <v>60</v>
+        <v>149</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B227">
-        <v>7957257</v>
+        <v>7961200</v>
       </c>
       <c r="C227" s="2">
-        <v>1750126457</v>
+        <v>1750200435</v>
       </c>
       <c r="D227" t="s">
         <v>150</v>
@@ -4471,80 +4483,80 @@
         <v>10</v>
       </c>
       <c r="B228">
-        <v>7958425</v>
+        <v>7961672</v>
       </c>
       <c r="C228" s="2">
-        <v>1750222982</v>
+        <v>1750188546</v>
       </c>
       <c r="D228" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B229">
-        <v>7959520</v>
-      </c>
-      <c r="C229" s="2">
-        <v>1750109641</v>
+        <v>7963480</v>
+      </c>
+      <c r="C229" t="s">
+        <v>5</v>
       </c>
       <c r="D229" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B230">
-        <v>7959577</v>
+        <v>7964068</v>
       </c>
       <c r="C230" s="2">
-        <v>1750234950</v>
+        <v>1750214647</v>
       </c>
       <c r="D230" t="s">
-        <v>60</v>
+        <v>152</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B231">
-        <v>7959985</v>
+        <v>7964068</v>
       </c>
       <c r="C231" s="2">
-        <v>1750215295</v>
+        <v>1750263341</v>
       </c>
       <c r="D231" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B232">
-        <v>7960728</v>
+        <v>7964068</v>
       </c>
       <c r="C232" s="2">
-        <v>1750189650</v>
+        <v>1750101956</v>
       </c>
       <c r="D232" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>45</v>
+        <v>153</v>
       </c>
       <c r="B233">
-        <v>7960728</v>
+        <v>7964164</v>
       </c>
       <c r="C233" s="2">
-        <v>1750053977</v>
+        <v>1770041364</v>
       </c>
       <c r="D233" t="s">
         <v>154</v>
@@ -4552,13 +4564,13 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B234">
-        <v>7960730</v>
+        <v>7966435</v>
       </c>
       <c r="C234" s="2">
-        <v>1750200435</v>
+        <v>1750220000</v>
       </c>
       <c r="D234" t="s">
         <v>155</v>
@@ -4566,128 +4578,128 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B235">
-        <v>7960732</v>
+        <v>7966435</v>
       </c>
       <c r="C235" s="2">
-        <v>1750193275</v>
+        <v>1750248000</v>
       </c>
       <c r="D235" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B236">
-        <v>7960739</v>
+        <v>7967194</v>
       </c>
       <c r="C236" s="2">
-        <v>1750193275</v>
+        <v>1750220000</v>
       </c>
       <c r="D236" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B237">
-        <v>7961200</v>
+        <v>7967194</v>
       </c>
       <c r="C237" s="2">
-        <v>1750200435</v>
+        <v>1750220022</v>
       </c>
       <c r="D237" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="B238">
-        <v>7961672</v>
-      </c>
-      <c r="C238" s="2">
-        <v>1750188546</v>
+        <v>7967730</v>
+      </c>
+      <c r="C238" t="s">
+        <v>157</v>
       </c>
       <c r="D238" t="s">
-        <v>142</v>
+        <v>58</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="B239">
-        <v>7961919</v>
-      </c>
-      <c r="C239" s="2">
-        <v>1750044668</v>
+        <v>7967730</v>
+      </c>
+      <c r="C239" t="s">
+        <v>71</v>
       </c>
       <c r="D239" t="s">
-        <v>159</v>
+        <v>58</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B240">
-        <v>7963480</v>
-      </c>
-      <c r="C240" t="s">
-        <v>5</v>
+        <v>7967764</v>
+      </c>
+      <c r="C240" s="2">
+        <v>1770041364</v>
       </c>
       <c r="D240" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>45</v>
+        <v>159</v>
       </c>
       <c r="B241">
-        <v>7964068</v>
+        <v>7967825</v>
       </c>
       <c r="C241" s="2">
-        <v>1750214647</v>
+        <v>1750304622</v>
       </c>
       <c r="D241" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>45</v>
+        <v>159</v>
       </c>
       <c r="B242">
-        <v>7964068</v>
-      </c>
-      <c r="C242" s="2">
-        <v>1750263341</v>
+        <v>7967825</v>
+      </c>
+      <c r="C242" t="s">
+        <v>161</v>
       </c>
       <c r="D242" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>45</v>
+        <v>162</v>
       </c>
       <c r="B243">
-        <v>7964068</v>
+        <v>7967829</v>
       </c>
       <c r="C243" s="2">
-        <v>1750101956</v>
+        <v>1750222982</v>
       </c>
       <c r="D243" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
@@ -4695,10 +4707,10 @@
         <v>162</v>
       </c>
       <c r="B244">
-        <v>7964164</v>
+        <v>7967829</v>
       </c>
       <c r="C244" s="2">
-        <v>1770041364</v>
+        <v>1750105679</v>
       </c>
       <c r="D244" t="s">
         <v>163</v>
@@ -4706,13 +4718,13 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B245">
-        <v>7966435</v>
+        <v>7968148</v>
       </c>
       <c r="C245" s="2">
-        <v>1750220000</v>
+        <v>1750109641</v>
       </c>
       <c r="D245" t="s">
         <v>164</v>
@@ -4720,125 +4732,125 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B246">
-        <v>7966435</v>
+        <v>7968426</v>
       </c>
       <c r="C246" s="2">
-        <v>1750248000</v>
+        <v>1750092824</v>
       </c>
       <c r="D246" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B247">
-        <v>7967194</v>
+        <v>7968518</v>
       </c>
       <c r="C247" s="2">
-        <v>1750220000</v>
+        <v>1750173205</v>
       </c>
       <c r="D247" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B248">
-        <v>7967194</v>
+        <v>7968759</v>
       </c>
       <c r="C248" s="2">
-        <v>1750220022</v>
+        <v>1750188546</v>
       </c>
       <c r="D248" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B249">
-        <v>7967726</v>
-      </c>
-      <c r="C249" t="s">
-        <v>5</v>
+        <v>7968924</v>
+      </c>
+      <c r="C249" s="2">
+        <v>1750109659</v>
       </c>
       <c r="D249" t="s">
-        <v>166</v>
+        <v>58</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B250">
-        <v>7967730</v>
-      </c>
-      <c r="C250" t="s">
-        <v>167</v>
+        <v>7969037</v>
+      </c>
+      <c r="C250" s="2">
+        <v>1750215295</v>
       </c>
       <c r="D250" t="s">
-        <v>60</v>
+        <v>168</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B251">
-        <v>7967730</v>
-      </c>
-      <c r="C251" t="s">
-        <v>76</v>
+        <v>7969146</v>
+      </c>
+      <c r="C251" s="2">
+        <v>1750200435</v>
       </c>
       <c r="D251" t="s">
-        <v>60</v>
+        <v>169</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B252">
-        <v>7967764</v>
+        <v>7969146</v>
       </c>
       <c r="C252" s="2">
-        <v>1770041364</v>
+        <v>1750200541</v>
       </c>
       <c r="D252" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
       <c r="B253">
-        <v>7967825</v>
-      </c>
-      <c r="C253" s="2">
-        <v>1750304622</v>
+        <v>7969156</v>
+      </c>
+      <c r="C253" t="s">
+        <v>95</v>
       </c>
       <c r="D253" t="s">
-        <v>170</v>
+        <v>139</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>169</v>
+        <v>8</v>
       </c>
       <c r="B254">
-        <v>7967825</v>
-      </c>
-      <c r="C254" t="s">
-        <v>171</v>
+        <v>7969367</v>
+      </c>
+      <c r="C254" s="2">
+        <v>1750188523</v>
       </c>
       <c r="D254" t="s">
         <v>170</v>
@@ -4846,72 +4858,72 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>172</v>
+        <v>44</v>
       </c>
       <c r="B255">
-        <v>7967829</v>
+        <v>7969374</v>
       </c>
       <c r="C255" s="2">
-        <v>1750222982</v>
+        <v>1750200435</v>
       </c>
       <c r="D255" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
+        <v>87</v>
+      </c>
+      <c r="B256">
+        <v>7970398</v>
+      </c>
+      <c r="C256" t="s">
+        <v>119</v>
+      </c>
+      <c r="D256" t="s">
         <v>172</v>
-      </c>
-      <c r="B256">
-        <v>7967829</v>
-      </c>
-      <c r="C256" s="2">
-        <v>1750105679</v>
-      </c>
-      <c r="D256" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="B257">
-        <v>7968148</v>
-      </c>
-      <c r="C257" s="2">
-        <v>1750109641</v>
+        <v>7970398</v>
+      </c>
+      <c r="C257" t="s">
+        <v>55</v>
       </c>
       <c r="D257" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B258">
-        <v>7968426</v>
+        <v>7970595</v>
       </c>
       <c r="C258" s="2">
-        <v>1750092824</v>
+        <v>1750200541</v>
       </c>
       <c r="D258" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B259">
-        <v>7968518</v>
+        <v>7970595</v>
       </c>
       <c r="C259" s="2">
-        <v>1750173205</v>
+        <v>1750214647</v>
       </c>
       <c r="D259" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
@@ -4919,66 +4931,66 @@
         <v>10</v>
       </c>
       <c r="B260">
-        <v>7968759</v>
+        <v>7971064</v>
       </c>
       <c r="C260" s="2">
-        <v>1750188546</v>
+        <v>1750109641</v>
       </c>
       <c r="D260" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="B261">
-        <v>7968924</v>
+        <v>7971177</v>
       </c>
       <c r="C261" s="2">
-        <v>1750109659</v>
+        <v>1750173205</v>
       </c>
       <c r="D261" t="s">
-        <v>60</v>
+        <v>175</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B262">
-        <v>7969037</v>
+        <v>7971383</v>
       </c>
       <c r="C262" s="2">
-        <v>1750215295</v>
+        <v>1750200435</v>
       </c>
       <c r="D262" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B263">
-        <v>7969146</v>
+        <v>7971741</v>
       </c>
       <c r="C263" s="2">
         <v>1750200435</v>
       </c>
       <c r="D263" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B264">
-        <v>7969146</v>
+        <v>7972029</v>
       </c>
       <c r="C264" s="2">
-        <v>1750200541</v>
+        <v>1750248000</v>
       </c>
       <c r="D264" t="s">
         <v>178</v>
@@ -4986,27 +4998,27 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B265">
-        <v>7969156</v>
-      </c>
-      <c r="C265" t="s">
-        <v>101</v>
+        <v>7972029</v>
+      </c>
+      <c r="C265" s="2">
+        <v>1750220330</v>
       </c>
       <c r="D265" t="s">
-        <v>148</v>
+        <v>178</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B266">
-        <v>7969367</v>
+        <v>7973015</v>
       </c>
       <c r="C266" s="2">
-        <v>1750188523</v>
+        <v>1750200541</v>
       </c>
       <c r="D266" t="s">
         <v>179</v>
@@ -5014,251 +5026,251 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B267">
-        <v>7969374</v>
+        <v>7973015</v>
       </c>
       <c r="C267" s="2">
-        <v>1750200435</v>
+        <v>1750245555</v>
       </c>
       <c r="D267" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="B268">
-        <v>7970398</v>
-      </c>
-      <c r="C268" t="s">
-        <v>128</v>
+        <v>7973015</v>
+      </c>
+      <c r="C268" s="2">
+        <v>1750134478</v>
       </c>
       <c r="D268" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="B269">
-        <v>7970398</v>
-      </c>
-      <c r="C269" t="s">
-        <v>57</v>
+        <v>7973015</v>
+      </c>
+      <c r="C269" s="2">
+        <v>1750263341</v>
       </c>
       <c r="D269" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B270">
-        <v>7970595</v>
+        <v>7973357</v>
       </c>
       <c r="C270" s="2">
-        <v>1750200541</v>
+        <v>1750220022</v>
       </c>
       <c r="D270" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B271">
-        <v>7970595</v>
+        <v>7973357</v>
       </c>
       <c r="C271" s="2">
-        <v>1750214647</v>
+        <v>1750220000</v>
       </c>
       <c r="D271" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B272">
-        <v>7971064</v>
+        <v>7973357</v>
       </c>
       <c r="C272" s="2">
-        <v>1750109641</v>
+        <v>1750200435</v>
       </c>
       <c r="D272" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="B273">
-        <v>7971177</v>
-      </c>
-      <c r="C273" s="2">
-        <v>1750173205</v>
+        <v>7973399</v>
+      </c>
+      <c r="C273" t="s">
+        <v>181</v>
       </c>
       <c r="D273" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B274">
-        <v>7971383</v>
+        <v>7973493</v>
       </c>
       <c r="C274" s="2">
-        <v>1750200435</v>
+        <v>1750101956</v>
       </c>
       <c r="D274" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B275">
-        <v>7971741</v>
+        <v>7973493</v>
       </c>
       <c r="C275" s="2">
-        <v>1750200435</v>
+        <v>1750188523</v>
       </c>
       <c r="D275" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B276">
-        <v>7972029</v>
+        <v>7973493</v>
       </c>
       <c r="C276" s="2">
-        <v>1750248000</v>
+        <v>1750101952</v>
       </c>
       <c r="D276" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B277">
-        <v>7972029</v>
+        <v>7973493</v>
       </c>
       <c r="C277" s="2">
-        <v>1750220330</v>
+        <v>1750188524</v>
       </c>
       <c r="D277" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B278">
-        <v>7973015</v>
-      </c>
-      <c r="C278" s="2">
-        <v>1750200541</v>
+        <v>7973493</v>
+      </c>
+      <c r="C278" t="s">
+        <v>184</v>
       </c>
       <c r="D278" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B279">
-        <v>7973015</v>
-      </c>
-      <c r="C279" s="2">
-        <v>1750245555</v>
+        <v>7973493</v>
+      </c>
+      <c r="C279" t="s">
+        <v>185</v>
       </c>
       <c r="D279" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B280">
-        <v>7973015</v>
-      </c>
-      <c r="C280" s="2">
-        <v>1750134478</v>
+        <v>7973493</v>
+      </c>
+      <c r="C280" t="s">
+        <v>185</v>
       </c>
       <c r="D280" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B281">
-        <v>7973015</v>
+        <v>7973637</v>
       </c>
       <c r="C281" s="2">
-        <v>1750263341</v>
+        <v>1750188546</v>
       </c>
       <c r="D281" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B282">
-        <v>7973357</v>
+        <v>7974287</v>
       </c>
       <c r="C282" s="2">
-        <v>1750220022</v>
+        <v>1750130600</v>
       </c>
       <c r="D282" t="s">
-        <v>189</v>
+        <v>58</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>45</v>
+        <v>187</v>
       </c>
       <c r="B283">
-        <v>7973357</v>
+        <v>7975903</v>
       </c>
       <c r="C283" s="2">
-        <v>1750220000</v>
+        <v>1750053690</v>
       </c>
       <c r="D283" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B284">
-        <v>7973357</v>
+        <v>7975982</v>
       </c>
       <c r="C284" s="2">
-        <v>1750200435</v>
+        <v>1750248000</v>
       </c>
       <c r="D284" t="s">
         <v>189</v>
@@ -5266,55 +5278,55 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B285">
-        <v>7973399</v>
-      </c>
-      <c r="C285" t="s">
-        <v>190</v>
+        <v>7975982</v>
+      </c>
+      <c r="C285" s="2">
+        <v>1750220330</v>
       </c>
       <c r="D285" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B286">
-        <v>7973493</v>
+        <v>7976330</v>
       </c>
       <c r="C286" s="2">
-        <v>1750101956</v>
+        <v>1750222982</v>
       </c>
       <c r="D286" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="B287">
-        <v>7973493</v>
+        <v>7976745</v>
       </c>
       <c r="C287" s="2">
-        <v>1750188523</v>
+        <v>1750105988</v>
       </c>
       <c r="D287" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B288">
-        <v>7973493</v>
+        <v>7977137</v>
       </c>
       <c r="C288" s="2">
-        <v>1750101952</v>
+        <v>1750200435</v>
       </c>
       <c r="D288" t="s">
         <v>192</v>
@@ -5322,30 +5334,30 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B289">
-        <v>7973493</v>
+        <v>7978510</v>
       </c>
       <c r="C289" s="2">
-        <v>1750188524</v>
+        <v>1750215294</v>
       </c>
       <c r="D289" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B290">
-        <v>7973493</v>
-      </c>
-      <c r="C290" t="s">
+        <v>7978510</v>
+      </c>
+      <c r="C290" s="2">
+        <v>1750215295</v>
+      </c>
+      <c r="D290" t="s">
         <v>193</v>
-      </c>
-      <c r="D290" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
@@ -5353,293 +5365,293 @@
         <v>8</v>
       </c>
       <c r="B291">
-        <v>7973493</v>
-      </c>
-      <c r="C291" t="s">
-        <v>194</v>
+        <v>7978626</v>
+      </c>
+      <c r="C291" s="2">
+        <v>1750173205</v>
       </c>
       <c r="D291" t="s">
-        <v>192</v>
+        <v>154</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="B292">
-        <v>7973493</v>
-      </c>
-      <c r="C292" t="s">
-        <v>194</v>
+        <v>7978655</v>
+      </c>
+      <c r="C292" s="2">
+        <v>1750220022</v>
       </c>
       <c r="D292" t="s">
-        <v>192</v>
+        <v>58</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="B293">
-        <v>7973637</v>
+        <v>7978655</v>
       </c>
       <c r="C293" s="2">
-        <v>1750188546</v>
+        <v>1750220330</v>
       </c>
       <c r="D293" t="s">
-        <v>195</v>
+        <v>58</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="B294">
-        <v>7974004</v>
+        <v>7978655</v>
       </c>
       <c r="C294" s="2">
-        <v>1750109659</v>
+        <v>1750239538</v>
       </c>
       <c r="D294" t="s">
-        <v>196</v>
+        <v>58</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="B295">
-        <v>7974004</v>
+        <v>7978655</v>
       </c>
       <c r="C295" s="2">
-        <v>1750109615</v>
+        <v>1750289153</v>
       </c>
       <c r="D295" t="s">
-        <v>196</v>
+        <v>58</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="B296">
-        <v>7974287</v>
-      </c>
-      <c r="C296" s="2">
-        <v>1750130600</v>
+        <v>7978826</v>
+      </c>
+      <c r="C296" t="s">
+        <v>95</v>
       </c>
       <c r="D296" t="s">
-        <v>60</v>
+        <v>194</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="B297">
-        <v>7974671</v>
+        <v>7979255</v>
       </c>
       <c r="C297" s="2">
-        <v>1750105986</v>
+        <v>1750105988</v>
       </c>
       <c r="D297" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>198</v>
+        <v>57</v>
       </c>
       <c r="B298">
-        <v>7975903</v>
+        <v>7979396</v>
       </c>
       <c r="C298" s="2">
-        <v>1750053690</v>
+        <v>1750053977</v>
       </c>
       <c r="D298" t="s">
-        <v>199</v>
+        <v>58</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B299">
-        <v>7975982</v>
+        <v>7979436</v>
       </c>
       <c r="C299" s="2">
-        <v>1750248000</v>
+        <v>1750200435</v>
       </c>
       <c r="D299" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B300">
-        <v>7975982</v>
+        <v>7979551</v>
       </c>
       <c r="C300" s="2">
-        <v>1750220330</v>
+        <v>1750134478</v>
       </c>
       <c r="D300" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B301">
-        <v>7976330</v>
+        <v>7979551</v>
       </c>
       <c r="C301" s="2">
-        <v>1750222982</v>
+        <v>1750214647</v>
       </c>
       <c r="D301" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B302">
-        <v>7976745</v>
+        <v>7979609</v>
       </c>
       <c r="C302" s="2">
-        <v>1750105988</v>
+        <v>1750200435</v>
       </c>
       <c r="D302" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>45</v>
+        <v>187</v>
       </c>
       <c r="B303">
-        <v>7977137</v>
+        <v>7979806</v>
       </c>
       <c r="C303" s="2">
-        <v>1750200435</v>
+        <v>1750261447</v>
       </c>
       <c r="D303" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="B304">
-        <v>7977336</v>
+        <v>7979880</v>
       </c>
       <c r="C304" s="2">
-        <v>1750173205</v>
+        <v>1750105988</v>
       </c>
       <c r="D304" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B305">
-        <v>7978510</v>
+        <v>7983248</v>
       </c>
       <c r="C305" s="2">
-        <v>1750215294</v>
+        <v>1750109615</v>
       </c>
       <c r="D305" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B306">
-        <v>7978510</v>
+        <v>7983283</v>
       </c>
       <c r="C306" s="2">
-        <v>1750215295</v>
+        <v>1750105679</v>
       </c>
       <c r="D306" t="s">
-        <v>205</v>
+        <v>58</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B307">
-        <v>7978626</v>
+        <v>7983301</v>
       </c>
       <c r="C307" s="2">
-        <v>1750173205</v>
+        <v>1750302850</v>
       </c>
       <c r="D307" t="s">
-        <v>163</v>
+        <v>199</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B308">
-        <v>7978655</v>
-      </c>
-      <c r="C308" s="2">
-        <v>1750220022</v>
+        <v>7983339</v>
+      </c>
+      <c r="C308">
+        <v>1750177464</v>
       </c>
       <c r="D308" t="s">
-        <v>60</v>
+        <v>200</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B309">
-        <v>7978655</v>
-      </c>
-      <c r="C309" s="2">
-        <v>1750220330</v>
+        <v>7983339</v>
+      </c>
+      <c r="C309">
+        <v>1750188523</v>
       </c>
       <c r="D309" t="s">
-        <v>60</v>
+        <v>200</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>59</v>
+        <v>187</v>
       </c>
       <c r="B310">
-        <v>7978655</v>
+        <v>7983535</v>
       </c>
       <c r="C310" s="2">
-        <v>1750239538</v>
+        <v>1750053690</v>
       </c>
       <c r="D310" t="s">
-        <v>60</v>
+        <v>201</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="B311">
-        <v>7978655</v>
+        <v>7983972</v>
       </c>
       <c r="C311" s="2">
-        <v>1750289153</v>
+        <v>1750177464</v>
       </c>
       <c r="D311" t="s">
-        <v>60</v>
+        <v>202</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
@@ -5647,178 +5659,178 @@
         <v>10</v>
       </c>
       <c r="B312">
-        <v>7978826</v>
-      </c>
-      <c r="C312" t="s">
-        <v>101</v>
+        <v>7984027</v>
+      </c>
+      <c r="C312" s="2">
+        <v>1750222982</v>
       </c>
       <c r="D312" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B313">
-        <v>7979255</v>
+        <v>7984086</v>
       </c>
       <c r="C313" s="2">
-        <v>1750105988</v>
+        <v>1750220330</v>
       </c>
       <c r="D313" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B314">
-        <v>7979396</v>
+        <v>7984086</v>
       </c>
       <c r="C314" s="2">
-        <v>1750053977</v>
+        <v>1750248000</v>
       </c>
       <c r="D314" t="s">
-        <v>60</v>
+        <v>204</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B315">
-        <v>7979436</v>
+        <v>7984118</v>
       </c>
       <c r="C315" s="2">
-        <v>1750200435</v>
+        <v>1750109641</v>
       </c>
       <c r="D315" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B316">
-        <v>7979551</v>
+        <v>7984368</v>
       </c>
       <c r="C316" s="2">
-        <v>1750134478</v>
+        <v>1750263341</v>
       </c>
       <c r="D316" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B317">
-        <v>7979551</v>
+        <v>7984368</v>
       </c>
       <c r="C317" s="2">
-        <v>1750214647</v>
+        <v>1750291701</v>
       </c>
       <c r="D317" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B318">
-        <v>7979609</v>
+        <v>7984368</v>
       </c>
       <c r="C318" s="2">
-        <v>1750200435</v>
+        <v>1770041364</v>
       </c>
       <c r="D318" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
+        <v>47</v>
+      </c>
+      <c r="B319">
+        <v>7985665</v>
+      </c>
+      <c r="C319" s="2">
+        <v>1750109615</v>
+      </c>
+      <c r="D319" t="s">
         <v>198</v>
-      </c>
-      <c r="B319">
-        <v>7979806</v>
-      </c>
-      <c r="C319" s="2">
-        <v>1750261447</v>
-      </c>
-      <c r="D319" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B320">
-        <v>7979880</v>
+        <v>7985903</v>
       </c>
       <c r="C320" s="2">
-        <v>1750105988</v>
+        <v>1750177464</v>
       </c>
       <c r="D320" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>8</v>
+        <v>153</v>
       </c>
       <c r="B321">
-        <v>7983248</v>
-      </c>
-      <c r="C321" s="2">
-        <v>1750109615</v>
+        <v>7985978</v>
+      </c>
+      <c r="C321" t="s">
+        <v>41</v>
       </c>
       <c r="D321" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="B322">
-        <v>7983283</v>
+        <v>7986967</v>
       </c>
       <c r="C322" s="2">
-        <v>1750105679</v>
+        <v>1750173205</v>
       </c>
       <c r="D322" t="s">
-        <v>60</v>
+        <v>209</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="B323">
-        <v>7983339</v>
-      </c>
-      <c r="C323">
-        <v>1750177464</v>
+        <v>7987099</v>
+      </c>
+      <c r="C323" s="2">
+        <v>1750044878</v>
       </c>
       <c r="D323" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B324">
-        <v>7983339</v>
-      </c>
-      <c r="C324">
-        <v>1750188523</v>
+        <v>7987111</v>
+      </c>
+      <c r="C324" s="2">
+        <v>1750105988</v>
       </c>
       <c r="D324" t="s">
         <v>211</v>
@@ -5826,27 +5838,27 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
+        <v>47</v>
+      </c>
+      <c r="B325">
+        <v>7987240</v>
+      </c>
+      <c r="C325" s="2">
+        <v>1750109615</v>
+      </c>
+      <c r="D325" t="s">
         <v>198</v>
-      </c>
-      <c r="B325">
-        <v>7983535</v>
-      </c>
-      <c r="C325" s="2">
-        <v>1750053690</v>
-      </c>
-      <c r="D325" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="B326">
-        <v>7983732</v>
+        <v>7987322</v>
       </c>
       <c r="C326" t="s">
-        <v>101</v>
+        <v>212</v>
       </c>
       <c r="D326" t="s">
         <v>213</v>
@@ -5854,13 +5866,13 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B327">
-        <v>7983972</v>
+        <v>7987370</v>
       </c>
       <c r="C327" s="2">
-        <v>1750177464</v>
+        <v>1750188523</v>
       </c>
       <c r="D327" t="s">
         <v>214</v>
@@ -5868,13 +5880,13 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B328">
-        <v>7984027</v>
+        <v>7987406</v>
       </c>
       <c r="C328" s="2">
-        <v>1750222982</v>
+        <v>1750173205</v>
       </c>
       <c r="D328" t="s">
         <v>215</v>
@@ -5882,13 +5894,13 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B329">
-        <v>7984086</v>
+        <v>7987434</v>
       </c>
       <c r="C329" s="2">
-        <v>1750220330</v>
+        <v>1750105988</v>
       </c>
       <c r="D329" t="s">
         <v>216</v>
@@ -5896,27 +5908,27 @@
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B330">
-        <v>7984086</v>
+        <v>7987462</v>
       </c>
       <c r="C330" s="2">
-        <v>1750248000</v>
+        <v>1750188523</v>
       </c>
       <c r="D330" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B331">
-        <v>7984118</v>
+        <v>7987462</v>
       </c>
       <c r="C331" s="2">
-        <v>1750109641</v>
+        <v>1750177464</v>
       </c>
       <c r="D331" t="s">
         <v>217</v>
@@ -5924,13 +5936,13 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B332">
-        <v>7984368</v>
+        <v>7987578</v>
       </c>
       <c r="C332" s="2">
-        <v>1750263341</v>
+        <v>1750105988</v>
       </c>
       <c r="D332" t="s">
         <v>218</v>
@@ -5938,97 +5950,97 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B333">
-        <v>7984368</v>
+        <v>7987872</v>
       </c>
       <c r="C333" s="2">
-        <v>1750291701</v>
+        <v>1750092824</v>
       </c>
       <c r="D333" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>45</v>
+        <v>187</v>
       </c>
       <c r="B334">
-        <v>7984368</v>
+        <v>7987999</v>
       </c>
       <c r="C334" s="2">
-        <v>1770041364</v>
+        <v>1750346607</v>
       </c>
       <c r="D334" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>10</v>
+        <v>187</v>
       </c>
       <c r="B335">
-        <v>7984464</v>
+        <v>7988101</v>
       </c>
       <c r="C335" s="2">
-        <v>1750109615</v>
+        <v>1750222982</v>
       </c>
       <c r="D335" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B336">
-        <v>7985665</v>
+        <v>7988124</v>
       </c>
       <c r="C336" s="2">
         <v>1750109615</v>
       </c>
       <c r="D336" t="s">
-        <v>210</v>
+        <v>58</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B337">
-        <v>7985903</v>
+        <v>7989437</v>
       </c>
       <c r="C337" s="2">
-        <v>1750177464</v>
+        <v>1750101956</v>
       </c>
       <c r="D337" t="s">
-        <v>219</v>
+        <v>58</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="B338">
-        <v>7985978</v>
-      </c>
-      <c r="C338" t="s">
-        <v>41</v>
+        <v>7989974</v>
+      </c>
+      <c r="C338" s="2">
+        <v>1750173205</v>
       </c>
       <c r="D338" t="s">
-        <v>220</v>
+        <v>154</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B339">
-        <v>7986967</v>
+        <v>7990410</v>
       </c>
       <c r="C339" s="2">
-        <v>1750173205</v>
+        <v>1750109615</v>
       </c>
       <c r="D339" t="s">
         <v>221</v>
@@ -6036,13 +6048,13 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B340">
-        <v>7987099</v>
+        <v>7990418</v>
       </c>
       <c r="C340" s="2">
-        <v>1750044878</v>
+        <v>1750100966</v>
       </c>
       <c r="D340" t="s">
         <v>222</v>
@@ -6050,100 +6062,100 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B341">
-        <v>7987111</v>
-      </c>
-      <c r="C341" s="2">
-        <v>1750105988</v>
+        <v>7991709</v>
+      </c>
+      <c r="C341">
+        <v>1750188523</v>
       </c>
       <c r="D341" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B342">
-        <v>7987240</v>
+        <v>7992146</v>
       </c>
       <c r="C342" s="2">
-        <v>1750109615</v>
+        <v>1750053977</v>
       </c>
       <c r="D342" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>140</v>
+        <v>47</v>
       </c>
       <c r="B343">
-        <v>7987322</v>
-      </c>
-      <c r="C343" t="s">
-        <v>224</v>
+        <v>7992146</v>
+      </c>
+      <c r="C343" s="2">
+        <v>1750105988</v>
       </c>
       <c r="D343" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B344">
-        <v>7987370</v>
+        <v>7992155</v>
       </c>
       <c r="C344" s="2">
-        <v>1750188523</v>
+        <v>1750215295</v>
       </c>
       <c r="D344" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="B345">
-        <v>7987406</v>
-      </c>
-      <c r="C345" s="2">
-        <v>1750173205</v>
+        <v>7992193</v>
+      </c>
+      <c r="C345" t="s">
+        <v>55</v>
       </c>
       <c r="D345" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="B346">
-        <v>7987434</v>
+        <v>7992217</v>
       </c>
       <c r="C346" s="2">
-        <v>1750105988</v>
+        <v>1750109658</v>
       </c>
       <c r="D346" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="B347">
-        <v>7987462</v>
+        <v>7992231</v>
       </c>
       <c r="C347" s="2">
-        <v>1750188523</v>
+        <v>1750109641</v>
       </c>
       <c r="D347" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.3">
@@ -6151,27 +6163,27 @@
         <v>8</v>
       </c>
       <c r="B348">
-        <v>7987462</v>
+        <v>7993496</v>
       </c>
       <c r="C348" s="2">
-        <v>1750177464</v>
+        <v>1750101956</v>
       </c>
       <c r="D348" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B349">
-        <v>7987578</v>
+        <v>7993496</v>
       </c>
       <c r="C349" s="2">
-        <v>1750105988</v>
+        <v>1750188523</v>
       </c>
       <c r="D349" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.3">
@@ -6179,514 +6191,514 @@
         <v>10</v>
       </c>
       <c r="B350">
-        <v>7987872</v>
+        <v>7993547</v>
       </c>
       <c r="C350" s="2">
-        <v>1750092824</v>
+        <v>1750173205</v>
       </c>
       <c r="D350" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="B351">
-        <v>7987999</v>
+        <v>7993736</v>
       </c>
       <c r="C351" s="2">
-        <v>1750346607</v>
+        <v>1750053977</v>
       </c>
       <c r="D351" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="B352">
-        <v>7988101</v>
+        <v>7993736</v>
       </c>
       <c r="C352" s="2">
-        <v>1750222982</v>
+        <v>1750173205</v>
       </c>
       <c r="D352" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B353">
-        <v>7988124</v>
+        <v>7993882</v>
       </c>
       <c r="C353" s="2">
-        <v>1750109615</v>
+        <v>1750245555</v>
       </c>
       <c r="D353" t="s">
-        <v>60</v>
+        <v>231</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B354">
-        <v>7989437</v>
+        <v>7993882</v>
       </c>
       <c r="C354" s="2">
-        <v>1750101956</v>
+        <v>1750200435</v>
       </c>
       <c r="D354" t="s">
-        <v>60</v>
+        <v>231</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B355">
-        <v>7989974</v>
+        <v>7993882</v>
       </c>
       <c r="C355" s="2">
-        <v>1750173205</v>
+        <v>1750133348</v>
       </c>
       <c r="D355" t="s">
-        <v>163</v>
+        <v>231</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B356">
-        <v>7990410</v>
+        <v>7993882</v>
       </c>
       <c r="C356" s="2">
-        <v>1750109615</v>
+        <v>1750214647</v>
       </c>
       <c r="D356" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="B357">
-        <v>7990418</v>
-      </c>
-      <c r="C357" s="2">
-        <v>1750100966</v>
+        <v>7993886</v>
+      </c>
+      <c r="C357" t="s">
+        <v>299</v>
       </c>
       <c r="D357" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B358">
-        <v>7991709</v>
-      </c>
-      <c r="C358">
-        <v>1750188523</v>
+        <v>7994017</v>
+      </c>
+      <c r="C358" s="2">
+        <v>1750193275</v>
       </c>
       <c r="D358" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B359">
-        <v>7992146</v>
+        <v>7994017</v>
       </c>
       <c r="C359" s="2">
-        <v>1750053977</v>
+        <v>1750200435</v>
       </c>
       <c r="D359" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B360">
-        <v>7992146</v>
+        <v>7994308</v>
       </c>
       <c r="C360" s="2">
-        <v>1750105988</v>
+        <v>1750173205</v>
       </c>
       <c r="D360" t="s">
-        <v>235</v>
+        <v>154</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B361">
-        <v>7992155</v>
+        <v>7996721</v>
       </c>
       <c r="C361" s="2">
-        <v>1750215295</v>
+        <v>1770041364</v>
       </c>
       <c r="D361" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B362">
-        <v>7992193</v>
-      </c>
-      <c r="C362" t="s">
-        <v>57</v>
+        <v>7996728</v>
+      </c>
+      <c r="C362" s="2">
+        <v>1750245555</v>
       </c>
       <c r="D362" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B363">
-        <v>7992217</v>
+        <v>7996728</v>
       </c>
       <c r="C363" s="2">
-        <v>1750109658</v>
+        <v>1750289153</v>
       </c>
       <c r="D363" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B364">
-        <v>7992231</v>
+        <v>7996728</v>
       </c>
       <c r="C364" s="2">
-        <v>1750109641</v>
+        <v>1750263341</v>
       </c>
       <c r="D364" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B365">
-        <v>7993496</v>
+        <v>7996728</v>
       </c>
       <c r="C365" s="2">
-        <v>1750101956</v>
+        <v>1750200435</v>
       </c>
       <c r="D365" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="B366">
-        <v>7993496</v>
-      </c>
-      <c r="C366" s="2">
-        <v>1750188523</v>
+        <v>7996739</v>
+      </c>
+      <c r="C366" t="s">
+        <v>95</v>
       </c>
       <c r="D366" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="B367">
-        <v>7993547</v>
-      </c>
-      <c r="C367" s="2">
-        <v>1750173205</v>
+        <v>7996739</v>
+      </c>
+      <c r="C367" t="s">
+        <v>92</v>
       </c>
       <c r="D367" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>48</v>
+        <v>187</v>
       </c>
       <c r="B368">
-        <v>7993626</v>
+        <v>7997042</v>
       </c>
       <c r="C368" s="2">
-        <v>1750350682</v>
+        <v>1750234950</v>
       </c>
       <c r="D368" t="s">
-        <v>60</v>
+        <v>237</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="B369">
-        <v>7993736</v>
+        <v>7997042</v>
       </c>
       <c r="C369" s="2">
-        <v>1750053977</v>
+        <v>1750222982</v>
       </c>
       <c r="D369" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>198</v>
+        <v>8</v>
       </c>
       <c r="B370">
-        <v>7993736</v>
+        <v>7999875</v>
       </c>
       <c r="C370" s="2">
         <v>1750173205</v>
       </c>
       <c r="D370" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>45</v>
+        <v>153</v>
       </c>
       <c r="B371">
-        <v>7993882</v>
+        <v>8001909</v>
       </c>
       <c r="C371" s="2">
-        <v>1750245555</v>
+        <v>1750173205</v>
       </c>
       <c r="D371" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>45</v>
+        <v>162</v>
       </c>
       <c r="B372">
-        <v>7993882</v>
+        <v>8001946</v>
       </c>
       <c r="C372" s="2">
-        <v>1750200435</v>
+        <v>1750222982</v>
       </c>
       <c r="D372" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B373">
-        <v>7993882</v>
+        <v>8001964</v>
       </c>
       <c r="C373" s="2">
-        <v>1750133348</v>
+        <v>1750261447</v>
       </c>
       <c r="D373" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B374">
-        <v>7993882</v>
+        <v>8001995</v>
       </c>
       <c r="C374" s="2">
-        <v>1750214647</v>
+        <v>1750177464</v>
       </c>
       <c r="D374" t="s">
-        <v>243</v>
+        <v>202</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>169</v>
+        <v>44</v>
       </c>
       <c r="B375">
-        <v>7993886</v>
-      </c>
-      <c r="C375" t="s">
-        <v>294</v>
+        <v>8002016</v>
+      </c>
+      <c r="C375" s="2">
+        <v>1750200435</v>
       </c>
       <c r="D375" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>45</v>
+        <v>187</v>
       </c>
       <c r="B376">
-        <v>7994017</v>
-      </c>
-      <c r="C376" s="2">
-        <v>1750193275</v>
+        <v>8002017</v>
+      </c>
+      <c r="C376" t="s">
+        <v>242</v>
       </c>
       <c r="D376" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B377">
-        <v>7994017</v>
+        <v>8002044</v>
       </c>
       <c r="C377" s="2">
-        <v>1750200435</v>
+        <v>1750215295</v>
       </c>
       <c r="D377" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B378">
-        <v>7994308</v>
-      </c>
-      <c r="C378" s="2">
-        <v>1750173205</v>
+        <v>8002045</v>
+      </c>
+      <c r="C378" t="s">
+        <v>95</v>
       </c>
       <c r="D378" t="s">
-        <v>163</v>
+        <v>244</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B379">
-        <v>7994715</v>
-      </c>
-      <c r="C379" t="s">
-        <v>246</v>
+        <v>8002169</v>
+      </c>
+      <c r="C379" s="2">
+        <v>1750109615</v>
       </c>
       <c r="D379" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B380">
-        <v>7996721</v>
+        <v>8002212</v>
       </c>
       <c r="C380" s="2">
-        <v>1770041364</v>
+        <v>1750222982</v>
       </c>
       <c r="D380" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="B381">
-        <v>7996728</v>
+        <v>8002257</v>
       </c>
       <c r="C381" s="2">
-        <v>1750245555</v>
+        <v>1750109615</v>
       </c>
       <c r="D381" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B382">
-        <v>7996728</v>
+        <v>8002272</v>
       </c>
       <c r="C382" s="2">
-        <v>1750289153</v>
+        <v>1804610970</v>
       </c>
       <c r="D382" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B383">
-        <v>7996728</v>
+        <v>8002272</v>
       </c>
       <c r="C383" s="2">
-        <v>1750263341</v>
+        <v>1770031910</v>
       </c>
       <c r="D383" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B384">
-        <v>7996728</v>
+        <v>8002373</v>
       </c>
       <c r="C384" s="2">
         <v>1750200435</v>
       </c>
       <c r="D384" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B385">
-        <v>7996739</v>
-      </c>
-      <c r="C385" t="s">
-        <v>101</v>
+        <v>8002398</v>
+      </c>
+      <c r="C385" s="2">
+        <v>1750173205</v>
       </c>
       <c r="D385" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B386">
-        <v>7996739</v>
-      </c>
-      <c r="C386" t="s">
-        <v>100</v>
+        <v>8002519</v>
+      </c>
+      <c r="C386" s="2">
+        <v>1750109615</v>
       </c>
       <c r="D386" t="s">
         <v>250</v>
@@ -6694,13 +6706,13 @@
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>198</v>
+        <v>47</v>
       </c>
       <c r="B387">
-        <v>7997042</v>
-      </c>
-      <c r="C387" s="2">
-        <v>1750234950</v>
+        <v>8002614</v>
+      </c>
+      <c r="C387" t="s">
+        <v>5</v>
       </c>
       <c r="D387" t="s">
         <v>251</v>
@@ -6708,27 +6720,27 @@
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>198</v>
+        <v>44</v>
       </c>
       <c r="B388">
-        <v>7997042</v>
+        <v>8002694</v>
       </c>
       <c r="C388" s="2">
-        <v>1750222982</v>
+        <v>1750173205</v>
       </c>
       <c r="D388" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B389">
-        <v>7999875</v>
+        <v>8002694</v>
       </c>
       <c r="C389" s="2">
-        <v>1750173205</v>
+        <v>1750193275</v>
       </c>
       <c r="D389" t="s">
         <v>252</v>
@@ -6736,13 +6748,13 @@
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>162</v>
+        <v>47</v>
       </c>
       <c r="B390">
-        <v>8001909</v>
+        <v>8002746</v>
       </c>
       <c r="C390" s="2">
-        <v>1750173205</v>
+        <v>1750109615</v>
       </c>
       <c r="D390" t="s">
         <v>253</v>
@@ -6750,27 +6762,27 @@
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>172</v>
+        <v>47</v>
       </c>
       <c r="B391">
-        <v>8001946</v>
+        <v>8002746</v>
       </c>
       <c r="C391" s="2">
-        <v>1750222982</v>
+        <v>1750109641</v>
       </c>
       <c r="D391" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="B392">
-        <v>8001964</v>
+        <v>8002753</v>
       </c>
       <c r="C392" s="2">
-        <v>1750261447</v>
+        <v>1750102901</v>
       </c>
       <c r="D392" t="s">
         <v>254</v>
@@ -6778,55 +6790,55 @@
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="B393">
-        <v>8001995</v>
+        <v>8002883</v>
       </c>
       <c r="C393" s="2">
-        <v>1750177464</v>
+        <v>1750188523</v>
       </c>
       <c r="D393" t="s">
-        <v>214</v>
+        <v>255</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B394">
-        <v>8002016</v>
+        <v>8003159</v>
       </c>
       <c r="C394" s="2">
-        <v>1750200435</v>
+        <v>1750193275</v>
       </c>
       <c r="D394" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>198</v>
+        <v>8</v>
       </c>
       <c r="B395">
-        <v>8002017</v>
-      </c>
-      <c r="C395" t="s">
-        <v>256</v>
+        <v>8003456</v>
+      </c>
+      <c r="C395" s="2">
+        <v>1750173205</v>
       </c>
       <c r="D395" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>8</v>
+        <v>87</v>
       </c>
       <c r="B396">
-        <v>8002044</v>
+        <v>8003492</v>
       </c>
       <c r="C396" s="2">
-        <v>1750215295</v>
+        <v>1750109615</v>
       </c>
       <c r="D396" t="s">
         <v>257</v>
@@ -6834,13 +6846,13 @@
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B397">
-        <v>8002045</v>
-      </c>
-      <c r="C397" t="s">
-        <v>101</v>
+        <v>8003561</v>
+      </c>
+      <c r="C397" s="2">
+        <v>1750177464</v>
       </c>
       <c r="D397" t="s">
         <v>258</v>
@@ -6848,86 +6860,86 @@
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="B398">
-        <v>8002169</v>
+        <v>8004495</v>
       </c>
       <c r="C398" s="2">
-        <v>1750109615</v>
+        <v>1750222982</v>
       </c>
       <c r="D398" t="s">
-        <v>87</v>
+        <v>259</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="B399">
-        <v>8002212</v>
+        <v>8004526</v>
       </c>
       <c r="C399" s="2">
-        <v>1750222982</v>
+        <v>1750304916</v>
       </c>
       <c r="D399" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>94</v>
+        <v>153</v>
       </c>
       <c r="B400">
-        <v>8002257</v>
+        <v>8004585</v>
       </c>
       <c r="C400" s="2">
-        <v>1750109615</v>
+        <v>1750222982</v>
       </c>
       <c r="D400" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>8</v>
+        <v>153</v>
       </c>
       <c r="B401">
-        <v>8002272</v>
+        <v>8004625</v>
       </c>
       <c r="C401" s="2">
-        <v>1804610970</v>
+        <v>1770041364</v>
       </c>
       <c r="D401" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="B402">
-        <v>8002272</v>
+        <v>8004898</v>
       </c>
       <c r="C402" s="2">
-        <v>1770031910</v>
+        <v>1750130600</v>
       </c>
       <c r="D402" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B403">
-        <v>8002373</v>
+        <v>8005093</v>
       </c>
       <c r="C403" s="2">
-        <v>1750200435</v>
+        <v>1750155446</v>
       </c>
       <c r="D403" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.3">
@@ -6935,122 +6947,122 @@
         <v>8</v>
       </c>
       <c r="B404">
-        <v>8002398</v>
+        <v>8005093</v>
       </c>
       <c r="C404" s="2">
-        <v>1750173205</v>
+        <v>1750055614</v>
       </c>
       <c r="D404" t="s">
-        <v>105</v>
+        <v>263</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>48</v>
+        <v>264</v>
       </c>
       <c r="B405">
-        <v>8002519</v>
-      </c>
-      <c r="C405" s="2">
-        <v>1750109615</v>
+        <v>8005094</v>
+      </c>
+      <c r="C405" t="s">
+        <v>55</v>
       </c>
       <c r="D405" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B406">
-        <v>8002614</v>
-      </c>
-      <c r="C406" t="s">
-        <v>5</v>
+        <v>8006044</v>
+      </c>
+      <c r="C406" s="2">
+        <v>1750105988</v>
       </c>
       <c r="D406" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B407">
-        <v>8002694</v>
+        <v>8008898</v>
       </c>
       <c r="C407" s="2">
         <v>1750173205</v>
       </c>
       <c r="D407" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B408">
-        <v>8002694</v>
+        <v>8008936</v>
       </c>
       <c r="C408" s="2">
-        <v>1750193275</v>
+        <v>1750215294</v>
       </c>
       <c r="D408" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B409">
-        <v>8002753</v>
+        <v>8009062</v>
       </c>
       <c r="C409" s="2">
-        <v>1750102901</v>
+        <v>1750177464</v>
       </c>
       <c r="D409" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B410">
-        <v>8002811</v>
+        <v>8009074</v>
       </c>
       <c r="C410" s="2">
-        <v>1750295447</v>
+        <v>1750200435</v>
       </c>
       <c r="D410" t="s">
-        <v>266</v>
+        <v>129</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B411">
-        <v>8002811</v>
+        <v>8009111</v>
       </c>
       <c r="C411" s="2">
-        <v>1750288271</v>
+        <v>1750173205</v>
       </c>
       <c r="D411" t="s">
-        <v>266</v>
+        <v>239</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B412">
-        <v>8002883</v>
-      </c>
-      <c r="C412" s="2">
-        <v>1750188523</v>
+        <v>8009122</v>
+      </c>
+      <c r="C412" t="s">
+        <v>184</v>
       </c>
       <c r="D412" t="s">
         <v>267</v>
@@ -7058,254 +7070,254 @@
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B413">
-        <v>8003159</v>
-      </c>
-      <c r="C413" s="2">
-        <v>1750193275</v>
+        <v>8009122</v>
+      </c>
+      <c r="C413" t="s">
+        <v>185</v>
       </c>
       <c r="D413" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B414">
-        <v>8003456</v>
-      </c>
-      <c r="C414" s="2">
-        <v>1750173205</v>
+        <v>8009161</v>
+      </c>
+      <c r="C414" t="s">
+        <v>41</v>
       </c>
       <c r="D414" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="B415">
-        <v>8003492</v>
+        <v>8009168</v>
       </c>
       <c r="C415" s="2">
-        <v>1750109615</v>
+        <v>1750173205</v>
       </c>
       <c r="D415" t="s">
-        <v>269</v>
+        <v>238</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="B416">
-        <v>8003561</v>
+        <v>8009172</v>
       </c>
       <c r="C416" s="2">
-        <v>1750177464</v>
+        <v>1750109615</v>
       </c>
       <c r="D416" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B417">
-        <v>8004495</v>
-      </c>
-      <c r="C417" s="2">
-        <v>1750222982</v>
+        <v>8009396</v>
+      </c>
+      <c r="C417">
+        <v>1750109659</v>
       </c>
       <c r="D417" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B418">
-        <v>8004526</v>
+        <v>8009403</v>
       </c>
       <c r="C418" s="2">
-        <v>1750304916</v>
+        <v>1750100966</v>
       </c>
       <c r="D418" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B419">
-        <v>8004585</v>
-      </c>
-      <c r="C419" s="2">
-        <v>1750222982</v>
+        <v>8009403</v>
+      </c>
+      <c r="C419" t="s">
+        <v>271</v>
       </c>
       <c r="D419" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="B420">
-        <v>8004625</v>
+        <v>8009485</v>
       </c>
       <c r="C420" s="2">
-        <v>1770041364</v>
+        <v>1750136011</v>
       </c>
       <c r="D420" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B421">
-        <v>8004699</v>
+        <v>8009490</v>
       </c>
       <c r="C421" s="2">
-        <v>1750188523</v>
+        <v>1750105988</v>
       </c>
       <c r="D421" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="B422">
-        <v>8004898</v>
+        <v>8009501</v>
       </c>
       <c r="C422" s="2">
-        <v>1750130600</v>
+        <v>1750109659</v>
       </c>
       <c r="D422" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B423">
-        <v>8005093</v>
+        <v>8009642</v>
       </c>
       <c r="C423" s="2">
-        <v>1750155446</v>
+        <v>1750053977</v>
       </c>
       <c r="D423" t="s">
-        <v>276</v>
+        <v>58</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="B424">
-        <v>8005093</v>
+        <v>8009740</v>
       </c>
       <c r="C424" s="2">
-        <v>1750055614</v>
+        <v>1750171419</v>
       </c>
       <c r="D424" t="s">
-        <v>276</v>
+        <v>58</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>277</v>
+        <v>47</v>
       </c>
       <c r="B425">
-        <v>8005094</v>
-      </c>
-      <c r="C425" t="s">
-        <v>57</v>
+        <v>8009828</v>
+      </c>
+      <c r="C425" s="2">
+        <v>1750261447</v>
       </c>
       <c r="D425" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="B426">
-        <v>8005129</v>
-      </c>
-      <c r="C426" t="s">
-        <v>279</v>
+        <v>8009835</v>
+      </c>
+      <c r="C426" s="2">
+        <v>1750105988</v>
       </c>
       <c r="D426" t="s">
-        <v>280</v>
+        <v>216</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="B427">
-        <v>8005129</v>
-      </c>
-      <c r="C427" t="s">
-        <v>281</v>
+        <v>8009857</v>
+      </c>
+      <c r="C427" s="2">
+        <v>1770031910</v>
       </c>
       <c r="D427" t="s">
-        <v>280</v>
+        <v>216</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>117</v>
+        <v>47</v>
       </c>
       <c r="B428">
-        <v>8006003</v>
+        <v>8009873</v>
       </c>
       <c r="C428" s="2">
-        <v>1750105679</v>
+        <v>1750173205</v>
       </c>
       <c r="D428" t="s">
-        <v>60</v>
+        <v>239</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B429">
-        <v>8006044</v>
+        <v>8009876</v>
       </c>
       <c r="C429" s="2">
-        <v>1750105988</v>
+        <v>1750053977</v>
       </c>
       <c r="D429" t="s">
-        <v>228</v>
+        <v>269</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="B430">
-        <v>8006162</v>
+        <v>8009876</v>
       </c>
       <c r="C430" s="2">
-        <v>1750044878</v>
+        <v>1750109659</v>
       </c>
       <c r="D430" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.3">
@@ -7313,139 +7325,139 @@
         <v>8</v>
       </c>
       <c r="B431">
-        <v>8006280</v>
+        <v>8009990</v>
       </c>
       <c r="C431" s="2">
-        <v>1750187030</v>
+        <v>1750055175</v>
       </c>
       <c r="D431" t="s">
-        <v>60</v>
+        <v>274</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B432">
-        <v>8006280</v>
+        <v>8010058</v>
       </c>
       <c r="C432" s="2">
-        <v>1750154866</v>
+        <v>1750200435</v>
       </c>
       <c r="D432" t="s">
-        <v>60</v>
+        <v>129</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="B433">
-        <v>8006280</v>
+        <v>8010061</v>
       </c>
       <c r="C433" t="s">
-        <v>193</v>
+        <v>275</v>
       </c>
       <c r="D433" t="s">
-        <v>60</v>
+        <v>276</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="B434">
-        <v>8006280</v>
+        <v>8010061</v>
       </c>
       <c r="C434" t="s">
-        <v>194</v>
+        <v>95</v>
       </c>
       <c r="D434" t="s">
-        <v>60</v>
+        <v>276</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B435">
-        <v>8008898</v>
+        <v>8010648</v>
       </c>
       <c r="C435" s="2">
-        <v>1750173205</v>
+        <v>1750109658</v>
       </c>
       <c r="D435" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B436">
-        <v>8008936</v>
+        <v>8010671</v>
       </c>
       <c r="C436" s="2">
-        <v>1750215294</v>
+        <v>1750109615</v>
       </c>
       <c r="D436" t="s">
-        <v>283</v>
+        <v>245</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B437">
-        <v>8009062</v>
+        <v>8011156</v>
       </c>
       <c r="C437" s="2">
-        <v>1750177464</v>
+        <v>1750220000</v>
       </c>
       <c r="D437" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B438">
-        <v>8009074</v>
+        <v>8011156</v>
       </c>
       <c r="C438" s="2">
-        <v>1750200435</v>
+        <v>1750214647</v>
       </c>
       <c r="D438" t="s">
-        <v>139</v>
+        <v>278</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B439">
-        <v>8009111</v>
+        <v>8011156</v>
       </c>
       <c r="C439" s="2">
-        <v>1750173205</v>
+        <v>1750200541</v>
       </c>
       <c r="D439" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="B440">
-        <v>8009122</v>
-      </c>
-      <c r="C440" t="s">
-        <v>193</v>
+        <v>8011979</v>
+      </c>
+      <c r="C440">
+        <v>1750349661</v>
       </c>
       <c r="D440" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.3">
@@ -7453,55 +7465,55 @@
         <v>8</v>
       </c>
       <c r="B441">
-        <v>8009122</v>
-      </c>
-      <c r="C441" t="s">
-        <v>194</v>
+        <v>8012066</v>
+      </c>
+      <c r="C441" s="2">
+        <v>1750109641</v>
       </c>
       <c r="D441" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="B442">
-        <v>8009161</v>
-      </c>
-      <c r="C442" t="s">
-        <v>41</v>
+        <v>8012175</v>
+      </c>
+      <c r="C442" s="2">
+        <v>1750109659</v>
       </c>
       <c r="D442" t="s">
-        <v>60</v>
+        <v>281</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>48</v>
+        <v>153</v>
       </c>
       <c r="B443">
-        <v>8009168</v>
+        <v>8012176</v>
       </c>
       <c r="C443" s="2">
-        <v>1750173205</v>
+        <v>1750235487</v>
       </c>
       <c r="D443" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B444">
-        <v>8009172</v>
+        <v>8012267</v>
       </c>
       <c r="C444" s="2">
-        <v>1750109615</v>
+        <v>1750200435</v>
       </c>
       <c r="D444" t="s">
-        <v>260</v>
+        <v>283</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.3">
@@ -7509,55 +7521,55 @@
         <v>8</v>
       </c>
       <c r="B445">
-        <v>8009396</v>
-      </c>
-      <c r="C445">
-        <v>1750109659</v>
+        <v>8012284</v>
+      </c>
+      <c r="C445" s="2">
+        <v>1750256956</v>
       </c>
       <c r="D445" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
       <c r="B446">
-        <v>8009403</v>
+        <v>8012665</v>
       </c>
       <c r="C446" s="2">
-        <v>1750100966</v>
+        <v>1750105988</v>
       </c>
       <c r="D446" t="s">
-        <v>60</v>
+        <v>285</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
       <c r="B447">
-        <v>8009403</v>
-      </c>
-      <c r="C447" t="s">
-        <v>286</v>
+        <v>8012665</v>
+      </c>
+      <c r="C447" s="2">
+        <v>1750109641</v>
       </c>
       <c r="D447" t="s">
-        <v>60</v>
+        <v>285</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="B448">
-        <v>8009485</v>
+        <v>8012702</v>
       </c>
       <c r="C448" s="2">
-        <v>1750136011</v>
+        <v>1750222982</v>
       </c>
       <c r="D448" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.3">
@@ -7565,38 +7577,38 @@
         <v>10</v>
       </c>
       <c r="B449">
-        <v>8009501</v>
-      </c>
-      <c r="C449" s="2">
-        <v>1750109659</v>
+        <v>8012775</v>
+      </c>
+      <c r="C449" t="s">
+        <v>95</v>
       </c>
       <c r="D449" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B450">
-        <v>8009743</v>
-      </c>
-      <c r="C450" t="s">
-        <v>246</v>
+        <v>8013156</v>
+      </c>
+      <c r="C450" s="2">
+        <v>1750188523</v>
       </c>
       <c r="D450" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>48</v>
+        <v>159</v>
       </c>
       <c r="B451">
-        <v>8009743</v>
-      </c>
-      <c r="C451" t="s">
-        <v>82</v>
+        <v>8013409</v>
+      </c>
+      <c r="C451" s="2">
+        <v>1750105679</v>
       </c>
       <c r="D451" t="s">
         <v>288</v>
@@ -7604,184 +7616,184 @@
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>198</v>
+        <v>159</v>
       </c>
       <c r="B452">
-        <v>8009824</v>
+        <v>8013409</v>
       </c>
       <c r="C452" s="2">
         <v>1750109641</v>
       </c>
       <c r="D452" t="s">
-        <v>60</v>
+        <v>288</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>48</v>
+        <v>159</v>
       </c>
       <c r="B453">
-        <v>8009828</v>
+        <v>8013409</v>
       </c>
       <c r="C453" s="2">
-        <v>1750261447</v>
+        <v>1750044878</v>
       </c>
       <c r="D453" t="s">
-        <v>60</v>
+        <v>288</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
-        <v>48</v>
+        <v>159</v>
       </c>
       <c r="B454">
-        <v>8009835</v>
+        <v>8013409</v>
       </c>
       <c r="C454" s="2">
-        <v>1750105988</v>
+        <v>1750109659</v>
       </c>
       <c r="D454" t="s">
-        <v>228</v>
+        <v>288</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>48</v>
+        <v>159</v>
       </c>
       <c r="B455">
-        <v>8009857</v>
+        <v>8013409</v>
       </c>
       <c r="C455" s="2">
-        <v>1770031910</v>
+        <v>1750053977</v>
       </c>
       <c r="D455" t="s">
-        <v>228</v>
+        <v>288</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>4</v>
+        <v>159</v>
       </c>
       <c r="B456">
-        <v>8009864</v>
+        <v>8017814</v>
       </c>
       <c r="C456" s="2">
-        <v>1750063787</v>
+        <v>1750109659</v>
       </c>
       <c r="D456" t="s">
-        <v>60</v>
+        <v>281</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>48</v>
+        <v>159</v>
       </c>
       <c r="B457">
-        <v>8009873</v>
+        <v>8017814</v>
       </c>
       <c r="C457" s="2">
-        <v>1750173205</v>
+        <v>1750053977</v>
       </c>
       <c r="D457" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B458">
-        <v>8009876</v>
+        <v>8017900</v>
       </c>
       <c r="C458" s="2">
-        <v>1750053977</v>
+        <v>1750109658</v>
       </c>
       <c r="D458" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B459">
-        <v>8009876</v>
-      </c>
-      <c r="C459" s="2">
-        <v>1750109659</v>
+        <v>8017955</v>
+      </c>
+      <c r="C459" t="s">
+        <v>289</v>
       </c>
       <c r="D459" t="s">
-        <v>285</v>
+        <v>58</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="B460">
-        <v>8009990</v>
+        <v>8018024</v>
       </c>
       <c r="C460" s="2">
-        <v>1750055175</v>
+        <v>1750130600</v>
       </c>
       <c r="D460" t="s">
-        <v>289</v>
+        <v>58</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B461">
-        <v>8010058</v>
+        <v>8018068</v>
       </c>
       <c r="C461" s="2">
-        <v>1750200435</v>
+        <v>1750109615</v>
       </c>
       <c r="D461" t="s">
-        <v>139</v>
+        <v>290</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B462">
-        <v>8010620</v>
-      </c>
-      <c r="C462" t="s">
-        <v>78</v>
+        <v>8018104</v>
+      </c>
+      <c r="C462" s="2">
+        <v>1750109641</v>
       </c>
       <c r="D462" t="s">
-        <v>60</v>
+        <v>291</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B463">
-        <v>8010648</v>
+        <v>8018112</v>
       </c>
       <c r="C463" s="2">
-        <v>1750109658</v>
+        <v>1750109641</v>
       </c>
       <c r="D463" t="s">
-        <v>60</v>
+        <v>292</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B464">
-        <v>8010671</v>
+        <v>8018258</v>
       </c>
       <c r="C464" s="2">
         <v>1750109615</v>
       </c>
       <c r="D464" t="s">
-        <v>87</v>
+        <v>293</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.3">
@@ -7789,241 +7801,59 @@
         <v>8</v>
       </c>
       <c r="B465">
-        <v>8011061</v>
+        <v>8018508</v>
       </c>
       <c r="C465" s="2">
-        <v>1750108341</v>
+        <v>1750044878</v>
       </c>
       <c r="D465" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B466">
-        <v>8011156</v>
+        <v>8018510</v>
       </c>
       <c r="C466" s="2">
-        <v>1750220000</v>
+        <v>1750200435</v>
       </c>
       <c r="D466" t="s">
-        <v>60</v>
+        <v>294</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B467">
-        <v>8011156</v>
+        <v>8018768</v>
       </c>
       <c r="C467" s="2">
-        <v>1750214647</v>
+        <v>1750105988</v>
       </c>
       <c r="D467" t="s">
-        <v>60</v>
+        <v>295</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="B468">
-        <v>8011156</v>
+        <v>8019334</v>
       </c>
       <c r="C468" s="2">
-        <v>1750200541</v>
+        <v>1750173205</v>
       </c>
       <c r="D468" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A469" t="s">
-        <v>169</v>
-      </c>
-      <c r="B469">
-        <v>8012085</v>
-      </c>
-      <c r="C469" s="2">
-        <v>1750044604</v>
-      </c>
-      <c r="D469" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A470" t="s">
-        <v>8</v>
-      </c>
-      <c r="B470">
-        <v>8012097</v>
-      </c>
-      <c r="C470" s="2">
-        <v>1750109615</v>
-      </c>
-      <c r="D470" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A471" t="s">
-        <v>290</v>
-      </c>
-      <c r="B471">
-        <v>8012106</v>
-      </c>
-      <c r="C471" s="2">
-        <v>1750301917</v>
-      </c>
-      <c r="D471" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A472" t="s">
-        <v>10</v>
-      </c>
-      <c r="B472">
-        <v>8012139</v>
-      </c>
-      <c r="C472" t="s">
-        <v>100</v>
-      </c>
-      <c r="D472" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A473" t="s">
-        <v>140</v>
-      </c>
-      <c r="B473">
-        <v>8012175</v>
-      </c>
-      <c r="C473" s="2">
-        <v>1750109659</v>
-      </c>
-      <c r="D473" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A474" t="s">
-        <v>169</v>
-      </c>
-      <c r="B474">
-        <v>8012191</v>
-      </c>
-      <c r="C474" s="2">
-        <v>1750101956</v>
-      </c>
-      <c r="D474" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A475" t="s">
-        <v>45</v>
-      </c>
-      <c r="B475">
-        <v>8012267</v>
-      </c>
-      <c r="C475" s="2">
-        <v>1750200435</v>
-      </c>
-      <c r="D475" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A476" t="s">
-        <v>8</v>
-      </c>
-      <c r="B476">
-        <v>8012284</v>
-      </c>
-      <c r="C476" s="2">
-        <v>1750256956</v>
-      </c>
-      <c r="D476" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A477" t="s">
-        <v>45</v>
-      </c>
-      <c r="B477">
-        <v>8012558</v>
-      </c>
-      <c r="C477" s="2">
-        <v>1750200435</v>
-      </c>
-      <c r="D477" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A478" t="s">
-        <v>48</v>
-      </c>
-      <c r="B478">
-        <v>8012665</v>
-      </c>
-      <c r="C478" s="2">
-        <v>1750105988</v>
-      </c>
-      <c r="D478" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A479" t="s">
-        <v>48</v>
-      </c>
-      <c r="B479">
-        <v>8012665</v>
-      </c>
-      <c r="C479" s="2">
-        <v>1750109641</v>
-      </c>
-      <c r="D479" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A480" t="s">
-        <v>162</v>
-      </c>
-      <c r="B480">
-        <v>8012902</v>
-      </c>
-      <c r="C480" s="2">
-        <v>1770041364</v>
-      </c>
-      <c r="D480" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A481" t="s">
-        <v>36</v>
-      </c>
-      <c r="B481">
-        <v>8013236</v>
-      </c>
-      <c r="C481" t="s">
-        <v>293</v>
-      </c>
-      <c r="D481" t="s">
-        <v>60</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D481" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:D468" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/intento70-30.xlsx
+++ b/intento70-30.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dieboldnixdorf-my.sharepoint.com/personal/lucas_rodriguez_dieboldnixdorf_com/Documents/Escritorio/Codigo/PARTES/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="11_10C1D5945BD05B4F3B593D11595ED87656CFC9B5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0D8FDAD-D153-4D1F-BC2A-488D797C5C71}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="11_21D9368D5BD0DA6107993011595ED87656CF8363" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC578EE3-7ECD-47CF-AB99-F2FCAAEA440B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$468</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$486</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="312">
   <si>
     <t>NOMBRE CLIENTE</t>
   </si>
@@ -166,154 +166,157 @@
     <t>SUP. 27/2/24. A LA ESPERA DE CONFIRMACION DE REPUESTO. (ALEGRE)</t>
   </si>
   <si>
+    <t>NOSP. 07/05/24. PARTE 1750188546 DEPOSITO DE SOBRES CINEO: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
     <t>BANCO PROVINCIA DE BUENOS AIRES</t>
   </si>
   <si>
     <t>BIO. 14/12/23. PENDIENTE POR BIOMETRICO. MOLDURA DISPONIBLE (SORIANO)</t>
   </si>
   <si>
-    <t>49204083X0BA</t>
-  </si>
-  <si>
-    <t>NOWIP. 22/12/23. PARTE 49204083X0BA FASCIA: NO EXISTE EN WIP. LA PARTE NO ES REPARABLE POR RC. --  "SV219839000E ASSY,TAKEAWAY,UDD,PACKAGED+ 49220945000A CA, CCA, UDD REPUESTO DISPONIBLE EN STOCK ". (</t>
+    <t>NOWIP. 10/04/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR + 1750206350 ANTI FRAUD 2: SIN SALDO EN WIP – SIN STOCK DE DESARME. -- “PARTE 1750109615 V4 EXTRACTOR INFERIOR + 1750105679 CMD CONTROLLER II DI</t>
+  </si>
+  <si>
+    <t>NOWIP. 04/03/24. PARTE 1750105988 LECTORA V2X USB + 1750105679 V4 CMD CONTROLLER II USB + DISCO SATA: SIN SALDO EN WIP.  --  "PARTE 1750109641 + 1750109615 V4 EXTRACTORES + 1750169942 LCD BOX 15 + 175</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>BANCO NEUQUÉN</t>
+  </si>
+  <si>
+    <t>Ticket Pendiente por Repuesto</t>
+  </si>
+  <si>
+    <t>STOCK. 22/01/2024  PENDIENTE POR PARTE FASCIA 280 Y MOLDURA EN ESPERA DE REPARACION (RODRIGUEZ)</t>
+  </si>
+  <si>
+    <t>BIO.26/1/2024 TICKET PENDIENTE POR BIOMÉTRICO (CORREA)</t>
+  </si>
+  <si>
+    <t>NOSP. 02/05/24. PARTE 1750109659 V4 STACKER + 1750044878 V4 DISTRIBUTOR BOARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>BIO.25/1/2024 TICKET PENDIENTE POR BIOMÉTRICO (CORREA)</t>
+  </si>
+  <si>
+    <t>NOSP. 29/01/24. PARTE 1750215294 V5 EXTRACTOR INFERIOR + 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 02/02/24. PARTE 1750215294 V5 EXTRACTOR INFERIOR: SIN SALDO EN WIP.  --  "DISPONIBLE LA PARTE FASCIA 280". (MINIACI)</t>
+  </si>
+  <si>
+    <t>BIO.2/2/2024 TICKET PENDIENTE POR BIOMÉTRICO (CORREA)</t>
+  </si>
+  <si>
+    <t>49200908X01A</t>
+  </si>
+  <si>
+    <t>NOWIP. 08/04/24. PARTE 49200908X01A "Side Trim Bezel Aspen": SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 08/02/24. PARTE 1750189650 V5 STACKER + 1750215295 V5 EXTRACTOR SUPERIOR: SIN SALDO EN WIP (MINIACI)</t>
+  </si>
+  <si>
+    <t>RC. 8/5/24. STACKER CSR 1750109659 Y EXTRACTOR SUP 1750109641 A ESPERA DE REPARACION (SORIANO)</t>
+  </si>
+  <si>
+    <t>49204018000E</t>
+  </si>
+  <si>
+    <t>STOCK. 16/4/24. PARTE FASCIA 280. A ESPERA DE REPARACION POR PARTE DE TECNOS. (ALEGRE)</t>
+  </si>
+  <si>
+    <t>49209542000F</t>
+  </si>
+  <si>
+    <t>05000322000O</t>
+  </si>
+  <si>
+    <t>BIO 22/02/2024. PENDIENTE POR BIOMETRICO (FRETES)</t>
+  </si>
+  <si>
+    <t>NOSP. 19/02/24. PARTE 1750215295 V5 DOUBLE EXTRACTOR UNIT MDMS + 1750110044 JOURNAL PRINTER NP06: SIN SPARE PARTS PARA REPARACIÓN. (FRANCO)</t>
+  </si>
+  <si>
+    <t>49211436000A</t>
+  </si>
+  <si>
+    <t>NOWIP. PARTE 1750204435 PANEL OPERADOR PC280: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 06/03/24. PARTE 1750193275 RM3 MAIN MODULE + 1750133348 RM3 TRANSPORT MODULE: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>FASCIA2100</t>
+  </si>
+  <si>
+    <t>STOCK. 1/3/24. FASCIA 2100 SIN BIOMETRICO, CON MARCO 15" Y JACK 3,5MM A ESPERA DE DESARME (SORIANO)</t>
+  </si>
+  <si>
+    <t>SV226262000D</t>
+  </si>
+  <si>
+    <t>NOWIP. 05/03/24. PARTE SV226262000D ENA TAPA DE GAVETAS: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>SV217424000F</t>
+  </si>
+  <si>
+    <t>NOSP. 20/03/24. PARTE SV219839000E ENA UDD: SIN SPARE PARTS PARA REPARACIÓN.  --  "SV217424000F        ASSY,ENA,CI,PACKAGED+ 49211436000A Transport 620mm lenght SRL DISPONIBLE EN STOCK". (MINIACI)</t>
   </si>
   <si>
     <t>SV219839000E</t>
   </si>
   <si>
+    <t>ORUGA</t>
+  </si>
+  <si>
+    <t>49211495000B</t>
+  </si>
+  <si>
+    <t>49202950X0AA</t>
+  </si>
+  <si>
+    <t>NOSP. 15/03/24. PARTE SV219839000E ENA UDD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 08/03/24. PARTE 1750183289 V5 STACKER: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>BANCO PIANO</t>
+  </si>
+  <si>
+    <t>STOCK. 03/04/2024 A ESPERA DE DESARME DE FRENTE FASCIA 720 FL + GUIAS PARA 720 FL (MAITLAND)</t>
+  </si>
+  <si>
+    <t>NOSP. 21/03/24. PARTE 1750215294 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
     <t>49220945000A</t>
   </si>
   <si>
-    <t>NOWIP. 10/04/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR + 1750206350 ANTI FRAUD 2: SIN SALDO EN WIP – SIN STOCK DE DESARME. -- “PARTE 1750109615 V4 EXTRACTOR INFERIOR + 1750105679 CMD CONTROLLER II DI</t>
-  </si>
-  <si>
-    <t>NOWIP. 04/03/24. PARTE 1750105988 LECTORA V2X USB + 1750105679 V4 CMD CONTROLLER II USB + DISCO SATA: SIN SALDO EN WIP.  --  "PARTE 1750109641 + 1750109615 V4 EXTRACTORES + 1750169942 LCD BOX 15 + 175</t>
-  </si>
-  <si>
-    <t>DS</t>
-  </si>
-  <si>
-    <t>P1</t>
-  </si>
-  <si>
-    <t>BANCO NEUQUÉN</t>
-  </si>
-  <si>
-    <t>Ticket Pendiente por Repuesto</t>
-  </si>
-  <si>
-    <t>STOCK. 22/01/2024  PENDIENTE POR PARTE FASCIA 280 Y MOLDURA EN ESPERA DE REPARACION (RODRIGUEZ)</t>
-  </si>
-  <si>
-    <t>BIO.26/1/2024 TICKET PENDIENTE POR BIOMÉTRICO (CORREA)</t>
-  </si>
-  <si>
-    <t>NOSP. 02/05/24. PARTE 1750109659 V4 STACKER + 1750044878 V4 DISTRIBUTOR BOARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 28/02/24. PARTE SV219839000E ENA UDD: SIN SPARE PARTS PARA REPARACIÓN.  --  "SV217424000F CI DISPONIBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>SV217424000F</t>
-  </si>
-  <si>
-    <t>BIO.25/1/2024 TICKET PENDIENTE POR BIOMÉTRICO (CORREA)</t>
-  </si>
-  <si>
-    <t>NOSP. 29/01/24. PARTE 1750215294 V5 EXTRACTOR INFERIOR + 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 02/02/24. PARTE 1750215294 V5 EXTRACTOR INFERIOR: SIN SALDO EN WIP.  --  "DISPONIBLE LA PARTE FASCIA 280". (MINIACI)</t>
-  </si>
-  <si>
-    <t>BIO.2/2/2024 TICKET PENDIENTE POR BIOMÉTRICO (CORREA)</t>
-  </si>
-  <si>
-    <t>49200908X01A</t>
-  </si>
-  <si>
-    <t>NOWIP. 08/04/24. PARTE 49200908X01A "Side Trim Bezel Aspen": SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 08/02/24. PARTE 1750189650 V5 STACKER + 1750215295 V5 EXTRACTOR SUPERIOR: SIN SALDO EN WIP (MINIACI)</t>
-  </si>
-  <si>
-    <t>49204018000E</t>
-  </si>
-  <si>
-    <t>STOCK. 16/4/24. PARTE FASCIA 280. A ESPERA DE REPARACION POR PARTE DE TECNOS. (ALEGRE)</t>
-  </si>
-  <si>
-    <t>49209542000F</t>
-  </si>
-  <si>
-    <t>05000322000O</t>
-  </si>
-  <si>
-    <t>BIO 22/02/2024. PENDIENTE POR BIOMETRICO (FRETES)</t>
-  </si>
-  <si>
-    <t>NOSP. 19/02/24. PARTE 1750215295 V5 DOUBLE EXTRACTOR UNIT MDMS + 1750110044 JOURNAL PRINTER NP06: SIN SPARE PARTS PARA REPARACIÓN. (FRANCO)</t>
-  </si>
-  <si>
-    <t>49211436000A</t>
-  </si>
-  <si>
-    <t>NOWIP. PARTE 1750204435 PANEL OPERADOR PC280: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 06/03/24. PARTE 1750193275 RM3 MAIN MODULE + 1750133348 RM3 TRANSPORT MODULE: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>FASCIA2100</t>
-  </si>
-  <si>
-    <t>STOCK. 1/3/24. FASCIA 2100 SIN BIOMETRICO, CON MARCO 15" Y JACK 3,5MM A ESPERA DE DESARME (SORIANO)</t>
-  </si>
-  <si>
-    <t>SV226262000D</t>
-  </si>
-  <si>
-    <t>NOWIP. 05/03/24. PARTE SV226262000D ENA TAPA DE GAVETAS: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 20/03/24. PARTE SV219839000E ENA UDD: SIN SPARE PARTS PARA REPARACIÓN.  --  "SV217424000F        ASSY,ENA,CI,PACKAGED+ 49211436000A Transport 620mm lenght SRL DISPONIBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 15/03/24. PARTE SV219839000E ENA UDD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 08/03/24. PARTE 1750183289 V5 STACKER: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>BANCO PIANO</t>
-  </si>
-  <si>
-    <t>STOCK. 03/04/2024 A ESPERA DE DESARME DE FRENTE FASCIA 720 FL + GUIAS PARA 720 FL (MAITLAND)</t>
-  </si>
-  <si>
-    <t>NOSP. 21/03/24. PARTE 1750215294 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
     <t>NOSP. 08/04/24. PARTE SV219839000E ENA UDD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
     <t>NOWIP. 08/04/24. PARTE 1750193275 RM3 MAIN MODULE: SIN SALDO EN WIP. (MINIACI)</t>
   </si>
   <si>
+    <t>NOSP. 14/03/24. PARTE 1750109658 V4 STACKER S/SR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
     <t>49225262000A</t>
   </si>
   <si>
-    <t>PLACARED</t>
-  </si>
-  <si>
-    <t>NOSP. 14/03/24. PARTE 1750109658 V4 STACKER S/SR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
     <t>49208102000H</t>
   </si>
   <si>
-    <t>NOSP. 18/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750200541        DISTRIBUTOR MODULE CRS DISPONIBLE EN STOCK". (MINIACI)</t>
+    <t>RC.7/5/2024 1750105988	Card reader V2XU USB version EN ESPERA DE REPARACION (CORREA)</t>
   </si>
   <si>
     <t>NOWIP. 19/03/24. PARTE 1750154145 TOUCH CONTROLLER + 1750105988 LECTORA V2X USB + 1750169942 MONITOR 15": SIN SALDO EN WIP. (MINIACI)</t>
@@ -340,10 +343,7 @@
     <t>NOSP. 27/03/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN  / "TRABA" 1750067867 SIN SALDO EN WIP. (MINIACI)</t>
   </si>
   <si>
-    <t>NOSP. 06/05/24. PARTE 1750109659 V4 STACKER + 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 16/04/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL + 1750214647 RM3 TRANSFER UNIT: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+    <t>RC 07/05/2024. PARTE 1750249441 MOVE AWCA+1750220022 INPUT OUTPUT +1750220000 IN-OUTPUT MODULE +1750200435 VS-MODUL-RECYCLING (DOS UNIDADES). EN ESPERA DE REPARACION (FRETES)</t>
   </si>
   <si>
     <t>BIO.26/3/2024 TICKET PENDIENTE POR BIOMETRICO (CORREA)</t>
@@ -364,9 +364,6 @@
     <t>NOWIP. 16/04/24. PARTE 49202967X0CC BOQUILLA DE LECTORA DIP: SIN SALDO EN WIP. (MINIACI)</t>
   </si>
   <si>
-    <t>NOWIP. 15/04/24. PARTE 1750044878 V4 DISTRIBUTOR BOARD: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
     <t>RIEL</t>
   </si>
   <si>
@@ -415,282 +412,261 @@
     <t>NOSP. 03/05/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
+    <t>NOWIP. 10/04/24. PARTE 1750215295 V5 EXTRACTOR INFERIOR + 1750215294 V5 EXTRACTOR INFERIOR: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>49257458000B</t>
+  </si>
+  <si>
+    <t>NOSP. 16/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 10/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 22/04/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>ETR. 30/04/24. PARTE 49208102003M AFD CCA DISPENSER: EN REPARACIÓN. ETR: 08/05/24. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 15/04/24. PARTE 1750222982 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 19/04/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 16/04/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 11/04/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 16/04/24. PARTE 1750183289 V5 STACKER: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750053977 CLAMP DISPONIBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 15/04/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 15/04/24. PARTE 1750193275 RM3 MAIN MODULE: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 19/04/24. PARTE 1750193275 RM3 MAIN MODULE: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 15/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 15/04/24. PARTE 1750188546 DEPÓSITO DE SOBRES CINEO: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>BIO. 18/4/24. PENDIENTE POR BIOMETRICO (SORIANO)</t>
+  </si>
+  <si>
+    <t>NOSP. 17/04/24. PARTE 1750248000 RM3 IO COLLECTOR + 1750220330 RM3 IO TRAY: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 16/04/24. PARTE 1750248000 RM3 IO COLLECTOR + 1750220330 RM3 IO TRAY: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>49204013000E</t>
+  </si>
+  <si>
+    <t>NOSP. 17/04/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>BANCO CREDICOOP</t>
+  </si>
+  <si>
+    <t>NOWIP. 17/04/24. PARTE 49254690000N AFD 2.0 STACKER: SIN SALDO WN WIP.  --  "ARTE 1750304622 CHD-mot ICT3H5-3AD2792 SecPac2 DISPONIBLE". (MINIACI)</t>
+  </si>
+  <si>
+    <t>49254690000N</t>
+  </si>
+  <si>
+    <t>GIRE S.A</t>
+  </si>
+  <si>
+    <t>NOWIP. 16/04/24. PARTE 1750222982 SHUTTER PC280 LITE: SIN SALDO EN WIP.  --  "1750105679        CMD Controller II USB assd. with cover DISPONIBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 02/05/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 16/04/24. PARTE 1750092824 DEPÓSITO DE SOBRES PROCASH: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 18/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 16/04/24. PARTE 1750188546 DEPÓSITO DE SOBRES CINEO: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 16/04/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 16/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SALDO EN WIP.  --  "1750200541        Distributor Module CRS DISPONIBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
+    <t>RC. 07/05/2024 PARTE 49208102003M CCA DISPENSER A ESPERA DE REPARACION, PARTE 49257458000B IMPRESORA DE CLIENTE + 49209542000F CARD READER MOTORIZADA DISPONIBLES (MAITLAND)</t>
+  </si>
+  <si>
+    <t>49208102003M</t>
+  </si>
+  <si>
+    <t>NOSP. 26/04/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 25/04/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>ETR. 30/04/24. PARTE 49208102003M AFD CCA DISPENSER: EN REPARACIÓN. ETR: 10/05/24.  --  "DISCO SSD DISPONIBLE". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 17/04/24. PARTE 1750214647 RM3 TRANSFER UNIT SAFE: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750200541 DISTRIBUTOR MODULE CRS DISPONIBLEN STOCK ". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 24/04/24. PARTE 1750109658 V4 STACKER S/SR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 22/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 23/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 18/04/24. PARTE 1750248000 RM3 IO COLLECTOR + 1750220330 RM3 IO TRAY: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 02/05/24. PARTE 1750134478 RM3 CCU + 1750263341 RM3 TRANSPORT UNIT HEAD ESCROW: SIN SALDO EN WIP.  --  "1750200541 Distributor Module CRS+ 1750245555 transport unit head short path CRS/ATS DISP</t>
+  </si>
+  <si>
+    <t>NOSP. 18/04/24. PARTE 1750248000 RM3 IO COLLECTOR + 1750220330 RM3 IO TRAY: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>SV104969000H</t>
+  </si>
+  <si>
+    <t>NOWIP. 22/04/24. PARTE 49217353000A "ASSEMBLY PRINTER CARTRIDGE": SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 30/04/24. PARTE 1750188523 CCDM CHASIS + 1750154866 CCDM VALIDADOR CASH CHECK: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750188524 ALIGNMENT STATION 3 CCDM+ 1750101952 DISTANCE TRANSPORT VM3 DISPO</t>
+  </si>
+  <si>
+    <t>1750199517-25</t>
+  </si>
+  <si>
+    <t>1750195517-20</t>
+  </si>
+  <si>
+    <t>NOSP. 18/04/24. PARTE 1750188546 DEPÓSITO DE SOBRES CINEO: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>BANCO DE CORDOBA</t>
+  </si>
+  <si>
+    <t>NOWIP 22/04/2024. PARTE 1750222982	V4 SHUTTER LITE PC 280: SIN SALDO WN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 19/04/24. PARTE 1750248000 RM3 IO COLLECTOR + 1750220330 RM3 IO TRAY: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 22/04/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 22/04/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 19/04/24. PARTE 1750200435 VS MODUL: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 22/04/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR + 1750215294 V5 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 25/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 25/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 23/04/24. PARTE 1750214647 RM3 TRANSFER UNIT SAFE: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750134478        CENTRALIZATION UNIT UPPER PART CRS/ATS DISPONIBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 26/04/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 07/05/24. PARTE 1750302850 SET DE CÁMARAS: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 23/04/24. PARTE 1750188523 CCDM CHASIS + 1750177464 CCDM ESCROW: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 23/04/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 29/04/24. PARTE 1750177464 CCDM ESCROW: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 23/04/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 25/04/24. PARTE 1750220330 RM3 IO TRAY + 1750248000 RM3 IO COLLECTOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 23/04/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 24/04/24. PARTE 1750263341 RM3 TRANSPORT UNIT HEAD + 1750126457 RM3 REEL STORAGE + 1750173205 LECTORA V2CU STANDARD: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NUEVO BANCO DEL CHACO</t>
+  </si>
+  <si>
+    <t>STOCK 25/04/2024. FASCIA 280. A LA ESPERA DE REPARACION POR PARTE DE TECNOS (FRETES)</t>
+  </si>
+  <si>
+    <t>STOCK. 7/5724. DISCO SSD DISPONIBLE EN SUCURSAL ETA 12:30 (SORIANO)</t>
+  </si>
+  <si>
+    <t>NOWIP. 23/04/24. PARTE 1750044878 V4 BOARD DISTRIBUTOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 25/04/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
     <t>BANCO CIUDAD</t>
   </si>
   <si>
-    <t>COORD. 2/5/24. CORREAS x3 49204013000D Y FASCIA 522 49218289X0BB DISPONIBLE EN EXPEDICION (SORIANO)</t>
-  </si>
-  <si>
-    <t>NOWIP. 10/04/24. PARTE 1750215295 V5 EXTRACTOR INFERIOR + 1750215294 V5 EXTRACTOR INFERIOR: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 15/04/24. PARTE 1750188546 DEPÓSITO DE SOBRES CINEO: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>49257458000B</t>
-  </si>
-  <si>
-    <t>NOSP. 16/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 18/04/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 10/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 22/04/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>ETR. 30/04/24. PARTE 49208102003M AFD CCA DISPENSER: EN REPARACIÓN. ETR: 08/05/24. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 15/04/24. PARTE 1750222982 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 10/04/24. PARTE 1750126457 RM3 REEL STORAGE: SIN SALDO EN WIP.  (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 19/04/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 16/04/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 11/04/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 16/04/24. PARTE 1750183289 V5 STACKER: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750053977 CLAMP DISPONIBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 15/04/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 15/04/24. PARTE 1750193275 RM3 MAIN MODULE: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 19/04/24. PARTE 1750193275 RM3 MAIN MODULE: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>COORD. 29/04/2024 PARTE  49249260291A CARCAGE CANYON DISPONIBLE PARA SU COORDINACION (MAITLAND)</t>
-  </si>
-  <si>
-    <t>NOSP. 15/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>BIO. 18/4/24. PENDIENTE POR BIOMETRICO (SORIANO)</t>
-  </si>
-  <si>
-    <t>NOWIP. 16/04/24. PARTE 1750214647 RM3 TRANSFER UNIT SAFE + 1750263341 RM3 TRANSPORT UNIT ESCROW: SIN SALDO EN WIP.  --  "1750101956        dispenser module VM3 DISPONIBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NUEVO BANCO DEL CHACO</t>
-  </si>
-  <si>
-    <t>NOSP. 25/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 17/04/24. PARTE 1750248000 RM3 IO COLLECTOR + 1750220330 RM3 IO TRAY: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 16/04/24. PARTE 1750248000 RM3 IO COLLECTOR + 1750220330 RM3 IO TRAY: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>49204013000E</t>
-  </si>
-  <si>
-    <t>NOSP. 17/04/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>BANCO CREDICOOP</t>
-  </si>
-  <si>
-    <t>NOWIP. 17/04/24. PARTE 49254690000N AFD 2.0 STACKER: SIN SALDO WN WIP.  --  "ARTE 1750304622 CHD-mot ICT3H5-3AD2792 SecPac2 DISPONIBLE". (MINIACI)</t>
-  </si>
-  <si>
-    <t>49254690000N</t>
-  </si>
-  <si>
-    <t>GIRE S.A</t>
-  </si>
-  <si>
-    <t>NOWIP. 16/04/24. PARTE 1750222982 SHUTTER PC280 LITE: SIN SALDO EN WIP.  --  "1750105679        CMD Controller II USB assd. with cover DISPONIBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 02/05/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 16/04/24. PARTE 1750092824 DEPÓSITO DE SOBRES PROCASH: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 18/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 16/04/24. PARTE 1750188546 DEPÓSITO DE SOBRES CINEO: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 16/04/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 16/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SALDO EN WIP.  --  "1750200541        Distributor Module CRS DISPONIBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 26/04/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 25/04/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>ETR. 30/04/24. PARTE 49208102003M AFD CCA DISPENSER: EN REPARACIÓN. ETR: 10/05/24.  --  "DISCO SSD DISPONIBLE". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 17/04/24. PARTE 1750214647 RM3 TRANSFER UNIT SAFE: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750200541 DISTRIBUTOR MODULE CRS DISPONIBLEN STOCK ". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 24/04/24. PARTE 1750109658 V4 STACKER S/SR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 17/04/24.PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 22/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 23/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 18/04/24. PARTE 1750248000 RM3 IO COLLECTOR + 1750220330 RM3 IO TRAY: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 02/05/24. PARTE 1750134478 RM3 CCU + 1750263341 RM3 TRANSPORT UNIT HEAD ESCROW: SIN SALDO EN WIP.  --  "1750200541 Distributor Module CRS+ 1750245555 transport unit head short path CRS/ATS DISP</t>
-  </si>
-  <si>
-    <t>NOSP. 18/04/24. PARTE 1750248000 RM3 IO COLLECTOR + 1750220330 RM3 IO TRAY: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>SV104969000H</t>
-  </si>
-  <si>
-    <t>NOWIP. 22/04/24. PARTE 49217353000A "ASSEMBLY PRINTER CARTRIDGE": SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 30/04/24. PARTE 1750188523 CCDM CHASIS + 1750154866 CCDM VALIDADOR CASH CHECK: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750188524 ALIGNMENT STATION 3 CCDM+ 1750101952 DISTANCE TRANSPORT VM3 DISPO</t>
-  </si>
-  <si>
-    <t>1750199517-25</t>
-  </si>
-  <si>
-    <t>1750195517-20</t>
-  </si>
-  <si>
-    <t>NOSP. 18/04/24. PARTE 1750188546 DEPÓSITO DE SOBRES CINEO: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>BANCO DE CORDOBA</t>
-  </si>
-  <si>
-    <t>NOWIP 22/04/2024. PARTE 1750222982	V4 SHUTTER LITE PC 280: SIN SALDO WN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 19/04/24. PARTE 1750248000 RM3 IO COLLECTOR + 1750220330 RM3 IO TRAY: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 22/04/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 22/04/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 19/04/24. PARTE 1750200435 VS MODUL: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 22/04/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR + 1750215294 V5 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>ETR. 24/04/24. PARTE 49208102003M AFD CCA DISPENSER: EN REPARACIÓN. ETR: 30/04/24. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 25/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 23/04/24. PARTE 1750214647 RM3 TRANSFER UNIT SAFE: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750134478        CENTRALIZATION UNIT UPPER PART CRS/ATS DISPONIBLE EN STOCK". (MINIACI)</t>
+    <t>SV221800000C</t>
+  </si>
+  <si>
+    <t>NOSP. 25/04/24. PARTE SV221800000C ENA UPPER ALIGN: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 29/04/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 24/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 03/05/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 25/04/24. PARTE 1750188523 CCDM CHASIS + 1750177464 CCDM ESCROW: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 23/04/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 24/04/24. PARTE 1750092824 DEPÓSITO DE SOBRES PROCASH: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 25/04/24. PARTE 1750346607 SHUTTER IO TRAY II: SIN SALDO EN WIP. (MINIACI)</t>
   </si>
   <si>
     <t>CBA.RC.24/4/24. PARTE 1750222982	SHUTTER LITE DC MOTOR ASSY RL:EN ESPERA DE REPARACIÓN. ETA:30/4/24 (JIMENEZ)</t>
   </si>
   <si>
-    <t>NOSP. 26/04/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>RC. 7/5/24. SET DE CAMARAS 1750302850 (SORIANO)</t>
-  </si>
-  <si>
-    <t>NOSP. 23/04/24. PARTE 1750188523 CCDM CHASIS + 1750177464 CCDM ESCROW: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 23/04/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 29/04/24. PARTE 1750177464 CCDM ESCROW: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 23/04/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 25/04/24. PARTE 1750220330 RM3 IO TRAY + 1750248000 RM3 IO COLLECTOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 23/04/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 24/04/24. PARTE 1750263341 RM3 TRANSPORT UNIT HEAD + 1750126457 RM3 REEL STORAGE + 1750173205 LECTORA V2CU STANDARD: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 23/04/24. PARTE 1750177464 CCDM ESCROW: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>STOCK 25/04/2024. FASCIA 280. A LA ESPERA DE REPARACION POR PARTE DE TECNOS (FRETES)</t>
-  </si>
-  <si>
-    <t>NOSP. 23/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 23/04/24. PARTE 1750044878 V4 BOARD DISTRIBUTOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 25/04/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>SV221800000C</t>
-  </si>
-  <si>
-    <t>NOSP. 25/04/24. PARTE SV221800000C ENA UPPER ALIGN: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 29/04/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 24/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 03/05/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 25/04/24. PARTE 1750188523 CCDM CHASIS + 1750177464 CCDM ESCROW: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 23/04/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 24/04/24. PARTE 1750092824 DEPÓSITO DE SOBRES PROCASH: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 25/04/24. PARTE 1750346607 SHUTTER IO TRAY II: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 25/04/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
     <t>NOSP. 25/04/24. PARTE 1750100966 V4 SHUTTER VERTICAL RL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
@@ -742,18 +718,18 @@
     <t>NOSP. 02/05/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
+    <t>NOWIP. 30/04/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 30/04/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>1750173205-35</t>
+  </si>
+  <si>
     <t>NOSP. 03/05/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
-    <t>NOWIP. 30/04/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 30/04/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>1750173205-35</t>
-  </si>
-  <si>
     <t>NOSP. 02/05/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
@@ -766,75 +742,69 @@
     <t>CBA.RC.29/4/24. PARTE 1750222982	SHUTTER LITE DC MOTOR ASSY RL:EN ESPERA DE REPARACIÓN. ETA:3/5/24 (JIMENEZ)</t>
   </si>
   <si>
+    <t>NOSP. 30/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 29/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>BIO. 29/04/2024 PENDIENTE POR BIOMETRICO (MAITLAND)</t>
+  </si>
+  <si>
+    <t>NOSP. 30/04/24. PARTE 1750193275 RM3 MAIN MODULE + 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 07/05/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR + 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>SUP. 30/04/2024 A ESPERA DE CONFIRMACION DE FASCIA CORRECTA (MAITLAND)</t>
+  </si>
+  <si>
+    <t>NOSP. 02/05/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 30/04/24. PARTE 1750193275 RM3 MAIN MODULE : SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 30/04/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 03/05/24. PARTE 1750177464 CCDM ESCROW: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 02/05/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 30/04/24. PARTE 1750304916 "SHUTTER I-O TRAY NSL": SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 06/05/24. PARTE 1750261447 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>SUP. 30/4/24. A ESPERA DE CONFIRMACION DE TRABA NECESARIA (SORIANO)</t>
+  </si>
+  <si>
+    <t>ETR. 06/05/24. PARTE 1750155446 CCDM AMPLIFIER: EN REPARACIÓN. ETR: 13/05/24.  --  "1750055614 FLAT CABLE FOR CCDM DISPONIBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
+    <t>BANCO DE LA PAMPA</t>
+  </si>
+  <si>
+    <t>NOWIP. 03/05/24. PARTE S/N DISCO SATA: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>RC. 7/5/24. PARTE 1750188523 CHASSIS CCDM. EN ESPERA DE REPARACION. (ALEGRE)</t>
+  </si>
+  <si>
+    <t>NOSP. 03/05/24. PARTE 1750215294 V5 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>STOCK. 6/5/24. PARTE FASCIA 280. A ESPERA DE REPARACION DE TECNOS. (ALEGRE)</t>
+  </si>
+  <si>
     <t>NOSP. 02/05/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
-    <t>NOSP. 30/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 29/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 29/04/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>BIO. 29/04/2024 PENDIENTE POR BIOMETRICO (MAITLAND)</t>
-  </si>
-  <si>
-    <t>NOSP. 30/04/24. PARTE 1750193275 RM3 MAIN MODULE + 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>RC. 7/5/24. EXTRACTORES 1750109615,1750109641 A ESPERA DE REPARACION (SORIANO)</t>
-  </si>
-  <si>
-    <t>SUP. 30/04/2024 A ESPERA DE CONFIRMACION DE FASCIA CORRECTA (MAITLAND)</t>
-  </si>
-  <si>
-    <t>NOSP. 02/05/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 30/04/24. PARTE 1750193275 RM3 MAIN MODULE : SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 30/04/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 03/05/24. PARTE 1750177464 CCDM ESCROW: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 02/05/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 30/04/24. PARTE 1750304916 "SHUTTER I-O TRAY NSL": SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 06/05/24. PARTE 1750261447 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>SUP. 30/4/24. A ESPERA DE CONFIRMACION DE TRABA NECESARIA (SORIANO)</t>
-  </si>
-  <si>
-    <t>ETR. 06/05/24. PARTE 1750155446 CCDM AMPLIFIER: EN REPARACIÓN. ETR: 13/05/24.  --  "1750055614 FLAT CABLE FOR CCDM DISPONIBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>BANCO DE LA PAMPA</t>
-  </si>
-  <si>
-    <t>NOWIP. 03/05/24. PARTE S/N DISCO SATA: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 03/05/24. PARTE 1750215294 V5 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>ETR. 03/05/24. PARTE 1750154866 CCDM VALIDADOR CASH CHECK: EN REPARACIÓN. ETR: 08/05/24. (MINIACI)</t>
-  </si>
-  <si>
-    <t>STOCK. 6/5/24. PARTE FASCIA 280. A ESPERA DE REPARACION DE TECNOS. (ALEGRE)</t>
-  </si>
-  <si>
-    <t>NOSP. 03/05/24. PARTE 1750109659 V4 STACKER: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
     <t>ETR. 06/05/24. PARTE 1750100966 V4 SHUTTER VERTICAL RL: EN REPARACIÓN. ETR: 13/05/24.  --  "PARTE 49202966X0CB BEZEL, MTZ CD RDR DISPONIBLE". (MINIACI)</t>
   </si>
   <si>
@@ -847,43 +817,31 @@
     <t>NOSP. 06/05/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
-    <t>ETR. 03/05/24. PARTE 1750055175 CCDM DEPOSIT TRANSPORT: EN REPARACIÓN. ETR: 08/05/24. (MINIACI)</t>
+    <t>OKETR. 07/05/24. PARTE 1750055175 CCDM DEPOSIT TRANSPORT: REPARADO. EN FGI PARA TRANSFERIR A STOCK. (MINIACI)</t>
   </si>
   <si>
     <t>49211433000A</t>
   </si>
   <si>
-    <t>RC.7/5/2024 49208102003M CCA Dispenser EN ESPERA DE REPARACION / 49211433000A Stacker AFD DISPONIBLE EN STOCK (CORREA)</t>
+    <t>ETR.07/05/24. PARTE 49208102003M AFD CCA DISPENSER: EN REPARACIÓN. ETR: 10/05/24.  --  "49211433000A Stacker AFD DISPONIBLE EN STOCK". (MINIACI)</t>
   </si>
   <si>
     <t>NOSP. 06/05/24. PARTE 1750109658  V4 STACKER S/SR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
-    <t>RC. 7/5/24. PARTE 1750220000 IOC + 1750214647 TRANSFER UNIT SAFE. EN ESPERA DE REPARACION. 1750200541 DISTRIBUTOR MODULE DISPONBLE EN STOCK. (ALEGRE)</t>
-  </si>
-  <si>
-    <t>Stock 03/05/2024 parte 1750349661 afd picker 2.0 x4 disponibles en poder del Coordinador Eric Menzel 17:00 hs (maitland)</t>
-  </si>
-  <si>
-    <t>RC. 7/5/24. EXTRACTOR 1750109641 A ESPERA DE REPARACION (SORIANO)</t>
-  </si>
-  <si>
-    <t>NOSP. 06/05/24. PARTE 1750109659 V4 STACKER: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>RC 07/05/2024. PARTE SD DISCO SATA. EN ESPERA DE REPARACION (FRETES)</t>
+    <t>NOSP. 07/05/24. PARTE 1750220000 RM3 IO COLLECTOR + 1750214647 RM3 TRANSFER UNIT SAFE: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750200541 DISTRIBUTOR MODULE DISPONBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 07/05/24. PARTE S/N DISCO SATA: SIN SALDO EN WIP. (MINIACI)</t>
   </si>
   <si>
     <t>NOSP. 06/05/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
-    <t>NOWIP. 06/05/24. PARTE 1750256956 V4 SHUTTER 2X RL: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
     <t>NOSP. 03/05/24. PARTE 1750105988 LECTORA V2X USB + 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
-    <t>RC. 6/5/24. PLACA CCA 49208102000H A ESPERA DE REPARACION (SORIANO)</t>
+    <t>ETR.07/05/24. PARTE 49208102003M AFD CCA DISPENSER: EN REPARACIÓN. ETR: 10/05/24. (MINIACI)</t>
   </si>
   <si>
     <t>NOSP. 06/05/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
@@ -892,37 +850,115 @@
     <t>NOSP. 06/05/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750105679 CMD CONTROLLER II USB ASSD WITH COVER+1750109659 CMD-V4 STACKER MODUL W. SR VERT DISPONIBLE EN</t>
   </si>
   <si>
+    <t>RC. 7/5/24. SHUTTER FL 1750100965 A ESPERA DE REPARACION (SORIANO)</t>
+  </si>
+  <si>
+    <t>RC. 7/5/24. x5 VS 1750200435 A ESPERA DE REPARACION (SORIANO)</t>
+  </si>
+  <si>
+    <t>ch.nowip.08/05/2024. parte: 1750179175 TOUCHKIT 15.0 3.2 MM. se solicita a caba.(veron)</t>
+  </si>
+  <si>
     <t>49212868000D</t>
   </si>
   <si>
-    <t>RC. 6/5/24. EXTRACTOR 1750109615 A ESPERA DE REPARACION (sORIANO)</t>
-  </si>
-  <si>
-    <t>RC. 6/5/24. EXTRACTOR 1750109641 A ESPERA DE REPARACION (SORIANO)</t>
+    <t>NOWIP. 07/05/24. SE CORRIGE COMENTARIO ANTERIOR. PARTE 49212868000D CERRADURA DE FASCIA OPTEVA 868: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>RC. 7/5/24. LECTORA 1750173205 A ESPERA DE REPARACION (SORIANO)</t>
+  </si>
+  <si>
+    <t>NOSP. 07/05/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
     <t>NOSP. 06/05/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
-    <t>RC.6/5/2024 1750109615 Double extractor unit CMD-V4 EN ESPERA DE REPARACION (CORREA)</t>
-  </si>
-  <si>
-    <t>RC. 6/5/24. VS 1750200435 A ESPERA DE REPARACION (SORIANO)</t>
-  </si>
-  <si>
-    <t>RC. 7/5/24. LECTORA 1750105988 A ESPERA DE REPARACION (SORIANO)</t>
-  </si>
-  <si>
-    <t>RC. 7/5/24. LECTORA 1750173205 A ESPERA DE REPARACION (SORIANO)</t>
-  </si>
-  <si>
-    <t>FASCIA 720 FL</t>
-  </si>
-  <si>
-    <t>49249260291A</t>
+    <t>NOSP. 07/05/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 07/05/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 07/05/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>RC. 07/05/2024 PARTE 1750248000 RM3 IO COLLECTOR UNIT + 1750220330 RM3 CUSTOMER TRAY + 1750200435 VS MODULE X2 A ESPERA DE REPARACION (MAITLAND)</t>
+  </si>
+  <si>
+    <t>RC 07/05/2024. PARTE 1750154866 LINE-XSA CASH CHECK. EN ESPERA DE REPARACION. 1750101956 DISPENSER MODULE VM3 DISPONIBLE EN STOCK (FRETES)</t>
+  </si>
+  <si>
+    <t>NOSP. 07/05/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>CBA.RC.7/5/24. PARTE 1750109641 DOUBLE EXTRACTOR UNIT MDMS CMD V4:EN ESPERA DE REPARACIÓN. ETA:10/5/24 (JIMENEZ)</t>
+  </si>
+  <si>
+    <t>RC 07/05/2024. PARTE 1750222982 SHUTTER LITE DC MOTOR ASSY RL. EN ESPERA DE REPARACION (FRETES)</t>
+  </si>
+  <si>
+    <t>RC. 7/5/24. PARTE 1750109615 DOUBLE EXTRACTOR. EN ESPERA DE REPARACION. (ALEGRE)</t>
+  </si>
+  <si>
+    <t>NOSP. 07/05/24. PARTE 1750092824 DEPOSITO DE SOBRES PROCASH: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>RC 07/05/2024. PARTE 1750109641 DOUBLE EXTRACTOR UNIT MDMS CMD V4+1750109615 DOUBLE EXTRACTOR UNIT CMD V4. EN ESPERA DE REPARACION (FRETES)</t>
+  </si>
+  <si>
+    <t>NOSP. 07/05/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750188524 ALIGNMENT STATION 3 CCDM DISPONIBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 07/05/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>RC. 8/5/24. VS 1750200435 A ESPERA DE REPARACION (SORIANO)</t>
+  </si>
+  <si>
+    <t>RC.7/5/2024 1750109615	Double extractor unit CMD-V4 EN ESPERA DE REPARACION (CORREA)</t>
+  </si>
+  <si>
+    <t>RC. 8/5/24. EXTRACTOR INFERIOR V5 1750215294 A ESPERA DE REPARACION (SORIANO)</t>
+  </si>
+  <si>
+    <t>RC. 7/5/24. PARTE 1750109641  DOUBLE EXTRACTOR SUP. EN ESPERA DE REPARACION. (ALEGRE)</t>
+  </si>
+  <si>
+    <t>RC. 8/5/24. STACKER CSR 1750109659 A ESPERA DE REPARACION, PLACA CCA 1750105679 DISPONIBLE (SORIANO)</t>
+  </si>
+  <si>
+    <t>CBA.RC.7/5/24. PARTE 1750105988 CARD READER V2XU USB:EN ESPERA DE REPARACIÓN. ETA:10/5/24 (JIMENEZ)</t>
+  </si>
+  <si>
+    <t>RC.7/5/2024 1750173205 Card Reader CHD V2CU standard EN ESPERA DE REPRACION (CORREA)</t>
+  </si>
+  <si>
+    <t>RC. 8/5/24. EXTRACTOR 1750109615 A ESPERA DE REPARACION, CLAMP 1750053977 DISPONIBLE (SORIANO)</t>
+  </si>
+  <si>
+    <t>RC.7/5/2024 1750177464 Escrow 3 CCDM EN ESPERA DE REPARACION / 1750101956 dispenser module VM3 DISPONIBLE EN STOCK (CORREA)</t>
+  </si>
+  <si>
+    <t>RC. 07/05/2024 PARTE 1750109615 V4 EXTRACTOR INFERIOR A ESPERA DE REPARACION, PARTE 1750053977 V4 CLAMP DISPONIBLE (MAITLAND)</t>
+  </si>
+  <si>
+    <t>RC 07/05/2024. PARTE 1750220330 IN-OUTPUT MODULE CUSTOMER TRAY CRS-M-II+1750248000 IN-OUTPUT MODULE COLLECTOR UNIT CRS. EN ESPERA DE REPARACION. 1750143750 SHUTTER I/O TRAY DISPONIBLE EN STOCK (FRETES</t>
+  </si>
+  <si>
+    <t>49233126000A</t>
+  </si>
+  <si>
+    <t>49233199070A</t>
+  </si>
+  <si>
+    <t>49201057000B</t>
   </si>
   <si>
     <t>ACRÍLICO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FASCIA 720 FL</t>
   </si>
 </sst>
 </file>
@@ -1286,18 +1322,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D468"/>
+  <dimension ref="A1:D486"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="107.77734375" customWidth="1"/>
+    <col min="4" max="4" width="100.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1904,55 +1939,55 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44">
+        <v>7683432</v>
+      </c>
+      <c r="C44" s="2">
+        <v>1750188546</v>
+      </c>
+      <c r="D44" t="s">
         <v>47</v>
-      </c>
-      <c r="B44">
-        <v>7695366</v>
-      </c>
-      <c r="C44" t="s">
-        <v>34</v>
-      </c>
-      <c r="D44" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>7695366</v>
       </c>
       <c r="C45" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="D45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B46">
-        <v>7709811</v>
+        <v>7695366</v>
       </c>
       <c r="C46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" t="s">
         <v>49</v>
-      </c>
-      <c r="D46" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>7709811</v>
-      </c>
-      <c r="C47" t="s">
-        <v>51</v>
+        <v>7716199</v>
+      </c>
+      <c r="C47" s="2">
+        <v>1750105679</v>
       </c>
       <c r="D47" t="s">
         <v>50</v>
@@ -1960,13 +1995,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48">
-        <v>7709811</v>
+        <v>7716199</v>
       </c>
       <c r="C48" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D48" t="s">
         <v>50</v>
@@ -1974,380 +2009,380 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49">
         <v>7716199</v>
       </c>
       <c r="C49" s="2">
-        <v>1750105679</v>
+        <v>1750206350</v>
       </c>
       <c r="D49" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>7716199</v>
       </c>
-      <c r="C50" t="s">
-        <v>41</v>
+      <c r="C50" s="2">
+        <v>1750109615</v>
       </c>
       <c r="D50" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B51">
         <v>7716199</v>
       </c>
       <c r="C51" s="2">
-        <v>1750206350</v>
+        <v>1750044668</v>
       </c>
       <c r="D51" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B52">
-        <v>7716199</v>
+        <v>7733518</v>
       </c>
       <c r="C52" s="2">
-        <v>1750109615</v>
+        <v>1750053977</v>
       </c>
       <c r="D52" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B53">
-        <v>7716199</v>
+        <v>7733518</v>
       </c>
       <c r="C53" s="2">
-        <v>1750044668</v>
+        <v>1750105988</v>
       </c>
       <c r="D53" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B54">
         <v>7733518</v>
       </c>
       <c r="C54" s="2">
-        <v>1750053977</v>
+        <v>1750109615</v>
       </c>
       <c r="D54" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B55">
         <v>7733518</v>
       </c>
       <c r="C55" s="2">
-        <v>1750105988</v>
+        <v>1750109641</v>
       </c>
       <c r="D55" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B56">
         <v>7733518</v>
       </c>
-      <c r="C56" s="2">
-        <v>1750109615</v>
+      <c r="C56" t="s">
+        <v>52</v>
       </c>
       <c r="D56" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B57">
         <v>7733518</v>
       </c>
-      <c r="C57" s="2">
-        <v>1750109641</v>
+      <c r="C57" t="s">
+        <v>53</v>
       </c>
       <c r="D57" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B58">
         <v>7733518</v>
       </c>
-      <c r="C58" t="s">
-        <v>55</v>
+      <c r="C58" s="2">
+        <v>1750169942</v>
       </c>
       <c r="D58" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B59">
-        <v>7733518</v>
-      </c>
-      <c r="C59" t="s">
-        <v>56</v>
+        <v>7738379</v>
+      </c>
+      <c r="C59" s="2">
+        <v>1750041251</v>
       </c>
       <c r="D59" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B60">
-        <v>7733518</v>
+        <v>7738379</v>
       </c>
       <c r="C60" s="2">
-        <v>1750169942</v>
+        <v>1750035762</v>
       </c>
       <c r="D60" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B61">
         <v>7738379</v>
       </c>
       <c r="C61" s="2">
-        <v>1750041251</v>
+        <v>1750157444</v>
       </c>
       <c r="D61" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="B62">
-        <v>7738379</v>
-      </c>
-      <c r="C62" s="2">
-        <v>1750035762</v>
+        <v>7771880</v>
+      </c>
+      <c r="C62" t="s">
+        <v>41</v>
       </c>
       <c r="D62" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="B63">
-        <v>7738379</v>
-      </c>
-      <c r="C63" s="2">
-        <v>1750157444</v>
+        <v>7771880</v>
+      </c>
+      <c r="C63" t="s">
+        <v>34</v>
       </c>
       <c r="D63" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B64">
-        <v>7771880</v>
+        <v>7774323</v>
       </c>
       <c r="C64" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D64" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B65">
-        <v>7771880</v>
+        <v>7774323</v>
       </c>
       <c r="C65" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="D65" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B66">
-        <v>7774323</v>
-      </c>
-      <c r="C66" t="s">
-        <v>32</v>
+        <v>7784172</v>
+      </c>
+      <c r="C66" s="2">
+        <v>1750044878</v>
       </c>
       <c r="D66" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B67">
-        <v>7774323</v>
-      </c>
-      <c r="C67" t="s">
-        <v>5</v>
+        <v>7784172</v>
+      </c>
+      <c r="C67" s="2">
+        <v>1750109659</v>
       </c>
       <c r="D67" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="B68">
-        <v>7784172</v>
-      </c>
-      <c r="C68" s="2">
-        <v>1750044878</v>
+        <v>7789891</v>
+      </c>
+      <c r="C68" t="s">
+        <v>32</v>
       </c>
       <c r="D68" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="B69">
-        <v>7784172</v>
-      </c>
-      <c r="C69" s="2">
-        <v>1750109659</v>
+        <v>7789891</v>
+      </c>
+      <c r="C69" t="s">
+        <v>5</v>
       </c>
       <c r="D69" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="B70">
-        <v>7789499</v>
+        <v>7790497</v>
       </c>
       <c r="C70" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="D70" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="B71">
-        <v>7789499</v>
+        <v>7790497</v>
       </c>
       <c r="C71" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="D71" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="B72">
-        <v>7789891</v>
-      </c>
-      <c r="C72" t="s">
-        <v>32</v>
+        <v>7792025</v>
+      </c>
+      <c r="C72" s="2">
+        <v>1750215294</v>
       </c>
       <c r="D72" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="B73">
-        <v>7789891</v>
-      </c>
-      <c r="C73" t="s">
-        <v>5</v>
+        <v>7792025</v>
+      </c>
+      <c r="C73" s="2">
+        <v>1750215295</v>
       </c>
       <c r="D73" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="B74">
-        <v>7790497</v>
-      </c>
-      <c r="C74" t="s">
-        <v>32</v>
+        <v>7792335</v>
+      </c>
+      <c r="C74" s="2">
+        <v>1750289153</v>
       </c>
       <c r="D74" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="B75">
-        <v>7790497</v>
-      </c>
-      <c r="C75" t="s">
-        <v>7</v>
+        <v>7797143</v>
+      </c>
+      <c r="C75" s="2">
+        <v>1750177464</v>
       </c>
       <c r="D75" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -2355,55 +2390,55 @@
         <v>44</v>
       </c>
       <c r="B76">
-        <v>7792025</v>
+        <v>7797814</v>
       </c>
       <c r="C76" s="2">
         <v>1750215294</v>
       </c>
       <c r="D76" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B77">
-        <v>7792025</v>
+        <v>7800803</v>
       </c>
       <c r="C77" s="2">
-        <v>1750215295</v>
+        <v>1750109615</v>
       </c>
       <c r="D77" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B78">
-        <v>7792335</v>
+        <v>7802611</v>
       </c>
       <c r="C78" s="2">
-        <v>1750289153</v>
+        <v>1750053977</v>
       </c>
       <c r="D78" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B79">
-        <v>7797143</v>
-      </c>
-      <c r="C79" s="2">
-        <v>1750177464</v>
+        <v>7802993</v>
+      </c>
+      <c r="C79" t="s">
+        <v>5</v>
       </c>
       <c r="D79" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -2411,592 +2446,592 @@
         <v>44</v>
       </c>
       <c r="B80">
-        <v>7797814</v>
-      </c>
-      <c r="C80" s="2">
-        <v>1750215294</v>
+        <v>7803005</v>
+      </c>
+      <c r="C80" t="s">
+        <v>5</v>
       </c>
       <c r="D80" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="B81">
-        <v>7798663</v>
+        <v>7803677</v>
       </c>
       <c r="C81" s="2">
-        <v>1750078264</v>
+        <v>1750109658</v>
       </c>
       <c r="D81" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B82">
-        <v>7800803</v>
+        <v>7803677</v>
       </c>
       <c r="C82" s="2">
         <v>1750109615</v>
       </c>
       <c r="D82" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B83">
-        <v>7802611</v>
+        <v>7806399</v>
       </c>
       <c r="C83" s="2">
-        <v>1750053977</v>
+        <v>1750110043</v>
       </c>
       <c r="D83" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B84">
-        <v>7802993</v>
+        <v>7806538</v>
       </c>
       <c r="C84" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="D84" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B85">
-        <v>7803005</v>
-      </c>
-      <c r="C85" t="s">
-        <v>5</v>
+        <v>7808461</v>
+      </c>
+      <c r="C85" s="2">
+        <v>1750109659</v>
       </c>
       <c r="D85" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B86">
-        <v>7803677</v>
+        <v>7814392</v>
       </c>
       <c r="C86" s="2">
-        <v>1750109658</v>
+        <v>1750189650</v>
       </c>
       <c r="D86" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B87">
-        <v>7803677</v>
+        <v>7814392</v>
       </c>
       <c r="C87" s="2">
-        <v>1750109615</v>
+        <v>1750215295</v>
       </c>
       <c r="D87" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="B88">
-        <v>7806399</v>
+        <v>7814892</v>
       </c>
       <c r="C88" s="2">
-        <v>1750110043</v>
+        <v>1750046741</v>
       </c>
       <c r="D88" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B89">
-        <v>7806538</v>
-      </c>
-      <c r="C89" t="s">
-        <v>68</v>
+        <v>7814892</v>
+      </c>
+      <c r="C89" s="2">
+        <v>1750044668</v>
       </c>
       <c r="D89" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B90">
-        <v>7808461</v>
+        <v>7817629</v>
       </c>
       <c r="C90" s="2">
-        <v>1750109659</v>
+        <v>1750053977</v>
       </c>
       <c r="D90" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B91">
-        <v>7814392</v>
+        <v>7817670</v>
       </c>
       <c r="C91" s="2">
-        <v>1750189650</v>
+        <v>1750109615</v>
       </c>
       <c r="D91" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B92">
-        <v>7814392</v>
-      </c>
-      <c r="C92" s="2">
-        <v>1750215295</v>
+        <v>7820507</v>
+      </c>
+      <c r="C92" t="s">
+        <v>67</v>
       </c>
       <c r="D92" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B93">
-        <v>7817629</v>
+        <v>7820527</v>
       </c>
       <c r="C93" s="2">
-        <v>1750053977</v>
+        <v>1750344858</v>
       </c>
       <c r="D93" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B94">
-        <v>7817670</v>
+        <v>7822042</v>
       </c>
       <c r="C94" s="2">
-        <v>1750109615</v>
+        <v>1750159971</v>
       </c>
       <c r="D94" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="B95">
-        <v>7820507</v>
+        <v>7823382</v>
       </c>
       <c r="C95" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="D95" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B96">
-        <v>7820527</v>
-      </c>
-      <c r="C96" s="2">
-        <v>1750344858</v>
+        <v>7824357</v>
+      </c>
+      <c r="C96" t="s">
+        <v>69</v>
       </c>
       <c r="D96" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B97">
-        <v>7822042</v>
+        <v>7824386</v>
       </c>
       <c r="C97" s="2">
-        <v>1750159971</v>
+        <v>1750053977</v>
       </c>
       <c r="D97" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="B98">
-        <v>7823382</v>
-      </c>
-      <c r="C98" t="s">
-        <v>41</v>
+        <v>7832871</v>
+      </c>
+      <c r="C98" s="2">
+        <v>1750105988</v>
       </c>
       <c r="D98" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B99">
-        <v>7824357</v>
+        <v>7833234</v>
       </c>
       <c r="C99" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D99" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="B100">
-        <v>7824386</v>
+        <v>7833667</v>
       </c>
       <c r="C100" s="2">
-        <v>1750053977</v>
+        <v>1750215295</v>
       </c>
       <c r="D100" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="B101">
-        <v>7832871</v>
+        <v>7833667</v>
       </c>
       <c r="C101" s="2">
-        <v>1750105988</v>
+        <v>1750110044</v>
       </c>
       <c r="D101" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B102">
-        <v>7833234</v>
+        <v>7846573</v>
       </c>
       <c r="C102" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D102" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B103">
-        <v>7833667</v>
+        <v>7846685</v>
       </c>
       <c r="C103" s="2">
-        <v>1750215295</v>
+        <v>1750101956</v>
       </c>
       <c r="D103" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B104">
-        <v>7833667</v>
+        <v>7848212</v>
       </c>
       <c r="C104" s="2">
-        <v>1750110044</v>
+        <v>1750204435</v>
       </c>
       <c r="D104" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B105">
-        <v>7846573</v>
-      </c>
-      <c r="C105" t="s">
-        <v>77</v>
+        <v>7850263</v>
+      </c>
+      <c r="C105" s="2">
+        <v>1750053977</v>
       </c>
       <c r="D105" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B106">
-        <v>7846685</v>
+        <v>7858514</v>
       </c>
       <c r="C106" s="2">
-        <v>1750101956</v>
+        <v>1750193275</v>
       </c>
       <c r="D106" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B107">
-        <v>7848212</v>
+        <v>7858514</v>
       </c>
       <c r="C107" s="2">
-        <v>1750204435</v>
+        <v>1750133348</v>
       </c>
       <c r="D107" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B108">
-        <v>7850263</v>
+        <v>7858757</v>
       </c>
       <c r="C108" s="2">
-        <v>1750053977</v>
+        <v>1750199149</v>
       </c>
       <c r="D108" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B109">
-        <v>7858514</v>
-      </c>
-      <c r="C109" s="2">
-        <v>1750193275</v>
+        <v>7859082</v>
+      </c>
+      <c r="C109" t="s">
+        <v>76</v>
       </c>
       <c r="D109" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B110">
-        <v>7858514</v>
+        <v>7859726</v>
       </c>
       <c r="C110" s="2">
-        <v>1750133348</v>
+        <v>1750222982</v>
       </c>
       <c r="D110" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B111">
-        <v>7858757</v>
+        <v>7867214</v>
       </c>
       <c r="C111" s="2">
-        <v>1750199149</v>
+        <v>1750256247</v>
       </c>
       <c r="D111" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B112">
-        <v>7859082</v>
+        <v>7867607</v>
       </c>
       <c r="C112" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D112" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B113">
-        <v>7859726</v>
-      </c>
-      <c r="C113" s="2">
-        <v>1750222982</v>
+        <v>7871860</v>
+      </c>
+      <c r="C113" t="s">
+        <v>80</v>
       </c>
       <c r="D113" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B114">
-        <v>7867214</v>
-      </c>
-      <c r="C114" s="2">
-        <v>1750256247</v>
+        <v>7871860</v>
+      </c>
+      <c r="C114" t="s">
+        <v>82</v>
       </c>
       <c r="D114" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B115">
-        <v>7867607</v>
+        <v>7871860</v>
       </c>
       <c r="C115" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D115" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B116">
-        <v>7871860</v>
-      </c>
-      <c r="C116" t="s">
-        <v>63</v>
+        <v>7873878</v>
+      </c>
+      <c r="C116" s="2">
+        <v>1750105679</v>
       </c>
       <c r="D116" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B117">
-        <v>7871860</v>
-      </c>
-      <c r="C117" t="s">
-        <v>51</v>
+        <v>7873878</v>
+      </c>
+      <c r="C117" s="2">
+        <v>1750109658</v>
       </c>
       <c r="D117" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B118">
-        <v>7871860</v>
-      </c>
-      <c r="C118" t="s">
-        <v>77</v>
+        <v>7878427</v>
+      </c>
+      <c r="C118" s="2">
+        <v>1750214647</v>
       </c>
       <c r="D118" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B119">
-        <v>7873878</v>
-      </c>
-      <c r="C119" s="2">
-        <v>1750105679</v>
+        <v>7884935</v>
+      </c>
+      <c r="C119" t="s">
+        <v>83</v>
       </c>
       <c r="D119" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B120">
-        <v>7873878</v>
-      </c>
-      <c r="C120" s="2">
-        <v>1750109658</v>
+        <v>7884935</v>
+      </c>
+      <c r="C120" t="s">
+        <v>84</v>
       </c>
       <c r="D120" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B121">
-        <v>7878427</v>
-      </c>
-      <c r="C121" s="2">
-        <v>1750214647</v>
+        <v>7884935</v>
+      </c>
+      <c r="C121" t="s">
+        <v>85</v>
       </c>
       <c r="D121" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B122">
         <v>7884952</v>
@@ -3005,21 +3040,21 @@
         <v>1750053977</v>
       </c>
       <c r="D122" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B123">
         <v>7885396</v>
       </c>
       <c r="C123" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="D123" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
@@ -3033,21 +3068,21 @@
         <v>1750189650</v>
       </c>
       <c r="D124" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B125">
         <v>7888819</v>
       </c>
       <c r="C125" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="D125" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
@@ -3061,12 +3096,12 @@
         <v>1750215294</v>
       </c>
       <c r="D126" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B127">
         <v>7894613</v>
@@ -3075,21 +3110,21 @@
         <v>1750261447</v>
       </c>
       <c r="D127" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B128">
         <v>7897120</v>
       </c>
       <c r="C128" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="D128" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
@@ -3103,469 +3138,469 @@
         <v>1750193275</v>
       </c>
       <c r="D129" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B130">
-        <v>7897379</v>
-      </c>
-      <c r="C130" t="s">
-        <v>92</v>
+        <v>7897869</v>
+      </c>
+      <c r="C130" s="2">
+        <v>1750261447</v>
       </c>
       <c r="D130" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B131">
-        <v>7897592</v>
-      </c>
-      <c r="C131" t="s">
-        <v>93</v>
+        <v>7897950</v>
+      </c>
+      <c r="C131" s="2">
+        <v>1750053977</v>
       </c>
       <c r="D131" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B132">
-        <v>7897869</v>
+        <v>7897950</v>
       </c>
       <c r="C132" s="2">
-        <v>1750261447</v>
+        <v>1750109658</v>
       </c>
       <c r="D132" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B133">
-        <v>7897950</v>
+        <v>7899433</v>
       </c>
       <c r="C133" s="2">
-        <v>1750053977</v>
+        <v>1750208512</v>
       </c>
       <c r="D133" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B134">
-        <v>7897950</v>
-      </c>
-      <c r="C134" s="2">
-        <v>1750109658</v>
+        <v>7900491</v>
+      </c>
+      <c r="C134" t="s">
+        <v>95</v>
       </c>
       <c r="D134" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B135">
-        <v>7899433</v>
-      </c>
-      <c r="C135" s="2">
-        <v>1750208512</v>
+        <v>7900491</v>
+      </c>
+      <c r="C135" t="s">
+        <v>96</v>
       </c>
       <c r="D135" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B136">
-        <v>7900350</v>
+        <v>7902050</v>
       </c>
       <c r="C136" s="2">
-        <v>1750109659</v>
+        <v>1750105988</v>
       </c>
       <c r="D136" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B137">
-        <v>7900350</v>
+        <v>7905109</v>
       </c>
       <c r="C137" s="2">
-        <v>1750105679</v>
+        <v>1750169942</v>
       </c>
       <c r="D137" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B138">
-        <v>7900491</v>
-      </c>
-      <c r="C138" t="s">
-        <v>92</v>
+        <v>7905109</v>
+      </c>
+      <c r="C138" s="2">
+        <v>1750154145</v>
       </c>
       <c r="D138" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B139">
-        <v>7900491</v>
-      </c>
-      <c r="C139" t="s">
-        <v>95</v>
+        <v>7905109</v>
+      </c>
+      <c r="C139" s="2">
+        <v>1750105988</v>
       </c>
       <c r="D139" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B140">
-        <v>7904305</v>
+        <v>7909031</v>
       </c>
       <c r="C140" s="2">
-        <v>1750200541</v>
+        <v>1750173205</v>
       </c>
       <c r="D140" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B141">
-        <v>7904305</v>
+        <v>7909307</v>
       </c>
       <c r="C141" s="2">
-        <v>1750200435</v>
+        <v>1750188523</v>
       </c>
       <c r="D141" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B142">
-        <v>7905109</v>
+        <v>7912762</v>
       </c>
       <c r="C142" s="2">
-        <v>1750169942</v>
+        <v>1804610970</v>
       </c>
       <c r="D142" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B143">
-        <v>7905109</v>
+        <v>7912762</v>
       </c>
       <c r="C143" s="2">
-        <v>1750154145</v>
+        <v>1770031910</v>
       </c>
       <c r="D143" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B144">
-        <v>7905109</v>
+        <v>7912856</v>
       </c>
       <c r="C144" s="2">
-        <v>1750105988</v>
+        <v>1750215294</v>
       </c>
       <c r="D144" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B145">
-        <v>7909031</v>
+        <v>7913107</v>
       </c>
       <c r="C145" s="2">
-        <v>1750173205</v>
+        <v>1750200435</v>
       </c>
       <c r="D145" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B146">
-        <v>7909307</v>
+        <v>7914619</v>
       </c>
       <c r="C146" s="2">
-        <v>1750188523</v>
+        <v>1750200435</v>
       </c>
       <c r="D146" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B147">
-        <v>7912762</v>
+        <v>7914619</v>
       </c>
       <c r="C147" s="2">
-        <v>1804610970</v>
+        <v>1750214647</v>
       </c>
       <c r="D147" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B148">
-        <v>7912762</v>
-      </c>
-      <c r="C148" s="2">
-        <v>1770031910</v>
+        <v>7915108</v>
+      </c>
+      <c r="C148" t="s">
+        <v>73</v>
       </c>
       <c r="D148" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="B149">
-        <v>7912856</v>
+        <v>7917231</v>
       </c>
       <c r="C149" s="2">
-        <v>1750215294</v>
+        <v>1750350686</v>
       </c>
       <c r="D149" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="B150">
-        <v>7913107</v>
+        <v>7917231</v>
       </c>
       <c r="C150" s="2">
-        <v>1750200435</v>
+        <v>1750301986</v>
       </c>
       <c r="D150" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B151">
-        <v>7914619</v>
-      </c>
-      <c r="C151" s="2">
-        <v>1750200435</v>
+        <v>7917418</v>
+      </c>
+      <c r="C151" t="s">
+        <v>67</v>
       </c>
       <c r="D151" t="s">
-        <v>101</v>
+        <v>55</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B152">
-        <v>7914619</v>
+        <v>7917809</v>
       </c>
       <c r="C152" s="2">
-        <v>1750214647</v>
+        <v>1750256247</v>
       </c>
       <c r="D152" t="s">
-        <v>101</v>
+        <v>55</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B153">
-        <v>7915108</v>
-      </c>
-      <c r="C153" t="s">
-        <v>77</v>
+        <v>7919567</v>
+      </c>
+      <c r="C153" s="2">
+        <v>1750190038</v>
       </c>
       <c r="D153" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="B154">
-        <v>7917231</v>
+        <v>7919667</v>
       </c>
       <c r="C154" s="2">
-        <v>1750350686</v>
+        <v>1750067867</v>
       </c>
       <c r="D154" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="B155">
-        <v>7917231</v>
+        <v>7919667</v>
       </c>
       <c r="C155" s="2">
-        <v>1750301986</v>
+        <v>1750105988</v>
       </c>
       <c r="D155" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B156">
-        <v>7917418</v>
-      </c>
-      <c r="C156" t="s">
-        <v>71</v>
+        <v>7920574</v>
+      </c>
+      <c r="C156" s="2">
+        <v>1750214647</v>
       </c>
       <c r="D156" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B157">
-        <v>7917809</v>
+        <v>7920574</v>
       </c>
       <c r="C157" s="2">
-        <v>1750256247</v>
+        <v>1750263341</v>
       </c>
       <c r="D157" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B158">
-        <v>7919567</v>
+        <v>7920574</v>
       </c>
       <c r="C158" s="2">
-        <v>1750190038</v>
+        <v>1750134478</v>
       </c>
       <c r="D158" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B159">
-        <v>7919667</v>
+        <v>7920574</v>
       </c>
       <c r="C159" s="2">
-        <v>1750067867</v>
+        <v>1750200435</v>
       </c>
       <c r="D159" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B160">
-        <v>7919667</v>
+        <v>7921936</v>
       </c>
       <c r="C160" s="2">
-        <v>1750105988</v>
+        <v>1750249441</v>
       </c>
       <c r="D160" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B161">
-        <v>7920272</v>
+        <v>7921936</v>
       </c>
       <c r="C161" s="2">
-        <v>1750109659</v>
+        <v>1750220022</v>
       </c>
       <c r="D161" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B162">
-        <v>7920272</v>
+        <v>7921936</v>
       </c>
       <c r="C162" s="2">
-        <v>1750109615</v>
+        <v>1750220000</v>
       </c>
       <c r="D162" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
@@ -3573,7 +3608,7 @@
         <v>44</v>
       </c>
       <c r="B163">
-        <v>7920574</v>
+        <v>7921936</v>
       </c>
       <c r="C163" s="2">
         <v>1750200435</v>
@@ -3584,16 +3619,16 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B164">
-        <v>7920574</v>
-      </c>
-      <c r="C164" s="2">
-        <v>1750214647</v>
+        <v>7924355</v>
+      </c>
+      <c r="C164" t="s">
+        <v>5</v>
       </c>
       <c r="D164" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
@@ -3601,167 +3636,167 @@
         <v>44</v>
       </c>
       <c r="B165">
-        <v>7921936</v>
+        <v>7924902</v>
       </c>
       <c r="C165" s="2">
         <v>1750200435</v>
       </c>
       <c r="D165" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="B166">
-        <v>7924355</v>
-      </c>
-      <c r="C166" t="s">
-        <v>5</v>
+        <v>7925113</v>
+      </c>
+      <c r="C166" s="2">
+        <v>1750215295</v>
       </c>
       <c r="D166" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="B167">
-        <v>7924902</v>
+        <v>7925266</v>
       </c>
       <c r="C167" s="2">
-        <v>1750200435</v>
+        <v>1750222982</v>
       </c>
       <c r="D167" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B168">
-        <v>7925113</v>
-      </c>
-      <c r="C168" s="2">
-        <v>1750215295</v>
+        <v>7926268</v>
+      </c>
+      <c r="C168" t="s">
+        <v>111</v>
       </c>
       <c r="D168" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="B169">
-        <v>7925266</v>
-      </c>
-      <c r="C169" s="2">
-        <v>1750222982</v>
+        <v>7926496</v>
+      </c>
+      <c r="C169" t="s">
+        <v>113</v>
       </c>
       <c r="D169" t="s">
-        <v>110</v>
+        <v>55</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="B170">
-        <v>7926268</v>
-      </c>
-      <c r="C170" t="s">
-        <v>111</v>
+        <v>7926501</v>
+      </c>
+      <c r="C170" s="2">
+        <v>1750110044</v>
       </c>
       <c r="D170" t="s">
-        <v>112</v>
+        <v>55</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="B171">
-        <v>7926363</v>
+        <v>7929027</v>
       </c>
       <c r="C171" s="2">
-        <v>1750044878</v>
+        <v>1750105679</v>
       </c>
       <c r="D171" t="s">
-        <v>113</v>
+        <v>55</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="B172">
-        <v>7926496</v>
-      </c>
-      <c r="C172" t="s">
+        <v>7929932</v>
+      </c>
+      <c r="C172" s="2">
+        <v>1750188523</v>
+      </c>
+      <c r="D172" t="s">
         <v>114</v>
-      </c>
-      <c r="D172" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="B173">
-        <v>7926501</v>
+        <v>7929932</v>
       </c>
       <c r="C173" s="2">
-        <v>1750110044</v>
+        <v>1750101956</v>
       </c>
       <c r="D173" t="s">
-        <v>58</v>
+        <v>114</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B174">
-        <v>7929027</v>
+        <v>7930608</v>
       </c>
       <c r="C174" s="2">
-        <v>1750105679</v>
+        <v>1750193275</v>
       </c>
       <c r="D174" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B175">
-        <v>7929932</v>
+        <v>7930610</v>
       </c>
       <c r="C175" s="2">
-        <v>1750188523</v>
+        <v>1750193276</v>
       </c>
       <c r="D175" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B176">
-        <v>7929932</v>
+        <v>7930610</v>
       </c>
       <c r="C176" s="2">
-        <v>1750101956</v>
+        <v>1750220330</v>
       </c>
       <c r="D176" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
@@ -3769,10 +3804,10 @@
         <v>44</v>
       </c>
       <c r="B177">
-        <v>7930608</v>
+        <v>7930610</v>
       </c>
       <c r="C177" s="2">
-        <v>1750193275</v>
+        <v>1750248000</v>
       </c>
       <c r="D177" t="s">
         <v>116</v>
@@ -3786,10 +3821,10 @@
         <v>7930610</v>
       </c>
       <c r="C178" s="2">
-        <v>1750193276</v>
+        <v>1750220022</v>
       </c>
       <c r="D178" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
@@ -3797,10 +3832,10 @@
         <v>44</v>
       </c>
       <c r="B179">
-        <v>7930610</v>
+        <v>7931010</v>
       </c>
       <c r="C179" s="2">
-        <v>1750220330</v>
+        <v>1750188523</v>
       </c>
       <c r="D179" t="s">
         <v>117</v>
@@ -3811,10 +3846,10 @@
         <v>44</v>
       </c>
       <c r="B180">
-        <v>7930610</v>
+        <v>7931010</v>
       </c>
       <c r="C180" s="2">
-        <v>1750248000</v>
+        <v>1750263341</v>
       </c>
       <c r="D180" t="s">
         <v>117</v>
@@ -3825,10 +3860,10 @@
         <v>44</v>
       </c>
       <c r="B181">
-        <v>7930610</v>
+        <v>7931010</v>
       </c>
       <c r="C181" s="2">
-        <v>1750220022</v>
+        <v>1750245555</v>
       </c>
       <c r="D181" t="s">
         <v>117</v>
@@ -3836,114 +3871,114 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B182">
-        <v>7931010</v>
+        <v>7942380</v>
       </c>
       <c r="C182" s="2">
-        <v>1750188523</v>
+        <v>1750109615</v>
       </c>
       <c r="D182" t="s">
-        <v>118</v>
+        <v>55</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B183">
-        <v>7931010</v>
-      </c>
-      <c r="C183" s="2">
-        <v>1750263341</v>
+        <v>7942448</v>
+      </c>
+      <c r="C183" t="s">
+        <v>118</v>
       </c>
       <c r="D183" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B184">
-        <v>7931010</v>
+        <v>7942589</v>
       </c>
       <c r="C184" s="2">
-        <v>1750245555</v>
+        <v>1750100966</v>
       </c>
       <c r="D184" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B185">
-        <v>7942380</v>
+        <v>7943149</v>
       </c>
       <c r="C185" s="2">
-        <v>1750109615</v>
+        <v>1750200435</v>
       </c>
       <c r="D185" t="s">
-        <v>58</v>
+        <v>121</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B186">
-        <v>7942448</v>
-      </c>
-      <c r="C186" t="s">
-        <v>119</v>
+        <v>7945233</v>
+      </c>
+      <c r="C186" s="2">
+        <v>1750215295</v>
       </c>
       <c r="D186" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B187">
-        <v>7942589</v>
+        <v>7945303</v>
       </c>
       <c r="C187" s="2">
-        <v>1750100966</v>
+        <v>1750193275</v>
       </c>
       <c r="D187" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B188">
-        <v>7943149</v>
+        <v>7946733</v>
       </c>
       <c r="C188" s="2">
-        <v>1750200435</v>
+        <v>1750155446</v>
       </c>
       <c r="D188" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="B189">
-        <v>7945233</v>
+        <v>7946733</v>
       </c>
       <c r="C189" s="2">
-        <v>1750215295</v>
+        <v>1750187030</v>
       </c>
       <c r="D189" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
@@ -3951,13 +3986,13 @@
         <v>44</v>
       </c>
       <c r="B190">
-        <v>7945303</v>
+        <v>7946970</v>
       </c>
       <c r="C190" s="2">
-        <v>1750193275</v>
+        <v>1750200435</v>
       </c>
       <c r="D190" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
@@ -3965,10 +4000,10 @@
         <v>8</v>
       </c>
       <c r="B191">
-        <v>7946733</v>
+        <v>7947736</v>
       </c>
       <c r="C191" s="2">
-        <v>1750155446</v>
+        <v>1750215294</v>
       </c>
       <c r="D191" t="s">
         <v>125</v>
@@ -3976,16 +4011,16 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B192">
-        <v>7946733</v>
+        <v>7947847</v>
       </c>
       <c r="C192" s="2">
-        <v>1750187030</v>
+        <v>1750214647</v>
       </c>
       <c r="D192" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
@@ -3993,24 +4028,24 @@
         <v>44</v>
       </c>
       <c r="B193">
-        <v>7946970</v>
+        <v>7947847</v>
       </c>
       <c r="C193" s="2">
-        <v>1750200435</v>
+        <v>1750212682</v>
       </c>
       <c r="D193" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B194">
-        <v>7947736</v>
+        <v>7947847</v>
       </c>
       <c r="C194" s="2">
-        <v>1750215294</v>
+        <v>1750140781</v>
       </c>
       <c r="D194" t="s">
         <v>126</v>
@@ -4021,10 +4056,10 @@
         <v>44</v>
       </c>
       <c r="B195">
-        <v>7947847</v>
+        <v>7947866</v>
       </c>
       <c r="C195" s="2">
-        <v>1750214647</v>
+        <v>1750126457</v>
       </c>
       <c r="D195" t="s">
         <v>127</v>
@@ -4035,10 +4070,10 @@
         <v>44</v>
       </c>
       <c r="B196">
-        <v>7947847</v>
+        <v>7947866</v>
       </c>
       <c r="C196" s="2">
-        <v>1750212682</v>
+        <v>1750196174</v>
       </c>
       <c r="D196" t="s">
         <v>127</v>
@@ -4046,30 +4081,30 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B197">
-        <v>7947847</v>
+        <v>7947978</v>
       </c>
       <c r="C197" s="2">
-        <v>1750140781</v>
+        <v>1750105679</v>
       </c>
       <c r="D197" t="s">
-        <v>127</v>
+        <v>55</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B198">
-        <v>7947866</v>
+        <v>7947978</v>
       </c>
       <c r="C198" s="2">
-        <v>1750126457</v>
+        <v>1750109615</v>
       </c>
       <c r="D198" t="s">
-        <v>128</v>
+        <v>55</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
@@ -4077,10 +4112,10 @@
         <v>44</v>
       </c>
       <c r="B199">
-        <v>7947866</v>
+        <v>7949223</v>
       </c>
       <c r="C199" s="2">
-        <v>1750196174</v>
+        <v>1750200435</v>
       </c>
       <c r="D199" t="s">
         <v>128</v>
@@ -4088,30 +4123,30 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B200">
-        <v>7947978</v>
-      </c>
-      <c r="C200" s="2">
-        <v>1750105679</v>
+        <v>7952640</v>
+      </c>
+      <c r="C200" t="s">
+        <v>69</v>
       </c>
       <c r="D200" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B201">
-        <v>7947978</v>
+        <v>7952699</v>
       </c>
       <c r="C201" s="2">
-        <v>1750109615</v>
+        <v>1750215295</v>
       </c>
       <c r="D201" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
@@ -4119,10 +4154,10 @@
         <v>44</v>
       </c>
       <c r="B202">
-        <v>7949223</v>
+        <v>7952699</v>
       </c>
       <c r="C202" s="2">
-        <v>1750200435</v>
+        <v>1750215294</v>
       </c>
       <c r="D202" t="s">
         <v>129</v>
@@ -4130,41 +4165,41 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
+        <v>54</v>
+      </c>
+      <c r="B203">
+        <v>7952908</v>
+      </c>
+      <c r="C203" t="s">
         <v>130</v>
       </c>
-      <c r="B203">
-        <v>7950093</v>
-      </c>
-      <c r="C203" t="s">
-        <v>111</v>
-      </c>
       <c r="D203" t="s">
-        <v>131</v>
+        <v>55</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B204">
-        <v>7952640</v>
-      </c>
-      <c r="C204" t="s">
-        <v>73</v>
+        <v>7952925</v>
+      </c>
+      <c r="C204" s="2">
+        <v>1750200435</v>
       </c>
       <c r="D204" t="s">
-        <v>58</v>
+        <v>131</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B205">
-        <v>7952699</v>
+        <v>7954123</v>
       </c>
       <c r="C205" s="2">
-        <v>1750215295</v>
+        <v>1750173205</v>
       </c>
       <c r="D205" t="s">
         <v>132</v>
@@ -4175,66 +4210,66 @@
         <v>44</v>
       </c>
       <c r="B206">
-        <v>7952699</v>
+        <v>7955646</v>
       </c>
       <c r="C206" s="2">
-        <v>1750215294</v>
+        <v>1750200435</v>
       </c>
       <c r="D206" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B207">
-        <v>7952778</v>
-      </c>
-      <c r="C207" s="2">
-        <v>1750188546</v>
+        <v>7955813</v>
+      </c>
+      <c r="C207" t="s">
+        <v>96</v>
       </c>
       <c r="D207" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B208">
-        <v>7952908</v>
-      </c>
-      <c r="C208" t="s">
-        <v>134</v>
+        <v>7956551</v>
+      </c>
+      <c r="C208" s="2">
+        <v>1750222982</v>
       </c>
       <c r="D208" t="s">
-        <v>58</v>
+        <v>135</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B209">
-        <v>7952925</v>
+        <v>7956807</v>
       </c>
       <c r="C209" s="2">
-        <v>1750200435</v>
+        <v>1750056193</v>
       </c>
       <c r="D209" t="s">
-        <v>135</v>
+        <v>55</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B210">
-        <v>7953388</v>
+        <v>7958425</v>
       </c>
       <c r="C210" s="2">
-        <v>1750109641</v>
+        <v>1750222982</v>
       </c>
       <c r="D210" t="s">
         <v>136</v>
@@ -4242,30 +4277,30 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B211">
-        <v>7953388</v>
+        <v>7959520</v>
       </c>
       <c r="C211" s="2">
-        <v>1750035762</v>
+        <v>1750109641</v>
       </c>
       <c r="D211" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B212">
-        <v>7954123</v>
+        <v>7959985</v>
       </c>
       <c r="C212" s="2">
-        <v>1750173205</v>
+        <v>1750215295</v>
       </c>
       <c r="D212" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
@@ -4273,24 +4308,24 @@
         <v>44</v>
       </c>
       <c r="B213">
-        <v>7955646</v>
+        <v>7960728</v>
       </c>
       <c r="C213" s="2">
-        <v>1750200435</v>
+        <v>1750189650</v>
       </c>
       <c r="D213" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B214">
-        <v>7955813</v>
-      </c>
-      <c r="C214" t="s">
-        <v>95</v>
+        <v>7960728</v>
+      </c>
+      <c r="C214" s="2">
+        <v>1750053977</v>
       </c>
       <c r="D214" t="s">
         <v>139</v>
@@ -4298,13 +4333,13 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B215">
-        <v>7956551</v>
+        <v>7960730</v>
       </c>
       <c r="C215" s="2">
-        <v>1750222982</v>
+        <v>1750200435</v>
       </c>
       <c r="D215" t="s">
         <v>140</v>
@@ -4312,16 +4347,16 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B216">
-        <v>7956807</v>
+        <v>7960732</v>
       </c>
       <c r="C216" s="2">
-        <v>1750056193</v>
+        <v>1750193275</v>
       </c>
       <c r="D216" t="s">
-        <v>58</v>
+        <v>141</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
@@ -4329,55 +4364,55 @@
         <v>44</v>
       </c>
       <c r="B217">
-        <v>7957257</v>
+        <v>7960739</v>
       </c>
       <c r="C217" s="2">
-        <v>1750126457</v>
+        <v>1750193275</v>
       </c>
       <c r="D217" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B218">
-        <v>7958425</v>
+        <v>7961200</v>
       </c>
       <c r="C218" s="2">
-        <v>1750222982</v>
+        <v>1750200435</v>
       </c>
       <c r="D218" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B219">
-        <v>7959520</v>
+        <v>7961672</v>
       </c>
       <c r="C219" s="2">
-        <v>1750109641</v>
+        <v>1750188546</v>
       </c>
       <c r="D219" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B220">
-        <v>7959985</v>
-      </c>
-      <c r="C220" s="2">
-        <v>1750215295</v>
+        <v>7963480</v>
+      </c>
+      <c r="C220" t="s">
+        <v>5</v>
       </c>
       <c r="D220" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
@@ -4385,13 +4420,13 @@
         <v>44</v>
       </c>
       <c r="B221">
-        <v>7960728</v>
+        <v>7966435</v>
       </c>
       <c r="C221" s="2">
-        <v>1750189650</v>
+        <v>1750220000</v>
       </c>
       <c r="D221" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
@@ -4399,13 +4434,13 @@
         <v>44</v>
       </c>
       <c r="B222">
-        <v>7960728</v>
+        <v>7966435</v>
       </c>
       <c r="C222" s="2">
-        <v>1750053977</v>
+        <v>1750248000</v>
       </c>
       <c r="D222" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
@@ -4413,13 +4448,13 @@
         <v>44</v>
       </c>
       <c r="B223">
-        <v>7960730</v>
+        <v>7967194</v>
       </c>
       <c r="C223" s="2">
-        <v>1750200435</v>
+        <v>1750220000</v>
       </c>
       <c r="D223" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
@@ -4427,10 +4462,10 @@
         <v>44</v>
       </c>
       <c r="B224">
-        <v>7960732</v>
+        <v>7967194</v>
       </c>
       <c r="C224" s="2">
-        <v>1750193275</v>
+        <v>1750220022</v>
       </c>
       <c r="D224" t="s">
         <v>147</v>
@@ -4438,69 +4473,69 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B225">
-        <v>7960739</v>
-      </c>
-      <c r="C225" s="2">
-        <v>1750193275</v>
+        <v>7967730</v>
+      </c>
+      <c r="C225" t="s">
+        <v>148</v>
       </c>
       <c r="D225" t="s">
-        <v>148</v>
+        <v>55</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B226">
-        <v>7960743</v>
+        <v>7967730</v>
       </c>
       <c r="C226" t="s">
-        <v>298</v>
+        <v>67</v>
       </c>
       <c r="D226" t="s">
-        <v>149</v>
+        <v>55</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B227">
-        <v>7961200</v>
+        <v>7967764</v>
       </c>
       <c r="C227" s="2">
-        <v>1750200435</v>
+        <v>1770041364</v>
       </c>
       <c r="D227" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="B228">
-        <v>7961672</v>
+        <v>7967825</v>
       </c>
       <c r="C228" s="2">
-        <v>1750188546</v>
+        <v>1750304622</v>
       </c>
       <c r="D228" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="B229">
-        <v>7963480</v>
+        <v>7967825</v>
       </c>
       <c r="C229" t="s">
-        <v>5</v>
+        <v>152</v>
       </c>
       <c r="D229" t="s">
         <v>151</v>
@@ -4508,100 +4543,100 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>44</v>
+        <v>153</v>
       </c>
       <c r="B230">
-        <v>7964068</v>
+        <v>7967829</v>
       </c>
       <c r="C230" s="2">
-        <v>1750214647</v>
+        <v>1750222982</v>
       </c>
       <c r="D230" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>44</v>
+        <v>153</v>
       </c>
       <c r="B231">
-        <v>7964068</v>
+        <v>7967829</v>
       </c>
       <c r="C231" s="2">
-        <v>1750263341</v>
+        <v>1750105679</v>
       </c>
       <c r="D231" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B232">
-        <v>7964068</v>
+        <v>7968148</v>
       </c>
       <c r="C232" s="2">
-        <v>1750101956</v>
+        <v>1750109641</v>
       </c>
       <c r="D232" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>153</v>
+        <v>10</v>
       </c>
       <c r="B233">
-        <v>7964164</v>
+        <v>7968426</v>
       </c>
       <c r="C233" s="2">
-        <v>1770041364</v>
+        <v>1750092824</v>
       </c>
       <c r="D233" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B234">
-        <v>7966435</v>
+        <v>7968518</v>
       </c>
       <c r="C234" s="2">
-        <v>1750220000</v>
+        <v>1750173205</v>
       </c>
       <c r="D234" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B235">
-        <v>7966435</v>
+        <v>7968759</v>
       </c>
       <c r="C235" s="2">
-        <v>1750248000</v>
+        <v>1750188546</v>
       </c>
       <c r="D235" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B236">
-        <v>7967194</v>
+        <v>7968924</v>
       </c>
       <c r="C236" s="2">
-        <v>1750220000</v>
+        <v>1750109659</v>
       </c>
       <c r="D236" t="s">
-        <v>156</v>
+        <v>55</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
@@ -4609,94 +4644,94 @@
         <v>44</v>
       </c>
       <c r="B237">
-        <v>7967194</v>
+        <v>7969037</v>
       </c>
       <c r="C237" s="2">
-        <v>1750220022</v>
+        <v>1750215295</v>
       </c>
       <c r="D237" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B238">
-        <v>7967730</v>
-      </c>
-      <c r="C238" t="s">
-        <v>157</v>
+        <v>7969146</v>
+      </c>
+      <c r="C238" s="2">
+        <v>1750200435</v>
       </c>
       <c r="D238" t="s">
-        <v>58</v>
+        <v>160</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B239">
-        <v>7967730</v>
-      </c>
-      <c r="C239" t="s">
-        <v>71</v>
+        <v>7969146</v>
+      </c>
+      <c r="C239" s="2">
+        <v>1750200541</v>
       </c>
       <c r="D239" t="s">
-        <v>58</v>
+        <v>160</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B240">
-        <v>7967764</v>
-      </c>
-      <c r="C240" s="2">
-        <v>1770041364</v>
+        <v>7969156</v>
+      </c>
+      <c r="C240" t="s">
+        <v>69</v>
       </c>
       <c r="D240" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>159</v>
+        <v>48</v>
       </c>
       <c r="B241">
-        <v>7967825</v>
-      </c>
-      <c r="C241" s="2">
-        <v>1750304622</v>
+        <v>7969156</v>
+      </c>
+      <c r="C241" t="s">
+        <v>162</v>
       </c>
       <c r="D241" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>159</v>
+        <v>48</v>
       </c>
       <c r="B242">
-        <v>7967825</v>
+        <v>7969156</v>
       </c>
       <c r="C242" t="s">
+        <v>130</v>
+      </c>
+      <c r="D242" t="s">
         <v>161</v>
-      </c>
-      <c r="D242" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>162</v>
+        <v>8</v>
       </c>
       <c r="B243">
-        <v>7967829</v>
+        <v>7969367</v>
       </c>
       <c r="C243" s="2">
-        <v>1750222982</v>
+        <v>1750188523</v>
       </c>
       <c r="D243" t="s">
         <v>163</v>
@@ -4704,41 +4739,41 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>162</v>
+        <v>44</v>
       </c>
       <c r="B244">
-        <v>7967829</v>
+        <v>7969374</v>
       </c>
       <c r="C244" s="2">
-        <v>1750105679</v>
+        <v>1750200435</v>
       </c>
       <c r="D244" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="B245">
-        <v>7968148</v>
-      </c>
-      <c r="C245" s="2">
-        <v>1750109641</v>
+        <v>7970398</v>
+      </c>
+      <c r="C245" t="s">
+        <v>118</v>
       </c>
       <c r="D245" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="B246">
-        <v>7968426</v>
-      </c>
-      <c r="C246" s="2">
-        <v>1750092824</v>
+        <v>7970398</v>
+      </c>
+      <c r="C246" t="s">
+        <v>52</v>
       </c>
       <c r="D246" t="s">
         <v>165</v>
@@ -4746,13 +4781,13 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B247">
-        <v>7968518</v>
+        <v>7970595</v>
       </c>
       <c r="C247" s="2">
-        <v>1750173205</v>
+        <v>1750200541</v>
       </c>
       <c r="D247" t="s">
         <v>166</v>
@@ -4760,30 +4795,30 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B248">
-        <v>7968759</v>
+        <v>7970595</v>
       </c>
       <c r="C248" s="2">
-        <v>1750188546</v>
+        <v>1750214647</v>
       </c>
       <c r="D248" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="B249">
-        <v>7968924</v>
+        <v>7971064</v>
       </c>
       <c r="C249" s="2">
-        <v>1750109659</v>
+        <v>1750109641</v>
       </c>
       <c r="D249" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
@@ -4791,10 +4826,10 @@
         <v>44</v>
       </c>
       <c r="B250">
-        <v>7969037</v>
+        <v>7971383</v>
       </c>
       <c r="C250" s="2">
-        <v>1750215295</v>
+        <v>1750200435</v>
       </c>
       <c r="D250" t="s">
         <v>168</v>
@@ -4805,7 +4840,7 @@
         <v>44</v>
       </c>
       <c r="B251">
-        <v>7969146</v>
+        <v>7971741</v>
       </c>
       <c r="C251" s="2">
         <v>1750200435</v>
@@ -4819,41 +4854,41 @@
         <v>44</v>
       </c>
       <c r="B252">
-        <v>7969146</v>
+        <v>7972029</v>
       </c>
       <c r="C252" s="2">
-        <v>1750200541</v>
+        <v>1750248000</v>
       </c>
       <c r="D252" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B253">
-        <v>7969156</v>
-      </c>
-      <c r="C253" t="s">
-        <v>95</v>
+        <v>7972029</v>
+      </c>
+      <c r="C253" s="2">
+        <v>1750220330</v>
       </c>
       <c r="D253" t="s">
-        <v>139</v>
+        <v>170</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B254">
-        <v>7969367</v>
+        <v>7973015</v>
       </c>
       <c r="C254" s="2">
-        <v>1750188523</v>
+        <v>1750200541</v>
       </c>
       <c r="D254" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
@@ -4861,10 +4896,10 @@
         <v>44</v>
       </c>
       <c r="B255">
-        <v>7969374</v>
+        <v>7973015</v>
       </c>
       <c r="C255" s="2">
-        <v>1750200435</v>
+        <v>1750245555</v>
       </c>
       <c r="D255" t="s">
         <v>171</v>
@@ -4872,30 +4907,30 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="B256">
-        <v>7970398</v>
-      </c>
-      <c r="C256" t="s">
-        <v>119</v>
+        <v>7973015</v>
+      </c>
+      <c r="C256" s="2">
+        <v>1750134478</v>
       </c>
       <c r="D256" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="B257">
-        <v>7970398</v>
-      </c>
-      <c r="C257" t="s">
-        <v>55</v>
+        <v>7973015</v>
+      </c>
+      <c r="C257" s="2">
+        <v>1750263341</v>
       </c>
       <c r="D257" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
@@ -4903,13 +4938,13 @@
         <v>44</v>
       </c>
       <c r="B258">
-        <v>7970595</v>
+        <v>7973357</v>
       </c>
       <c r="C258" s="2">
-        <v>1750200541</v>
+        <v>1750220022</v>
       </c>
       <c r="D258" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
@@ -4917,178 +4952,178 @@
         <v>44</v>
       </c>
       <c r="B259">
-        <v>7970595</v>
+        <v>7973357</v>
       </c>
       <c r="C259" s="2">
-        <v>1750214647</v>
+        <v>1750220000</v>
       </c>
       <c r="D259" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B260">
-        <v>7971064</v>
+        <v>7973357</v>
       </c>
       <c r="C260" s="2">
-        <v>1750109641</v>
+        <v>1750200435</v>
       </c>
       <c r="D260" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="B261">
-        <v>7971177</v>
-      </c>
-      <c r="C261" s="2">
-        <v>1750173205</v>
+        <v>7973399</v>
+      </c>
+      <c r="C261" t="s">
+        <v>173</v>
       </c>
       <c r="D261" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B262">
-        <v>7971383</v>
+        <v>7973493</v>
       </c>
       <c r="C262" s="2">
-        <v>1750200435</v>
+        <v>1750101956</v>
       </c>
       <c r="D262" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B263">
-        <v>7971741</v>
+        <v>7973493</v>
       </c>
       <c r="C263" s="2">
-        <v>1750200435</v>
+        <v>1750188523</v>
       </c>
       <c r="D263" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B264">
-        <v>7972029</v>
+        <v>7973493</v>
       </c>
       <c r="C264" s="2">
-        <v>1750248000</v>
+        <v>1750101952</v>
       </c>
       <c r="D264" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B265">
-        <v>7972029</v>
+        <v>7973493</v>
       </c>
       <c r="C265" s="2">
-        <v>1750220330</v>
+        <v>1750188524</v>
       </c>
       <c r="D265" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B266">
-        <v>7973015</v>
-      </c>
-      <c r="C266" s="2">
-        <v>1750200541</v>
+        <v>7973493</v>
+      </c>
+      <c r="C266" t="s">
+        <v>176</v>
       </c>
       <c r="D266" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B267">
-        <v>7973015</v>
-      </c>
-      <c r="C267" s="2">
-        <v>1750245555</v>
+        <v>7973493</v>
+      </c>
+      <c r="C267" t="s">
+        <v>177</v>
       </c>
       <c r="D267" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B268">
-        <v>7973015</v>
-      </c>
-      <c r="C268" s="2">
-        <v>1750134478</v>
+        <v>7973493</v>
+      </c>
+      <c r="C268" t="s">
+        <v>177</v>
       </c>
       <c r="D268" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B269">
-        <v>7973015</v>
+        <v>7973637</v>
       </c>
       <c r="C269" s="2">
-        <v>1750263341</v>
+        <v>1750188546</v>
       </c>
       <c r="D269" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B270">
-        <v>7973357</v>
+        <v>7974287</v>
       </c>
       <c r="C270" s="2">
-        <v>1750220022</v>
+        <v>1750130600</v>
       </c>
       <c r="D270" t="s">
-        <v>180</v>
+        <v>55</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>44</v>
+        <v>179</v>
       </c>
       <c r="B271">
-        <v>7973357</v>
+        <v>7975903</v>
       </c>
       <c r="C271" s="2">
-        <v>1750220000</v>
+        <v>1750053690</v>
       </c>
       <c r="D271" t="s">
         <v>180</v>
@@ -5099,52 +5134,52 @@
         <v>44</v>
       </c>
       <c r="B272">
-        <v>7973357</v>
+        <v>7975982</v>
       </c>
       <c r="C272" s="2">
-        <v>1750200435</v>
+        <v>1750248000</v>
       </c>
       <c r="D272" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B273">
-        <v>7973399</v>
-      </c>
-      <c r="C273" t="s">
+        <v>7975982</v>
+      </c>
+      <c r="C273" s="2">
+        <v>1750220330</v>
+      </c>
+      <c r="D273" t="s">
         <v>181</v>
-      </c>
-      <c r="D273" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B274">
-        <v>7973493</v>
+        <v>7976330</v>
       </c>
       <c r="C274" s="2">
-        <v>1750101956</v>
+        <v>1750222982</v>
       </c>
       <c r="D274" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B275">
-        <v>7973493</v>
+        <v>7976745</v>
       </c>
       <c r="C275" s="2">
-        <v>1750188523</v>
+        <v>1750105988</v>
       </c>
       <c r="D275" t="s">
         <v>183</v>
@@ -5152,44 +5187,44 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B276">
-        <v>7973493</v>
+        <v>7977137</v>
       </c>
       <c r="C276" s="2">
-        <v>1750101952</v>
+        <v>1750200435</v>
       </c>
       <c r="D276" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B277">
-        <v>7973493</v>
+        <v>7978510</v>
       </c>
       <c r="C277" s="2">
-        <v>1750188524</v>
+        <v>1750215294</v>
       </c>
       <c r="D277" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B278">
-        <v>7973493</v>
-      </c>
-      <c r="C278" t="s">
-        <v>184</v>
+        <v>7978510</v>
+      </c>
+      <c r="C278" s="2">
+        <v>1750215295</v>
       </c>
       <c r="D278" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
@@ -5197,125 +5232,125 @@
         <v>8</v>
       </c>
       <c r="B279">
-        <v>7973493</v>
-      </c>
-      <c r="C279" t="s">
-        <v>185</v>
+        <v>7978626</v>
+      </c>
+      <c r="C279" s="2">
+        <v>1750173205</v>
       </c>
       <c r="D279" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="B280">
-        <v>7973493</v>
-      </c>
-      <c r="C280" t="s">
-        <v>185</v>
+        <v>7978655</v>
+      </c>
+      <c r="C280" s="2">
+        <v>1750220022</v>
       </c>
       <c r="D280" t="s">
-        <v>183</v>
+        <v>55</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="B281">
-        <v>7973637</v>
+        <v>7978655</v>
       </c>
       <c r="C281" s="2">
-        <v>1750188546</v>
+        <v>1750220330</v>
       </c>
       <c r="D281" t="s">
-        <v>186</v>
+        <v>55</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B282">
-        <v>7974287</v>
+        <v>7978655</v>
       </c>
       <c r="C282" s="2">
-        <v>1750130600</v>
+        <v>1750239538</v>
       </c>
       <c r="D282" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>187</v>
+        <v>54</v>
       </c>
       <c r="B283">
-        <v>7975903</v>
+        <v>7978655</v>
       </c>
       <c r="C283" s="2">
-        <v>1750053690</v>
+        <v>1750289153</v>
       </c>
       <c r="D283" t="s">
-        <v>188</v>
+        <v>55</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B284">
-        <v>7975982</v>
+        <v>7979255</v>
       </c>
       <c r="C284" s="2">
-        <v>1750248000</v>
+        <v>1750105988</v>
       </c>
       <c r="D284" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B285">
-        <v>7975982</v>
+        <v>7979396</v>
       </c>
       <c r="C285" s="2">
-        <v>1750220330</v>
+        <v>1750053977</v>
       </c>
       <c r="D285" t="s">
-        <v>189</v>
+        <v>55</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B286">
-        <v>7976330</v>
+        <v>7979436</v>
       </c>
       <c r="C286" s="2">
-        <v>1750222982</v>
+        <v>1750200435</v>
       </c>
       <c r="D286" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B287">
-        <v>7976745</v>
+        <v>7979551</v>
       </c>
       <c r="C287" s="2">
-        <v>1750105988</v>
+        <v>1750134478</v>
       </c>
       <c r="D287" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
@@ -5323,13 +5358,13 @@
         <v>44</v>
       </c>
       <c r="B288">
-        <v>7977137</v>
+        <v>7979551</v>
       </c>
       <c r="C288" s="2">
-        <v>1750200435</v>
+        <v>1750214647</v>
       </c>
       <c r="D288" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
@@ -5337,27 +5372,27 @@
         <v>44</v>
       </c>
       <c r="B289">
-        <v>7978510</v>
+        <v>7979609</v>
       </c>
       <c r="C289" s="2">
-        <v>1750215294</v>
+        <v>1750200435</v>
       </c>
       <c r="D289" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B290">
-        <v>7978510</v>
+        <v>7979880</v>
       </c>
       <c r="C290" s="2">
-        <v>1750215295</v>
+        <v>1750105988</v>
       </c>
       <c r="D290" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
@@ -5365,111 +5400,111 @@
         <v>8</v>
       </c>
       <c r="B291">
-        <v>7978626</v>
+        <v>7983248</v>
       </c>
       <c r="C291" s="2">
-        <v>1750173205</v>
+        <v>1750109615</v>
       </c>
       <c r="D291" t="s">
-        <v>154</v>
+        <v>189</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B292">
-        <v>7978655</v>
+        <v>7983283</v>
       </c>
       <c r="C292" s="2">
-        <v>1750220022</v>
+        <v>1750105679</v>
       </c>
       <c r="D292" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="B293">
-        <v>7978655</v>
+        <v>7983301</v>
       </c>
       <c r="C293" s="2">
-        <v>1750220330</v>
+        <v>1750302850</v>
       </c>
       <c r="D293" t="s">
-        <v>58</v>
+        <v>190</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B294">
-        <v>7978655</v>
-      </c>
-      <c r="C294" s="2">
-        <v>1750239538</v>
+        <v>7983339</v>
+      </c>
+      <c r="C294">
+        <v>1750188523</v>
       </c>
       <c r="D294" t="s">
-        <v>58</v>
+        <v>191</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B295">
-        <v>7978655</v>
-      </c>
-      <c r="C295" s="2">
-        <v>1750289153</v>
+        <v>7983339</v>
+      </c>
+      <c r="C295">
+        <v>1750177464</v>
       </c>
       <c r="D295" t="s">
-        <v>58</v>
+        <v>191</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>10</v>
+        <v>179</v>
       </c>
       <c r="B296">
-        <v>7978826</v>
-      </c>
-      <c r="C296" t="s">
-        <v>95</v>
+        <v>7983535</v>
+      </c>
+      <c r="C296" s="2">
+        <v>1750053690</v>
       </c>
       <c r="D296" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="B297">
-        <v>7979255</v>
+        <v>7983972</v>
       </c>
       <c r="C297" s="2">
-        <v>1750105988</v>
+        <v>1750177464</v>
       </c>
       <c r="D297" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="B298">
-        <v>7979396</v>
+        <v>7984027</v>
       </c>
       <c r="C298" s="2">
-        <v>1750053977</v>
+        <v>1750222982</v>
       </c>
       <c r="D298" t="s">
-        <v>58</v>
+        <v>194</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
@@ -5477,10 +5512,10 @@
         <v>44</v>
       </c>
       <c r="B299">
-        <v>7979436</v>
+        <v>7984086</v>
       </c>
       <c r="C299" s="2">
-        <v>1750200435</v>
+        <v>1750220330</v>
       </c>
       <c r="D299" t="s">
         <v>195</v>
@@ -5491,24 +5526,24 @@
         <v>44</v>
       </c>
       <c r="B300">
-        <v>7979551</v>
+        <v>7984086</v>
       </c>
       <c r="C300" s="2">
-        <v>1750134478</v>
+        <v>1750248000</v>
       </c>
       <c r="D300" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B301">
-        <v>7979551</v>
+        <v>7984118</v>
       </c>
       <c r="C301" s="2">
-        <v>1750214647</v>
+        <v>1750109641</v>
       </c>
       <c r="D301" t="s">
         <v>196</v>
@@ -5519,24 +5554,24 @@
         <v>44</v>
       </c>
       <c r="B302">
-        <v>7979609</v>
+        <v>7984368</v>
       </c>
       <c r="C302" s="2">
-        <v>1750200435</v>
+        <v>1750263341</v>
       </c>
       <c r="D302" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>187</v>
+        <v>44</v>
       </c>
       <c r="B303">
-        <v>7979806</v>
+        <v>7984368</v>
       </c>
       <c r="C303" s="2">
-        <v>1750261447</v>
+        <v>1750291701</v>
       </c>
       <c r="D303" t="s">
         <v>197</v>
@@ -5544,44 +5579,44 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B304">
-        <v>7979880</v>
+        <v>7984368</v>
       </c>
       <c r="C304" s="2">
-        <v>1750105988</v>
+        <v>1770041364</v>
       </c>
       <c r="D304" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B305">
-        <v>7983248</v>
+        <v>7985665</v>
       </c>
       <c r="C305" s="2">
         <v>1750109615</v>
       </c>
       <c r="D305" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>57</v>
+        <v>198</v>
       </c>
       <c r="B306">
-        <v>7983283</v>
-      </c>
-      <c r="C306" s="2">
-        <v>1750105679</v>
+        <v>7985978</v>
+      </c>
+      <c r="C306" t="s">
+        <v>41</v>
       </c>
       <c r="D306" t="s">
-        <v>58</v>
+        <v>199</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
@@ -5589,570 +5624,570 @@
         <v>36</v>
       </c>
       <c r="B307">
-        <v>7983301</v>
-      </c>
-      <c r="C307" s="2">
-        <v>1750302850</v>
+        <v>7987092</v>
+      </c>
+      <c r="C307" t="s">
+        <v>52</v>
       </c>
       <c r="D307" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="B308">
-        <v>7983339</v>
-      </c>
-      <c r="C308">
-        <v>1750177464</v>
+        <v>7987099</v>
+      </c>
+      <c r="C308" s="2">
+        <v>1750044878</v>
       </c>
       <c r="D308" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B309">
-        <v>7983339</v>
-      </c>
-      <c r="C309">
-        <v>1750188523</v>
+        <v>7987111</v>
+      </c>
+      <c r="C309" s="2">
+        <v>1750105988</v>
       </c>
       <c r="D309" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>187</v>
+        <v>48</v>
       </c>
       <c r="B310">
-        <v>7983535</v>
+        <v>7987240</v>
       </c>
       <c r="C310" s="2">
-        <v>1750053690</v>
+        <v>1750109615</v>
       </c>
       <c r="D310" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>8</v>
+        <v>203</v>
       </c>
       <c r="B311">
-        <v>7983972</v>
-      </c>
-      <c r="C311" s="2">
-        <v>1750177464</v>
+        <v>7987322</v>
+      </c>
+      <c r="C311" t="s">
+        <v>204</v>
       </c>
       <c r="D311" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B312">
-        <v>7984027</v>
+        <v>7987370</v>
       </c>
       <c r="C312" s="2">
-        <v>1750222982</v>
+        <v>1750188523</v>
       </c>
       <c r="D312" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B313">
-        <v>7984086</v>
+        <v>7987406</v>
       </c>
       <c r="C313" s="2">
-        <v>1750220330</v>
+        <v>1750173205</v>
       </c>
       <c r="D313" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B314">
-        <v>7984086</v>
+        <v>7987434</v>
       </c>
       <c r="C314" s="2">
-        <v>1750248000</v>
+        <v>1750105988</v>
       </c>
       <c r="D314" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="B315">
-        <v>7984118</v>
+        <v>7987462</v>
       </c>
       <c r="C315" s="2">
-        <v>1750109641</v>
+        <v>1750188523</v>
       </c>
       <c r="D315" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B316">
-        <v>7984368</v>
+        <v>7987462</v>
       </c>
       <c r="C316" s="2">
-        <v>1750263341</v>
+        <v>1750177464</v>
       </c>
       <c r="D316" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B317">
-        <v>7984368</v>
+        <v>7987578</v>
       </c>
       <c r="C317" s="2">
-        <v>1750291701</v>
+        <v>1750105988</v>
       </c>
       <c r="D317" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B318">
-        <v>7984368</v>
+        <v>7987872</v>
       </c>
       <c r="C318" s="2">
-        <v>1770041364</v>
+        <v>1750092824</v>
       </c>
       <c r="D318" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>47</v>
+        <v>179</v>
       </c>
       <c r="B319">
-        <v>7985665</v>
+        <v>7987999</v>
       </c>
       <c r="C319" s="2">
-        <v>1750109615</v>
+        <v>1750346607</v>
       </c>
       <c r="D319" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>44</v>
+        <v>179</v>
       </c>
       <c r="B320">
-        <v>7985903</v>
+        <v>7988101</v>
       </c>
       <c r="C320" s="2">
-        <v>1750177464</v>
+        <v>1750222982</v>
       </c>
       <c r="D320" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c r="B321">
-        <v>7985978</v>
-      </c>
-      <c r="C321" t="s">
-        <v>41</v>
+        <v>7988124</v>
+      </c>
+      <c r="C321" s="2">
+        <v>1750109615</v>
       </c>
       <c r="D321" t="s">
-        <v>208</v>
+        <v>55</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="B322">
-        <v>7986967</v>
+        <v>7989437</v>
       </c>
       <c r="C322" s="2">
-        <v>1750173205</v>
+        <v>1750101956</v>
       </c>
       <c r="D322" t="s">
-        <v>209</v>
+        <v>55</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B323">
-        <v>7987099</v>
+        <v>7989974</v>
       </c>
       <c r="C323" s="2">
-        <v>1750044878</v>
+        <v>1750173205</v>
       </c>
       <c r="D323" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B324">
-        <v>7987111</v>
+        <v>7990418</v>
       </c>
       <c r="C324" s="2">
-        <v>1750105988</v>
+        <v>1750100966</v>
       </c>
       <c r="D324" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B325">
-        <v>7987240</v>
-      </c>
-      <c r="C325" s="2">
-        <v>1750109615</v>
+        <v>7991709</v>
+      </c>
+      <c r="C325">
+        <v>1750188523</v>
       </c>
       <c r="D325" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>130</v>
+        <v>48</v>
       </c>
       <c r="B326">
-        <v>7987322</v>
-      </c>
-      <c r="C326" t="s">
-        <v>212</v>
+        <v>7992146</v>
+      </c>
+      <c r="C326" s="2">
+        <v>1750053977</v>
       </c>
       <c r="D326" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B327">
-        <v>7987370</v>
+        <v>7992146</v>
       </c>
       <c r="C327" s="2">
-        <v>1750188523</v>
+        <v>1750105988</v>
       </c>
       <c r="D327" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B328">
-        <v>7987406</v>
+        <v>7992155</v>
       </c>
       <c r="C328" s="2">
-        <v>1750173205</v>
+        <v>1750215295</v>
       </c>
       <c r="D328" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B329">
-        <v>7987434</v>
-      </c>
-      <c r="C329" s="2">
-        <v>1750105988</v>
+        <v>7992193</v>
+      </c>
+      <c r="C329" t="s">
+        <v>52</v>
       </c>
       <c r="D329" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B330">
-        <v>7987462</v>
+        <v>7992217</v>
       </c>
       <c r="C330" s="2">
-        <v>1750188523</v>
+        <v>1750109658</v>
       </c>
       <c r="D330" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B331">
-        <v>7987462</v>
+        <v>7992231</v>
       </c>
       <c r="C331" s="2">
-        <v>1750177464</v>
+        <v>1750109641</v>
       </c>
       <c r="D331" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="B332">
-        <v>7987578</v>
+        <v>7993496</v>
       </c>
       <c r="C332" s="2">
-        <v>1750105988</v>
+        <v>1750101956</v>
       </c>
       <c r="D332" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B333">
-        <v>7987872</v>
+        <v>7993496</v>
       </c>
       <c r="C333" s="2">
-        <v>1750092824</v>
+        <v>1750188523</v>
       </c>
       <c r="D333" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>187</v>
+        <v>10</v>
       </c>
       <c r="B334">
-        <v>7987999</v>
+        <v>7993547</v>
       </c>
       <c r="C334" s="2">
-        <v>1750346607</v>
+        <v>1750173205</v>
       </c>
       <c r="D334" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B335">
-        <v>7988101</v>
+        <v>7993736</v>
       </c>
       <c r="C335" s="2">
-        <v>1750222982</v>
+        <v>1750053977</v>
       </c>
       <c r="D335" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>57</v>
+        <v>179</v>
       </c>
       <c r="B336">
-        <v>7988124</v>
+        <v>7993736</v>
       </c>
       <c r="C336" s="2">
-        <v>1750109615</v>
+        <v>1750173205</v>
       </c>
       <c r="D336" t="s">
-        <v>58</v>
+        <v>222</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B337">
-        <v>7989437</v>
+        <v>7993882</v>
       </c>
       <c r="C337" s="2">
-        <v>1750101956</v>
+        <v>1750245555</v>
       </c>
       <c r="D337" t="s">
-        <v>58</v>
+        <v>223</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B338">
-        <v>7989974</v>
+        <v>7993882</v>
       </c>
       <c r="C338" s="2">
-        <v>1750173205</v>
+        <v>1750200435</v>
       </c>
       <c r="D338" t="s">
-        <v>154</v>
+        <v>223</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B339">
-        <v>7990410</v>
+        <v>7993882</v>
       </c>
       <c r="C339" s="2">
-        <v>1750109615</v>
+        <v>1750133348</v>
       </c>
       <c r="D339" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B340">
-        <v>7990418</v>
+        <v>7993882</v>
       </c>
       <c r="C340" s="2">
-        <v>1750100966</v>
+        <v>1750214647</v>
       </c>
       <c r="D340" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="B341">
-        <v>7991709</v>
-      </c>
-      <c r="C341">
-        <v>1750188523</v>
+        <v>7993886</v>
+      </c>
+      <c r="C341" t="s">
+        <v>310</v>
       </c>
       <c r="D341" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B342">
-        <v>7992146</v>
+        <v>7994017</v>
       </c>
       <c r="C342" s="2">
-        <v>1750053977</v>
+        <v>1750193275</v>
       </c>
       <c r="D342" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B343">
-        <v>7992146</v>
+        <v>7994017</v>
       </c>
       <c r="C343" s="2">
-        <v>1750105988</v>
+        <v>1750200435</v>
       </c>
       <c r="D343" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B344">
-        <v>7992155</v>
+        <v>7996721</v>
       </c>
       <c r="C344" s="2">
-        <v>1750215295</v>
+        <v>1770041364</v>
       </c>
       <c r="D344" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B345">
-        <v>7992193</v>
-      </c>
-      <c r="C345" t="s">
-        <v>55</v>
+        <v>7996728</v>
+      </c>
+      <c r="C345" s="2">
+        <v>1750245555</v>
       </c>
       <c r="D345" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B346">
-        <v>7992217</v>
+        <v>7996728</v>
       </c>
       <c r="C346" s="2">
-        <v>1750109658</v>
+        <v>1750289153</v>
       </c>
       <c r="D346" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B347">
-        <v>7992231</v>
+        <v>7996728</v>
       </c>
       <c r="C347" s="2">
-        <v>1750109641</v>
+        <v>1750263341</v>
       </c>
       <c r="D347" t="s">
         <v>227</v>
@@ -6160,27 +6195,27 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B348">
-        <v>7993496</v>
+        <v>7996728</v>
       </c>
       <c r="C348" s="2">
-        <v>1750101956</v>
+        <v>1750200435</v>
       </c>
       <c r="D348" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B349">
-        <v>7993496</v>
-      </c>
-      <c r="C349" s="2">
-        <v>1750188523</v>
+        <v>7996739</v>
+      </c>
+      <c r="C349" t="s">
+        <v>96</v>
       </c>
       <c r="D349" t="s">
         <v>228</v>
@@ -6188,69 +6223,69 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B350">
-        <v>7993547</v>
-      </c>
-      <c r="C350" s="2">
-        <v>1750173205</v>
+        <v>7996739</v>
+      </c>
+      <c r="C350" t="s">
+        <v>95</v>
       </c>
       <c r="D350" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B351">
-        <v>7993736</v>
+        <v>7997042</v>
       </c>
       <c r="C351" s="2">
-        <v>1750053977</v>
+        <v>1750234950</v>
       </c>
       <c r="D351" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B352">
-        <v>7993736</v>
+        <v>7997042</v>
       </c>
       <c r="C352" s="2">
-        <v>1750173205</v>
+        <v>1750222982</v>
       </c>
       <c r="D352" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B353">
-        <v>7993882</v>
+        <v>7999875</v>
       </c>
       <c r="C353" s="2">
-        <v>1750245555</v>
+        <v>1750173205</v>
       </c>
       <c r="D353" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>44</v>
+        <v>153</v>
       </c>
       <c r="B354">
-        <v>7993882</v>
+        <v>8001946</v>
       </c>
       <c r="C354" s="2">
-        <v>1750200435</v>
+        <v>1750222982</v>
       </c>
       <c r="D354" t="s">
         <v>231</v>
@@ -6258,13 +6293,13 @@
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B355">
-        <v>7993882</v>
+        <v>8001964</v>
       </c>
       <c r="C355" s="2">
-        <v>1750133348</v>
+        <v>1750261447</v>
       </c>
       <c r="D355" t="s">
         <v>231</v>
@@ -6272,27 +6307,27 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B356">
-        <v>7993882</v>
+        <v>8001995</v>
       </c>
       <c r="C356" s="2">
-        <v>1750214647</v>
+        <v>1750177464</v>
       </c>
       <c r="D356" t="s">
-        <v>231</v>
+        <v>193</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>159</v>
+        <v>44</v>
       </c>
       <c r="B357">
-        <v>7993886</v>
-      </c>
-      <c r="C357" t="s">
-        <v>299</v>
+        <v>8002016</v>
+      </c>
+      <c r="C357" s="2">
+        <v>1750200435</v>
       </c>
       <c r="D357" t="s">
         <v>232</v>
@@ -6300,100 +6335,100 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>44</v>
+        <v>179</v>
       </c>
       <c r="B358">
-        <v>7994017</v>
-      </c>
-      <c r="C358" s="2">
-        <v>1750193275</v>
+        <v>8002017</v>
+      </c>
+      <c r="C358" t="s">
+        <v>233</v>
       </c>
       <c r="D358" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B359">
-        <v>7994017</v>
+        <v>8002044</v>
       </c>
       <c r="C359" s="2">
-        <v>1750200435</v>
+        <v>1750215295</v>
       </c>
       <c r="D359" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B360">
-        <v>7994308</v>
-      </c>
-      <c r="C360" s="2">
-        <v>1750173205</v>
+        <v>8002045</v>
+      </c>
+      <c r="C360" t="s">
+        <v>96</v>
       </c>
       <c r="D360" t="s">
-        <v>154</v>
+        <v>236</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B361">
-        <v>7996721</v>
+        <v>8002169</v>
       </c>
       <c r="C361" s="2">
-        <v>1770041364</v>
+        <v>1750109615</v>
       </c>
       <c r="D361" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B362">
-        <v>7996728</v>
+        <v>8002212</v>
       </c>
       <c r="C362" s="2">
-        <v>1750245555</v>
+        <v>1750222982</v>
       </c>
       <c r="D362" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B363">
-        <v>7996728</v>
+        <v>8002272</v>
       </c>
       <c r="C363" s="2">
-        <v>1750289153</v>
+        <v>1804610970</v>
       </c>
       <c r="D363" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B364">
-        <v>7996728</v>
+        <v>8002272</v>
       </c>
       <c r="C364" s="2">
-        <v>1750263341</v>
+        <v>1770031910</v>
       </c>
       <c r="D364" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.3">
@@ -6401,167 +6436,167 @@
         <v>44</v>
       </c>
       <c r="B365">
-        <v>7996728</v>
+        <v>8002373</v>
       </c>
       <c r="C365" s="2">
         <v>1750200435</v>
       </c>
       <c r="D365" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="B366">
-        <v>7996739</v>
-      </c>
-      <c r="C366" t="s">
-        <v>95</v>
+        <v>8002398</v>
+      </c>
+      <c r="C366" s="2">
+        <v>1750173205</v>
       </c>
       <c r="D366" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B367">
-        <v>7996739</v>
+        <v>8002614</v>
       </c>
       <c r="C367" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="D367" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>187</v>
+        <v>44</v>
       </c>
       <c r="B368">
-        <v>7997042</v>
+        <v>8002694</v>
       </c>
       <c r="C368" s="2">
-        <v>1750234950</v>
+        <v>1750173205</v>
       </c>
       <c r="D368" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>187</v>
+        <v>44</v>
       </c>
       <c r="B369">
-        <v>7997042</v>
+        <v>8002694</v>
       </c>
       <c r="C369" s="2">
-        <v>1750222982</v>
+        <v>1750193275</v>
       </c>
       <c r="D369" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B370">
-        <v>7999875</v>
+        <v>8002746</v>
       </c>
       <c r="C370" s="2">
-        <v>1750173205</v>
+        <v>1750109615</v>
       </c>
       <c r="D370" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>153</v>
+        <v>48</v>
       </c>
       <c r="B371">
-        <v>8001909</v>
+        <v>8002746</v>
       </c>
       <c r="C371" s="2">
-        <v>1750173205</v>
+        <v>1750109641</v>
       </c>
       <c r="D371" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="B372">
-        <v>8001946</v>
+        <v>8002753</v>
       </c>
       <c r="C372" s="2">
-        <v>1750222982</v>
+        <v>1750102901</v>
       </c>
       <c r="D372" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B373">
-        <v>8001964</v>
+        <v>8002883</v>
       </c>
       <c r="C373" s="2">
-        <v>1750261447</v>
+        <v>1750188523</v>
       </c>
       <c r="D373" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B374">
-        <v>8001995</v>
+        <v>8003159</v>
       </c>
       <c r="C374" s="2">
-        <v>1750177464</v>
+        <v>1750193275</v>
       </c>
       <c r="D374" t="s">
-        <v>202</v>
+        <v>246</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B375">
-        <v>8002016</v>
+        <v>8003456</v>
       </c>
       <c r="C375" s="2">
-        <v>1750200435</v>
+        <v>1750173205</v>
       </c>
       <c r="D375" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>187</v>
+        <v>88</v>
       </c>
       <c r="B376">
-        <v>8002017</v>
-      </c>
-      <c r="C376" t="s">
-        <v>242</v>
+        <v>8003492</v>
+      </c>
+      <c r="C376" s="2">
+        <v>1750109615</v>
       </c>
       <c r="D376" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.3">
@@ -6569,83 +6604,83 @@
         <v>8</v>
       </c>
       <c r="B377">
-        <v>8002044</v>
+        <v>8003561</v>
       </c>
       <c r="C377" s="2">
-        <v>1750215295</v>
+        <v>1750177464</v>
       </c>
       <c r="D377" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B378">
-        <v>8002045</v>
-      </c>
-      <c r="C378" t="s">
-        <v>95</v>
+        <v>8004495</v>
+      </c>
+      <c r="C378" s="2">
+        <v>1750222982</v>
       </c>
       <c r="D378" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="B379">
-        <v>8002169</v>
+        <v>8004526</v>
       </c>
       <c r="C379" s="2">
-        <v>1750109615</v>
+        <v>1750304916</v>
       </c>
       <c r="D379" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>10</v>
+        <v>198</v>
       </c>
       <c r="B380">
-        <v>8002212</v>
+        <v>8004585</v>
       </c>
       <c r="C380" s="2">
         <v>1750222982</v>
       </c>
       <c r="D380" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>87</v>
+        <v>198</v>
       </c>
       <c r="B381">
-        <v>8002257</v>
+        <v>8004625</v>
       </c>
       <c r="C381" s="2">
-        <v>1750109615</v>
+        <v>1770041364</v>
       </c>
       <c r="D381" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B382">
-        <v>8002272</v>
+        <v>8004898</v>
       </c>
       <c r="C382" s="2">
-        <v>1804610970</v>
+        <v>1750130600</v>
       </c>
       <c r="D382" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.3">
@@ -6653,83 +6688,83 @@
         <v>8</v>
       </c>
       <c r="B383">
-        <v>8002272</v>
+        <v>8005093</v>
       </c>
       <c r="C383" s="2">
-        <v>1770031910</v>
+        <v>1750155446</v>
       </c>
       <c r="D383" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B384">
-        <v>8002373</v>
+        <v>8005093</v>
       </c>
       <c r="C384" s="2">
-        <v>1750200435</v>
+        <v>1750055614</v>
       </c>
       <c r="D384" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>8</v>
+        <v>254</v>
       </c>
       <c r="B385">
-        <v>8002398</v>
-      </c>
-      <c r="C385" s="2">
-        <v>1750173205</v>
+        <v>8005094</v>
+      </c>
+      <c r="C385" t="s">
+        <v>52</v>
       </c>
       <c r="D385" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B386">
-        <v>8002519</v>
+        <v>8006044</v>
       </c>
       <c r="C386" s="2">
-        <v>1750109615</v>
+        <v>1750105988</v>
       </c>
       <c r="D386" t="s">
-        <v>250</v>
+        <v>208</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="B387">
-        <v>8002614</v>
-      </c>
-      <c r="C387" t="s">
-        <v>5</v>
+        <v>8006280</v>
+      </c>
+      <c r="C387" s="2">
+        <v>1750188523</v>
       </c>
       <c r="D387" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B388">
-        <v>8002694</v>
+        <v>8008898</v>
       </c>
       <c r="C388" s="2">
         <v>1750173205</v>
       </c>
       <c r="D388" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.3">
@@ -6737,276 +6772,276 @@
         <v>44</v>
       </c>
       <c r="B389">
-        <v>8002694</v>
+        <v>8008936</v>
       </c>
       <c r="C389" s="2">
-        <v>1750193275</v>
+        <v>1750215294</v>
       </c>
       <c r="D389" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B390">
-        <v>8002746</v>
+        <v>8008945</v>
       </c>
       <c r="C390" s="2">
-        <v>1750109615</v>
+        <v>1750109659</v>
       </c>
       <c r="D390" t="s">
-        <v>253</v>
+        <v>55</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="B391">
-        <v>8002746</v>
+        <v>8009062</v>
       </c>
       <c r="C391" s="2">
-        <v>1750109641</v>
+        <v>1750177464</v>
       </c>
       <c r="D391" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B392">
-        <v>8002753</v>
+        <v>8009074</v>
       </c>
       <c r="C392" s="2">
-        <v>1750102901</v>
+        <v>1750200435</v>
       </c>
       <c r="D392" t="s">
-        <v>254</v>
+        <v>128</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B393">
-        <v>8002883</v>
-      </c>
-      <c r="C393" s="2">
-        <v>1750188523</v>
+        <v>8009161</v>
+      </c>
+      <c r="C393" t="s">
+        <v>41</v>
       </c>
       <c r="D393" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B394">
-        <v>8003159</v>
+        <v>8009168</v>
       </c>
       <c r="C394" s="2">
-        <v>1750193275</v>
+        <v>1750173205</v>
       </c>
       <c r="D394" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B395">
-        <v>8003456</v>
+        <v>8009172</v>
       </c>
       <c r="C395" s="2">
-        <v>1750173205</v>
+        <v>1750109615</v>
       </c>
       <c r="D395" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="B396">
-        <v>8003492</v>
+        <v>8009318</v>
       </c>
       <c r="C396" s="2">
-        <v>1750109615</v>
+        <v>1750182347</v>
       </c>
       <c r="D396" t="s">
-        <v>257</v>
+        <v>55</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>8</v>
+        <v>150</v>
       </c>
       <c r="B397">
-        <v>8003561</v>
+        <v>8009403</v>
       </c>
       <c r="C397" s="2">
-        <v>1750177464</v>
+        <v>1750100966</v>
       </c>
       <c r="D397" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="B398">
-        <v>8004495</v>
-      </c>
-      <c r="C398" s="2">
-        <v>1750222982</v>
+        <v>8009403</v>
+      </c>
+      <c r="C398" t="s">
+        <v>261</v>
       </c>
       <c r="D398" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="B399">
-        <v>8004526</v>
+        <v>8009485</v>
       </c>
       <c r="C399" s="2">
-        <v>1750304916</v>
+        <v>1750136011</v>
       </c>
       <c r="D399" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>153</v>
+        <v>48</v>
       </c>
       <c r="B400">
-        <v>8004585</v>
+        <v>8009490</v>
       </c>
       <c r="C400" s="2">
-        <v>1750222982</v>
+        <v>1750105988</v>
       </c>
       <c r="D400" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>153</v>
+        <v>48</v>
       </c>
       <c r="B401">
-        <v>8004625</v>
+        <v>8009740</v>
       </c>
       <c r="C401" s="2">
-        <v>1770041364</v>
+        <v>1750171419</v>
       </c>
       <c r="D401" t="s">
-        <v>238</v>
+        <v>55</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B402">
-        <v>8004898</v>
+        <v>8009828</v>
       </c>
       <c r="C402" s="2">
-        <v>1750130600</v>
+        <v>1750261447</v>
       </c>
       <c r="D402" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B403">
-        <v>8005093</v>
+        <v>8009835</v>
       </c>
       <c r="C403" s="2">
-        <v>1750155446</v>
+        <v>1750105988</v>
       </c>
       <c r="D403" t="s">
-        <v>263</v>
+        <v>208</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B404">
-        <v>8005093</v>
+        <v>8009857</v>
       </c>
       <c r="C404" s="2">
-        <v>1750055614</v>
+        <v>1770031910</v>
       </c>
       <c r="D404" t="s">
-        <v>263</v>
+        <v>208</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>264</v>
+        <v>48</v>
       </c>
       <c r="B405">
-        <v>8005094</v>
-      </c>
-      <c r="C405" t="s">
-        <v>55</v>
+        <v>8009873</v>
+      </c>
+      <c r="C405" s="2">
+        <v>1750173205</v>
       </c>
       <c r="D405" t="s">
-        <v>265</v>
+        <v>234</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="B406">
-        <v>8006044</v>
+        <v>8009990</v>
       </c>
       <c r="C406" s="2">
-        <v>1750105988</v>
+        <v>1750055175</v>
       </c>
       <c r="D406" t="s">
-        <v>216</v>
+        <v>264</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B407">
-        <v>8008898</v>
+        <v>8010058</v>
       </c>
       <c r="C407" s="2">
-        <v>1750173205</v>
+        <v>1750200435</v>
       </c>
       <c r="D407" t="s">
-        <v>238</v>
+        <v>128</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B408">
-        <v>8008936</v>
-      </c>
-      <c r="C408" s="2">
-        <v>1750215294</v>
+        <v>8010061</v>
+      </c>
+      <c r="C408" t="s">
+        <v>265</v>
       </c>
       <c r="D408" t="s">
         <v>266</v>
@@ -7014,44 +7049,44 @@
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B409">
-        <v>8009062</v>
-      </c>
-      <c r="C409" s="2">
-        <v>1750177464</v>
+        <v>8010061</v>
+      </c>
+      <c r="C409" t="s">
+        <v>96</v>
       </c>
       <c r="D409" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B410">
-        <v>8009074</v>
+        <v>8010648</v>
       </c>
       <c r="C410" s="2">
-        <v>1750200435</v>
+        <v>1750109658</v>
       </c>
       <c r="D410" t="s">
-        <v>129</v>
+        <v>267</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B411">
-        <v>8009111</v>
+        <v>8010671</v>
       </c>
       <c r="C411" s="2">
-        <v>1750173205</v>
+        <v>1750109615</v>
       </c>
       <c r="D411" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.3">
@@ -7059,38 +7094,38 @@
         <v>8</v>
       </c>
       <c r="B412">
-        <v>8009122</v>
-      </c>
-      <c r="C412" t="s">
-        <v>184</v>
+        <v>8011061</v>
+      </c>
+      <c r="C412" s="2">
+        <v>1750197179</v>
       </c>
       <c r="D412" t="s">
-        <v>267</v>
+        <v>55</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B413">
-        <v>8009122</v>
-      </c>
-      <c r="C413" t="s">
-        <v>185</v>
+        <v>8011156</v>
+      </c>
+      <c r="C413" s="2">
+        <v>1750220000</v>
       </c>
       <c r="D413" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B414">
-        <v>8009161</v>
-      </c>
-      <c r="C414" t="s">
-        <v>41</v>
+        <v>8011156</v>
+      </c>
+      <c r="C414" s="2">
+        <v>1750214647</v>
       </c>
       <c r="D414" t="s">
         <v>268</v>
@@ -7098,114 +7133,114 @@
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B415">
-        <v>8009168</v>
+        <v>8011156</v>
       </c>
       <c r="C415" s="2">
-        <v>1750173205</v>
+        <v>1750200541</v>
       </c>
       <c r="D415" t="s">
-        <v>238</v>
+        <v>268</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>47</v>
+        <v>198</v>
       </c>
       <c r="B416">
-        <v>8009172</v>
+        <v>8012176</v>
       </c>
       <c r="C416" s="2">
-        <v>1750109615</v>
+        <v>1750235487</v>
       </c>
       <c r="D416" t="s">
-        <v>247</v>
+        <v>269</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B417">
-        <v>8009396</v>
-      </c>
-      <c r="C417">
-        <v>1750109659</v>
+        <v>8012267</v>
+      </c>
+      <c r="C417" s="2">
+        <v>1750200435</v>
       </c>
       <c r="D417" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>159</v>
+        <v>48</v>
       </c>
       <c r="B418">
-        <v>8009403</v>
+        <v>8012665</v>
       </c>
       <c r="C418" s="2">
-        <v>1750100966</v>
+        <v>1750105988</v>
       </c>
       <c r="D418" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>159</v>
+        <v>48</v>
       </c>
       <c r="B419">
-        <v>8009403</v>
-      </c>
-      <c r="C419" t="s">
+        <v>8012665</v>
+      </c>
+      <c r="C419" s="2">
+        <v>1750109641</v>
+      </c>
+      <c r="D419" t="s">
         <v>271</v>
-      </c>
-      <c r="D419" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="B420">
-        <v>8009485</v>
+        <v>8012702</v>
       </c>
       <c r="C420" s="2">
-        <v>1750136011</v>
+        <v>1750222982</v>
       </c>
       <c r="D420" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B421">
-        <v>8009490</v>
-      </c>
-      <c r="C421" s="2">
-        <v>1750105988</v>
+        <v>8012775</v>
+      </c>
+      <c r="C421" t="s">
+        <v>96</v>
       </c>
       <c r="D421" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B422">
-        <v>8009501</v>
+        <v>8013156</v>
       </c>
       <c r="C422" s="2">
-        <v>1750109659</v>
+        <v>1750188523</v>
       </c>
       <c r="D422" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.3">
@@ -7213,125 +7248,125 @@
         <v>44</v>
       </c>
       <c r="B423">
-        <v>8009642</v>
+        <v>8013330</v>
       </c>
       <c r="C423" s="2">
-        <v>1750053977</v>
+        <v>1750188523</v>
       </c>
       <c r="D423" t="s">
-        <v>58</v>
+        <v>256</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="B424">
-        <v>8009740</v>
+        <v>8013409</v>
       </c>
       <c r="C424" s="2">
-        <v>1750171419</v>
+        <v>1750105679</v>
       </c>
       <c r="D424" t="s">
-        <v>58</v>
+        <v>274</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="B425">
-        <v>8009828</v>
+        <v>8013409</v>
       </c>
       <c r="C425" s="2">
-        <v>1750261447</v>
+        <v>1750109641</v>
       </c>
       <c r="D425" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="B426">
-        <v>8009835</v>
+        <v>8013409</v>
       </c>
       <c r="C426" s="2">
-        <v>1750105988</v>
+        <v>1750044878</v>
       </c>
       <c r="D426" t="s">
-        <v>216</v>
+        <v>274</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="B427">
-        <v>8009857</v>
+        <v>8013409</v>
       </c>
       <c r="C427" s="2">
-        <v>1770031910</v>
+        <v>1750109659</v>
       </c>
       <c r="D427" t="s">
-        <v>216</v>
+        <v>274</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="B428">
-        <v>8009873</v>
+        <v>8013409</v>
       </c>
       <c r="C428" s="2">
-        <v>1750173205</v>
+        <v>1750053977</v>
       </c>
       <c r="D428" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="B429">
-        <v>8009876</v>
+        <v>8015313</v>
       </c>
       <c r="C429" s="2">
-        <v>1750053977</v>
+        <v>1750100965</v>
       </c>
       <c r="D429" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B430">
-        <v>8009876</v>
+        <v>8017631</v>
       </c>
       <c r="C430" s="2">
-        <v>1750109659</v>
+        <v>1750157444</v>
       </c>
       <c r="D430" t="s">
-        <v>269</v>
+        <v>55</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B431">
-        <v>8009990</v>
+        <v>8017651</v>
       </c>
       <c r="C431" s="2">
-        <v>1750055175</v>
+        <v>1750200435</v>
       </c>
       <c r="D431" t="s">
-        <v>274</v>
+        <v>55</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.3">
@@ -7339,167 +7374,167 @@
         <v>44</v>
       </c>
       <c r="B432">
-        <v>8010058</v>
+        <v>8017678</v>
       </c>
       <c r="C432" s="2">
         <v>1750200435</v>
       </c>
       <c r="D432" t="s">
-        <v>129</v>
+        <v>276</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>47</v>
+        <v>198</v>
       </c>
       <c r="B433">
-        <v>8010061</v>
-      </c>
-      <c r="C433" t="s">
-        <v>275</v>
+        <v>8017709</v>
+      </c>
+      <c r="C433" s="2">
+        <v>1750247444</v>
       </c>
       <c r="D433" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B434">
-        <v>8010061</v>
+        <v>8017733</v>
       </c>
       <c r="C434" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="D434" t="s">
-        <v>276</v>
+        <v>55</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B435">
-        <v>8010648</v>
+        <v>8017900</v>
       </c>
       <c r="C435" s="2">
         <v>1750109658</v>
       </c>
       <c r="D435" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B436">
-        <v>8010671</v>
-      </c>
-      <c r="C436" s="2">
-        <v>1750109615</v>
+        <v>8017955</v>
+      </c>
+      <c r="C436" t="s">
+        <v>278</v>
       </c>
       <c r="D436" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="B437">
-        <v>8011156</v>
+        <v>8018004</v>
       </c>
       <c r="C437" s="2">
-        <v>1750220000</v>
+        <v>1750045330</v>
       </c>
       <c r="D437" t="s">
-        <v>278</v>
+        <v>55</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B438">
-        <v>8011156</v>
+        <v>8018041</v>
       </c>
       <c r="C438" s="2">
-        <v>1750214647</v>
+        <v>1750173205</v>
       </c>
       <c r="D438" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B439">
-        <v>8011156</v>
+        <v>8018104</v>
       </c>
       <c r="C439" s="2">
-        <v>1750200541</v>
+        <v>1750109641</v>
       </c>
       <c r="D439" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="B440">
-        <v>8011979</v>
-      </c>
-      <c r="C440">
-        <v>1750349661</v>
+        <v>8018112</v>
+      </c>
+      <c r="C440" s="2">
+        <v>1750109641</v>
       </c>
       <c r="D440" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B441">
-        <v>8012066</v>
+        <v>8018258</v>
       </c>
       <c r="C441" s="2">
-        <v>1750109641</v>
+        <v>1750109615</v>
       </c>
       <c r="D441" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>130</v>
+        <v>48</v>
       </c>
       <c r="B442">
-        <v>8012175</v>
+        <v>8018271</v>
       </c>
       <c r="C442" s="2">
-        <v>1750109659</v>
+        <v>1750188523</v>
       </c>
       <c r="D442" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>153</v>
+        <v>44</v>
       </c>
       <c r="B443">
-        <v>8012176</v>
+        <v>8018510</v>
       </c>
       <c r="C443" s="2">
-        <v>1750235487</v>
+        <v>1750200435</v>
       </c>
       <c r="D443" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.3">
@@ -7507,265 +7542,265 @@
         <v>44</v>
       </c>
       <c r="B444">
-        <v>8012267</v>
+        <v>8018527</v>
       </c>
       <c r="C444" s="2">
-        <v>1750200435</v>
+        <v>1750220000</v>
       </c>
       <c r="D444" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B445">
-        <v>8012284</v>
+        <v>8018527</v>
       </c>
       <c r="C445" s="2">
-        <v>1750256956</v>
+        <v>1750220022</v>
       </c>
       <c r="D445" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B446">
-        <v>8012665</v>
+        <v>8018527</v>
       </c>
       <c r="C446" s="2">
-        <v>1750105988</v>
+        <v>1750200435</v>
       </c>
       <c r="D446" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B447">
-        <v>8012665</v>
+        <v>8018708</v>
       </c>
       <c r="C447" s="2">
-        <v>1750109641</v>
+        <v>1750101956</v>
       </c>
       <c r="D447" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="B448">
-        <v>8012702</v>
+        <v>8018708</v>
       </c>
       <c r="C448" s="2">
-        <v>1750222982</v>
+        <v>1750154866</v>
       </c>
       <c r="D448" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B449">
-        <v>8012775</v>
-      </c>
-      <c r="C449" t="s">
-        <v>95</v>
+        <v>8018768</v>
+      </c>
+      <c r="C449" s="2">
+        <v>1750105988</v>
       </c>
       <c r="D449" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>47</v>
+        <v>179</v>
       </c>
       <c r="B450">
-        <v>8013156</v>
+        <v>8018770</v>
       </c>
       <c r="C450" s="2">
-        <v>1750188523</v>
+        <v>1750109641</v>
       </c>
       <c r="D450" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="B451">
-        <v>8013409</v>
+        <v>8018879</v>
       </c>
       <c r="C451" s="2">
-        <v>1750105679</v>
+        <v>1750222982</v>
       </c>
       <c r="D451" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>159</v>
+        <v>48</v>
       </c>
       <c r="B452">
-        <v>8013409</v>
+        <v>8019163</v>
       </c>
       <c r="C452" s="2">
-        <v>1750109641</v>
+        <v>1750109615</v>
       </c>
       <c r="D452" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B453">
-        <v>8013409</v>
+        <v>8019184</v>
       </c>
       <c r="C453" s="2">
-        <v>1750044878</v>
+        <v>1750092824</v>
       </c>
       <c r="D453" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="B454">
-        <v>8013409</v>
+        <v>8019215</v>
       </c>
       <c r="C454" s="2">
-        <v>1750109659</v>
+        <v>1750109615</v>
       </c>
       <c r="D454" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>159</v>
+        <v>10</v>
       </c>
       <c r="B455">
-        <v>8013409</v>
+        <v>8019215</v>
       </c>
       <c r="C455" s="2">
-        <v>1750053977</v>
+        <v>1750109641</v>
       </c>
       <c r="D455" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>159</v>
+        <v>8</v>
       </c>
       <c r="B456">
-        <v>8017814</v>
+        <v>8019273</v>
       </c>
       <c r="C456" s="2">
-        <v>1750109659</v>
+        <v>1750188524</v>
       </c>
       <c r="D456" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>159</v>
+        <v>8</v>
       </c>
       <c r="B457">
-        <v>8017814</v>
+        <v>8019273</v>
       </c>
       <c r="C457" s="2">
-        <v>1750053977</v>
+        <v>1750188523</v>
       </c>
       <c r="D457" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="B458">
-        <v>8017900</v>
+        <v>8019334</v>
       </c>
       <c r="C458" s="2">
-        <v>1750109658</v>
+        <v>1750173205</v>
       </c>
       <c r="D458" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B459">
-        <v>8017955</v>
-      </c>
-      <c r="C459" t="s">
-        <v>289</v>
+        <v>8019396</v>
+      </c>
+      <c r="C459" s="2">
+        <v>1750200435</v>
       </c>
       <c r="D459" t="s">
-        <v>58</v>
+        <v>296</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="B460">
-        <v>8018024</v>
+        <v>8019507</v>
       </c>
       <c r="C460" s="2">
-        <v>1750130600</v>
+        <v>1750109615</v>
       </c>
       <c r="D460" t="s">
-        <v>58</v>
+        <v>297</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B461">
-        <v>8018068</v>
+        <v>8019563</v>
       </c>
       <c r="C461" s="2">
-        <v>1750109615</v>
+        <v>1750215294</v>
       </c>
       <c r="D461" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B462">
-        <v>8018104</v>
+        <v>8019576</v>
       </c>
       <c r="C462" s="2">
-        <v>1750109641</v>
+        <v>1750109615</v>
       </c>
       <c r="D462" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.3">
@@ -7773,87 +7808,339 @@
         <v>8</v>
       </c>
       <c r="B463">
-        <v>8018112</v>
+        <v>8019605</v>
       </c>
       <c r="C463" s="2">
         <v>1750109641</v>
       </c>
       <c r="D463" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B464">
-        <v>8018258</v>
+        <v>8019692</v>
       </c>
       <c r="C464" s="2">
-        <v>1750109615</v>
+        <v>1750109641</v>
       </c>
       <c r="D464" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
-        <v>8</v>
+        <v>203</v>
       </c>
       <c r="B465">
-        <v>8018508</v>
+        <v>8020563</v>
       </c>
       <c r="C465" s="2">
-        <v>1750044878</v>
+        <v>1750105679</v>
       </c>
       <c r="D465" t="s">
-        <v>58</v>
+        <v>300</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
-        <v>44</v>
+        <v>203</v>
       </c>
       <c r="B466">
-        <v>8018510</v>
+        <v>8020563</v>
       </c>
       <c r="C466" s="2">
-        <v>1750200435</v>
+        <v>1750109659</v>
       </c>
       <c r="D466" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="B467">
-        <v>8018768</v>
+        <v>8020994</v>
       </c>
       <c r="C467" s="2">
-        <v>1750105988</v>
+        <v>1750173205</v>
       </c>
       <c r="D467" t="s">
-        <v>295</v>
+        <v>55</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
-        <v>87</v>
+        <v>179</v>
       </c>
       <c r="B468">
-        <v>8019334</v>
+        <v>8021030</v>
       </c>
       <c r="C468" s="2">
+        <v>1750105988</v>
+      </c>
+      <c r="D468" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A469" t="s">
+        <v>179</v>
+      </c>
+      <c r="B469">
+        <v>8021104</v>
+      </c>
+      <c r="C469" s="2">
+        <v>1750222982</v>
+      </c>
+      <c r="D469" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A470" t="s">
+        <v>40</v>
+      </c>
+      <c r="B470">
+        <v>8021158</v>
+      </c>
+      <c r="C470" s="2">
         <v>1750173205</v>
       </c>
-      <c r="D468" t="s">
-        <v>296</v>
+      <c r="D470" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A471" t="s">
+        <v>48</v>
+      </c>
+      <c r="B471">
+        <v>8021342</v>
+      </c>
+      <c r="C471" s="2">
+        <v>1750053977</v>
+      </c>
+      <c r="D471" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A472" t="s">
+        <v>48</v>
+      </c>
+      <c r="B472">
+        <v>8021342</v>
+      </c>
+      <c r="C472" s="2">
+        <v>1750109615</v>
+      </c>
+      <c r="D472" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A473" t="s">
+        <v>44</v>
+      </c>
+      <c r="B473">
+        <v>8021411</v>
+      </c>
+      <c r="C473" s="2">
+        <v>1750177464</v>
+      </c>
+      <c r="D473" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A474" t="s">
+        <v>44</v>
+      </c>
+      <c r="B474">
+        <v>8021411</v>
+      </c>
+      <c r="C474" s="2">
+        <v>1750101956</v>
+      </c>
+      <c r="D474" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A475" t="s">
+        <v>48</v>
+      </c>
+      <c r="B475">
+        <v>8021567</v>
+      </c>
+      <c r="C475" s="2">
+        <v>1750105988</v>
+      </c>
+      <c r="D475" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A476" t="s">
+        <v>48</v>
+      </c>
+      <c r="B476">
+        <v>8021573</v>
+      </c>
+      <c r="C476" s="2">
+        <v>1750053977</v>
+      </c>
+      <c r="D476" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A477" t="s">
+        <v>48</v>
+      </c>
+      <c r="B477">
+        <v>8021573</v>
+      </c>
+      <c r="C477" s="2">
+        <v>1750109615</v>
+      </c>
+      <c r="D477" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A478" t="s">
+        <v>48</v>
+      </c>
+      <c r="B478">
+        <v>8021596</v>
+      </c>
+      <c r="C478" s="2">
+        <v>1750166799</v>
+      </c>
+      <c r="D478" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A479" t="s">
+        <v>48</v>
+      </c>
+      <c r="B479">
+        <v>8021596</v>
+      </c>
+      <c r="C479" s="2">
+        <v>1750078264</v>
+      </c>
+      <c r="D479" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A480" t="s">
+        <v>44</v>
+      </c>
+      <c r="B480">
+        <v>8021674</v>
+      </c>
+      <c r="C480" s="2">
+        <v>1750220330</v>
+      </c>
+      <c r="D480" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A481" t="s">
+        <v>44</v>
+      </c>
+      <c r="B481">
+        <v>8021674</v>
+      </c>
+      <c r="C481" s="2">
+        <v>1750248000</v>
+      </c>
+      <c r="D481" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A482" t="s">
+        <v>44</v>
+      </c>
+      <c r="B482">
+        <v>8021674</v>
+      </c>
+      <c r="C482" s="2">
+        <v>1750143750</v>
+      </c>
+      <c r="D482" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A483" t="s">
+        <v>36</v>
+      </c>
+      <c r="B483">
+        <v>8022461</v>
+      </c>
+      <c r="C483" t="s">
+        <v>307</v>
+      </c>
+      <c r="D483" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A484" t="s">
+        <v>36</v>
+      </c>
+      <c r="B484">
+        <v>8022461</v>
+      </c>
+      <c r="C484" t="s">
+        <v>308</v>
+      </c>
+      <c r="D484" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A485" t="s">
+        <v>10</v>
+      </c>
+      <c r="B485">
+        <v>8022481</v>
+      </c>
+      <c r="C485" t="s">
+        <v>309</v>
+      </c>
+      <c r="D485" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A486" t="s">
+        <v>10</v>
+      </c>
+      <c r="B486">
+        <v>8022481</v>
+      </c>
+      <c r="C486" t="s">
+        <v>73</v>
+      </c>
+      <c r="D486" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D468" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:D486" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/intento70-30.xlsx
+++ b/intento70-30.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dieboldnixdorf-my.sharepoint.com/personal/lucas_rodriguez_dieboldnixdorf_com/Documents/Escritorio/Codigo/PARTES/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="11_21D9368D5BD0DA6107993011595ED87656CF8363" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC578EE3-7ECD-47CF-AB99-F2FCAAEA440B}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="11_3A1975925BC0DE102BB92E11595ED87656CF5F23" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{397B17AA-23BD-4655-9003-D7374432CC59}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$486</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$475</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="302">
   <si>
     <t>NOMBRE CLIENTE</t>
   </si>
@@ -166,9 +166,6 @@
     <t>SUP. 27/2/24. A LA ESPERA DE CONFIRMACION DE REPUESTO. (ALEGRE)</t>
   </si>
   <si>
-    <t>NOSP. 07/05/24. PARTE 1750188546 DEPOSITO DE SOBRES CINEO: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
     <t>BANCO PROVINCIA DE BUENOS AIRES</t>
   </si>
   <si>
@@ -199,18 +196,15 @@
     <t>BIO.26/1/2024 TICKET PENDIENTE POR BIOMÉTRICO (CORREA)</t>
   </si>
   <si>
-    <t>NOSP. 02/05/24. PARTE 1750109659 V4 STACKER + 1750044878 V4 DISTRIBUTOR BOARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>BIO.25/1/2024 TICKET PENDIENTE POR BIOMÉTRICO (CORREA)</t>
-  </si>
-  <si>
     <t>NOSP. 29/01/24. PARTE 1750215294 V5 EXTRACTOR INFERIOR + 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
     <t>NOWIP. 02/02/24. PARTE 1750215294 V5 EXTRACTOR INFERIOR: SIN SALDO EN WIP.  --  "DISPONIBLE LA PARTE FASCIA 280". (MINIACI)</t>
   </si>
   <si>
+    <t>NOSP. 08/05/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
     <t>BIO.2/2/2024 TICKET PENDIENTE POR BIOMÉTRICO (CORREA)</t>
   </si>
   <si>
@@ -223,7 +217,7 @@
     <t>NOWIP. 08/02/24. PARTE 1750189650 V5 STACKER + 1750215295 V5 EXTRACTOR SUPERIOR: SIN SALDO EN WIP (MINIACI)</t>
   </si>
   <si>
-    <t>RC. 8/5/24. STACKER CSR 1750109659 Y EXTRACTOR SUP 1750109641 A ESPERA DE REPARACION (SORIANO)</t>
+    <t>NOSP. 08/05/24. PARTE 1750109659 V4 STACKER + 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
     <t>49204018000E</t>
@@ -259,6 +253,9 @@
     <t>STOCK. 1/3/24. FASCIA 2100 SIN BIOMETRICO, CON MARCO 15" Y JACK 3,5MM A ESPERA DE DESARME (SORIANO)</t>
   </si>
   <si>
+    <t>ETR. 08/05/24. PARTE 1750044878 V4 BOARD DISTRIBUTOR: EN REPARACIÓN. ETR: 10/05/24.  --  "1750105679 CMD Controller II USB assd. with cover DISPONIBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
     <t>SV226262000D</t>
   </si>
   <si>
@@ -274,15 +271,6 @@
     <t>SV219839000E</t>
   </si>
   <si>
-    <t>ORUGA</t>
-  </si>
-  <si>
-    <t>49211495000B</t>
-  </si>
-  <si>
-    <t>49202950X0AA</t>
-  </si>
-  <si>
     <t>NOSP. 15/03/24. PARTE SV219839000E ENA UDD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
@@ -301,7 +289,7 @@
     <t>49220945000A</t>
   </si>
   <si>
-    <t>NOSP. 08/04/24. PARTE SV219839000E ENA UDD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+    <t>ETR. 09/05/24. PARTE SV221800000C ENA UPPER ALIGN: EN REPARACIÓN. ETR: 15/05/24. (MINIACI)</t>
   </si>
   <si>
     <t>NOWIP. 08/04/24. PARTE 1750193275 RM3 MAIN MODULE: SIN SALDO EN WIP. (MINIACI)</t>
@@ -316,9 +304,6 @@
     <t>49208102000H</t>
   </si>
   <si>
-    <t>RC.7/5/2024 1750105988	Card reader V2XU USB version EN ESPERA DE REPARACION (CORREA)</t>
-  </si>
-  <si>
     <t>NOWIP. 19/03/24. PARTE 1750154145 TOUCH CONTROLLER + 1750105988 LECTORA V2X USB + 1750169942 MONITOR 15": SIN SALDO EN WIP. (MINIACI)</t>
   </si>
   <si>
@@ -343,7 +328,10 @@
     <t>NOSP. 27/03/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN  / "TRABA" 1750067867 SIN SALDO EN WIP. (MINIACI)</t>
   </si>
   <si>
-    <t>RC 07/05/2024. PARTE 1750249441 MOVE AWCA+1750220022 INPUT OUTPUT +1750220000 IN-OUTPUT MODULE +1750200435 VS-MODUL-RECYCLING (DOS UNIDADES). EN ESPERA DE REPARACION (FRETES)</t>
+    <t>NOSP. 08/05/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL + 1750214647 RM3 TRANSFER UNIT SAFE + 1750263341 RM3 TRANSPORT UNIT ESCROW +</t>
+  </si>
+  <si>
+    <t>NOSP. 08/05/24. PARTE 1750249441 RM3 MOVE AWCA + 1750220022 RM3 IO COLLECTOR + 1750220000 RM3 IO TRAY + 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
     <t>BIO.26/3/2024 TICKET PENDIENTE POR BIOMETRICO (CORREA)</t>
@@ -379,154 +367,133 @@
     <t>NOSP. 15/04/24. PARTE 1750188523 CCDM CHASIS + 1750263341 RM3 TRANSPORT UNIT HEAD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
+    <t>NOSP. 10/04/24. PARTE 1750109659 V4 STACKER + 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN.  --  "PARTE 1750100966 CMD V4 SHUTTER VERTIKAL RL STRIP" (SIC STOCK SIN INDICAR CONDICIÓN). (</t>
+  </si>
+  <si>
+    <t>NOWIP. 08/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 08/04/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 02/05/24. PARTE 1750193275 RM3 MAIN MODULE: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 09/04/24. PARTE 1750215294 V5 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 10/04/24. SE CORRIGE COMENTARIO ANTERIOR. PARTE 1750214647 RM3 TRANSFER UNIT SAFE + 1750140781 RM3 HEAD CONTROLLER: SIN SALDO EN WIP.  --  "1750212682         REEL STORAGE BOX DISPONIBLE EN STO</t>
+  </si>
+  <si>
+    <t>NOSP. 15/04/24. PARTE 1750126457 RM3 REEL STORAGE + 1750196174 RM3 MASTERCONTROLLER: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 03/05/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 10/04/24. PARTE 1750215295 V5 EXTRACTOR INFERIOR + 1750215294 V5 EXTRACTOR INFERIOR: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>49257458000B</t>
+  </si>
+  <si>
+    <t>NOSP. 16/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 10/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 22/04/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 15/04/24. PARTE 1750222982 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 19/04/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>STOCK.2/5/2024 49201152000D	CCA,TCM3 REPUESTO DISPONIBLE EN EXPEDICION (CORREA)</t>
+  </si>
+  <si>
+    <t>NOSP. 16/04/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 11/04/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 16/04/24. PARTE 1750183289 V5 STACKER: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750053977 CLAMP DISPONIBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 15/04/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 15/04/24. PARTE 1750193275 RM3 MAIN MODULE: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 19/04/24. PARTE 1750193275 RM3 MAIN MODULE: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 15/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>BIO. 18/4/24. PENDIENTE POR BIOMETRICO (SORIANO)</t>
+  </si>
+  <si>
+    <t>NOSP. 17/04/24. PARTE 1750248000 RM3 IO COLLECTOR + 1750220330 RM3 IO TRAY: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 16/04/24. PARTE 1750248000 RM3 IO COLLECTOR + 1750220330 RM3 IO TRAY: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>49204013000E</t>
+  </si>
+  <si>
+    <t>BANCO CREDICOOP</t>
+  </si>
+  <si>
+    <t>NOWIP. 17/04/24. PARTE 49254690000N AFD 2.0 STACKER: SIN SALDO WN WIP.  --  "ARTE 1750304622 CHD-mot ICT3H5-3AD2792 SecPac2 DISPONIBLE". (MINIACI)</t>
+  </si>
+  <si>
+    <t>49254690000N</t>
+  </si>
+  <si>
+    <t>NOSP. 02/05/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 16/04/24. PARTE 1750092824 DEPÓSITO DE SOBRES PROCASH: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 18/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 16/04/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 16/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SALDO EN WIP.  --  "1750200541        Distributor Module CRS DISPONIBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
+    <t>ETR. 08/05/24. PARTE 49208102003M AFD CCA DISPENSER: EN REPARACIÓN. ETR: 13/05/24.  --  "PARTE 49257458000B IMPRESORA DE CLIENTE + 49209542000F CARD READER MOTORIZADA DISPONIBLES". (MINIACI)</t>
+  </si>
+  <si>
+    <t>49208102003M</t>
+  </si>
+  <si>
+    <t>NOSP. 26/04/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 25/04/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
     <t>49208102002M</t>
   </si>
   <si>
-    <t>ETR. 25/04/24. PARTE 49208102003M AFD CCA DISPENSER: EN REPARACIÓN. ETR: 03/05/24. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 10/04/24. PARTE 1750109659 V4 STACKER + 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN.  --  "PARTE 1750100966 CMD V4 SHUTTER VERTIKAL RL STRIP" (SIC STOCK SIN INDICAR CONDICIÓN). (</t>
-  </si>
-  <si>
-    <t>NOWIP. 08/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 08/04/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 02/05/24. PARTE 1750193275 RM3 MAIN MODULE: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 22/04/24. PARTE 1750155446 CCDM AMPLIFIER: SIN SALDO EN WIP.  --  "REJECT TRANSPORT 1750187030 DISPONIBLE". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 09/04/24. PARTE 1750215294 V5 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 10/04/24. SE CORRIGE COMENTARIO ANTERIOR. PARTE 1750214647 RM3 TRANSFER UNIT SAFE + 1750140781 RM3 HEAD CONTROLLER: SIN SALDO EN WIP.  --  "1750212682         REEL STORAGE BOX DISPONIBLE EN STO</t>
-  </si>
-  <si>
-    <t>NOSP. 15/04/24. PARTE 1750126457 RM3 REEL STORAGE + 1750196174 RM3 MASTERCONTROLLER: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 03/05/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 10/04/24. PARTE 1750215295 V5 EXTRACTOR INFERIOR + 1750215294 V5 EXTRACTOR INFERIOR: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>49257458000B</t>
-  </si>
-  <si>
-    <t>NOSP. 16/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 10/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 22/04/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>ETR. 30/04/24. PARTE 49208102003M AFD CCA DISPENSER: EN REPARACIÓN. ETR: 08/05/24. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 15/04/24. PARTE 1750222982 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 19/04/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 16/04/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 11/04/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 16/04/24. PARTE 1750183289 V5 STACKER: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750053977 CLAMP DISPONIBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 15/04/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 15/04/24. PARTE 1750193275 RM3 MAIN MODULE: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 19/04/24. PARTE 1750193275 RM3 MAIN MODULE: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 15/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 15/04/24. PARTE 1750188546 DEPÓSITO DE SOBRES CINEO: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>BIO. 18/4/24. PENDIENTE POR BIOMETRICO (SORIANO)</t>
-  </si>
-  <si>
-    <t>NOSP. 17/04/24. PARTE 1750248000 RM3 IO COLLECTOR + 1750220330 RM3 IO TRAY: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 16/04/24. PARTE 1750248000 RM3 IO COLLECTOR + 1750220330 RM3 IO TRAY: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>49204013000E</t>
-  </si>
-  <si>
-    <t>NOSP. 17/04/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>BANCO CREDICOOP</t>
-  </si>
-  <si>
-    <t>NOWIP. 17/04/24. PARTE 49254690000N AFD 2.0 STACKER: SIN SALDO WN WIP.  --  "ARTE 1750304622 CHD-mot ICT3H5-3AD2792 SecPac2 DISPONIBLE". (MINIACI)</t>
-  </si>
-  <si>
-    <t>49254690000N</t>
-  </si>
-  <si>
-    <t>GIRE S.A</t>
-  </si>
-  <si>
-    <t>NOWIP. 16/04/24. PARTE 1750222982 SHUTTER PC280 LITE: SIN SALDO EN WIP.  --  "1750105679        CMD Controller II USB assd. with cover DISPONIBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 02/05/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 16/04/24. PARTE 1750092824 DEPÓSITO DE SOBRES PROCASH: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 18/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 16/04/24. PARTE 1750188546 DEPÓSITO DE SOBRES CINEO: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 16/04/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 16/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SALDO EN WIP.  --  "1750200541        Distributor Module CRS DISPONIBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>RC. 07/05/2024 PARTE 49208102003M CCA DISPENSER A ESPERA DE REPARACION, PARTE 49257458000B IMPRESORA DE CLIENTE + 49209542000F CARD READER MOTORIZADA DISPONIBLES (MAITLAND)</t>
-  </si>
-  <si>
-    <t>49208102003M</t>
-  </si>
-  <si>
-    <t>NOSP. 26/04/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 25/04/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
     <t>ETR. 30/04/24. PARTE 49208102003M AFD CCA DISPENSER: EN REPARACIÓN. ETR: 10/05/24.  --  "DISCO SSD DISPONIBLE". (MINIACI)</t>
   </si>
   <si>
     <t>NOSP. 17/04/24. PARTE 1750214647 RM3 TRANSFER UNIT SAFE: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750200541 DISTRIBUTOR MODULE CRS DISPONIBLEN STOCK ". (MINIACI)</t>
   </si>
   <si>
-    <t>NOSP. 24/04/24. PARTE 1750109658 V4 STACKER S/SR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+    <t>NOSP. 24/04/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
     <t>NOSP. 22/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
@@ -562,301 +529,289 @@
     <t>NOSP. 18/04/24. PARTE 1750188546 DEPÓSITO DE SOBRES CINEO: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
+    <t>NOWIP. 19/04/24. PARTE 1750248000 RM3 IO COLLECTOR + 1750220330 RM3 IO TRAY: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 22/04/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 22/04/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 19/04/24. PARTE 1750200435 VS MODUL: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 22/04/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR + 1750215294 V5 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 25/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 23/04/24. PARTE 1750214647 RM3 TRANSFER UNIT SAFE: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750134478        CENTRALIZATION UNIT UPPER PART CRS/ATS DISPONIBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 26/04/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 07/05/24. PARTE 1750302850 SET DE CÁMARAS: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 23/04/24. PARTE 1750188523 CCDM CHASIS + 1750177464 CCDM ESCROW: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 29/04/24. PARTE 1750177464 CCDM ESCROW: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 23/04/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 25/04/24. PARTE 1750220330 RM3 IO TRAY + 1750248000 RM3 IO COLLECTOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 23/04/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 24/04/24. PARTE 1750263341 RM3 TRANSPORT UNIT HEAD + 1750126457 RM3 REEL STORAGE + 1750173205 LECTORA V2CU STANDARD: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NUEVO BANCO DEL CHACO</t>
+  </si>
+  <si>
+    <t>STOCK 25/04/2024. FASCIA 280. A LA ESPERA DE REPARACION POR PARTE DE TECNOS (FRETES)</t>
+  </si>
+  <si>
+    <t>NOSP. 25/04/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 29/04/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 03/05/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 25/04/24. PARTE 1750188523 CCDM CHASIS + 1750177464 CCDM ESCROW: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 23/04/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 24/04/24. PARTE 1750092824 DEPÓSITO DE SOBRES PROCASH: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
     <t>BANCO DE CORDOBA</t>
   </si>
   <si>
-    <t>NOWIP 22/04/2024. PARTE 1750222982	V4 SHUTTER LITE PC 280: SIN SALDO WN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 19/04/24. PARTE 1750248000 RM3 IO COLLECTOR + 1750220330 RM3 IO TRAY: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 22/04/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 22/04/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 19/04/24. PARTE 1750200435 VS MODUL: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 22/04/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR + 1750215294 V5 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+    <t>NOWIP. 25/04/24. PARTE 1750346607 SHUTTER IO TRAY II: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>CBA.RC.24/4/24. PARTE 1750222982	SHUTTER LITE DC MOTOR ASSY RL:EN ESPERA DE REPARACIÓN. ETA:30/4/24 (JIMENEZ)</t>
   </si>
   <si>
     <t>NOSP. 25/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
-    <t>NOSP. 25/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 23/04/24. PARTE 1750214647 RM3 TRANSFER UNIT SAFE: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750134478        CENTRALIZATION UNIT UPPER PART CRS/ATS DISPONIBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 26/04/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 07/05/24. PARTE 1750302850 SET DE CÁMARAS: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 23/04/24. PARTE 1750188523 CCDM CHASIS + 1750177464 CCDM ESCROW: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 23/04/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 29/04/24. PARTE 1750177464 CCDM ESCROW: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 23/04/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 25/04/24. PARTE 1750220330 RM3 IO TRAY + 1750248000 RM3 IO COLLECTOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 23/04/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 24/04/24. PARTE 1750263341 RM3 TRANSPORT UNIT HEAD + 1750126457 RM3 REEL STORAGE + 1750173205 LECTORA V2CU STANDARD: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NUEVO BANCO DEL CHACO</t>
-  </si>
-  <si>
-    <t>STOCK 25/04/2024. FASCIA 280. A LA ESPERA DE REPARACION POR PARTE DE TECNOS (FRETES)</t>
-  </si>
-  <si>
-    <t>STOCK. 7/5724. DISCO SSD DISPONIBLE EN SUCURSAL ETA 12:30 (SORIANO)</t>
-  </si>
-  <si>
-    <t>NOWIP. 23/04/24. PARTE 1750044878 V4 BOARD DISTRIBUTOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 25/04/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+    <t>NOSP. 25/04/24. PARTE 1750100966 V4 SHUTTER VERTICAL RL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 25/04/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN.  --  "CLAMP 1750053977 DISPONIBLE". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 25/04/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 30/04/24. PARTE 1750109658 V4 STACKER S/SR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 25/04/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 25/04/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750101956	DISPENSER MODULE VM3 DISPONIBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 30/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 30/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750053977 CLAMP DISPONIBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 30/04/24. PARTE 1750214647 RM3 TRANSFER UNIT SAFE + 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN.  --  "PARTE 1750133348 TMHLP + 1750245555 TUH DISPONIBLES"</t>
+  </si>
+  <si>
+    <t>NOWIP. 06/05/24. PARTE S/N "ACRÍLICO DE FASCIA PC1500": SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 29/04/24. PARTE 1750193275 RM3 MAIN MODULE + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOSP. 29/04/24. PARTE 1750263341 RM3 TRANSPORT UNIT HEAD + 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750245555 transport unit head short path CRS/ATS+ </t>
+  </si>
+  <si>
+    <t>NOSP. 29/04/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750234950 EPP V7 ESP South America ST DISPONIBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 02/05/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 30/04/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 30/04/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>1750173205-35</t>
+  </si>
+  <si>
+    <t>NOSP. 03/05/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 02/05/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 03/05/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>CBA.RC.29/4/24. PARTE 1750222982	SHUTTER LITE DC MOTOR ASSY RL:EN ESPERA DE REPARACIÓN. ETA:3/5/24 (JIMENEZ)</t>
+  </si>
+  <si>
+    <t>NOSP. 30/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 29/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>BIO. 29/04/2024 PENDIENTE POR BIOMETRICO (MAITLAND)</t>
+  </si>
+  <si>
+    <t>NOSP. 30/04/24. PARTE 1750193275 RM3 MAIN MODULE + 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 07/05/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR + 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>STOCK. 8/5/24. FASCIA 2100 CON JACK DE 3.5 A ESPERA DE DESARME (SORIANO)</t>
+  </si>
+  <si>
+    <t>NOSP. 02/05/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 30/04/24. PARTE 1750193275 RM3 MAIN MODULE : SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 30/04/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 03/05/24. PARTE 1750177464 CCDM ESCROW: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 02/05/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 30/04/24. PARTE 1750304916 "SHUTTER I-O TRAY NSL": SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>49233151000A</t>
+  </si>
+  <si>
+    <t>STOCK 09/05/2024. PARTE 49233151000A	ASSY,UPR XPRT FR,TTW. DISPONIBLE PARA DESPACHO (FRETES)</t>
+  </si>
+  <si>
+    <t>SUP. 30/4/24. A ESPERA DE CONFIRMACION DE TRABA NECESARIA (SORIANO)</t>
+  </si>
+  <si>
+    <t>ETR. 06/05/24. PARTE 1750155446 CCDM AMPLIFIER: EN REPARACIÓN. ETR: 13/05/24.  --  "1750055614 FLAT CABLE FOR CCDM DISPONIBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 08/05/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 03/05/24. PARTE 1750215294 V5 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>STOCK. 6/5/24. PARTE FASCIA 280. A ESPERA DE REPARACION DE TECNOS. (ALEGRE)</t>
+  </si>
+  <si>
+    <t>NOSP. 02/05/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>ETR. 06/05/24. PARTE 1750100966 V4 SHUTTER VERTICAL RL: EN REPARACIÓN. ETR: 13/05/24.  --  "PARTE 49202966X0CB BEZEL, MTZ CD RDR DISPONIBLE". (MINIACI)</t>
+  </si>
+  <si>
+    <t>49202966X0CB</t>
+  </si>
+  <si>
+    <t>NOWIP. 06/05/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 06/05/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 06/05/24. PARTE 1750261447 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 09/05/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>49211433000A</t>
+  </si>
+  <si>
+    <t>ETR.07/05/24. PARTE 49208102003M AFD CCA DISPENSER: EN REPARACIÓN. ETR: 10/05/24.  --  "49211433000A Stacker AFD DISPONIBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 06/05/24. PARTE 1750109658  V4 STACKER S/SR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 07/05/24. PARTE 1750220000 RM3 IO COLLECTOR + 1750214647 RM3 TRANSFER UNIT SAFE: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750200541 DISTRIBUTOR MODULE DISPONBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
+    <t>SUP. 9/5/24. A ESPERA DE CONFIRMACION DE REPUESTO SOLICITADO (SORIANO)</t>
   </si>
   <si>
     <t>BANCO CIUDAD</t>
   </si>
   <si>
-    <t>SV221800000C</t>
-  </si>
-  <si>
-    <t>NOSP. 25/04/24. PARTE SV221800000C ENA UPPER ALIGN: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 29/04/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 24/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 03/05/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 25/04/24. PARTE 1750188523 CCDM CHASIS + 1750177464 CCDM ESCROW: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 23/04/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 24/04/24. PARTE 1750092824 DEPÓSITO DE SOBRES PROCASH: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 25/04/24. PARTE 1750346607 SHUTTER IO TRAY II: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>CBA.RC.24/4/24. PARTE 1750222982	SHUTTER LITE DC MOTOR ASSY RL:EN ESPERA DE REPARACIÓN. ETA:30/4/24 (JIMENEZ)</t>
-  </si>
-  <si>
-    <t>NOSP. 25/04/24. PARTE 1750100966 V4 SHUTTER VERTICAL RL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 25/04/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN.  --  "CLAMP 1750053977 DISPONIBLE". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 25/04/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 30/04/24. PARTE S/N DISCO SÓLIDO: SIN SALDO EN WIP.  --  "PARTE 49257458000B IMPRESORA DE CLIENTE DISPONIBLE". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 30/04/24. PARTE 1750109658 V4 STACKER S/SR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 25/04/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 25/04/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750101956	DISPENSER MODULE VM3 DISPONIBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 30/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 30/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750053977 CLAMP DISPONIBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 30/04/24. PARTE 1750214647 RM3 TRANSFER UNIT SAFE + 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN.  --  "PARTE 1750133348 TMHLP + 1750245555 TUH DISPONIBLES"</t>
-  </si>
-  <si>
-    <t>NOWIP. 06/05/24. PARTE S/N "ACRÍLICO DE FASCIA PC1500": SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 29/04/24. PARTE 1750193275 RM3 MAIN MODULE + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 26/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOSP. 29/04/24. PARTE 1750263341 RM3 TRANSPORT UNIT HEAD + 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750245555 transport unit head short path CRS/ATS+ </t>
-  </si>
-  <si>
-    <t>ETR. 30/04/24. PARTE 49208102003M AFD CCA DISPENSER: EN REPARACIÓN. ETR: 09/05/24.  --  "49225262000A PICKER AFD 1.5 DISPONIBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 29/04/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750234950 EPP V7 ESP South America ST DISPONIBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 02/05/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 30/04/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 30/04/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>1750173205-35</t>
-  </si>
-  <si>
-    <t>NOSP. 03/05/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 02/05/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>ETR. 30/04/24. PARTE 49208102003M AFD CCA DISPENSER: EN REPARACIÓN. ETR: 09/05/24. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 03/05/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>CBA.RC.29/4/24. PARTE 1750222982	SHUTTER LITE DC MOTOR ASSY RL:EN ESPERA DE REPARACIÓN. ETA:3/5/24 (JIMENEZ)</t>
-  </si>
-  <si>
-    <t>NOSP. 30/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 29/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>BIO. 29/04/2024 PENDIENTE POR BIOMETRICO (MAITLAND)</t>
-  </si>
-  <si>
-    <t>NOSP. 30/04/24. PARTE 1750193275 RM3 MAIN MODULE + 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 07/05/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR + 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>SUP. 30/04/2024 A ESPERA DE CONFIRMACION DE FASCIA CORRECTA (MAITLAND)</t>
-  </si>
-  <si>
-    <t>NOSP. 02/05/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 30/04/24. PARTE 1750193275 RM3 MAIN MODULE : SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 30/04/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 03/05/24. PARTE 1750177464 CCDM ESCROW: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 02/05/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 30/04/24. PARTE 1750304916 "SHUTTER I-O TRAY NSL": SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 06/05/24. PARTE 1750261447 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>SUP. 30/4/24. A ESPERA DE CONFIRMACION DE TRABA NECESARIA (SORIANO)</t>
-  </si>
-  <si>
-    <t>ETR. 06/05/24. PARTE 1750155446 CCDM AMPLIFIER: EN REPARACIÓN. ETR: 13/05/24.  --  "1750055614 FLAT CABLE FOR CCDM DISPONIBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>BANCO DE LA PAMPA</t>
-  </si>
-  <si>
-    <t>NOWIP. 03/05/24. PARTE S/N DISCO SATA: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>RC. 7/5/24. PARTE 1750188523 CHASSIS CCDM. EN ESPERA DE REPARACION. (ALEGRE)</t>
-  </si>
-  <si>
-    <t>NOSP. 03/05/24. PARTE 1750215294 V5 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>STOCK. 6/5/24. PARTE FASCIA 280. A ESPERA DE REPARACION DE TECNOS. (ALEGRE)</t>
-  </si>
-  <si>
-    <t>NOSP. 02/05/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>ETR. 06/05/24. PARTE 1750100966 V4 SHUTTER VERTICAL RL: EN REPARACIÓN. ETR: 13/05/24.  --  "PARTE 49202966X0CB BEZEL, MTZ CD RDR DISPONIBLE". (MINIACI)</t>
-  </si>
-  <si>
-    <t>49202966X0CB</t>
-  </si>
-  <si>
-    <t>NOWIP. 06/05/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 06/05/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>OKETR. 07/05/24. PARTE 1750055175 CCDM DEPOSIT TRANSPORT: REPARADO. EN FGI PARA TRANSFERIR A STOCK. (MINIACI)</t>
-  </si>
-  <si>
-    <t>49211433000A</t>
-  </si>
-  <si>
-    <t>ETR.07/05/24. PARTE 49208102003M AFD CCA DISPENSER: EN REPARACIÓN. ETR: 10/05/24.  --  "49211433000A Stacker AFD DISPONIBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 06/05/24. PARTE 1750109658  V4 STACKER S/SR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 07/05/24. PARTE 1750220000 RM3 IO COLLECTOR + 1750214647 RM3 TRANSFER UNIT SAFE: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750200541 DISTRIBUTOR MODULE DISPONBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 07/05/24. PARTE S/N DISCO SATA: SIN SALDO EN WIP. (MINIACI)</t>
+    <t>RC.9/5/2024 1750086516 Kit no vidente  D:pc2x0-aud4 EN ESPERA DE DESARME (CORREA)</t>
+  </si>
+  <si>
+    <t>FPCS0001</t>
+  </si>
+  <si>
+    <t>STOCK 08/05/2024. PARTE DS DISCO SATA. DISPONIBLE PARA DESPACHO (FRETES)</t>
   </si>
   <si>
     <t>NOSP. 06/05/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
+    <t>RC. 8/5/24. PARTE SV226262000D TAPA DE GAVETA ENA. EN ESPERA DE REPARACION. (ALEGRE)</t>
+  </si>
+  <si>
     <t>NOSP. 03/05/24. PARTE 1750105988 LECTORA V2X USB + 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
     <t>ETR.07/05/24. PARTE 49208102003M AFD CCA DISPENSER: EN REPARACIÓN. ETR: 10/05/24. (MINIACI)</t>
   </si>
   <si>
+    <t>NOWIP. 08/05/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
     <t>NOSP. 06/05/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
-    <t>NOSP. 06/05/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750105679 CMD CONTROLLER II USB ASSD WITH COVER+1750109659 CMD-V4 STACKER MODUL W. SR VERT DISPONIBLE EN</t>
-  </si>
-  <si>
-    <t>RC. 7/5/24. SHUTTER FL 1750100965 A ESPERA DE REPARACION (SORIANO)</t>
-  </si>
-  <si>
-    <t>RC. 7/5/24. x5 VS 1750200435 A ESPERA DE REPARACION (SORIANO)</t>
-  </si>
-  <si>
-    <t>ch.nowip.08/05/2024. parte: 1750179175 TOUCHKIT 15.0 3.2 MM. se solicita a caba.(veron)</t>
+    <t>49018410000F</t>
+  </si>
+  <si>
+    <t>NOWIP. 08/05/24. PARTE 1750100965 V4 SHUTTER FL VERTICAL: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 08/05/24. PARTE 1750215294 V5 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 08/05/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 08/05/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 09/05/24. PARTE 1750109659 V4 STACKER: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
     <t>49212868000D</t>
@@ -865,100 +820,115 @@
     <t>NOWIP. 07/05/24. SE CORRIGE COMENTARIO ANTERIOR. PARTE 49212868000D CERRADURA DE FASCIA OPTEVA 868: SIN SALDO EN WIP. (MINIACI)</t>
   </si>
   <si>
-    <t>RC. 7/5/24. LECTORA 1750173205 A ESPERA DE REPARACION (SORIANO)</t>
+    <t>SUP. 8/5/24. SE SOLICITA UN SHUTTER PERO EN LA AUDITORIA INDICA OTRA COSA. (SORIANO)</t>
+  </si>
+  <si>
+    <t>NOSP. 08/05/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 07/05/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 07/05/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>49208102000F</t>
+  </si>
+  <si>
+    <t>ETR. 09/05/24. PARTE 49208102003M AFD CCA DISPENSER: EN REPARACIÓN. ETR: 13/05/24.  --  "PARTE 49211433000A AFD STACKER DISPONIBLE". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 08/05/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR + 1750109641  V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750256247 RECEIPT PRINTER TP27 DISPONIBLE EN STOCK ". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 09/05/24. PARTE 1750193275 RM3 MAIN MODULE: SIN SPARE PARTS PARA REPARACIÓN.  --  "PARTE 1750200541 DISTRIBUTOR MODULE + 1750289153 CENTRALIZATION UPER UNIT DISPONIBLE". (MINIACI)</t>
+  </si>
+  <si>
+    <t>ETR. 08/05/24. PARTE 1750154866 CCDM VALIDADOR CASH CHECK: EN REPARACIÓN. ETR: 13/05/24.  --  "1750101956 DISPENSER MODULE VM3 DISPONIBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 07/05/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 08/05/24. PARTE 1750222982 V4 SHUTTER LITE: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 08/05/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 07/05/24. PARTE 1750092824 DEPOSITO DE SOBRES PROCASH: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 08/05/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR + 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 07/05/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750188524 ALIGNMENT STATION 3 CCDM DISPONIBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 07/05/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 08/05/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
     <t>NOSP. 07/05/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
-    <t>NOSP. 06/05/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 07/05/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 07/05/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 07/05/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>RC. 07/05/2024 PARTE 1750248000 RM3 IO COLLECTOR UNIT + 1750220330 RM3 CUSTOMER TRAY + 1750200435 VS MODULE X2 A ESPERA DE REPARACION (MAITLAND)</t>
-  </si>
-  <si>
-    <t>RC 07/05/2024. PARTE 1750154866 LINE-XSA CASH CHECK. EN ESPERA DE REPARACION. 1750101956 DISPENSER MODULE VM3 DISPONIBLE EN STOCK (FRETES)</t>
-  </si>
-  <si>
-    <t>NOSP. 07/05/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>CBA.RC.7/5/24. PARTE 1750109641 DOUBLE EXTRACTOR UNIT MDMS CMD V4:EN ESPERA DE REPARACIÓN. ETA:10/5/24 (JIMENEZ)</t>
-  </si>
-  <si>
-    <t>RC 07/05/2024. PARTE 1750222982 SHUTTER LITE DC MOTOR ASSY RL. EN ESPERA DE REPARACION (FRETES)</t>
-  </si>
-  <si>
-    <t>RC. 7/5/24. PARTE 1750109615 DOUBLE EXTRACTOR. EN ESPERA DE REPARACION. (ALEGRE)</t>
-  </si>
-  <si>
-    <t>NOSP. 07/05/24. PARTE 1750092824 DEPOSITO DE SOBRES PROCASH: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>RC 07/05/2024. PARTE 1750109641 DOUBLE EXTRACTOR UNIT MDMS CMD V4+1750109615 DOUBLE EXTRACTOR UNIT CMD V4. EN ESPERA DE REPARACION (FRETES)</t>
-  </si>
-  <si>
-    <t>NOSP. 07/05/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750188524 ALIGNMENT STATION 3 CCDM DISPONIBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 07/05/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>RC. 8/5/24. VS 1750200435 A ESPERA DE REPARACION (SORIANO)</t>
-  </si>
-  <si>
-    <t>RC.7/5/2024 1750109615	Double extractor unit CMD-V4 EN ESPERA DE REPARACION (CORREA)</t>
-  </si>
-  <si>
-    <t>RC. 8/5/24. EXTRACTOR INFERIOR V5 1750215294 A ESPERA DE REPARACION (SORIANO)</t>
-  </si>
-  <si>
-    <t>RC. 7/5/24. PARTE 1750109641  DOUBLE EXTRACTOR SUP. EN ESPERA DE REPARACION. (ALEGRE)</t>
-  </si>
-  <si>
-    <t>RC. 8/5/24. STACKER CSR 1750109659 A ESPERA DE REPARACION, PLACA CCA 1750105679 DISPONIBLE (SORIANO)</t>
-  </si>
-  <si>
-    <t>CBA.RC.7/5/24. PARTE 1750105988 CARD READER V2XU USB:EN ESPERA DE REPARACIÓN. ETA:10/5/24 (JIMENEZ)</t>
-  </si>
-  <si>
-    <t>RC.7/5/2024 1750173205 Card Reader CHD V2CU standard EN ESPERA DE REPRACION (CORREA)</t>
-  </si>
-  <si>
-    <t>RC. 8/5/24. EXTRACTOR 1750109615 A ESPERA DE REPARACION, CLAMP 1750053977 DISPONIBLE (SORIANO)</t>
-  </si>
-  <si>
-    <t>RC.7/5/2024 1750177464 Escrow 3 CCDM EN ESPERA DE REPARACION / 1750101956 dispenser module VM3 DISPONIBLE EN STOCK (CORREA)</t>
-  </si>
-  <si>
-    <t>RC. 07/05/2024 PARTE 1750109615 V4 EXTRACTOR INFERIOR A ESPERA DE REPARACION, PARTE 1750053977 V4 CLAMP DISPONIBLE (MAITLAND)</t>
-  </si>
-  <si>
-    <t>RC 07/05/2024. PARTE 1750220330 IN-OUTPUT MODULE CUSTOMER TRAY CRS-M-II+1750248000 IN-OUTPUT MODULE COLLECTOR UNIT CRS. EN ESPERA DE REPARACION. 1750143750 SHUTTER I/O TRAY DISPONIBLE EN STOCK (FRETES</t>
-  </si>
-  <si>
-    <t>49233126000A</t>
-  </si>
-  <si>
-    <t>49233199070A</t>
-  </si>
-  <si>
-    <t>49201057000B</t>
+    <t>NOSP. 08/05/24. PARTE 1750109659 V4 STACKER: SIN SPARE PARTS PARA REPARACIÓN.  --  "PLACA CCA 1750105679 DISPONIBLE". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 08/05/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN.  --  "CLAMP 1750053977 DISPONIBLE". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 08/05/24. PARTE 1750177464 CCDM ESCROW: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750101956 dispenser module VM3 DISPONIBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 08/05/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR + 1750109641 V4 EXTRACTOR SUPERIOR + 1750109659 V4 STACKER: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 09/05/24. PARTE 1750215294 V5 EXTRACTOR INFERIOR + 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 08/05/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN.  --  "PARTE 1750053977 V4 CLAMP DISPONIBLE". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 08/05/24. PARTE 1750177464 CCDM ESCROW: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 08/05/24. PARTE 1750220330 RM3 IO TRAY + 1750248000 RM3 IO COLLECTOR: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750143750 SHUTTER I/O TRAY DISPONIBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 08/05/24. PARTE 1750193275 RM3 MAIN MODULE: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 08/05/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>CBA.NOWIP. 9/5/2024. PARTE 1750053977 CMD V4 CLAMPING TRANSPORT MECHANISM:SIN SALDO EN WIP. SE SOLICITA A CABA. (JIMENEZ)</t>
+  </si>
+  <si>
+    <t>NOSP. 08/05/24. PARTE 1750109659 V4 STACKER + 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>ETR. 08/05/24. PARTE 1750288271 RM4 IO TRAY + 1750295447 RM4 IO COLLECTOR: EN REPARACIÓN. ETR: 10/05/24. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 08/05/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 09/05/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>ETR. 09/05/24. PARTE 1750100966 V4 SHUTTER RL VERTICAL: EN REPARACIÓN. ETR: 13/05/24. (MINIACI)</t>
+  </si>
+  <si>
+    <t>FASCIA 720 FL</t>
+  </si>
+  <si>
+    <t>49201152000D</t>
   </si>
   <si>
     <t>ACRÍLICO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> FASCIA 720 FL</t>
   </si>
 </sst>
 </file>
@@ -977,6 +947,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1322,17 +1293,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D486"/>
+  <dimension ref="A1:D475"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="100.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1939,41 +1908,41 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>7683432</v>
-      </c>
-      <c r="C44" s="2">
-        <v>1750188546</v>
+        <v>7695366</v>
+      </c>
+      <c r="C44" t="s">
+        <v>34</v>
       </c>
       <c r="D44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45">
         <v>7695366</v>
       </c>
       <c r="C45" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="D45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>7695366</v>
-      </c>
-      <c r="C46" t="s">
-        <v>5</v>
+        <v>7716199</v>
+      </c>
+      <c r="C46" s="2">
+        <v>1750105679</v>
       </c>
       <c r="D46" t="s">
         <v>49</v>
@@ -1981,69 +1950,69 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B47">
         <v>7716199</v>
       </c>
-      <c r="C47" s="2">
-        <v>1750105679</v>
+      <c r="C47" t="s">
+        <v>41</v>
       </c>
       <c r="D47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48">
         <v>7716199</v>
       </c>
-      <c r="C48" t="s">
-        <v>41</v>
+      <c r="C48" s="2">
+        <v>1750206350</v>
       </c>
       <c r="D48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>7716199</v>
       </c>
       <c r="C49" s="2">
-        <v>1750206350</v>
+        <v>1750109615</v>
       </c>
       <c r="D49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B50">
         <v>7716199</v>
       </c>
       <c r="C50" s="2">
-        <v>1750109615</v>
+        <v>1750044668</v>
       </c>
       <c r="D50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B51">
-        <v>7716199</v>
+        <v>7733518</v>
       </c>
       <c r="C51" s="2">
-        <v>1750044668</v>
+        <v>1750053977</v>
       </c>
       <c r="D51" t="s">
         <v>50</v>
@@ -2051,63 +2020,63 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B52">
         <v>7733518</v>
       </c>
       <c r="C52" s="2">
-        <v>1750053977</v>
+        <v>1750105988</v>
       </c>
       <c r="D52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B53">
         <v>7733518</v>
       </c>
       <c r="C53" s="2">
-        <v>1750105988</v>
+        <v>1750109615</v>
       </c>
       <c r="D53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B54">
         <v>7733518</v>
       </c>
       <c r="C54" s="2">
-        <v>1750109615</v>
+        <v>1750109641</v>
       </c>
       <c r="D54" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B55">
         <v>7733518</v>
       </c>
-      <c r="C55" s="2">
-        <v>1750109641</v>
+      <c r="C55" t="s">
+        <v>51</v>
       </c>
       <c r="D55" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B56">
         <v>7733518</v>
@@ -2116,74 +2085,74 @@
         <v>52</v>
       </c>
       <c r="D56" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B57">
         <v>7733518</v>
       </c>
-      <c r="C57" t="s">
-        <v>53</v>
+      <c r="C57" s="2">
+        <v>1750169942</v>
       </c>
       <c r="D57" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B58">
-        <v>7733518</v>
+        <v>7738379</v>
       </c>
       <c r="C58" s="2">
-        <v>1750169942</v>
+        <v>1750041251</v>
       </c>
       <c r="D58" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B59">
         <v>7738379</v>
       </c>
       <c r="C59" s="2">
-        <v>1750041251</v>
+        <v>1750035762</v>
       </c>
       <c r="D59" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B60">
         <v>7738379</v>
       </c>
       <c r="C60" s="2">
-        <v>1750035762</v>
+        <v>1750157444</v>
       </c>
       <c r="D60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="B61">
-        <v>7738379</v>
-      </c>
-      <c r="C61" s="2">
-        <v>1750157444</v>
+        <v>7771880</v>
+      </c>
+      <c r="C61" t="s">
+        <v>41</v>
       </c>
       <c r="D61" t="s">
         <v>55</v>
@@ -2197,21 +2166,21 @@
         <v>7771880</v>
       </c>
       <c r="C62" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="B63">
-        <v>7771880</v>
+        <v>7774323</v>
       </c>
       <c r="C63" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D63" t="s">
         <v>56</v>
@@ -2219,170 +2188,170 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B64">
         <v>7774323</v>
       </c>
       <c r="C64" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="D64" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="B65">
-        <v>7774323</v>
+        <v>7790497</v>
       </c>
       <c r="C65" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="D65" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="B66">
-        <v>7784172</v>
-      </c>
-      <c r="C66" s="2">
-        <v>1750044878</v>
+        <v>7790497</v>
+      </c>
+      <c r="C66" t="s">
+        <v>7</v>
       </c>
       <c r="D66" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B67">
-        <v>7784172</v>
+        <v>7792025</v>
       </c>
       <c r="C67" s="2">
-        <v>1750109659</v>
+        <v>1750215294</v>
       </c>
       <c r="D67" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="B68">
-        <v>7789891</v>
-      </c>
-      <c r="C68" t="s">
-        <v>32</v>
+        <v>7792025</v>
+      </c>
+      <c r="C68" s="2">
+        <v>1750215295</v>
       </c>
       <c r="D68" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="B69">
-        <v>7789891</v>
-      </c>
-      <c r="C69" t="s">
-        <v>5</v>
+        <v>7792335</v>
+      </c>
+      <c r="C69" s="2">
+        <v>1750289153</v>
       </c>
       <c r="D69" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="B70">
-        <v>7790497</v>
-      </c>
-      <c r="C70" t="s">
-        <v>32</v>
+        <v>7797143</v>
+      </c>
+      <c r="C70" s="2">
+        <v>1750177464</v>
       </c>
       <c r="D70" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="B71">
-        <v>7790497</v>
-      </c>
-      <c r="C71" t="s">
-        <v>7</v>
+        <v>7797814</v>
+      </c>
+      <c r="C71" s="2">
+        <v>1750215294</v>
       </c>
       <c r="D71" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B72">
-        <v>7792025</v>
+        <v>7798663</v>
       </c>
       <c r="C72" s="2">
-        <v>1750215294</v>
+        <v>1750105988</v>
       </c>
       <c r="D72" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B73">
-        <v>7792025</v>
+        <v>7800803</v>
       </c>
       <c r="C73" s="2">
-        <v>1750215295</v>
+        <v>1750109615</v>
       </c>
       <c r="D73" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
+        <v>53</v>
+      </c>
+      <c r="B74">
+        <v>7802611</v>
+      </c>
+      <c r="C74" s="2">
+        <v>1750053977</v>
+      </c>
+      <c r="D74" t="s">
         <v>54</v>
-      </c>
-      <c r="B74">
-        <v>7792335</v>
-      </c>
-      <c r="C74" s="2">
-        <v>1750289153</v>
-      </c>
-      <c r="D74" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B75">
-        <v>7797143</v>
-      </c>
-      <c r="C75" s="2">
-        <v>1750177464</v>
+        <v>7802993</v>
+      </c>
+      <c r="C75" t="s">
+        <v>5</v>
       </c>
       <c r="D75" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -2390,66 +2359,66 @@
         <v>44</v>
       </c>
       <c r="B76">
-        <v>7797814</v>
-      </c>
-      <c r="C76" s="2">
-        <v>1750215294</v>
+        <v>7803005</v>
+      </c>
+      <c r="C76" t="s">
+        <v>5</v>
       </c>
       <c r="D76" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
+        <v>53</v>
+      </c>
+      <c r="B77">
+        <v>7803677</v>
+      </c>
+      <c r="C77" s="2">
+        <v>1750109658</v>
+      </c>
+      <c r="D77" t="s">
         <v>54</v>
-      </c>
-      <c r="B77">
-        <v>7800803</v>
-      </c>
-      <c r="C77" s="2">
-        <v>1750109615</v>
-      </c>
-      <c r="D77" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
+        <v>53</v>
+      </c>
+      <c r="B78">
+        <v>7803677</v>
+      </c>
+      <c r="C78" s="2">
+        <v>1750109615</v>
+      </c>
+      <c r="D78" t="s">
         <v>54</v>
-      </c>
-      <c r="B78">
-        <v>7802611</v>
-      </c>
-      <c r="C78" s="2">
-        <v>1750053977</v>
-      </c>
-      <c r="D78" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B79">
-        <v>7802993</v>
-      </c>
-      <c r="C79" t="s">
-        <v>5</v>
+        <v>7806399</v>
+      </c>
+      <c r="C79" s="2">
+        <v>1750110043</v>
       </c>
       <c r="D79" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B80">
-        <v>7803005</v>
+        <v>7806538</v>
       </c>
       <c r="C80" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="D80" t="s">
         <v>62</v>
@@ -2457,55 +2426,55 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
+        <v>53</v>
+      </c>
+      <c r="B81">
+        <v>7808461</v>
+      </c>
+      <c r="C81" s="2">
+        <v>1750109659</v>
+      </c>
+      <c r="D81" t="s">
         <v>54</v>
-      </c>
-      <c r="B81">
-        <v>7803677</v>
-      </c>
-      <c r="C81" s="2">
-        <v>1750109658</v>
-      </c>
-      <c r="D81" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B82">
-        <v>7803677</v>
+        <v>7814392</v>
       </c>
       <c r="C82" s="2">
-        <v>1750109615</v>
+        <v>1750189650</v>
       </c>
       <c r="D82" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B83">
-        <v>7806399</v>
+        <v>7814392</v>
       </c>
       <c r="C83" s="2">
-        <v>1750110043</v>
+        <v>1750215295</v>
       </c>
       <c r="D83" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="B84">
-        <v>7806538</v>
-      </c>
-      <c r="C84" t="s">
-        <v>63</v>
+        <v>7814892</v>
+      </c>
+      <c r="C84" s="2">
+        <v>1750046741</v>
       </c>
       <c r="D84" t="s">
         <v>64</v>
@@ -2513,223 +2482,223 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="B85">
-        <v>7808461</v>
+        <v>7814892</v>
       </c>
       <c r="C85" s="2">
-        <v>1750109659</v>
+        <v>1750044668</v>
       </c>
       <c r="D85" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B86">
-        <v>7814392</v>
+        <v>7817629</v>
       </c>
       <c r="C86" s="2">
-        <v>1750189650</v>
+        <v>1750053977</v>
       </c>
       <c r="D86" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B87">
-        <v>7814392</v>
+        <v>7817670</v>
       </c>
       <c r="C87" s="2">
-        <v>1750215295</v>
+        <v>1750109615</v>
       </c>
       <c r="D87" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="B88">
-        <v>7814892</v>
-      </c>
-      <c r="C88" s="2">
-        <v>1750046741</v>
+        <v>7820507</v>
+      </c>
+      <c r="C88" t="s">
+        <v>65</v>
       </c>
       <c r="D88" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="B89">
-        <v>7814892</v>
+        <v>7820527</v>
       </c>
       <c r="C89" s="2">
-        <v>1750044668</v>
+        <v>1750344858</v>
       </c>
       <c r="D89" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
+        <v>53</v>
+      </c>
+      <c r="B90">
+        <v>7822042</v>
+      </c>
+      <c r="C90" s="2">
+        <v>1750159971</v>
+      </c>
+      <c r="D90" t="s">
         <v>54</v>
-      </c>
-      <c r="B90">
-        <v>7817629</v>
-      </c>
-      <c r="C90" s="2">
-        <v>1750053977</v>
-      </c>
-      <c r="D90" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="B91">
-        <v>7817670</v>
-      </c>
-      <c r="C91" s="2">
-        <v>1750109615</v>
+        <v>7823382</v>
+      </c>
+      <c r="C91" t="s">
+        <v>41</v>
       </c>
       <c r="D91" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B92">
-        <v>7820507</v>
+        <v>7824357</v>
       </c>
       <c r="C92" t="s">
         <v>67</v>
       </c>
       <c r="D92" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
+        <v>53</v>
+      </c>
+      <c r="B93">
+        <v>7824386</v>
+      </c>
+      <c r="C93" s="2">
+        <v>1750053977</v>
+      </c>
+      <c r="D93" t="s">
         <v>54</v>
-      </c>
-      <c r="B93">
-        <v>7820527</v>
-      </c>
-      <c r="C93" s="2">
-        <v>1750344858</v>
-      </c>
-      <c r="D93" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
+        <v>53</v>
+      </c>
+      <c r="B94">
+        <v>7832871</v>
+      </c>
+      <c r="C94" s="2">
+        <v>1750105988</v>
+      </c>
+      <c r="D94" t="s">
         <v>54</v>
-      </c>
-      <c r="B94">
-        <v>7822042</v>
-      </c>
-      <c r="C94" s="2">
-        <v>1750159971</v>
-      </c>
-      <c r="D94" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B95">
-        <v>7823382</v>
+        <v>7833234</v>
       </c>
       <c r="C95" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="D95" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="B96">
-        <v>7824357</v>
-      </c>
-      <c r="C96" t="s">
-        <v>69</v>
+        <v>7833667</v>
+      </c>
+      <c r="C96" s="2">
+        <v>1750215295</v>
       </c>
       <c r="D96" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="B97">
-        <v>7824386</v>
+        <v>7833667</v>
       </c>
       <c r="C97" s="2">
-        <v>1750053977</v>
+        <v>1750110044</v>
       </c>
       <c r="D97" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
+        <v>53</v>
+      </c>
+      <c r="B98">
+        <v>7846573</v>
+      </c>
+      <c r="C98" t="s">
+        <v>71</v>
+      </c>
+      <c r="D98" t="s">
         <v>54</v>
-      </c>
-      <c r="B98">
-        <v>7832871</v>
-      </c>
-      <c r="C98" s="2">
-        <v>1750105988</v>
-      </c>
-      <c r="D98" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B99">
-        <v>7833234</v>
-      </c>
-      <c r="C99" t="s">
-        <v>70</v>
+        <v>7846685</v>
+      </c>
+      <c r="C99" s="2">
+        <v>1750101956</v>
       </c>
       <c r="D99" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B100">
-        <v>7833667</v>
+        <v>7848212</v>
       </c>
       <c r="C100" s="2">
-        <v>1750215295</v>
+        <v>1750204435</v>
       </c>
       <c r="D100" t="s">
         <v>72</v>
@@ -2737,324 +2706,324 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B101">
-        <v>7833667</v>
+        <v>7850263</v>
       </c>
       <c r="C101" s="2">
-        <v>1750110044</v>
+        <v>1750053977</v>
       </c>
       <c r="D101" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B102">
-        <v>7846573</v>
-      </c>
-      <c r="C102" t="s">
+        <v>7858514</v>
+      </c>
+      <c r="C102" s="2">
+        <v>1750193275</v>
+      </c>
+      <c r="D102" t="s">
         <v>73</v>
-      </c>
-      <c r="D102" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B103">
-        <v>7846685</v>
+        <v>7858514</v>
       </c>
       <c r="C103" s="2">
-        <v>1750101956</v>
+        <v>1750133348</v>
       </c>
       <c r="D103" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="B104">
-        <v>7848212</v>
+        <v>7858757</v>
       </c>
       <c r="C104" s="2">
-        <v>1750204435</v>
+        <v>1750199149</v>
       </c>
       <c r="D104" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B105">
-        <v>7850263</v>
-      </c>
-      <c r="C105" s="2">
-        <v>1750053977</v>
+        <v>7859082</v>
+      </c>
+      <c r="C105" t="s">
+        <v>74</v>
       </c>
       <c r="D105" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B106">
-        <v>7858514</v>
+        <v>7859146</v>
       </c>
       <c r="C106" s="2">
-        <v>1750193275</v>
+        <v>1750044878</v>
       </c>
       <c r="D106" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B107">
-        <v>7858514</v>
+        <v>7859146</v>
       </c>
       <c r="C107" s="2">
-        <v>1750133348</v>
+        <v>1750105679</v>
       </c>
       <c r="D107" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
+        <v>53</v>
+      </c>
+      <c r="B108">
+        <v>7859726</v>
+      </c>
+      <c r="C108" s="2">
+        <v>1750222982</v>
+      </c>
+      <c r="D108" t="s">
         <v>54</v>
-      </c>
-      <c r="B108">
-        <v>7858757</v>
-      </c>
-      <c r="C108" s="2">
-        <v>1750199149</v>
-      </c>
-      <c r="D108" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B109">
-        <v>7859082</v>
-      </c>
-      <c r="C109" t="s">
-        <v>76</v>
+        <v>7867214</v>
+      </c>
+      <c r="C109" s="2">
+        <v>1750256247</v>
       </c>
       <c r="D109" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B110">
-        <v>7859726</v>
-      </c>
-      <c r="C110" s="2">
-        <v>1750222982</v>
+        <v>7867607</v>
+      </c>
+      <c r="C110" t="s">
+        <v>77</v>
       </c>
       <c r="D110" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B111">
-        <v>7867214</v>
-      </c>
-      <c r="C111" s="2">
-        <v>1750256247</v>
+        <v>7871860</v>
+      </c>
+      <c r="C111" t="s">
+        <v>79</v>
       </c>
       <c r="D111" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B112">
-        <v>7867607</v>
+        <v>7871860</v>
       </c>
       <c r="C112" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D112" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B113">
         <v>7871860</v>
       </c>
       <c r="C113" t="s">
+        <v>71</v>
+      </c>
+      <c r="D113" t="s">
         <v>80</v>
-      </c>
-      <c r="D113" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B114">
-        <v>7871860</v>
-      </c>
-      <c r="C114" t="s">
-        <v>82</v>
+        <v>7873878</v>
+      </c>
+      <c r="C114" s="2">
+        <v>1750105679</v>
       </c>
       <c r="D114" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B115">
-        <v>7871860</v>
-      </c>
-      <c r="C115" t="s">
-        <v>73</v>
+        <v>7873878</v>
+      </c>
+      <c r="C115" s="2">
+        <v>1750109658</v>
       </c>
       <c r="D115" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
+        <v>53</v>
+      </c>
+      <c r="B116">
+        <v>7878427</v>
+      </c>
+      <c r="C116" s="2">
+        <v>1750214647</v>
+      </c>
+      <c r="D116" t="s">
         <v>54</v>
-      </c>
-      <c r="B116">
-        <v>7873878</v>
-      </c>
-      <c r="C116" s="2">
-        <v>1750105679</v>
-      </c>
-      <c r="D116" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
+        <v>53</v>
+      </c>
+      <c r="B117">
+        <v>7884952</v>
+      </c>
+      <c r="C117" s="2">
+        <v>1750053977</v>
+      </c>
+      <c r="D117" t="s">
         <v>54</v>
-      </c>
-      <c r="B117">
-        <v>7873878</v>
-      </c>
-      <c r="C117" s="2">
-        <v>1750109658</v>
-      </c>
-      <c r="D117" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B118">
-        <v>7878427</v>
-      </c>
-      <c r="C118" s="2">
-        <v>1750214647</v>
+        <v>7885396</v>
+      </c>
+      <c r="C118" t="s">
+        <v>81</v>
       </c>
       <c r="D118" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B119">
-        <v>7884935</v>
-      </c>
-      <c r="C119" t="s">
+        <v>7885866</v>
+      </c>
+      <c r="C119" s="2">
+        <v>1750189650</v>
+      </c>
+      <c r="D119" t="s">
         <v>83</v>
-      </c>
-      <c r="D119" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="B120">
-        <v>7884935</v>
+        <v>7888819</v>
       </c>
       <c r="C120" t="s">
-        <v>84</v>
+        <v>299</v>
       </c>
       <c r="D120" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B121">
-        <v>7884935</v>
-      </c>
-      <c r="C121" t="s">
-        <v>85</v>
+        <v>7890266</v>
+      </c>
+      <c r="C121" s="2">
+        <v>1750215294</v>
       </c>
       <c r="D121" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
+        <v>53</v>
+      </c>
+      <c r="B122">
+        <v>7894613</v>
+      </c>
+      <c r="C122" s="2">
+        <v>1750261447</v>
+      </c>
+      <c r="D122" t="s">
         <v>54</v>
-      </c>
-      <c r="B122">
-        <v>7884952</v>
-      </c>
-      <c r="C122" s="2">
-        <v>1750053977</v>
-      </c>
-      <c r="D122" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B123">
-        <v>7885396</v>
+        <v>7897120</v>
       </c>
       <c r="C123" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D123" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
@@ -3062,38 +3031,38 @@
         <v>44</v>
       </c>
       <c r="B124">
-        <v>7885866</v>
-      </c>
-      <c r="C124" s="2">
-        <v>1750189650</v>
+        <v>7897299</v>
+      </c>
+      <c r="C124">
+        <v>1750193275</v>
       </c>
       <c r="D124" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="B125">
-        <v>7888819</v>
-      </c>
-      <c r="C125" t="s">
-        <v>311</v>
+        <v>7897869</v>
+      </c>
+      <c r="C125" s="2">
+        <v>1750261447</v>
       </c>
       <c r="D125" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B126">
-        <v>7890266</v>
+        <v>7897950</v>
       </c>
       <c r="C126" s="2">
-        <v>1750215294</v>
+        <v>1750053977</v>
       </c>
       <c r="D126" t="s">
         <v>90</v>
@@ -3101,408 +3070,408 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B127">
-        <v>7894613</v>
+        <v>7897950</v>
       </c>
       <c r="C127" s="2">
-        <v>1750261447</v>
+        <v>1750109658</v>
       </c>
       <c r="D127" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B128">
-        <v>7897120</v>
-      </c>
-      <c r="C128" t="s">
-        <v>91</v>
+        <v>7899433</v>
+      </c>
+      <c r="C128" s="2">
+        <v>1750208512</v>
       </c>
       <c r="D128" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B129">
-        <v>7897299</v>
-      </c>
-      <c r="C129">
-        <v>1750193275</v>
+        <v>7900491</v>
+      </c>
+      <c r="C129" t="s">
+        <v>91</v>
       </c>
       <c r="D129" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
+        <v>53</v>
+      </c>
+      <c r="B130">
+        <v>7900491</v>
+      </c>
+      <c r="C130" t="s">
+        <v>92</v>
+      </c>
+      <c r="D130" t="s">
         <v>54</v>
-      </c>
-      <c r="B130">
-        <v>7897869</v>
-      </c>
-      <c r="C130" s="2">
-        <v>1750261447</v>
-      </c>
-      <c r="D130" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B131">
-        <v>7897950</v>
+        <v>7905109</v>
       </c>
       <c r="C131" s="2">
-        <v>1750053977</v>
+        <v>1750169942</v>
       </c>
       <c r="D131" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B132">
-        <v>7897950</v>
+        <v>7905109</v>
       </c>
       <c r="C132" s="2">
-        <v>1750109658</v>
+        <v>1750154145</v>
       </c>
       <c r="D132" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B133">
-        <v>7899433</v>
+        <v>7905109</v>
       </c>
       <c r="C133" s="2">
-        <v>1750208512</v>
+        <v>1750105988</v>
       </c>
       <c r="D133" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
+        <v>53</v>
+      </c>
+      <c r="B134">
+        <v>7909031</v>
+      </c>
+      <c r="C134" s="2">
+        <v>1750173205</v>
+      </c>
+      <c r="D134" t="s">
         <v>54</v>
-      </c>
-      <c r="B134">
-        <v>7900491</v>
-      </c>
-      <c r="C134" t="s">
-        <v>95</v>
-      </c>
-      <c r="D134" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B135">
-        <v>7900491</v>
-      </c>
-      <c r="C135" t="s">
-        <v>96</v>
+        <v>7909307</v>
+      </c>
+      <c r="C135" s="2">
+        <v>1750188523</v>
       </c>
       <c r="D135" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="B136">
-        <v>7902050</v>
+        <v>7912762</v>
       </c>
       <c r="C136" s="2">
-        <v>1750105988</v>
+        <v>1804610970</v>
       </c>
       <c r="D136" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B137">
-        <v>7905109</v>
+        <v>7912762</v>
       </c>
       <c r="C137" s="2">
-        <v>1750169942</v>
+        <v>1770031910</v>
       </c>
       <c r="D137" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B138">
-        <v>7905109</v>
+        <v>7912856</v>
       </c>
       <c r="C138" s="2">
-        <v>1750154145</v>
+        <v>1750215294</v>
       </c>
       <c r="D138" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B139">
-        <v>7905109</v>
+        <v>7913107</v>
       </c>
       <c r="C139" s="2">
-        <v>1750105988</v>
+        <v>1750200435</v>
       </c>
       <c r="D139" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B140">
-        <v>7909031</v>
+        <v>7914619</v>
       </c>
       <c r="C140" s="2">
-        <v>1750173205</v>
+        <v>1750200435</v>
       </c>
       <c r="D140" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B141">
-        <v>7909307</v>
+        <v>7914619</v>
       </c>
       <c r="C141" s="2">
-        <v>1750188523</v>
+        <v>1750214647</v>
       </c>
       <c r="D141" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
+        <v>53</v>
+      </c>
+      <c r="B142">
+        <v>7915108</v>
+      </c>
+      <c r="C142" t="s">
+        <v>71</v>
+      </c>
+      <c r="D142" t="s">
         <v>54</v>
-      </c>
-      <c r="B142">
-        <v>7912762</v>
-      </c>
-      <c r="C142" s="2">
-        <v>1804610970</v>
-      </c>
-      <c r="D142" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="B143">
-        <v>7912762</v>
+        <v>7917231</v>
       </c>
       <c r="C143" s="2">
-        <v>1770031910</v>
+        <v>1750350686</v>
       </c>
       <c r="D143" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="B144">
-        <v>7912856</v>
+        <v>7917231</v>
       </c>
       <c r="C144" s="2">
-        <v>1750215294</v>
+        <v>1750301986</v>
       </c>
       <c r="D144" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B145">
-        <v>7913107</v>
-      </c>
-      <c r="C145" s="2">
-        <v>1750200435</v>
+        <v>7917418</v>
+      </c>
+      <c r="C145" t="s">
+        <v>65</v>
       </c>
       <c r="D145" t="s">
-        <v>101</v>
+        <v>54</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B146">
-        <v>7914619</v>
+        <v>7917809</v>
       </c>
       <c r="C146" s="2">
-        <v>1750200435</v>
+        <v>1750256247</v>
       </c>
       <c r="D146" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B147">
-        <v>7914619</v>
+        <v>7919567</v>
       </c>
       <c r="C147" s="2">
-        <v>1750214647</v>
+        <v>1750190038</v>
       </c>
       <c r="D147" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B148">
-        <v>7915108</v>
-      </c>
-      <c r="C148" t="s">
-        <v>73</v>
+        <v>7919667</v>
+      </c>
+      <c r="C148" s="2">
+        <v>1750067867</v>
       </c>
       <c r="D148" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="B149">
-        <v>7917231</v>
+        <v>7919667</v>
       </c>
       <c r="C149" s="2">
-        <v>1750350686</v>
+        <v>1750105988</v>
       </c>
       <c r="D149" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="B150">
-        <v>7917231</v>
+        <v>7920574</v>
       </c>
       <c r="C150" s="2">
-        <v>1750301986</v>
+        <v>1750214647</v>
       </c>
       <c r="D150" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B151">
-        <v>7917418</v>
-      </c>
-      <c r="C151" t="s">
-        <v>67</v>
+        <v>7920574</v>
+      </c>
+      <c r="C151" s="2">
+        <v>1750263341</v>
       </c>
       <c r="D151" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B152">
-        <v>7917809</v>
+        <v>7920574</v>
       </c>
       <c r="C152" s="2">
-        <v>1750256247</v>
+        <v>1750134478</v>
       </c>
       <c r="D152" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B153">
-        <v>7919567</v>
+        <v>7920574</v>
       </c>
       <c r="C153" s="2">
-        <v>1750190038</v>
+        <v>1750200435</v>
       </c>
       <c r="D153" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B154">
-        <v>7919667</v>
+        <v>7921936</v>
       </c>
       <c r="C154" s="2">
-        <v>1750067867</v>
+        <v>1750249441</v>
       </c>
       <c r="D154" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B155">
-        <v>7919667</v>
+        <v>7921936</v>
       </c>
       <c r="C155" s="2">
-        <v>1750105988</v>
+        <v>1750220022</v>
       </c>
       <c r="D155" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
@@ -3510,13 +3479,13 @@
         <v>44</v>
       </c>
       <c r="B156">
-        <v>7920574</v>
+        <v>7921936</v>
       </c>
       <c r="C156" s="2">
-        <v>1750214647</v>
+        <v>1750220000</v>
       </c>
       <c r="D156" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
@@ -3524,27 +3493,27 @@
         <v>44</v>
       </c>
       <c r="B157">
-        <v>7920574</v>
+        <v>7921936</v>
       </c>
       <c r="C157" s="2">
-        <v>1750263341</v>
+        <v>1750200435</v>
       </c>
       <c r="D157" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B158">
-        <v>7920574</v>
-      </c>
-      <c r="C158" s="2">
-        <v>1750134478</v>
+        <v>7924355</v>
+      </c>
+      <c r="C158" t="s">
+        <v>5</v>
       </c>
       <c r="D158" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
@@ -3552,38 +3521,38 @@
         <v>44</v>
       </c>
       <c r="B159">
-        <v>7920574</v>
+        <v>7924902</v>
       </c>
       <c r="C159" s="2">
         <v>1750200435</v>
       </c>
       <c r="D159" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B160">
-        <v>7921936</v>
+        <v>7925113</v>
       </c>
       <c r="C160" s="2">
-        <v>1750249441</v>
+        <v>1750215295</v>
       </c>
       <c r="D160" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="B161">
-        <v>7921936</v>
+        <v>7925266</v>
       </c>
       <c r="C161" s="2">
-        <v>1750220022</v>
+        <v>1750222982</v>
       </c>
       <c r="D161" t="s">
         <v>106</v>
@@ -3591,58 +3560,58 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="B162">
-        <v>7921936</v>
-      </c>
-      <c r="C162" s="2">
-        <v>1750220000</v>
+        <v>7926268</v>
+      </c>
+      <c r="C162" t="s">
+        <v>107</v>
       </c>
       <c r="D162" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B163">
-        <v>7921936</v>
-      </c>
-      <c r="C163" s="2">
-        <v>1750200435</v>
+        <v>7926496</v>
+      </c>
+      <c r="C163" t="s">
+        <v>109</v>
       </c>
       <c r="D163" t="s">
-        <v>106</v>
+        <v>54</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B164">
-        <v>7924355</v>
-      </c>
-      <c r="C164" t="s">
-        <v>5</v>
+        <v>7926501</v>
+      </c>
+      <c r="C164" s="2">
+        <v>1750110044</v>
       </c>
       <c r="D164" t="s">
-        <v>107</v>
+        <v>54</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B165">
-        <v>7924902</v>
+        <v>7929027</v>
       </c>
       <c r="C165" s="2">
-        <v>1750200435</v>
+        <v>1750105679</v>
       </c>
       <c r="D165" t="s">
-        <v>101</v>
+        <v>54</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
@@ -3650,24 +3619,24 @@
         <v>8</v>
       </c>
       <c r="B166">
-        <v>7925113</v>
+        <v>7929932</v>
       </c>
       <c r="C166" s="2">
-        <v>1750215295</v>
+        <v>1750188523</v>
       </c>
       <c r="D166" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="B167">
-        <v>7925266</v>
+        <v>7929932</v>
       </c>
       <c r="C167" s="2">
-        <v>1750222982</v>
+        <v>1750101956</v>
       </c>
       <c r="D167" t="s">
         <v>110</v>
@@ -3675,86 +3644,86 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="B168">
-        <v>7926268</v>
-      </c>
-      <c r="C168" t="s">
+        <v>7930608</v>
+      </c>
+      <c r="C168" s="2">
+        <v>1750193275</v>
+      </c>
+      <c r="D168" t="s">
         <v>111</v>
-      </c>
-      <c r="D168" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B169">
-        <v>7926496</v>
-      </c>
-      <c r="C169" t="s">
-        <v>113</v>
+        <v>7930610</v>
+      </c>
+      <c r="C169" s="2">
+        <v>1750193276</v>
       </c>
       <c r="D169" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B170">
-        <v>7926501</v>
+        <v>7930610</v>
       </c>
       <c r="C170" s="2">
-        <v>1750110044</v>
+        <v>1750220330</v>
       </c>
       <c r="D170" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B171">
-        <v>7929027</v>
+        <v>7930610</v>
       </c>
       <c r="C171" s="2">
-        <v>1750105679</v>
+        <v>1750248000</v>
       </c>
       <c r="D171" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B172">
-        <v>7929932</v>
+        <v>7930610</v>
       </c>
       <c r="C172" s="2">
-        <v>1750188523</v>
+        <v>1750220022</v>
       </c>
       <c r="D172" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B173">
-        <v>7929932</v>
+        <v>7931010</v>
       </c>
       <c r="C173" s="2">
-        <v>1750101956</v>
+        <v>1750188523</v>
       </c>
       <c r="D173" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
@@ -3762,13 +3731,13 @@
         <v>44</v>
       </c>
       <c r="B174">
-        <v>7930608</v>
+        <v>7931010</v>
       </c>
       <c r="C174" s="2">
-        <v>1750193275</v>
+        <v>1750263341</v>
       </c>
       <c r="D174" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
@@ -3776,41 +3745,41 @@
         <v>44</v>
       </c>
       <c r="B175">
-        <v>7930610</v>
+        <v>7931010</v>
       </c>
       <c r="C175" s="2">
-        <v>1750193276</v>
+        <v>1750245555</v>
       </c>
       <c r="D175" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B176">
-        <v>7930610</v>
+        <v>7942380</v>
       </c>
       <c r="C176" s="2">
-        <v>1750220330</v>
+        <v>1750109615</v>
       </c>
       <c r="D176" t="s">
-        <v>116</v>
+        <v>54</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B177">
-        <v>7930610</v>
+        <v>7942589</v>
       </c>
       <c r="C177" s="2">
-        <v>1750248000</v>
+        <v>1750100966</v>
       </c>
       <c r="D177" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
@@ -3818,27 +3787,27 @@
         <v>44</v>
       </c>
       <c r="B178">
-        <v>7930610</v>
+        <v>7943149</v>
       </c>
       <c r="C178" s="2">
-        <v>1750220022</v>
+        <v>1750200435</v>
       </c>
       <c r="D178" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B179">
-        <v>7931010</v>
+        <v>7945233</v>
       </c>
       <c r="C179" s="2">
-        <v>1750188523</v>
+        <v>1750215295</v>
       </c>
       <c r="D179" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
@@ -3846,10 +3815,10 @@
         <v>44</v>
       </c>
       <c r="B180">
-        <v>7931010</v>
+        <v>7945303</v>
       </c>
       <c r="C180" s="2">
-        <v>1750263341</v>
+        <v>1750193275</v>
       </c>
       <c r="D180" t="s">
         <v>117</v>
@@ -3860,38 +3829,38 @@
         <v>44</v>
       </c>
       <c r="B181">
-        <v>7931010</v>
+        <v>7946970</v>
       </c>
       <c r="C181" s="2">
-        <v>1750245555</v>
+        <v>1750200435</v>
       </c>
       <c r="D181" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="B182">
-        <v>7942380</v>
+        <v>7947736</v>
       </c>
       <c r="C182" s="2">
-        <v>1750109615</v>
+        <v>1750215294</v>
       </c>
       <c r="D182" t="s">
-        <v>55</v>
+        <v>118</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B183">
-        <v>7942448</v>
-      </c>
-      <c r="C183" t="s">
-        <v>118</v>
+        <v>7947847</v>
+      </c>
+      <c r="C183" s="2">
+        <v>1750214647</v>
       </c>
       <c r="D183" t="s">
         <v>119</v>
@@ -3899,16 +3868,16 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B184">
-        <v>7942589</v>
+        <v>7947847</v>
       </c>
       <c r="C184" s="2">
-        <v>1750100966</v>
+        <v>1750212682</v>
       </c>
       <c r="D184" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
@@ -3916,27 +3885,27 @@
         <v>44</v>
       </c>
       <c r="B185">
-        <v>7943149</v>
+        <v>7947847</v>
       </c>
       <c r="C185" s="2">
-        <v>1750200435</v>
+        <v>1750140781</v>
       </c>
       <c r="D185" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B186">
-        <v>7945233</v>
+        <v>7947866</v>
       </c>
       <c r="C186" s="2">
-        <v>1750215295</v>
+        <v>1750126457</v>
       </c>
       <c r="D186" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
@@ -3944,41 +3913,41 @@
         <v>44</v>
       </c>
       <c r="B187">
-        <v>7945303</v>
+        <v>7947866</v>
       </c>
       <c r="C187" s="2">
-        <v>1750193275</v>
+        <v>1750196174</v>
       </c>
       <c r="D187" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="B188">
-        <v>7946733</v>
+        <v>7947978</v>
       </c>
       <c r="C188" s="2">
-        <v>1750155446</v>
+        <v>1750105679</v>
       </c>
       <c r="D188" t="s">
-        <v>124</v>
+        <v>54</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="B189">
-        <v>7946733</v>
+        <v>7947978</v>
       </c>
       <c r="C189" s="2">
-        <v>1750187030</v>
+        <v>1750109615</v>
       </c>
       <c r="D189" t="s">
-        <v>124</v>
+        <v>54</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
@@ -3986,7 +3955,7 @@
         <v>44</v>
       </c>
       <c r="B190">
-        <v>7946970</v>
+        <v>7949223</v>
       </c>
       <c r="C190" s="2">
         <v>1750200435</v>
@@ -3997,16 +3966,16 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="B191">
-        <v>7947736</v>
-      </c>
-      <c r="C191" s="2">
-        <v>1750215294</v>
+        <v>7952640</v>
+      </c>
+      <c r="C191" t="s">
+        <v>67</v>
       </c>
       <c r="D191" t="s">
-        <v>125</v>
+        <v>54</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
@@ -4014,13 +3983,13 @@
         <v>44</v>
       </c>
       <c r="B192">
-        <v>7947847</v>
+        <v>7952699</v>
       </c>
       <c r="C192" s="2">
-        <v>1750214647</v>
+        <v>1750215295</v>
       </c>
       <c r="D192" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
@@ -4028,27 +3997,27 @@
         <v>44</v>
       </c>
       <c r="B193">
-        <v>7947847</v>
+        <v>7952699</v>
       </c>
       <c r="C193" s="2">
-        <v>1750212682</v>
+        <v>1750215294</v>
       </c>
       <c r="D193" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B194">
-        <v>7947847</v>
-      </c>
-      <c r="C194" s="2">
-        <v>1750140781</v>
+        <v>7952908</v>
+      </c>
+      <c r="C194" t="s">
+        <v>123</v>
       </c>
       <c r="D194" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
@@ -4056,94 +4025,94 @@
         <v>44</v>
       </c>
       <c r="B195">
-        <v>7947866</v>
+        <v>7952925</v>
       </c>
       <c r="C195" s="2">
-        <v>1750126457</v>
+        <v>1750200435</v>
       </c>
       <c r="D195" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B196">
-        <v>7947866</v>
+        <v>7954123</v>
       </c>
       <c r="C196" s="2">
-        <v>1750196174</v>
+        <v>1750173205</v>
       </c>
       <c r="D196" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B197">
-        <v>7947978</v>
+        <v>7955646</v>
       </c>
       <c r="C197" s="2">
-        <v>1750105679</v>
+        <v>1750200435</v>
       </c>
       <c r="D197" t="s">
-        <v>55</v>
+        <v>126</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B198">
-        <v>7947978</v>
+        <v>7956551</v>
       </c>
       <c r="C198" s="2">
-        <v>1750109615</v>
+        <v>1750222982</v>
       </c>
       <c r="D198" t="s">
-        <v>55</v>
+        <v>127</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B199">
-        <v>7949223</v>
+        <v>7956807</v>
       </c>
       <c r="C199" s="2">
-        <v>1750200435</v>
+        <v>1750056193</v>
       </c>
       <c r="D199" t="s">
-        <v>128</v>
+        <v>54</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="B200">
-        <v>7952640</v>
-      </c>
-      <c r="C200" t="s">
-        <v>69</v>
+        <v>7958425</v>
+      </c>
+      <c r="C200" s="2">
+        <v>1750222982</v>
       </c>
       <c r="D200" t="s">
-        <v>55</v>
+        <v>128</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B201">
-        <v>7952699</v>
-      </c>
-      <c r="C201" s="2">
-        <v>1750215295</v>
+        <v>7959385</v>
+      </c>
+      <c r="C201" t="s">
+        <v>300</v>
       </c>
       <c r="D201" t="s">
         <v>129</v>
@@ -4151,30 +4120,30 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B202">
-        <v>7952699</v>
+        <v>7959520</v>
       </c>
       <c r="C202" s="2">
-        <v>1750215294</v>
+        <v>1750109641</v>
       </c>
       <c r="D202" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B203">
-        <v>7952908</v>
-      </c>
-      <c r="C203" t="s">
-        <v>130</v>
+        <v>7959985</v>
+      </c>
+      <c r="C203" s="2">
+        <v>1750215295</v>
       </c>
       <c r="D203" t="s">
-        <v>55</v>
+        <v>131</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
@@ -4182,24 +4151,24 @@
         <v>44</v>
       </c>
       <c r="B204">
-        <v>7952925</v>
+        <v>7960728</v>
       </c>
       <c r="C204" s="2">
-        <v>1750200435</v>
+        <v>1750189650</v>
       </c>
       <c r="D204" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B205">
-        <v>7954123</v>
+        <v>7960728</v>
       </c>
       <c r="C205" s="2">
-        <v>1750173205</v>
+        <v>1750053977</v>
       </c>
       <c r="D205" t="s">
         <v>132</v>
@@ -4210,7 +4179,7 @@
         <v>44</v>
       </c>
       <c r="B206">
-        <v>7955646</v>
+        <v>7960730</v>
       </c>
       <c r="C206" s="2">
         <v>1750200435</v>
@@ -4221,13 +4190,13 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B207">
-        <v>7955813</v>
-      </c>
-      <c r="C207" t="s">
-        <v>96</v>
+        <v>7960732</v>
+      </c>
+      <c r="C207" s="2">
+        <v>1750193275</v>
       </c>
       <c r="D207" t="s">
         <v>134</v>
@@ -4235,13 +4204,13 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B208">
-        <v>7956551</v>
+        <v>7960739</v>
       </c>
       <c r="C208" s="2">
-        <v>1750222982</v>
+        <v>1750193275</v>
       </c>
       <c r="D208" t="s">
         <v>135</v>
@@ -4249,44 +4218,44 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B209">
-        <v>7956807</v>
+        <v>7961200</v>
       </c>
       <c r="C209" s="2">
-        <v>1750056193</v>
+        <v>1750200435</v>
       </c>
       <c r="D209" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="B210">
-        <v>7958425</v>
-      </c>
-      <c r="C210" s="2">
-        <v>1750222982</v>
+        <v>7963480</v>
+      </c>
+      <c r="C210" t="s">
+        <v>5</v>
       </c>
       <c r="D210" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B211">
-        <v>7959520</v>
+        <v>7966435</v>
       </c>
       <c r="C211" s="2">
-        <v>1750109641</v>
+        <v>1750220000</v>
       </c>
       <c r="D211" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
@@ -4294,10 +4263,10 @@
         <v>44</v>
       </c>
       <c r="B212">
-        <v>7959985</v>
+        <v>7966435</v>
       </c>
       <c r="C212" s="2">
-        <v>1750215295</v>
+        <v>1750248000</v>
       </c>
       <c r="D212" t="s">
         <v>138</v>
@@ -4308,10 +4277,10 @@
         <v>44</v>
       </c>
       <c r="B213">
-        <v>7960728</v>
+        <v>7967194</v>
       </c>
       <c r="C213" s="2">
-        <v>1750189650</v>
+        <v>1750220000</v>
       </c>
       <c r="D213" t="s">
         <v>139</v>
@@ -4322,10 +4291,10 @@
         <v>44</v>
       </c>
       <c r="B214">
-        <v>7960728</v>
+        <v>7967194</v>
       </c>
       <c r="C214" s="2">
-        <v>1750053977</v>
+        <v>1750220022</v>
       </c>
       <c r="D214" t="s">
         <v>139</v>
@@ -4333,41 +4302,41 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B215">
-        <v>7960730</v>
-      </c>
-      <c r="C215" s="2">
-        <v>1750200435</v>
+        <v>7967730</v>
+      </c>
+      <c r="C215" t="s">
+        <v>140</v>
       </c>
       <c r="D215" t="s">
-        <v>140</v>
+        <v>54</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B216">
-        <v>7960732</v>
-      </c>
-      <c r="C216" s="2">
-        <v>1750193275</v>
+        <v>7967730</v>
+      </c>
+      <c r="C216" t="s">
+        <v>65</v>
       </c>
       <c r="D216" t="s">
-        <v>141</v>
+        <v>54</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>44</v>
+        <v>141</v>
       </c>
       <c r="B217">
-        <v>7960739</v>
+        <v>7967825</v>
       </c>
       <c r="C217" s="2">
-        <v>1750193275</v>
+        <v>1750304622</v>
       </c>
       <c r="D217" t="s">
         <v>142</v>
@@ -4375,27 +4344,27 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>44</v>
+        <v>141</v>
       </c>
       <c r="B218">
-        <v>7961200</v>
-      </c>
-      <c r="C218" s="2">
-        <v>1750200435</v>
+        <v>7967825</v>
+      </c>
+      <c r="C218" t="s">
+        <v>143</v>
       </c>
       <c r="D218" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="B219">
-        <v>7961672</v>
+        <v>7968148</v>
       </c>
       <c r="C219" s="2">
-        <v>1750188546</v>
+        <v>1750109641</v>
       </c>
       <c r="D219" t="s">
         <v>144</v>
@@ -4403,13 +4372,13 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="B220">
-        <v>7963480</v>
-      </c>
-      <c r="C220" t="s">
-        <v>5</v>
+        <v>7968426</v>
+      </c>
+      <c r="C220" s="2">
+        <v>1750092824</v>
       </c>
       <c r="D220" t="s">
         <v>145</v>
@@ -4417,13 +4386,13 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B221">
-        <v>7966435</v>
+        <v>7968518</v>
       </c>
       <c r="C221" s="2">
-        <v>1750220000</v>
+        <v>1750173205</v>
       </c>
       <c r="D221" t="s">
         <v>146</v>
@@ -4431,16 +4400,16 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B222">
-        <v>7966435</v>
+        <v>7968924</v>
       </c>
       <c r="C222" s="2">
-        <v>1750248000</v>
+        <v>1750109659</v>
       </c>
       <c r="D222" t="s">
-        <v>146</v>
+        <v>54</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
@@ -4448,10 +4417,10 @@
         <v>44</v>
       </c>
       <c r="B223">
-        <v>7967194</v>
+        <v>7969037</v>
       </c>
       <c r="C223" s="2">
-        <v>1750220000</v>
+        <v>1750215295</v>
       </c>
       <c r="D223" t="s">
         <v>147</v>
@@ -4462,52 +4431,52 @@
         <v>44</v>
       </c>
       <c r="B224">
-        <v>7967194</v>
+        <v>7969146</v>
       </c>
       <c r="C224" s="2">
-        <v>1750220022</v>
+        <v>1750200435</v>
       </c>
       <c r="D224" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B225">
-        <v>7967730</v>
-      </c>
-      <c r="C225" t="s">
+        <v>7969146</v>
+      </c>
+      <c r="C225" s="2">
+        <v>1750200541</v>
+      </c>
+      <c r="D225" t="s">
         <v>148</v>
-      </c>
-      <c r="D225" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B226">
-        <v>7967730</v>
+        <v>7969156</v>
       </c>
       <c r="C226" t="s">
         <v>67</v>
       </c>
       <c r="D226" t="s">
-        <v>55</v>
+        <v>149</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B227">
-        <v>7967764</v>
-      </c>
-      <c r="C227" s="2">
-        <v>1770041364</v>
+        <v>7969156</v>
+      </c>
+      <c r="C227" t="s">
+        <v>150</v>
       </c>
       <c r="D227" t="s">
         <v>149</v>
@@ -4515,27 +4484,27 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>150</v>
+        <v>47</v>
       </c>
       <c r="B228">
-        <v>7967825</v>
-      </c>
-      <c r="C228" s="2">
-        <v>1750304622</v>
+        <v>7969156</v>
+      </c>
+      <c r="C228" t="s">
+        <v>123</v>
       </c>
       <c r="D228" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>150</v>
+        <v>8</v>
       </c>
       <c r="B229">
-        <v>7967825</v>
-      </c>
-      <c r="C229" t="s">
-        <v>152</v>
+        <v>7969367</v>
+      </c>
+      <c r="C229" s="2">
+        <v>1750188523</v>
       </c>
       <c r="D229" t="s">
         <v>151</v>
@@ -4543,27 +4512,27 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>153</v>
+        <v>44</v>
       </c>
       <c r="B230">
-        <v>7967829</v>
+        <v>7969374</v>
       </c>
       <c r="C230" s="2">
-        <v>1750222982</v>
+        <v>1750200435</v>
       </c>
       <c r="D230" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
+        <v>84</v>
+      </c>
+      <c r="B231">
+        <v>7970398</v>
+      </c>
+      <c r="C231" t="s">
         <v>153</v>
-      </c>
-      <c r="B231">
-        <v>7967829</v>
-      </c>
-      <c r="C231" s="2">
-        <v>1750105679</v>
       </c>
       <c r="D231" t="s">
         <v>154</v>
@@ -4571,44 +4540,44 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="B232">
-        <v>7968148</v>
-      </c>
-      <c r="C232" s="2">
-        <v>1750109641</v>
+        <v>7970398</v>
+      </c>
+      <c r="C232" t="s">
+        <v>51</v>
       </c>
       <c r="D232" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B233">
-        <v>7968426</v>
+        <v>7970595</v>
       </c>
       <c r="C233" s="2">
-        <v>1750092824</v>
+        <v>1750200541</v>
       </c>
       <c r="D233" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B234">
-        <v>7968518</v>
+        <v>7970595</v>
       </c>
       <c r="C234" s="2">
-        <v>1750173205</v>
+        <v>1750214647</v>
       </c>
       <c r="D234" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
@@ -4616,27 +4585,27 @@
         <v>10</v>
       </c>
       <c r="B235">
-        <v>7968759</v>
+        <v>7971064</v>
       </c>
       <c r="C235" s="2">
-        <v>1750188546</v>
+        <v>1750109641</v>
       </c>
       <c r="D235" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B236">
-        <v>7968924</v>
+        <v>7971383</v>
       </c>
       <c r="C236" s="2">
-        <v>1750109659</v>
+        <v>1750200435</v>
       </c>
       <c r="D236" t="s">
-        <v>55</v>
+        <v>157</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
@@ -4644,13 +4613,13 @@
         <v>44</v>
       </c>
       <c r="B237">
-        <v>7969037</v>
+        <v>7971741</v>
       </c>
       <c r="C237" s="2">
-        <v>1750215295</v>
+        <v>1750200435</v>
       </c>
       <c r="D237" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
@@ -4658,13 +4627,13 @@
         <v>44</v>
       </c>
       <c r="B238">
-        <v>7969146</v>
+        <v>7972029</v>
       </c>
       <c r="C238" s="2">
-        <v>1750200435</v>
+        <v>1750248000</v>
       </c>
       <c r="D238" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
@@ -4672,69 +4641,69 @@
         <v>44</v>
       </c>
       <c r="B239">
-        <v>7969146</v>
+        <v>7972029</v>
       </c>
       <c r="C239" s="2">
-        <v>1750200541</v>
+        <v>1750220330</v>
       </c>
       <c r="D239" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B240">
-        <v>7969156</v>
-      </c>
-      <c r="C240" t="s">
-        <v>69</v>
+        <v>7973015</v>
+      </c>
+      <c r="C240" s="2">
+        <v>1750200541</v>
       </c>
       <c r="D240" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B241">
-        <v>7969156</v>
-      </c>
-      <c r="C241" t="s">
-        <v>162</v>
+        <v>7973015</v>
+      </c>
+      <c r="C241" s="2">
+        <v>1750245555</v>
       </c>
       <c r="D241" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B242">
-        <v>7969156</v>
-      </c>
-      <c r="C242" t="s">
-        <v>130</v>
+        <v>7973015</v>
+      </c>
+      <c r="C242" s="2">
+        <v>1750134478</v>
       </c>
       <c r="D242" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B243">
-        <v>7969367</v>
+        <v>7973015</v>
       </c>
       <c r="C243" s="2">
-        <v>1750188523</v>
+        <v>1750263341</v>
       </c>
       <c r="D243" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
@@ -4742,181 +4711,181 @@
         <v>44</v>
       </c>
       <c r="B244">
-        <v>7969374</v>
+        <v>7973357</v>
       </c>
       <c r="C244" s="2">
-        <v>1750200435</v>
+        <v>1750220022</v>
       </c>
       <c r="D244" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="B245">
-        <v>7970398</v>
-      </c>
-      <c r="C245" t="s">
-        <v>118</v>
+        <v>7973357</v>
+      </c>
+      <c r="C245" s="2">
+        <v>1750220000</v>
       </c>
       <c r="D245" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="B246">
-        <v>7970398</v>
-      </c>
-      <c r="C246" t="s">
-        <v>52</v>
+        <v>7973357</v>
+      </c>
+      <c r="C246" s="2">
+        <v>1750200435</v>
       </c>
       <c r="D246" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B247">
-        <v>7970595</v>
-      </c>
-      <c r="C247" s="2">
-        <v>1750200541</v>
+        <v>7973399</v>
+      </c>
+      <c r="C247" t="s">
+        <v>162</v>
       </c>
       <c r="D247" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B248">
-        <v>7970595</v>
+        <v>7973493</v>
       </c>
       <c r="C248" s="2">
-        <v>1750214647</v>
+        <v>1750101956</v>
       </c>
       <c r="D248" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B249">
-        <v>7971064</v>
+        <v>7973493</v>
       </c>
       <c r="C249" s="2">
-        <v>1750109641</v>
+        <v>1750188523</v>
       </c>
       <c r="D249" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B250">
-        <v>7971383</v>
+        <v>7973493</v>
       </c>
       <c r="C250" s="2">
-        <v>1750200435</v>
+        <v>1750101952</v>
       </c>
       <c r="D250" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B251">
-        <v>7971741</v>
+        <v>7973493</v>
       </c>
       <c r="C251" s="2">
-        <v>1750200435</v>
+        <v>1750188524</v>
       </c>
       <c r="D251" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B252">
-        <v>7972029</v>
-      </c>
-      <c r="C252" s="2">
-        <v>1750248000</v>
+        <v>7973493</v>
+      </c>
+      <c r="C252" t="s">
+        <v>165</v>
       </c>
       <c r="D252" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B253">
-        <v>7972029</v>
-      </c>
-      <c r="C253" s="2">
-        <v>1750220330</v>
+        <v>7973493</v>
+      </c>
+      <c r="C253" t="s">
+        <v>166</v>
       </c>
       <c r="D253" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B254">
-        <v>7973015</v>
-      </c>
-      <c r="C254" s="2">
-        <v>1750200541</v>
+        <v>7973493</v>
+      </c>
+      <c r="C254" t="s">
+        <v>166</v>
       </c>
       <c r="D254" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B255">
-        <v>7973015</v>
+        <v>7973637</v>
       </c>
       <c r="C255" s="2">
-        <v>1750245555</v>
+        <v>1750188546</v>
       </c>
       <c r="D255" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B256">
-        <v>7973015</v>
+        <v>7974287</v>
       </c>
       <c r="C256" s="2">
-        <v>1750134478</v>
+        <v>1750130600</v>
       </c>
       <c r="D256" t="s">
-        <v>171</v>
+        <v>54</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
@@ -4924,13 +4893,13 @@
         <v>44</v>
       </c>
       <c r="B257">
-        <v>7973015</v>
+        <v>7975982</v>
       </c>
       <c r="C257" s="2">
-        <v>1750263341</v>
+        <v>1750248000</v>
       </c>
       <c r="D257" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
@@ -4938,195 +4907,195 @@
         <v>44</v>
       </c>
       <c r="B258">
-        <v>7973357</v>
+        <v>7975982</v>
       </c>
       <c r="C258" s="2">
-        <v>1750220022</v>
+        <v>1750220330</v>
       </c>
       <c r="D258" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B259">
-        <v>7973357</v>
+        <v>7976330</v>
       </c>
       <c r="C259" s="2">
-        <v>1750220000</v>
+        <v>1750222982</v>
       </c>
       <c r="D259" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B260">
-        <v>7973357</v>
+        <v>7976745</v>
       </c>
       <c r="C260" s="2">
-        <v>1750200435</v>
+        <v>1750105988</v>
       </c>
       <c r="D260" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B261">
-        <v>7973399</v>
-      </c>
-      <c r="C261" t="s">
-        <v>173</v>
+        <v>7977137</v>
+      </c>
+      <c r="C261" s="2">
+        <v>1750200435</v>
       </c>
       <c r="D261" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B262">
-        <v>7973493</v>
+        <v>7978510</v>
       </c>
       <c r="C262" s="2">
-        <v>1750101956</v>
+        <v>1750215294</v>
       </c>
       <c r="D262" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B263">
-        <v>7973493</v>
+        <v>7978510</v>
       </c>
       <c r="C263" s="2">
-        <v>1750188523</v>
+        <v>1750215295</v>
       </c>
       <c r="D263" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="B264">
-        <v>7973493</v>
+        <v>7978655</v>
       </c>
       <c r="C264" s="2">
-        <v>1750101952</v>
+        <v>1750220022</v>
       </c>
       <c r="D264" t="s">
-        <v>175</v>
+        <v>54</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="B265">
-        <v>7973493</v>
+        <v>7978655</v>
       </c>
       <c r="C265" s="2">
-        <v>1750188524</v>
+        <v>1750220330</v>
       </c>
       <c r="D265" t="s">
-        <v>175</v>
+        <v>54</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="B266">
-        <v>7973493</v>
-      </c>
-      <c r="C266" t="s">
-        <v>176</v>
+        <v>7978655</v>
+      </c>
+      <c r="C266" s="2">
+        <v>1750239538</v>
       </c>
       <c r="D266" t="s">
-        <v>175</v>
+        <v>54</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="B267">
-        <v>7973493</v>
-      </c>
-      <c r="C267" t="s">
-        <v>177</v>
+        <v>7978655</v>
+      </c>
+      <c r="C267" s="2">
+        <v>1750289153</v>
       </c>
       <c r="D267" t="s">
-        <v>175</v>
+        <v>54</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="B268">
-        <v>7973493</v>
-      </c>
-      <c r="C268" t="s">
-        <v>177</v>
+        <v>7979255</v>
+      </c>
+      <c r="C268" s="2">
+        <v>1750105988</v>
       </c>
       <c r="D268" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="B269">
-        <v>7973637</v>
+        <v>7979396</v>
       </c>
       <c r="C269" s="2">
-        <v>1750188546</v>
+        <v>1750053977</v>
       </c>
       <c r="D269" t="s">
-        <v>178</v>
+        <v>54</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B270">
-        <v>7974287</v>
+        <v>7979436</v>
       </c>
       <c r="C270" s="2">
-        <v>1750130600</v>
+        <v>1750200435</v>
       </c>
       <c r="D270" t="s">
-        <v>55</v>
+        <v>173</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>179</v>
+        <v>44</v>
       </c>
       <c r="B271">
-        <v>7975903</v>
+        <v>7979551</v>
       </c>
       <c r="C271" s="2">
-        <v>1750053690</v>
+        <v>1750134478</v>
       </c>
       <c r="D271" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
@@ -5134,13 +5103,13 @@
         <v>44</v>
       </c>
       <c r="B272">
-        <v>7975982</v>
+        <v>7979551</v>
       </c>
       <c r="C272" s="2">
-        <v>1750248000</v>
+        <v>1750214647</v>
       </c>
       <c r="D272" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
@@ -5148,69 +5117,69 @@
         <v>44</v>
       </c>
       <c r="B273">
-        <v>7975982</v>
+        <v>7979609</v>
       </c>
       <c r="C273" s="2">
-        <v>1750220330</v>
+        <v>1750200435</v>
       </c>
       <c r="D273" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="B274">
-        <v>7976330</v>
+        <v>7979880</v>
       </c>
       <c r="C274" s="2">
-        <v>1750222982</v>
+        <v>1750105988</v>
       </c>
       <c r="D274" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B275">
-        <v>7976745</v>
+        <v>7983248</v>
       </c>
       <c r="C275" s="2">
-        <v>1750105988</v>
+        <v>1750109615</v>
       </c>
       <c r="D275" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B276">
-        <v>7977137</v>
+        <v>7983283</v>
       </c>
       <c r="C276" s="2">
-        <v>1750200435</v>
+        <v>1750105679</v>
       </c>
       <c r="D276" t="s">
-        <v>184</v>
+        <v>54</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B277">
-        <v>7978510</v>
+        <v>7983301</v>
       </c>
       <c r="C277" s="2">
-        <v>1750215294</v>
+        <v>1750302850</v>
       </c>
       <c r="D277" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
@@ -5218,111 +5187,111 @@
         <v>44</v>
       </c>
       <c r="B278">
-        <v>7978510</v>
-      </c>
-      <c r="C278" s="2">
-        <v>1750215295</v>
+        <v>7983339</v>
+      </c>
+      <c r="C278">
+        <v>1750188523</v>
       </c>
       <c r="D278" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B279">
-        <v>7978626</v>
-      </c>
-      <c r="C279" s="2">
-        <v>1750173205</v>
+        <v>7983339</v>
+      </c>
+      <c r="C279">
+        <v>1750177464</v>
       </c>
       <c r="D279" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="B280">
-        <v>7978655</v>
+        <v>7983972</v>
       </c>
       <c r="C280" s="2">
-        <v>1750220022</v>
+        <v>1750177464</v>
       </c>
       <c r="D280" t="s">
-        <v>55</v>
+        <v>178</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="B281">
-        <v>7978655</v>
+        <v>7984027</v>
       </c>
       <c r="C281" s="2">
-        <v>1750220330</v>
+        <v>1750222982</v>
       </c>
       <c r="D281" t="s">
-        <v>55</v>
+        <v>179</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B282">
-        <v>7978655</v>
+        <v>7984086</v>
       </c>
       <c r="C282" s="2">
-        <v>1750239538</v>
+        <v>1750220330</v>
       </c>
       <c r="D282" t="s">
-        <v>55</v>
+        <v>180</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B283">
-        <v>7978655</v>
+        <v>7984086</v>
       </c>
       <c r="C283" s="2">
-        <v>1750289153</v>
+        <v>1750248000</v>
       </c>
       <c r="D283" t="s">
-        <v>55</v>
+        <v>180</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B284">
-        <v>7979255</v>
+        <v>7984118</v>
       </c>
       <c r="C284" s="2">
-        <v>1750105988</v>
+        <v>1750109641</v>
       </c>
       <c r="D284" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B285">
-        <v>7979396</v>
+        <v>7984368</v>
       </c>
       <c r="C285" s="2">
-        <v>1750053977</v>
+        <v>1750263341</v>
       </c>
       <c r="D285" t="s">
-        <v>55</v>
+        <v>182</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
@@ -5330,13 +5299,13 @@
         <v>44</v>
       </c>
       <c r="B286">
-        <v>7979436</v>
+        <v>7984368</v>
       </c>
       <c r="C286" s="2">
-        <v>1750200435</v>
+        <v>1750291701</v>
       </c>
       <c r="D286" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
@@ -5344,136 +5313,136 @@
         <v>44</v>
       </c>
       <c r="B287">
-        <v>7979551</v>
+        <v>7984368</v>
       </c>
       <c r="C287" s="2">
-        <v>1750134478</v>
+        <v>1770041364</v>
       </c>
       <c r="D287" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>44</v>
+        <v>183</v>
       </c>
       <c r="B288">
-        <v>7979551</v>
-      </c>
-      <c r="C288" s="2">
-        <v>1750214647</v>
+        <v>7985978</v>
+      </c>
+      <c r="C288" t="s">
+        <v>41</v>
       </c>
       <c r="D288" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B289">
-        <v>7979609</v>
+        <v>7987111</v>
       </c>
       <c r="C289" s="2">
-        <v>1750200435</v>
+        <v>1750105988</v>
       </c>
       <c r="D289" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B290">
-        <v>7979880</v>
+        <v>7987370</v>
       </c>
       <c r="C290" s="2">
-        <v>1750105988</v>
+        <v>1750188523</v>
       </c>
       <c r="D290" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B291">
-        <v>7983248</v>
+        <v>7987434</v>
       </c>
       <c r="C291" s="2">
-        <v>1750109615</v>
+        <v>1750105988</v>
       </c>
       <c r="D291" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="B292">
-        <v>7983283</v>
+        <v>7987462</v>
       </c>
       <c r="C292" s="2">
-        <v>1750105679</v>
+        <v>1750188523</v>
       </c>
       <c r="D292" t="s">
-        <v>55</v>
+        <v>188</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="B293">
-        <v>7983301</v>
+        <v>7987462</v>
       </c>
       <c r="C293" s="2">
-        <v>1750302850</v>
+        <v>1750177464</v>
       </c>
       <c r="D293" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B294">
-        <v>7983339</v>
-      </c>
-      <c r="C294">
-        <v>1750188523</v>
+        <v>7987578</v>
+      </c>
+      <c r="C294" s="2">
+        <v>1750105988</v>
       </c>
       <c r="D294" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B295">
-        <v>7983339</v>
-      </c>
-      <c r="C295">
-        <v>1750177464</v>
+        <v>7987872</v>
+      </c>
+      <c r="C295" s="2">
+        <v>1750092824</v>
       </c>
       <c r="D295" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="B296">
-        <v>7983535</v>
+        <v>7987999</v>
       </c>
       <c r="C296" s="2">
-        <v>1750053690</v>
+        <v>1750346607</v>
       </c>
       <c r="D296" t="s">
         <v>192</v>
@@ -5481,13 +5450,13 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>8</v>
+        <v>191</v>
       </c>
       <c r="B297">
-        <v>7983972</v>
+        <v>7988101</v>
       </c>
       <c r="C297" s="2">
-        <v>1750177464</v>
+        <v>1750222982</v>
       </c>
       <c r="D297" t="s">
         <v>193</v>
@@ -5495,58 +5464,58 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="B298">
-        <v>7984027</v>
+        <v>7988124</v>
       </c>
       <c r="C298" s="2">
-        <v>1750222982</v>
+        <v>1750109615</v>
       </c>
       <c r="D298" t="s">
-        <v>194</v>
+        <v>54</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B299">
-        <v>7984086</v>
+        <v>7989437</v>
       </c>
       <c r="C299" s="2">
-        <v>1750220330</v>
+        <v>1750101956</v>
       </c>
       <c r="D299" t="s">
-        <v>195</v>
+        <v>54</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B300">
-        <v>7984086</v>
+        <v>7989974</v>
       </c>
       <c r="C300" s="2">
-        <v>1750248000</v>
+        <v>1750173205</v>
       </c>
       <c r="D300" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="B301">
-        <v>7984118</v>
+        <v>7990418</v>
       </c>
       <c r="C301" s="2">
-        <v>1750109641</v>
+        <v>1750100966</v>
       </c>
       <c r="D301" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
@@ -5554,517 +5523,517 @@
         <v>44</v>
       </c>
       <c r="B302">
-        <v>7984368</v>
-      </c>
-      <c r="C302" s="2">
-        <v>1750263341</v>
+        <v>7991709</v>
+      </c>
+      <c r="C302">
+        <v>1750188523</v>
       </c>
       <c r="D302" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B303">
-        <v>7984368</v>
+        <v>7992146</v>
       </c>
       <c r="C303" s="2">
-        <v>1750291701</v>
+        <v>1750053977</v>
       </c>
       <c r="D303" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B304">
-        <v>7984368</v>
+        <v>7992146</v>
       </c>
       <c r="C304" s="2">
-        <v>1770041364</v>
+        <v>1750105988</v>
       </c>
       <c r="D304" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B305">
-        <v>7985665</v>
+        <v>7992155</v>
       </c>
       <c r="C305" s="2">
-        <v>1750109615</v>
+        <v>1750215295</v>
       </c>
       <c r="D305" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
+        <v>47</v>
+      </c>
+      <c r="B306">
+        <v>7992217</v>
+      </c>
+      <c r="C306" s="2">
+        <v>1750109658</v>
+      </c>
+      <c r="D306" t="s">
         <v>198</v>
-      </c>
-      <c r="B306">
-        <v>7985978</v>
-      </c>
-      <c r="C306" t="s">
-        <v>41</v>
-      </c>
-      <c r="D306" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B307">
-        <v>7987092</v>
-      </c>
-      <c r="C307" t="s">
-        <v>52</v>
+        <v>7992231</v>
+      </c>
+      <c r="C307" s="2">
+        <v>1750109641</v>
       </c>
       <c r="D307" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B308">
-        <v>7987099</v>
+        <v>7993496</v>
       </c>
       <c r="C308" s="2">
-        <v>1750044878</v>
+        <v>1750101956</v>
       </c>
       <c r="D308" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B309">
-        <v>7987111</v>
+        <v>7993496</v>
       </c>
       <c r="C309" s="2">
-        <v>1750105988</v>
+        <v>1750188523</v>
       </c>
       <c r="D309" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="B310">
-        <v>7987240</v>
+        <v>7993547</v>
       </c>
       <c r="C310" s="2">
-        <v>1750109615</v>
+        <v>1750173205</v>
       </c>
       <c r="D310" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="B311">
-        <v>7987322</v>
-      </c>
-      <c r="C311" t="s">
-        <v>204</v>
+        <v>7993736</v>
+      </c>
+      <c r="C311" s="2">
+        <v>1750053977</v>
       </c>
       <c r="D311" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>44</v>
+        <v>191</v>
       </c>
       <c r="B312">
-        <v>7987370</v>
+        <v>7993736</v>
       </c>
       <c r="C312" s="2">
-        <v>1750188523</v>
+        <v>1750173205</v>
       </c>
       <c r="D312" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B313">
-        <v>7987406</v>
+        <v>7993882</v>
       </c>
       <c r="C313" s="2">
-        <v>1750173205</v>
+        <v>1750245555</v>
       </c>
       <c r="D313" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B314">
-        <v>7987434</v>
+        <v>7993882</v>
       </c>
       <c r="C314" s="2">
-        <v>1750105988</v>
+        <v>1750200435</v>
       </c>
       <c r="D314" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B315">
-        <v>7987462</v>
+        <v>7993882</v>
       </c>
       <c r="C315" s="2">
-        <v>1750188523</v>
+        <v>1750133348</v>
       </c>
       <c r="D315" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B316">
-        <v>7987462</v>
+        <v>7993882</v>
       </c>
       <c r="C316" s="2">
-        <v>1750177464</v>
+        <v>1750214647</v>
       </c>
       <c r="D316" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>48</v>
+        <v>141</v>
       </c>
       <c r="B317">
-        <v>7987578</v>
-      </c>
-      <c r="C317" s="2">
-        <v>1750105988</v>
+        <v>7993886</v>
+      </c>
+      <c r="C317" t="s">
+        <v>301</v>
       </c>
       <c r="D317" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B318">
-        <v>7987872</v>
+        <v>7994017</v>
       </c>
       <c r="C318" s="2">
-        <v>1750092824</v>
+        <v>1750193275</v>
       </c>
       <c r="D318" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>179</v>
+        <v>44</v>
       </c>
       <c r="B319">
-        <v>7987999</v>
+        <v>7994017</v>
       </c>
       <c r="C319" s="2">
-        <v>1750346607</v>
+        <v>1750200435</v>
       </c>
       <c r="D319" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>179</v>
+        <v>44</v>
       </c>
       <c r="B320">
-        <v>7988101</v>
+        <v>7996728</v>
       </c>
       <c r="C320" s="2">
-        <v>1750222982</v>
+        <v>1750245555</v>
       </c>
       <c r="D320" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B321">
-        <v>7988124</v>
+        <v>7996728</v>
       </c>
       <c r="C321" s="2">
-        <v>1750109615</v>
+        <v>1750289153</v>
       </c>
       <c r="D321" t="s">
-        <v>55</v>
+        <v>206</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B322">
-        <v>7989437</v>
+        <v>7996728</v>
       </c>
       <c r="C322" s="2">
-        <v>1750101956</v>
+        <v>1750263341</v>
       </c>
       <c r="D322" t="s">
-        <v>55</v>
+        <v>206</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B323">
-        <v>7989974</v>
+        <v>7996728</v>
       </c>
       <c r="C323" s="2">
-        <v>1750173205</v>
+        <v>1750200435</v>
       </c>
       <c r="D323" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>10</v>
+        <v>191</v>
       </c>
       <c r="B324">
-        <v>7990418</v>
+        <v>7997042</v>
       </c>
       <c r="C324" s="2">
-        <v>1750100966</v>
+        <v>1750234950</v>
       </c>
       <c r="D324" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>44</v>
+        <v>191</v>
       </c>
       <c r="B325">
-        <v>7991709</v>
-      </c>
-      <c r="C325">
-        <v>1750188523</v>
+        <v>7997042</v>
+      </c>
+      <c r="C325" s="2">
+        <v>1750222982</v>
       </c>
       <c r="D325" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B326">
-        <v>7992146</v>
+        <v>7999875</v>
       </c>
       <c r="C326" s="2">
-        <v>1750053977</v>
+        <v>1750173205</v>
       </c>
       <c r="D326" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="B327">
-        <v>7992146</v>
+        <v>8001964</v>
       </c>
       <c r="C327" s="2">
-        <v>1750105988</v>
+        <v>1750261447</v>
       </c>
       <c r="D327" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B328">
-        <v>7992155</v>
+        <v>8001995</v>
       </c>
       <c r="C328" s="2">
-        <v>1750215295</v>
+        <v>1750177464</v>
       </c>
       <c r="D328" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B329">
-        <v>7992193</v>
-      </c>
-      <c r="C329" t="s">
-        <v>52</v>
+        <v>8002016</v>
+      </c>
+      <c r="C329" s="2">
+        <v>1750200435</v>
       </c>
       <c r="D329" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>48</v>
+        <v>191</v>
       </c>
       <c r="B330">
-        <v>7992217</v>
-      </c>
-      <c r="C330" s="2">
-        <v>1750109658</v>
+        <v>8002017</v>
+      </c>
+      <c r="C330" t="s">
+        <v>211</v>
       </c>
       <c r="D330" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B331">
-        <v>7992231</v>
+        <v>8002044</v>
       </c>
       <c r="C331" s="2">
-        <v>1750109641</v>
+        <v>1750215295</v>
       </c>
       <c r="D331" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="B332">
-        <v>7993496</v>
+        <v>8002169</v>
       </c>
       <c r="C332" s="2">
-        <v>1750101956</v>
+        <v>1750109615</v>
       </c>
       <c r="D332" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B333">
-        <v>7993496</v>
+        <v>8002212</v>
       </c>
       <c r="C333" s="2">
-        <v>1750188523</v>
+        <v>1750222982</v>
       </c>
       <c r="D333" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B334">
-        <v>7993547</v>
+        <v>8002272</v>
       </c>
       <c r="C334" s="2">
-        <v>1750173205</v>
+        <v>1804610970</v>
       </c>
       <c r="D334" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>179</v>
+        <v>8</v>
       </c>
       <c r="B335">
-        <v>7993736</v>
+        <v>8002272</v>
       </c>
       <c r="C335" s="2">
-        <v>1750053977</v>
+        <v>1770031910</v>
       </c>
       <c r="D335" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>179</v>
+        <v>44</v>
       </c>
       <c r="B336">
-        <v>7993736</v>
+        <v>8002373</v>
       </c>
       <c r="C336" s="2">
-        <v>1750173205</v>
+        <v>1750200435</v>
       </c>
       <c r="D336" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B337">
-        <v>7993882</v>
+        <v>8002398</v>
       </c>
       <c r="C337" s="2">
-        <v>1750245555</v>
+        <v>1750173205</v>
       </c>
       <c r="D337" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B338">
-        <v>7993882</v>
-      </c>
-      <c r="C338" s="2">
-        <v>1750200435</v>
+        <v>8002614</v>
+      </c>
+      <c r="C338" t="s">
+        <v>5</v>
       </c>
       <c r="D338" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.3">
@@ -6072,13 +6041,13 @@
         <v>44</v>
       </c>
       <c r="B339">
-        <v>7993882</v>
+        <v>8002694</v>
       </c>
       <c r="C339" s="2">
-        <v>1750133348</v>
+        <v>1750173205</v>
       </c>
       <c r="D339" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.3">
@@ -6086,69 +6055,69 @@
         <v>44</v>
       </c>
       <c r="B340">
-        <v>7993882</v>
+        <v>8002694</v>
       </c>
       <c r="C340" s="2">
-        <v>1750214647</v>
+        <v>1750193275</v>
       </c>
       <c r="D340" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>150</v>
+        <v>47</v>
       </c>
       <c r="B341">
-        <v>7993886</v>
-      </c>
-      <c r="C341" t="s">
-        <v>310</v>
+        <v>8002746</v>
+      </c>
+      <c r="C341" s="2">
+        <v>1750109615</v>
       </c>
       <c r="D341" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B342">
-        <v>7994017</v>
+        <v>8002746</v>
       </c>
       <c r="C342" s="2">
-        <v>1750193275</v>
+        <v>1750109641</v>
       </c>
       <c r="D342" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B343">
-        <v>7994017</v>
+        <v>8002753</v>
       </c>
       <c r="C343" s="2">
-        <v>1750200435</v>
+        <v>1750102901</v>
       </c>
       <c r="D343" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="B344">
-        <v>7996721</v>
+        <v>8002883</v>
       </c>
       <c r="C344" s="2">
-        <v>1770041364</v>
+        <v>1750188523</v>
       </c>
       <c r="D344" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.3">
@@ -6156,94 +6125,94 @@
         <v>44</v>
       </c>
       <c r="B345">
-        <v>7996728</v>
+        <v>8003159</v>
       </c>
       <c r="C345" s="2">
-        <v>1750245555</v>
+        <v>1750193275</v>
       </c>
       <c r="D345" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B346">
-        <v>7996728</v>
+        <v>8003456</v>
       </c>
       <c r="C346" s="2">
-        <v>1750289153</v>
+        <v>1750173205</v>
       </c>
       <c r="D346" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="B347">
-        <v>7996728</v>
+        <v>8003492</v>
       </c>
       <c r="C347" s="2">
-        <v>1750263341</v>
+        <v>1750109615</v>
       </c>
       <c r="D347" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B348">
-        <v>7996728</v>
+        <v>8003561</v>
       </c>
       <c r="C348" s="2">
-        <v>1750200435</v>
+        <v>1750177464</v>
       </c>
       <c r="D348" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="B349">
-        <v>7996739</v>
-      </c>
-      <c r="C349" t="s">
-        <v>96</v>
+        <v>8004495</v>
+      </c>
+      <c r="C349" s="2">
+        <v>1750222982</v>
       </c>
       <c r="D349" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>48</v>
+        <v>141</v>
       </c>
       <c r="B350">
-        <v>7996739</v>
-      </c>
-      <c r="C350" t="s">
-        <v>95</v>
+        <v>8004526</v>
+      </c>
+      <c r="C350" s="2">
+        <v>1750304916</v>
       </c>
       <c r="D350" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>179</v>
+        <v>36</v>
       </c>
       <c r="B351">
-        <v>7997042</v>
-      </c>
-      <c r="C351" s="2">
-        <v>1750234950</v>
+        <v>8004889</v>
+      </c>
+      <c r="C351" t="s">
+        <v>228</v>
       </c>
       <c r="D351" t="s">
         <v>229</v>
@@ -6251,16 +6220,16 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>179</v>
+        <v>47</v>
       </c>
       <c r="B352">
-        <v>7997042</v>
+        <v>8004898</v>
       </c>
       <c r="C352" s="2">
-        <v>1750222982</v>
+        <v>1750130600</v>
       </c>
       <c r="D352" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.3">
@@ -6268,24 +6237,24 @@
         <v>8</v>
       </c>
       <c r="B353">
-        <v>7999875</v>
+        <v>8005093</v>
       </c>
       <c r="C353" s="2">
-        <v>1750173205</v>
+        <v>1750155446</v>
       </c>
       <c r="D353" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>153</v>
+        <v>8</v>
       </c>
       <c r="B354">
-        <v>8001946</v>
+        <v>8005093</v>
       </c>
       <c r="C354" s="2">
-        <v>1750222982</v>
+        <v>1750055614</v>
       </c>
       <c r="D354" t="s">
         <v>231</v>
@@ -6293,16 +6262,16 @@
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="B355">
-        <v>8001964</v>
+        <v>8006044</v>
       </c>
       <c r="C355" s="2">
-        <v>1750261447</v>
+        <v>1750105988</v>
       </c>
       <c r="D355" t="s">
-        <v>231</v>
+        <v>187</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.3">
@@ -6310,83 +6279,83 @@
         <v>8</v>
       </c>
       <c r="B356">
-        <v>8001995</v>
+        <v>8006280</v>
       </c>
       <c r="C356" s="2">
-        <v>1750177464</v>
+        <v>1750188523</v>
       </c>
       <c r="D356" t="s">
-        <v>193</v>
+        <v>232</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B357">
-        <v>8002016</v>
+        <v>8008898</v>
       </c>
       <c r="C357" s="2">
-        <v>1750200435</v>
+        <v>1750173205</v>
       </c>
       <c r="D357" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>179</v>
+        <v>44</v>
       </c>
       <c r="B358">
-        <v>8002017</v>
-      </c>
-      <c r="C358" t="s">
+        <v>8008936</v>
+      </c>
+      <c r="C358" s="2">
+        <v>1750215294</v>
+      </c>
+      <c r="D358" t="s">
         <v>233</v>
-      </c>
-      <c r="D358" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="B359">
-        <v>8002044</v>
+        <v>8008945</v>
       </c>
       <c r="C359" s="2">
-        <v>1750215295</v>
+        <v>1750109659</v>
       </c>
       <c r="D359" t="s">
-        <v>235</v>
+        <v>54</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B360">
-        <v>8002045</v>
-      </c>
-      <c r="C360" t="s">
-        <v>96</v>
+        <v>8009062</v>
+      </c>
+      <c r="C360" s="2">
+        <v>1750177464</v>
       </c>
       <c r="D360" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B361">
-        <v>8002169</v>
+        <v>8009074</v>
       </c>
       <c r="C361" s="2">
-        <v>1750109615</v>
+        <v>1750200435</v>
       </c>
       <c r="D361" t="s">
-        <v>237</v>
+        <v>121</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.3">
@@ -6394,167 +6363,167 @@
         <v>10</v>
       </c>
       <c r="B362">
-        <v>8002212</v>
-      </c>
-      <c r="C362" s="2">
-        <v>1750222982</v>
+        <v>8009161</v>
+      </c>
+      <c r="C362" t="s">
+        <v>41</v>
       </c>
       <c r="D362" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="B363">
-        <v>8002272</v>
+        <v>8009168</v>
       </c>
       <c r="C363" s="2">
-        <v>1804610970</v>
+        <v>1750173205</v>
       </c>
       <c r="D363" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="B364">
-        <v>8002272</v>
+        <v>8009172</v>
       </c>
       <c r="C364" s="2">
-        <v>1770031910</v>
+        <v>1750109615</v>
       </c>
       <c r="D364" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>44</v>
+        <v>141</v>
       </c>
       <c r="B365">
-        <v>8002373</v>
+        <v>8009403</v>
       </c>
       <c r="C365" s="2">
-        <v>1750200435</v>
+        <v>1750100966</v>
       </c>
       <c r="D365" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>8</v>
+        <v>141</v>
       </c>
       <c r="B366">
-        <v>8002398</v>
-      </c>
-      <c r="C366" s="2">
-        <v>1750173205</v>
+        <v>8009403</v>
+      </c>
+      <c r="C366" t="s">
+        <v>237</v>
       </c>
       <c r="D366" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="B367">
-        <v>8002614</v>
-      </c>
-      <c r="C367" t="s">
-        <v>5</v>
+        <v>8009485</v>
+      </c>
+      <c r="C367" s="2">
+        <v>1750136011</v>
       </c>
       <c r="D367" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B368">
-        <v>8002694</v>
+        <v>8009490</v>
       </c>
       <c r="C368" s="2">
-        <v>1750173205</v>
+        <v>1750105988</v>
       </c>
       <c r="D368" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B369">
-        <v>8002694</v>
+        <v>8009740</v>
       </c>
       <c r="C369" s="2">
-        <v>1750193275</v>
+        <v>1750171419</v>
       </c>
       <c r="D369" t="s">
-        <v>242</v>
+        <v>54</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B370">
-        <v>8002746</v>
+        <v>8009828</v>
       </c>
       <c r="C370" s="2">
-        <v>1750109615</v>
+        <v>1750261447</v>
       </c>
       <c r="D370" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B371">
-        <v>8002746</v>
+        <v>8009835</v>
       </c>
       <c r="C371" s="2">
-        <v>1750109641</v>
+        <v>1750105988</v>
       </c>
       <c r="D371" t="s">
-        <v>243</v>
+        <v>187</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B372">
-        <v>8002753</v>
+        <v>8009857</v>
       </c>
       <c r="C372" s="2">
-        <v>1750102901</v>
+        <v>1770031910</v>
       </c>
       <c r="D372" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B373">
-        <v>8002883</v>
+        <v>8009873</v>
       </c>
       <c r="C373" s="2">
-        <v>1750188523</v>
+        <v>1750173205</v>
       </c>
       <c r="D373" t="s">
-        <v>245</v>
+        <v>212</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.3">
@@ -6562,265 +6531,265 @@
         <v>44</v>
       </c>
       <c r="B374">
-        <v>8003159</v>
+        <v>8010058</v>
       </c>
       <c r="C374" s="2">
-        <v>1750193275</v>
+        <v>1750200435</v>
       </c>
       <c r="D374" t="s">
-        <v>246</v>
+        <v>121</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="B375">
-        <v>8003456</v>
-      </c>
-      <c r="C375" s="2">
-        <v>1750173205</v>
+        <v>8010061</v>
+      </c>
+      <c r="C375" t="s">
+        <v>242</v>
       </c>
       <c r="D375" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="B376">
-        <v>8003492</v>
-      </c>
-      <c r="C376" s="2">
-        <v>1750109615</v>
+        <v>8010061</v>
+      </c>
+      <c r="C376" t="s">
+        <v>92</v>
       </c>
       <c r="D376" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B377">
-        <v>8003561</v>
+        <v>8010648</v>
       </c>
       <c r="C377" s="2">
-        <v>1750177464</v>
+        <v>1750109658</v>
       </c>
       <c r="D377" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="B378">
-        <v>8004495</v>
+        <v>8010671</v>
       </c>
       <c r="C378" s="2">
-        <v>1750222982</v>
+        <v>1750109615</v>
       </c>
       <c r="D378" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="B379">
-        <v>8004526</v>
+        <v>8011156</v>
       </c>
       <c r="C379" s="2">
-        <v>1750304916</v>
+        <v>1750220000</v>
       </c>
       <c r="D379" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>198</v>
+        <v>44</v>
       </c>
       <c r="B380">
-        <v>8004585</v>
+        <v>8011156</v>
       </c>
       <c r="C380" s="2">
-        <v>1750222982</v>
+        <v>1750214647</v>
       </c>
       <c r="D380" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>198</v>
+        <v>44</v>
       </c>
       <c r="B381">
-        <v>8004625</v>
+        <v>8011156</v>
       </c>
       <c r="C381" s="2">
-        <v>1770041364</v>
+        <v>1750200541</v>
       </c>
       <c r="D381" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="B382">
-        <v>8004898</v>
-      </c>
-      <c r="C382" s="2">
-        <v>1750130600</v>
+        <v>8012126</v>
+      </c>
+      <c r="C382" t="s">
+        <v>18</v>
       </c>
       <c r="D382" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>8</v>
+        <v>247</v>
       </c>
       <c r="B383">
-        <v>8005093</v>
+        <v>8012175</v>
       </c>
       <c r="C383" s="2">
-        <v>1750155446</v>
+        <v>1750086516</v>
       </c>
       <c r="D383" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>8</v>
+        <v>183</v>
       </c>
       <c r="B384">
-        <v>8005093</v>
-      </c>
-      <c r="C384" s="2">
-        <v>1750055614</v>
+        <v>8012176</v>
+      </c>
+      <c r="C384" t="s">
+        <v>249</v>
       </c>
       <c r="D384" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>254</v>
+        <v>44</v>
       </c>
       <c r="B385">
-        <v>8005094</v>
-      </c>
-      <c r="C385" t="s">
-        <v>52</v>
+        <v>8012267</v>
+      </c>
+      <c r="C385" s="2">
+        <v>1750200435</v>
       </c>
       <c r="D385" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B386">
-        <v>8006044</v>
-      </c>
-      <c r="C386" s="2">
-        <v>1750105988</v>
+        <v>8012317</v>
+      </c>
+      <c r="C386" t="s">
+        <v>77</v>
       </c>
       <c r="D386" t="s">
-        <v>208</v>
+        <v>252</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="B387">
-        <v>8006280</v>
+        <v>8012665</v>
       </c>
       <c r="C387" s="2">
-        <v>1750188523</v>
+        <v>1750105988</v>
       </c>
       <c r="D387" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="B388">
-        <v>8008898</v>
+        <v>8012665</v>
       </c>
       <c r="C388" s="2">
-        <v>1750173205</v>
+        <v>1750109641</v>
       </c>
       <c r="D388" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="B389">
-        <v>8008936</v>
+        <v>8012702</v>
       </c>
       <c r="C389" s="2">
-        <v>1750215294</v>
+        <v>1750222982</v>
       </c>
       <c r="D389" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="B390">
-        <v>8008945</v>
-      </c>
-      <c r="C390" s="2">
-        <v>1750109659</v>
+        <v>8012775</v>
+      </c>
+      <c r="C390" t="s">
+        <v>92</v>
       </c>
       <c r="D390" t="s">
-        <v>55</v>
+        <v>254</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>8</v>
+        <v>191</v>
       </c>
       <c r="B391">
-        <v>8009062</v>
+        <v>8013086</v>
       </c>
       <c r="C391" s="2">
-        <v>1750177464</v>
+        <v>1750053690</v>
       </c>
       <c r="D391" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B392">
-        <v>8009074</v>
+        <v>8013156</v>
       </c>
       <c r="C392" s="2">
-        <v>1750200435</v>
+        <v>1750188523</v>
       </c>
       <c r="D392" t="s">
-        <v>128</v>
+        <v>256</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.3">
@@ -6828,80 +6797,80 @@
         <v>10</v>
       </c>
       <c r="B393">
-        <v>8009161</v>
+        <v>8013196</v>
       </c>
       <c r="C393" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="D393" t="s">
-        <v>258</v>
+        <v>54</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="B394">
-        <v>8009168</v>
-      </c>
-      <c r="C394" s="2">
-        <v>1750173205</v>
+        <v>8013196</v>
+      </c>
+      <c r="C394" t="s">
+        <v>257</v>
       </c>
       <c r="D394" t="s">
-        <v>230</v>
+        <v>54</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>48</v>
+        <v>141</v>
       </c>
       <c r="B395">
-        <v>8009172</v>
+        <v>8015313</v>
       </c>
       <c r="C395" s="2">
-        <v>1750109615</v>
+        <v>1750100965</v>
       </c>
       <c r="D395" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="B396">
-        <v>8009318</v>
+        <v>8016213</v>
       </c>
       <c r="C396" s="2">
-        <v>1750182347</v>
+        <v>1750215294</v>
       </c>
       <c r="D396" t="s">
-        <v>55</v>
+        <v>259</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>150</v>
+        <v>53</v>
       </c>
       <c r="B397">
-        <v>8009403</v>
+        <v>8017631</v>
       </c>
       <c r="C397" s="2">
-        <v>1750100966</v>
+        <v>1750157444</v>
       </c>
       <c r="D397" t="s">
-        <v>260</v>
+        <v>54</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="B398">
-        <v>8009403</v>
-      </c>
-      <c r="C398" t="s">
-        <v>261</v>
+        <v>8017651</v>
+      </c>
+      <c r="C398" s="2">
+        <v>1750200435</v>
       </c>
       <c r="D398" t="s">
         <v>260</v>
@@ -6909,198 +6878,198 @@
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B399">
-        <v>8009485</v>
+        <v>8017678</v>
       </c>
       <c r="C399" s="2">
-        <v>1750136011</v>
+        <v>1750200435</v>
       </c>
       <c r="D399" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B400">
-        <v>8009490</v>
+        <v>8017873</v>
       </c>
       <c r="C400" s="2">
-        <v>1750105988</v>
+        <v>1750109659</v>
       </c>
       <c r="D400" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B401">
-        <v>8009740</v>
-      </c>
-      <c r="C401" s="2">
-        <v>1750171419</v>
+        <v>8017955</v>
+      </c>
+      <c r="C401" t="s">
+        <v>263</v>
       </c>
       <c r="D401" t="s">
-        <v>55</v>
+        <v>264</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>48</v>
+        <v>141</v>
       </c>
       <c r="B402">
-        <v>8009828</v>
+        <v>8018004</v>
       </c>
       <c r="C402" s="2">
-        <v>1750261447</v>
+        <v>1750045330</v>
       </c>
       <c r="D402" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B403">
-        <v>8009835</v>
+        <v>8018024</v>
       </c>
       <c r="C403" s="2">
-        <v>1750105988</v>
+        <v>1750130600</v>
       </c>
       <c r="D403" t="s">
-        <v>208</v>
+        <v>54</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B404">
-        <v>8009857</v>
+        <v>8018041</v>
       </c>
       <c r="C404" s="2">
-        <v>1770031910</v>
+        <v>1750173205</v>
       </c>
       <c r="D404" t="s">
-        <v>208</v>
+        <v>266</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B405">
-        <v>8009873</v>
+        <v>8018258</v>
       </c>
       <c r="C405" s="2">
-        <v>1750173205</v>
+        <v>1750109615</v>
       </c>
       <c r="D405" t="s">
-        <v>234</v>
+        <v>267</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="B406">
-        <v>8009990</v>
+        <v>8018271</v>
       </c>
       <c r="C406" s="2">
-        <v>1750055175</v>
+        <v>1750188523</v>
       </c>
       <c r="D406" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="B407">
-        <v>8010058</v>
-      </c>
-      <c r="C407" s="2">
-        <v>1750200435</v>
+        <v>8018486</v>
+      </c>
+      <c r="C407" t="s">
+        <v>269</v>
       </c>
       <c r="D407" t="s">
-        <v>128</v>
+        <v>270</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="B408">
-        <v>8010061</v>
+        <v>8018486</v>
       </c>
       <c r="C408" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="D408" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B409">
-        <v>8010061</v>
-      </c>
-      <c r="C409" t="s">
-        <v>96</v>
+        <v>8018502</v>
+      </c>
+      <c r="C409" s="2">
+        <v>1750109615</v>
       </c>
       <c r="D409" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B410">
-        <v>8010648</v>
+        <v>8018502</v>
       </c>
       <c r="C410" s="2">
-        <v>1750109658</v>
+        <v>1750256247</v>
       </c>
       <c r="D410" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B411">
-        <v>8010671</v>
+        <v>8018527</v>
       </c>
       <c r="C411" s="2">
-        <v>1750109615</v>
+        <v>1750134478</v>
       </c>
       <c r="D411" t="s">
-        <v>237</v>
+        <v>272</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B412">
-        <v>8011061</v>
+        <v>8018527</v>
       </c>
       <c r="C412" s="2">
-        <v>1750197179</v>
+        <v>1750193275</v>
       </c>
       <c r="D412" t="s">
-        <v>55</v>
+        <v>272</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.3">
@@ -7108,13 +7077,13 @@
         <v>44</v>
       </c>
       <c r="B413">
-        <v>8011156</v>
+        <v>8018527</v>
       </c>
       <c r="C413" s="2">
-        <v>1750220000</v>
+        <v>1750200541</v>
       </c>
       <c r="D413" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.3">
@@ -7122,13 +7091,13 @@
         <v>44</v>
       </c>
       <c r="B414">
-        <v>8011156</v>
+        <v>8018708</v>
       </c>
       <c r="C414" s="2">
-        <v>1750214647</v>
+        <v>1750101956</v>
       </c>
       <c r="D414" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.3">
@@ -7136,83 +7105,83 @@
         <v>44</v>
       </c>
       <c r="B415">
-        <v>8011156</v>
+        <v>8018708</v>
       </c>
       <c r="C415" s="2">
-        <v>1750200541</v>
+        <v>1750154866</v>
       </c>
       <c r="D415" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>198</v>
+        <v>47</v>
       </c>
       <c r="B416">
-        <v>8012176</v>
+        <v>8018768</v>
       </c>
       <c r="C416" s="2">
-        <v>1750235487</v>
+        <v>1750105988</v>
       </c>
       <c r="D416" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>44</v>
+        <v>191</v>
       </c>
       <c r="B417">
-        <v>8012267</v>
+        <v>8018879</v>
       </c>
       <c r="C417" s="2">
-        <v>1750200435</v>
+        <v>1750222982</v>
       </c>
       <c r="D417" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B418">
-        <v>8012665</v>
+        <v>8019163</v>
       </c>
       <c r="C418" s="2">
-        <v>1750105988</v>
+        <v>1750109615</v>
       </c>
       <c r="D418" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B419">
-        <v>8012665</v>
+        <v>8019173</v>
       </c>
       <c r="C419" s="2">
-        <v>1750109641</v>
+        <v>1750173205</v>
       </c>
       <c r="D419" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>103</v>
+        <v>141</v>
       </c>
       <c r="B420">
-        <v>8012702</v>
+        <v>8019184</v>
       </c>
       <c r="C420" s="2">
-        <v>1750222982</v>
+        <v>1750092824</v>
       </c>
       <c r="D420" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.3">
@@ -7220,332 +7189,332 @@
         <v>10</v>
       </c>
       <c r="B421">
-        <v>8012775</v>
-      </c>
-      <c r="C421" t="s">
-        <v>96</v>
+        <v>8019215</v>
+      </c>
+      <c r="C421" s="2">
+        <v>1750109615</v>
       </c>
       <c r="D421" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="B422">
-        <v>8013156</v>
+        <v>8019215</v>
       </c>
       <c r="C422" s="2">
-        <v>1750188523</v>
+        <v>1750109641</v>
       </c>
       <c r="D422" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B423">
-        <v>8013330</v>
+        <v>8019273</v>
       </c>
       <c r="C423" s="2">
-        <v>1750188523</v>
+        <v>1750188524</v>
       </c>
       <c r="D423" t="s">
-        <v>256</v>
+        <v>279</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>150</v>
+        <v>8</v>
       </c>
       <c r="B424">
-        <v>8013409</v>
+        <v>8019273</v>
       </c>
       <c r="C424" s="2">
-        <v>1750105679</v>
+        <v>1750188523</v>
       </c>
       <c r="D424" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>150</v>
+        <v>84</v>
       </c>
       <c r="B425">
-        <v>8013409</v>
+        <v>8019334</v>
       </c>
       <c r="C425" s="2">
-        <v>1750109641</v>
+        <v>1750173205</v>
       </c>
       <c r="D425" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="B426">
-        <v>8013409</v>
+        <v>8019396</v>
       </c>
       <c r="C426" s="2">
-        <v>1750044878</v>
+        <v>1750200435</v>
       </c>
       <c r="D426" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="B427">
-        <v>8013409</v>
+        <v>8019563</v>
       </c>
       <c r="C427" s="2">
-        <v>1750109659</v>
+        <v>1750215294</v>
       </c>
       <c r="D427" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="B428">
-        <v>8013409</v>
+        <v>8019576</v>
       </c>
       <c r="C428" s="2">
-        <v>1750053977</v>
+        <v>1750109615</v>
       </c>
       <c r="D428" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="B429">
-        <v>8015313</v>
+        <v>8019692</v>
       </c>
       <c r="C429" s="2">
-        <v>1750100965</v>
+        <v>1750109641</v>
       </c>
       <c r="D429" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>54</v>
+        <v>247</v>
       </c>
       <c r="B430">
-        <v>8017631</v>
+        <v>8020563</v>
       </c>
       <c r="C430" s="2">
-        <v>1750157444</v>
+        <v>1750105679</v>
       </c>
       <c r="D430" t="s">
-        <v>55</v>
+        <v>283</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>44</v>
+        <v>247</v>
       </c>
       <c r="B431">
-        <v>8017651</v>
+        <v>8020563</v>
       </c>
       <c r="C431" s="2">
-        <v>1750200435</v>
+        <v>1750109659</v>
       </c>
       <c r="D431" t="s">
-        <v>55</v>
+        <v>283</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B432">
-        <v>8017678</v>
+        <v>8020994</v>
       </c>
       <c r="C432" s="2">
-        <v>1750200435</v>
+        <v>1750173205</v>
       </c>
       <c r="D432" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B433">
-        <v>8017709</v>
+        <v>8021104</v>
       </c>
       <c r="C433" s="2">
-        <v>1750247444</v>
+        <v>1750222982</v>
       </c>
       <c r="D433" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B434">
-        <v>8017733</v>
-      </c>
-      <c r="C434" t="s">
-        <v>69</v>
+        <v>8021158</v>
+      </c>
+      <c r="C434" s="2">
+        <v>1750173205</v>
       </c>
       <c r="D434" t="s">
-        <v>55</v>
+        <v>266</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B435">
-        <v>8017900</v>
+        <v>8021342</v>
       </c>
       <c r="C435" s="2">
-        <v>1750109658</v>
+        <v>1750053977</v>
       </c>
       <c r="D435" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B436">
-        <v>8017955</v>
-      </c>
-      <c r="C436" t="s">
-        <v>278</v>
+        <v>8021342</v>
+      </c>
+      <c r="C436" s="2">
+        <v>1750109615</v>
       </c>
       <c r="D436" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="B437">
-        <v>8018004</v>
+        <v>8021411</v>
       </c>
       <c r="C437" s="2">
-        <v>1750045330</v>
+        <v>1750177464</v>
       </c>
       <c r="D437" t="s">
-        <v>55</v>
+        <v>285</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B438">
-        <v>8018041</v>
+        <v>8021411</v>
       </c>
       <c r="C438" s="2">
-        <v>1750173205</v>
+        <v>1750101956</v>
       </c>
       <c r="D438" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>8</v>
+        <v>141</v>
       </c>
       <c r="B439">
-        <v>8018104</v>
+        <v>8021466</v>
       </c>
       <c r="C439" s="2">
-        <v>1750109641</v>
+        <v>1750041251</v>
       </c>
       <c r="D439" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>8</v>
+        <v>141</v>
       </c>
       <c r="B440">
-        <v>8018112</v>
+        <v>8021466</v>
       </c>
       <c r="C440" s="2">
-        <v>1750109641</v>
+        <v>1750045776</v>
       </c>
       <c r="D440" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>48</v>
+        <v>141</v>
       </c>
       <c r="B441">
-        <v>8018258</v>
+        <v>8021466</v>
       </c>
       <c r="C441" s="2">
-        <v>1750109615</v>
+        <v>1750020811</v>
       </c>
       <c r="D441" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>48</v>
+        <v>141</v>
       </c>
       <c r="B442">
-        <v>8018271</v>
+        <v>8021466</v>
       </c>
       <c r="C442" s="2">
-        <v>1750188523</v>
+        <v>1750035776</v>
       </c>
       <c r="D442" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>44</v>
+        <v>141</v>
       </c>
       <c r="B443">
-        <v>8018510</v>
+        <v>8021466</v>
       </c>
       <c r="C443" s="2">
-        <v>1750200435</v>
+        <v>1750035762</v>
       </c>
       <c r="D443" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>44</v>
+        <v>141</v>
       </c>
       <c r="B444">
-        <v>8018527</v>
+        <v>8021466</v>
       </c>
       <c r="C444" s="2">
-        <v>1750220000</v>
+        <v>1750053977</v>
       </c>
       <c r="D444" t="s">
         <v>286</v>
@@ -7553,13 +7522,13 @@
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>44</v>
+        <v>141</v>
       </c>
       <c r="B445">
-        <v>8018527</v>
+        <v>8021466</v>
       </c>
       <c r="C445" s="2">
-        <v>1750220022</v>
+        <v>1750044668</v>
       </c>
       <c r="D445" t="s">
         <v>286</v>
@@ -7570,13 +7539,13 @@
         <v>44</v>
       </c>
       <c r="B446">
-        <v>8018527</v>
+        <v>8021532</v>
       </c>
       <c r="C446" s="2">
-        <v>1750200435</v>
+        <v>1750215294</v>
       </c>
       <c r="D446" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.3">
@@ -7584,10 +7553,10 @@
         <v>44</v>
       </c>
       <c r="B447">
-        <v>8018708</v>
+        <v>8021532</v>
       </c>
       <c r="C447" s="2">
-        <v>1750101956</v>
+        <v>1750215295</v>
       </c>
       <c r="D447" t="s">
         <v>287</v>
@@ -7595,27 +7564,27 @@
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B448">
-        <v>8018708</v>
+        <v>8021567</v>
       </c>
       <c r="C448" s="2">
-        <v>1750154866</v>
+        <v>1750105988</v>
       </c>
       <c r="D448" t="s">
-        <v>287</v>
+        <v>59</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B449">
-        <v>8018768</v>
+        <v>8021573</v>
       </c>
       <c r="C449" s="2">
-        <v>1750105988</v>
+        <v>1750053977</v>
       </c>
       <c r="D449" t="s">
         <v>288</v>
@@ -7623,128 +7592,128 @@
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>179</v>
+        <v>47</v>
       </c>
       <c r="B450">
-        <v>8018770</v>
+        <v>8021573</v>
       </c>
       <c r="C450" s="2">
-        <v>1750109641</v>
+        <v>1750109615</v>
       </c>
       <c r="D450" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>179</v>
+        <v>47</v>
       </c>
       <c r="B451">
-        <v>8018879</v>
+        <v>8021585</v>
       </c>
       <c r="C451" s="2">
-        <v>1750222982</v>
+        <v>1750109659</v>
       </c>
       <c r="D451" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B452">
-        <v>8019163</v>
+        <v>8021623</v>
       </c>
       <c r="C452" s="2">
-        <v>1750109615</v>
+        <v>1750177464</v>
       </c>
       <c r="D452" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="B453">
-        <v>8019184</v>
+        <v>8021674</v>
       </c>
       <c r="C453" s="2">
-        <v>1750092824</v>
+        <v>1750220330</v>
       </c>
       <c r="D453" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B454">
-        <v>8019215</v>
+        <v>8021674</v>
       </c>
       <c r="C454" s="2">
-        <v>1750109615</v>
+        <v>1750248000</v>
       </c>
       <c r="D454" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B455">
-        <v>8019215</v>
+        <v>8021674</v>
       </c>
       <c r="C455" s="2">
-        <v>1750109641</v>
+        <v>1750143750</v>
       </c>
       <c r="D455" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="B456">
-        <v>8019273</v>
-      </c>
-      <c r="C456" s="2">
-        <v>1750188524</v>
+        <v>8022047</v>
+      </c>
+      <c r="C456" t="s">
+        <v>65</v>
       </c>
       <c r="D456" t="s">
-        <v>294</v>
+        <v>54</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>8</v>
+        <v>183</v>
       </c>
       <c r="B457">
-        <v>8019273</v>
+        <v>8022442</v>
       </c>
       <c r="C457" s="2">
-        <v>1750188523</v>
+        <v>1750053977</v>
       </c>
       <c r="D457" t="s">
-        <v>294</v>
+        <v>54</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="B458">
-        <v>8019334</v>
+        <v>8022650</v>
       </c>
       <c r="C458" s="2">
-        <v>1750173205</v>
+        <v>1750193275</v>
       </c>
       <c r="D458" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.3">
@@ -7752,55 +7721,55 @@
         <v>44</v>
       </c>
       <c r="B459">
-        <v>8019396</v>
+        <v>8022696</v>
       </c>
       <c r="C459" s="2">
-        <v>1750200435</v>
+        <v>1750215295</v>
       </c>
       <c r="D459" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B460">
-        <v>8019507</v>
+        <v>8023616</v>
       </c>
       <c r="C460" s="2">
-        <v>1750109615</v>
+        <v>1750053977</v>
       </c>
       <c r="D460" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
-        <v>40</v>
+        <v>141</v>
       </c>
       <c r="B461">
-        <v>8019563</v>
+        <v>8023683</v>
       </c>
       <c r="C461" s="2">
-        <v>1750215294</v>
+        <v>1750109615</v>
       </c>
       <c r="D461" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B462">
-        <v>8019576</v>
+        <v>8023800</v>
       </c>
       <c r="C462" s="2">
         <v>1750109615</v>
       </c>
       <c r="D462" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.3">
@@ -7808,339 +7777,185 @@
         <v>8</v>
       </c>
       <c r="B463">
-        <v>8019605</v>
+        <v>8023846</v>
       </c>
       <c r="C463" s="2">
-        <v>1750109641</v>
+        <v>1750053977</v>
       </c>
       <c r="D463" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B464">
-        <v>8019692</v>
+        <v>8023846</v>
       </c>
       <c r="C464" s="2">
-        <v>1750109641</v>
+        <v>1750109659</v>
       </c>
       <c r="D464" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
-        <v>203</v>
+        <v>8</v>
       </c>
       <c r="B465">
-        <v>8020563</v>
+        <v>8023846</v>
       </c>
       <c r="C465" s="2">
-        <v>1750105679</v>
+        <v>1750173205</v>
       </c>
       <c r="D465" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
-        <v>203</v>
+        <v>36</v>
       </c>
       <c r="B466">
-        <v>8020563</v>
+        <v>8023929</v>
       </c>
       <c r="C466" s="2">
-        <v>1750109659</v>
+        <v>1750288271</v>
       </c>
       <c r="D466" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B467">
-        <v>8020994</v>
+        <v>8023929</v>
       </c>
       <c r="C467" s="2">
-        <v>1750173205</v>
+        <v>1750295447</v>
       </c>
       <c r="D467" t="s">
-        <v>55</v>
+        <v>295</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
-        <v>179</v>
+        <v>8</v>
       </c>
       <c r="B468">
-        <v>8021030</v>
+        <v>8023994</v>
       </c>
       <c r="C468" s="2">
         <v>1750105988</v>
       </c>
       <c r="D468" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
-        <v>179</v>
+        <v>8</v>
       </c>
       <c r="B469">
-        <v>8021104</v>
+        <v>8024020</v>
       </c>
       <c r="C469" s="2">
-        <v>1750222982</v>
+        <v>1750109641</v>
       </c>
       <c r="D469" t="s">
-        <v>55</v>
+        <v>297</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="B470">
-        <v>8021158</v>
+        <v>8024020</v>
       </c>
       <c r="C470" s="2">
-        <v>1750173205</v>
+        <v>1750044668</v>
       </c>
       <c r="D470" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
-        <v>48</v>
+        <v>191</v>
       </c>
       <c r="B471">
-        <v>8021342</v>
+        <v>8024404</v>
       </c>
       <c r="C471" s="2">
-        <v>1750053977</v>
+        <v>1750053690</v>
       </c>
       <c r="D471" t="s">
-        <v>303</v>
+        <v>54</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B472">
-        <v>8021342</v>
+        <v>8024427</v>
       </c>
       <c r="C472" s="2">
-        <v>1750109615</v>
+        <v>1750100966</v>
       </c>
       <c r="D472" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B473">
-        <v>8021411</v>
+        <v>8024695</v>
       </c>
       <c r="C473" s="2">
-        <v>1750177464</v>
+        <v>1750105988</v>
       </c>
       <c r="D473" t="s">
-        <v>304</v>
+        <v>241</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
-        <v>44</v>
+        <v>191</v>
       </c>
       <c r="B474">
-        <v>8021411</v>
+        <v>8024826</v>
       </c>
       <c r="C474" s="2">
-        <v>1750101956</v>
+        <v>1750173205</v>
       </c>
       <c r="D474" t="s">
-        <v>304</v>
+        <v>54</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
-        <v>48</v>
+        <v>247</v>
       </c>
       <c r="B475">
-        <v>8021567</v>
-      </c>
-      <c r="C475" s="2">
-        <v>1750105988</v>
+        <v>8025056</v>
+      </c>
+      <c r="C475" t="s">
+        <v>123</v>
       </c>
       <c r="D475" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A476" t="s">
-        <v>48</v>
-      </c>
-      <c r="B476">
-        <v>8021573</v>
-      </c>
-      <c r="C476" s="2">
-        <v>1750053977</v>
-      </c>
-      <c r="D476" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A477" t="s">
-        <v>48</v>
-      </c>
-      <c r="B477">
-        <v>8021573</v>
-      </c>
-      <c r="C477" s="2">
-        <v>1750109615</v>
-      </c>
-      <c r="D477" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A478" t="s">
-        <v>48</v>
-      </c>
-      <c r="B478">
-        <v>8021596</v>
-      </c>
-      <c r="C478" s="2">
-        <v>1750166799</v>
-      </c>
-      <c r="D478" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A479" t="s">
-        <v>48</v>
-      </c>
-      <c r="B479">
-        <v>8021596</v>
-      </c>
-      <c r="C479" s="2">
-        <v>1750078264</v>
-      </c>
-      <c r="D479" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A480" t="s">
-        <v>44</v>
-      </c>
-      <c r="B480">
-        <v>8021674</v>
-      </c>
-      <c r="C480" s="2">
-        <v>1750220330</v>
-      </c>
-      <c r="D480" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A481" t="s">
-        <v>44</v>
-      </c>
-      <c r="B481">
-        <v>8021674</v>
-      </c>
-      <c r="C481" s="2">
-        <v>1750248000</v>
-      </c>
-      <c r="D481" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A482" t="s">
-        <v>44</v>
-      </c>
-      <c r="B482">
-        <v>8021674</v>
-      </c>
-      <c r="C482" s="2">
-        <v>1750143750</v>
-      </c>
-      <c r="D482" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A483" t="s">
-        <v>36</v>
-      </c>
-      <c r="B483">
-        <v>8022461</v>
-      </c>
-      <c r="C483" t="s">
-        <v>307</v>
-      </c>
-      <c r="D483" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A484" t="s">
-        <v>36</v>
-      </c>
-      <c r="B484">
-        <v>8022461</v>
-      </c>
-      <c r="C484" t="s">
-        <v>308</v>
-      </c>
-      <c r="D484" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A485" t="s">
-        <v>10</v>
-      </c>
-      <c r="B485">
-        <v>8022481</v>
-      </c>
-      <c r="C485" t="s">
-        <v>309</v>
-      </c>
-      <c r="D485" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A486" t="s">
-        <v>10</v>
-      </c>
-      <c r="B486">
-        <v>8022481</v>
-      </c>
-      <c r="C486" t="s">
-        <v>73</v>
-      </c>
-      <c r="D486" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D486" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:D475" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/intento70-30.xlsx
+++ b/intento70-30.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dieboldnixdorf-my.sharepoint.com/personal/lucas_rodriguez_dieboldnixdorf_com/Documents/Escritorio/Codigo/PARTES/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="11_2AB1F4855BE05000133B2C11595ED87656CF9895" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4C95E19-2DF0-452B-9FC0-589F2A7462E8}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="11_0C09949B5B20546D3B5A2D11595ED87656CF1F76" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE7F7540-7F3E-4B2C-BD46-EAEF168FF5CD}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$470</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$460</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="293">
   <si>
     <t>NOMBRE CLIENTE</t>
   </si>
@@ -79,9 +79,6 @@
     <t>BIO 14/03/2024. PENDIENTE POR BIOMETRICO (FRETES)</t>
   </si>
   <si>
-    <t>nan</t>
-  </si>
-  <si>
     <t>BIO. 23/8/23. PENDIENTE POR BIOMETRICO XELIOS  (SORIANO)</t>
   </si>
   <si>
@@ -175,7 +172,7 @@
     <t>BIO. 14/12/23. PENDIENTE POR BIOMETRICO. MOLDURA DISPONIBLE (SORIANO)</t>
   </si>
   <si>
-    <t>NOWIP. 10/04/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR + 1750206350 ANTI FRAUD 2: SIN SALDO EN WIP – SIN STOCK DE DESARME. -- “PARTE 1750109615 V4 EXTRACTOR INFERIOR + 1750105679 CMD CONTROLLER II DI</t>
+    <t>Ticket Pendiente por Repuesto</t>
   </si>
   <si>
     <t>NOWIP. 04/03/24. PARTE 1750105988 LECTORA V2X USB + 1750105679 V4 CMD CONTROLLER II USB + DISCO SATA: SIN SALDO EN WIP.  --  "PARTE 1750109641 + 1750109615 V4 EXTRACTORES + 1750169942 LCD BOX 15 + 175</t>
@@ -190,9 +187,6 @@
     <t>BANCO NEUQUÉN</t>
   </si>
   <si>
-    <t>Ticket Pendiente por Repuesto</t>
-  </si>
-  <si>
     <t>STOCK. 22/01/2024  PENDIENTE POR PARTE FASCIA 280 Y MOLDURA EN ESPERA DE REPARACION (RODRIGUEZ)</t>
   </si>
   <si>
@@ -211,9 +205,6 @@
     <t>NOWIP. 08/02/24. PARTE 1750189650 V5 STACKER + 1750215295 V5 EXTRACTOR SUPERIOR: SIN SALDO EN WIP (MINIACI)</t>
   </si>
   <si>
-    <t>NOSP. 08/05/24. PARTE 1750109659 V4 STACKER + 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
     <t>49204018000E</t>
   </si>
   <si>
@@ -247,654 +238,613 @@
     <t>STOCK. 1/3/24. FASCIA 2100 SIN BIOMETRICO, CON MARCO 15" Y JACK 3,5MM A ESPERA DE DESARME (SORIANO)</t>
   </si>
   <si>
-    <t>ETR. 08/05/24. PARTE 1750044878 V4 BOARD DISTRIBUTOR: EN REPARACIÓN. ETR: 10/05/24.  --  "1750105679 CMD Controller II USB assd. with cover DISPONIBLE EN STOCK". (MINIACI)</t>
+    <t>SV217424000F</t>
+  </si>
+  <si>
+    <t>NOSP. 20/03/24. PARTE SV219839000E ENA UDD: SIN SPARE PARTS PARA REPARACIÓN.  --  "SV217424000F        ASSY,ENA,CI,PACKAGED+ 49211436000A Transport 620mm lenght SRL DISPONIBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
+    <t>SV219839000E</t>
+  </si>
+  <si>
+    <t>NOSP. 08/03/24. PARTE 1750183289 V5 STACKER: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>BANCO PIANO</t>
+  </si>
+  <si>
+    <t>STOCK. 03/04/2024 A ESPERA DE DESARME DE FRENTE FASCIA 720 FL + GUIAS PARA 720 FL (MAITLAND)</t>
+  </si>
+  <si>
+    <t>NOSP. 21/03/24. PARTE 1750215294 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>49220945000A</t>
+  </si>
+  <si>
+    <t>ETR. 09/05/24. PARTE SV221800000C ENA UPPER ALIGN: EN REPARACIÓN. ETR: 15/05/24. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 08/04/24. PARTE 1750193275 RM3 MAIN MODULE: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>49225262000A</t>
+  </si>
+  <si>
+    <t>49208102000H</t>
+  </si>
+  <si>
+    <t>NOWIP. 19/03/24. PARTE 1750154145 TOUCH CONTROLLER + 1750105988 LECTORA V2X USB + 1750169942 MONITOR 15": SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 17/04/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 18/04/24. PARTE 1750215294 V5 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 08/04/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 08/04/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL + 1750214647 RM3 TRANSFER UNIT SAFE: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>CAJERO EXPRESS - LINK</t>
+  </si>
+  <si>
+    <t>NOWIP. 27/03/24. PARTE "MONITOR/TOUCH" N° DE PARTE SIN IDENTIFICACIÓN CORRECTA 1750350686 + 1750301986: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 27/03/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN  / "TRABA" 1750067867 SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 08/05/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL + 1750214647 RM3 TRANSFER UNIT SAFE + 1750263341 RM3 TRANSPORT UNIT ESCROW +</t>
+  </si>
+  <si>
+    <t>NOSP. 08/05/24. PARTE 1750249441 RM3 MOVE AWCA + 1750220022 RM3 IO COLLECTOR + 1750220000 RM3 IO TRAY + 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>BIO.26/3/2024 TICKET PENDIENTE POR BIOMETRICO (CORREA)</t>
+  </si>
+  <si>
+    <t>NOSP. 27/03/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>HASAR</t>
+  </si>
+  <si>
+    <t>NOWIP. 03/04/24. PARTE 1750222982 SHUTTER PC 280: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>49218289X0BB</t>
+  </si>
+  <si>
+    <t>NOWIP. 16/04/24. PARTE 49202967X0CC BOQUILLA DE LECTORA DIP: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>RIEL</t>
+  </si>
+  <si>
+    <t>NOSP. 23/04/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750101956 DISPENSER MODULE DISPONIBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 08/04/24. SE CORRIGE COMENTARIO ANTERIOR. PARTE 1750193275 RM3 MAIN MODULE: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 24/04/24. PARTE 1750248000 RM3 IO COLLECTOR + 1750220330 RM3 IO TRAY + 1750193275 RM3 MAIN MODULE: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 15/04/24. PARTE 1750188523 CCDM CHASIS + 1750263341 RM3 TRANSPORT UNIT HEAD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 10/04/24. PARTE 1750109659 V4 STACKER + 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN.  --  "PARTE 1750100966 CMD V4 SHUTTER VERTIKAL RL STRIP" (SIC STOCK SIN INDICAR CONDICIÓN). (</t>
+  </si>
+  <si>
+    <t>NOWIP. 08/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 08/04/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 02/05/24. PARTE 1750193275 RM3 MAIN MODULE: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 09/04/24. PARTE 1750215294 V5 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 10/04/24. SE CORRIGE COMENTARIO ANTERIOR. PARTE 1750214647 RM3 TRANSFER UNIT SAFE + 1750140781 RM3 HEAD CONTROLLER: SIN SALDO EN WIP.  --  "1750212682         REEL STORAGE BOX DISPONIBLE EN STO</t>
+  </si>
+  <si>
+    <t>NOSP. 15/04/24. PARTE 1750126457 RM3 REEL STORAGE + 1750196174 RM3 MASTERCONTROLLER: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 10/05/24. PARTE 1750193275 RM3 MAIN MODULE + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 10/04/24. PARTE 1750215295 V5 EXTRACTOR INFERIOR + 1750215294 V5 EXTRACTOR INFERIOR: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>49257458000B</t>
+  </si>
+  <si>
+    <t>NOSP. 16/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 22/04/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 15/04/24. PARTE 1750222982 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 19/04/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 16/04/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 11/04/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 16/04/24. PARTE 1750183289 V5 STACKER: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750053977 CLAMP DISPONIBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 15/04/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 15/04/24. PARTE 1750193275 RM3 MAIN MODULE: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 19/04/24. PARTE 1750193275 RM3 MAIN MODULE: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>49201152000D</t>
+  </si>
+  <si>
+    <t>NOSP. 15/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>BIO. 18/4/24. PENDIENTE POR BIOMETRICO (SORIANO)</t>
+  </si>
+  <si>
+    <t>NOSP. 17/04/24. PARTE 1750248000 RM3 IO COLLECTOR + 1750220330 RM3 IO TRAY: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 16/04/24. PARTE 1750248000 RM3 IO COLLECTOR + 1750220330 RM3 IO TRAY: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>49204013000E</t>
+  </si>
+  <si>
+    <t>BANCO CREDICOOP</t>
+  </si>
+  <si>
+    <t>NOWIP. 17/04/24. PARTE 49254690000N AFD 2.0 STACKER: SIN SALDO WN WIP.  --  "ARTE 1750304622 CHD-mot ICT3H5-3AD2792 SecPac2 DISPONIBLE". (MINIACI)</t>
+  </si>
+  <si>
+    <t>49254690000N</t>
+  </si>
+  <si>
+    <t>NOSP. 02/05/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 18/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 16/04/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 16/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SALDO EN WIP.  --  "1750200541        Distributor Module CRS DISPONIBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 26/04/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 25/04/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 17/04/24. PARTE 1750214647 RM3 TRANSFER UNIT SAFE: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750200541 DISTRIBUTOR MODULE CRS DISPONIBLEN STOCK ". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 22/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 23/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 18/04/24. PARTE 1750248000 RM3 IO COLLECTOR + 1750220330 RM3 IO TRAY: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 02/05/24. PARTE 1750134478 RM3 CCU + 1750263341 RM3 TRANSPORT UNIT HEAD ESCROW: SIN SALDO EN WIP.  --  "1750200541 Distributor Module CRS+ 1750245555 transport unit head short path CRS/ATS DISP</t>
+  </si>
+  <si>
+    <t>NOSP. 18/04/24. PARTE 1750248000 RM3 IO COLLECTOR + 1750220330 RM3 IO TRAY: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>SV104969000H</t>
+  </si>
+  <si>
+    <t>NOWIP. 22/04/24. PARTE 49217353000A "ASSEMBLY PRINTER CARTRIDGE": SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 30/04/24. PARTE 1750188523 CCDM CHASIS + 1750154866 CCDM VALIDADOR CASH CHECK: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750188524 ALIGNMENT STATION 3 CCDM+ 1750101952 DISTANCE TRANSPORT VM3 DISPO</t>
+  </si>
+  <si>
+    <t>1750199517-25</t>
+  </si>
+  <si>
+    <t>1750195517-20</t>
+  </si>
+  <si>
+    <t>BANCO DE CORDOBA</t>
+  </si>
+  <si>
+    <t>NOWIP 22/04/2024. PARTE 1750222982	V4 SHUTTER LITE PC 280: SIN SALDO WN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 19/04/24. PARTE 1750248000 RM3 IO COLLECTOR + 1750220330 RM3 IO TRAY: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 22/04/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 22/04/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 19/04/24. PARTE 1750200435 VS MODUL: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 22/04/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR + 1750215294 V5 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>ETR. 10/05/24. PARTE 49208102003M AFD CCA DISPENSER: EN REPARACIÓN. ETR: 16/05/24. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 25/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 23/04/24. PARTE 1750214647 RM3 TRANSFER UNIT SAFE: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750134478        CENTRALIZATION UNIT UPPER PART CRS/ATS DISPONIBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 26/04/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 07/05/24. PARTE 1750302850 SET DE CÁMARAS: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 23/04/24. PARTE 1750188523 CCDM CHASIS + 1750177464 CCDM ESCROW: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 23/04/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 25/04/24. PARTE 1750220330 RM3 IO TRAY + 1750248000 RM3 IO COLLECTOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 23/04/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 24/04/24. PARTE 1750263341 RM3 TRANSPORT UNIT HEAD + 1750126457 RM3 REEL STORAGE + 1750173205 LECTORA V2CU STANDARD: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NUEVO BANCO DEL CHACO</t>
+  </si>
+  <si>
+    <t>STOCK 25/04/2024. FASCIA 280. A LA ESPERA DE REPARACION POR PARTE DE TECNOS (FRETES)</t>
+  </si>
+  <si>
+    <t>NOSP. 25/04/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>BANCO CIUDAD</t>
+  </si>
+  <si>
+    <t>SV221800000C</t>
+  </si>
+  <si>
+    <t>SUP. 10/5/24. PARTE "CABLE DE UPPER ALIGN". A LA ESPERA DE MAYOR ESPECIFICACION PARA SOLICITAR EL CABLE A RC. (ALEGRE)</t>
+  </si>
+  <si>
+    <t>NOSP. 29/04/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 03/05/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 25/04/24. PARTE 1750188523 CCDM CHASIS + 1750177464 CCDM ESCROW: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 23/04/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 24/04/24. PARTE 1750092824 DEPÓSITO DE SOBRES PROCASH: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 25/04/24. PARTE 1750346607 SHUTTER IO TRAY II: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 25/04/24. PARTE 1750100966 V4 SHUTTER VERTICAL RL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 10/05/24. PARTE 1750109659 V4 STACKER: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 25/04/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN.  --  "CLAMP 1750053977 DISPONIBLE". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 25/04/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 30/04/24. PARTE 1750109658 V4 STACKER S/SR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 25/04/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 25/04/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750101956	DISPENSER MODULE VM3 DISPONIBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 30/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750053977 CLAMP DISPONIBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 30/04/24. PARTE 1750214647 RM3 TRANSFER UNIT SAFE + 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN.  --  "PARTE 1750133348 TMHLP + 1750245555 TUH DISPONIBLES"</t>
+  </si>
+  <si>
+    <t>NOWIP. 06/05/24. PARTE S/N "ACRÍLICO DE FASCIA PC1500": SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 29/04/24. PARTE 1750193275 RM3 MAIN MODULE + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOSP. 29/04/24. PARTE 1750263341 RM3 TRANSPORT UNIT HEAD + 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750245555 transport unit head short path CRS/ATS+ </t>
+  </si>
+  <si>
+    <t>NOWIP. 30/04/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 29/04/24. PARTE 1750177464 CCDM ESCROW: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 30/04/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>1750173205-35</t>
+  </si>
+  <si>
+    <t>NOSP. 03/05/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 02/05/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 30/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>BIO. 29/04/2024 PENDIENTE POR BIOMETRICO (MAITLAND)</t>
+  </si>
+  <si>
+    <t>NOSP. 30/04/24. PARTE 1750193275 RM3 MAIN MODULE + 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 07/05/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR + 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>STOCK. 8/5/24. FASCIA 2100 CON JACK DE 3.5 A ESPERA DE DESARME (SORIANO)</t>
+  </si>
+  <si>
+    <t>NOSP. 02/05/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 30/04/24. PARTE 1750193275 RM3 MAIN MODULE : SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 30/04/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 03/05/24. PARTE 1750177464 CCDM ESCROW: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 02/05/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 30/04/24. PARTE 1750304916 "SHUTTER I-O TRAY NSL": SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>SUP. 30/4/24. A ESPERA DE CONFIRMACION DE TRABA NECESARIA (SORIANO)</t>
+  </si>
+  <si>
+    <t>NOSP. 08/05/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 03/05/24. PARTE 1750215294 V5 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 03/05/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>STOCK. 6/5/24. PARTE FASCIA 280. A ESPERA DE REPARACION DE TECNOS. (ALEGRE)</t>
+  </si>
+  <si>
+    <t>NOSP. 02/05/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 02/05/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>ETR. 06/05/24. PARTE 1750100966 V4 SHUTTER VERTICAL RL: EN REPARACIÓN. ETR: 13/05/24.  --  "PARTE 49202966X0CB BEZEL, MTZ CD RDR DISPONIBLE". (MINIACI)</t>
+  </si>
+  <si>
+    <t>49202966X0CB</t>
+  </si>
+  <si>
+    <t>NOWIP. 06/05/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 06/05/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>ETR. 09/05/24. PARTE 1750182347 PC 3G WINCOR: EN REPARACIÓN. ETR: 14/05/24. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 06/05/24. PARTE 1750261447 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 09/05/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>SUP. 09/05/2024 A ESPERA DE NUMERO DE PARTE (MAITLAND)</t>
+  </si>
+  <si>
+    <t>NOSP. 06/05/24. PARTE 1750109658  V4 STACKER S/SR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 03/05/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 07/05/24. PARTE 1750220000 RM3 IO COLLECTOR + 1750214647 RM3 TRANSFER UNIT SAFE: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750200541 DISTRIBUTOR MODULE DISPONBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 10/05/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN.  --  "PARTE 1750101956 VM3 DISPENSER MODULE + 1750154867 LINE XSA DISPONIBLES". (MINIACI)</t>
+  </si>
+  <si>
+    <t>SUP. 9/5/24. A ESPERA DE CONFIRMACION DE REPUESTO SOLICITADO (SORIANO)</t>
+  </si>
+  <si>
+    <t>NOSP. 06/05/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>49222644000A</t>
+  </si>
+  <si>
+    <t>ETR. 10/05/24. PARTE SV226262000D ENA TAPA DE GAVETAS: EN REPARACIÓN. ETR: 16/05/24.  --  "49222644000a VALIDATOR,TYPE B DISPONIBLE EN STOCK". (MINIACI)</t>
   </si>
   <si>
     <t>SV226262000D</t>
   </si>
   <si>
-    <t>NOWIP. 05/03/24. PARTE SV226262000D ENA TAPA DE GAVETAS: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>SV217424000F</t>
-  </si>
-  <si>
-    <t>NOSP. 20/03/24. PARTE SV219839000E ENA UDD: SIN SPARE PARTS PARA REPARACIÓN.  --  "SV217424000F        ASSY,ENA,CI,PACKAGED+ 49211436000A Transport 620mm lenght SRL DISPONIBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>SV219839000E</t>
-  </si>
-  <si>
-    <t>NOSP. 15/03/24. PARTE SV219839000E ENA UDD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 08/03/24. PARTE 1750183289 V5 STACKER: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>BANCO PIANO</t>
-  </si>
-  <si>
-    <t>STOCK. 03/04/2024 A ESPERA DE DESARME DE FRENTE FASCIA 720 FL + GUIAS PARA 720 FL (MAITLAND)</t>
-  </si>
-  <si>
-    <t>NOSP. 21/03/24. PARTE 1750215294 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>49220945000A</t>
-  </si>
-  <si>
-    <t>ETR. 09/05/24. PARTE SV221800000C ENA UPPER ALIGN: EN REPARACIÓN. ETR: 15/05/24. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 08/04/24. PARTE 1750193275 RM3 MAIN MODULE: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 14/03/24. PARTE 1750109658 V4 STACKER S/SR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>49225262000A</t>
-  </si>
-  <si>
-    <t>49208102000H</t>
-  </si>
-  <si>
-    <t>NOWIP. 19/03/24. PARTE 1750154145 TOUCH CONTROLLER + 1750105988 LECTORA V2X USB + 1750169942 MONITOR 15": SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 17/04/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 18/04/24. PARTE 1750215294 V5 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 08/04/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 08/04/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL + 1750214647 RM3 TRANSFER UNIT SAFE: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>CAJERO EXPRESS - LINK</t>
-  </si>
-  <si>
-    <t>NOWIP. 27/03/24. PARTE "MONITOR/TOUCH" N° DE PARTE SIN IDENTIFICACIÓN CORRECTA 1750350686 + 1750301986: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 27/03/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN  / "TRABA" 1750067867 SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 08/05/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL + 1750214647 RM3 TRANSFER UNIT SAFE + 1750263341 RM3 TRANSPORT UNIT ESCROW +</t>
-  </si>
-  <si>
-    <t>NOSP. 08/05/24. PARTE 1750249441 RM3 MOVE AWCA + 1750220022 RM3 IO COLLECTOR + 1750220000 RM3 IO TRAY + 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>BIO.26/3/2024 TICKET PENDIENTE POR BIOMETRICO (CORREA)</t>
-  </si>
-  <si>
-    <t>NOSP. 27/03/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>HASAR</t>
-  </si>
-  <si>
-    <t>NOWIP. 03/04/24. PARTE 1750222982 SHUTTER PC 280: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>49218289X0BB</t>
-  </si>
-  <si>
-    <t>NOWIP. 16/04/24. PARTE 49202967X0CC BOQUILLA DE LECTORA DIP: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>RIEL</t>
-  </si>
-  <si>
-    <t>NOSP. 23/04/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750101956 DISPENSER MODULE DISPONIBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 08/04/24. SE CORRIGE COMENTARIO ANTERIOR. PARTE 1750193275 RM3 MAIN MODULE: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 24/04/24. PARTE 1750248000 RM3 IO COLLECTOR + 1750220330 RM3 IO TRAY + 1750193275 RM3 MAIN MODULE: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 15/04/24. PARTE 1750188523 CCDM CHASIS + 1750263341 RM3 TRANSPORT UNIT HEAD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 10/04/24. PARTE 1750109659 V4 STACKER + 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN.  --  "PARTE 1750100966 CMD V4 SHUTTER VERTIKAL RL STRIP" (SIC STOCK SIN INDICAR CONDICIÓN). (</t>
-  </si>
-  <si>
-    <t>NOWIP. 08/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 08/04/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 02/05/24. PARTE 1750193275 RM3 MAIN MODULE: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 09/04/24. PARTE 1750215294 V5 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 10/04/24. SE CORRIGE COMENTARIO ANTERIOR. PARTE 1750214647 RM3 TRANSFER UNIT SAFE + 1750140781 RM3 HEAD CONTROLLER: SIN SALDO EN WIP.  --  "1750212682         REEL STORAGE BOX DISPONIBLE EN STO</t>
-  </si>
-  <si>
-    <t>NOSP. 15/04/24. PARTE 1750126457 RM3 REEL STORAGE + 1750196174 RM3 MASTERCONTROLLER: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 10/04/24. PARTE 1750215295 V5 EXTRACTOR INFERIOR + 1750215294 V5 EXTRACTOR INFERIOR: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>49257458000B</t>
-  </si>
-  <si>
-    <t>NOSP. 16/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 10/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 22/04/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 15/04/24. PARTE 1750222982 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 19/04/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 16/04/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 11/04/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 16/04/24. PARTE 1750183289 V5 STACKER: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750053977 CLAMP DISPONIBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 15/04/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 15/04/24. PARTE 1750193275 RM3 MAIN MODULE: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 19/04/24. PARTE 1750193275 RM3 MAIN MODULE: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 15/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>BIO. 18/4/24. PENDIENTE POR BIOMETRICO (SORIANO)</t>
-  </si>
-  <si>
-    <t>NOSP. 17/04/24. PARTE 1750248000 RM3 IO COLLECTOR + 1750220330 RM3 IO TRAY: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 16/04/24. PARTE 1750248000 RM3 IO COLLECTOR + 1750220330 RM3 IO TRAY: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>49204013000E</t>
-  </si>
-  <si>
-    <t>BANCO CREDICOOP</t>
-  </si>
-  <si>
-    <t>NOWIP. 17/04/24. PARTE 49254690000N AFD 2.0 STACKER: SIN SALDO WN WIP.  --  "ARTE 1750304622 CHD-mot ICT3H5-3AD2792 SecPac2 DISPONIBLE". (MINIACI)</t>
-  </si>
-  <si>
-    <t>49254690000N</t>
-  </si>
-  <si>
-    <t>NOSP. 02/05/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 18/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 16/04/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 16/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SALDO EN WIP.  --  "1750200541        Distributor Module CRS DISPONIBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 26/04/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 25/04/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 17/04/24. PARTE 1750214647 RM3 TRANSFER UNIT SAFE: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750200541 DISTRIBUTOR MODULE CRS DISPONIBLEN STOCK ". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 24/04/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 22/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 23/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 18/04/24. PARTE 1750248000 RM3 IO COLLECTOR + 1750220330 RM3 IO TRAY: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 02/05/24. PARTE 1750134478 RM3 CCU + 1750263341 RM3 TRANSPORT UNIT HEAD ESCROW: SIN SALDO EN WIP.  --  "1750200541 Distributor Module CRS+ 1750245555 transport unit head short path CRS/ATS DISP</t>
-  </si>
-  <si>
-    <t>NOSP. 18/04/24. PARTE 1750248000 RM3 IO COLLECTOR + 1750220330 RM3 IO TRAY: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>SV104969000H</t>
-  </si>
-  <si>
-    <t>NOWIP. 22/04/24. PARTE 49217353000A "ASSEMBLY PRINTER CARTRIDGE": SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 30/04/24. PARTE 1750188523 CCDM CHASIS + 1750154866 CCDM VALIDADOR CASH CHECK: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750188524 ALIGNMENT STATION 3 CCDM+ 1750101952 DISTANCE TRANSPORT VM3 DISPO</t>
-  </si>
-  <si>
-    <t>1750199517-25</t>
-  </si>
-  <si>
-    <t>1750195517-20</t>
-  </si>
-  <si>
-    <t>NOWIP. 19/04/24. PARTE 1750248000 RM3 IO COLLECTOR + 1750220330 RM3 IO TRAY: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 22/04/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 22/04/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 19/04/24. PARTE 1750200435 VS MODUL: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 22/04/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR + 1750215294 V5 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 25/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 23/04/24. PARTE 1750214647 RM3 TRANSFER UNIT SAFE: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750134478        CENTRALIZATION UNIT UPPER PART CRS/ATS DISPONIBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 26/04/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 07/05/24. PARTE 1750302850 SET DE CÁMARAS: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 23/04/24. PARTE 1750188523 CCDM CHASIS + 1750177464 CCDM ESCROW: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 29/04/24. PARTE 1750177464 CCDM ESCROW: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 23/04/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 25/04/24. PARTE 1750220330 RM3 IO TRAY + 1750248000 RM3 IO COLLECTOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 23/04/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 24/04/24. PARTE 1750263341 RM3 TRANSPORT UNIT HEAD + 1750126457 RM3 REEL STORAGE + 1750173205 LECTORA V2CU STANDARD: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NUEVO BANCO DEL CHACO</t>
-  </si>
-  <si>
-    <t>STOCK 25/04/2024. FASCIA 280. A LA ESPERA DE REPARACION POR PARTE DE TECNOS (FRETES)</t>
-  </si>
-  <si>
-    <t>NOSP. 25/04/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 29/04/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 03/05/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 25/04/24. PARTE 1750188523 CCDM CHASIS + 1750177464 CCDM ESCROW: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 23/04/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 24/04/24. PARTE 1750092824 DEPÓSITO DE SOBRES PROCASH: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>BANCO DE CORDOBA</t>
-  </si>
-  <si>
-    <t>NOWIP. 25/04/24. PARTE 1750346607 SHUTTER IO TRAY II: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>CBA.RC.24/4/24. PARTE 1750222982	SHUTTER LITE DC MOTOR ASSY RL:EN ESPERA DE REPARACIÓN. ETA:30/4/24 (JIMENEZ)</t>
-  </si>
-  <si>
-    <t>NOSP. 25/04/24. PARTE 1750100966 V4 SHUTTER VERTICAL RL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 25/04/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN.  --  "CLAMP 1750053977 DISPONIBLE". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 25/04/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 30/04/24. PARTE 1750109658 V4 STACKER S/SR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 25/04/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 25/04/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750101956	DISPENSER MODULE VM3 DISPONIBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 30/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 30/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750053977 CLAMP DISPONIBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 30/04/24. PARTE 1750214647 RM3 TRANSFER UNIT SAFE + 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN.  --  "PARTE 1750133348 TMHLP + 1750245555 TUH DISPONIBLES"</t>
-  </si>
-  <si>
-    <t>NOWIP. 06/05/24. PARTE S/N "ACRÍLICO DE FASCIA PC1500": SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 29/04/24. PARTE 1750193275 RM3 MAIN MODULE + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOSP. 29/04/24. PARTE 1750263341 RM3 TRANSPORT UNIT HEAD + 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750245555 transport unit head short path CRS/ATS+ </t>
-  </si>
-  <si>
-    <t>NOSP. 29/04/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750234950 EPP V7 ESP South America ST DISPONIBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 30/04/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 30/04/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>1750173205-35</t>
-  </si>
-  <si>
-    <t>NOSP. 03/05/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 02/05/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 03/05/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 30/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 29/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>BIO. 29/04/2024 PENDIENTE POR BIOMETRICO (MAITLAND)</t>
-  </si>
-  <si>
-    <t>NOSP. 30/04/24. PARTE 1750193275 RM3 MAIN MODULE + 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 07/05/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR + 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>STOCK. 8/5/24. FASCIA 2100 CON JACK DE 3.5 A ESPERA DE DESARME (SORIANO)</t>
-  </si>
-  <si>
-    <t>NOSP. 02/05/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 30/04/24. PARTE 1750193275 RM3 MAIN MODULE : SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 30/04/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 03/05/24. PARTE 1750177464 CCDM ESCROW: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 02/05/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 30/04/24. PARTE 1750304916 "SHUTTER I-O TRAY NSL": SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>SUP. 30/4/24. A ESPERA DE CONFIRMACION DE TRABA NECESARIA (SORIANO)</t>
-  </si>
-  <si>
-    <t>ETR. 06/05/24. PARTE 1750155446 CCDM AMPLIFIER: EN REPARACIÓN. ETR: 13/05/24.  --  "1750055614 FLAT CABLE FOR CCDM DISPONIBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 08/05/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 02/05/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 03/05/24. PARTE 1750215294 V5 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 03/05/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>STOCK 09/05/2024. PARTE PIEZA PROVISTAS POR RC. DISPONIBLE PARA DESPACHO (FRETES)</t>
-  </si>
-  <si>
-    <t>STOCK. 6/5/24. PARTE FASCIA 280. A ESPERA DE REPARACION DE TECNOS. (ALEGRE)</t>
-  </si>
-  <si>
-    <t>NOSP. 02/05/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>ETR. 06/05/24. PARTE 1750100966 V4 SHUTTER VERTICAL RL: EN REPARACIÓN. ETR: 13/05/24.  --  "PARTE 49202966X0CB BEZEL, MTZ CD RDR DISPONIBLE". (MINIACI)</t>
-  </si>
-  <si>
-    <t>49202966X0CB</t>
-  </si>
-  <si>
-    <t>NOWIP. 06/05/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 06/05/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>ETR. 09/05/24. PARTE 1750182347 PC 3G WINCOR: EN REPARACIÓN. ETR: 14/05/24. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 06/05/24. PARTE 1750261447 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 09/05/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>SUP. 09/05/2024 A ESPERA DE NUMERO DE PARTE (MAITLAND)</t>
-  </si>
-  <si>
-    <t>NOSP. 06/05/24. PARTE 1750109658  V4 STACKER S/SR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 07/05/24. PARTE 1750220000 RM3 IO COLLECTOR + 1750214647 RM3 TRANSFER UNIT SAFE: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750200541 DISTRIBUTOR MODULE DISPONBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>SUP. 9/5/24. A ESPERA DE CONFIRMACION DE REPUESTO SOLICITADO (SORIANO)</t>
+    <t>NOSP. 03/05/24. PARTE 1750105988 LECTORA V2X USB + 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 06/05/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>49233126000A</t>
+  </si>
+  <si>
+    <t>NOWIP. 08/05/24. PARTE 1750100965 V4 SHUTTER FL VERTICAL: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 08/05/24. PARTE 1750215294 V5 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 08/05/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 08/05/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 09/05/24. PARTE 1750109659 V4 STACKER: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>49212868000D</t>
+  </si>
+  <si>
+    <t>NOWIP. 07/05/24. SE CORRIGE COMENTARIO ANTERIOR. PARTE 49212868000D CERRADURA DE FASCIA OPTEVA 868: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>SUP. 8/5/24. SE SOLICITA UN SHUTTER PERO EN LA AUDITORIA INDICA OTRA COSA. (SORIANO)</t>
+  </si>
+  <si>
+    <t>NOSP. 08/05/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 07/05/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 07/05/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>CBA.DISP.10/05/24. PARTE 1750109659 CMD-V4 STACKER MODUL W. SR VERT.+1750105679 CMD CONTROLLER II USB ASSD WITH COVER: DISPONIBLE EN COORDINACIÓN PARA DESPACHO. (JIMENEZ)</t>
+  </si>
+  <si>
+    <t>NOSP. 09/05/24. PARTE 1750193275 RM3 MAIN MODULE: SIN SPARE PARTS PARA REPARACIÓN.  --  "PARTE 1750200541 DISTRIBUTOR MODULE + 1750289153 CENTRALIZATION UPER UNIT DISPONIBLE". (MINIACI)</t>
+  </si>
+  <si>
+    <t>STOCK 09/05/2024. PARTE RIEL DEL HEAD. VER DESARME (FRETES)</t>
+  </si>
+  <si>
+    <t>NOSP. 07/05/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 08/05/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 07/05/24. PARTE 1750092824 DEPOSITO DE SOBRES PROCASH: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 08/05/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR + 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 07/05/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750188524 ALIGNMENT STATION 3 CCDM DISPONIBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 07/05/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 08/05/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 08/05/24. PARTE 1750222982 V4 SHUTTER LITE: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 08/05/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN.  --  "CLAMP 1750053977 DISPONIBLE". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 08/05/24. PARTE 1750177464 CCDM ESCROW: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750101956 dispenser module VM3 DISPONIBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 08/05/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR + 1750109641 V4 EXTRACTOR SUPERIOR + 1750109659 V4 STACKER: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 08/05/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 08/05/24. PARTE 1750220330 RM3 IO TRAY + 1750248000 RM3 IO COLLECTOR: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750143750 SHUTTER I/O TRAY DISPONIBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 09/05/24. SE CORRIGE COMENTARIO ANTERIOR. PARTE 1750109658 STACKER: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
     <t>FPCS0001</t>
   </si>
   <si>
-    <t>STOCK 08/05/2024. PARTE DS DISCO SATA. DISPONIBLE PARA DESPACHO (FRETES)</t>
-  </si>
-  <si>
-    <t>NOSP. 06/05/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>49222644000A</t>
-  </si>
-  <si>
-    <t>NOSP. 03/05/24. PARTE 1750105988 LECTORA V2X USB + 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>STOCK.8/5/2024. 
-GUIA 044 30402842 CONFIRMADO.REPUESTO EN ZONA.
-Ya está disponible (CORREA)</t>
-  </si>
-  <si>
-    <t>NOWIP. 08/05/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 06/05/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 08/05/24. PARTE 1750100965 V4 SHUTTER FL VERTICAL: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 08/05/24. PARTE 1750215294 V5 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 08/05/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 08/05/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 09/05/24. PARTE 1750109659 V4 STACKER: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>49212868000D</t>
-  </si>
-  <si>
-    <t>NOWIP. 07/05/24. SE CORRIGE COMENTARIO ANTERIOR. PARTE 49212868000D CERRADURA DE FASCIA OPTEVA 868: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>SUP. 8/5/24. SE SOLICITA UN SHUTTER PERO EN LA AUDITORIA INDICA OTRA COSA. (SORIANO)</t>
-  </si>
-  <si>
-    <t>NOSP. 08/05/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 07/05/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 07/05/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>49208102000F</t>
-  </si>
-  <si>
-    <t>ETR. 09/05/24. PARTE 49208102003M AFD CCA DISPENSER: EN REPARACIÓN. ETR: 13/05/24.  --  "PARTE 49211433000A AFD STACKER DISPONIBLE". (MINIACI)</t>
-  </si>
-  <si>
-    <t>49211433000A</t>
-  </si>
-  <si>
-    <t>NOSP. 08/05/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR + 1750109641  V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750256247 RECEIPT PRINTER TP27 DISPONIBLE EN STOCK ". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 09/05/24. PARTE 1750193275 RM3 MAIN MODULE: SIN SPARE PARTS PARA REPARACIÓN.  --  "PARTE 1750200541 DISTRIBUTOR MODULE + 1750289153 CENTRALIZATION UPER UNIT DISPONIBLE". (MINIACI)</t>
-  </si>
-  <si>
-    <t>STOCK 09/05/2024. PARTE RIEL DEL HEAD. VER DESARME (FRETES)</t>
-  </si>
-  <si>
-    <t>ETR. 08/05/24. PARTE 1750154866 CCDM VALIDADOR CASH CHECK: EN REPARACIÓN. ETR: 13/05/24.  --  "1750101956 DISPENSER MODULE VM3 DISPONIBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 07/05/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 08/05/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 07/05/24. PARTE 1750092824 DEPOSITO DE SOBRES PROCASH: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 08/05/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR + 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 07/05/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750188524 ALIGNMENT STATION 3 CCDM DISPONIBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 07/05/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 08/05/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 07/05/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>BANCO CIUDAD</t>
-  </si>
-  <si>
-    <t>NOSP. 08/05/24. PARTE 1750109659 V4 STACKER: SIN SPARE PARTS PARA REPARACIÓN.  --  "PLACA CCA 1750105679 DISPONIBLE". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 08/05/24. PARTE 1750222982 V4 SHUTTER LITE: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 08/05/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN.  --  "CLAMP 1750053977 DISPONIBLE". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 08/05/24. PARTE 1750177464 CCDM ESCROW: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750101956 dispenser module VM3 DISPONIBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 08/05/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR + 1750109641 V4 EXTRACTOR SUPERIOR + 1750109659 V4 STACKER: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 08/05/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 08/05/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN.  --  "PARTE 1750053977 V4 CLAMP DISPONIBLE". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 08/05/24. PARTE 1750177464 CCDM ESCROW: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 08/05/24. PARTE 1750220330 RM3 IO TRAY + 1750248000 RM3 IO COLLECTOR: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750143750 SHUTTER I/O TRAY DISPONIBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 09/05/24. SE CORRIGE COMENTARIO ANTERIOR. PARTE 1750109658 STACKER: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+    <t>ETR. 10/05/24. PARTE FPCS0001 FUENTE PC: EN REPARACIÓN. ETR: 14/05/24.  --  "DS DISCO SOLIDO. DISPONIBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 10/05/24. PARTE 1750193275 RM3 MAIN MODULE: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
     <t>NOSP. 08/05/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
+    <t>BANCO DE LA PAMPA</t>
+  </si>
+  <si>
+    <t>RC.13/5/2024 1750291701	ESC Reel Storage EN ESPERA DE REPARACION (CORREA)</t>
+  </si>
+  <si>
+    <t>NOSP. 10/05/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
     <t>NOSP. 09/05/24. PARTE 1750249441 RM3 MOVE AWCA + 1750220000 RM3 IO TRAY: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
     <t>NOSP. 09/05/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750101956 DISPENSER MODULE VM3 DISPONIBLE EN STOCK". (MINIACI)</t>
   </si>
   <si>
-    <t>MACRO</t>
-  </si>
-  <si>
-    <t>STOCK. 8/5/24. IOT/IOC RM4 1750288271,1750295447 DISPONIBLE EN EXPEDICION (SORIANO)</t>
-  </si>
-  <si>
     <t>NOSP. 08/05/24. PARTE 1750109659 V4 STACKER + 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
-    <t>ETR. 08/05/24. PARTE 1750288271 RM4 IO TRAY + 1750295447 RM4 IO COLLECTOR: EN REPARACIÓN. ETR: 10/05/24. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 08/05/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 09/05/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>49207984000C</t>
+    <t>NOSP. 10/05/24. SE CORRIGE COMENTARIO ANTERIOR. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
     <t>NOSP. 09/05/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
@@ -906,28 +856,52 @@
     <t>ETR. 09/05/24. PARTE 1750100966 V4 SHUTTER RL VERTICAL: EN REPARACIÓN. ETR: 13/05/24. (MINIACI)</t>
   </si>
   <si>
+    <t>NOSP. 10/05/24. PARTE 1750092824 DEPÓSITO DE SOBRES PROCASH: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
     <t>NOSP. 09/05/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
+    <t>NOSP. 10/05/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
     <t>NOSP. 09/05/24. PARTE 1750177464 CCDM ESCROW: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
+    <t>ETR. 10/05/24. PARTE 1750053977 V4 CLAMP: EN REPARACIÓN. ETR: 16/05/24. (MINIACI)</t>
+  </si>
+  <si>
     <t>NOSP. 09/05/24. PARTE 1750126457 RM3 REEL STORAGE: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
-    <t>ETR. 09/05/24. PARTE 1750055175 CCDM DEPOSIT TRANSPORT: EN REPARACIÓN. ETR: 16/05/24. (MINIACI)</t>
-  </si>
-  <si>
-    <t>ETR. 09/05/24. PARTE 49208102003M AFD CCA DISPENSER: EN REPARACIÓN. ETR: 16/05/24. (MINIACI)</t>
+    <t>NOSP. 10/05/24. PARTE 1750177464 CCDM ESCROW: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>OKETR. 10/05/24. PARTE 1750055175 CCDM DEPOSIT TRANSPORT: REPARADO. EN FGI PARA TRANSFERIR A STOCK. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 10/05/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 10/05/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>CBA.DISP.10/05/24. PARTE 1750109659 CMD-V4 STACKER MODUL W. SR VERT.: DISPONIBLE EN COORDINACIÓN PARA DESPACHO. (JIMENEZ)</t>
+  </si>
+  <si>
+    <t>RC. 10/05/2024 PARTE 1750200435 VS MODULE A ESPERA DE REPARACION (MAITLAND)</t>
+  </si>
+  <si>
+    <t>NOWIP. 10/05/24. PARTE 1750189650 V5 STACKER S/SR + 1750177464 CCDM ESCROW: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>ACRÍLICO</t>
   </si>
   <si>
     <t>SUP</t>
   </si>
   <si>
-    <t>FASCIA 720 FL</t>
-  </si>
-  <si>
-    <t>ACRÍLICO</t>
+    <t xml:space="preserve"> FASCIA 720 FL</t>
   </si>
 </sst>
 </file>
@@ -1291,15 +1265,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D470"/>
+  <dimension ref="A1:D460"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="100.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1467,7 +1444,7 @@
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1481,7 +1458,7 @@
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1495,7 +1472,7 @@
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1509,7 +1486,7 @@
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1523,7 +1500,7 @@
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1537,7 +1514,7 @@
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1551,7 +1528,7 @@
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1565,7 +1542,7 @@
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1579,7 +1556,7 @@
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1593,7 +1570,7 @@
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1607,7 +1584,7 @@
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1621,7 +1598,7 @@
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1635,7 +1612,7 @@
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1649,7 +1626,7 @@
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1663,7 +1640,7 @@
         <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1674,10 +1651,10 @@
         <v>7416791</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1691,7 +1668,7 @@
         <v>1750154145</v>
       </c>
       <c r="D28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1702,10 +1679,10 @@
         <v>7430555</v>
       </c>
       <c r="C29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" t="s">
         <v>35</v>
-      </c>
-      <c r="D29" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1719,7 +1696,7 @@
         <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1733,12 +1710,12 @@
         <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32">
         <v>7431896</v>
@@ -1747,7 +1724,7 @@
         <v>5</v>
       </c>
       <c r="D32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1761,7 +1738,7 @@
         <v>5</v>
       </c>
       <c r="D33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1775,40 +1752,40 @@
         <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>7608630</v>
       </c>
       <c r="C35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" t="s">
         <v>42</v>
-      </c>
-      <c r="D35" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B36">
         <v>7633149</v>
       </c>
       <c r="C36" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="D36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>7659156</v>
@@ -1817,12 +1794,12 @@
         <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38">
         <v>7662785</v>
@@ -1831,12 +1808,12 @@
         <v>1750173205</v>
       </c>
       <c r="D38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B39">
         <v>7662785</v>
@@ -1845,12 +1822,12 @@
         <v>1750222982</v>
       </c>
       <c r="D39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B40">
         <v>7662785</v>
@@ -1859,12 +1836,12 @@
         <v>1750062675</v>
       </c>
       <c r="D40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41">
         <v>7662785</v>
@@ -1873,12 +1850,12 @@
         <v>1750190038</v>
       </c>
       <c r="D41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>7662785</v>
@@ -1887,12 +1864,12 @@
         <v>1750130744</v>
       </c>
       <c r="D42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B43">
         <v>7662785</v>
@@ -1901,12 +1878,12 @@
         <v>1750059284</v>
       </c>
       <c r="D43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B44">
         <v>7662785</v>
@@ -1915,12 +1892,12 @@
         <v>1750159523</v>
       </c>
       <c r="D44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B45">
         <v>7662785</v>
@@ -1929,26 +1906,26 @@
         <v>1750187952</v>
       </c>
       <c r="D45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B46">
         <v>7695366</v>
       </c>
       <c r="C46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B47">
         <v>7695366</v>
@@ -1957,82 +1934,82 @@
         <v>5</v>
       </c>
       <c r="D47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48">
         <v>7716199</v>
       </c>
       <c r="C48" s="2">
-        <v>1750105679</v>
+        <v>1750130600</v>
       </c>
       <c r="D48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>7716199</v>
       </c>
-      <c r="C49" t="s">
-        <v>42</v>
+      <c r="C49" s="2">
+        <v>1750109615</v>
       </c>
       <c r="D49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B50">
         <v>7716199</v>
       </c>
       <c r="C50" s="2">
-        <v>1750206350</v>
+        <v>1750109641</v>
       </c>
       <c r="D50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B51">
         <v>7716199</v>
       </c>
       <c r="C51" s="2">
-        <v>1750109615</v>
+        <v>1750105679</v>
       </c>
       <c r="D51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B52">
         <v>7716199</v>
       </c>
       <c r="C52" s="2">
-        <v>1750044668</v>
+        <v>1750206350</v>
       </c>
       <c r="D52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B53">
         <v>7733518</v>
@@ -2041,12 +2018,12 @@
         <v>1750053977</v>
       </c>
       <c r="D53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B54">
         <v>7733518</v>
@@ -2055,12 +2032,12 @@
         <v>1750105988</v>
       </c>
       <c r="D54" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B55">
         <v>7733518</v>
@@ -2069,12 +2046,12 @@
         <v>1750109615</v>
       </c>
       <c r="D55" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B56">
         <v>7733518</v>
@@ -2083,40 +2060,40 @@
         <v>1750109641</v>
       </c>
       <c r="D56" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B57">
         <v>7733518</v>
       </c>
       <c r="C57" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D57" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B58">
         <v>7733518</v>
       </c>
       <c r="C58" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D58" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B59">
         <v>7733518</v>
@@ -2125,12 +2102,12 @@
         <v>1750169942</v>
       </c>
       <c r="D59" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B60">
         <v>7738379</v>
@@ -2139,12 +2116,12 @@
         <v>1750041251</v>
       </c>
       <c r="D60" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B61">
         <v>7738379</v>
@@ -2153,12 +2130,12 @@
         <v>1750035762</v>
       </c>
       <c r="D61" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B62">
         <v>7738379</v>
@@ -2167,7 +2144,7 @@
         <v>1750157444</v>
       </c>
       <c r="D62" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -2178,10 +2155,10 @@
         <v>7771880</v>
       </c>
       <c r="C63" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D63" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -2192,29 +2169,29 @@
         <v>7771880</v>
       </c>
       <c r="C64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D64" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B65">
         <v>7774323</v>
       </c>
       <c r="C65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D65" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B66">
         <v>7774323</v>
@@ -2223,12 +2200,12 @@
         <v>5</v>
       </c>
       <c r="D66" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B67">
         <v>7792335</v>
@@ -2237,12 +2214,12 @@
         <v>1750289153</v>
       </c>
       <c r="D67" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B68">
         <v>7797143</v>
@@ -2251,12 +2228,12 @@
         <v>1750177464</v>
       </c>
       <c r="D68" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B69">
         <v>7800803</v>
@@ -2265,12 +2242,12 @@
         <v>1750109615</v>
       </c>
       <c r="D69" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B70">
         <v>7802611</v>
@@ -2279,12 +2256,12 @@
         <v>1750053977</v>
       </c>
       <c r="D70" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B71">
         <v>7802993</v>
@@ -2293,12 +2270,12 @@
         <v>5</v>
       </c>
       <c r="D71" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B72">
         <v>7803005</v>
@@ -2307,12 +2284,12 @@
         <v>5</v>
       </c>
       <c r="D72" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B73">
         <v>7803677</v>
@@ -2321,12 +2298,12 @@
         <v>1750109658</v>
       </c>
       <c r="D73" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B74">
         <v>7803677</v>
@@ -2335,12 +2312,12 @@
         <v>1750109615</v>
       </c>
       <c r="D74" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B75">
         <v>7806399</v>
@@ -2349,26 +2326,26 @@
         <v>1750110043</v>
       </c>
       <c r="D75" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B76">
         <v>7806538</v>
       </c>
       <c r="C76" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D76" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B77">
         <v>7808461</v>
@@ -2377,12 +2354,12 @@
         <v>1750109659</v>
       </c>
       <c r="D77" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B78">
         <v>7814392</v>
@@ -2391,12 +2368,12 @@
         <v>1750189650</v>
       </c>
       <c r="D78" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B79">
         <v>7814392</v>
@@ -2405,494 +2382,494 @@
         <v>1750215295</v>
       </c>
       <c r="D79" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="B80">
-        <v>7814892</v>
+        <v>7817629</v>
       </c>
       <c r="C80" s="2">
-        <v>1750046741</v>
+        <v>1750053977</v>
       </c>
       <c r="D80" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="B81">
-        <v>7814892</v>
+        <v>7817670</v>
       </c>
       <c r="C81" s="2">
-        <v>1750044668</v>
+        <v>1750109615</v>
       </c>
       <c r="D81" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B82">
-        <v>7817629</v>
-      </c>
-      <c r="C82" s="2">
-        <v>1750053977</v>
+        <v>7820507</v>
+      </c>
+      <c r="C82" t="s">
+        <v>60</v>
       </c>
       <c r="D82" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B83">
-        <v>7817670</v>
+        <v>7820527</v>
       </c>
       <c r="C83" s="2">
-        <v>1750109615</v>
+        <v>1750344858</v>
       </c>
       <c r="D83" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B84">
-        <v>7820507</v>
-      </c>
-      <c r="C84" t="s">
-        <v>63</v>
+        <v>7822042</v>
+      </c>
+      <c r="C84" s="2">
+        <v>1750159971</v>
       </c>
       <c r="D84" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="B85">
-        <v>7820527</v>
-      </c>
-      <c r="C85" s="2">
-        <v>1750344858</v>
+        <v>7823382</v>
+      </c>
+      <c r="C85" t="s">
+        <v>41</v>
       </c>
       <c r="D85" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B86">
-        <v>7822042</v>
-      </c>
-      <c r="C86" s="2">
-        <v>1750159971</v>
+        <v>7824357</v>
+      </c>
+      <c r="C86" t="s">
+        <v>62</v>
       </c>
       <c r="D86" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="B87">
-        <v>7823382</v>
-      </c>
-      <c r="C87" t="s">
-        <v>42</v>
+        <v>7824386</v>
+      </c>
+      <c r="C87" s="2">
+        <v>1750053977</v>
       </c>
       <c r="D87" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B88">
-        <v>7824357</v>
-      </c>
-      <c r="C88" t="s">
-        <v>65</v>
+        <v>7832871</v>
+      </c>
+      <c r="C88" s="2">
+        <v>1750105988</v>
       </c>
       <c r="D88" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B89">
-        <v>7824386</v>
-      </c>
-      <c r="C89" s="2">
-        <v>1750053977</v>
+        <v>7833234</v>
+      </c>
+      <c r="C89" t="s">
+        <v>63</v>
       </c>
       <c r="D89" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="B90">
-        <v>7832871</v>
+        <v>7833667</v>
       </c>
       <c r="C90" s="2">
-        <v>1750105988</v>
+        <v>1750215295</v>
       </c>
       <c r="D90" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B91">
-        <v>7833234</v>
-      </c>
-      <c r="C91" t="s">
-        <v>66</v>
+        <v>7833667</v>
+      </c>
+      <c r="C91" s="2">
+        <v>1750110044</v>
       </c>
       <c r="D91" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B92">
-        <v>7833667</v>
-      </c>
-      <c r="C92" s="2">
-        <v>1750215295</v>
+        <v>7846573</v>
+      </c>
+      <c r="C92" t="s">
+        <v>66</v>
       </c>
       <c r="D92" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B93">
-        <v>7833667</v>
+        <v>7846685</v>
       </c>
       <c r="C93" s="2">
-        <v>1750110044</v>
+        <v>1750101956</v>
       </c>
       <c r="D93" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="B94">
-        <v>7846573</v>
-      </c>
-      <c r="C94" t="s">
-        <v>69</v>
+        <v>7848212</v>
+      </c>
+      <c r="C94" s="2">
+        <v>1750204435</v>
       </c>
       <c r="D94" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B95">
-        <v>7846685</v>
+        <v>7850263</v>
       </c>
       <c r="C95" s="2">
-        <v>1750101956</v>
+        <v>1750053977</v>
       </c>
       <c r="D95" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B96">
-        <v>7848212</v>
+        <v>7858514</v>
       </c>
       <c r="C96" s="2">
-        <v>1750204435</v>
+        <v>1750193275</v>
       </c>
       <c r="D96" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B97">
-        <v>7850263</v>
+        <v>7858514</v>
       </c>
       <c r="C97" s="2">
-        <v>1750053977</v>
+        <v>1750133348</v>
       </c>
       <c r="D97" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B98">
-        <v>7858514</v>
+        <v>7858757</v>
       </c>
       <c r="C98" s="2">
-        <v>1750193275</v>
+        <v>1750199149</v>
       </c>
       <c r="D98" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B99">
-        <v>7858514</v>
-      </c>
-      <c r="C99" s="2">
-        <v>1750133348</v>
+        <v>7859082</v>
+      </c>
+      <c r="C99" t="s">
+        <v>69</v>
       </c>
       <c r="D99" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B100">
-        <v>7858757</v>
+        <v>7859726</v>
       </c>
       <c r="C100" s="2">
-        <v>1750199149</v>
+        <v>1750222982</v>
       </c>
       <c r="D100" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B101">
-        <v>7859082</v>
-      </c>
-      <c r="C101" t="s">
-        <v>72</v>
+        <v>7867214</v>
+      </c>
+      <c r="C101" s="2">
+        <v>1750256247</v>
       </c>
       <c r="D101" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B102">
-        <v>7859146</v>
-      </c>
-      <c r="C102" s="2">
-        <v>1750044878</v>
+        <v>7871860</v>
+      </c>
+      <c r="C102" t="s">
+        <v>71</v>
       </c>
       <c r="D102" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B103">
-        <v>7859146</v>
-      </c>
-      <c r="C103" s="2">
-        <v>1750105679</v>
+        <v>7871860</v>
+      </c>
+      <c r="C103" t="s">
+        <v>73</v>
       </c>
       <c r="D103" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B104">
-        <v>7859726</v>
-      </c>
-      <c r="C104" s="2">
-        <v>1750222982</v>
+        <v>7871860</v>
+      </c>
+      <c r="C104" t="s">
+        <v>66</v>
       </c>
       <c r="D104" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B105">
-        <v>7867214</v>
+        <v>7873878</v>
       </c>
       <c r="C105" s="2">
-        <v>1750256247</v>
+        <v>1750105679</v>
       </c>
       <c r="D105" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B106">
-        <v>7867607</v>
-      </c>
-      <c r="C106" t="s">
-        <v>75</v>
+        <v>7873878</v>
+      </c>
+      <c r="C106" s="2">
+        <v>1750109658</v>
       </c>
       <c r="D106" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B107">
-        <v>7871860</v>
-      </c>
-      <c r="C107" t="s">
-        <v>77</v>
+        <v>7878427</v>
+      </c>
+      <c r="C107" s="2">
+        <v>1750214647</v>
       </c>
       <c r="D107" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B108">
-        <v>7871860</v>
-      </c>
-      <c r="C108" t="s">
-        <v>79</v>
+        <v>7884952</v>
+      </c>
+      <c r="C108" s="2">
+        <v>1750053977</v>
       </c>
       <c r="D108" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B109">
-        <v>7871860</v>
-      </c>
-      <c r="C109" t="s">
-        <v>69</v>
+        <v>7885866</v>
+      </c>
+      <c r="C109" s="2">
+        <v>1750189650</v>
       </c>
       <c r="D109" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="B110">
-        <v>7873878</v>
-      </c>
-      <c r="C110" s="2">
-        <v>1750105679</v>
+        <v>7888819</v>
+      </c>
+      <c r="C110" t="s">
+        <v>292</v>
       </c>
       <c r="D110" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B111">
-        <v>7873878</v>
+        <v>7890266</v>
       </c>
       <c r="C111" s="2">
-        <v>1750109658</v>
+        <v>1750215294</v>
       </c>
       <c r="D111" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B112">
-        <v>7878427</v>
+        <v>7894613</v>
       </c>
       <c r="C112" s="2">
-        <v>1750214647</v>
+        <v>1750261447</v>
       </c>
       <c r="D112" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B113">
-        <v>7884952</v>
-      </c>
-      <c r="C113" s="2">
-        <v>1750053977</v>
+        <v>7897120</v>
+      </c>
+      <c r="C113" t="s">
+        <v>78</v>
       </c>
       <c r="D113" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B114">
-        <v>7885396</v>
-      </c>
-      <c r="C114" t="s">
-        <v>79</v>
+        <v>7897299</v>
+      </c>
+      <c r="C114">
+        <v>1750193275</v>
       </c>
       <c r="D114" t="s">
         <v>80</v>
@@ -2900,1696 +2877,1696 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B115">
-        <v>7885866</v>
+        <v>7897869</v>
       </c>
       <c r="C115" s="2">
-        <v>1750189650</v>
+        <v>1750261447</v>
       </c>
       <c r="D115" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="B116">
-        <v>7888819</v>
-      </c>
-      <c r="C116" t="s">
-        <v>299</v>
+        <v>7899433</v>
+      </c>
+      <c r="C116" s="2">
+        <v>1750208512</v>
       </c>
       <c r="D116" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B117">
-        <v>7890266</v>
-      </c>
-      <c r="C117" s="2">
-        <v>1750215294</v>
+        <v>7900491</v>
+      </c>
+      <c r="C117" t="s">
+        <v>81</v>
       </c>
       <c r="D117" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B118">
-        <v>7894613</v>
-      </c>
-      <c r="C118" s="2">
-        <v>1750261447</v>
+        <v>7900491</v>
+      </c>
+      <c r="C118" t="s">
+        <v>82</v>
       </c>
       <c r="D118" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B119">
-        <v>7897120</v>
-      </c>
-      <c r="C119" t="s">
-        <v>85</v>
+        <v>7905109</v>
+      </c>
+      <c r="C119" s="2">
+        <v>1750169942</v>
       </c>
       <c r="D119" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B120">
-        <v>7897299</v>
-      </c>
-      <c r="C120" t="s">
-        <v>18</v>
+        <v>7905109</v>
+      </c>
+      <c r="C120" s="2">
+        <v>1750154145</v>
       </c>
       <c r="D120" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B121">
-        <v>7897869</v>
+        <v>7905109</v>
       </c>
       <c r="C121" s="2">
-        <v>1750261447</v>
+        <v>1750105988</v>
       </c>
       <c r="D121" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B122">
-        <v>7897950</v>
+        <v>7909031</v>
       </c>
       <c r="C122" s="2">
-        <v>1750053977</v>
+        <v>1750173205</v>
       </c>
       <c r="D122" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B123">
-        <v>7897950</v>
+        <v>7909307</v>
       </c>
       <c r="C123" s="2">
-        <v>1750109658</v>
+        <v>1750188523</v>
       </c>
       <c r="D123" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B124">
-        <v>7899433</v>
+        <v>7912762</v>
       </c>
       <c r="C124" s="2">
-        <v>1750208512</v>
+        <v>1804610970</v>
       </c>
       <c r="D124" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B125">
-        <v>7900491</v>
-      </c>
-      <c r="C125" t="s">
-        <v>89</v>
+        <v>7912762</v>
+      </c>
+      <c r="C125" s="2">
+        <v>1770031910</v>
       </c>
       <c r="D125" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B126">
-        <v>7900491</v>
-      </c>
-      <c r="C126" t="s">
-        <v>90</v>
+        <v>7912856</v>
+      </c>
+      <c r="C126" s="2">
+        <v>1750215294</v>
       </c>
       <c r="D126" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B127">
-        <v>7905109</v>
+        <v>7913107</v>
       </c>
       <c r="C127" s="2">
-        <v>1750169942</v>
+        <v>1750200435</v>
       </c>
       <c r="D127" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B128">
-        <v>7905109</v>
+        <v>7914619</v>
       </c>
       <c r="C128" s="2">
-        <v>1750154145</v>
+        <v>1750200435</v>
       </c>
       <c r="D128" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B129">
-        <v>7905109</v>
+        <v>7914619</v>
       </c>
       <c r="C129" s="2">
-        <v>1750105988</v>
+        <v>1750214647</v>
       </c>
       <c r="D129" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B130">
-        <v>7909031</v>
-      </c>
-      <c r="C130" s="2">
-        <v>1750173205</v>
+        <v>7915108</v>
+      </c>
+      <c r="C130" t="s">
+        <v>66</v>
       </c>
       <c r="D130" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="B131">
-        <v>7909307</v>
+        <v>7917231</v>
       </c>
       <c r="C131" s="2">
-        <v>1750188523</v>
+        <v>1750350686</v>
       </c>
       <c r="D131" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="B132">
-        <v>7912762</v>
+        <v>7917231</v>
       </c>
       <c r="C132" s="2">
-        <v>1804610970</v>
+        <v>1750301986</v>
       </c>
       <c r="D132" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B133">
-        <v>7912762</v>
-      </c>
-      <c r="C133" s="2">
-        <v>1770031910</v>
+        <v>7917418</v>
+      </c>
+      <c r="C133" t="s">
+        <v>60</v>
       </c>
       <c r="D133" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B134">
-        <v>7912856</v>
+        <v>7917809</v>
       </c>
       <c r="C134" s="2">
-        <v>1750215294</v>
+        <v>1750256247</v>
       </c>
       <c r="D134" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B135">
-        <v>7913107</v>
+        <v>7919567</v>
       </c>
       <c r="C135" s="2">
-        <v>1750200435</v>
+        <v>1750190038</v>
       </c>
       <c r="D135" t="s">
-        <v>94</v>
+        <v>49</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B136">
-        <v>7914619</v>
+        <v>7919667</v>
       </c>
       <c r="C136" s="2">
-        <v>1750200435</v>
+        <v>1750067867</v>
       </c>
       <c r="D136" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B137">
-        <v>7914619</v>
+        <v>7919667</v>
       </c>
       <c r="C137" s="2">
-        <v>1750214647</v>
+        <v>1750105988</v>
       </c>
       <c r="D137" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B138">
-        <v>7915108</v>
-      </c>
-      <c r="C138" t="s">
-        <v>69</v>
+        <v>7920574</v>
+      </c>
+      <c r="C138" s="2">
+        <v>1750214647</v>
       </c>
       <c r="D138" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="B139">
-        <v>7917231</v>
+        <v>7920574</v>
       </c>
       <c r="C139" s="2">
-        <v>1750350686</v>
+        <v>1750263341</v>
       </c>
       <c r="D139" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="B140">
-        <v>7917231</v>
+        <v>7920574</v>
       </c>
       <c r="C140" s="2">
-        <v>1750301986</v>
+        <v>1750134478</v>
       </c>
       <c r="D140" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B141">
-        <v>7917418</v>
-      </c>
-      <c r="C141" t="s">
-        <v>63</v>
+        <v>7920574</v>
+      </c>
+      <c r="C141" s="2">
+        <v>1750200435</v>
       </c>
       <c r="D141" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B142">
-        <v>7917809</v>
+        <v>7921936</v>
       </c>
       <c r="C142" s="2">
-        <v>1750256247</v>
+        <v>1750249441</v>
       </c>
       <c r="D142" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B143">
-        <v>7919567</v>
+        <v>7921936</v>
       </c>
       <c r="C143" s="2">
-        <v>1750190038</v>
+        <v>1750220022</v>
       </c>
       <c r="D143" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B144">
-        <v>7919667</v>
+        <v>7921936</v>
       </c>
       <c r="C144" s="2">
-        <v>1750067867</v>
+        <v>1750220000</v>
       </c>
       <c r="D144" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B145">
-        <v>7919667</v>
+        <v>7921936</v>
       </c>
       <c r="C145" s="2">
-        <v>1750105988</v>
+        <v>1750200435</v>
       </c>
       <c r="D145" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B146">
-        <v>7920574</v>
-      </c>
-      <c r="C146" s="2">
-        <v>1750214647</v>
+        <v>7924355</v>
+      </c>
+      <c r="C146" t="s">
+        <v>5</v>
       </c>
       <c r="D146" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B147">
-        <v>7920574</v>
+        <v>7924902</v>
       </c>
       <c r="C147" s="2">
-        <v>1750263341</v>
+        <v>1750200435</v>
       </c>
       <c r="D147" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B148">
-        <v>7920574</v>
+        <v>7925113</v>
       </c>
       <c r="C148" s="2">
-        <v>1750134478</v>
+        <v>1750215295</v>
       </c>
       <c r="D148" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="B149">
-        <v>7920574</v>
+        <v>7925266</v>
       </c>
       <c r="C149" s="2">
-        <v>1750200435</v>
+        <v>1750222982</v>
       </c>
       <c r="D149" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="B150">
-        <v>7921936</v>
-      </c>
-      <c r="C150" s="2">
-        <v>1750249441</v>
+        <v>7926268</v>
+      </c>
+      <c r="C150" t="s">
+        <v>97</v>
       </c>
       <c r="D150" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B151">
-        <v>7921936</v>
-      </c>
-      <c r="C151" s="2">
-        <v>1750220022</v>
+        <v>7926496</v>
+      </c>
+      <c r="C151" t="s">
+        <v>99</v>
       </c>
       <c r="D151" t="s">
-        <v>100</v>
+        <v>49</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B152">
-        <v>7921936</v>
+        <v>7926501</v>
       </c>
       <c r="C152" s="2">
-        <v>1750220000</v>
+        <v>1750110044</v>
       </c>
       <c r="D152" t="s">
-        <v>100</v>
+        <v>49</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B153">
-        <v>7921936</v>
+        <v>7929027</v>
       </c>
       <c r="C153" s="2">
-        <v>1750200435</v>
+        <v>1750105679</v>
       </c>
       <c r="D153" t="s">
-        <v>100</v>
+        <v>49</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B154">
-        <v>7924355</v>
-      </c>
-      <c r="C154" t="s">
-        <v>5</v>
+        <v>7929932</v>
+      </c>
+      <c r="C154" s="2">
+        <v>1750188523</v>
       </c>
       <c r="D154" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B155">
-        <v>7924902</v>
+        <v>7929932</v>
       </c>
       <c r="C155" s="2">
-        <v>1750200435</v>
+        <v>1750101956</v>
       </c>
       <c r="D155" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B156">
-        <v>7925113</v>
+        <v>7930608</v>
       </c>
       <c r="C156" s="2">
-        <v>1750215295</v>
+        <v>1750193275</v>
       </c>
       <c r="D156" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="B157">
-        <v>7925266</v>
+        <v>7930610</v>
       </c>
       <c r="C157" s="2">
-        <v>1750222982</v>
+        <v>1750193276</v>
       </c>
       <c r="D157" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="B158">
-        <v>7926268</v>
-      </c>
-      <c r="C158" t="s">
-        <v>105</v>
+        <v>7930610</v>
+      </c>
+      <c r="C158" s="2">
+        <v>1750220330</v>
       </c>
       <c r="D158" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B159">
-        <v>7926496</v>
-      </c>
-      <c r="C159" t="s">
-        <v>107</v>
+        <v>7930610</v>
+      </c>
+      <c r="C159" s="2">
+        <v>1750248000</v>
       </c>
       <c r="D159" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B160">
-        <v>7926501</v>
+        <v>7930610</v>
       </c>
       <c r="C160" s="2">
-        <v>1750110044</v>
+        <v>1750220022</v>
       </c>
       <c r="D160" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B161">
-        <v>7929027</v>
+        <v>7931010</v>
       </c>
       <c r="C161" s="2">
-        <v>1750105679</v>
+        <v>1750188523</v>
       </c>
       <c r="D161" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B162">
-        <v>7929932</v>
+        <v>7931010</v>
       </c>
       <c r="C162" s="2">
-        <v>1750188523</v>
+        <v>1750263341</v>
       </c>
       <c r="D162" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B163">
-        <v>7929932</v>
+        <v>7931010</v>
       </c>
       <c r="C163" s="2">
-        <v>1750101956</v>
+        <v>1750245555</v>
       </c>
       <c r="D163" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B164">
-        <v>7930608</v>
+        <v>7942380</v>
       </c>
       <c r="C164" s="2">
-        <v>1750193275</v>
+        <v>1750109615</v>
       </c>
       <c r="D164" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B165">
-        <v>7930610</v>
+        <v>7942589</v>
       </c>
       <c r="C165" s="2">
-        <v>1750193276</v>
+        <v>1750100966</v>
       </c>
       <c r="D165" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B166">
-        <v>7930610</v>
+        <v>7943149</v>
       </c>
       <c r="C166" s="2">
-        <v>1750220330</v>
+        <v>1750200435</v>
       </c>
       <c r="D166" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B167">
-        <v>7930610</v>
+        <v>7945233</v>
       </c>
       <c r="C167" s="2">
-        <v>1750248000</v>
+        <v>1750215295</v>
       </c>
       <c r="D167" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B168">
-        <v>7930610</v>
+        <v>7945303</v>
       </c>
       <c r="C168" s="2">
-        <v>1750220022</v>
+        <v>1750193275</v>
       </c>
       <c r="D168" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B169">
-        <v>7931010</v>
+        <v>7946970</v>
       </c>
       <c r="C169" s="2">
-        <v>1750188523</v>
+        <v>1750200435</v>
       </c>
       <c r="D169" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B170">
-        <v>7931010</v>
+        <v>7947736</v>
       </c>
       <c r="C170" s="2">
-        <v>1750263341</v>
+        <v>1750215294</v>
       </c>
       <c r="D170" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B171">
-        <v>7931010</v>
+        <v>7947847</v>
       </c>
       <c r="C171" s="2">
-        <v>1750245555</v>
+        <v>1750214647</v>
       </c>
       <c r="D171" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B172">
-        <v>7942380</v>
+        <v>7947847</v>
       </c>
       <c r="C172" s="2">
-        <v>1750109615</v>
+        <v>1750212682</v>
       </c>
       <c r="D172" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B173">
-        <v>7942589</v>
+        <v>7947847</v>
       </c>
       <c r="C173" s="2">
-        <v>1750100966</v>
+        <v>1750140781</v>
       </c>
       <c r="D173" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B174">
-        <v>7943149</v>
+        <v>7947866</v>
       </c>
       <c r="C174" s="2">
-        <v>1750200435</v>
+        <v>1750126457</v>
       </c>
       <c r="D174" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B175">
-        <v>7945233</v>
+        <v>7947866</v>
       </c>
       <c r="C175" s="2">
-        <v>1750215295</v>
+        <v>1750196174</v>
       </c>
       <c r="D175" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B176">
-        <v>7945303</v>
+        <v>7947978</v>
       </c>
       <c r="C176" s="2">
-        <v>1750193275</v>
+        <v>1750105679</v>
       </c>
       <c r="D176" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B177">
-        <v>7946970</v>
+        <v>7947978</v>
       </c>
       <c r="C177" s="2">
-        <v>1750200435</v>
+        <v>1750109615</v>
       </c>
       <c r="D177" t="s">
-        <v>113</v>
+        <v>49</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B178">
-        <v>7947736</v>
+        <v>7949223</v>
       </c>
       <c r="C178" s="2">
-        <v>1750215294</v>
+        <v>1750193275</v>
       </c>
       <c r="D178" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B179">
-        <v>7947847</v>
+        <v>7949223</v>
       </c>
       <c r="C179" s="2">
-        <v>1750214647</v>
+        <v>1750200435</v>
       </c>
       <c r="D179" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B180">
-        <v>7947847</v>
-      </c>
-      <c r="C180" s="2">
-        <v>1750212682</v>
+        <v>7952640</v>
+      </c>
+      <c r="C180" t="s">
+        <v>62</v>
       </c>
       <c r="D180" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B181">
-        <v>7947847</v>
+        <v>7952699</v>
       </c>
       <c r="C181" s="2">
-        <v>1750140781</v>
+        <v>1750215295</v>
       </c>
       <c r="D181" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B182">
-        <v>7947866</v>
+        <v>7952699</v>
       </c>
       <c r="C182" s="2">
-        <v>1750126457</v>
+        <v>1750215294</v>
       </c>
       <c r="D182" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B183">
-        <v>7947866</v>
-      </c>
-      <c r="C183" s="2">
-        <v>1750196174</v>
+        <v>7952908</v>
+      </c>
+      <c r="C183" t="s">
+        <v>113</v>
       </c>
       <c r="D183" t="s">
-        <v>118</v>
+        <v>49</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B184">
-        <v>7947978</v>
+        <v>7952925</v>
       </c>
       <c r="C184" s="2">
-        <v>1750105679</v>
+        <v>1750200435</v>
       </c>
       <c r="D184" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B185">
-        <v>7947978</v>
+        <v>7955646</v>
       </c>
       <c r="C185" s="2">
-        <v>1750109615</v>
+        <v>1750200435</v>
       </c>
       <c r="D185" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B186">
-        <v>7952640</v>
-      </c>
-      <c r="C186" t="s">
-        <v>65</v>
+        <v>7956551</v>
+      </c>
+      <c r="C186" s="2">
+        <v>1750222982</v>
       </c>
       <c r="D186" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B187">
-        <v>7952699</v>
+        <v>7956807</v>
       </c>
       <c r="C187" s="2">
-        <v>1750215295</v>
+        <v>1750056193</v>
       </c>
       <c r="D187" t="s">
-        <v>119</v>
+        <v>49</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B188">
-        <v>7952699</v>
+        <v>7958425</v>
       </c>
       <c r="C188" s="2">
-        <v>1750215294</v>
+        <v>1750222982</v>
       </c>
       <c r="D188" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B189">
-        <v>7952908</v>
-      </c>
-      <c r="C189" t="s">
-        <v>120</v>
+        <v>7959520</v>
+      </c>
+      <c r="C189" s="2">
+        <v>1750109641</v>
       </c>
       <c r="D189" t="s">
-        <v>55</v>
+        <v>118</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B190">
-        <v>7952925</v>
+        <v>7959985</v>
       </c>
       <c r="C190" s="2">
-        <v>1750200435</v>
+        <v>1750215295</v>
       </c>
       <c r="D190" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B191">
-        <v>7954123</v>
+        <v>7960728</v>
       </c>
       <c r="C191" s="2">
-        <v>1750173205</v>
+        <v>1750189650</v>
       </c>
       <c r="D191" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B192">
-        <v>7955646</v>
+        <v>7960728</v>
       </c>
       <c r="C192" s="2">
-        <v>1750200435</v>
+        <v>1750053977</v>
       </c>
       <c r="D192" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B193">
-        <v>7956551</v>
+        <v>7960730</v>
       </c>
       <c r="C193" s="2">
-        <v>1750222982</v>
+        <v>1750200435</v>
       </c>
       <c r="D193" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B194">
-        <v>7956807</v>
+        <v>7960732</v>
       </c>
       <c r="C194" s="2">
-        <v>1750056193</v>
+        <v>1750193275</v>
       </c>
       <c r="D194" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B195">
-        <v>7958425</v>
+        <v>7960739</v>
       </c>
       <c r="C195" s="2">
-        <v>1750222982</v>
+        <v>1750193275</v>
       </c>
       <c r="D195" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B196">
-        <v>7959520</v>
-      </c>
-      <c r="C196" s="2">
-        <v>1750109641</v>
+        <v>7960743</v>
+      </c>
+      <c r="C196" t="s">
+        <v>51</v>
       </c>
       <c r="D196" t="s">
-        <v>126</v>
+        <v>49</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B197">
-        <v>7959985</v>
-      </c>
-      <c r="C197" s="2">
-        <v>1750215295</v>
+        <v>7960743</v>
+      </c>
+      <c r="C197" t="s">
+        <v>124</v>
       </c>
       <c r="D197" t="s">
-        <v>127</v>
+        <v>49</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B198">
-        <v>7960728</v>
+        <v>7961200</v>
       </c>
       <c r="C198" s="2">
-        <v>1750189650</v>
+        <v>1750200435</v>
       </c>
       <c r="D198" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B199">
-        <v>7960728</v>
-      </c>
-      <c r="C199" s="2">
-        <v>1750053977</v>
+        <v>7963480</v>
+      </c>
+      <c r="C199" t="s">
+        <v>5</v>
       </c>
       <c r="D199" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B200">
-        <v>7960730</v>
+        <v>7966435</v>
       </c>
       <c r="C200" s="2">
-        <v>1750200435</v>
+        <v>1750220000</v>
       </c>
       <c r="D200" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B201">
-        <v>7960732</v>
+        <v>7966435</v>
       </c>
       <c r="C201" s="2">
-        <v>1750193275</v>
+        <v>1750248000</v>
       </c>
       <c r="D201" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B202">
-        <v>7960739</v>
+        <v>7967194</v>
       </c>
       <c r="C202" s="2">
-        <v>1750193275</v>
+        <v>1750220000</v>
       </c>
       <c r="D202" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B203">
-        <v>7961200</v>
+        <v>7967194</v>
       </c>
       <c r="C203" s="2">
-        <v>1750200435</v>
+        <v>1750220022</v>
       </c>
       <c r="D203" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B204">
-        <v>7963480</v>
+        <v>7967730</v>
       </c>
       <c r="C204" t="s">
-        <v>5</v>
+        <v>129</v>
       </c>
       <c r="D204" t="s">
-        <v>133</v>
+        <v>49</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B205">
-        <v>7966435</v>
-      </c>
-      <c r="C205" s="2">
-        <v>1750220000</v>
+        <v>7967730</v>
+      </c>
+      <c r="C205" t="s">
+        <v>60</v>
       </c>
       <c r="D205" t="s">
-        <v>134</v>
+        <v>49</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="B206">
-        <v>7966435</v>
+        <v>7967825</v>
       </c>
       <c r="C206" s="2">
-        <v>1750248000</v>
+        <v>1750304622</v>
       </c>
       <c r="D206" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="B207">
-        <v>7967194</v>
-      </c>
-      <c r="C207" s="2">
-        <v>1750220000</v>
+        <v>7967825</v>
+      </c>
+      <c r="C207" t="s">
+        <v>132</v>
       </c>
       <c r="D207" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B208">
-        <v>7967194</v>
+        <v>7968148</v>
       </c>
       <c r="C208" s="2">
-        <v>1750220022</v>
+        <v>1750109641</v>
       </c>
       <c r="D208" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B209">
-        <v>7967730</v>
-      </c>
-      <c r="C209" t="s">
-        <v>136</v>
+        <v>7968518</v>
+      </c>
+      <c r="C209" s="2">
+        <v>1750173205</v>
       </c>
       <c r="D209" t="s">
-        <v>55</v>
+        <v>134</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B210">
-        <v>7967730</v>
-      </c>
-      <c r="C210" t="s">
-        <v>63</v>
+        <v>7968924</v>
+      </c>
+      <c r="C210" s="2">
+        <v>1750109659</v>
       </c>
       <c r="D210" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>137</v>
+        <v>44</v>
       </c>
       <c r="B211">
-        <v>7967825</v>
+        <v>7969037</v>
       </c>
       <c r="C211" s="2">
-        <v>1750304622</v>
+        <v>1750215295</v>
       </c>
       <c r="D211" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>137</v>
+        <v>44</v>
       </c>
       <c r="B212">
-        <v>7967825</v>
-      </c>
-      <c r="C212" t="s">
-        <v>139</v>
+        <v>7969146</v>
+      </c>
+      <c r="C212" s="2">
+        <v>1750200435</v>
       </c>
       <c r="D212" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B213">
-        <v>7968148</v>
+        <v>7969146</v>
       </c>
       <c r="C213" s="2">
-        <v>1750109641</v>
+        <v>1750200541</v>
       </c>
       <c r="D213" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B214">
-        <v>7968518</v>
+        <v>7969367</v>
       </c>
       <c r="C214" s="2">
-        <v>1750173205</v>
+        <v>1750188523</v>
       </c>
       <c r="D214" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B215">
-        <v>7968924</v>
+        <v>7969374</v>
       </c>
       <c r="C215" s="2">
-        <v>1750109659</v>
+        <v>1750200435</v>
       </c>
       <c r="D215" t="s">
-        <v>55</v>
+        <v>138</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B216">
-        <v>7969037</v>
+        <v>7970595</v>
       </c>
       <c r="C216" s="2">
-        <v>1750215295</v>
+        <v>1750200541</v>
       </c>
       <c r="D216" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B217">
-        <v>7969146</v>
+        <v>7970595</v>
       </c>
       <c r="C217" s="2">
-        <v>1750200435</v>
+        <v>1750214647</v>
       </c>
       <c r="D217" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B218">
-        <v>7969146</v>
+        <v>7971383</v>
       </c>
       <c r="C218" s="2">
-        <v>1750200541</v>
+        <v>1750200435</v>
       </c>
       <c r="D218" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B219">
-        <v>7969367</v>
+        <v>7971741</v>
       </c>
       <c r="C219" s="2">
-        <v>1750188523</v>
+        <v>1750200435</v>
       </c>
       <c r="D219" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B220">
-        <v>7969374</v>
+        <v>7972029</v>
       </c>
       <c r="C220" s="2">
-        <v>1750200435</v>
+        <v>1750248000</v>
       </c>
       <c r="D220" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B221">
-        <v>7970595</v>
+        <v>7972029</v>
       </c>
       <c r="C221" s="2">
-        <v>1750200541</v>
+        <v>1750220330</v>
       </c>
       <c r="D221" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B222">
-        <v>7970595</v>
+        <v>7973015</v>
       </c>
       <c r="C222" s="2">
-        <v>1750214647</v>
+        <v>1750200541</v>
       </c>
       <c r="D222" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B223">
-        <v>7971064</v>
+        <v>7973015</v>
       </c>
       <c r="C223" s="2">
-        <v>1750109641</v>
+        <v>1750245555</v>
       </c>
       <c r="D223" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B224">
-        <v>7971383</v>
+        <v>7973015</v>
       </c>
       <c r="C224" s="2">
-        <v>1750200435</v>
+        <v>1750134478</v>
       </c>
       <c r="D224" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B225">
-        <v>7971741</v>
+        <v>7973015</v>
       </c>
       <c r="C225" s="2">
-        <v>1750200435</v>
+        <v>1750263341</v>
       </c>
       <c r="D225" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B226">
-        <v>7972029</v>
+        <v>7973357</v>
       </c>
       <c r="C226" s="2">
-        <v>1750248000</v>
+        <v>1750220022</v>
       </c>
       <c r="D226" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B227">
-        <v>7972029</v>
+        <v>7973357</v>
       </c>
       <c r="C227" s="2">
-        <v>1750220330</v>
+        <v>1750220000</v>
       </c>
       <c r="D227" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B228">
-        <v>7973015</v>
+        <v>7973357</v>
       </c>
       <c r="C228" s="2">
-        <v>1750200541</v>
+        <v>1750200435</v>
       </c>
       <c r="D228" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B229">
-        <v>7973015</v>
-      </c>
-      <c r="C229" s="2">
-        <v>1750245555</v>
+        <v>7973399</v>
+      </c>
+      <c r="C229" t="s">
+        <v>145</v>
       </c>
       <c r="D229" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B230">
-        <v>7973015</v>
+        <v>7973493</v>
       </c>
       <c r="C230" s="2">
-        <v>1750134478</v>
+        <v>1750101956</v>
       </c>
       <c r="D230" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B231">
-        <v>7973015</v>
+        <v>7973493</v>
       </c>
       <c r="C231" s="2">
-        <v>1750263341</v>
+        <v>1750188523</v>
       </c>
       <c r="D231" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B232">
-        <v>7973357</v>
+        <v>7973493</v>
       </c>
       <c r="C232" s="2">
-        <v>1750220022</v>
+        <v>1750101952</v>
       </c>
       <c r="D232" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B233">
-        <v>7973357</v>
+        <v>7973493</v>
       </c>
       <c r="C233" s="2">
-        <v>1750220000</v>
+        <v>1750188524</v>
       </c>
       <c r="D233" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B234">
-        <v>7973357</v>
-      </c>
-      <c r="C234" s="2">
-        <v>1750200435</v>
+        <v>7973493</v>
+      </c>
+      <c r="C234" t="s">
+        <v>148</v>
       </c>
       <c r="D234" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="B235">
-        <v>7973399</v>
+        <v>7973493</v>
       </c>
       <c r="C235" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D235" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
@@ -4599,512 +4576,512 @@
       <c r="B236">
         <v>7973493</v>
       </c>
-      <c r="C236" s="2">
-        <v>1750101956</v>
+      <c r="C236" t="s">
+        <v>149</v>
       </c>
       <c r="D236" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="B237">
-        <v>7973493</v>
+        <v>7974287</v>
       </c>
       <c r="C237" s="2">
-        <v>1750188523</v>
+        <v>1750130600</v>
       </c>
       <c r="D237" t="s">
-        <v>155</v>
+        <v>49</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>8</v>
+        <v>150</v>
       </c>
       <c r="B238">
-        <v>7973493</v>
-      </c>
-      <c r="C238" s="2">
-        <v>1750101952</v>
+        <v>7975903</v>
+      </c>
+      <c r="C238">
+        <v>1750222982</v>
       </c>
       <c r="D238" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B239">
-        <v>7973493</v>
+        <v>7975982</v>
       </c>
       <c r="C239" s="2">
-        <v>1750188524</v>
+        <v>1750248000</v>
       </c>
       <c r="D239" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B240">
-        <v>7973493</v>
-      </c>
-      <c r="C240" t="s">
-        <v>156</v>
+        <v>7975982</v>
+      </c>
+      <c r="C240" s="2">
+        <v>1750220330</v>
       </c>
       <c r="D240" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B241">
-        <v>7973493</v>
-      </c>
-      <c r="C241" t="s">
-        <v>157</v>
+        <v>7976330</v>
+      </c>
+      <c r="C241" s="2">
+        <v>1750222982</v>
       </c>
       <c r="D241" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="B242">
-        <v>7973493</v>
-      </c>
-      <c r="C242" t="s">
-        <v>157</v>
+        <v>7976745</v>
+      </c>
+      <c r="C242" s="2">
+        <v>1750105988</v>
       </c>
       <c r="D242" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B243">
-        <v>7974287</v>
+        <v>7977137</v>
       </c>
       <c r="C243" s="2">
-        <v>1750130600</v>
+        <v>1750200435</v>
       </c>
       <c r="D243" t="s">
-        <v>55</v>
+        <v>155</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B244">
-        <v>7975982</v>
+        <v>7978510</v>
       </c>
       <c r="C244" s="2">
-        <v>1750248000</v>
+        <v>1750215294</v>
       </c>
       <c r="D244" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B245">
-        <v>7975982</v>
+        <v>7978510</v>
       </c>
       <c r="C245" s="2">
-        <v>1750220330</v>
+        <v>1750215295</v>
       </c>
       <c r="D245" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="B246">
-        <v>7976330</v>
+        <v>7978655</v>
       </c>
       <c r="C246" s="2">
-        <v>1750222982</v>
+        <v>1750220022</v>
       </c>
       <c r="D246" t="s">
-        <v>159</v>
+        <v>49</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B247">
-        <v>7976745</v>
+        <v>7978655</v>
       </c>
       <c r="C247" s="2">
-        <v>1750105988</v>
+        <v>1750220330</v>
       </c>
       <c r="D247" t="s">
-        <v>160</v>
+        <v>49</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B248">
-        <v>7977137</v>
+        <v>7978655</v>
       </c>
       <c r="C248" s="2">
-        <v>1750200435</v>
+        <v>1750239538</v>
       </c>
       <c r="D248" t="s">
-        <v>161</v>
+        <v>49</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B249">
-        <v>7978510</v>
+        <v>7978655</v>
       </c>
       <c r="C249" s="2">
-        <v>1750215294</v>
+        <v>1750289153</v>
       </c>
       <c r="D249" t="s">
-        <v>162</v>
+        <v>49</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B250">
-        <v>7978510</v>
-      </c>
-      <c r="C250" s="2">
-        <v>1750215295</v>
+        <v>7978826</v>
+      </c>
+      <c r="C250" t="s">
+        <v>82</v>
       </c>
       <c r="D250" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B251">
-        <v>7978655</v>
+        <v>7979255</v>
       </c>
       <c r="C251" s="2">
-        <v>1750220022</v>
+        <v>1750105988</v>
       </c>
       <c r="D251" t="s">
-        <v>55</v>
+        <v>154</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B252">
-        <v>7978655</v>
+        <v>7979396</v>
       </c>
       <c r="C252" s="2">
-        <v>1750220330</v>
+        <v>1750053977</v>
       </c>
       <c r="D252" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B253">
-        <v>7978655</v>
+        <v>7979436</v>
       </c>
       <c r="C253" s="2">
-        <v>1750239538</v>
+        <v>1750200435</v>
       </c>
       <c r="D253" t="s">
-        <v>55</v>
+        <v>158</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B254">
-        <v>7978655</v>
+        <v>7979551</v>
       </c>
       <c r="C254" s="2">
-        <v>1750289153</v>
+        <v>1750134478</v>
       </c>
       <c r="D254" t="s">
-        <v>55</v>
+        <v>159</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B255">
-        <v>7979255</v>
+        <v>7979551</v>
       </c>
       <c r="C255" s="2">
-        <v>1750105988</v>
+        <v>1750214647</v>
       </c>
       <c r="D255" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B256">
-        <v>7979396</v>
+        <v>7979609</v>
       </c>
       <c r="C256" s="2">
-        <v>1750053977</v>
+        <v>1750200435</v>
       </c>
       <c r="D256" t="s">
-        <v>55</v>
+        <v>141</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B257">
-        <v>7979436</v>
+        <v>7979880</v>
       </c>
       <c r="C257" s="2">
-        <v>1750200435</v>
+        <v>1750105988</v>
       </c>
       <c r="D257" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B258">
-        <v>7979551</v>
+        <v>7983248</v>
       </c>
       <c r="C258" s="2">
-        <v>1750134478</v>
+        <v>1750109615</v>
       </c>
       <c r="D258" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B259">
-        <v>7979551</v>
+        <v>7983283</v>
       </c>
       <c r="C259" s="2">
-        <v>1750214647</v>
+        <v>1750105679</v>
       </c>
       <c r="D259" t="s">
-        <v>164</v>
+        <v>49</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B260">
-        <v>7979609</v>
+        <v>7983301</v>
       </c>
       <c r="C260" s="2">
-        <v>1750200435</v>
+        <v>1750302850</v>
       </c>
       <c r="D260" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B261">
-        <v>7979880</v>
-      </c>
-      <c r="C261" s="2">
-        <v>1750105988</v>
+        <v>7983339</v>
+      </c>
+      <c r="C261">
+        <v>1750177464</v>
       </c>
       <c r="D261" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B262">
-        <v>7983248</v>
-      </c>
-      <c r="C262" s="2">
-        <v>1750109615</v>
+        <v>7983339</v>
+      </c>
+      <c r="C262">
+        <v>1750188523</v>
       </c>
       <c r="D262" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="B263">
-        <v>7983283</v>
+        <v>7984027</v>
       </c>
       <c r="C263" s="2">
-        <v>1750105679</v>
+        <v>1750222982</v>
       </c>
       <c r="D263" t="s">
-        <v>55</v>
+        <v>163</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B264">
-        <v>7983301</v>
+        <v>7984086</v>
       </c>
       <c r="C264" s="2">
-        <v>1750302850</v>
+        <v>1750220330</v>
       </c>
       <c r="D264" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B265">
-        <v>7983339</v>
-      </c>
-      <c r="C265">
-        <v>1750188523</v>
+        <v>7984086</v>
+      </c>
+      <c r="C265" s="2">
+        <v>1750248000</v>
       </c>
       <c r="D265" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B266">
-        <v>7983339</v>
-      </c>
-      <c r="C266">
-        <v>1750177464</v>
+        <v>7984118</v>
+      </c>
+      <c r="C266" s="2">
+        <v>1750109641</v>
       </c>
       <c r="D266" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B267">
-        <v>7983972</v>
+        <v>7984368</v>
       </c>
       <c r="C267" s="2">
-        <v>1750177464</v>
+        <v>1750263341</v>
       </c>
       <c r="D267" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B268">
-        <v>7984027</v>
+        <v>7984368</v>
       </c>
       <c r="C268" s="2">
-        <v>1750222982</v>
+        <v>1750291701</v>
       </c>
       <c r="D268" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B269">
-        <v>7984086</v>
+        <v>7984368</v>
       </c>
       <c r="C269" s="2">
-        <v>1750220330</v>
+        <v>1770041364</v>
       </c>
       <c r="D269" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>45</v>
+        <v>167</v>
       </c>
       <c r="B270">
-        <v>7984086</v>
-      </c>
-      <c r="C270" s="2">
-        <v>1750248000</v>
+        <v>7985978</v>
+      </c>
+      <c r="C270" t="s">
+        <v>41</v>
       </c>
       <c r="D270" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B271">
-        <v>7984118</v>
+        <v>7987111</v>
       </c>
       <c r="C271" s="2">
-        <v>1750109641</v>
+        <v>1750105988</v>
       </c>
       <c r="D271" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>45</v>
+        <v>170</v>
       </c>
       <c r="B272">
-        <v>7984368</v>
-      </c>
-      <c r="C272" s="2">
-        <v>1750263341</v>
+        <v>7987322</v>
+      </c>
+      <c r="C272" t="s">
+        <v>171</v>
       </c>
       <c r="D272" t="s">
         <v>172</v>
@@ -5112,55 +5089,55 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B273">
-        <v>7984368</v>
+        <v>7987370</v>
       </c>
       <c r="C273" s="2">
-        <v>1750291701</v>
+        <v>1750188523</v>
       </c>
       <c r="D273" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B274">
-        <v>7984368</v>
+        <v>7987434</v>
       </c>
       <c r="C274" s="2">
-        <v>1770041364</v>
+        <v>1750105988</v>
       </c>
       <c r="D274" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>173</v>
+        <v>8</v>
       </c>
       <c r="B275">
-        <v>7985978</v>
-      </c>
-      <c r="C275" t="s">
-        <v>42</v>
+        <v>7987462</v>
+      </c>
+      <c r="C275" s="2">
+        <v>1750188523</v>
       </c>
       <c r="D275" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B276">
-        <v>7987111</v>
+        <v>7987462</v>
       </c>
       <c r="C276" s="2">
-        <v>1750105988</v>
+        <v>1750177464</v>
       </c>
       <c r="D276" t="s">
         <v>175</v>
@@ -5168,13 +5145,13 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B277">
-        <v>7987370</v>
+        <v>7987578</v>
       </c>
       <c r="C277" s="2">
-        <v>1750188523</v>
+        <v>1750105988</v>
       </c>
       <c r="D277" t="s">
         <v>176</v>
@@ -5185,10 +5162,10 @@
         <v>10</v>
       </c>
       <c r="B278">
-        <v>7987434</v>
+        <v>7987872</v>
       </c>
       <c r="C278" s="2">
-        <v>1750105988</v>
+        <v>1750092824</v>
       </c>
       <c r="D278" t="s">
         <v>177</v>
@@ -5196,13 +5173,13 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>8</v>
+        <v>150</v>
       </c>
       <c r="B279">
-        <v>7987462</v>
+        <v>7987999</v>
       </c>
       <c r="C279" s="2">
-        <v>1750188523</v>
+        <v>1750346607</v>
       </c>
       <c r="D279" t="s">
         <v>178</v>
@@ -5210,30 +5187,30 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="B280">
-        <v>7987462</v>
+        <v>7988124</v>
       </c>
       <c r="C280" s="2">
-        <v>1750177464</v>
+        <v>1750109615</v>
       </c>
       <c r="D280" t="s">
-        <v>178</v>
+        <v>49</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B281">
-        <v>7987578</v>
+        <v>7989437</v>
       </c>
       <c r="C281" s="2">
-        <v>1750105988</v>
+        <v>1750101956</v>
       </c>
       <c r="D281" t="s">
-        <v>179</v>
+        <v>49</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
@@ -5241,122 +5218,122 @@
         <v>10</v>
       </c>
       <c r="B282">
-        <v>7987872</v>
+        <v>7990418</v>
       </c>
       <c r="C282" s="2">
-        <v>1750092824</v>
+        <v>1750100966</v>
       </c>
       <c r="D282" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>181</v>
+        <v>44</v>
       </c>
       <c r="B283">
-        <v>7987999</v>
-      </c>
-      <c r="C283" s="2">
-        <v>1750346607</v>
+        <v>7991709</v>
+      </c>
+      <c r="C283">
+        <v>1750188523</v>
       </c>
       <c r="D283" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>181</v>
+        <v>130</v>
       </c>
       <c r="B284">
-        <v>7988101</v>
+        <v>7991786</v>
       </c>
       <c r="C284" s="2">
-        <v>1750222982</v>
+        <v>1750109659</v>
       </c>
       <c r="D284" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B285">
-        <v>7988124</v>
+        <v>7992146</v>
       </c>
       <c r="C285" s="2">
-        <v>1750109615</v>
+        <v>1750053977</v>
       </c>
       <c r="D285" t="s">
-        <v>55</v>
+        <v>181</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B286">
-        <v>7989437</v>
+        <v>7992146</v>
       </c>
       <c r="C286" s="2">
-        <v>1750101956</v>
+        <v>1750105988</v>
       </c>
       <c r="D286" t="s">
-        <v>55</v>
+        <v>181</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B287">
-        <v>7990418</v>
+        <v>7992155</v>
       </c>
       <c r="C287" s="2">
-        <v>1750100966</v>
+        <v>1750215295</v>
       </c>
       <c r="D287" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B288">
-        <v>7991709</v>
-      </c>
-      <c r="C288">
-        <v>1750188523</v>
+        <v>7992217</v>
+      </c>
+      <c r="C288" s="2">
+        <v>1750109658</v>
       </c>
       <c r="D288" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B289">
-        <v>7992146</v>
+        <v>7992231</v>
       </c>
       <c r="C289" s="2">
-        <v>1750053977</v>
+        <v>1750109641</v>
       </c>
       <c r="D289" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B290">
-        <v>7992146</v>
+        <v>7993496</v>
       </c>
       <c r="C290" s="2">
-        <v>1750105988</v>
+        <v>1750101956</v>
       </c>
       <c r="D290" t="s">
         <v>185</v>
@@ -5364,251 +5341,251 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B291">
-        <v>7992155</v>
+        <v>7993496</v>
       </c>
       <c r="C291" s="2">
-        <v>1750215295</v>
+        <v>1750188523</v>
       </c>
       <c r="D291" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>48</v>
+        <v>150</v>
       </c>
       <c r="B292">
-        <v>7992217</v>
+        <v>7993736</v>
       </c>
       <c r="C292" s="2">
-        <v>1750109658</v>
+        <v>1750053977</v>
       </c>
       <c r="D292" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>48</v>
+        <v>150</v>
       </c>
       <c r="B293">
-        <v>7992231</v>
+        <v>7993736</v>
       </c>
       <c r="C293" s="2">
-        <v>1750109641</v>
+        <v>1750173205</v>
       </c>
       <c r="D293" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B294">
-        <v>7993496</v>
+        <v>7993882</v>
       </c>
       <c r="C294" s="2">
-        <v>1750101956</v>
+        <v>1750245555</v>
       </c>
       <c r="D294" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B295">
-        <v>7993496</v>
+        <v>7993882</v>
       </c>
       <c r="C295" s="2">
-        <v>1750188523</v>
+        <v>1750200435</v>
       </c>
       <c r="D295" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B296">
-        <v>7993547</v>
+        <v>7993882</v>
       </c>
       <c r="C296" s="2">
-        <v>1750173205</v>
+        <v>1750133348</v>
       </c>
       <c r="D296" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>181</v>
+        <v>44</v>
       </c>
       <c r="B297">
-        <v>7993736</v>
+        <v>7993882</v>
       </c>
       <c r="C297" s="2">
-        <v>1750053977</v>
+        <v>1750214647</v>
       </c>
       <c r="D297" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>181</v>
+        <v>130</v>
       </c>
       <c r="B298">
-        <v>7993736</v>
-      </c>
-      <c r="C298" s="2">
-        <v>1750173205</v>
+        <v>7993886</v>
+      </c>
+      <c r="C298" t="s">
+        <v>290</v>
       </c>
       <c r="D298" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B299">
-        <v>7993882</v>
+        <v>7994017</v>
       </c>
       <c r="C299" s="2">
-        <v>1750245555</v>
+        <v>1750193275</v>
       </c>
       <c r="D299" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B300">
-        <v>7993882</v>
+        <v>7994017</v>
       </c>
       <c r="C300" s="2">
         <v>1750200435</v>
       </c>
       <c r="D300" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B301">
-        <v>7993882</v>
+        <v>7996728</v>
       </c>
       <c r="C301" s="2">
-        <v>1750133348</v>
+        <v>1750245555</v>
       </c>
       <c r="D301" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B302">
-        <v>7993882</v>
+        <v>7996728</v>
       </c>
       <c r="C302" s="2">
-        <v>1750214647</v>
+        <v>1750289153</v>
       </c>
       <c r="D302" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>137</v>
+        <v>44</v>
       </c>
       <c r="B303">
-        <v>7993886</v>
-      </c>
-      <c r="C303" t="s">
-        <v>300</v>
+        <v>7996728</v>
+      </c>
+      <c r="C303" s="2">
+        <v>1750263341</v>
       </c>
       <c r="D303" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B304">
-        <v>7994017</v>
+        <v>7996728</v>
       </c>
       <c r="C304" s="2">
-        <v>1750193275</v>
+        <v>1750200435</v>
       </c>
       <c r="D304" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B305">
-        <v>7994017</v>
+        <v>8001964</v>
       </c>
       <c r="C305" s="2">
-        <v>1750200435</v>
+        <v>1750261447</v>
       </c>
       <c r="D305" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B306">
-        <v>7996728</v>
+        <v>8001995</v>
       </c>
       <c r="C306" s="2">
-        <v>1750245555</v>
+        <v>1750177464</v>
       </c>
       <c r="D306" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B307">
-        <v>7996728</v>
+        <v>8002016</v>
       </c>
       <c r="C307" s="2">
-        <v>1750289153</v>
+        <v>1750200435</v>
       </c>
       <c r="D307" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="B308">
-        <v>7996728</v>
-      </c>
-      <c r="C308" s="2">
-        <v>1750263341</v>
+        <v>8002017</v>
+      </c>
+      <c r="C308" t="s">
+        <v>194</v>
       </c>
       <c r="D308" t="s">
         <v>195</v>
@@ -5616,97 +5593,97 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B309">
-        <v>7996728</v>
+        <v>8002044</v>
       </c>
       <c r="C309" s="2">
-        <v>1750200435</v>
+        <v>1750215295</v>
       </c>
       <c r="D309" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>181</v>
+        <v>44</v>
       </c>
       <c r="B310">
-        <v>7997042</v>
+        <v>8002373</v>
       </c>
       <c r="C310" s="2">
-        <v>1750234950</v>
+        <v>1750200435</v>
       </c>
       <c r="D310" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>181</v>
+        <v>47</v>
       </c>
       <c r="B311">
-        <v>7997042</v>
-      </c>
-      <c r="C311" s="2">
-        <v>1750222982</v>
+        <v>8002614</v>
+      </c>
+      <c r="C311" t="s">
+        <v>5</v>
       </c>
       <c r="D311" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B312">
-        <v>8001964</v>
+        <v>8002694</v>
       </c>
       <c r="C312" s="2">
-        <v>1750261447</v>
+        <v>1750173205</v>
       </c>
       <c r="D312" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B313">
-        <v>8001995</v>
+        <v>8002694</v>
       </c>
       <c r="C313" s="2">
-        <v>1750177464</v>
+        <v>1750193275</v>
       </c>
       <c r="D313" t="s">
-        <v>168</v>
+        <v>199</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B314">
-        <v>8002016</v>
+        <v>8002746</v>
       </c>
       <c r="C314" s="2">
-        <v>1750200435</v>
+        <v>1750109615</v>
       </c>
       <c r="D314" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>181</v>
+        <v>47</v>
       </c>
       <c r="B315">
-        <v>8002017</v>
-      </c>
-      <c r="C315" t="s">
-        <v>199</v>
+        <v>8002746</v>
+      </c>
+      <c r="C315" s="2">
+        <v>1750109641</v>
       </c>
       <c r="D315" t="s">
         <v>200</v>
@@ -5714,13 +5691,13 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="B316">
-        <v>8002044</v>
+        <v>8002753</v>
       </c>
       <c r="C316" s="2">
-        <v>1750215295</v>
+        <v>1750102901</v>
       </c>
       <c r="D316" t="s">
         <v>201</v>
@@ -5728,13 +5705,13 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B317">
-        <v>8002169</v>
+        <v>8002883</v>
       </c>
       <c r="C317" s="2">
-        <v>1750109615</v>
+        <v>1750188523</v>
       </c>
       <c r="D317" t="s">
         <v>202</v>
@@ -5742,13 +5719,13 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B318">
-        <v>8002373</v>
+        <v>8003159</v>
       </c>
       <c r="C318" s="2">
-        <v>1750200435</v>
+        <v>1750193275</v>
       </c>
       <c r="D318" t="s">
         <v>203</v>
@@ -5756,13 +5733,13 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="B319">
-        <v>8002398</v>
+        <v>8003492</v>
       </c>
       <c r="C319" s="2">
-        <v>1750173205</v>
+        <v>1750109615</v>
       </c>
       <c r="D319" t="s">
         <v>204</v>
@@ -5770,13 +5747,13 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B320">
-        <v>8002614</v>
-      </c>
-      <c r="C320" t="s">
-        <v>5</v>
+        <v>8003561</v>
+      </c>
+      <c r="C320" s="2">
+        <v>1750177464</v>
       </c>
       <c r="D320" t="s">
         <v>205</v>
@@ -5784,13 +5761,13 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B321">
-        <v>8002694</v>
+        <v>8004495</v>
       </c>
       <c r="C321" s="2">
-        <v>1750173205</v>
+        <v>1750222982</v>
       </c>
       <c r="D321" t="s">
         <v>206</v>
@@ -5798,86 +5775,86 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="B322">
-        <v>8002694</v>
+        <v>8004526</v>
       </c>
       <c r="C322" s="2">
-        <v>1750193275</v>
+        <v>1750304916</v>
       </c>
       <c r="D322" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B323">
-        <v>8002746</v>
+        <v>8004898</v>
       </c>
       <c r="C323" s="2">
-        <v>1750109615</v>
+        <v>1750130600</v>
       </c>
       <c r="D323" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B324">
-        <v>8002746</v>
+        <v>8006044</v>
       </c>
       <c r="C324" s="2">
-        <v>1750109641</v>
+        <v>1750105988</v>
       </c>
       <c r="D324" t="s">
-        <v>207</v>
+        <v>174</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B325">
-        <v>8002753</v>
+        <v>8006280</v>
       </c>
       <c r="C325" s="2">
-        <v>1750102901</v>
+        <v>1750188523</v>
       </c>
       <c r="D325" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B326">
-        <v>8002883</v>
+        <v>8008936</v>
       </c>
       <c r="C326" s="2">
-        <v>1750188523</v>
+        <v>1750215294</v>
       </c>
       <c r="D326" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B327">
-        <v>8003159</v>
+        <v>8008945</v>
       </c>
       <c r="C327" s="2">
-        <v>1750193275</v>
+        <v>1750109659</v>
       </c>
       <c r="D327" t="s">
-        <v>210</v>
+        <v>49</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.3">
@@ -5885,24 +5862,24 @@
         <v>8</v>
       </c>
       <c r="B328">
-        <v>8003456</v>
+        <v>8009062</v>
       </c>
       <c r="C328" s="2">
-        <v>1750173205</v>
+        <v>1750177464</v>
       </c>
       <c r="D328" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="B329">
-        <v>8003492</v>
+        <v>8009074</v>
       </c>
       <c r="C329" s="2">
-        <v>1750109615</v>
+        <v>1750200435</v>
       </c>
       <c r="D329" t="s">
         <v>211</v>
@@ -5910,13 +5887,13 @@
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B330">
-        <v>8003561</v>
-      </c>
-      <c r="C330" s="2">
-        <v>1750177464</v>
+        <v>8009161</v>
+      </c>
+      <c r="C330" t="s">
+        <v>41</v>
       </c>
       <c r="D330" t="s">
         <v>212</v>
@@ -5924,13 +5901,13 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="B331">
-        <v>8004495</v>
+        <v>8009168</v>
       </c>
       <c r="C331" s="2">
-        <v>1750222982</v>
+        <v>1750173205</v>
       </c>
       <c r="D331" t="s">
         <v>213</v>
@@ -5938,13 +5915,13 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>137</v>
+        <v>47</v>
       </c>
       <c r="B332">
-        <v>8004526</v>
+        <v>8009172</v>
       </c>
       <c r="C332" s="2">
-        <v>1750304916</v>
+        <v>1750109615</v>
       </c>
       <c r="D332" t="s">
         <v>214</v>
@@ -5952,13 +5929,13 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="B333">
-        <v>8004898</v>
+        <v>8009403</v>
       </c>
       <c r="C333" s="2">
-        <v>1750130600</v>
+        <v>1750100966</v>
       </c>
       <c r="D333" t="s">
         <v>215</v>
@@ -5966,321 +5943,321 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
       <c r="B334">
-        <v>8005093</v>
-      </c>
-      <c r="C334" s="2">
-        <v>1750155446</v>
+        <v>8009403</v>
+      </c>
+      <c r="C334" t="s">
+        <v>216</v>
       </c>
       <c r="D334" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B335">
-        <v>8005093</v>
+        <v>8009485</v>
       </c>
       <c r="C335" s="2">
-        <v>1750055614</v>
+        <v>1750136011</v>
       </c>
       <c r="D335" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B336">
-        <v>8006044</v>
+        <v>8009490</v>
       </c>
       <c r="C336" s="2">
         <v>1750105988</v>
       </c>
       <c r="D336" t="s">
-        <v>177</v>
+        <v>218</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="B337">
-        <v>8006280</v>
+        <v>8009740</v>
       </c>
       <c r="C337" s="2">
-        <v>1750188523</v>
+        <v>1750171419</v>
       </c>
       <c r="D337" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="B338">
-        <v>8008898</v>
+        <v>8009828</v>
       </c>
       <c r="C338" s="2">
-        <v>1750173205</v>
+        <v>1750261447</v>
       </c>
       <c r="D338" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B339">
-        <v>8008936</v>
+        <v>8009835</v>
       </c>
       <c r="C339" s="2">
-        <v>1750215294</v>
+        <v>1750105988</v>
       </c>
       <c r="D339" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B340">
-        <v>8008945</v>
+        <v>8009857</v>
       </c>
       <c r="C340" s="2">
-        <v>1750109659</v>
+        <v>1770031910</v>
       </c>
       <c r="D340" t="s">
-        <v>55</v>
+        <v>221</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="B341">
-        <v>8009062</v>
+        <v>8009873</v>
       </c>
       <c r="C341" s="2">
-        <v>1750177464</v>
+        <v>1750173205</v>
       </c>
       <c r="D341" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="B342">
-        <v>8009074</v>
+        <v>8009934</v>
       </c>
       <c r="C342" s="2">
-        <v>1750200435</v>
+        <v>1750105988</v>
       </c>
       <c r="D342" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
       <c r="B343">
-        <v>8009122</v>
+        <v>8009937</v>
       </c>
       <c r="C343" t="s">
-        <v>18</v>
+        <v>291</v>
       </c>
       <c r="D343" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B344">
-        <v>8009161</v>
-      </c>
-      <c r="C344" t="s">
-        <v>42</v>
+        <v>8010058</v>
+      </c>
+      <c r="C344" s="2">
+        <v>1750200435</v>
       </c>
       <c r="D344" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="B345">
-        <v>8009168</v>
+        <v>8010648</v>
       </c>
       <c r="C345" s="2">
-        <v>1750173205</v>
+        <v>1750109658</v>
       </c>
       <c r="D345" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B346">
-        <v>8009172</v>
+        <v>8010671</v>
       </c>
       <c r="C346" s="2">
         <v>1750109615</v>
       </c>
       <c r="D346" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>137</v>
+        <v>44</v>
       </c>
       <c r="B347">
-        <v>8009403</v>
+        <v>8011156</v>
       </c>
       <c r="C347" s="2">
-        <v>1750100966</v>
+        <v>1750220000</v>
       </c>
       <c r="D347" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>137</v>
+        <v>44</v>
       </c>
       <c r="B348">
-        <v>8009403</v>
-      </c>
-      <c r="C348" t="s">
+        <v>8011156</v>
+      </c>
+      <c r="C348" s="2">
+        <v>1750214647</v>
+      </c>
+      <c r="D348" t="s">
         <v>225</v>
-      </c>
-      <c r="D348" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B349">
-        <v>8009485</v>
+        <v>8011156</v>
       </c>
       <c r="C349" s="2">
-        <v>1750136011</v>
+        <v>1750200541</v>
       </c>
       <c r="D349" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B350">
-        <v>8009490</v>
+        <v>8012047</v>
       </c>
       <c r="C350" s="2">
-        <v>1750105988</v>
+        <v>1750101956</v>
       </c>
       <c r="D350" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B351">
-        <v>8009740</v>
-      </c>
-      <c r="C351" s="2">
-        <v>1750171419</v>
+        <v>8012047</v>
+      </c>
+      <c r="C351" t="s">
+        <v>148</v>
       </c>
       <c r="D351" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B352">
-        <v>8009828</v>
-      </c>
-      <c r="C352" s="2">
-        <v>1750261447</v>
+        <v>8012047</v>
+      </c>
+      <c r="C352" t="s">
+        <v>149</v>
       </c>
       <c r="D352" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B353">
-        <v>8009835</v>
+        <v>8012047</v>
       </c>
       <c r="C353" s="2">
-        <v>1750105988</v>
+        <v>1750064500</v>
       </c>
       <c r="D353" t="s">
-        <v>177</v>
+        <v>226</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="B354">
-        <v>8009857</v>
+        <v>8012126</v>
       </c>
       <c r="C354" s="2">
-        <v>1770031910</v>
+        <v>1750109659</v>
       </c>
       <c r="D354" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B355">
-        <v>8009873</v>
+        <v>8012267</v>
       </c>
       <c r="C355" s="2">
-        <v>1750173205</v>
+        <v>1750200435</v>
       </c>
       <c r="D355" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>137</v>
+        <v>47</v>
       </c>
       <c r="B356">
-        <v>8009934</v>
-      </c>
-      <c r="C356" s="2">
-        <v>1750105988</v>
+        <v>8012317</v>
+      </c>
+      <c r="C356" t="s">
+        <v>229</v>
       </c>
       <c r="D356" t="s">
         <v>230</v>
@@ -6288,41 +6265,41 @@
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>137</v>
+        <v>47</v>
       </c>
       <c r="B357">
-        <v>8009937</v>
+        <v>8012317</v>
       </c>
       <c r="C357" t="s">
-        <v>298</v>
+        <v>231</v>
       </c>
       <c r="D357" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B358">
-        <v>8010058</v>
+        <v>8012665</v>
       </c>
       <c r="C358" s="2">
-        <v>1750200435</v>
+        <v>1750105988</v>
       </c>
       <c r="D358" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="B359">
-        <v>8010648</v>
+        <v>8012665</v>
       </c>
       <c r="C359" s="2">
-        <v>1750109658</v>
+        <v>1750109641</v>
       </c>
       <c r="D359" t="s">
         <v>232</v>
@@ -6330,27 +6307,27 @@
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="B360">
-        <v>8010671</v>
+        <v>8012702</v>
       </c>
       <c r="C360" s="2">
-        <v>1750109615</v>
+        <v>1750222982</v>
       </c>
       <c r="D360" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B361">
-        <v>8011156</v>
+        <v>8013156</v>
       </c>
       <c r="C361" s="2">
-        <v>1750220000</v>
+        <v>1750188523</v>
       </c>
       <c r="D361" t="s">
         <v>233</v>
@@ -6358,55 +6335,55 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B362">
-        <v>8011156</v>
+        <v>8013231</v>
       </c>
       <c r="C362" s="2">
-        <v>1750214647</v>
+        <v>1750109615</v>
       </c>
       <c r="D362" t="s">
-        <v>233</v>
+        <v>49</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B363">
-        <v>8011156</v>
-      </c>
-      <c r="C363" s="2">
-        <v>1750200541</v>
+        <v>8013236</v>
+      </c>
+      <c r="C363" t="s">
+        <v>234</v>
       </c>
       <c r="D363" t="s">
-        <v>233</v>
+        <v>49</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>82</v>
+        <v>130</v>
       </c>
       <c r="B364">
-        <v>8012126</v>
-      </c>
-      <c r="C364" t="s">
-        <v>298</v>
+        <v>8015313</v>
+      </c>
+      <c r="C364" s="2">
+        <v>1750100965</v>
       </c>
       <c r="D364" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>173</v>
+        <v>44</v>
       </c>
       <c r="B365">
-        <v>8012176</v>
-      </c>
-      <c r="C365" t="s">
-        <v>235</v>
+        <v>8016213</v>
+      </c>
+      <c r="C365" s="2">
+        <v>1750215294</v>
       </c>
       <c r="D365" t="s">
         <v>236</v>
@@ -6414,55 +6391,55 @@
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B366">
-        <v>8012267</v>
+        <v>8017631</v>
       </c>
       <c r="C366" s="2">
-        <v>1750200435</v>
+        <v>1750157444</v>
       </c>
       <c r="D366" t="s">
-        <v>237</v>
+        <v>49</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B367">
-        <v>8012317</v>
-      </c>
-      <c r="C367" t="s">
-        <v>238</v>
+        <v>8017651</v>
+      </c>
+      <c r="C367" s="2">
+        <v>1750200435</v>
       </c>
       <c r="D367" t="s">
-        <v>55</v>
+        <v>237</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B368">
-        <v>8012317</v>
-      </c>
-      <c r="C368" t="s">
-        <v>75</v>
+        <v>8017678</v>
+      </c>
+      <c r="C368" s="2">
+        <v>1750200435</v>
       </c>
       <c r="D368" t="s">
-        <v>55</v>
+        <v>238</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B369">
-        <v>8012665</v>
+        <v>8017873</v>
       </c>
       <c r="C369" s="2">
-        <v>1750105988</v>
+        <v>1750109659</v>
       </c>
       <c r="D369" t="s">
         <v>239</v>
@@ -6470,30 +6447,30 @@
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B370">
-        <v>8012665</v>
-      </c>
-      <c r="C370" s="2">
-        <v>1750109641</v>
+        <v>8017955</v>
+      </c>
+      <c r="C370" t="s">
+        <v>240</v>
       </c>
       <c r="D370" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="B371">
-        <v>8012702</v>
+        <v>8018004</v>
       </c>
       <c r="C371" s="2">
-        <v>1750222982</v>
+        <v>1750045330</v>
       </c>
       <c r="D371" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.3">
@@ -6501,150 +6478,150 @@
         <v>10</v>
       </c>
       <c r="B372">
-        <v>8012717</v>
-      </c>
-      <c r="C372" t="s">
-        <v>18</v>
+        <v>8018007</v>
+      </c>
+      <c r="C372" s="2">
+        <v>1750105988</v>
       </c>
       <c r="D372" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>181</v>
+        <v>47</v>
       </c>
       <c r="B373">
-        <v>8013086</v>
+        <v>8018041</v>
       </c>
       <c r="C373" s="2">
-        <v>1750053690</v>
+        <v>1750173205</v>
       </c>
       <c r="D373" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B374">
-        <v>8013156</v>
+        <v>8018258</v>
       </c>
       <c r="C374" s="2">
-        <v>1750188523</v>
+        <v>1750109615</v>
       </c>
       <c r="D374" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B375">
-        <v>8013231</v>
+        <v>8018271</v>
       </c>
       <c r="C375" s="2">
-        <v>1750109615</v>
+        <v>1750188523</v>
       </c>
       <c r="D375" t="s">
-        <v>55</v>
+        <v>245</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>137</v>
+        <v>8</v>
       </c>
       <c r="B376">
-        <v>8015313</v>
+        <v>8018508</v>
       </c>
       <c r="C376" s="2">
-        <v>1750100965</v>
+        <v>1750109659</v>
       </c>
       <c r="D376" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B377">
-        <v>8016213</v>
+        <v>8018508</v>
       </c>
       <c r="C377" s="2">
-        <v>1750215294</v>
+        <v>1750105679</v>
       </c>
       <c r="D377" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B378">
-        <v>8017631</v>
+        <v>8018527</v>
       </c>
       <c r="C378" s="2">
-        <v>1750157444</v>
+        <v>1750134478</v>
       </c>
       <c r="D378" t="s">
-        <v>55</v>
+        <v>247</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B379">
-        <v>8017651</v>
+        <v>8018527</v>
       </c>
       <c r="C379" s="2">
-        <v>1750200435</v>
+        <v>1750193275</v>
       </c>
       <c r="D379" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B380">
-        <v>8017678</v>
+        <v>8018527</v>
       </c>
       <c r="C380" s="2">
-        <v>1750200435</v>
+        <v>1750200541</v>
       </c>
       <c r="D380" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B381">
-        <v>8017873</v>
-      </c>
-      <c r="C381" s="2">
-        <v>1750109659</v>
+        <v>8018599</v>
+      </c>
+      <c r="C381" t="s">
+        <v>99</v>
       </c>
       <c r="D381" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B382">
-        <v>8017955</v>
-      </c>
-      <c r="C382" t="s">
-        <v>248</v>
+        <v>8018768</v>
+      </c>
+      <c r="C382" s="2">
+        <v>1750105988</v>
       </c>
       <c r="D382" t="s">
         <v>249</v>
@@ -6652,13 +6629,13 @@
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>137</v>
+        <v>47</v>
       </c>
       <c r="B383">
-        <v>8018004</v>
+        <v>8019163</v>
       </c>
       <c r="C383" s="2">
-        <v>1750045330</v>
+        <v>1750109615</v>
       </c>
       <c r="D383" t="s">
         <v>250</v>
@@ -6666,27 +6643,27 @@
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B384">
-        <v>8018007</v>
+        <v>8019173</v>
       </c>
       <c r="C384" s="2">
-        <v>1750105988</v>
+        <v>1750173205</v>
       </c>
       <c r="D384" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="B385">
-        <v>8018041</v>
+        <v>8019184</v>
       </c>
       <c r="C385" s="2">
-        <v>1750173205</v>
+        <v>1750092824</v>
       </c>
       <c r="D385" t="s">
         <v>251</v>
@@ -6694,10 +6671,10 @@
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="B386">
-        <v>8018258</v>
+        <v>8019215</v>
       </c>
       <c r="C386" s="2">
         <v>1750109615</v>
@@ -6708,755 +6685,755 @@
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="B387">
-        <v>8018271</v>
+        <v>8019215</v>
       </c>
       <c r="C387" s="2">
-        <v>1750188523</v>
+        <v>1750109641</v>
       </c>
       <c r="D387" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="B388">
-        <v>8018486</v>
-      </c>
-      <c r="C388" t="s">
-        <v>254</v>
+        <v>8019273</v>
+      </c>
+      <c r="C388" s="2">
+        <v>1750188524</v>
       </c>
       <c r="D388" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="B389">
-        <v>8018486</v>
-      </c>
-      <c r="C389" t="s">
-        <v>256</v>
+        <v>8019273</v>
+      </c>
+      <c r="C389" s="2">
+        <v>1750188523</v>
       </c>
       <c r="D389" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="B390">
-        <v>8018502</v>
+        <v>8019334</v>
       </c>
       <c r="C390" s="2">
-        <v>1750109615</v>
+        <v>1750173205</v>
       </c>
       <c r="D390" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B391">
-        <v>8018502</v>
+        <v>8019396</v>
       </c>
       <c r="C391" s="2">
-        <v>1750256247</v>
+        <v>1750200435</v>
       </c>
       <c r="D391" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B392">
-        <v>8018527</v>
+        <v>8019563</v>
       </c>
       <c r="C392" s="2">
-        <v>1750134478</v>
+        <v>1750215294</v>
       </c>
       <c r="D392" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B393">
-        <v>8018527</v>
+        <v>8020994</v>
       </c>
       <c r="C393" s="2">
-        <v>1750193275</v>
+        <v>1750173205</v>
       </c>
       <c r="D393" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="B394">
-        <v>8018527</v>
+        <v>8021104</v>
       </c>
       <c r="C394" s="2">
-        <v>1750200541</v>
+        <v>1750222982</v>
       </c>
       <c r="D394" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B395">
-        <v>8018599</v>
-      </c>
-      <c r="C395" t="s">
-        <v>107</v>
+        <v>8021158</v>
+      </c>
+      <c r="C395" s="2">
+        <v>1750173205</v>
       </c>
       <c r="D395" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B396">
-        <v>8018708</v>
+        <v>8021342</v>
       </c>
       <c r="C396" s="2">
-        <v>1750101956</v>
+        <v>1750053977</v>
       </c>
       <c r="D396" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B397">
-        <v>8018708</v>
+        <v>8021342</v>
       </c>
       <c r="C397" s="2">
-        <v>1750154866</v>
+        <v>1750109615</v>
       </c>
       <c r="D397" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B398">
-        <v>8018768</v>
+        <v>8021411</v>
       </c>
       <c r="C398" s="2">
-        <v>1750105988</v>
+        <v>1750177464</v>
       </c>
       <c r="D398" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B399">
-        <v>8019163</v>
+        <v>8021411</v>
       </c>
       <c r="C399" s="2">
-        <v>1750109615</v>
+        <v>1750101956</v>
       </c>
       <c r="D399" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>41</v>
+        <v>130</v>
       </c>
       <c r="B400">
-        <v>8019173</v>
+        <v>8021466</v>
       </c>
       <c r="C400" s="2">
-        <v>1750173205</v>
+        <v>1750041251</v>
       </c>
       <c r="D400" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B401">
-        <v>8019184</v>
+        <v>8021466</v>
       </c>
       <c r="C401" s="2">
-        <v>1750092824</v>
+        <v>1750045776</v>
       </c>
       <c r="D401" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="B402">
-        <v>8019215</v>
+        <v>8021466</v>
       </c>
       <c r="C402" s="2">
-        <v>1750109615</v>
+        <v>1750020811</v>
       </c>
       <c r="D402" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="B403">
-        <v>8019215</v>
+        <v>8021466</v>
       </c>
       <c r="C403" s="2">
-        <v>1750109641</v>
+        <v>1750035776</v>
       </c>
       <c r="D403" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
       <c r="B404">
-        <v>8019273</v>
+        <v>8021466</v>
       </c>
       <c r="C404" s="2">
-        <v>1750188524</v>
+        <v>1750035762</v>
       </c>
       <c r="D404" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
       <c r="B405">
-        <v>8019273</v>
+        <v>8021466</v>
       </c>
       <c r="C405" s="2">
-        <v>1750188523</v>
+        <v>1750053977</v>
       </c>
       <c r="D405" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>82</v>
+        <v>130</v>
       </c>
       <c r="B406">
-        <v>8019334</v>
+        <v>8021466</v>
       </c>
       <c r="C406" s="2">
-        <v>1750173205</v>
+        <v>1750044668</v>
       </c>
       <c r="D406" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B407">
-        <v>8019396</v>
+        <v>8021567</v>
       </c>
       <c r="C407" s="2">
-        <v>1750200435</v>
+        <v>1750105988</v>
       </c>
       <c r="D407" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B408">
-        <v>8019563</v>
+        <v>8021674</v>
       </c>
       <c r="C408" s="2">
-        <v>1750215294</v>
+        <v>1750220330</v>
       </c>
       <c r="D408" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B409">
-        <v>8019576</v>
+        <v>8021674</v>
       </c>
       <c r="C409" s="2">
-        <v>1750109615</v>
+        <v>1750248000</v>
       </c>
       <c r="D409" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B410">
-        <v>8019692</v>
+        <v>8021674</v>
       </c>
       <c r="C410" s="2">
-        <v>1750109641</v>
+        <v>1750143750</v>
       </c>
       <c r="D410" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>269</v>
+        <v>10</v>
       </c>
       <c r="B411">
-        <v>8020563</v>
+        <v>8021686</v>
       </c>
       <c r="C411" s="2">
-        <v>1750105679</v>
+        <v>1750109658</v>
       </c>
       <c r="D411" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>269</v>
+        <v>47</v>
       </c>
       <c r="B412">
-        <v>8020563</v>
-      </c>
-      <c r="C412" s="2">
-        <v>1750109659</v>
+        <v>8022457</v>
+      </c>
+      <c r="C412" t="s">
+        <v>263</v>
       </c>
       <c r="D412" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="B413">
-        <v>8020994</v>
-      </c>
-      <c r="C413" s="2">
-        <v>1750173205</v>
+        <v>8022457</v>
+      </c>
+      <c r="C413" t="s">
+        <v>51</v>
       </c>
       <c r="D413" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>181</v>
+        <v>44</v>
       </c>
       <c r="B414">
-        <v>8021104</v>
+        <v>8022650</v>
       </c>
       <c r="C414" s="2">
-        <v>1750222982</v>
+        <v>1750193275</v>
       </c>
       <c r="D414" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B415">
-        <v>8021158</v>
+        <v>8022696</v>
       </c>
       <c r="C415" s="2">
-        <v>1750173205</v>
+        <v>1750215295</v>
       </c>
       <c r="D415" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>48</v>
+        <v>267</v>
       </c>
       <c r="B416">
-        <v>8021342</v>
+        <v>8023581</v>
       </c>
       <c r="C416" s="2">
-        <v>1750053977</v>
+        <v>1750291701</v>
       </c>
       <c r="D416" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B417">
-        <v>8021342</v>
+        <v>8023616</v>
       </c>
       <c r="C417" s="2">
-        <v>1750109615</v>
+        <v>1750215295</v>
       </c>
       <c r="D417" t="s">
-        <v>272</v>
+        <v>49</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B418">
-        <v>8021411</v>
+        <v>8023616</v>
       </c>
       <c r="C418" s="2">
-        <v>1750177464</v>
+        <v>1750189650</v>
       </c>
       <c r="D418" t="s">
-        <v>273</v>
+        <v>49</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B419">
-        <v>8021411</v>
+        <v>8023616</v>
       </c>
       <c r="C419" s="2">
-        <v>1750101956</v>
+        <v>1750053977</v>
       </c>
       <c r="D419" t="s">
-        <v>273</v>
+        <v>49</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>137</v>
+        <v>8</v>
       </c>
       <c r="B420">
-        <v>8021466</v>
+        <v>8023621</v>
       </c>
       <c r="C420" s="2">
-        <v>1750041251</v>
+        <v>1750188523</v>
       </c>
       <c r="D420" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>137</v>
+        <v>44</v>
       </c>
       <c r="B421">
-        <v>8021466</v>
+        <v>8023626</v>
       </c>
       <c r="C421" s="2">
-        <v>1750045776</v>
+        <v>1750249441</v>
       </c>
       <c r="D421" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>137</v>
+        <v>44</v>
       </c>
       <c r="B422">
-        <v>8021466</v>
+        <v>8023626</v>
       </c>
       <c r="C422" s="2">
-        <v>1750020811</v>
+        <v>1750220000</v>
       </c>
       <c r="D422" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>137</v>
+        <v>8</v>
       </c>
       <c r="B423">
-        <v>8021466</v>
+        <v>8023656</v>
       </c>
       <c r="C423" s="2">
-        <v>1750035776</v>
+        <v>1750188523</v>
       </c>
       <c r="D423" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>137</v>
+        <v>8</v>
       </c>
       <c r="B424">
-        <v>8021466</v>
+        <v>8023656</v>
       </c>
       <c r="C424" s="2">
-        <v>1750035762</v>
+        <v>1750101956</v>
       </c>
       <c r="D424" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B425">
-        <v>8021466</v>
+        <v>8023683</v>
       </c>
       <c r="C425" s="2">
-        <v>1750053977</v>
+        <v>1750109615</v>
       </c>
       <c r="D425" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>137</v>
+        <v>47</v>
       </c>
       <c r="B426">
-        <v>8021466</v>
+        <v>8023828</v>
       </c>
       <c r="C426" s="2">
-        <v>1750044668</v>
+        <v>1750101956</v>
       </c>
       <c r="D426" t="s">
-        <v>274</v>
+        <v>49</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B427">
-        <v>8021567</v>
+        <v>8023846</v>
       </c>
       <c r="C427" s="2">
-        <v>1750105988</v>
+        <v>1750053977</v>
       </c>
       <c r="D427" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B428">
-        <v>8021573</v>
+        <v>8023846</v>
       </c>
       <c r="C428" s="2">
-        <v>1750053977</v>
+        <v>1750109659</v>
       </c>
       <c r="D428" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B429">
-        <v>8021573</v>
+        <v>8023846</v>
       </c>
       <c r="C429" s="2">
-        <v>1750109615</v>
+        <v>1750173205</v>
       </c>
       <c r="D429" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B430">
-        <v>8021585</v>
+        <v>8023994</v>
       </c>
       <c r="C430" s="2">
-        <v>1750109659</v>
+        <v>1750105988</v>
       </c>
       <c r="D430" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B431">
-        <v>8021623</v>
+        <v>8024230</v>
       </c>
       <c r="C431" s="2">
-        <v>1750177464</v>
+        <v>1750200435</v>
       </c>
       <c r="D431" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="B432">
-        <v>8021674</v>
+        <v>8024404</v>
       </c>
       <c r="C432" s="2">
-        <v>1750220330</v>
+        <v>1750053690</v>
       </c>
       <c r="D432" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B433">
-        <v>8021674</v>
+        <v>8024427</v>
       </c>
       <c r="C433" s="2">
-        <v>1750248000</v>
+        <v>1750100966</v>
       </c>
       <c r="D433" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="B434">
-        <v>8021674</v>
+        <v>8024771</v>
       </c>
       <c r="C434" s="2">
-        <v>1750143750</v>
+        <v>1750092824</v>
       </c>
       <c r="D434" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="B435">
-        <v>8021686</v>
+        <v>8024826</v>
       </c>
       <c r="C435" s="2">
-        <v>1750109658</v>
+        <v>1750173205</v>
       </c>
       <c r="D435" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B436">
-        <v>8022047</v>
-      </c>
-      <c r="C436" t="s">
-        <v>18</v>
+        <v>8024887</v>
+      </c>
+      <c r="C436" s="2">
+        <v>1750105988</v>
       </c>
       <c r="D436" t="s">
-        <v>55</v>
+        <v>279</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>173</v>
+        <v>44</v>
       </c>
       <c r="B437">
-        <v>8022442</v>
+        <v>8025025</v>
       </c>
       <c r="C437" s="2">
-        <v>1750053977</v>
+        <v>1750177464</v>
       </c>
       <c r="D437" t="s">
-        <v>55</v>
+        <v>280</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B438">
-        <v>8022696</v>
+        <v>8025052</v>
       </c>
       <c r="C438" s="2">
-        <v>1750215295</v>
+        <v>1750200435</v>
       </c>
       <c r="D438" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B439">
-        <v>8023626</v>
+        <v>8025129</v>
       </c>
       <c r="C439" s="2">
-        <v>1750249441</v>
+        <v>1750109659</v>
       </c>
       <c r="D439" t="s">
-        <v>281</v>
+        <v>180</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B440">
-        <v>8023626</v>
+        <v>8025196</v>
       </c>
       <c r="C440" s="2">
-        <v>1750220000</v>
+        <v>1750053977</v>
       </c>
       <c r="D440" t="s">
         <v>281</v>
@@ -7464,13 +7441,13 @@
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B441">
-        <v>8023656</v>
+        <v>8025243</v>
       </c>
       <c r="C441" s="2">
-        <v>1750188523</v>
+        <v>1750126457</v>
       </c>
       <c r="D441" t="s">
         <v>282</v>
@@ -7481,52 +7458,52 @@
         <v>8</v>
       </c>
       <c r="B442">
-        <v>8023656</v>
+        <v>8025293</v>
       </c>
       <c r="C442" s="2">
-        <v>1750101956</v>
+        <v>1750177464</v>
       </c>
       <c r="D442" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>137</v>
+        <v>36</v>
       </c>
       <c r="B443">
-        <v>8023683</v>
+        <v>8025548</v>
       </c>
       <c r="C443" s="2">
-        <v>1750109615</v>
+        <v>1750290512</v>
       </c>
       <c r="D443" t="s">
-        <v>262</v>
+        <v>49</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>283</v>
+        <v>44</v>
       </c>
       <c r="B444">
-        <v>8023689</v>
-      </c>
-      <c r="C444">
-        <v>1750288271</v>
+        <v>8026068</v>
+      </c>
+      <c r="C444" s="2">
+        <v>1750200541</v>
       </c>
       <c r="D444" t="s">
-        <v>284</v>
+        <v>49</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>283</v>
+        <v>44</v>
       </c>
       <c r="B445">
-        <v>8023689</v>
-      </c>
-      <c r="C445">
-        <v>1750295447</v>
+        <v>8026076</v>
+      </c>
+      <c r="C445" s="2">
+        <v>1750055175</v>
       </c>
       <c r="D445" t="s">
         <v>284</v>
@@ -7534,27 +7511,27 @@
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="B446">
-        <v>8023800</v>
+        <v>8026144</v>
       </c>
       <c r="C446" s="2">
-        <v>1750109615</v>
+        <v>1750177464</v>
       </c>
       <c r="D446" t="s">
-        <v>262</v>
+        <v>49</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>8</v>
+        <v>150</v>
       </c>
       <c r="B447">
-        <v>8023846</v>
+        <v>8026208</v>
       </c>
       <c r="C447" s="2">
-        <v>1750053977</v>
+        <v>1750045330</v>
       </c>
       <c r="D447" t="s">
         <v>285</v>
@@ -7562,328 +7539,188 @@
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B448">
-        <v>8023846</v>
+        <v>8026553</v>
       </c>
       <c r="C448" s="2">
-        <v>1750109659</v>
+        <v>1750177464</v>
       </c>
       <c r="D448" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B449">
-        <v>8023846</v>
+        <v>8027864</v>
       </c>
       <c r="C449" s="2">
-        <v>1750173205</v>
+        <v>1750200435</v>
       </c>
       <c r="D449" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="B450">
-        <v>8023929</v>
+        <v>8028277</v>
       </c>
       <c r="C450" s="2">
-        <v>1750288271</v>
+        <v>1750105679</v>
       </c>
       <c r="D450" t="s">
-        <v>286</v>
+        <v>49</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B451">
-        <v>8023929</v>
+        <v>8028282</v>
       </c>
       <c r="C451" s="2">
         <v>1750295447</v>
       </c>
       <c r="D451" t="s">
-        <v>286</v>
+        <v>49</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B452">
-        <v>8023994</v>
+        <v>8028282</v>
       </c>
       <c r="C452" s="2">
-        <v>1750105988</v>
+        <v>1750288271</v>
       </c>
       <c r="D452" t="s">
-        <v>287</v>
+        <v>49</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>8</v>
+        <v>150</v>
       </c>
       <c r="B453">
-        <v>8024020</v>
+        <v>8028325</v>
       </c>
       <c r="C453" s="2">
-        <v>1750109641</v>
+        <v>1750136010</v>
       </c>
       <c r="D453" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
       <c r="B454">
-        <v>8024020</v>
+        <v>8028381</v>
       </c>
       <c r="C454" s="2">
-        <v>1750044668</v>
+        <v>1750109659</v>
       </c>
       <c r="D454" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="B455">
-        <v>8024228</v>
-      </c>
-      <c r="C455" t="s">
-        <v>289</v>
+        <v>8028686</v>
+      </c>
+      <c r="C455" s="2">
+        <v>1750200435</v>
       </c>
       <c r="D455" t="s">
-        <v>55</v>
+        <v>288</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>4</v>
+        <v>150</v>
       </c>
       <c r="B456">
-        <v>8024228</v>
-      </c>
-      <c r="C456" t="s">
-        <v>89</v>
+        <v>8028981</v>
+      </c>
+      <c r="C456" s="2">
+        <v>1750173205</v>
       </c>
       <c r="D456" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B457">
-        <v>8024230</v>
+        <v>8029118</v>
       </c>
       <c r="C457" s="2">
-        <v>1750200435</v>
+        <v>1750189650</v>
       </c>
       <c r="D457" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>181</v>
+        <v>44</v>
       </c>
       <c r="B458">
-        <v>8024404</v>
+        <v>8029118</v>
       </c>
       <c r="C458" s="2">
-        <v>1750053690</v>
+        <v>1750177464</v>
       </c>
       <c r="D458" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B459">
-        <v>8024427</v>
+        <v>8029118</v>
       </c>
       <c r="C459" s="2">
-        <v>1750100966</v>
+        <v>1750174768</v>
       </c>
       <c r="D459" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="B460">
-        <v>8024438</v>
+        <v>8029476</v>
       </c>
       <c r="C460" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D460" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A461" t="s">
-        <v>181</v>
-      </c>
-      <c r="B461">
-        <v>8024826</v>
-      </c>
-      <c r="C461" s="2">
-        <v>1750173205</v>
-      </c>
-      <c r="D461" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A462" t="s">
-        <v>45</v>
-      </c>
-      <c r="B462">
-        <v>8025025</v>
-      </c>
-      <c r="C462" s="2">
-        <v>1750177464</v>
-      </c>
-      <c r="D462" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A463" t="s">
-        <v>45</v>
-      </c>
-      <c r="B463">
-        <v>8025052</v>
-      </c>
-      <c r="C463" s="2">
-        <v>1750200435</v>
-      </c>
-      <c r="D463" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A464" t="s">
-        <v>41</v>
-      </c>
-      <c r="B464">
-        <v>8025196</v>
-      </c>
-      <c r="C464" s="2">
-        <v>1750053977</v>
-      </c>
-      <c r="D464" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A465" t="s">
-        <v>45</v>
-      </c>
-      <c r="B465">
-        <v>8025243</v>
-      </c>
-      <c r="C465" s="2">
-        <v>1750126457</v>
-      </c>
-      <c r="D465" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A466" t="s">
-        <v>45</v>
-      </c>
-      <c r="B466">
-        <v>8026068</v>
-      </c>
-      <c r="C466" s="2">
-        <v>1750200541</v>
-      </c>
-      <c r="D466" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A467" t="s">
-        <v>45</v>
-      </c>
-      <c r="B467">
-        <v>8026076</v>
-      </c>
-      <c r="C467" s="2">
-        <v>1750055175</v>
-      </c>
-      <c r="D467" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A468" t="s">
-        <v>10</v>
-      </c>
-      <c r="B468">
-        <v>8026392</v>
-      </c>
-      <c r="C468" t="s">
-        <v>90</v>
-      </c>
-      <c r="D468" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A469" t="s">
-        <v>45</v>
-      </c>
-      <c r="B469">
-        <v>8026553</v>
-      </c>
-      <c r="C469" s="2">
-        <v>1750177464</v>
-      </c>
-      <c r="D469" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A470" t="s">
-        <v>45</v>
-      </c>
-      <c r="B470">
-        <v>8027864</v>
-      </c>
-      <c r="C470" s="2">
-        <v>1750200435</v>
-      </c>
-      <c r="D470" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D470" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:D460" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/intento70-30.xlsx
+++ b/intento70-30.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dieboldnixdorf-my.sharepoint.com/personal/lucas_rodriguez_dieboldnixdorf_com/Documents/Escritorio/Codigo/PARTES/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="11_0C09949B5B20546D3B5A2D11595ED87656CF1F76" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE7F7540-7F3E-4B2C-BD46-EAEF168FF5CD}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="11_1B81D59E5B10DD04FBD93A11595ED87656CF9ADD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16E0DFF8-A1E0-4FD4-BB40-80DFCECDAC39}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$460</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$447</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="286">
   <si>
     <t>NOMBRE CLIENTE</t>
   </si>
@@ -172,24 +172,21 @@
     <t>BIO. 14/12/23. PENDIENTE POR BIOMETRICO. MOLDURA DISPONIBLE (SORIANO)</t>
   </si>
   <si>
+    <t>NOWIP. 04/03/24. PARTE 1750105988 LECTORA V2X USB + 1750105679 V4 CMD CONTROLLER II USB + DISCO SATA: SIN SALDO EN WIP.  --  "PARTE 1750109641 + 1750109615 V4 EXTRACTORES + 1750169942 LCD BOX 15 + 175</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>BANCO NEUQUÉN</t>
+  </si>
+  <si>
     <t>Ticket Pendiente por Repuesto</t>
   </si>
   <si>
-    <t>NOWIP. 04/03/24. PARTE 1750105988 LECTORA V2X USB + 1750105679 V4 CMD CONTROLLER II USB + DISCO SATA: SIN SALDO EN WIP.  --  "PARTE 1750109641 + 1750109615 V4 EXTRACTORES + 1750169942 LCD BOX 15 + 175</t>
-  </si>
-  <si>
-    <t>DS</t>
-  </si>
-  <si>
-    <t>P1</t>
-  </si>
-  <si>
-    <t>BANCO NEUQUÉN</t>
-  </si>
-  <si>
-    <t>STOCK. 22/01/2024  PENDIENTE POR PARTE FASCIA 280 Y MOLDURA EN ESPERA DE REPARACION (RODRIGUEZ)</t>
-  </si>
-  <si>
     <t>BIO.26/1/2024 TICKET PENDIENTE POR BIOMÉTRICO (CORREA)</t>
   </si>
   <si>
@@ -397,9 +394,6 @@
     <t>NOWIP. 19/04/24. PARTE 1750193275 RM3 MAIN MODULE: SIN SALDO EN WIP. (MINIACI)</t>
   </si>
   <si>
-    <t>49201152000D</t>
-  </si>
-  <si>
     <t>NOSP. 15/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
@@ -427,9 +421,6 @@
     <t>NOSP. 02/05/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
-    <t>NOSP. 18/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
     <t>NOSP. 16/04/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
@@ -460,12 +451,6 @@
     <t>NOSP. 18/04/24. PARTE 1750248000 RM3 IO COLLECTOR + 1750220330 RM3 IO TRAY: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
-    <t>SV104969000H</t>
-  </si>
-  <si>
-    <t>NOWIP. 22/04/24. PARTE 49217353000A "ASSEMBLY PRINTER CARTRIDGE": SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
     <t>NOSP. 30/04/24. PARTE 1750188523 CCDM CHASIS + 1750154866 CCDM VALIDADOR CASH CHECK: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750188524 ALIGNMENT STATION 3 CCDM+ 1750101952 DISTANCE TRANSPORT VM3 DISPO</t>
   </si>
   <si>
@@ -475,433 +460,427 @@
     <t>1750195517-20</t>
   </si>
   <si>
+    <t>NOWIP. 19/04/24. PARTE 1750248000 RM3 IO COLLECTOR + 1750220330 RM3 IO TRAY: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 22/04/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 22/04/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 19/04/24. PARTE 1750200435 VS MODUL: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 22/04/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR + 1750215294 V5 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 25/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 23/04/24. PARTE 1750214647 RM3 TRANSFER UNIT SAFE: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750134478        CENTRALIZATION UNIT UPPER PART CRS/ATS DISPONIBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 26/04/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 07/05/24. PARTE 1750302850 SET DE CÁMARAS: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 23/04/24. PARTE 1750188523 CCDM CHASIS + 1750177464 CCDM ESCROW: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 23/04/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 25/04/24. PARTE 1750220330 RM3 IO TRAY + 1750248000 RM3 IO COLLECTOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 23/04/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 24/04/24. PARTE 1750263341 RM3 TRANSPORT UNIT HEAD + 1750126457 RM3 REEL STORAGE + 1750173205 LECTORA V2CU STANDARD: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 25/04/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 29/04/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 03/05/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 25/04/24. PARTE 1750188523 CCDM CHASIS + 1750177464 CCDM ESCROW: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 23/04/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
     <t>BANCO DE CORDOBA</t>
   </si>
   <si>
-    <t>NOWIP 22/04/2024. PARTE 1750222982	V4 SHUTTER LITE PC 280: SIN SALDO WN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 19/04/24. PARTE 1750248000 RM3 IO COLLECTOR + 1750220330 RM3 IO TRAY: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 22/04/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 22/04/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 19/04/24. PARTE 1750200435 VS MODUL: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 22/04/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR + 1750215294 V5 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>ETR. 10/05/24. PARTE 49208102003M AFD CCA DISPENSER: EN REPARACIÓN. ETR: 16/05/24. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 25/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 23/04/24. PARTE 1750214647 RM3 TRANSFER UNIT SAFE: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750134478        CENTRALIZATION UNIT UPPER PART CRS/ATS DISPONIBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 26/04/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 07/05/24. PARTE 1750302850 SET DE CÁMARAS: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 23/04/24. PARTE 1750188523 CCDM CHASIS + 1750177464 CCDM ESCROW: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 23/04/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 25/04/24. PARTE 1750220330 RM3 IO TRAY + 1750248000 RM3 IO COLLECTOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 23/04/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 24/04/24. PARTE 1750263341 RM3 TRANSPORT UNIT HEAD + 1750126457 RM3 REEL STORAGE + 1750173205 LECTORA V2CU STANDARD: SIN SALDO EN WIP. (MINIACI)</t>
+    <t>NOWIP. 25/04/24. PARTE 1750346607 SHUTTER IO TRAY II: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 25/04/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN.  --  "CLAMP 1750053977 DISPONIBLE". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 25/04/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 25/04/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 25/04/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750101956	DISPENSER MODULE VM3 DISPONIBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 30/04/24. PARTE 1750214647 RM3 TRANSFER UNIT SAFE + 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN.  --  "PARTE 1750133348 TMHLP + 1750245555 TUH DISPONIBLES"</t>
+  </si>
+  <si>
+    <t>NOWIP. 06/05/24. PARTE S/N "ACRÍLICO DE FASCIA PC1500": SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 29/04/24. PARTE 1750193275 RM3 MAIN MODULE + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOSP. 29/04/24. PARTE 1750263341 RM3 TRANSPORT UNIT HEAD + 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750245555 transport unit head short path CRS/ATS+ </t>
+  </si>
+  <si>
+    <t>NOWIP. 30/04/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 29/04/24. PARTE 1750177464 CCDM ESCROW: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 30/04/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 02/05/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 30/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>BIO. 29/04/2024 PENDIENTE POR BIOMETRICO (MAITLAND)</t>
+  </si>
+  <si>
+    <t>NOSP. 30/04/24. PARTE 1750193275 RM3 MAIN MODULE + 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 07/05/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR + 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>STOCK. 8/5/24. FASCIA 2100 CON JACK DE 3.5 A ESPERA DE DESARME (SORIANO)</t>
+  </si>
+  <si>
+    <t>NOSP. 02/05/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 30/04/24. PARTE 1750193275 RM3 MAIN MODULE : SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 03/05/24. PARTE 1750177464 CCDM ESCROW: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>RC. 13/05/2024 PARTE 1750188546 DEPOSIT PRINTER USB II A ESPERA DE REPARACION (MAITLAND)</t>
+  </si>
+  <si>
+    <t>NOWIP. 02/05/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 30/04/24. PARTE 1750304916 "SHUTTER I-O TRAY NSL": SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>SUP. 30/4/24. A ESPERA DE CONFIRMACION DE TRABA NECESARIA (SORIANO)</t>
+  </si>
+  <si>
+    <t>NOSP. 08/05/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 03/05/24. PARTE 1750215294 V5 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 03/05/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>STOCK. 6/5/24. PARTE FASCIA 280. A ESPERA DE REPARACION DE TECNOS. (ALEGRE)</t>
+  </si>
+  <si>
+    <t>NOWIP. 06/05/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 06/05/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>ETR. 09/05/24. PARTE 1750182347 PC 3G WINCOR: EN REPARACIÓN. ETR: 14/05/24. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 06/05/24. PARTE 1750261447 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 09/05/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>SUP. 09/05/2024 A ESPERA DE NUMERO DE PARTE (MAITLAND)</t>
+  </si>
+  <si>
+    <t>NOSP. 06/05/24. PARTE 1750109658  V4 STACKER S/SR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 03/05/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 07/05/24. PARTE 1750220000 RM3 IO COLLECTOR + 1750214647 RM3 TRANSFER UNIT SAFE: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750200541 DISTRIBUTOR MODULE DISPONBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 10/05/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN.  --  "PARTE 1750101956 VM3 DISPENSER MODULE + 1750154867 LINE XSA DISPONIBLES". (MINIACI)</t>
+  </si>
+  <si>
+    <t>SUP. 9/5/24. A ESPERA DE CONFIRMACION DE REPUESTO SOLICITADO (SORIANO)</t>
+  </si>
+  <si>
+    <t>NOSP. 06/05/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>49222644000A</t>
+  </si>
+  <si>
+    <t>ETR. 10/05/24. PARTE SV226262000D ENA TAPA DE GAVETAS: EN REPARACIÓN. ETR: 16/05/24.  --  "49222644000a VALIDATOR,TYPE B DISPONIBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
+    <t>SV226262000D</t>
+  </si>
+  <si>
+    <t>NOSP. 03/05/24. PARTE 1750105988 LECTORA V2X USB + 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 06/05/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 08/05/24. PARTE 1750100965 V4 SHUTTER FL VERTICAL: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 08/05/24. PARTE 1750215294 V5 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 08/05/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 08/05/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>49212868000D</t>
+  </si>
+  <si>
+    <t>NOWIP. 07/05/24. SE CORRIGE COMENTARIO ANTERIOR. PARTE 49212868000D CERRADURA DE FASCIA OPTEVA 868: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>SUP. 8/5/24. SE SOLICITA UN SHUTTER PERO EN LA AUDITORIA INDICA OTRA COSA. (SORIANO)</t>
+  </si>
+  <si>
+    <t>NOSP. 08/05/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 07/05/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 07/05/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 09/05/24. PARTE 1750193275 RM3 MAIN MODULE: SIN SPARE PARTS PARA REPARACIÓN.  --  "PARTE 1750200541 DISTRIBUTOR MODULE + 1750289153 CENTRALIZATION UPER UNIT DISPONIBLE". (MINIACI)</t>
+  </si>
+  <si>
+    <t>STOCK 09/05/2024. PARTE RIEL DEL HEAD. VER DESARME (FRETES)</t>
+  </si>
+  <si>
+    <t>49233151000A</t>
+  </si>
+  <si>
+    <t>NOSP. 07/05/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 08/05/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 07/05/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750188524 ALIGNMENT STATION 3 CCDM DISPONIBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 07/05/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 08/05/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 08/05/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN.  --  "CLAMP 1750053977 DISPONIBLE". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 08/05/24. PARTE 1750177464 CCDM ESCROW: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750101956 dispenser module VM3 DISPONIBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 08/05/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR + 1750109641 V4 EXTRACTOR SUPERIOR + 1750109659 V4 STACKER: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 08/05/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 08/05/24. PARTE 1750220330 RM3 IO TRAY + 1750248000 RM3 IO COLLECTOR: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750143750 SHUTTER I/O TRAY DISPONIBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 09/05/24. SE CORRIGE COMENTARIO ANTERIOR. PARTE 1750109658 STACKER: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 13/05/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA SU REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>FPCS0001</t>
+  </si>
+  <si>
+    <t>ETR. 10/05/24. PARTE FPCS0001 FUENTE PC: EN REPARACIÓN. ETR: 14/05/24.  --  "DS DISCO SOLIDO. DISPONIBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 10/05/24. PARTE 1750193275 RM3 MAIN MODULE: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 13/05/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR + 1750183289 V5 STACKER: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 10/05/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 09/05/24. PARTE 1750249441 RM3 MOVE AWCA + 1750220000 RM3 IO TRAY: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 09/05/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750101956 DISPENSER MODULE VM3 DISPONIBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
+    <t>RC. 14/5/24. EXTRACTOR 1750109615 A ESPERA DE REPARACION (SORIANO)</t>
+  </si>
+  <si>
+    <t>NOSP. 10/05/24. SE CORRIGE COMENTARIO ANTERIOR. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 09/05/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>RC. 13/05/2024 PARTE 1750188523 CCDM CHASSIS 3 A ESPERA DE REPARACION (MAITLAND)</t>
+  </si>
+  <si>
+    <t>NOSP. 09/05/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>49211433000A</t>
+  </si>
+  <si>
+    <t>NOSP. 10/05/24. PARTE 1750092824 DEPÓSITO DE SOBRES PROCASH: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>49200865X0AA</t>
+  </si>
+  <si>
+    <t>NOSP. 10/05/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>SV217422000F</t>
+  </si>
+  <si>
+    <t>SUP. 13/05/2024 A ESPERA DE CONFIRMACION DE NUMERO DE PARTE DEL EFFC (MAITLAND)</t>
+  </si>
+  <si>
+    <t>49219798000D</t>
+  </si>
+  <si>
+    <t>49227254000A</t>
+  </si>
+  <si>
+    <t>BIO.13/5/2024 TICKET PENDIENTE POR BIOMÉTRICO (CORREA)</t>
+  </si>
+  <si>
+    <t>NOSP. 09/05/24. PARTE 1750177464 CCDM ESCROW: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>ETR. 10/05/24. PARTE 1750053977 V4 CLAMP: EN REPARACIÓN. ETR: 16/05/24. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 09/05/24. PARTE 1750126457 RM3 REEL STORAGE: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 10/05/24. PARTE 1750177464 CCDM ESCROW: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>BANCO CIUDAD</t>
+  </si>
+  <si>
+    <t>NOWIP. 10/05/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 10/05/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>RC 13/05/2024. PARTE 1750288271 IOT IN-OUTPUT MODULE CUSTOMER TRAY+1750295447 IOC IN-OUTPUT MODULE COLLECTOR UNIT. A LA ESPERA DE ENSAMBLE (FRETES)</t>
+  </si>
+  <si>
+    <t>49200699000B</t>
+  </si>
+  <si>
+    <t>NOSP. 13/05/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 10/05/24. PARTE 1750189650 V5 STACKER S/SR + 1750177464 CCDM ESCROW: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 13/05/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>CBA.RC.13/5/24. PARTE 1750109641 DOUBLE EXTRACTOR UNIT MDMS CMD V4´+1750109615 DOUBLE EXTRACTOR UNIT CMD V4:EN ESPERA DE REPARACIÓN. ETA:16/5/24 (JIMENEZ)</t>
+  </si>
+  <si>
+    <t>NOSP. 13/05/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA SU REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 13/05/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>SUP 13/05/2024. PARTE SWITCH DE SUPERVISOR. A LA ESPERA DE CONFIRMACION DE NUMERO DE PARTE (FRETES)</t>
+  </si>
+  <si>
+    <t>CONECTOR_GAVETA</t>
+  </si>
+  <si>
+    <t>49229512000A</t>
   </si>
   <si>
     <t>NUEVO BANCO DEL CHACO</t>
   </si>
   <si>
-    <t>STOCK 25/04/2024. FASCIA 280. A LA ESPERA DE REPARACION POR PARTE DE TECNOS (FRETES)</t>
-  </si>
-  <si>
-    <t>NOSP. 25/04/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>BANCO CIUDAD</t>
-  </si>
-  <si>
-    <t>SV221800000C</t>
-  </si>
-  <si>
-    <t>SUP. 10/5/24. PARTE "CABLE DE UPPER ALIGN". A LA ESPERA DE MAYOR ESPECIFICACION PARA SOLICITAR EL CABLE A RC. (ALEGRE)</t>
-  </si>
-  <si>
-    <t>NOSP. 29/04/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 03/05/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 25/04/24. PARTE 1750188523 CCDM CHASIS + 1750177464 CCDM ESCROW: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 23/04/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 24/04/24. PARTE 1750092824 DEPÓSITO DE SOBRES PROCASH: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 25/04/24. PARTE 1750346607 SHUTTER IO TRAY II: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 25/04/24. PARTE 1750100966 V4 SHUTTER VERTICAL RL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 10/05/24. PARTE 1750109659 V4 STACKER: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 25/04/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN.  --  "CLAMP 1750053977 DISPONIBLE". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 25/04/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 30/04/24. PARTE 1750109658 V4 STACKER S/SR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 25/04/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 25/04/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750101956	DISPENSER MODULE VM3 DISPONIBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 30/04/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750053977 CLAMP DISPONIBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 30/04/24. PARTE 1750214647 RM3 TRANSFER UNIT SAFE + 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN.  --  "PARTE 1750133348 TMHLP + 1750245555 TUH DISPONIBLES"</t>
-  </si>
-  <si>
-    <t>NOWIP. 06/05/24. PARTE S/N "ACRÍLICO DE FASCIA PC1500": SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 29/04/24. PARTE 1750193275 RM3 MAIN MODULE + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOSP. 29/04/24. PARTE 1750263341 RM3 TRANSPORT UNIT HEAD + 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750245555 transport unit head short path CRS/ATS+ </t>
-  </si>
-  <si>
-    <t>NOWIP. 30/04/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 29/04/24. PARTE 1750177464 CCDM ESCROW: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 30/04/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>1750173205-35</t>
-  </si>
-  <si>
-    <t>NOSP. 03/05/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 02/05/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 30/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>BIO. 29/04/2024 PENDIENTE POR BIOMETRICO (MAITLAND)</t>
-  </si>
-  <si>
-    <t>NOSP. 30/04/24. PARTE 1750193275 RM3 MAIN MODULE + 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 07/05/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR + 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>STOCK. 8/5/24. FASCIA 2100 CON JACK DE 3.5 A ESPERA DE DESARME (SORIANO)</t>
-  </si>
-  <si>
-    <t>NOSP. 02/05/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 30/04/24. PARTE 1750193275 RM3 MAIN MODULE : SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 30/04/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 03/05/24. PARTE 1750177464 CCDM ESCROW: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 02/05/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 30/04/24. PARTE 1750304916 "SHUTTER I-O TRAY NSL": SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>SUP. 30/4/24. A ESPERA DE CONFIRMACION DE TRABA NECESARIA (SORIANO)</t>
-  </si>
-  <si>
-    <t>NOSP. 08/05/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 03/05/24. PARTE 1750215294 V5 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 03/05/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>STOCK. 6/5/24. PARTE FASCIA 280. A ESPERA DE REPARACION DE TECNOS. (ALEGRE)</t>
-  </si>
-  <si>
-    <t>NOSP. 02/05/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 02/05/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>ETR. 06/05/24. PARTE 1750100966 V4 SHUTTER VERTICAL RL: EN REPARACIÓN. ETR: 13/05/24.  --  "PARTE 49202966X0CB BEZEL, MTZ CD RDR DISPONIBLE". (MINIACI)</t>
-  </si>
-  <si>
-    <t>49202966X0CB</t>
-  </si>
-  <si>
-    <t>NOWIP. 06/05/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 06/05/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>ETR. 09/05/24. PARTE 1750182347 PC 3G WINCOR: EN REPARACIÓN. ETR: 14/05/24. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 06/05/24. PARTE 1750261447 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 09/05/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>SUP. 09/05/2024 A ESPERA DE NUMERO DE PARTE (MAITLAND)</t>
-  </si>
-  <si>
-    <t>NOSP. 06/05/24. PARTE 1750109658  V4 STACKER S/SR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 03/05/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 07/05/24. PARTE 1750220000 RM3 IO COLLECTOR + 1750214647 RM3 TRANSFER UNIT SAFE: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750200541 DISTRIBUTOR MODULE DISPONBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 10/05/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN.  --  "PARTE 1750101956 VM3 DISPENSER MODULE + 1750154867 LINE XSA DISPONIBLES". (MINIACI)</t>
-  </si>
-  <si>
-    <t>SUP. 9/5/24. A ESPERA DE CONFIRMACION DE REPUESTO SOLICITADO (SORIANO)</t>
-  </si>
-  <si>
-    <t>NOSP. 06/05/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>49222644000A</t>
-  </si>
-  <si>
-    <t>ETR. 10/05/24. PARTE SV226262000D ENA TAPA DE GAVETAS: EN REPARACIÓN. ETR: 16/05/24.  --  "49222644000a VALIDATOR,TYPE B DISPONIBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>SV226262000D</t>
-  </si>
-  <si>
-    <t>NOSP. 03/05/24. PARTE 1750105988 LECTORA V2X USB + 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 06/05/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>49233126000A</t>
-  </si>
-  <si>
-    <t>NOWIP. 08/05/24. PARTE 1750100965 V4 SHUTTER FL VERTICAL: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 08/05/24. PARTE 1750215294 V5 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 08/05/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 08/05/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 09/05/24. PARTE 1750109659 V4 STACKER: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>49212868000D</t>
-  </si>
-  <si>
-    <t>NOWIP. 07/05/24. SE CORRIGE COMENTARIO ANTERIOR. PARTE 49212868000D CERRADURA DE FASCIA OPTEVA 868: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>SUP. 8/5/24. SE SOLICITA UN SHUTTER PERO EN LA AUDITORIA INDICA OTRA COSA. (SORIANO)</t>
-  </si>
-  <si>
-    <t>NOSP. 08/05/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 07/05/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 07/05/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>CBA.DISP.10/05/24. PARTE 1750109659 CMD-V4 STACKER MODUL W. SR VERT.+1750105679 CMD CONTROLLER II USB ASSD WITH COVER: DISPONIBLE EN COORDINACIÓN PARA DESPACHO. (JIMENEZ)</t>
-  </si>
-  <si>
-    <t>NOSP. 09/05/24. PARTE 1750193275 RM3 MAIN MODULE: SIN SPARE PARTS PARA REPARACIÓN.  --  "PARTE 1750200541 DISTRIBUTOR MODULE + 1750289153 CENTRALIZATION UPER UNIT DISPONIBLE". (MINIACI)</t>
-  </si>
-  <si>
-    <t>STOCK 09/05/2024. PARTE RIEL DEL HEAD. VER DESARME (FRETES)</t>
-  </si>
-  <si>
-    <t>NOSP. 07/05/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 08/05/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 07/05/24. PARTE 1750092824 DEPOSITO DE SOBRES PROCASH: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 08/05/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR + 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 07/05/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750188524 ALIGNMENT STATION 3 CCDM DISPONIBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 07/05/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 08/05/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 08/05/24. PARTE 1750222982 V4 SHUTTER LITE: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 08/05/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN.  --  "CLAMP 1750053977 DISPONIBLE". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 08/05/24. PARTE 1750177464 CCDM ESCROW: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750101956 dispenser module VM3 DISPONIBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 08/05/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR + 1750109641 V4 EXTRACTOR SUPERIOR + 1750109659 V4 STACKER: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 08/05/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 08/05/24. PARTE 1750220330 RM3 IO TRAY + 1750248000 RM3 IO COLLECTOR: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750143750 SHUTTER I/O TRAY DISPONIBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 09/05/24. SE CORRIGE COMENTARIO ANTERIOR. PARTE 1750109658 STACKER: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>FPCS0001</t>
-  </si>
-  <si>
-    <t>ETR. 10/05/24. PARTE FPCS0001 FUENTE PC: EN REPARACIÓN. ETR: 14/05/24.  --  "DS DISCO SOLIDO. DISPONIBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 10/05/24. PARTE 1750193275 RM3 MAIN MODULE: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 08/05/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>BANCO DE LA PAMPA</t>
-  </si>
-  <si>
-    <t>RC.13/5/2024 1750291701	ESC Reel Storage EN ESPERA DE REPARACION (CORREA)</t>
-  </si>
-  <si>
-    <t>NOSP. 10/05/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 09/05/24. PARTE 1750249441 RM3 MOVE AWCA + 1750220000 RM3 IO TRAY: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 09/05/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750101956 DISPENSER MODULE VM3 DISPONIBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 08/05/24. PARTE 1750109659 V4 STACKER + 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 10/05/24. SE CORRIGE COMENTARIO ANTERIOR. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 09/05/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 09/05/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>ETR. 09/05/24. PARTE 1750100966 V4 SHUTTER RL VERTICAL: EN REPARACIÓN. ETR: 13/05/24. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 10/05/24. PARTE 1750092824 DEPÓSITO DE SOBRES PROCASH: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 09/05/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 10/05/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 09/05/24. PARTE 1750177464 CCDM ESCROW: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>ETR. 10/05/24. PARTE 1750053977 V4 CLAMP: EN REPARACIÓN. ETR: 16/05/24. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 09/05/24. PARTE 1750126457 RM3 REEL STORAGE: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 10/05/24. PARTE 1750177464 CCDM ESCROW: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>OKETR. 10/05/24. PARTE 1750055175 CCDM DEPOSIT TRANSPORT: REPARADO. EN FGI PARA TRANSFERIR A STOCK. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 10/05/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 10/05/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>CBA.DISP.10/05/24. PARTE 1750109659 CMD-V4 STACKER MODUL W. SR VERT.: DISPONIBLE EN COORDINACIÓN PARA DESPACHO. (JIMENEZ)</t>
-  </si>
-  <si>
-    <t>RC. 10/05/2024 PARTE 1750200435 VS MODULE A ESPERA DE REPARACION (MAITLAND)</t>
-  </si>
-  <si>
-    <t>NOWIP. 10/05/24. PARTE 1750189650 V5 STACKER S/SR + 1750177464 CCDM ESCROW: SIN SALDO EN WIP. (MINIACI)</t>
+    <t>ch.nowip.13/05/2024. parte: 00103323000E PRNTR,THRMRCPT,80,USB. se solicita a caba.(veron)</t>
+  </si>
+  <si>
+    <t>ch.nowip.13/05/2024. parte:1750159523 KEYBOARD V6 EPP ESP SOUTH AMERICA CES. se solicita a caba.(veron)</t>
+  </si>
+  <si>
+    <t>CBA.RC.13/5/24. PARTE 1750109615 DOUBLE EXTRACTOR UNIT CMD V4:EN ESPERA DE REPARACIÓN. ETA:16/5/24 (JIMENEZ)</t>
+  </si>
+  <si>
+    <t>RC. 15/3/24. LECTORA 1750173205 A ESPERA DE REPARACION (SORIANO)</t>
+  </si>
+  <si>
+    <t>RC. 13/05/2024 PARTE 1750261447 SHUTTER LITE DC MOTOR  ASSY PC280N RL A ESPERA DE REPARACION (MAITLAND)</t>
+  </si>
+  <si>
+    <t>NOSP. 13/05/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA SU REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>CBA.NOWIP. 13/5/2024. PARTE 49204013000E Belt timing 3.00P 485T (x3und):SIN SALDO EN WIP. SE SOLICITA A CABA. (JIMENEZ)</t>
+  </si>
+  <si>
+    <t>SUP</t>
+  </si>
+  <si>
+    <t>FASCIA 720 FL</t>
   </si>
   <si>
     <t>ACRÍLICO</t>
-  </si>
-  <si>
-    <t>SUP</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> FASCIA 720 FL</t>
   </si>
 </sst>
 </file>
@@ -1265,17 +1244,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D460"/>
+  <dimension ref="A1:D447"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="100.77734375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1777,7 +1756,7 @@
         <v>7633149</v>
       </c>
       <c r="C36" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="D36" t="s">
         <v>43</v>
@@ -1942,10 +1921,10 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>7716199</v>
+        <v>7733518</v>
       </c>
       <c r="C48" s="2">
-        <v>1750130600</v>
+        <v>1750053977</v>
       </c>
       <c r="D48" t="s">
         <v>49</v>
@@ -1956,10 +1935,10 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>7716199</v>
+        <v>7733518</v>
       </c>
       <c r="C49" s="2">
-        <v>1750109615</v>
+        <v>1750105988</v>
       </c>
       <c r="D49" t="s">
         <v>49</v>
@@ -1970,10 +1949,10 @@
         <v>47</v>
       </c>
       <c r="B50">
-        <v>7716199</v>
+        <v>7733518</v>
       </c>
       <c r="C50" s="2">
-        <v>1750109641</v>
+        <v>1750109615</v>
       </c>
       <c r="D50" t="s">
         <v>49</v>
@@ -1984,10 +1963,10 @@
         <v>47</v>
       </c>
       <c r="B51">
-        <v>7716199</v>
+        <v>7733518</v>
       </c>
       <c r="C51" s="2">
-        <v>1750105679</v>
+        <v>1750109641</v>
       </c>
       <c r="D51" t="s">
         <v>49</v>
@@ -1998,10 +1977,10 @@
         <v>47</v>
       </c>
       <c r="B52">
-        <v>7716199</v>
-      </c>
-      <c r="C52" s="2">
-        <v>1750206350</v>
+        <v>7733518</v>
+      </c>
+      <c r="C52" t="s">
+        <v>50</v>
       </c>
       <c r="D52" t="s">
         <v>49</v>
@@ -2014,11 +1993,11 @@
       <c r="B53">
         <v>7733518</v>
       </c>
-      <c r="C53" s="2">
-        <v>1750053977</v>
+      <c r="C53" t="s">
+        <v>51</v>
       </c>
       <c r="D53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -2029,52 +2008,52 @@
         <v>7733518</v>
       </c>
       <c r="C54" s="2">
-        <v>1750105988</v>
+        <v>1750169942</v>
       </c>
       <c r="D54" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B55">
-        <v>7733518</v>
+        <v>7738379</v>
       </c>
       <c r="C55" s="2">
-        <v>1750109615</v>
+        <v>1750041251</v>
       </c>
       <c r="D55" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B56">
-        <v>7733518</v>
+        <v>7738379</v>
       </c>
       <c r="C56" s="2">
-        <v>1750109641</v>
+        <v>1750035762</v>
       </c>
       <c r="D56" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B57">
-        <v>7733518</v>
-      </c>
-      <c r="C57" t="s">
-        <v>51</v>
+        <v>7738379</v>
+      </c>
+      <c r="C57" s="2">
+        <v>1750157444</v>
       </c>
       <c r="D57" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -2082,13 +2061,13 @@
         <v>47</v>
       </c>
       <c r="B58">
-        <v>7733518</v>
+        <v>7774323</v>
       </c>
       <c r="C58" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="D58" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -2096,94 +2075,94 @@
         <v>47</v>
       </c>
       <c r="B59">
-        <v>7733518</v>
-      </c>
-      <c r="C59" s="2">
-        <v>1750169942</v>
+        <v>7774323</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
       </c>
       <c r="D59" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B60">
-        <v>7738379</v>
+        <v>7792335</v>
       </c>
       <c r="C60" s="2">
-        <v>1750041251</v>
+        <v>1750289153</v>
       </c>
       <c r="D60" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B61">
-        <v>7738379</v>
+        <v>7797143</v>
       </c>
       <c r="C61" s="2">
-        <v>1750035762</v>
+        <v>1750177464</v>
       </c>
       <c r="D61" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B62">
-        <v>7738379</v>
+        <v>7800803</v>
       </c>
       <c r="C62" s="2">
-        <v>1750157444</v>
+        <v>1750109615</v>
       </c>
       <c r="D62" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="B63">
-        <v>7771880</v>
-      </c>
-      <c r="C63" t="s">
-        <v>41</v>
+        <v>7802611</v>
+      </c>
+      <c r="C63" s="2">
+        <v>1750053977</v>
       </c>
       <c r="D63" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B64">
-        <v>7771880</v>
+        <v>7802993</v>
       </c>
       <c r="C64" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="D64" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B65">
-        <v>7774323</v>
+        <v>7803005</v>
       </c>
       <c r="C65" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="D65" t="s">
         <v>55</v>
@@ -2191,72 +2170,72 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B66">
-        <v>7774323</v>
-      </c>
-      <c r="C66" t="s">
-        <v>5</v>
+        <v>7803677</v>
+      </c>
+      <c r="C66" s="2">
+        <v>1750109658</v>
       </c>
       <c r="D66" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B67">
-        <v>7792335</v>
+        <v>7803677</v>
       </c>
       <c r="C67" s="2">
-        <v>1750289153</v>
+        <v>1750109615</v>
       </c>
       <c r="D67" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B68">
-        <v>7797143</v>
+        <v>7806399</v>
       </c>
       <c r="C68" s="2">
-        <v>1750177464</v>
+        <v>1750110043</v>
       </c>
       <c r="D68" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B69">
-        <v>7800803</v>
-      </c>
-      <c r="C69" s="2">
-        <v>1750109615</v>
+        <v>7806538</v>
+      </c>
+      <c r="C69" t="s">
+        <v>56</v>
       </c>
       <c r="D69" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B70">
-        <v>7802611</v>
+        <v>7808461</v>
       </c>
       <c r="C70" s="2">
-        <v>1750053977</v>
+        <v>1750109659</v>
       </c>
       <c r="D70" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -2264,13 +2243,13 @@
         <v>44</v>
       </c>
       <c r="B71">
-        <v>7802993</v>
-      </c>
-      <c r="C71" t="s">
-        <v>5</v>
+        <v>7814392</v>
+      </c>
+      <c r="C71" s="2">
+        <v>1750189650</v>
       </c>
       <c r="D71" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -2278,237 +2257,237 @@
         <v>44</v>
       </c>
       <c r="B72">
-        <v>7803005</v>
-      </c>
-      <c r="C72" t="s">
-        <v>5</v>
+        <v>7814392</v>
+      </c>
+      <c r="C72" s="2">
+        <v>1750215295</v>
       </c>
       <c r="D72" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B73">
-        <v>7803677</v>
+        <v>7817629</v>
       </c>
       <c r="C73" s="2">
-        <v>1750109658</v>
+        <v>1750053977</v>
       </c>
       <c r="D73" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B74">
-        <v>7803677</v>
+        <v>7817670</v>
       </c>
       <c r="C74" s="2">
         <v>1750109615</v>
       </c>
       <c r="D74" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B75">
-        <v>7806399</v>
-      </c>
-      <c r="C75" s="2">
-        <v>1750110043</v>
+        <v>7820507</v>
+      </c>
+      <c r="C75" t="s">
+        <v>59</v>
       </c>
       <c r="D75" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B76">
-        <v>7806538</v>
-      </c>
-      <c r="C76" t="s">
-        <v>57</v>
+        <v>7820527</v>
+      </c>
+      <c r="C76" s="2">
+        <v>1750344858</v>
       </c>
       <c r="D76" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B77">
-        <v>7808461</v>
+        <v>7822042</v>
       </c>
       <c r="C77" s="2">
-        <v>1750109659</v>
+        <v>1750159971</v>
       </c>
       <c r="D77" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B78">
-        <v>7814392</v>
-      </c>
-      <c r="C78" s="2">
-        <v>1750189650</v>
+        <v>7823382</v>
+      </c>
+      <c r="C78" t="s">
+        <v>41</v>
       </c>
       <c r="D78" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B79">
-        <v>7814392</v>
-      </c>
-      <c r="C79" s="2">
-        <v>1750215295</v>
+        <v>7824357</v>
+      </c>
+      <c r="C79" t="s">
+        <v>61</v>
       </c>
       <c r="D79" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B80">
-        <v>7817629</v>
+        <v>7824386</v>
       </c>
       <c r="C80" s="2">
         <v>1750053977</v>
       </c>
       <c r="D80" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B81">
-        <v>7817670</v>
+        <v>7832871</v>
       </c>
       <c r="C81" s="2">
-        <v>1750109615</v>
+        <v>1750105988</v>
       </c>
       <c r="D81" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B82">
-        <v>7820507</v>
+        <v>7833234</v>
       </c>
       <c r="C82" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D82" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B83">
-        <v>7820527</v>
+        <v>7833667</v>
       </c>
       <c r="C83" s="2">
-        <v>1750344858</v>
+        <v>1750215295</v>
       </c>
       <c r="D83" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B84">
-        <v>7822042</v>
+        <v>7833667</v>
       </c>
       <c r="C84" s="2">
-        <v>1750159971</v>
+        <v>1750110044</v>
       </c>
       <c r="D84" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="B85">
-        <v>7823382</v>
+        <v>7846573</v>
       </c>
       <c r="C85" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="D85" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B86">
-        <v>7824357</v>
-      </c>
-      <c r="C86" t="s">
-        <v>62</v>
+        <v>7846685</v>
+      </c>
+      <c r="C86" s="2">
+        <v>1750101956</v>
       </c>
       <c r="D86" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="B87">
-        <v>7824386</v>
+        <v>7848212</v>
       </c>
       <c r="C87" s="2">
-        <v>1750053977</v>
+        <v>1750204435</v>
       </c>
       <c r="D87" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B88">
-        <v>7832871</v>
+        <v>7850263</v>
       </c>
       <c r="C88" s="2">
-        <v>1750105988</v>
+        <v>1750053977</v>
       </c>
       <c r="D88" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -2516,335 +2495,335 @@
         <v>44</v>
       </c>
       <c r="B89">
-        <v>7833234</v>
-      </c>
-      <c r="C89" t="s">
-        <v>63</v>
+        <v>7858514</v>
+      </c>
+      <c r="C89" s="2">
+        <v>1750193275</v>
       </c>
       <c r="D89" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B90">
-        <v>7833667</v>
+        <v>7858514</v>
       </c>
       <c r="C90" s="2">
-        <v>1750215295</v>
+        <v>1750133348</v>
       </c>
       <c r="D90" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B91">
-        <v>7833667</v>
+        <v>7858757</v>
       </c>
       <c r="C91" s="2">
-        <v>1750110044</v>
+        <v>1750199149</v>
       </c>
       <c r="D91" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B92">
-        <v>7846573</v>
+        <v>7859082</v>
       </c>
       <c r="C92" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D92" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B93">
-        <v>7846685</v>
+        <v>7859146</v>
       </c>
       <c r="C93" s="2">
-        <v>1750101956</v>
+        <v>1750130600</v>
       </c>
       <c r="D93" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="B94">
-        <v>7848212</v>
+        <v>7859726</v>
       </c>
       <c r="C94" s="2">
-        <v>1750204435</v>
+        <v>1750222982</v>
       </c>
       <c r="D94" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B95">
-        <v>7850263</v>
+        <v>7867214</v>
       </c>
       <c r="C95" s="2">
-        <v>1750053977</v>
+        <v>1750256247</v>
       </c>
       <c r="D95" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B96">
-        <v>7858514</v>
-      </c>
-      <c r="C96" s="2">
-        <v>1750193275</v>
+        <v>7871860</v>
+      </c>
+      <c r="C96" t="s">
+        <v>70</v>
       </c>
       <c r="D96" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B97">
-        <v>7858514</v>
-      </c>
-      <c r="C97" s="2">
-        <v>1750133348</v>
+        <v>7871860</v>
+      </c>
+      <c r="C97" t="s">
+        <v>72</v>
       </c>
       <c r="D97" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B98">
-        <v>7858757</v>
-      </c>
-      <c r="C98" s="2">
-        <v>1750199149</v>
+        <v>7871860</v>
+      </c>
+      <c r="C98" t="s">
+        <v>65</v>
       </c>
       <c r="D98" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B99">
-        <v>7859082</v>
-      </c>
-      <c r="C99" t="s">
-        <v>69</v>
+        <v>7873878</v>
+      </c>
+      <c r="C99" s="2">
+        <v>1750105679</v>
       </c>
       <c r="D99" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B100">
-        <v>7859726</v>
+        <v>7873878</v>
       </c>
       <c r="C100" s="2">
-        <v>1750222982</v>
+        <v>1750109658</v>
       </c>
       <c r="D100" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B101">
-        <v>7867214</v>
+        <v>7878427</v>
       </c>
       <c r="C101" s="2">
-        <v>1750256247</v>
+        <v>1750214647</v>
       </c>
       <c r="D101" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B102">
-        <v>7871860</v>
-      </c>
-      <c r="C102" t="s">
-        <v>71</v>
+        <v>7884952</v>
+      </c>
+      <c r="C102" s="2">
+        <v>1750053977</v>
       </c>
       <c r="D102" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B103">
-        <v>7871860</v>
-      </c>
-      <c r="C103" t="s">
+        <v>7885866</v>
+      </c>
+      <c r="C103" s="2">
+        <v>1750189650</v>
+      </c>
+      <c r="D103" t="s">
         <v>73</v>
-      </c>
-      <c r="D103" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="B104">
-        <v>7871860</v>
+        <v>7888819</v>
       </c>
       <c r="C104" t="s">
-        <v>66</v>
+        <v>284</v>
       </c>
       <c r="D104" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B105">
-        <v>7873878</v>
+        <v>7890266</v>
       </c>
       <c r="C105" s="2">
-        <v>1750105679</v>
+        <v>1750215294</v>
       </c>
       <c r="D105" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B106">
-        <v>7873878</v>
+        <v>7894613</v>
       </c>
       <c r="C106" s="2">
-        <v>1750109658</v>
+        <v>1750261447</v>
       </c>
       <c r="D106" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B107">
-        <v>7878427</v>
-      </c>
-      <c r="C107" s="2">
-        <v>1750214647</v>
+        <v>7897120</v>
+      </c>
+      <c r="C107" t="s">
+        <v>77</v>
       </c>
       <c r="D107" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B108">
-        <v>7884952</v>
-      </c>
-      <c r="C108" s="2">
-        <v>1750053977</v>
+        <v>7897299</v>
+      </c>
+      <c r="C108">
+        <v>1750193275</v>
       </c>
       <c r="D108" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B109">
-        <v>7885866</v>
+        <v>7897869</v>
       </c>
       <c r="C109" s="2">
-        <v>1750189650</v>
+        <v>1750261447</v>
       </c>
       <c r="D109" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="B110">
-        <v>7888819</v>
-      </c>
-      <c r="C110" t="s">
-        <v>292</v>
+        <v>7899433</v>
+      </c>
+      <c r="C110" s="2">
+        <v>1750208512</v>
       </c>
       <c r="D110" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B111">
-        <v>7890266</v>
-      </c>
-      <c r="C111" s="2">
-        <v>1750215294</v>
+        <v>7900491</v>
+      </c>
+      <c r="C111" t="s">
+        <v>80</v>
       </c>
       <c r="D111" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B112">
-        <v>7894613</v>
-      </c>
-      <c r="C112" s="2">
-        <v>1750261447</v>
+        <v>7900491</v>
+      </c>
+      <c r="C112" t="s">
+        <v>81</v>
       </c>
       <c r="D112" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -2852,262 +2831,262 @@
         <v>47</v>
       </c>
       <c r="B113">
-        <v>7897120</v>
-      </c>
-      <c r="C113" t="s">
-        <v>78</v>
+        <v>7905109</v>
+      </c>
+      <c r="C113" s="2">
+        <v>1750169942</v>
       </c>
       <c r="D113" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B114">
-        <v>7897299</v>
-      </c>
-      <c r="C114">
-        <v>1750193275</v>
+        <v>7905109</v>
+      </c>
+      <c r="C114" s="2">
+        <v>1750154145</v>
       </c>
       <c r="D114" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B115">
-        <v>7897869</v>
+        <v>7905109</v>
       </c>
       <c r="C115" s="2">
-        <v>1750261447</v>
+        <v>1750105988</v>
       </c>
       <c r="D115" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B116">
-        <v>7899433</v>
+        <v>7909031</v>
       </c>
       <c r="C116" s="2">
-        <v>1750208512</v>
+        <v>1750173205</v>
       </c>
       <c r="D116" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B117">
-        <v>7900491</v>
-      </c>
-      <c r="C117" t="s">
-        <v>81</v>
+        <v>7909307</v>
+      </c>
+      <c r="C117" s="2">
+        <v>1750188523</v>
       </c>
       <c r="D117" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B118">
-        <v>7900491</v>
-      </c>
-      <c r="C118" t="s">
-        <v>82</v>
+        <v>7912762</v>
+      </c>
+      <c r="C118" s="2">
+        <v>1804610970</v>
       </c>
       <c r="D118" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B119">
-        <v>7905109</v>
+        <v>7912762</v>
       </c>
       <c r="C119" s="2">
-        <v>1750169942</v>
+        <v>1770031910</v>
       </c>
       <c r="D119" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B120">
-        <v>7905109</v>
+        <v>7912856</v>
       </c>
       <c r="C120" s="2">
-        <v>1750154145</v>
+        <v>1750215294</v>
       </c>
       <c r="D120" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B121">
-        <v>7905109</v>
+        <v>7913107</v>
       </c>
       <c r="C121" s="2">
-        <v>1750105988</v>
+        <v>1750200435</v>
       </c>
       <c r="D121" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B122">
-        <v>7909031</v>
+        <v>7914619</v>
       </c>
       <c r="C122" s="2">
-        <v>1750173205</v>
+        <v>1750200435</v>
       </c>
       <c r="D122" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B123">
-        <v>7909307</v>
+        <v>7914619</v>
       </c>
       <c r="C123" s="2">
-        <v>1750188523</v>
+        <v>1750214647</v>
       </c>
       <c r="D123" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B124">
-        <v>7912762</v>
-      </c>
-      <c r="C124" s="2">
-        <v>1804610970</v>
+        <v>7915108</v>
+      </c>
+      <c r="C124" t="s">
+        <v>65</v>
       </c>
       <c r="D124" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="B125">
-        <v>7912762</v>
+        <v>7917231</v>
       </c>
       <c r="C125" s="2">
-        <v>1770031910</v>
+        <v>1750350686</v>
       </c>
       <c r="D125" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="B126">
-        <v>7912856</v>
+        <v>7917231</v>
       </c>
       <c r="C126" s="2">
-        <v>1750215294</v>
+        <v>1750301986</v>
       </c>
       <c r="D126" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B127">
-        <v>7913107</v>
-      </c>
-      <c r="C127" s="2">
-        <v>1750200435</v>
+        <v>7917418</v>
+      </c>
+      <c r="C127" t="s">
+        <v>59</v>
       </c>
       <c r="D127" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B128">
-        <v>7914619</v>
+        <v>7917809</v>
       </c>
       <c r="C128" s="2">
-        <v>1750200435</v>
+        <v>1750256247</v>
       </c>
       <c r="D128" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B129">
-        <v>7914619</v>
+        <v>7919567</v>
       </c>
       <c r="C129" s="2">
-        <v>1750214647</v>
+        <v>1750190038</v>
       </c>
       <c r="D129" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B130">
-        <v>7915108</v>
-      </c>
-      <c r="C130" t="s">
-        <v>66</v>
+        <v>7919667</v>
+      </c>
+      <c r="C130" s="2">
+        <v>1750067867</v>
       </c>
       <c r="D130" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="B131">
-        <v>7917231</v>
+        <v>7919667</v>
       </c>
       <c r="C131" s="2">
-        <v>1750350686</v>
+        <v>1750105988</v>
       </c>
       <c r="D131" t="s">
         <v>89</v>
@@ -3115,86 +3094,86 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="B132">
-        <v>7917231</v>
+        <v>7920574</v>
       </c>
       <c r="C132" s="2">
-        <v>1750301986</v>
+        <v>1750214647</v>
       </c>
       <c r="D132" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B133">
-        <v>7917418</v>
-      </c>
-      <c r="C133" t="s">
-        <v>60</v>
+        <v>7920574</v>
+      </c>
+      <c r="C133" s="2">
+        <v>1750263341</v>
       </c>
       <c r="D133" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B134">
-        <v>7917809</v>
+        <v>7920574</v>
       </c>
       <c r="C134" s="2">
-        <v>1750256247</v>
+        <v>1750134478</v>
       </c>
       <c r="D134" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B135">
-        <v>7919567</v>
+        <v>7920574</v>
       </c>
       <c r="C135" s="2">
-        <v>1750190038</v>
+        <v>1750200435</v>
       </c>
       <c r="D135" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B136">
-        <v>7919667</v>
+        <v>7921936</v>
       </c>
       <c r="C136" s="2">
-        <v>1750067867</v>
+        <v>1750249441</v>
       </c>
       <c r="D136" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B137">
-        <v>7919667</v>
+        <v>7921936</v>
       </c>
       <c r="C137" s="2">
-        <v>1750105988</v>
+        <v>1750220022</v>
       </c>
       <c r="D137" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
@@ -3202,10 +3181,10 @@
         <v>44</v>
       </c>
       <c r="B138">
-        <v>7920574</v>
+        <v>7921936</v>
       </c>
       <c r="C138" s="2">
-        <v>1750214647</v>
+        <v>1750220000</v>
       </c>
       <c r="D138" t="s">
         <v>91</v>
@@ -3216,10 +3195,10 @@
         <v>44</v>
       </c>
       <c r="B139">
-        <v>7920574</v>
+        <v>7921936</v>
       </c>
       <c r="C139" s="2">
-        <v>1750263341</v>
+        <v>1750200435</v>
       </c>
       <c r="D139" t="s">
         <v>91</v>
@@ -3227,16 +3206,16 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B140">
-        <v>7920574</v>
-      </c>
-      <c r="C140" s="2">
-        <v>1750134478</v>
+        <v>7924355</v>
+      </c>
+      <c r="C140" t="s">
+        <v>5</v>
       </c>
       <c r="D140" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
@@ -3244,97 +3223,97 @@
         <v>44</v>
       </c>
       <c r="B141">
-        <v>7920574</v>
+        <v>7924902</v>
       </c>
       <c r="C141" s="2">
         <v>1750200435</v>
       </c>
       <c r="D141" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B142">
-        <v>7921936</v>
+        <v>7925113</v>
       </c>
       <c r="C142" s="2">
-        <v>1750249441</v>
+        <v>1750215295</v>
       </c>
       <c r="D142" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="B143">
-        <v>7921936</v>
+        <v>7925266</v>
       </c>
       <c r="C143" s="2">
-        <v>1750220022</v>
+        <v>1750222982</v>
       </c>
       <c r="D143" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="B144">
-        <v>7921936</v>
-      </c>
-      <c r="C144" s="2">
-        <v>1750220000</v>
+        <v>7926268</v>
+      </c>
+      <c r="C144" t="s">
+        <v>96</v>
       </c>
       <c r="D144" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B145">
-        <v>7921936</v>
-      </c>
-      <c r="C145" s="2">
-        <v>1750200435</v>
+        <v>7926496</v>
+      </c>
+      <c r="C145" t="s">
+        <v>98</v>
       </c>
       <c r="D145" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B146">
-        <v>7924355</v>
-      </c>
-      <c r="C146" t="s">
-        <v>5</v>
+        <v>7926501</v>
+      </c>
+      <c r="C146" s="2">
+        <v>1750110044</v>
       </c>
       <c r="D146" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B147">
-        <v>7924902</v>
+        <v>7929932</v>
       </c>
       <c r="C147" s="2">
-        <v>1750200435</v>
+        <v>1750188523</v>
       </c>
       <c r="D147" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
@@ -3342,111 +3321,111 @@
         <v>8</v>
       </c>
       <c r="B148">
-        <v>7925113</v>
+        <v>7929932</v>
       </c>
       <c r="C148" s="2">
-        <v>1750215295</v>
+        <v>1750101956</v>
       </c>
       <c r="D148" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="B149">
-        <v>7925266</v>
+        <v>7930608</v>
       </c>
       <c r="C149" s="2">
-        <v>1750222982</v>
+        <v>1750193275</v>
       </c>
       <c r="D149" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="B150">
-        <v>7926268</v>
-      </c>
-      <c r="C150" t="s">
-        <v>97</v>
+        <v>7930610</v>
+      </c>
+      <c r="C150" s="2">
+        <v>1750193276</v>
       </c>
       <c r="D150" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B151">
-        <v>7926496</v>
-      </c>
-      <c r="C151" t="s">
-        <v>99</v>
+        <v>7930610</v>
+      </c>
+      <c r="C151" s="2">
+        <v>1750220330</v>
       </c>
       <c r="D151" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B152">
-        <v>7926501</v>
+        <v>7930610</v>
       </c>
       <c r="C152" s="2">
-        <v>1750110044</v>
+        <v>1750248000</v>
       </c>
       <c r="D152" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B153">
-        <v>7929027</v>
+        <v>7930610</v>
       </c>
       <c r="C153" s="2">
-        <v>1750105679</v>
+        <v>1750220022</v>
       </c>
       <c r="D153" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B154">
-        <v>7929932</v>
+        <v>7931010</v>
       </c>
       <c r="C154" s="2">
         <v>1750188523</v>
       </c>
       <c r="D154" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B155">
-        <v>7929932</v>
+        <v>7931010</v>
       </c>
       <c r="C155" s="2">
-        <v>1750101956</v>
+        <v>1750263341</v>
       </c>
       <c r="D155" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
@@ -3454,41 +3433,41 @@
         <v>44</v>
       </c>
       <c r="B156">
-        <v>7930608</v>
+        <v>7931010</v>
       </c>
       <c r="C156" s="2">
-        <v>1750193275</v>
+        <v>1750245555</v>
       </c>
       <c r="D156" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B157">
-        <v>7930610</v>
+        <v>7942380</v>
       </c>
       <c r="C157" s="2">
-        <v>1750193276</v>
+        <v>1750109615</v>
       </c>
       <c r="D157" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B158">
-        <v>7930610</v>
+        <v>7942589</v>
       </c>
       <c r="C158" s="2">
-        <v>1750220330</v>
+        <v>1750100966</v>
       </c>
       <c r="D158" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
@@ -3496,27 +3475,27 @@
         <v>44</v>
       </c>
       <c r="B159">
-        <v>7930610</v>
+        <v>7943149</v>
       </c>
       <c r="C159" s="2">
-        <v>1750248000</v>
+        <v>1750200435</v>
       </c>
       <c r="D159" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B160">
-        <v>7930610</v>
+        <v>7945233</v>
       </c>
       <c r="C160" s="2">
-        <v>1750220022</v>
+        <v>1750215295</v>
       </c>
       <c r="D160" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
@@ -3524,13 +3503,13 @@
         <v>44</v>
       </c>
       <c r="B161">
-        <v>7931010</v>
+        <v>7945303</v>
       </c>
       <c r="C161" s="2">
-        <v>1750188523</v>
+        <v>1750193275</v>
       </c>
       <c r="D161" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
@@ -3538,55 +3517,55 @@
         <v>44</v>
       </c>
       <c r="B162">
-        <v>7931010</v>
+        <v>7946970</v>
       </c>
       <c r="C162" s="2">
-        <v>1750263341</v>
+        <v>1750200435</v>
       </c>
       <c r="D162" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B163">
-        <v>7931010</v>
+        <v>7947736</v>
       </c>
       <c r="C163" s="2">
-        <v>1750245555</v>
+        <v>1750215294</v>
       </c>
       <c r="D163" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B164">
-        <v>7942380</v>
+        <v>7947847</v>
       </c>
       <c r="C164" s="2">
-        <v>1750109615</v>
+        <v>1750214647</v>
       </c>
       <c r="D164" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B165">
-        <v>7942589</v>
+        <v>7947847</v>
       </c>
       <c r="C165" s="2">
-        <v>1750100966</v>
+        <v>1750212682</v>
       </c>
       <c r="D165" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
@@ -3594,27 +3573,27 @@
         <v>44</v>
       </c>
       <c r="B166">
-        <v>7943149</v>
+        <v>7947847</v>
       </c>
       <c r="C166" s="2">
-        <v>1750200435</v>
+        <v>1750140781</v>
       </c>
       <c r="D166" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B167">
-        <v>7945233</v>
+        <v>7947866</v>
       </c>
       <c r="C167" s="2">
-        <v>1750215295</v>
+        <v>1750126457</v>
       </c>
       <c r="D167" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
@@ -3622,41 +3601,41 @@
         <v>44</v>
       </c>
       <c r="B168">
-        <v>7945303</v>
+        <v>7947866</v>
       </c>
       <c r="C168" s="2">
-        <v>1750193275</v>
+        <v>1750196174</v>
       </c>
       <c r="D168" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B169">
-        <v>7946970</v>
+        <v>7947978</v>
       </c>
       <c r="C169" s="2">
-        <v>1750200435</v>
+        <v>1750105679</v>
       </c>
       <c r="D169" t="s">
-        <v>105</v>
+        <v>53</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="B170">
-        <v>7947736</v>
+        <v>7947978</v>
       </c>
       <c r="C170" s="2">
-        <v>1750215294</v>
+        <v>1750109615</v>
       </c>
       <c r="D170" t="s">
-        <v>108</v>
+        <v>53</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
@@ -3664,13 +3643,13 @@
         <v>44</v>
       </c>
       <c r="B171">
-        <v>7947847</v>
+        <v>7949223</v>
       </c>
       <c r="C171" s="2">
-        <v>1750214647</v>
+        <v>1750193275</v>
       </c>
       <c r="D171" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
@@ -3678,27 +3657,27 @@
         <v>44</v>
       </c>
       <c r="B172">
-        <v>7947847</v>
+        <v>7949223</v>
       </c>
       <c r="C172" s="2">
-        <v>1750212682</v>
+        <v>1750200435</v>
       </c>
       <c r="D172" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B173">
-        <v>7947847</v>
-      </c>
-      <c r="C173" s="2">
-        <v>1750140781</v>
+        <v>7952640</v>
+      </c>
+      <c r="C173" t="s">
+        <v>61</v>
       </c>
       <c r="D173" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
@@ -3706,13 +3685,13 @@
         <v>44</v>
       </c>
       <c r="B174">
-        <v>7947866</v>
+        <v>7952699</v>
       </c>
       <c r="C174" s="2">
-        <v>1750126457</v>
+        <v>1750215295</v>
       </c>
       <c r="D174" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
@@ -3720,41 +3699,41 @@
         <v>44</v>
       </c>
       <c r="B175">
-        <v>7947866</v>
+        <v>7952699</v>
       </c>
       <c r="C175" s="2">
-        <v>1750196174</v>
+        <v>1750215294</v>
       </c>
       <c r="D175" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B176">
-        <v>7947978</v>
-      </c>
-      <c r="C176" s="2">
-        <v>1750105679</v>
+        <v>7952908</v>
+      </c>
+      <c r="C176" t="s">
+        <v>112</v>
       </c>
       <c r="D176" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B177">
-        <v>7947978</v>
+        <v>7952925</v>
       </c>
       <c r="C177" s="2">
-        <v>1750109615</v>
+        <v>1750200435</v>
       </c>
       <c r="D177" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
@@ -3762,83 +3741,83 @@
         <v>44</v>
       </c>
       <c r="B178">
-        <v>7949223</v>
+        <v>7955646</v>
       </c>
       <c r="C178" s="2">
-        <v>1750193275</v>
+        <v>1750200435</v>
       </c>
       <c r="D178" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B179">
-        <v>7949223</v>
+        <v>7956551</v>
       </c>
       <c r="C179" s="2">
-        <v>1750200435</v>
+        <v>1750222982</v>
       </c>
       <c r="D179" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B180">
-        <v>7952640</v>
-      </c>
-      <c r="C180" t="s">
-        <v>62</v>
+        <v>7956807</v>
+      </c>
+      <c r="C180" s="2">
+        <v>1750056193</v>
       </c>
       <c r="D180" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B181">
-        <v>7952699</v>
+        <v>7958425</v>
       </c>
       <c r="C181" s="2">
-        <v>1750215295</v>
+        <v>1750222982</v>
       </c>
       <c r="D181" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B182">
-        <v>7952699</v>
+        <v>7959520</v>
       </c>
       <c r="C182" s="2">
-        <v>1750215294</v>
+        <v>1750109641</v>
       </c>
       <c r="D182" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B183">
-        <v>7952908</v>
-      </c>
-      <c r="C183" t="s">
-        <v>113</v>
+        <v>7959985</v>
+      </c>
+      <c r="C183" s="2">
+        <v>1750215295</v>
       </c>
       <c r="D183" t="s">
-        <v>49</v>
+        <v>118</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
@@ -3846,13 +3825,13 @@
         <v>44</v>
       </c>
       <c r="B184">
-        <v>7952925</v>
+        <v>7960728</v>
       </c>
       <c r="C184" s="2">
-        <v>1750200435</v>
+        <v>1750189650</v>
       </c>
       <c r="D184" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
@@ -3860,83 +3839,83 @@
         <v>44</v>
       </c>
       <c r="B185">
-        <v>7955646</v>
+        <v>7960728</v>
       </c>
       <c r="C185" s="2">
-        <v>1750200435</v>
+        <v>1750053977</v>
       </c>
       <c r="D185" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B186">
-        <v>7956551</v>
+        <v>7960730</v>
       </c>
       <c r="C186" s="2">
-        <v>1750222982</v>
+        <v>1750200435</v>
       </c>
       <c r="D186" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B187">
-        <v>7956807</v>
+        <v>7960732</v>
       </c>
       <c r="C187" s="2">
-        <v>1750056193</v>
+        <v>1750193275</v>
       </c>
       <c r="D187" t="s">
-        <v>49</v>
+        <v>121</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B188">
-        <v>7958425</v>
+        <v>7960739</v>
       </c>
       <c r="C188" s="2">
-        <v>1750222982</v>
+        <v>1750193275</v>
       </c>
       <c r="D188" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B189">
-        <v>7959520</v>
+        <v>7961200</v>
       </c>
       <c r="C189" s="2">
-        <v>1750109641</v>
+        <v>1750200435</v>
       </c>
       <c r="D189" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B190">
-        <v>7959985</v>
-      </c>
-      <c r="C190" s="2">
-        <v>1750215295</v>
+        <v>7963480</v>
+      </c>
+      <c r="C190" t="s">
+        <v>5</v>
       </c>
       <c r="D190" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
@@ -3944,13 +3923,13 @@
         <v>44</v>
       </c>
       <c r="B191">
-        <v>7960728</v>
+        <v>7966435</v>
       </c>
       <c r="C191" s="2">
-        <v>1750189650</v>
+        <v>1750220000</v>
       </c>
       <c r="D191" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
@@ -3958,13 +3937,13 @@
         <v>44</v>
       </c>
       <c r="B192">
-        <v>7960728</v>
+        <v>7966435</v>
       </c>
       <c r="C192" s="2">
-        <v>1750053977</v>
+        <v>1750248000</v>
       </c>
       <c r="D192" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
@@ -3972,13 +3951,13 @@
         <v>44</v>
       </c>
       <c r="B193">
-        <v>7960730</v>
+        <v>7967194</v>
       </c>
       <c r="C193" s="2">
-        <v>1750200435</v>
+        <v>1750220000</v>
       </c>
       <c r="D193" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
@@ -3986,69 +3965,69 @@
         <v>44</v>
       </c>
       <c r="B194">
-        <v>7960732</v>
+        <v>7967194</v>
       </c>
       <c r="C194" s="2">
-        <v>1750193275</v>
+        <v>1750220022</v>
       </c>
       <c r="D194" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B195">
-        <v>7960739</v>
-      </c>
-      <c r="C195" s="2">
-        <v>1750193275</v>
+        <v>7967730</v>
+      </c>
+      <c r="C195" t="s">
+        <v>127</v>
       </c>
       <c r="D195" t="s">
-        <v>123</v>
+        <v>53</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B196">
-        <v>7960743</v>
+        <v>7967730</v>
       </c>
       <c r="C196" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D196" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>47</v>
+        <v>128</v>
       </c>
       <c r="B197">
-        <v>7960743</v>
-      </c>
-      <c r="C197" t="s">
-        <v>124</v>
+        <v>7967825</v>
+      </c>
+      <c r="C197" s="2">
+        <v>1750304622</v>
       </c>
       <c r="D197" t="s">
-        <v>49</v>
+        <v>129</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="B198">
-        <v>7961200</v>
-      </c>
-      <c r="C198" s="2">
-        <v>1750200435</v>
+        <v>7967825</v>
+      </c>
+      <c r="C198" t="s">
+        <v>130</v>
       </c>
       <c r="D198" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
@@ -4056,27 +4035,27 @@
         <v>47</v>
       </c>
       <c r="B199">
-        <v>7963480</v>
-      </c>
-      <c r="C199" t="s">
-        <v>5</v>
+        <v>7968148</v>
+      </c>
+      <c r="C199" s="2">
+        <v>1750109641</v>
       </c>
       <c r="D199" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B200">
-        <v>7966435</v>
+        <v>7968924</v>
       </c>
       <c r="C200" s="2">
-        <v>1750220000</v>
+        <v>1750109659</v>
       </c>
       <c r="D200" t="s">
-        <v>127</v>
+        <v>53</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
@@ -4084,13 +4063,13 @@
         <v>44</v>
       </c>
       <c r="B201">
-        <v>7966435</v>
+        <v>7969037</v>
       </c>
       <c r="C201" s="2">
-        <v>1750248000</v>
+        <v>1750215295</v>
       </c>
       <c r="D201" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
@@ -4098,13 +4077,13 @@
         <v>44</v>
       </c>
       <c r="B202">
-        <v>7967194</v>
+        <v>7969146</v>
       </c>
       <c r="C202" s="2">
-        <v>1750220000</v>
+        <v>1750200435</v>
       </c>
       <c r="D202" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
@@ -4112,111 +4091,111 @@
         <v>44</v>
       </c>
       <c r="B203">
-        <v>7967194</v>
+        <v>7969146</v>
       </c>
       <c r="C203" s="2">
-        <v>1750220022</v>
+        <v>1750200541</v>
       </c>
       <c r="D203" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="B204">
-        <v>7967730</v>
-      </c>
-      <c r="C204" t="s">
-        <v>129</v>
+        <v>7969367</v>
+      </c>
+      <c r="C204" s="2">
+        <v>1750188523</v>
       </c>
       <c r="D204" t="s">
-        <v>49</v>
+        <v>134</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B205">
-        <v>7967730</v>
-      </c>
-      <c r="C205" t="s">
-        <v>60</v>
+        <v>7969374</v>
+      </c>
+      <c r="C205" s="2">
+        <v>1750200435</v>
       </c>
       <c r="D205" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="B206">
-        <v>7967825</v>
+        <v>7970595</v>
       </c>
       <c r="C206" s="2">
-        <v>1750304622</v>
+        <v>1750200541</v>
       </c>
       <c r="D206" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="B207">
-        <v>7967825</v>
-      </c>
-      <c r="C207" t="s">
-        <v>132</v>
+        <v>7970595</v>
+      </c>
+      <c r="C207" s="2">
+        <v>1750214647</v>
       </c>
       <c r="D207" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B208">
-        <v>7968148</v>
+        <v>7971383</v>
       </c>
       <c r="C208" s="2">
-        <v>1750109641</v>
+        <v>1750200435</v>
       </c>
       <c r="D208" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B209">
-        <v>7968518</v>
+        <v>7971741</v>
       </c>
       <c r="C209" s="2">
-        <v>1750173205</v>
+        <v>1750200435</v>
       </c>
       <c r="D209" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B210">
-        <v>7968924</v>
+        <v>7972029</v>
       </c>
       <c r="C210" s="2">
-        <v>1750109659</v>
+        <v>1750248000</v>
       </c>
       <c r="D210" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
@@ -4224,13 +4203,13 @@
         <v>44</v>
       </c>
       <c r="B211">
-        <v>7969037</v>
+        <v>7972029</v>
       </c>
       <c r="C211" s="2">
-        <v>1750215295</v>
+        <v>1750220330</v>
       </c>
       <c r="D211" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
@@ -4238,13 +4217,13 @@
         <v>44</v>
       </c>
       <c r="B212">
-        <v>7969146</v>
+        <v>7973015</v>
       </c>
       <c r="C212" s="2">
-        <v>1750200435</v>
+        <v>1750200541</v>
       </c>
       <c r="D212" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
@@ -4252,27 +4231,27 @@
         <v>44</v>
       </c>
       <c r="B213">
-        <v>7969146</v>
+        <v>7973015</v>
       </c>
       <c r="C213" s="2">
-        <v>1750200541</v>
+        <v>1750245555</v>
       </c>
       <c r="D213" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B214">
-        <v>7969367</v>
+        <v>7973015</v>
       </c>
       <c r="C214" s="2">
-        <v>1750188523</v>
+        <v>1750134478</v>
       </c>
       <c r="D214" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
@@ -4280,13 +4259,13 @@
         <v>44</v>
       </c>
       <c r="B215">
-        <v>7969374</v>
+        <v>7973015</v>
       </c>
       <c r="C215" s="2">
-        <v>1750200435</v>
+        <v>1750263341</v>
       </c>
       <c r="D215" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
@@ -4294,13 +4273,13 @@
         <v>44</v>
       </c>
       <c r="B216">
-        <v>7970595</v>
+        <v>7973357</v>
       </c>
       <c r="C216" s="2">
-        <v>1750200541</v>
+        <v>1750220022</v>
       </c>
       <c r="D216" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
@@ -4308,13 +4287,13 @@
         <v>44</v>
       </c>
       <c r="B217">
-        <v>7970595</v>
+        <v>7973357</v>
       </c>
       <c r="C217" s="2">
-        <v>1750214647</v>
+        <v>1750220000</v>
       </c>
       <c r="D217" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
@@ -4322,38 +4301,38 @@
         <v>44</v>
       </c>
       <c r="B218">
-        <v>7971383</v>
+        <v>7973357</v>
       </c>
       <c r="C218" s="2">
         <v>1750200435</v>
       </c>
       <c r="D218" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B219">
-        <v>7971741</v>
+        <v>7973493</v>
       </c>
       <c r="C219" s="2">
-        <v>1750200435</v>
+        <v>1750101956</v>
       </c>
       <c r="D219" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B220">
-        <v>7972029</v>
+        <v>7973493</v>
       </c>
       <c r="C220" s="2">
-        <v>1750248000</v>
+        <v>1750188523</v>
       </c>
       <c r="D220" t="s">
         <v>142</v>
@@ -4361,13 +4340,13 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B221">
-        <v>7972029</v>
+        <v>7973493</v>
       </c>
       <c r="C221" s="2">
-        <v>1750220330</v>
+        <v>1750101952</v>
       </c>
       <c r="D221" t="s">
         <v>142</v>
@@ -4375,72 +4354,72 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B222">
-        <v>7973015</v>
+        <v>7973493</v>
       </c>
       <c r="C222" s="2">
-        <v>1750200541</v>
+        <v>1750188524</v>
       </c>
       <c r="D222" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B223">
-        <v>7973015</v>
-      </c>
-      <c r="C223" s="2">
-        <v>1750245555</v>
+        <v>7973493</v>
+      </c>
+      <c r="C223" t="s">
+        <v>143</v>
       </c>
       <c r="D223" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B224">
-        <v>7973015</v>
-      </c>
-      <c r="C224" s="2">
-        <v>1750134478</v>
+        <v>7973493</v>
+      </c>
+      <c r="C224" t="s">
+        <v>144</v>
       </c>
       <c r="D224" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B225">
-        <v>7973015</v>
-      </c>
-      <c r="C225" s="2">
-        <v>1750263341</v>
+        <v>7973493</v>
+      </c>
+      <c r="C225" t="s">
+        <v>144</v>
       </c>
       <c r="D225" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B226">
-        <v>7973357</v>
+        <v>7974287</v>
       </c>
       <c r="C226" s="2">
-        <v>1750220022</v>
+        <v>1750130600</v>
       </c>
       <c r="D226" t="s">
-        <v>144</v>
+        <v>53</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
@@ -4448,13 +4427,13 @@
         <v>44</v>
       </c>
       <c r="B227">
-        <v>7973357</v>
+        <v>7975982</v>
       </c>
       <c r="C227" s="2">
-        <v>1750220000</v>
+        <v>1750248000</v>
       </c>
       <c r="D227" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
@@ -4462,24 +4441,24 @@
         <v>44</v>
       </c>
       <c r="B228">
-        <v>7973357</v>
+        <v>7975982</v>
       </c>
       <c r="C228" s="2">
-        <v>1750200435</v>
+        <v>1750220330</v>
       </c>
       <c r="D228" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B229">
-        <v>7973399</v>
-      </c>
-      <c r="C229" t="s">
-        <v>145</v>
+        <v>7976330</v>
+      </c>
+      <c r="C229" s="2">
+        <v>1750222982</v>
       </c>
       <c r="D229" t="s">
         <v>146</v>
@@ -4487,13 +4466,13 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="B230">
-        <v>7973493</v>
+        <v>7976745</v>
       </c>
       <c r="C230" s="2">
-        <v>1750101956</v>
+        <v>1750105988</v>
       </c>
       <c r="D230" t="s">
         <v>147</v>
@@ -4501,128 +4480,128 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B231">
-        <v>7973493</v>
+        <v>7977137</v>
       </c>
       <c r="C231" s="2">
-        <v>1750188523</v>
+        <v>1750200435</v>
       </c>
       <c r="D231" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B232">
-        <v>7973493</v>
+        <v>7978510</v>
       </c>
       <c r="C232" s="2">
-        <v>1750101952</v>
+        <v>1750215294</v>
       </c>
       <c r="D232" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B233">
-        <v>7973493</v>
+        <v>7978510</v>
       </c>
       <c r="C233" s="2">
-        <v>1750188524</v>
+        <v>1750215295</v>
       </c>
       <c r="D233" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="B234">
-        <v>7973493</v>
-      </c>
-      <c r="C234" t="s">
-        <v>148</v>
+        <v>7978655</v>
+      </c>
+      <c r="C234" s="2">
+        <v>1750220022</v>
       </c>
       <c r="D234" t="s">
-        <v>147</v>
+        <v>53</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="B235">
-        <v>7973493</v>
-      </c>
-      <c r="C235" t="s">
-        <v>149</v>
+        <v>7978655</v>
+      </c>
+      <c r="C235" s="2">
+        <v>1750220330</v>
       </c>
       <c r="D235" t="s">
-        <v>147</v>
+        <v>53</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="B236">
-        <v>7973493</v>
-      </c>
-      <c r="C236" t="s">
-        <v>149</v>
+        <v>7978655</v>
+      </c>
+      <c r="C236" s="2">
+        <v>1750239538</v>
       </c>
       <c r="D236" t="s">
-        <v>147</v>
+        <v>53</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B237">
-        <v>7974287</v>
+        <v>7978655</v>
       </c>
       <c r="C237" s="2">
-        <v>1750130600</v>
+        <v>1750289153</v>
       </c>
       <c r="D237" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>150</v>
+        <v>47</v>
       </c>
       <c r="B238">
-        <v>7975903</v>
-      </c>
-      <c r="C238">
-        <v>1750222982</v>
+        <v>7979255</v>
+      </c>
+      <c r="C238" s="2">
+        <v>1750105988</v>
       </c>
       <c r="D238" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B239">
-        <v>7975982</v>
+        <v>7979396</v>
       </c>
       <c r="C239" s="2">
-        <v>1750248000</v>
+        <v>1750053977</v>
       </c>
       <c r="D239" t="s">
-        <v>152</v>
+        <v>53</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
@@ -4630,41 +4609,41 @@
         <v>44</v>
       </c>
       <c r="B240">
-        <v>7975982</v>
+        <v>7979436</v>
       </c>
       <c r="C240" s="2">
-        <v>1750220330</v>
+        <v>1750200435</v>
       </c>
       <c r="D240" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B241">
-        <v>7976330</v>
+        <v>7979551</v>
       </c>
       <c r="C241" s="2">
-        <v>1750222982</v>
+        <v>1750134478</v>
       </c>
       <c r="D241" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B242">
-        <v>7976745</v>
+        <v>7979551</v>
       </c>
       <c r="C242" s="2">
-        <v>1750105988</v>
+        <v>1750214647</v>
       </c>
       <c r="D242" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
@@ -4672,97 +4651,97 @@
         <v>44</v>
       </c>
       <c r="B243">
-        <v>7977137</v>
+        <v>7979609</v>
       </c>
       <c r="C243" s="2">
         <v>1750200435</v>
       </c>
       <c r="D243" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B244">
-        <v>7978510</v>
+        <v>7979880</v>
       </c>
       <c r="C244" s="2">
-        <v>1750215294</v>
+        <v>1750105988</v>
       </c>
       <c r="D244" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B245">
-        <v>7978510</v>
+        <v>7983248</v>
       </c>
       <c r="C245" s="2">
-        <v>1750215295</v>
+        <v>1750109615</v>
       </c>
       <c r="D245" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B246">
-        <v>7978655</v>
+        <v>7983283</v>
       </c>
       <c r="C246" s="2">
-        <v>1750220022</v>
+        <v>1750105679</v>
       </c>
       <c r="D246" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B247">
-        <v>7978655</v>
+        <v>7983301</v>
       </c>
       <c r="C247" s="2">
-        <v>1750220330</v>
+        <v>1750302850</v>
       </c>
       <c r="D247" t="s">
-        <v>49</v>
+        <v>153</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B248">
-        <v>7978655</v>
-      </c>
-      <c r="C248" s="2">
-        <v>1750239538</v>
+        <v>7983339</v>
+      </c>
+      <c r="C248">
+        <v>1750177464</v>
       </c>
       <c r="D248" t="s">
-        <v>49</v>
+        <v>154</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B249">
-        <v>7978655</v>
-      </c>
-      <c r="C249" s="2">
-        <v>1750289153</v>
+        <v>7983339</v>
+      </c>
+      <c r="C249">
+        <v>1750188523</v>
       </c>
       <c r="D249" t="s">
-        <v>49</v>
+        <v>154</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
@@ -4770,55 +4749,55 @@
         <v>10</v>
       </c>
       <c r="B250">
-        <v>7978826</v>
-      </c>
-      <c r="C250" t="s">
-        <v>82</v>
+        <v>7984027</v>
+      </c>
+      <c r="C250" s="2">
+        <v>1750222982</v>
       </c>
       <c r="D250" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B251">
-        <v>7979255</v>
+        <v>7984086</v>
       </c>
       <c r="C251" s="2">
-        <v>1750105988</v>
+        <v>1750220330</v>
       </c>
       <c r="D251" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B252">
-        <v>7979396</v>
+        <v>7984086</v>
       </c>
       <c r="C252" s="2">
-        <v>1750053977</v>
+        <v>1750248000</v>
       </c>
       <c r="D252" t="s">
-        <v>49</v>
+        <v>156</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B253">
-        <v>7979436</v>
+        <v>7984118</v>
       </c>
       <c r="C253" s="2">
-        <v>1750200435</v>
+        <v>1750109641</v>
       </c>
       <c r="D253" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
@@ -4826,13 +4805,13 @@
         <v>44</v>
       </c>
       <c r="B254">
-        <v>7979551</v>
+        <v>7984368</v>
       </c>
       <c r="C254" s="2">
-        <v>1750134478</v>
+        <v>1750263341</v>
       </c>
       <c r="D254" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
@@ -4840,13 +4819,13 @@
         <v>44</v>
       </c>
       <c r="B255">
-        <v>7979551</v>
+        <v>7984368</v>
       </c>
       <c r="C255" s="2">
-        <v>1750214647</v>
+        <v>1750291701</v>
       </c>
       <c r="D255" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
@@ -4854,13 +4833,13 @@
         <v>44</v>
       </c>
       <c r="B256">
-        <v>7979609</v>
+        <v>7984368</v>
       </c>
       <c r="C256" s="2">
-        <v>1750200435</v>
+        <v>1770041364</v>
       </c>
       <c r="D256" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
@@ -4868,24 +4847,24 @@
         <v>47</v>
       </c>
       <c r="B257">
-        <v>7979880</v>
+        <v>7987111</v>
       </c>
       <c r="C257" s="2">
         <v>1750105988</v>
       </c>
       <c r="D257" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B258">
-        <v>7983248</v>
+        <v>7987370</v>
       </c>
       <c r="C258" s="2">
-        <v>1750109615</v>
+        <v>1750188523</v>
       </c>
       <c r="D258" t="s">
         <v>160</v>
@@ -4893,40 +4872,40 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="B259">
-        <v>7983283</v>
+        <v>7987434</v>
       </c>
       <c r="C259" s="2">
-        <v>1750105679</v>
+        <v>1750105988</v>
       </c>
       <c r="D259" t="s">
-        <v>49</v>
+        <v>161</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="B260">
-        <v>7983301</v>
+        <v>7987462</v>
       </c>
       <c r="C260" s="2">
-        <v>1750302850</v>
+        <v>1750188523</v>
       </c>
       <c r="D260" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B261">
-        <v>7983339</v>
-      </c>
-      <c r="C261">
+        <v>7987462</v>
+      </c>
+      <c r="C261" s="2">
         <v>1750177464</v>
       </c>
       <c r="D261" t="s">
@@ -4935,83 +4914,83 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B262">
-        <v>7983339</v>
-      </c>
-      <c r="C262">
-        <v>1750188523</v>
+        <v>7987578</v>
+      </c>
+      <c r="C262" s="2">
+        <v>1750105988</v>
       </c>
       <c r="D262" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="B263">
-        <v>7984027</v>
+        <v>7987999</v>
       </c>
       <c r="C263" s="2">
-        <v>1750222982</v>
+        <v>1750346607</v>
       </c>
       <c r="D263" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B264">
-        <v>7984086</v>
+        <v>7988124</v>
       </c>
       <c r="C264" s="2">
-        <v>1750220330</v>
+        <v>1750109615</v>
       </c>
       <c r="D264" t="s">
-        <v>164</v>
+        <v>53</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B265">
-        <v>7984086</v>
+        <v>7989437</v>
       </c>
       <c r="C265" s="2">
-        <v>1750248000</v>
+        <v>1750101956</v>
       </c>
       <c r="D265" t="s">
-        <v>164</v>
+        <v>53</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B266">
-        <v>7984118</v>
-      </c>
-      <c r="C266" s="2">
-        <v>1750109641</v>
+        <v>7991709</v>
+      </c>
+      <c r="C266">
+        <v>1750188523</v>
       </c>
       <c r="D266" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B267">
-        <v>7984368</v>
+        <v>7992146</v>
       </c>
       <c r="C267" s="2">
-        <v>1750263341</v>
+        <v>1750053977</v>
       </c>
       <c r="D267" t="s">
         <v>166</v>
@@ -5019,13 +4998,13 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B268">
-        <v>7984368</v>
+        <v>7992146</v>
       </c>
       <c r="C268" s="2">
-        <v>1750291701</v>
+        <v>1750105988</v>
       </c>
       <c r="D268" t="s">
         <v>166</v>
@@ -5036,24 +5015,24 @@
         <v>44</v>
       </c>
       <c r="B269">
-        <v>7984368</v>
+        <v>7992155</v>
       </c>
       <c r="C269" s="2">
-        <v>1770041364</v>
+        <v>1750215295</v>
       </c>
       <c r="D269" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>167</v>
+        <v>47</v>
       </c>
       <c r="B270">
-        <v>7985978</v>
-      </c>
-      <c r="C270" t="s">
-        <v>41</v>
+        <v>7992231</v>
+      </c>
+      <c r="C270" s="2">
+        <v>1750109641</v>
       </c>
       <c r="D270" t="s">
         <v>168</v>
@@ -5061,13 +5040,13 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="B271">
-        <v>7987111</v>
+        <v>7993496</v>
       </c>
       <c r="C271" s="2">
-        <v>1750105988</v>
+        <v>1750101956</v>
       </c>
       <c r="D271" t="s">
         <v>169</v>
@@ -5075,16 +5054,16 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>170</v>
+        <v>8</v>
       </c>
       <c r="B272">
-        <v>7987322</v>
-      </c>
-      <c r="C272" t="s">
-        <v>171</v>
+        <v>7993496</v>
+      </c>
+      <c r="C272" s="2">
+        <v>1750188523</v>
       </c>
       <c r="D272" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
@@ -5092,139 +5071,139 @@
         <v>44</v>
       </c>
       <c r="B273">
-        <v>7987370</v>
+        <v>7993882</v>
       </c>
       <c r="C273" s="2">
-        <v>1750188523</v>
+        <v>1750245555</v>
       </c>
       <c r="D273" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B274">
-        <v>7987434</v>
+        <v>7993882</v>
       </c>
       <c r="C274" s="2">
-        <v>1750105988</v>
+        <v>1750200435</v>
       </c>
       <c r="D274" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B275">
-        <v>7987462</v>
+        <v>7993882</v>
       </c>
       <c r="C275" s="2">
-        <v>1750188523</v>
+        <v>1750133348</v>
       </c>
       <c r="D275" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B276">
-        <v>7987462</v>
+        <v>7993882</v>
       </c>
       <c r="C276" s="2">
-        <v>1750177464</v>
+        <v>1750214647</v>
       </c>
       <c r="D276" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>47</v>
+        <v>128</v>
       </c>
       <c r="B277">
-        <v>7987578</v>
-      </c>
-      <c r="C277" s="2">
-        <v>1750105988</v>
+        <v>7993886</v>
+      </c>
+      <c r="C277" t="s">
+        <v>285</v>
       </c>
       <c r="D277" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B278">
-        <v>7987872</v>
+        <v>7994017</v>
       </c>
       <c r="C278" s="2">
-        <v>1750092824</v>
+        <v>1750193275</v>
       </c>
       <c r="D278" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="B279">
-        <v>7987999</v>
+        <v>7994017</v>
       </c>
       <c r="C279" s="2">
-        <v>1750346607</v>
+        <v>1750200435</v>
       </c>
       <c r="D279" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B280">
-        <v>7988124</v>
+        <v>7996728</v>
       </c>
       <c r="C280" s="2">
-        <v>1750109615</v>
+        <v>1750245555</v>
       </c>
       <c r="D280" t="s">
-        <v>49</v>
+        <v>173</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B281">
-        <v>7989437</v>
+        <v>7996728</v>
       </c>
       <c r="C281" s="2">
-        <v>1750101956</v>
+        <v>1750289153</v>
       </c>
       <c r="D281" t="s">
-        <v>49</v>
+        <v>173</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B282">
-        <v>7990418</v>
+        <v>7996728</v>
       </c>
       <c r="C282" s="2">
-        <v>1750100966</v>
+        <v>1750263341</v>
       </c>
       <c r="D282" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
@@ -5232,10 +5211,10 @@
         <v>44</v>
       </c>
       <c r="B283">
-        <v>7991709</v>
-      </c>
-      <c r="C283">
-        <v>1750188523</v>
+        <v>7996728</v>
+      </c>
+      <c r="C283" s="2">
+        <v>1750200435</v>
       </c>
       <c r="D283" t="s">
         <v>173</v>
@@ -5243,72 +5222,72 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="B284">
-        <v>7991786</v>
+        <v>8001964</v>
       </c>
       <c r="C284" s="2">
-        <v>1750109659</v>
+        <v>1750261447</v>
       </c>
       <c r="D284" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="B285">
-        <v>7992146</v>
+        <v>8001995</v>
       </c>
       <c r="C285" s="2">
-        <v>1750053977</v>
+        <v>1750177464</v>
       </c>
       <c r="D285" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B286">
-        <v>7992146</v>
+        <v>8002016</v>
       </c>
       <c r="C286" s="2">
-        <v>1750105988</v>
+        <v>1750200435</v>
       </c>
       <c r="D286" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B287">
-        <v>7992155</v>
+        <v>8002044</v>
       </c>
       <c r="C287" s="2">
         <v>1750215295</v>
       </c>
       <c r="D287" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B288">
-        <v>7992217</v>
+        <v>8002373</v>
       </c>
       <c r="C288" s="2">
-        <v>1750109658</v>
+        <v>1750200435</v>
       </c>
       <c r="D288" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
@@ -5316,97 +5295,97 @@
         <v>47</v>
       </c>
       <c r="B289">
-        <v>7992231</v>
-      </c>
-      <c r="C289" s="2">
-        <v>1750109641</v>
+        <v>8002614</v>
+      </c>
+      <c r="C289" t="s">
+        <v>5</v>
       </c>
       <c r="D289" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B290">
-        <v>7993496</v>
+        <v>8002694</v>
       </c>
       <c r="C290" s="2">
-        <v>1750101956</v>
+        <v>1750173205</v>
       </c>
       <c r="D290" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B291">
-        <v>7993496</v>
+        <v>8002694</v>
       </c>
       <c r="C291" s="2">
-        <v>1750188523</v>
+        <v>1750193275</v>
       </c>
       <c r="D291" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>150</v>
+        <v>47</v>
       </c>
       <c r="B292">
-        <v>7993736</v>
+        <v>8002746</v>
       </c>
       <c r="C292" s="2">
-        <v>1750053977</v>
+        <v>1750109615</v>
       </c>
       <c r="D292" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>150</v>
+        <v>47</v>
       </c>
       <c r="B293">
-        <v>7993736</v>
+        <v>8002746</v>
       </c>
       <c r="C293" s="2">
-        <v>1750173205</v>
+        <v>1750109641</v>
       </c>
       <c r="D293" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B294">
-        <v>7993882</v>
+        <v>8002753</v>
       </c>
       <c r="C294" s="2">
-        <v>1750245555</v>
+        <v>1750102901</v>
       </c>
       <c r="D294" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B295">
-        <v>7993882</v>
+        <v>8002883</v>
       </c>
       <c r="C295" s="2">
-        <v>1750200435</v>
+        <v>1750188523</v>
       </c>
       <c r="D295" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
@@ -5414,108 +5393,108 @@
         <v>44</v>
       </c>
       <c r="B296">
-        <v>7993882</v>
+        <v>8003159</v>
       </c>
       <c r="C296" s="2">
-        <v>1750133348</v>
+        <v>1750193275</v>
       </c>
       <c r="D296" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B297">
-        <v>7993882</v>
+        <v>8003561</v>
       </c>
       <c r="C297" s="2">
-        <v>1750214647</v>
+        <v>1750177464</v>
       </c>
       <c r="D297" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="B298">
-        <v>7993886</v>
-      </c>
-      <c r="C298" t="s">
-        <v>290</v>
+        <v>8003696</v>
+      </c>
+      <c r="C298" s="2">
+        <v>1750188546</v>
       </c>
       <c r="D298" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B299">
-        <v>7994017</v>
+        <v>8004495</v>
       </c>
       <c r="C299" s="2">
-        <v>1750193275</v>
+        <v>1750222982</v>
       </c>
       <c r="D299" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="B300">
-        <v>7994017</v>
+        <v>8004526</v>
       </c>
       <c r="C300" s="2">
-        <v>1750200435</v>
+        <v>1750304916</v>
       </c>
       <c r="D300" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B301">
-        <v>7996728</v>
+        <v>8004898</v>
       </c>
       <c r="C301" s="2">
-        <v>1750245555</v>
+        <v>1750130600</v>
       </c>
       <c r="D301" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B302">
-        <v>7996728</v>
+        <v>8006044</v>
       </c>
       <c r="C302" s="2">
-        <v>1750289153</v>
+        <v>1750105988</v>
       </c>
       <c r="D302" t="s">
-        <v>190</v>
+        <v>161</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B303">
-        <v>7996728</v>
+        <v>8006280</v>
       </c>
       <c r="C303" s="2">
-        <v>1750263341</v>
+        <v>1750188523</v>
       </c>
       <c r="D303" t="s">
         <v>190</v>
@@ -5526,27 +5505,27 @@
         <v>44</v>
       </c>
       <c r="B304">
-        <v>7996728</v>
+        <v>8008936</v>
       </c>
       <c r="C304" s="2">
-        <v>1750200435</v>
+        <v>1750215294</v>
       </c>
       <c r="D304" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="B305">
-        <v>8001964</v>
+        <v>8008945</v>
       </c>
       <c r="C305" s="2">
-        <v>1750261447</v>
+        <v>1750109659</v>
       </c>
       <c r="D305" t="s">
-        <v>191</v>
+        <v>53</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
@@ -5554,13 +5533,13 @@
         <v>8</v>
       </c>
       <c r="B306">
-        <v>8001995</v>
+        <v>8009062</v>
       </c>
       <c r="C306" s="2">
         <v>1750177464</v>
       </c>
       <c r="D306" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
@@ -5568,55 +5547,55 @@
         <v>44</v>
       </c>
       <c r="B307">
-        <v>8002016</v>
+        <v>8009074</v>
       </c>
       <c r="C307" s="2">
         <v>1750200435</v>
       </c>
       <c r="D307" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="B308">
-        <v>8002017</v>
+        <v>8009161</v>
       </c>
       <c r="C308" t="s">
-        <v>194</v>
+        <v>41</v>
       </c>
       <c r="D308" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B309">
-        <v>8002044</v>
+        <v>8009485</v>
       </c>
       <c r="C309" s="2">
-        <v>1750215295</v>
+        <v>1750136011</v>
       </c>
       <c r="D309" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B310">
-        <v>8002373</v>
+        <v>8009490</v>
       </c>
       <c r="C310" s="2">
-        <v>1750200435</v>
+        <v>1750105988</v>
       </c>
       <c r="D310" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
@@ -5624,41 +5603,41 @@
         <v>47</v>
       </c>
       <c r="B311">
-        <v>8002614</v>
-      </c>
-      <c r="C311" t="s">
-        <v>5</v>
+        <v>8009740</v>
+      </c>
+      <c r="C311" s="2">
+        <v>1750171419</v>
       </c>
       <c r="D311" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B312">
-        <v>8002694</v>
+        <v>8009828</v>
       </c>
       <c r="C312" s="2">
-        <v>1750173205</v>
+        <v>1750261447</v>
       </c>
       <c r="D312" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B313">
-        <v>8002694</v>
+        <v>8009835</v>
       </c>
       <c r="C313" s="2">
-        <v>1750193275</v>
+        <v>1750105988</v>
       </c>
       <c r="D313" t="s">
-        <v>199</v>
+        <v>161</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
@@ -5666,125 +5645,125 @@
         <v>47</v>
       </c>
       <c r="B314">
-        <v>8002746</v>
+        <v>8009857</v>
       </c>
       <c r="C314" s="2">
-        <v>1750109615</v>
+        <v>1770031910</v>
       </c>
       <c r="D314" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>47</v>
+        <v>128</v>
       </c>
       <c r="B315">
-        <v>8002746</v>
+        <v>8009934</v>
       </c>
       <c r="C315" s="2">
-        <v>1750109641</v>
+        <v>1750105988</v>
       </c>
       <c r="D315" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>47</v>
+        <v>128</v>
       </c>
       <c r="B316">
-        <v>8002753</v>
-      </c>
-      <c r="C316" s="2">
-        <v>1750102901</v>
+        <v>8009937</v>
+      </c>
+      <c r="C316" t="s">
+        <v>283</v>
       </c>
       <c r="D316" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B317">
-        <v>8002883</v>
+        <v>8010058</v>
       </c>
       <c r="C317" s="2">
-        <v>1750188523</v>
+        <v>1750200435</v>
       </c>
       <c r="D317" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B318">
-        <v>8003159</v>
+        <v>8010648</v>
       </c>
       <c r="C318" s="2">
-        <v>1750193275</v>
+        <v>1750109658</v>
       </c>
       <c r="D318" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="B319">
-        <v>8003492</v>
+        <v>8010671</v>
       </c>
       <c r="C319" s="2">
         <v>1750109615</v>
       </c>
       <c r="D319" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B320">
-        <v>8003561</v>
+        <v>8011156</v>
       </c>
       <c r="C320" s="2">
-        <v>1750177464</v>
+        <v>1750220000</v>
       </c>
       <c r="D320" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B321">
-        <v>8004495</v>
+        <v>8011156</v>
       </c>
       <c r="C321" s="2">
-        <v>1750222982</v>
+        <v>1750214647</v>
       </c>
       <c r="D321" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="B322">
-        <v>8004526</v>
+        <v>8011156</v>
       </c>
       <c r="C322" s="2">
-        <v>1750304916</v>
+        <v>1750200541</v>
       </c>
       <c r="D322" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.3">
@@ -5792,13 +5771,13 @@
         <v>47</v>
       </c>
       <c r="B323">
-        <v>8004898</v>
+        <v>8012047</v>
       </c>
       <c r="C323" s="2">
-        <v>1750130600</v>
+        <v>1750101956</v>
       </c>
       <c r="D323" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.3">
@@ -5806,66 +5785,66 @@
         <v>47</v>
       </c>
       <c r="B324">
-        <v>8006044</v>
-      </c>
-      <c r="C324" s="2">
-        <v>1750105988</v>
+        <v>8012047</v>
+      </c>
+      <c r="C324" t="s">
+        <v>143</v>
       </c>
       <c r="D324" t="s">
-        <v>174</v>
+        <v>203</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="B325">
-        <v>8006280</v>
-      </c>
-      <c r="C325" s="2">
-        <v>1750188523</v>
+        <v>8012047</v>
+      </c>
+      <c r="C325" t="s">
+        <v>144</v>
       </c>
       <c r="D325" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B326">
-        <v>8008936</v>
+        <v>8012047</v>
       </c>
       <c r="C326" s="2">
-        <v>1750215294</v>
+        <v>1750064500</v>
       </c>
       <c r="D326" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="B327">
-        <v>8008945</v>
+        <v>8012126</v>
       </c>
       <c r="C327" s="2">
         <v>1750109659</v>
       </c>
       <c r="D327" t="s">
-        <v>49</v>
+        <v>204</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B328">
-        <v>8009062</v>
+        <v>8012267</v>
       </c>
       <c r="C328" s="2">
-        <v>1750177464</v>
+        <v>1750200435</v>
       </c>
       <c r="D328" t="s">
         <v>205</v>
@@ -5873,30 +5852,30 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B329">
-        <v>8009074</v>
-      </c>
-      <c r="C329" s="2">
-        <v>1750200435</v>
+        <v>8012317</v>
+      </c>
+      <c r="C329" t="s">
+        <v>206</v>
       </c>
       <c r="D329" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="B330">
-        <v>8009161</v>
+        <v>8012317</v>
       </c>
       <c r="C330" t="s">
-        <v>41</v>
+        <v>208</v>
       </c>
       <c r="D330" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.3">
@@ -5904,13 +5883,13 @@
         <v>47</v>
       </c>
       <c r="B331">
-        <v>8009168</v>
+        <v>8012665</v>
       </c>
       <c r="C331" s="2">
-        <v>1750173205</v>
+        <v>1750105988</v>
       </c>
       <c r="D331" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.3">
@@ -5918,195 +5897,195 @@
         <v>47</v>
       </c>
       <c r="B332">
-        <v>8009172</v>
+        <v>8012665</v>
       </c>
       <c r="C332" s="2">
-        <v>1750109615</v>
+        <v>1750109641</v>
       </c>
       <c r="D332" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="B333">
-        <v>8009403</v>
+        <v>8012702</v>
       </c>
       <c r="C333" s="2">
-        <v>1750100966</v>
+        <v>1750222982</v>
       </c>
       <c r="D333" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="B334">
-        <v>8009403</v>
+        <v>8012775</v>
       </c>
       <c r="C334" t="s">
-        <v>216</v>
+        <v>80</v>
       </c>
       <c r="D334" t="s">
-        <v>215</v>
+        <v>53</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="B335">
-        <v>8009485</v>
+        <v>8013156</v>
       </c>
       <c r="C335" s="2">
-        <v>1750136011</v>
+        <v>1750188523</v>
       </c>
       <c r="D335" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B336">
-        <v>8009490</v>
+        <v>8013231</v>
       </c>
       <c r="C336" s="2">
-        <v>1750105988</v>
+        <v>1750109615</v>
       </c>
       <c r="D336" t="s">
-        <v>218</v>
+        <v>53</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>47</v>
+        <v>128</v>
       </c>
       <c r="B337">
-        <v>8009740</v>
+        <v>8015313</v>
       </c>
       <c r="C337" s="2">
-        <v>1750171419</v>
+        <v>1750100965</v>
       </c>
       <c r="D337" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B338">
-        <v>8009828</v>
+        <v>8016213</v>
       </c>
       <c r="C338" s="2">
-        <v>1750261447</v>
+        <v>1750215294</v>
       </c>
       <c r="D338" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B339">
-        <v>8009835</v>
+        <v>8017631</v>
       </c>
       <c r="C339" s="2">
-        <v>1750105988</v>
+        <v>1750157444</v>
       </c>
       <c r="D339" t="s">
-        <v>174</v>
+        <v>53</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B340">
-        <v>8009857</v>
+        <v>8017651</v>
       </c>
       <c r="C340" s="2">
-        <v>1770031910</v>
+        <v>1750200435</v>
       </c>
       <c r="D340" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B341">
-        <v>8009873</v>
+        <v>8017678</v>
       </c>
       <c r="C341" s="2">
-        <v>1750173205</v>
+        <v>1750200435</v>
       </c>
       <c r="D341" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>130</v>
+        <v>36</v>
       </c>
       <c r="B342">
-        <v>8009934</v>
-      </c>
-      <c r="C342" s="2">
-        <v>1750105988</v>
+        <v>8017955</v>
+      </c>
+      <c r="C342" t="s">
+        <v>215</v>
       </c>
       <c r="D342" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B343">
-        <v>8009937</v>
-      </c>
-      <c r="C343" t="s">
-        <v>291</v>
+        <v>8018004</v>
+      </c>
+      <c r="C343" s="2">
+        <v>1750045330</v>
       </c>
       <c r="D343" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B344">
-        <v>8010058</v>
+        <v>8018007</v>
       </c>
       <c r="C344" s="2">
-        <v>1750200435</v>
+        <v>1750105988</v>
       </c>
       <c r="D344" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="B345">
-        <v>8010648</v>
+        <v>8018041</v>
       </c>
       <c r="C345" s="2">
-        <v>1750109658</v>
+        <v>1750173205</v>
       </c>
       <c r="D345" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.3">
@@ -6114,27 +6093,27 @@
         <v>47</v>
       </c>
       <c r="B346">
-        <v>8010671</v>
+        <v>8018258</v>
       </c>
       <c r="C346" s="2">
         <v>1750109615</v>
       </c>
       <c r="D346" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B347">
-        <v>8011156</v>
+        <v>8018271</v>
       </c>
       <c r="C347" s="2">
-        <v>1750220000</v>
+        <v>1750188523</v>
       </c>
       <c r="D347" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.3">
@@ -6142,13 +6121,13 @@
         <v>44</v>
       </c>
       <c r="B348">
-        <v>8011156</v>
+        <v>8018527</v>
       </c>
       <c r="C348" s="2">
-        <v>1750214647</v>
+        <v>1750134478</v>
       </c>
       <c r="D348" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.3">
@@ -6156,55 +6135,55 @@
         <v>44</v>
       </c>
       <c r="B349">
-        <v>8011156</v>
+        <v>8018527</v>
       </c>
       <c r="C349" s="2">
-        <v>1750200541</v>
+        <v>1750193275</v>
       </c>
       <c r="D349" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B350">
-        <v>8012047</v>
+        <v>8018527</v>
       </c>
       <c r="C350" s="2">
-        <v>1750101956</v>
+        <v>1750200541</v>
       </c>
       <c r="D350" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B351">
-        <v>8012047</v>
+        <v>8018599</v>
       </c>
       <c r="C351" t="s">
-        <v>148</v>
+        <v>98</v>
       </c>
       <c r="D351" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B352">
-        <v>8012047</v>
+        <v>8018669</v>
       </c>
       <c r="C352" t="s">
-        <v>149</v>
+        <v>223</v>
       </c>
       <c r="D352" t="s">
-        <v>226</v>
+        <v>53</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.3">
@@ -6212,83 +6191,83 @@
         <v>47</v>
       </c>
       <c r="B353">
-        <v>8012047</v>
+        <v>8018768</v>
       </c>
       <c r="C353" s="2">
-        <v>1750064500</v>
+        <v>1750105988</v>
       </c>
       <c r="D353" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="B354">
-        <v>8012126</v>
+        <v>8019163</v>
       </c>
       <c r="C354" s="2">
-        <v>1750109659</v>
+        <v>1750109615</v>
       </c>
       <c r="D354" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B355">
-        <v>8012267</v>
+        <v>8019273</v>
       </c>
       <c r="C355" s="2">
-        <v>1750200435</v>
+        <v>1750188524</v>
       </c>
       <c r="D355" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="B356">
-        <v>8012317</v>
-      </c>
-      <c r="C356" t="s">
-        <v>229</v>
+        <v>8019273</v>
+      </c>
+      <c r="C356" s="2">
+        <v>1750188523</v>
       </c>
       <c r="D356" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="B357">
-        <v>8012317</v>
-      </c>
-      <c r="C357" t="s">
-        <v>231</v>
+        <v>8019334</v>
+      </c>
+      <c r="C357" s="2">
+        <v>1750173205</v>
       </c>
       <c r="D357" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B358">
-        <v>8012665</v>
+        <v>8019396</v>
       </c>
       <c r="C358" s="2">
-        <v>1750105988</v>
+        <v>1750200435</v>
       </c>
       <c r="D358" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.3">
@@ -6296,223 +6275,223 @@
         <v>47</v>
       </c>
       <c r="B359">
-        <v>8012665</v>
+        <v>8021342</v>
       </c>
       <c r="C359" s="2">
-        <v>1750109641</v>
+        <v>1750053977</v>
       </c>
       <c r="D359" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="B360">
-        <v>8012702</v>
+        <v>8021342</v>
       </c>
       <c r="C360" s="2">
-        <v>1750222982</v>
+        <v>1750109615</v>
       </c>
       <c r="D360" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B361">
-        <v>8013156</v>
+        <v>8021411</v>
       </c>
       <c r="C361" s="2">
-        <v>1750188523</v>
+        <v>1750177464</v>
       </c>
       <c r="D361" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B362">
-        <v>8013231</v>
+        <v>8021411</v>
       </c>
       <c r="C362" s="2">
-        <v>1750109615</v>
+        <v>1750101956</v>
       </c>
       <c r="D362" t="s">
-        <v>49</v>
+        <v>230</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>36</v>
+        <v>128</v>
       </c>
       <c r="B363">
-        <v>8013236</v>
-      </c>
-      <c r="C363" t="s">
-        <v>234</v>
+        <v>8021466</v>
+      </c>
+      <c r="C363" s="2">
+        <v>1750041251</v>
       </c>
       <c r="D363" t="s">
-        <v>49</v>
+        <v>231</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B364">
-        <v>8015313</v>
+        <v>8021466</v>
       </c>
       <c r="C364" s="2">
-        <v>1750100965</v>
+        <v>1750045776</v>
       </c>
       <c r="D364" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="B365">
-        <v>8016213</v>
+        <v>8021466</v>
       </c>
       <c r="C365" s="2">
-        <v>1750215294</v>
+        <v>1750020811</v>
       </c>
       <c r="D365" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c r="B366">
-        <v>8017631</v>
+        <v>8021466</v>
       </c>
       <c r="C366" s="2">
-        <v>1750157444</v>
+        <v>1750035776</v>
       </c>
       <c r="D366" t="s">
-        <v>49</v>
+        <v>231</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="B367">
-        <v>8017651</v>
+        <v>8021466</v>
       </c>
       <c r="C367" s="2">
-        <v>1750200435</v>
+        <v>1750035762</v>
       </c>
       <c r="D367" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="B368">
-        <v>8017678</v>
+        <v>8021466</v>
       </c>
       <c r="C368" s="2">
-        <v>1750200435</v>
+        <v>1750053977</v>
       </c>
       <c r="D368" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>8</v>
+        <v>128</v>
       </c>
       <c r="B369">
-        <v>8017873</v>
+        <v>8021466</v>
       </c>
       <c r="C369" s="2">
-        <v>1750109659</v>
+        <v>1750044668</v>
       </c>
       <c r="D369" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B370">
-        <v>8017955</v>
-      </c>
-      <c r="C370" t="s">
-        <v>240</v>
+        <v>8021567</v>
+      </c>
+      <c r="C370" s="2">
+        <v>1750105988</v>
       </c>
       <c r="D370" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="B371">
-        <v>8018004</v>
+        <v>8021674</v>
       </c>
       <c r="C371" s="2">
-        <v>1750045330</v>
+        <v>1750220330</v>
       </c>
       <c r="D371" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B372">
-        <v>8018007</v>
+        <v>8021674</v>
       </c>
       <c r="C372" s="2">
-        <v>1750105988</v>
+        <v>1750248000</v>
       </c>
       <c r="D372" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B373">
-        <v>8018041</v>
+        <v>8021674</v>
       </c>
       <c r="C373" s="2">
-        <v>1750173205</v>
+        <v>1750143750</v>
       </c>
       <c r="D373" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B374">
-        <v>8018258</v>
+        <v>8021686</v>
       </c>
       <c r="C374" s="2">
-        <v>1750109615</v>
+        <v>1750109658</v>
       </c>
       <c r="D374" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.3">
@@ -6520,41 +6499,41 @@
         <v>47</v>
       </c>
       <c r="B375">
-        <v>8018271</v>
+        <v>8021869</v>
       </c>
       <c r="C375" s="2">
-        <v>1750188523</v>
+        <v>1750109615</v>
       </c>
       <c r="D375" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="B376">
-        <v>8018508</v>
-      </c>
-      <c r="C376" s="2">
-        <v>1750109659</v>
+        <v>8022457</v>
+      </c>
+      <c r="C376" t="s">
+        <v>236</v>
       </c>
       <c r="D376" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="B377">
-        <v>8018508</v>
-      </c>
-      <c r="C377" s="2">
-        <v>1750105679</v>
+        <v>8022457</v>
+      </c>
+      <c r="C377" t="s">
+        <v>50</v>
       </c>
       <c r="D377" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.3">
@@ -6562,13 +6541,13 @@
         <v>44</v>
       </c>
       <c r="B378">
-        <v>8018527</v>
+        <v>8022650</v>
       </c>
       <c r="C378" s="2">
-        <v>1750134478</v>
+        <v>1750193275</v>
       </c>
       <c r="D378" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.3">
@@ -6576,13 +6555,13 @@
         <v>44</v>
       </c>
       <c r="B379">
-        <v>8018527</v>
+        <v>8023616</v>
       </c>
       <c r="C379" s="2">
-        <v>1750193275</v>
+        <v>1750215295</v>
       </c>
       <c r="D379" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.3">
@@ -6590,13 +6569,13 @@
         <v>44</v>
       </c>
       <c r="B380">
-        <v>8018527</v>
+        <v>8023616</v>
       </c>
       <c r="C380" s="2">
-        <v>1750200541</v>
+        <v>1750189650</v>
       </c>
       <c r="D380" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.3">
@@ -6604,97 +6583,97 @@
         <v>44</v>
       </c>
       <c r="B381">
-        <v>8018599</v>
-      </c>
-      <c r="C381" t="s">
-        <v>99</v>
+        <v>8023616</v>
+      </c>
+      <c r="C381" s="2">
+        <v>1750053977</v>
       </c>
       <c r="D381" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="B382">
-        <v>8018768</v>
+        <v>8023621</v>
       </c>
       <c r="C382" s="2">
-        <v>1750105988</v>
+        <v>1750188523</v>
       </c>
       <c r="D382" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B383">
-        <v>8019163</v>
+        <v>8023626</v>
       </c>
       <c r="C383" s="2">
-        <v>1750109615</v>
+        <v>1750249441</v>
       </c>
       <c r="D383" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B384">
-        <v>8019173</v>
+        <v>8023626</v>
       </c>
       <c r="C384" s="2">
-        <v>1750173205</v>
+        <v>1750220000</v>
       </c>
       <c r="D384" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="B385">
-        <v>8019184</v>
+        <v>8023656</v>
       </c>
       <c r="C385" s="2">
-        <v>1750092824</v>
+        <v>1750188523</v>
       </c>
       <c r="D385" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B386">
-        <v>8019215</v>
+        <v>8023656</v>
       </c>
       <c r="C386" s="2">
-        <v>1750109615</v>
+        <v>1750101956</v>
       </c>
       <c r="D386" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="B387">
-        <v>8019215</v>
+        <v>8023882</v>
       </c>
       <c r="C387" s="2">
-        <v>1750109641</v>
+        <v>1750109615</v>
       </c>
       <c r="D387" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.3">
@@ -6702,111 +6681,111 @@
         <v>8</v>
       </c>
       <c r="B388">
-        <v>8019273</v>
+        <v>8023994</v>
       </c>
       <c r="C388" s="2">
-        <v>1750188524</v>
+        <v>1750105988</v>
       </c>
       <c r="D388" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B389">
-        <v>8019273</v>
+        <v>8024230</v>
       </c>
       <c r="C389" s="2">
-        <v>1750188523</v>
+        <v>1750200435</v>
       </c>
       <c r="D389" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="B390">
-        <v>8019334</v>
+        <v>8024381</v>
       </c>
       <c r="C390" s="2">
-        <v>1750173205</v>
+        <v>1750064500</v>
       </c>
       <c r="D390" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>44</v>
+        <v>164</v>
       </c>
       <c r="B391">
-        <v>8019396</v>
+        <v>8024404</v>
       </c>
       <c r="C391" s="2">
-        <v>1750200435</v>
+        <v>1750053690</v>
       </c>
       <c r="D391" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="B392">
-        <v>8019563</v>
-      </c>
-      <c r="C392" s="2">
-        <v>1750215294</v>
+        <v>8024748</v>
+      </c>
+      <c r="C392" t="s">
+        <v>248</v>
       </c>
       <c r="D392" t="s">
-        <v>236</v>
+        <v>53</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B393">
-        <v>8020994</v>
+        <v>8024771</v>
       </c>
       <c r="C393" s="2">
-        <v>1750173205</v>
+        <v>1750092824</v>
       </c>
       <c r="D393" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>150</v>
+        <v>47</v>
       </c>
       <c r="B394">
-        <v>8021104</v>
-      </c>
-      <c r="C394" s="2">
-        <v>1750222982</v>
+        <v>8024773</v>
+      </c>
+      <c r="C394" t="s">
+        <v>250</v>
       </c>
       <c r="D394" t="s">
-        <v>256</v>
+        <v>53</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B395">
-        <v>8021158</v>
+        <v>8024887</v>
       </c>
       <c r="C395" s="2">
-        <v>1750173205</v>
+        <v>1750105988</v>
       </c>
       <c r="D395" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.3">
@@ -6814,13 +6793,13 @@
         <v>47</v>
       </c>
       <c r="B396">
-        <v>8021342</v>
-      </c>
-      <c r="C396" s="2">
-        <v>1750053977</v>
+        <v>8024891</v>
+      </c>
+      <c r="C396" t="s">
+        <v>252</v>
       </c>
       <c r="D396" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.3">
@@ -6828,94 +6807,94 @@
         <v>47</v>
       </c>
       <c r="B397">
-        <v>8021342</v>
-      </c>
-      <c r="C397" s="2">
-        <v>1750109615</v>
+        <v>8024891</v>
+      </c>
+      <c r="C397" t="s">
+        <v>254</v>
       </c>
       <c r="D397" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B398">
-        <v>8021411</v>
-      </c>
-      <c r="C398" s="2">
-        <v>1750177464</v>
+        <v>8024891</v>
+      </c>
+      <c r="C398" t="s">
+        <v>255</v>
       </c>
       <c r="D398" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="B399">
-        <v>8021411</v>
-      </c>
-      <c r="C399" s="2">
-        <v>1750101956</v>
+        <v>8024974</v>
+      </c>
+      <c r="C399" t="s">
+        <v>5</v>
       </c>
       <c r="D399" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="B400">
-        <v>8021466</v>
+        <v>8025025</v>
       </c>
       <c r="C400" s="2">
-        <v>1750041251</v>
+        <v>1750177464</v>
       </c>
       <c r="D400" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="B401">
-        <v>8021466</v>
+        <v>8025052</v>
       </c>
       <c r="C401" s="2">
-        <v>1750045776</v>
+        <v>1750200435</v>
       </c>
       <c r="D401" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="B402">
-        <v>8021466</v>
+        <v>8025196</v>
       </c>
       <c r="C402" s="2">
-        <v>1750020811</v>
+        <v>1750053977</v>
       </c>
       <c r="D402" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="B403">
-        <v>8021466</v>
+        <v>8025243</v>
       </c>
       <c r="C403" s="2">
-        <v>1750035776</v>
+        <v>1750126457</v>
       </c>
       <c r="D403" t="s">
         <v>259</v>
@@ -6923,72 +6902,72 @@
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="B404">
-        <v>8021466</v>
+        <v>8025293</v>
       </c>
       <c r="C404" s="2">
-        <v>1750035762</v>
+        <v>1750177464</v>
       </c>
       <c r="D404" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>130</v>
+        <v>261</v>
       </c>
       <c r="B405">
-        <v>8021466</v>
+        <v>8025447</v>
       </c>
       <c r="C405" s="2">
-        <v>1750053977</v>
+        <v>1750173205</v>
       </c>
       <c r="D405" t="s">
-        <v>259</v>
+        <v>53</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="B406">
-        <v>8021466</v>
+        <v>8026068</v>
       </c>
       <c r="C406" s="2">
-        <v>1750044668</v>
+        <v>1750200541</v>
       </c>
       <c r="D406" t="s">
-        <v>259</v>
+        <v>53</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B407">
-        <v>8021567</v>
+        <v>8026144</v>
       </c>
       <c r="C407" s="2">
-        <v>1750105988</v>
+        <v>1750177464</v>
       </c>
       <c r="D407" t="s">
-        <v>260</v>
+        <v>53</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>44</v>
+        <v>164</v>
       </c>
       <c r="B408">
-        <v>8021674</v>
+        <v>8026208</v>
       </c>
       <c r="C408" s="2">
-        <v>1750220330</v>
+        <v>1750045330</v>
       </c>
       <c r="D408" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.3">
@@ -6996,52 +6975,52 @@
         <v>44</v>
       </c>
       <c r="B409">
-        <v>8021674</v>
+        <v>8026553</v>
       </c>
       <c r="C409" s="2">
-        <v>1750248000</v>
+        <v>1750177464</v>
       </c>
       <c r="D409" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B410">
-        <v>8021674</v>
+        <v>8027721</v>
       </c>
       <c r="C410" s="2">
-        <v>1750143750</v>
+        <v>1750256247</v>
       </c>
       <c r="D410" t="s">
-        <v>261</v>
+        <v>53</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B411">
-        <v>8021686</v>
+        <v>8027864</v>
       </c>
       <c r="C411" s="2">
-        <v>1750109658</v>
+        <v>1750200435</v>
       </c>
       <c r="D411" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B412">
-        <v>8022457</v>
-      </c>
-      <c r="C412" t="s">
-        <v>263</v>
+        <v>8028282</v>
+      </c>
+      <c r="C412" s="2">
+        <v>1750295447</v>
       </c>
       <c r="D412" t="s">
         <v>264</v>
@@ -7049,13 +7028,13 @@
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B413">
-        <v>8022457</v>
-      </c>
-      <c r="C413" t="s">
-        <v>51</v>
+        <v>8028282</v>
+      </c>
+      <c r="C413" s="2">
+        <v>1750288271</v>
       </c>
       <c r="D413" t="s">
         <v>264</v>
@@ -7063,44 +7042,44 @@
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>44</v>
+        <v>164</v>
       </c>
       <c r="B414">
-        <v>8022650</v>
+        <v>8028325</v>
       </c>
       <c r="C414" s="2">
-        <v>1750193275</v>
+        <v>1750136010</v>
       </c>
       <c r="D414" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B415">
-        <v>8022696</v>
-      </c>
-      <c r="C415" s="2">
-        <v>1750215295</v>
+        <v>8028387</v>
+      </c>
+      <c r="C415" t="s">
+        <v>265</v>
       </c>
       <c r="D415" t="s">
-        <v>266</v>
+        <v>53</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>267</v>
+        <v>10</v>
       </c>
       <c r="B416">
-        <v>8023581</v>
+        <v>8028416</v>
       </c>
       <c r="C416" s="2">
-        <v>1750291701</v>
+        <v>1750110044</v>
       </c>
       <c r="D416" t="s">
-        <v>268</v>
+        <v>53</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.3">
@@ -7108,13 +7087,13 @@
         <v>44</v>
       </c>
       <c r="B417">
-        <v>8023616</v>
+        <v>8028510</v>
       </c>
       <c r="C417" s="2">
-        <v>1750215295</v>
+        <v>1750154866</v>
       </c>
       <c r="D417" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.3">
@@ -7122,13 +7101,13 @@
         <v>44</v>
       </c>
       <c r="B418">
-        <v>8023616</v>
+        <v>8028686</v>
       </c>
       <c r="C418" s="2">
-        <v>1750189650</v>
+        <v>1750200435</v>
       </c>
       <c r="D418" t="s">
-        <v>49</v>
+        <v>266</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.3">
@@ -7136,27 +7115,27 @@
         <v>44</v>
       </c>
       <c r="B419">
-        <v>8023616</v>
+        <v>8029118</v>
       </c>
       <c r="C419" s="2">
-        <v>1750053977</v>
+        <v>1750189650</v>
       </c>
       <c r="D419" t="s">
-        <v>49</v>
+        <v>267</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B420">
-        <v>8023621</v>
+        <v>8029118</v>
       </c>
       <c r="C420" s="2">
-        <v>1750188523</v>
+        <v>1750177464</v>
       </c>
       <c r="D420" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.3">
@@ -7164,27 +7143,27 @@
         <v>44</v>
       </c>
       <c r="B421">
-        <v>8023626</v>
+        <v>8029118</v>
       </c>
       <c r="C421" s="2">
-        <v>1750249441</v>
+        <v>1750174768</v>
       </c>
       <c r="D421" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B422">
-        <v>8023626</v>
-      </c>
-      <c r="C422" s="2">
-        <v>1750220000</v>
+        <v>8029194</v>
+      </c>
+      <c r="C422" t="s">
+        <v>65</v>
       </c>
       <c r="D422" t="s">
-        <v>270</v>
+        <v>53</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.3">
@@ -7192,41 +7171,41 @@
         <v>8</v>
       </c>
       <c r="B423">
-        <v>8023656</v>
+        <v>8029310</v>
       </c>
       <c r="C423" s="2">
         <v>1750188523</v>
       </c>
       <c r="D423" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>8</v>
+        <v>128</v>
       </c>
       <c r="B424">
-        <v>8023656</v>
+        <v>8029393</v>
       </c>
       <c r="C424" s="2">
-        <v>1750101956</v>
+        <v>1750109641</v>
       </c>
       <c r="D424" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B425">
-        <v>8023683</v>
+        <v>8029393</v>
       </c>
       <c r="C425" s="2">
         <v>1750109615</v>
       </c>
       <c r="D425" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.3">
@@ -7234,27 +7213,27 @@
         <v>47</v>
       </c>
       <c r="B426">
-        <v>8023828</v>
+        <v>8029536</v>
       </c>
       <c r="C426" s="2">
-        <v>1750101956</v>
+        <v>1750109641</v>
       </c>
       <c r="D426" t="s">
-        <v>49</v>
+        <v>270</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B427">
-        <v>8023846</v>
+        <v>8029541</v>
       </c>
       <c r="C427" s="2">
-        <v>1750053977</v>
+        <v>1750173205</v>
       </c>
       <c r="D427" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.3">
@@ -7262,10 +7241,10 @@
         <v>8</v>
       </c>
       <c r="B428">
-        <v>8023846</v>
-      </c>
-      <c r="C428" s="2">
-        <v>1750109659</v>
+        <v>8029755</v>
+      </c>
+      <c r="C428" t="s">
+        <v>143</v>
       </c>
       <c r="D428" t="s">
         <v>272</v>
@@ -7276,10 +7255,10 @@
         <v>8</v>
       </c>
       <c r="B429">
-        <v>8023846</v>
-      </c>
-      <c r="C429" s="2">
-        <v>1750173205</v>
+        <v>8029755</v>
+      </c>
+      <c r="C429" t="s">
+        <v>144</v>
       </c>
       <c r="D429" t="s">
         <v>272</v>
@@ -7290,167 +7269,167 @@
         <v>8</v>
       </c>
       <c r="B430">
-        <v>8023994</v>
+        <v>8029818</v>
       </c>
       <c r="C430" s="2">
-        <v>1750105988</v>
+        <v>1750188523</v>
       </c>
       <c r="D430" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B431">
-        <v>8024230</v>
+        <v>8030263</v>
       </c>
       <c r="C431" s="2">
-        <v>1750200435</v>
+        <v>1750109659</v>
       </c>
       <c r="D431" t="s">
-        <v>274</v>
+        <v>53</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>150</v>
+        <v>36</v>
       </c>
       <c r="B432">
-        <v>8024404</v>
-      </c>
-      <c r="C432" s="2">
-        <v>1750053690</v>
+        <v>8033084</v>
+      </c>
+      <c r="C432" t="s">
+        <v>273</v>
       </c>
       <c r="D432" t="s">
-        <v>275</v>
+        <v>53</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B433">
-        <v>8024427</v>
-      </c>
-      <c r="C433" s="2">
-        <v>1750100966</v>
+        <v>8033084</v>
+      </c>
+      <c r="C433" t="s">
+        <v>274</v>
       </c>
       <c r="D433" t="s">
-        <v>276</v>
+        <v>53</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="B434">
-        <v>8024771</v>
+        <v>8033112</v>
       </c>
       <c r="C434" s="2">
-        <v>1750092824</v>
+        <v>1750101956</v>
       </c>
       <c r="D434" t="s">
-        <v>277</v>
+        <v>53</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>150</v>
+        <v>275</v>
       </c>
       <c r="B435">
-        <v>8024826</v>
-      </c>
-      <c r="C435" s="2">
-        <v>1750173205</v>
+        <v>8033205</v>
+      </c>
+      <c r="C435" t="s">
+        <v>112</v>
       </c>
       <c r="D435" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>47</v>
+        <v>275</v>
       </c>
       <c r="B436">
-        <v>8024887</v>
+        <v>8033209</v>
       </c>
       <c r="C436" s="2">
-        <v>1750105988</v>
+        <v>1750159523</v>
       </c>
       <c r="D436" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>44</v>
+        <v>164</v>
       </c>
       <c r="B437">
-        <v>8025025</v>
+        <v>8033215</v>
       </c>
       <c r="C437" s="2">
-        <v>1750177464</v>
+        <v>1750105988</v>
       </c>
       <c r="D437" t="s">
-        <v>280</v>
+        <v>53</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B438">
-        <v>8025052</v>
+        <v>8033260</v>
       </c>
       <c r="C438" s="2">
-        <v>1750200435</v>
+        <v>1750105988</v>
       </c>
       <c r="D438" t="s">
-        <v>274</v>
+        <v>53</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="B439">
-        <v>8025129</v>
+        <v>8033320</v>
       </c>
       <c r="C439" s="2">
-        <v>1750109659</v>
+        <v>1750109615</v>
       </c>
       <c r="D439" t="s">
-        <v>180</v>
+        <v>278</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B440">
-        <v>8025196</v>
+        <v>8033430</v>
       </c>
       <c r="C440" s="2">
-        <v>1750053977</v>
+        <v>1750182347</v>
       </c>
       <c r="D440" t="s">
-        <v>281</v>
+        <v>53</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B441">
-        <v>8025243</v>
+        <v>8033483</v>
       </c>
       <c r="C441" s="2">
-        <v>1750126457</v>
+        <v>1750109615</v>
       </c>
       <c r="D441" t="s">
-        <v>282</v>
+        <v>235</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.3">
@@ -7458,27 +7437,27 @@
         <v>8</v>
       </c>
       <c r="B442">
-        <v>8025293</v>
+        <v>8033528</v>
       </c>
       <c r="C442" s="2">
-        <v>1750177464</v>
+        <v>1750173205</v>
       </c>
       <c r="D442" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="B443">
-        <v>8025548</v>
+        <v>8033594</v>
       </c>
       <c r="C443" s="2">
-        <v>1750290512</v>
+        <v>1750261447</v>
       </c>
       <c r="D443" t="s">
-        <v>49</v>
+        <v>280</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.3">
@@ -7486,241 +7465,59 @@
         <v>44</v>
       </c>
       <c r="B444">
-        <v>8026068</v>
+        <v>8033623</v>
       </c>
       <c r="C444" s="2">
-        <v>1750200541</v>
+        <v>1750053977</v>
       </c>
       <c r="D444" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B445">
-        <v>8026076</v>
+        <v>8033759</v>
       </c>
       <c r="C445" s="2">
-        <v>1750055175</v>
+        <v>1750173205</v>
       </c>
       <c r="D445" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="B446">
-        <v>8026144</v>
-      </c>
-      <c r="C446" s="2">
-        <v>1750177464</v>
+        <v>8034034</v>
+      </c>
+      <c r="C446">
+        <v>1750105988</v>
       </c>
       <c r="D446" t="s">
-        <v>49</v>
+        <v>281</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="B447">
-        <v>8026208</v>
-      </c>
-      <c r="C447" s="2">
-        <v>1750045330</v>
+        <v>8034278</v>
+      </c>
+      <c r="C447" t="s">
+        <v>127</v>
       </c>
       <c r="D447" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A448" t="s">
-        <v>44</v>
-      </c>
-      <c r="B448">
-        <v>8026553</v>
-      </c>
-      <c r="C448" s="2">
-        <v>1750177464</v>
-      </c>
-      <c r="D448" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A449" t="s">
-        <v>44</v>
-      </c>
-      <c r="B449">
-        <v>8027864</v>
-      </c>
-      <c r="C449" s="2">
-        <v>1750200435</v>
-      </c>
-      <c r="D449" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A450" t="s">
-        <v>10</v>
-      </c>
-      <c r="B450">
-        <v>8028277</v>
-      </c>
-      <c r="C450" s="2">
-        <v>1750105679</v>
-      </c>
-      <c r="D450" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A451" t="s">
-        <v>36</v>
-      </c>
-      <c r="B451">
-        <v>8028282</v>
-      </c>
-      <c r="C451" s="2">
-        <v>1750295447</v>
-      </c>
-      <c r="D451" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A452" t="s">
-        <v>36</v>
-      </c>
-      <c r="B452">
-        <v>8028282</v>
-      </c>
-      <c r="C452" s="2">
-        <v>1750288271</v>
-      </c>
-      <c r="D452" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A453" t="s">
-        <v>150</v>
-      </c>
-      <c r="B453">
-        <v>8028325</v>
-      </c>
-      <c r="C453" s="2">
-        <v>1750136010</v>
-      </c>
-      <c r="D453" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A454" t="s">
-        <v>130</v>
-      </c>
-      <c r="B454">
-        <v>8028381</v>
-      </c>
-      <c r="C454" s="2">
-        <v>1750109659</v>
-      </c>
-      <c r="D454" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A455" t="s">
-        <v>44</v>
-      </c>
-      <c r="B455">
-        <v>8028686</v>
-      </c>
-      <c r="C455" s="2">
-        <v>1750200435</v>
-      </c>
-      <c r="D455" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A456" t="s">
-        <v>150</v>
-      </c>
-      <c r="B456">
-        <v>8028981</v>
-      </c>
-      <c r="C456" s="2">
-        <v>1750173205</v>
-      </c>
-      <c r="D456" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A457" t="s">
-        <v>44</v>
-      </c>
-      <c r="B457">
-        <v>8029118</v>
-      </c>
-      <c r="C457" s="2">
-        <v>1750189650</v>
-      </c>
-      <c r="D457" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A458" t="s">
-        <v>44</v>
-      </c>
-      <c r="B458">
-        <v>8029118</v>
-      </c>
-      <c r="C458" s="2">
-        <v>1750177464</v>
-      </c>
-      <c r="D458" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A459" t="s">
-        <v>44</v>
-      </c>
-      <c r="B459">
-        <v>8029118</v>
-      </c>
-      <c r="C459" s="2">
-        <v>1750174768</v>
-      </c>
-      <c r="D459" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A460" t="s">
-        <v>36</v>
-      </c>
-      <c r="B460">
-        <v>8029476</v>
-      </c>
-      <c r="C460" t="s">
-        <v>81</v>
-      </c>
-      <c r="D460" t="s">
-        <v>49</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D460" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:D447" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/intento70-30.xlsx
+++ b/intento70-30.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dieboldnixdorf-my.sharepoint.com/personal/lucas_rodriguez_dieboldnixdorf_com/Documents/Escritorio/Codigo/PARTES/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="11_1B81D59E5B10DD04FBD93A11595ED87656CF9ADD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16E0DFF8-A1E0-4FD4-BB40-80DFCECDAC39}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="11_478996995B60D161AF1A3011595ED87656CFF95F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F52893B3-DAC0-49BD-9AA1-20D69FD133B8}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$447</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$463</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="289">
   <si>
     <t>NOMBRE CLIENTE</t>
   </si>
@@ -79,6 +79,9 @@
     <t>BIO 14/03/2024. PENDIENTE POR BIOMETRICO (FRETES)</t>
   </si>
   <si>
+    <t>nan</t>
+  </si>
+  <si>
     <t>BIO. 23/8/23. PENDIENTE POR BIOMETRICO XELIOS  (SORIANO)</t>
   </si>
   <si>
@@ -124,9 +127,6 @@
     <t>CABLE_IDEMIA</t>
   </si>
   <si>
-    <t>NOWIP. 28/02/24. PARTE 1750170098 TOUCHCONTROLLER: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
     <t>MOLDURA</t>
   </si>
   <si>
@@ -142,9 +142,6 @@
     <t>BIO.26/4/2024 PENDIENTE POR BIOMETRICO MARCA XELIOS (CORREA)</t>
   </si>
   <si>
-    <t>BIO. 12-10-2023. PENDIENTE POR CABLE DE BIOMETRICO XELIOS. (ALEGRE)</t>
-  </si>
-  <si>
     <t>BANCO COLUMBIA</t>
   </si>
   <si>
@@ -193,21 +190,12 @@
     <t>BIO.2/2/2024 TICKET PENDIENTE POR BIOMÉTRICO (CORREA)</t>
   </si>
   <si>
-    <t>49200908X01A</t>
-  </si>
-  <si>
-    <t>NOWIP. 08/04/24. PARTE 49200908X01A "Side Trim Bezel Aspen": SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
     <t>NOWIP. 08/02/24. PARTE 1750189650 V5 STACKER + 1750215295 V5 EXTRACTOR SUPERIOR: SIN SALDO EN WIP (MINIACI)</t>
   </si>
   <si>
     <t>49204018000E</t>
   </si>
   <si>
-    <t>STOCK. 16/4/24. PARTE FASCIA 280. A ESPERA DE REPARACION POR PARTE DE TECNOS. (ALEGRE)</t>
-  </si>
-  <si>
     <t>49209542000F</t>
   </si>
   <si>
@@ -235,6 +223,9 @@
     <t>STOCK. 1/3/24. FASCIA 2100 SIN BIOMETRICO, CON MARCO 15" Y JACK 3,5MM A ESPERA DE DESARME (SORIANO)</t>
   </si>
   <si>
+    <t>ETR. 14/05/24. PARTE 1750044878 V4 BOARD DISTRIBUTOR: EN REPARACIÓN. ETR: 16/05/24.  -- "1750105679        CMD Controller II USB assd. with cover DISPONIBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
     <t>SV217424000F</t>
   </si>
   <si>
@@ -250,9 +241,6 @@
     <t>BANCO PIANO</t>
   </si>
   <si>
-    <t>STOCK. 03/04/2024 A ESPERA DE DESARME DE FRENTE FASCIA 720 FL + GUIAS PARA 720 FL (MAITLAND)</t>
-  </si>
-  <si>
     <t>NOSP. 21/03/24. PARTE 1750215294 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
@@ -286,601 +274,622 @@
     <t>NOWIP. 08/04/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL + 1750214647 RM3 TRANSFER UNIT SAFE: SIN SALDO EN WIP. (MINIACI)</t>
   </si>
   <si>
+    <t>NOSP. 27/03/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN  / "TRABA" 1750067867 SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 08/05/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL + 1750214647 RM3 TRANSFER UNIT SAFE + 1750263341 RM3 TRANSPORT UNIT ESCROW +</t>
+  </si>
+  <si>
+    <t>NOSP. 08/05/24. PARTE 1750249441 RM3 MOVE AWCA + 1750220022 RM3 IO COLLECTOR + 1750220000 RM3 IO TRAY + 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>BIO.26/3/2024 TICKET PENDIENTE POR BIOMETRICO (CORREA)</t>
+  </si>
+  <si>
+    <t>NOSP. 27/03/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>HASAR</t>
+  </si>
+  <si>
+    <t>NOWIP. 03/04/24. PARTE 1750222982 SHUTTER PC 280: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>49218289X0BB</t>
+  </si>
+  <si>
+    <t>NOWIP. 16/04/24. PARTE 49202967X0CC BOQUILLA DE LECTORA DIP: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>RIEL</t>
+  </si>
+  <si>
+    <t>NOWIP. 08/04/24. SE CORRIGE COMENTARIO ANTERIOR. PARTE 1750193275 RM3 MAIN MODULE: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 24/04/24. PARTE 1750248000 RM3 IO COLLECTOR + 1750220330 RM3 IO TRAY + 1750193275 RM3 MAIN MODULE: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 15/04/24. PARTE 1750188523 CCDM CHASIS + 1750263341 RM3 TRANSPORT UNIT HEAD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 10/04/24. PARTE 1750109659 V4 STACKER + 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN.  --  "PARTE 1750100966 CMD V4 SHUTTER VERTIKAL RL STRIP" (SIC STOCK SIN INDICAR CONDICIÓN). (</t>
+  </si>
+  <si>
+    <t>NOWIP. 08/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 08/04/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 02/05/24. PARTE 1750193275 RM3 MAIN MODULE: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 09/04/24. PARTE 1750215294 V5 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 10/04/24. SE CORRIGE COMENTARIO ANTERIOR. PARTE 1750214647 RM3 TRANSFER UNIT SAFE + 1750140781 RM3 HEAD CONTROLLER: SIN SALDO EN WIP.  --  "1750212682         REEL STORAGE BOX DISPONIBLE EN STO</t>
+  </si>
+  <si>
+    <t>NOSP. 15/04/24. PARTE 1750126457 RM3 REEL STORAGE + 1750196174 RM3 MASTERCONTROLLER: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 10/05/24. PARTE 1750193275 RM3 MAIN MODULE + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 10/04/24. PARTE 1750215295 V5 EXTRACTOR INFERIOR + 1750215294 V5 EXTRACTOR INFERIOR: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>49257458000B</t>
+  </si>
+  <si>
+    <t>NOSP. 16/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 22/04/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 15/04/24. PARTE 1750222982 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 19/04/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 11/04/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 16/04/24. PARTE 1750183289 V5 STACKER: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750053977 CLAMP DISPONIBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 15/04/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 15/04/24. PARTE 1750193275 RM3 MAIN MODULE: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 19/04/24. PARTE 1750193275 RM3 MAIN MODULE: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 15/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>BIO. 18/4/24. PENDIENTE POR BIOMETRICO (SORIANO)</t>
+  </si>
+  <si>
+    <t>NOSP. 17/04/24. PARTE 1750248000 RM3 IO COLLECTOR + 1750220330 RM3 IO TRAY: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 16/04/24. PARTE 1750248000 RM3 IO COLLECTOR + 1750220330 RM3 IO TRAY: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>49204013000E</t>
+  </si>
+  <si>
+    <t>BANCO CREDICOOP</t>
+  </si>
+  <si>
+    <t>NOWIP. 17/04/24. PARTE 49254690000N AFD 2.0 STACKER: SIN SALDO WN WIP.  --  "ARTE 1750304622 CHD-mot ICT3H5-3AD2792 SecPac2 DISPONIBLE". (MINIACI)</t>
+  </si>
+  <si>
+    <t>49254690000N</t>
+  </si>
+  <si>
+    <t>NOSP. 02/05/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 16/04/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 16/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SALDO EN WIP.  --  "1750200541        Distributor Module CRS DISPONIBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 26/04/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 25/04/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 17/04/24. PARTE 1750214647 RM3 TRANSFER UNIT SAFE: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750200541 DISTRIBUTOR MODULE CRS DISPONIBLEN STOCK ". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 22/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 23/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 18/04/24. PARTE 1750248000 RM3 IO COLLECTOR + 1750220330 RM3 IO TRAY: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 02/05/24. PARTE 1750134478 RM3 CCU + 1750263341 RM3 TRANSPORT UNIT HEAD ESCROW: SIN SALDO EN WIP.  --  "1750200541 Distributor Module CRS+ 1750245555 transport unit head short path CRS/ATS DISP</t>
+  </si>
+  <si>
+    <t>NOSP. 18/04/24. PARTE 1750248000 RM3 IO COLLECTOR + 1750220330 RM3 IO TRAY: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 30/04/24. PARTE 1750188523 CCDM CHASIS + 1750154866 CCDM VALIDADOR CASH CHECK: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750188524 ALIGNMENT STATION 3 CCDM+ 1750101952 DISTANCE TRANSPORT VM3 DISPO</t>
+  </si>
+  <si>
+    <t>1750199517-25</t>
+  </si>
+  <si>
+    <t>1750195517-20</t>
+  </si>
+  <si>
+    <t>NOWIP. 19/04/24. PARTE 1750248000 RM3 IO COLLECTOR + 1750220330 RM3 IO TRAY: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 22/04/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 22/04/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 19/04/24. PARTE 1750200435 VS MODUL: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 22/04/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR + 1750215294 V5 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 25/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 23/04/24. PARTE 1750214647 RM3 TRANSFER UNIT SAFE: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750134478        CENTRALIZATION UNIT UPPER PART CRS/ATS DISPONIBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 26/04/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 07/05/24. PARTE 1750302850 SET DE CÁMARAS: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 23/04/24. PARTE 1750188523 CCDM CHASIS + 1750177464 CCDM ESCROW: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 23/04/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 25/04/24. PARTE 1750220330 RM3 IO TRAY + 1750248000 RM3 IO COLLECTOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 23/04/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 24/04/24. PARTE 1750263341 RM3 TRANSPORT UNIT HEAD + 1750126457 RM3 REEL STORAGE + 1750173205 LECTORA V2CU STANDARD: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 25/04/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>BANCO CIUDAD</t>
+  </si>
+  <si>
+    <t>49222612000F</t>
+  </si>
+  <si>
+    <t>NOWIP. 14/05/24. PARTE 49222612000F ENA CCA MAIN: SIN SALDO EN WIP.  --  "PARTE 49222644000A VALIDADOR ENA DISPONIBLE".</t>
+  </si>
+  <si>
+    <t>49222644000A</t>
+  </si>
+  <si>
+    <t>CUSB0001</t>
+  </si>
+  <si>
+    <t>NOSP. 29/04/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 03/05/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 25/04/24. PARTE 1750188523 CCDM CHASIS + 1750177464 CCDM ESCROW: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 23/04/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 25/04/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN.  --  "CLAMP 1750053977 DISPONIBLE". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 25/04/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 25/04/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 25/04/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750101956	DISPENSER MODULE VM3 DISPONIBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 30/04/24. PARTE 1750214647 RM3 TRANSFER UNIT SAFE + 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN.  --  "PARTE 1750133348 TMHLP + 1750245555 TUH DISPONIBLES"</t>
+  </si>
+  <si>
+    <t>NOSP. 29/04/24. PARTE 1750193275 RM3 MAIN MODULE + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOSP. 29/04/24. PARTE 1750263341 RM3 TRANSPORT UNIT HEAD + 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750245555 transport unit head short path CRS/ATS+ </t>
+  </si>
+  <si>
+    <t>NOWIP. 30/04/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 29/04/24. PARTE 1750177464 CCDM ESCROW: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 30/04/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 02/05/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 30/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>BIO. 29/04/2024 PENDIENTE POR BIOMETRICO (MAITLAND)</t>
+  </si>
+  <si>
+    <t>NOSP. 30/04/24. PARTE 1750193275 RM3 MAIN MODULE + 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 07/05/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR + 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>STOCK. 8/5/24. FASCIA 2100 CON JACK DE 3.5 A ESPERA DE DESARME (SORIANO)</t>
+  </si>
+  <si>
+    <t>NOSP. 02/05/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 30/04/24. PARTE 1750193275 RM3 MAIN MODULE : SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 03/05/24. PARTE 1750177464 CCDM ESCROW: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 14/05/24. PARTE 1750188546 DEPÓSITO DE SOBRES CINEO: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 02/05/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 30/04/24. PARTE 1750304916 "SHUTTER I-O TRAY NSL": SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 14/05/24. PARTE S/N "TRABA DE GUIA DE DISPOSITIVOS PARA 280RL": SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 08/05/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 03/05/24. PARTE 1750215294 V5 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 03/05/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>STOCK. 6/5/24. PARTE FASCIA 280. A ESPERA DE REPARACION DE TECNOS. (ALEGRE)</t>
+  </si>
+  <si>
+    <t>NOWIP. 06/05/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 06/05/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>ETR. 09/05/24. PARTE 1750182347 PC 3G WINCOR: EN REPARACIÓN. ETR: 14/05/24. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 06/05/24. PARTE 1750261447 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 09/05/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>SUP. 09/05/2024 A ESPERA DE NUMERO DE PARTE (MAITLAND)</t>
+  </si>
+  <si>
+    <t>NOSP. 07/05/24. PARTE 1750220000 RM3 IO COLLECTOR + 1750214647 RM3 TRANSFER UNIT SAFE: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750200541 DISTRIBUTOR MODULE DISPONBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 10/05/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN.  --  "PARTE 1750101956 VM3 DISPENSER MODULE + 1750154867 LINE XSA DISPONIBLES". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 14/05/24. PARTE 1750109659 V4 STACKER: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>ETR. 10/05/24. PARTE SV226262000D ENA TAPA DE GAVETAS: EN REPARACIÓN. ETR: 16/05/24.  --  "49222644000a VALIDATOR,TYPE B DISPONIBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
+    <t>SV226262000D</t>
+  </si>
+  <si>
+    <t>NOSP. 03/05/24. PARTE 1750105988 LECTORA V2X USB + 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
     <t>CAJERO EXPRESS - LINK</t>
   </si>
   <si>
-    <t>NOWIP. 27/03/24. PARTE "MONITOR/TOUCH" N° DE PARTE SIN IDENTIFICACIÓN CORRECTA 1750350686 + 1750301986: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 27/03/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN  / "TRABA" 1750067867 SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 08/05/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL + 1750214647 RM3 TRANSFER UNIT SAFE + 1750263341 RM3 TRANSPORT UNIT ESCROW +</t>
-  </si>
-  <si>
-    <t>NOSP. 08/05/24. PARTE 1750249441 RM3 MOVE AWCA + 1750220022 RM3 IO COLLECTOR + 1750220000 RM3 IO TRAY + 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>BIO.26/3/2024 TICKET PENDIENTE POR BIOMETRICO (CORREA)</t>
-  </si>
-  <si>
-    <t>NOSP. 27/03/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>HASAR</t>
-  </si>
-  <si>
-    <t>NOWIP. 03/04/24. PARTE 1750222982 SHUTTER PC 280: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>49218289X0BB</t>
-  </si>
-  <si>
-    <t>NOWIP. 16/04/24. PARTE 49202967X0CC BOQUILLA DE LECTORA DIP: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>RIEL</t>
-  </si>
-  <si>
-    <t>NOSP. 23/04/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750101956 DISPENSER MODULE DISPONIBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 08/04/24. SE CORRIGE COMENTARIO ANTERIOR. PARTE 1750193275 RM3 MAIN MODULE: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 24/04/24. PARTE 1750248000 RM3 IO COLLECTOR + 1750220330 RM3 IO TRAY + 1750193275 RM3 MAIN MODULE: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 15/04/24. PARTE 1750188523 CCDM CHASIS + 1750263341 RM3 TRANSPORT UNIT HEAD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 10/04/24. PARTE 1750109659 V4 STACKER + 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN.  --  "PARTE 1750100966 CMD V4 SHUTTER VERTIKAL RL STRIP" (SIC STOCK SIN INDICAR CONDICIÓN). (</t>
-  </si>
-  <si>
-    <t>NOWIP. 08/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 08/04/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 02/05/24. PARTE 1750193275 RM3 MAIN MODULE: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 09/04/24. PARTE 1750215294 V5 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 10/04/24. SE CORRIGE COMENTARIO ANTERIOR. PARTE 1750214647 RM3 TRANSFER UNIT SAFE + 1750140781 RM3 HEAD CONTROLLER: SIN SALDO EN WIP.  --  "1750212682         REEL STORAGE BOX DISPONIBLE EN STO</t>
-  </si>
-  <si>
-    <t>NOSP. 15/04/24. PARTE 1750126457 RM3 REEL STORAGE + 1750196174 RM3 MASTERCONTROLLER: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 10/05/24. PARTE 1750193275 RM3 MAIN MODULE + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 10/04/24. PARTE 1750215295 V5 EXTRACTOR INFERIOR + 1750215294 V5 EXTRACTOR INFERIOR: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>49257458000B</t>
-  </si>
-  <si>
-    <t>NOSP. 16/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 22/04/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 15/04/24. PARTE 1750222982 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 19/04/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 16/04/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 11/04/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 16/04/24. PARTE 1750183289 V5 STACKER: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750053977 CLAMP DISPONIBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 15/04/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 15/04/24. PARTE 1750193275 RM3 MAIN MODULE: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 19/04/24. PARTE 1750193275 RM3 MAIN MODULE: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 15/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>BIO. 18/4/24. PENDIENTE POR BIOMETRICO (SORIANO)</t>
-  </si>
-  <si>
-    <t>NOSP. 17/04/24. PARTE 1750248000 RM3 IO COLLECTOR + 1750220330 RM3 IO TRAY: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 16/04/24. PARTE 1750248000 RM3 IO COLLECTOR + 1750220330 RM3 IO TRAY: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>49204013000E</t>
-  </si>
-  <si>
-    <t>BANCO CREDICOOP</t>
-  </si>
-  <si>
-    <t>NOWIP. 17/04/24. PARTE 49254690000N AFD 2.0 STACKER: SIN SALDO WN WIP.  --  "ARTE 1750304622 CHD-mot ICT3H5-3AD2792 SecPac2 DISPONIBLE". (MINIACI)</t>
-  </si>
-  <si>
-    <t>49254690000N</t>
-  </si>
-  <si>
-    <t>NOSP. 02/05/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 16/04/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 16/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SALDO EN WIP.  --  "1750200541        Distributor Module CRS DISPONIBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 26/04/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 25/04/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 17/04/24. PARTE 1750214647 RM3 TRANSFER UNIT SAFE: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750200541 DISTRIBUTOR MODULE CRS DISPONIBLEN STOCK ". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 22/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 23/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 18/04/24. PARTE 1750248000 RM3 IO COLLECTOR + 1750220330 RM3 IO TRAY: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 02/05/24. PARTE 1750134478 RM3 CCU + 1750263341 RM3 TRANSPORT UNIT HEAD ESCROW: SIN SALDO EN WIP.  --  "1750200541 Distributor Module CRS+ 1750245555 transport unit head short path CRS/ATS DISP</t>
-  </si>
-  <si>
-    <t>NOSP. 18/04/24. PARTE 1750248000 RM3 IO COLLECTOR + 1750220330 RM3 IO TRAY: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 30/04/24. PARTE 1750188523 CCDM CHASIS + 1750154866 CCDM VALIDADOR CASH CHECK: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750188524 ALIGNMENT STATION 3 CCDM+ 1750101952 DISTANCE TRANSPORT VM3 DISPO</t>
-  </si>
-  <si>
-    <t>1750199517-25</t>
-  </si>
-  <si>
-    <t>1750195517-20</t>
-  </si>
-  <si>
-    <t>NOWIP. 19/04/24. PARTE 1750248000 RM3 IO COLLECTOR + 1750220330 RM3 IO TRAY: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 22/04/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 22/04/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 19/04/24. PARTE 1750200435 VS MODUL: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 22/04/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR + 1750215294 V5 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 25/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 23/04/24. PARTE 1750214647 RM3 TRANSFER UNIT SAFE: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750134478        CENTRALIZATION UNIT UPPER PART CRS/ATS DISPONIBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 26/04/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 07/05/24. PARTE 1750302850 SET DE CÁMARAS: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 23/04/24. PARTE 1750188523 CCDM CHASIS + 1750177464 CCDM ESCROW: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 23/04/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 25/04/24. PARTE 1750220330 RM3 IO TRAY + 1750248000 RM3 IO COLLECTOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 23/04/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 24/04/24. PARTE 1750263341 RM3 TRANSPORT UNIT HEAD + 1750126457 RM3 REEL STORAGE + 1750173205 LECTORA V2CU STANDARD: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 25/04/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 29/04/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 03/05/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 25/04/24. PARTE 1750188523 CCDM CHASIS + 1750177464 CCDM ESCROW: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 23/04/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+    <t>NOSP. 06/05/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 08/05/24. PARTE 1750100965 V4 SHUTTER FL VERTICAL: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 08/05/24. PARTE 1750215294 V5 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 08/05/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 08/05/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>49212868000D</t>
+  </si>
+  <si>
+    <t>NOWIP. 07/05/24. SE CORRIGE COMENTARIO ANTERIOR. PARTE 49212868000D CERRADURA DE FASCIA OPTEVA 868: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>SUP. 8/5/24. SE SOLICITA UN SHUTTER PERO EN LA AUDITORIA INDICA OTRA COSA. (SORIANO)</t>
+  </si>
+  <si>
+    <t>NOSP. 07/05/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 09/05/24. PARTE 1750193275 RM3 MAIN MODULE: SIN SPARE PARTS PARA REPARACIÓN.  --  "PARTE 1750200541 DISTRIBUTOR MODULE + 1750289153 CENTRALIZATION UPER UNIT DISPONIBLE". (MINIACI)</t>
+  </si>
+  <si>
+    <t>STOCK 09/05/2024. PARTE RIEL DEL HEAD. VER DESARME (FRETES)</t>
+  </si>
+  <si>
+    <t>NOSP. 07/05/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 08/05/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 07/05/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750188524 ALIGNMENT STATION 3 CCDM DISPONIBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 07/05/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 08/05/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP.15/05/24. PARTE 1750109659 V4 STACKER: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 08/05/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN.  --  "CLAMP 1750053977 DISPONIBLE". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 08/05/24. PARTE 1750177464 CCDM ESCROW: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750101956 dispenser module VM3 DISPONIBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 08/05/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR + 1750109641 V4 EXTRACTOR SUPERIOR + 1750109659 V4 STACKER: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 08/05/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 08/05/24. PARTE 1750220330 RM3 IO TRAY + 1750248000 RM3 IO COLLECTOR: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750143750 SHUTTER I/O TRAY DISPONIBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 13/05/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA SU REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>19063498000A</t>
+  </si>
+  <si>
+    <t>NOSP. 10/05/24. PARTE 1750193275 RM3 MAIN MODULE: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 13/05/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR + 1750183289 V5 STACKER: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 10/05/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 09/05/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750101956 DISPENSER MODULE VM3 DISPONIBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
+    <t>MACRO</t>
+  </si>
+  <si>
+    <t>NOSP. 14/05/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 10/05/24. SE CORRIGE COMENTARIO ANTERIOR. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 09/05/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 14/05/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
     <t>BANCO DE CORDOBA</t>
   </si>
   <si>
-    <t>NOWIP. 25/04/24. PARTE 1750346607 SHUTTER IO TRAY II: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 25/04/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN.  --  "CLAMP 1750053977 DISPONIBLE". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 25/04/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 25/04/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 25/04/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750101956	DISPENSER MODULE VM3 DISPONIBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 30/04/24. PARTE 1750214647 RM3 TRANSFER UNIT SAFE + 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN.  --  "PARTE 1750133348 TMHLP + 1750245555 TUH DISPONIBLES"</t>
-  </si>
-  <si>
-    <t>NOWIP. 06/05/24. PARTE S/N "ACRÍLICO DE FASCIA PC1500": SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 29/04/24. PARTE 1750193275 RM3 MAIN MODULE + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOSP. 29/04/24. PARTE 1750263341 RM3 TRANSPORT UNIT HEAD + 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750245555 transport unit head short path CRS/ATS+ </t>
-  </si>
-  <si>
-    <t>NOWIP. 30/04/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 29/04/24. PARTE 1750177464 CCDM ESCROW: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 30/04/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 02/05/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 30/04/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>BIO. 29/04/2024 PENDIENTE POR BIOMETRICO (MAITLAND)</t>
-  </si>
-  <si>
-    <t>NOSP. 30/04/24. PARTE 1750193275 RM3 MAIN MODULE + 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 07/05/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR + 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>STOCK. 8/5/24. FASCIA 2100 CON JACK DE 3.5 A ESPERA DE DESARME (SORIANO)</t>
-  </si>
-  <si>
-    <t>NOSP. 02/05/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 30/04/24. PARTE 1750193275 RM3 MAIN MODULE : SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 03/05/24. PARTE 1750177464 CCDM ESCROW: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>RC. 13/05/2024 PARTE 1750188546 DEPOSIT PRINTER USB II A ESPERA DE REPARACION (MAITLAND)</t>
-  </si>
-  <si>
-    <t>NOWIP. 02/05/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 30/04/24. PARTE 1750304916 "SHUTTER I-O TRAY NSL": SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>SUP. 30/4/24. A ESPERA DE CONFIRMACION DE TRABA NECESARIA (SORIANO)</t>
-  </si>
-  <si>
-    <t>NOSP. 08/05/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 03/05/24. PARTE 1750215294 V5 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 03/05/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>STOCK. 6/5/24. PARTE FASCIA 280. A ESPERA DE REPARACION DE TECNOS. (ALEGRE)</t>
-  </si>
-  <si>
-    <t>NOWIP. 06/05/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 06/05/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>ETR. 09/05/24. PARTE 1750182347 PC 3G WINCOR: EN REPARACIÓN. ETR: 14/05/24. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 06/05/24. PARTE 1750261447 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 09/05/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>SUP. 09/05/2024 A ESPERA DE NUMERO DE PARTE (MAITLAND)</t>
-  </si>
-  <si>
-    <t>NOSP. 06/05/24. PARTE 1750109658  V4 STACKER S/SR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 03/05/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 07/05/24. PARTE 1750220000 RM3 IO COLLECTOR + 1750214647 RM3 TRANSFER UNIT SAFE: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750200541 DISTRIBUTOR MODULE DISPONBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 10/05/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN.  --  "PARTE 1750101956 VM3 DISPENSER MODULE + 1750154867 LINE XSA DISPONIBLES". (MINIACI)</t>
-  </si>
-  <si>
-    <t>SUP. 9/5/24. A ESPERA DE CONFIRMACION DE REPUESTO SOLICITADO (SORIANO)</t>
-  </si>
-  <si>
-    <t>NOSP. 06/05/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>49222644000A</t>
-  </si>
-  <si>
-    <t>ETR. 10/05/24. PARTE SV226262000D ENA TAPA DE GAVETAS: EN REPARACIÓN. ETR: 16/05/24.  --  "49222644000a VALIDATOR,TYPE B DISPONIBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>SV226262000D</t>
-  </si>
-  <si>
-    <t>NOSP. 03/05/24. PARTE 1750105988 LECTORA V2X USB + 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 06/05/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 08/05/24. PARTE 1750100965 V4 SHUTTER FL VERTICAL: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 08/05/24. PARTE 1750215294 V5 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 08/05/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 08/05/24. PARTE 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL + 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>49212868000D</t>
-  </si>
-  <si>
-    <t>NOWIP. 07/05/24. SE CORRIGE COMENTARIO ANTERIOR. PARTE 49212868000D CERRADURA DE FASCIA OPTEVA 868: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>SUP. 8/5/24. SE SOLICITA UN SHUTTER PERO EN LA AUDITORIA INDICA OTRA COSA. (SORIANO)</t>
-  </si>
-  <si>
-    <t>NOSP. 08/05/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 07/05/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 07/05/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 09/05/24. PARTE 1750193275 RM3 MAIN MODULE: SIN SPARE PARTS PARA REPARACIÓN.  --  "PARTE 1750200541 DISTRIBUTOR MODULE + 1750289153 CENTRALIZATION UPER UNIT DISPONIBLE". (MINIACI)</t>
-  </si>
-  <si>
-    <t>STOCK 09/05/2024. PARTE RIEL DEL HEAD. VER DESARME (FRETES)</t>
-  </si>
-  <si>
-    <t>49233151000A</t>
-  </si>
-  <si>
-    <t>NOSP. 07/05/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 08/05/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 07/05/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750188524 ALIGNMENT STATION 3 CCDM DISPONIBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 07/05/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 08/05/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 08/05/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN.  --  "CLAMP 1750053977 DISPONIBLE". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 08/05/24. PARTE 1750177464 CCDM ESCROW: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750101956 dispenser module VM3 DISPONIBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 08/05/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR + 1750109641 V4 EXTRACTOR SUPERIOR + 1750109659 V4 STACKER: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 08/05/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 08/05/24. PARTE 1750220330 RM3 IO TRAY + 1750248000 RM3 IO COLLECTOR: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750143750 SHUTTER I/O TRAY DISPONIBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 09/05/24. SE CORRIGE COMENTARIO ANTERIOR. PARTE 1750109658 STACKER: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 13/05/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA SU REPARACIÓN. (MINIACI)</t>
+    <t>NOSP. 09/05/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>stock. 14/05/2024 parte 1750100966 v4 shutter vertical rl disponible en sucursal 10:30 am (maitland)</t>
+  </si>
+  <si>
+    <t>NOSP. 10/05/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>BIO.13/5/2024 TICKET PENDIENTE POR BIOMÉTRICO (CORREA)</t>
+  </si>
+  <si>
+    <t>NOSP. 09/05/24. PARTE 1750177464 CCDM ESCROW: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 09/05/24. PARTE 1750126457 RM3 REEL STORAGE: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 10/05/24. PARTE 1750177464 CCDM ESCROW: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 14/05/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 10/05/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>stock. 14/05/2024 parte ds disco solido disponible en sucursal 10:30 am (maitland)</t>
+  </si>
+  <si>
+    <t>STOCK. 10/5/24. PARTE 49233158000A UTR. DISPONIBLE PARA SU DESPACHO. (ALEGRE)</t>
+  </si>
+  <si>
+    <t>NOSP. 10/05/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 14/05/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750059284 TRANSPORT CMD V4 HORIZONTAL RL 124 MM DISPONIBLE EN STOCK". (MINIACI)</t>
+  </si>
+  <si>
+    <t>ETR. 14/05/24. PARTE 1750053977 V4 CLAMP: EN REPARACIÓN. ETR: 17/05/24. (MINIACI)</t>
+  </si>
+  <si>
+    <t>ETR. 14/05/24. PARTE 1750154866 CCDM VALIDADOR CASH CHECK: EN REPARACIÓN. ETR: 17/05/24. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 13/05/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOWIP. 10/05/24. PARTE 1750189650 V5 STACKER S/SR + 1750177464 CCDM ESCROW: SIN SALDO EN WIP. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 13/05/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>CBA.RC.13/5/24. PARTE 1750109641 DOUBLE EXTRACTOR UNIT MDMS CMD V4´+1750109615 DOUBLE EXTRACTOR UNIT CMD V4:EN ESPERA DE REPARACIÓN. ETA:16/5/24 (JIMENEZ)</t>
+  </si>
+  <si>
+    <t>NOSP. 13/05/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA SU REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>SUP 13/05/2024. PARTE SWITCH DE SUPERVISOR. A LA ESPERA DE CONFIRMACION DE NUMERO DE PARTE (FRETES)</t>
+  </si>
+  <si>
+    <t>NUEVO BANCO DEL CHACO</t>
+  </si>
+  <si>
+    <t>RC 14/05/2024. PARTE 1750109659 CMD STACKER. EN ESPERA DE REPARACION (FRETES)</t>
+  </si>
+  <si>
+    <t>49211433000A</t>
+  </si>
+  <si>
+    <t>ETR. 14/05/24. PARTE 49208102003M AFD CCA DISPENSER: EN REPARACIÓN. ETR: 17/05/24.  --  "49211433000A        STACKER,AFD DISPONIBLE EN STOCK ". (MINIACI)</t>
+  </si>
+  <si>
+    <t>CBA.RC.13/5/24. PARTE 1750109615 DOUBLE EXTRACTOR UNIT CMD V4:EN ESPERA DE REPARACIÓN. ETA:16/5/24 (JIMENEZ)</t>
+  </si>
+  <si>
+    <t>NOSP. 14/05/24. PARTE 1750109659 V4 STACKER + 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>ETR. 14/05/24. PARTE 1750182347 PC 3G WINCOR P/PC2100: EN REPARACIÓN. ETR: 17/05/24. (MINIACI)</t>
+  </si>
+  <si>
+    <t>49204383000D</t>
+  </si>
+  <si>
+    <t>NOSP. 14/05/24. PARTE 1750177464 CCDM ESCROW: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 14/05/24. PARTE 1750200435 RM3 VS MODUL + 1750214647 RM3 SAFE TRANSPORT: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 14/05/24. PARTE 1750261447 V4 SHUTTER LITE PC280: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 13/05/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
     <t>FPCS0001</t>
   </si>
   <si>
-    <t>ETR. 10/05/24. PARTE FPCS0001 FUENTE PC: EN REPARACIÓN. ETR: 14/05/24.  --  "DS DISCO SOLIDO. DISPONIBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 10/05/24. PARTE 1750193275 RM3 MAIN MODULE: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 13/05/24. PARTE 1750215295 V5 EXTRACTOR SUPERIOR + 1750183289 V5 STACKER: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 10/05/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 09/05/24. PARTE 1750249441 RM3 MOVE AWCA + 1750220000 RM3 IO TRAY: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 09/05/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN.  --  "1750101956 DISPENSER MODULE VM3 DISPONIBLE EN STOCK". (MINIACI)</t>
-  </si>
-  <si>
-    <t>RC. 14/5/24. EXTRACTOR 1750109615 A ESPERA DE REPARACION (SORIANO)</t>
-  </si>
-  <si>
-    <t>NOSP. 10/05/24. SE CORRIGE COMENTARIO ANTERIOR. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 09/05/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>RC. 13/05/2024 PARTE 1750188523 CCDM CHASSIS 3 A ESPERA DE REPARACION (MAITLAND)</t>
-  </si>
-  <si>
-    <t>NOSP. 09/05/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>49211433000A</t>
-  </si>
-  <si>
-    <t>NOSP. 10/05/24. PARTE 1750092824 DEPÓSITO DE SOBRES PROCASH: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>49200865X0AA</t>
-  </si>
-  <si>
-    <t>NOSP. 10/05/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>SV217422000F</t>
-  </si>
-  <si>
-    <t>SUP. 13/05/2024 A ESPERA DE CONFIRMACION DE NUMERO DE PARTE DEL EFFC (MAITLAND)</t>
-  </si>
-  <si>
-    <t>49219798000D</t>
-  </si>
-  <si>
-    <t>49227254000A</t>
-  </si>
-  <si>
-    <t>BIO.13/5/2024 TICKET PENDIENTE POR BIOMÉTRICO (CORREA)</t>
-  </si>
-  <si>
-    <t>NOSP. 09/05/24. PARTE 1750177464 CCDM ESCROW: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>ETR. 10/05/24. PARTE 1750053977 V4 CLAMP: EN REPARACIÓN. ETR: 16/05/24. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 09/05/24. PARTE 1750126457 RM3 REEL STORAGE: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 10/05/24. PARTE 1750177464 CCDM ESCROW: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>BANCO CIUDAD</t>
-  </si>
-  <si>
-    <t>NOWIP. 10/05/24. PARTE 1750222982 V4 SHUTTER LITE PC280: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 10/05/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>RC 13/05/2024. PARTE 1750288271 IOT IN-OUTPUT MODULE CUSTOMER TRAY+1750295447 IOC IN-OUTPUT MODULE COLLECTOR UNIT. A LA ESPERA DE ENSAMBLE (FRETES)</t>
-  </si>
-  <si>
-    <t>49200699000B</t>
-  </si>
-  <si>
-    <t>NOSP. 13/05/24. PARTE 1750200435 RM3 VS MODUL: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOWIP. 10/05/24. PARTE 1750189650 V5 STACKER S/SR + 1750177464 CCDM ESCROW: SIN SALDO EN WIP. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 13/05/24. PARTE 1750188523 CCDM CHASIS: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>CBA.RC.13/5/24. PARTE 1750109641 DOUBLE EXTRACTOR UNIT MDMS CMD V4´+1750109615 DOUBLE EXTRACTOR UNIT CMD V4:EN ESPERA DE REPARACIÓN. ETA:16/5/24 (JIMENEZ)</t>
-  </si>
-  <si>
-    <t>NOSP. 13/05/24. PARTE 1750109641 V4 EXTRACTOR SUPERIOR: SIN SPARE PARTS PARA SU REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>NOSP. 13/05/24. PARTE 1750173205 LECTORA V2CU STANDARD: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
-  </si>
-  <si>
-    <t>SUP 13/05/2024. PARTE SWITCH DE SUPERVISOR. A LA ESPERA DE CONFIRMACION DE NUMERO DE PARTE (FRETES)</t>
-  </si>
-  <si>
-    <t>CONECTOR_GAVETA</t>
-  </si>
-  <si>
-    <t>49229512000A</t>
-  </si>
-  <si>
-    <t>NUEVO BANCO DEL CHACO</t>
-  </si>
-  <si>
-    <t>ch.nowip.13/05/2024. parte: 00103323000E PRNTR,THRMRCPT,80,USB. se solicita a caba.(veron)</t>
-  </si>
-  <si>
-    <t>ch.nowip.13/05/2024. parte:1750159523 KEYBOARD V6 EPP ESP SOUTH AMERICA CES. se solicita a caba.(veron)</t>
-  </si>
-  <si>
-    <t>CBA.RC.13/5/24. PARTE 1750109615 DOUBLE EXTRACTOR UNIT CMD V4:EN ESPERA DE REPARACIÓN. ETA:16/5/24 (JIMENEZ)</t>
-  </si>
-  <si>
-    <t>RC. 15/3/24. LECTORA 1750173205 A ESPERA DE REPARACION (SORIANO)</t>
-  </si>
-  <si>
-    <t>RC. 13/05/2024 PARTE 1750261447 SHUTTER LITE DC MOTOR  ASSY PC280N RL A ESPERA DE REPARACION (MAITLAND)</t>
+    <t>RC. 14/5/24. FUENTE PC FPCS0001 A ESPERA DE REPARACION (SORIANO)</t>
   </si>
   <si>
     <t>NOSP. 13/05/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA SU REPARACIÓN. (MINIACI)</t>
   </si>
   <si>
-    <t>CBA.NOWIP. 13/5/2024. PARTE 49204013000E Belt timing 3.00P 485T (x3und):SIN SALDO EN WIP. SE SOLICITA A CABA. (JIMENEZ)</t>
+    <t>49247984000A</t>
+  </si>
+  <si>
+    <t>NOSP.15/05/24. PARTE 1750109615 V4 EXTRACTOR INFERIOR: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>SUP. 14/5/24. A ESPERA DE CONFIRMACION DE FASCIA SOLICITADA (SORIANO)</t>
+  </si>
+  <si>
+    <t>ETR. 14/05/24. PARTE 1750169942 MONITOR LCD 15": EN REPARACIÓN. ETR: 21/05/24. (MINIACI)</t>
+  </si>
+  <si>
+    <t>NOSP. 14/05/24. PARTE 1750188523 CCDM CHASIS+ 1750177464 CCDM ESCROW: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>SUP. 14/05/2024 A ESPERA DE NUMERO DE PARTE DE TOUCH PC 280 (MAITLAND)</t>
+  </si>
+  <si>
+    <t>NOSP. 14/05/24. PARTE 1750105988 LECTORA V2X USB: SIN SPARE PARTS PARA REPARACIÓN. (MINIACI)</t>
+  </si>
+  <si>
+    <t>RC. 15/5/24. VS 1750200435 A ESPERA DE REPARACION (SORIANO)</t>
+  </si>
+  <si>
+    <t>BIO. 14/5/24. PENDIENTE POR BIOMETRICO (SORIANOS)</t>
+  </si>
+  <si>
+    <t>OCTAGON S.A</t>
+  </si>
+  <si>
+    <t>49267153000A</t>
+  </si>
+  <si>
+    <t>CBA.RC.14/5/24. PARTE 1750053977 CMD V4 CLAMPING TRANSPORT MECHANISM+1750109659 CMD-V4 STACKER MODUL W. SR VERT. :EN ESPERA DE REPARACIÓN. ETA:16/5/24 (JIMENEZ)</t>
+  </si>
+  <si>
+    <t>CBA.RC.14/5/24. PARTE 1750110043 JOURNAL PRINTER TP06:EN ESPERA DE REPARACIÓN. ETA:16/5/24 (JIMENEZ)</t>
+  </si>
+  <si>
+    <t>SV208484000M</t>
   </si>
   <si>
     <t>SUP</t>
   </si>
   <si>
-    <t>FASCIA 720 FL</t>
-  </si>
-  <si>
-    <t>ACRÍLICO</t>
+    <t>49233158000A</t>
+  </si>
+  <si>
+    <t>FASCIA</t>
+  </si>
+  <si>
+    <t>FL</t>
   </si>
 </sst>
 </file>
@@ -1244,18 +1253,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D447"/>
+  <dimension ref="A1:F463"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="100.77734375" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1423,7 +1431,7 @@
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1437,7 +1445,7 @@
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1451,7 +1459,7 @@
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1465,7 +1473,7 @@
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1479,7 +1487,7 @@
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1493,7 +1501,7 @@
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1507,7 +1515,7 @@
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1521,7 +1529,7 @@
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1535,7 +1543,7 @@
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1549,7 +1557,7 @@
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1563,7 +1571,7 @@
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1577,7 +1585,7 @@
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1591,7 +1599,7 @@
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1605,7 +1613,7 @@
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1619,7 +1627,7 @@
         <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1630,10 +1638,10 @@
         <v>7416791</v>
       </c>
       <c r="C27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" t="s">
         <v>32</v>
-      </c>
-      <c r="D27" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1641,13 +1649,13 @@
         <v>4</v>
       </c>
       <c r="B28">
-        <v>7422734</v>
-      </c>
-      <c r="C28" s="2">
-        <v>1750154145</v>
+        <v>7430555</v>
+      </c>
+      <c r="C28" t="s">
+        <v>34</v>
       </c>
       <c r="D28" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1658,7 +1666,7 @@
         <v>7430555</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="D29" t="s">
         <v>35</v>
@@ -1672,7 +1680,7 @@
         <v>7430555</v>
       </c>
       <c r="C30" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D30" t="s">
         <v>35</v>
@@ -1680,97 +1688,97 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>7430555</v>
+        <v>7431896</v>
       </c>
       <c r="C31" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="B32">
-        <v>7431896</v>
+        <v>7530868</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
       </c>
       <c r="D32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>7530868</v>
+        <v>7608630</v>
       </c>
       <c r="C33" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="D33" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>7546734</v>
+        <v>7633149</v>
       </c>
       <c r="C34" t="s">
-        <v>7</v>
+        <v>285</v>
       </c>
       <c r="D34" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>7608630</v>
+        <v>7659156</v>
       </c>
       <c r="C35" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="D35" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>7633149</v>
-      </c>
-      <c r="C36" t="s">
-        <v>283</v>
+        <v>7662785</v>
+      </c>
+      <c r="C36" s="2">
+        <v>1750173205</v>
       </c>
       <c r="D36" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B37">
-        <v>7659156</v>
-      </c>
-      <c r="C37" t="s">
-        <v>5</v>
+        <v>7662785</v>
+      </c>
+      <c r="C37" s="2">
+        <v>1750222982</v>
       </c>
       <c r="D37" t="s">
         <v>45</v>
@@ -1778,125 +1786,125 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B38">
         <v>7662785</v>
       </c>
       <c r="C38" s="2">
-        <v>1750173205</v>
+        <v>1750062675</v>
       </c>
       <c r="D38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39">
         <v>7662785</v>
       </c>
       <c r="C39" s="2">
-        <v>1750222982</v>
+        <v>1750190038</v>
       </c>
       <c r="D39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40">
         <v>7662785</v>
       </c>
       <c r="C40" s="2">
-        <v>1750062675</v>
+        <v>1750130744</v>
       </c>
       <c r="D40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>7662785</v>
       </c>
       <c r="C41" s="2">
-        <v>1750190038</v>
+        <v>1750059284</v>
       </c>
       <c r="D41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B42">
         <v>7662785</v>
       </c>
       <c r="C42" s="2">
-        <v>1750130744</v>
+        <v>1750159523</v>
       </c>
       <c r="D42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B43">
         <v>7662785</v>
       </c>
       <c r="C43" s="2">
-        <v>1750059284</v>
+        <v>1750187952</v>
       </c>
       <c r="D43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B44">
-        <v>7662785</v>
-      </c>
-      <c r="C44" s="2">
-        <v>1750159523</v>
+        <v>7695366</v>
+      </c>
+      <c r="C44" t="s">
+        <v>34</v>
       </c>
       <c r="D44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B45">
-        <v>7662785</v>
-      </c>
-      <c r="C45" s="2">
-        <v>1750187952</v>
+        <v>7695366</v>
+      </c>
+      <c r="C45" t="s">
+        <v>5</v>
       </c>
       <c r="D45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46">
-        <v>7695366</v>
-      </c>
-      <c r="C46" t="s">
-        <v>34</v>
+        <v>7733518</v>
+      </c>
+      <c r="C46" s="2">
+        <v>1750053977</v>
       </c>
       <c r="D46" t="s">
         <v>48</v>
@@ -1904,13 +1912,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47">
-        <v>7695366</v>
-      </c>
-      <c r="C47" t="s">
-        <v>5</v>
+        <v>7733518</v>
+      </c>
+      <c r="C47" s="2">
+        <v>1750105988</v>
       </c>
       <c r="D47" t="s">
         <v>48</v>
@@ -1918,125 +1926,125 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>7733518</v>
       </c>
       <c r="C48" s="2">
-        <v>1750053977</v>
+        <v>1750109615</v>
       </c>
       <c r="D48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B49">
         <v>7733518</v>
       </c>
       <c r="C49" s="2">
-        <v>1750105988</v>
+        <v>1750109641</v>
       </c>
       <c r="D49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B50">
         <v>7733518</v>
       </c>
-      <c r="C50" s="2">
-        <v>1750109615</v>
+      <c r="C50" t="s">
+        <v>49</v>
       </c>
       <c r="D50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B51">
         <v>7733518</v>
       </c>
-      <c r="C51" s="2">
-        <v>1750109641</v>
+      <c r="C51" t="s">
+        <v>50</v>
       </c>
       <c r="D51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B52">
         <v>7733518</v>
       </c>
-      <c r="C52" t="s">
-        <v>50</v>
+      <c r="C52" s="2">
+        <v>1750169942</v>
       </c>
       <c r="D52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B53">
-        <v>7733518</v>
-      </c>
-      <c r="C53" t="s">
-        <v>51</v>
+        <v>7738379</v>
+      </c>
+      <c r="C53" s="2">
+        <v>1750041251</v>
       </c>
       <c r="D53" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B54">
-        <v>7733518</v>
+        <v>7738379</v>
       </c>
       <c r="C54" s="2">
-        <v>1750169942</v>
+        <v>1750035762</v>
       </c>
       <c r="D54" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B55">
         <v>7738379</v>
       </c>
       <c r="C55" s="2">
-        <v>1750041251</v>
+        <v>1750157444</v>
       </c>
       <c r="D55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B56">
-        <v>7738379</v>
-      </c>
-      <c r="C56" s="2">
-        <v>1750035762</v>
+        <v>7774323</v>
+      </c>
+      <c r="C56" t="s">
+        <v>33</v>
       </c>
       <c r="D56" t="s">
         <v>53</v>
@@ -2044,13 +2052,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B57">
-        <v>7738379</v>
-      </c>
-      <c r="C57" s="2">
-        <v>1750157444</v>
+        <v>7774323</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
       </c>
       <c r="D57" t="s">
         <v>53</v>
@@ -2058,2771 +2066,2774 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B58">
-        <v>7774323</v>
-      </c>
-      <c r="C58" t="s">
-        <v>32</v>
+        <v>7792335</v>
+      </c>
+      <c r="C58" s="2">
+        <v>1750289153</v>
       </c>
       <c r="D58" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B59">
-        <v>7774323</v>
-      </c>
-      <c r="C59" t="s">
-        <v>5</v>
+        <v>7797143</v>
+      </c>
+      <c r="C59" s="2">
+        <v>1750177464</v>
       </c>
       <c r="D59" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B60">
-        <v>7792335</v>
+        <v>7800803</v>
       </c>
       <c r="C60" s="2">
-        <v>1750289153</v>
+        <v>1750109615</v>
       </c>
       <c r="D60" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B61">
-        <v>7797143</v>
+        <v>7802611</v>
       </c>
       <c r="C61" s="2">
-        <v>1750177464</v>
+        <v>1750053977</v>
       </c>
       <c r="D61" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B62">
-        <v>7800803</v>
-      </c>
-      <c r="C62" s="2">
-        <v>1750109615</v>
+        <v>7802993</v>
+      </c>
+      <c r="C62" t="s">
+        <v>5</v>
       </c>
       <c r="D62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B63">
-        <v>7802611</v>
-      </c>
-      <c r="C63" s="2">
-        <v>1750053977</v>
+        <v>7803005</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
       </c>
       <c r="D63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B64">
-        <v>7802993</v>
-      </c>
-      <c r="C64" t="s">
-        <v>5</v>
+        <v>7803677</v>
+      </c>
+      <c r="C64" s="2">
+        <v>1750109658</v>
       </c>
       <c r="D64" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B65">
-        <v>7803005</v>
-      </c>
-      <c r="C65" t="s">
-        <v>5</v>
+        <v>7803677</v>
+      </c>
+      <c r="C65" s="2">
+        <v>1750109615</v>
       </c>
       <c r="D65" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B66">
-        <v>7803677</v>
+        <v>7806399</v>
       </c>
       <c r="C66" s="2">
-        <v>1750109658</v>
+        <v>1750110043</v>
       </c>
       <c r="D66" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B67">
-        <v>7803677</v>
+        <v>7808461</v>
       </c>
       <c r="C67" s="2">
-        <v>1750109615</v>
+        <v>1750109659</v>
       </c>
       <c r="D67" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B68">
-        <v>7806399</v>
+        <v>7814392</v>
       </c>
       <c r="C68" s="2">
-        <v>1750110043</v>
+        <v>1750189650</v>
       </c>
       <c r="D68" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B69">
-        <v>7806538</v>
-      </c>
-      <c r="C69" t="s">
-        <v>56</v>
+        <v>7814392</v>
+      </c>
+      <c r="C69" s="2">
+        <v>1750215295</v>
       </c>
       <c r="D69" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B70">
-        <v>7808461</v>
+        <v>7817629</v>
       </c>
       <c r="C70" s="2">
-        <v>1750109659</v>
+        <v>1750053977</v>
       </c>
       <c r="D70" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B71">
-        <v>7814392</v>
+        <v>7817670</v>
       </c>
       <c r="C71" s="2">
-        <v>1750189650</v>
+        <v>1750053977</v>
       </c>
       <c r="D71" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B72">
-        <v>7814392</v>
-      </c>
-      <c r="C72" s="2">
-        <v>1750215295</v>
+        <v>7820507</v>
+      </c>
+      <c r="C72" t="s">
+        <v>56</v>
       </c>
       <c r="D72" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B73">
-        <v>7817629</v>
+        <v>7820527</v>
       </c>
       <c r="C73" s="2">
-        <v>1750053977</v>
+        <v>1750344858</v>
       </c>
       <c r="D73" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B74">
-        <v>7817670</v>
+        <v>7822042</v>
       </c>
       <c r="C74" s="2">
-        <v>1750109615</v>
+        <v>1750159971</v>
       </c>
       <c r="D74" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B75">
-        <v>7820507</v>
+        <v>7824357</v>
       </c>
       <c r="C75" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D75" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B76">
-        <v>7820527</v>
+        <v>7824386</v>
       </c>
       <c r="C76" s="2">
-        <v>1750344858</v>
+        <v>1750053977</v>
       </c>
       <c r="D76" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B77">
-        <v>7822042</v>
+        <v>7832871</v>
       </c>
       <c r="C77" s="2">
-        <v>1750159971</v>
+        <v>1750105988</v>
       </c>
       <c r="D77" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B78">
-        <v>7823382</v>
+        <v>7833234</v>
       </c>
       <c r="C78" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D78" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B79">
-        <v>7824357</v>
-      </c>
-      <c r="C79" t="s">
-        <v>61</v>
+        <v>7833667</v>
+      </c>
+      <c r="C79" s="2">
+        <v>1750215295</v>
       </c>
       <c r="D79" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B80">
-        <v>7824386</v>
+        <v>7833667</v>
       </c>
       <c r="C80" s="2">
-        <v>1750053977</v>
+        <v>1750110044</v>
       </c>
       <c r="D80" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B81">
-        <v>7832871</v>
-      </c>
-      <c r="C81" s="2">
-        <v>1750105988</v>
+        <v>7846573</v>
+      </c>
+      <c r="C81" t="s">
+        <v>61</v>
       </c>
       <c r="D81" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B82">
-        <v>7833234</v>
-      </c>
-      <c r="C82" t="s">
-        <v>62</v>
+        <v>7846685</v>
+      </c>
+      <c r="C82" s="2">
+        <v>1750101956</v>
       </c>
       <c r="D82" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B83">
-        <v>7833667</v>
+        <v>7848212</v>
       </c>
       <c r="C83" s="2">
-        <v>1750215295</v>
+        <v>1750204435</v>
       </c>
       <c r="D83" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B84">
-        <v>7833667</v>
+        <v>7850263</v>
       </c>
       <c r="C84" s="2">
-        <v>1750110044</v>
+        <v>1750053977</v>
       </c>
       <c r="D84" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B85">
-        <v>7846573</v>
-      </c>
-      <c r="C85" t="s">
-        <v>65</v>
+        <v>7858514</v>
+      </c>
+      <c r="C85" s="2">
+        <v>1750193275</v>
       </c>
       <c r="D85" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B86">
-        <v>7846685</v>
+        <v>7858514</v>
       </c>
       <c r="C86" s="2">
-        <v>1750101956</v>
+        <v>1750133348</v>
       </c>
       <c r="D86" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="B87">
-        <v>7848212</v>
+        <v>7858757</v>
       </c>
       <c r="C87" s="2">
-        <v>1750204435</v>
+        <v>1750199149</v>
       </c>
       <c r="D87" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B88">
-        <v>7850263</v>
-      </c>
-      <c r="C88" s="2">
-        <v>1750053977</v>
+        <v>7859082</v>
+      </c>
+      <c r="C88" t="s">
+        <v>64</v>
       </c>
       <c r="D88" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B89">
-        <v>7858514</v>
+        <v>7859146</v>
       </c>
       <c r="C89" s="2">
-        <v>1750193275</v>
+        <v>1750105679</v>
       </c>
       <c r="D89" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B90">
-        <v>7858514</v>
+        <v>7859146</v>
       </c>
       <c r="C90" s="2">
-        <v>1750133348</v>
+        <v>1750044878</v>
       </c>
       <c r="D90" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B91">
-        <v>7858757</v>
+        <v>7859726</v>
       </c>
       <c r="C91" s="2">
-        <v>1750199149</v>
+        <v>1750222982</v>
       </c>
       <c r="D91" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B92">
-        <v>7859082</v>
-      </c>
-      <c r="C92" t="s">
-        <v>68</v>
+        <v>7867214</v>
+      </c>
+      <c r="C92" s="2">
+        <v>1750256247</v>
       </c>
       <c r="D92" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B93">
-        <v>7859146</v>
-      </c>
-      <c r="C93" s="2">
-        <v>1750130600</v>
+        <v>7871860</v>
+      </c>
+      <c r="C93" t="s">
+        <v>67</v>
       </c>
       <c r="D93" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B94">
-        <v>7859726</v>
-      </c>
-      <c r="C94" s="2">
-        <v>1750222982</v>
+        <v>7871860</v>
+      </c>
+      <c r="C94" t="s">
+        <v>69</v>
       </c>
       <c r="D94" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B95">
-        <v>7867214</v>
-      </c>
-      <c r="C95" s="2">
-        <v>1750256247</v>
+        <v>7871860</v>
+      </c>
+      <c r="C95" t="s">
+        <v>61</v>
       </c>
       <c r="D95" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B96">
-        <v>7871860</v>
-      </c>
-      <c r="C96" t="s">
+        <v>7873878</v>
+      </c>
+      <c r="C96" s="2">
+        <v>1750105679</v>
+      </c>
+      <c r="D96" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>51</v>
+      </c>
+      <c r="B97">
+        <v>7873878</v>
+      </c>
+      <c r="C97" s="2">
+        <v>1750109658</v>
+      </c>
+      <c r="D97" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>51</v>
+      </c>
+      <c r="B98">
+        <v>7878427</v>
+      </c>
+      <c r="C98" s="2">
+        <v>1750214647</v>
+      </c>
+      <c r="D98" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>51</v>
+      </c>
+      <c r="B99">
+        <v>7884952</v>
+      </c>
+      <c r="C99" s="2">
+        <v>1750053977</v>
+      </c>
+      <c r="D99" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>43</v>
+      </c>
+      <c r="B100">
+        <v>7885866</v>
+      </c>
+      <c r="C100" s="2">
+        <v>1750189650</v>
+      </c>
+      <c r="D100" t="s">
         <v>70</v>
       </c>
-      <c r="D96" t="s">
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>47</v>
-      </c>
-      <c r="B97">
-        <v>7871860</v>
-      </c>
-      <c r="C97" t="s">
+      <c r="B101">
+        <v>7888819</v>
+      </c>
+      <c r="D101" t="s">
+        <v>287</v>
+      </c>
+      <c r="E101">
+        <v>720</v>
+      </c>
+      <c r="F101" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>43</v>
+      </c>
+      <c r="B102">
+        <v>7890266</v>
+      </c>
+      <c r="C102" s="2">
+        <v>1750215294</v>
+      </c>
+      <c r="D102" t="s">
         <v>72</v>
       </c>
-      <c r="D97" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>47</v>
-      </c>
-      <c r="B98">
-        <v>7871860</v>
-      </c>
-      <c r="C98" t="s">
-        <v>65</v>
-      </c>
-      <c r="D98" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>52</v>
-      </c>
-      <c r="B99">
-        <v>7873878</v>
-      </c>
-      <c r="C99" s="2">
-        <v>1750105679</v>
-      </c>
-      <c r="D99" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>52</v>
-      </c>
-      <c r="B100">
-        <v>7873878</v>
-      </c>
-      <c r="C100" s="2">
-        <v>1750109658</v>
-      </c>
-      <c r="D100" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>52</v>
-      </c>
-      <c r="B101">
-        <v>7878427</v>
-      </c>
-      <c r="C101" s="2">
-        <v>1750214647</v>
-      </c>
-      <c r="D101" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>52</v>
-      </c>
-      <c r="B102">
-        <v>7884952</v>
-      </c>
-      <c r="C102" s="2">
-        <v>1750053977</v>
-      </c>
-      <c r="D102" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B103">
-        <v>7885866</v>
+        <v>7894613</v>
       </c>
       <c r="C103" s="2">
-        <v>1750189650</v>
+        <v>1750261447</v>
       </c>
       <c r="D103" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>46</v>
+      </c>
+      <c r="B104">
+        <v>7897120</v>
+      </c>
+      <c r="C104" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
+      <c r="D104" t="s">
         <v>74</v>
       </c>
-      <c r="B104">
-        <v>7888819</v>
-      </c>
-      <c r="C104" t="s">
-        <v>284</v>
-      </c>
-      <c r="D104" t="s">
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>43</v>
+      </c>
+      <c r="B105">
+        <v>7897299</v>
+      </c>
+      <c r="C105">
+        <v>1750193275</v>
+      </c>
+      <c r="D105" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>44</v>
-      </c>
-      <c r="B105">
-        <v>7890266</v>
-      </c>
-      <c r="C105" s="2">
-        <v>1750215294</v>
-      </c>
-      <c r="D105" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B106">
-        <v>7894613</v>
+        <v>7897869</v>
       </c>
       <c r="C106" s="2">
         <v>1750261447</v>
       </c>
       <c r="D106" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B107">
-        <v>7897120</v>
-      </c>
-      <c r="C107" t="s">
+        <v>7899433</v>
+      </c>
+      <c r="C107" s="2">
+        <v>1750208512</v>
+      </c>
+      <c r="D107" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>51</v>
+      </c>
+      <c r="B108">
+        <v>7900491</v>
+      </c>
+      <c r="C108" t="s">
+        <v>76</v>
+      </c>
+      <c r="D108" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>51</v>
+      </c>
+      <c r="B109">
+        <v>7900491</v>
+      </c>
+      <c r="C109" t="s">
         <v>77</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D109" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>10</v>
+      </c>
+      <c r="B110">
+        <v>7902050</v>
+      </c>
+      <c r="C110" s="2">
+        <v>1750109659</v>
+      </c>
+      <c r="D110" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>46</v>
+      </c>
+      <c r="B111">
+        <v>7905109</v>
+      </c>
+      <c r="C111" s="2">
+        <v>1750169942</v>
+      </c>
+      <c r="D111" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>44</v>
-      </c>
-      <c r="B108">
-        <v>7897299</v>
-      </c>
-      <c r="C108">
-        <v>1750193275</v>
-      </c>
-      <c r="D108" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>52</v>
-      </c>
-      <c r="B109">
-        <v>7897869</v>
-      </c>
-      <c r="C109" s="2">
-        <v>1750261447</v>
-      </c>
-      <c r="D109" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>52</v>
-      </c>
-      <c r="B110">
-        <v>7899433</v>
-      </c>
-      <c r="C110" s="2">
-        <v>1750208512</v>
-      </c>
-      <c r="D110" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>52</v>
-      </c>
-      <c r="B111">
-        <v>7900491</v>
-      </c>
-      <c r="C111" t="s">
-        <v>80</v>
-      </c>
-      <c r="D111" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B112">
-        <v>7900491</v>
-      </c>
-      <c r="C112" t="s">
-        <v>81</v>
+        <v>7905109</v>
+      </c>
+      <c r="C112" s="2">
+        <v>1750154145</v>
       </c>
       <c r="D112" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B113">
         <v>7905109</v>
       </c>
       <c r="C113" s="2">
-        <v>1750169942</v>
+        <v>1750105988</v>
       </c>
       <c r="D113" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B114">
-        <v>7905109</v>
+        <v>7909031</v>
       </c>
       <c r="C114" s="2">
-        <v>1750154145</v>
+        <v>1750173205</v>
       </c>
       <c r="D114" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B115">
-        <v>7905109</v>
+        <v>7909307</v>
       </c>
       <c r="C115" s="2">
-        <v>1750105988</v>
+        <v>1750188523</v>
       </c>
       <c r="D115" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B116">
-        <v>7909031</v>
+        <v>7912762</v>
       </c>
       <c r="C116" s="2">
-        <v>1750173205</v>
+        <v>1804610970</v>
       </c>
       <c r="D116" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B117">
-        <v>7909307</v>
+        <v>7912762</v>
       </c>
       <c r="C117" s="2">
-        <v>1750188523</v>
+        <v>1770031910</v>
       </c>
       <c r="D117" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B118">
-        <v>7912762</v>
+        <v>7912856</v>
       </c>
       <c r="C118" s="2">
-        <v>1804610970</v>
+        <v>1750215294</v>
       </c>
       <c r="D118" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B119">
-        <v>7912762</v>
+        <v>7913107</v>
       </c>
       <c r="C119" s="2">
-        <v>1770031910</v>
+        <v>1750200435</v>
       </c>
       <c r="D119" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B120">
-        <v>7912856</v>
+        <v>7914619</v>
       </c>
       <c r="C120" s="2">
-        <v>1750215294</v>
+        <v>1750200435</v>
       </c>
       <c r="D120" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B121">
-        <v>7913107</v>
+        <v>7914619</v>
       </c>
       <c r="C121" s="2">
-        <v>1750200435</v>
+        <v>1750214647</v>
       </c>
       <c r="D121" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B122">
-        <v>7914619</v>
-      </c>
-      <c r="C122" s="2">
-        <v>1750200435</v>
+        <v>7915108</v>
+      </c>
+      <c r="C122" t="s">
+        <v>61</v>
       </c>
       <c r="D122" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B123">
-        <v>7914619</v>
-      </c>
-      <c r="C123" s="2">
-        <v>1750214647</v>
+        <v>7917418</v>
+      </c>
+      <c r="C123" t="s">
+        <v>56</v>
       </c>
       <c r="D123" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B124">
-        <v>7915108</v>
-      </c>
-      <c r="C124" t="s">
-        <v>65</v>
+        <v>7917809</v>
+      </c>
+      <c r="C124" s="2">
+        <v>1750256247</v>
       </c>
       <c r="D124" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="B125">
-        <v>7917231</v>
+        <v>7919567</v>
       </c>
       <c r="C125" s="2">
-        <v>1750350686</v>
+        <v>1750190038</v>
       </c>
       <c r="D125" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="B126">
-        <v>7917231</v>
+        <v>7919667</v>
       </c>
       <c r="C126" s="2">
-        <v>1750301986</v>
+        <v>1750067867</v>
       </c>
       <c r="D126" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B127">
-        <v>7917418</v>
-      </c>
-      <c r="C127" t="s">
-        <v>59</v>
+        <v>7919667</v>
+      </c>
+      <c r="C127" s="2">
+        <v>1750105988</v>
       </c>
       <c r="D127" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B128">
-        <v>7917809</v>
+        <v>7920574</v>
       </c>
       <c r="C128" s="2">
-        <v>1750256247</v>
+        <v>1750214647</v>
       </c>
       <c r="D128" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B129">
-        <v>7919567</v>
+        <v>7920574</v>
       </c>
       <c r="C129" s="2">
-        <v>1750190038</v>
+        <v>1750263341</v>
       </c>
       <c r="D129" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B130">
-        <v>7919667</v>
+        <v>7920574</v>
       </c>
       <c r="C130" s="2">
-        <v>1750067867</v>
+        <v>1750134478</v>
       </c>
       <c r="D130" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B131">
-        <v>7919667</v>
+        <v>7920574</v>
       </c>
       <c r="C131" s="2">
-        <v>1750105988</v>
+        <v>1750200435</v>
       </c>
       <c r="D131" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B132">
-        <v>7920574</v>
+        <v>7921936</v>
       </c>
       <c r="C132" s="2">
-        <v>1750214647</v>
+        <v>1750249441</v>
       </c>
       <c r="D132" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B133">
-        <v>7920574</v>
+        <v>7921936</v>
       </c>
       <c r="C133" s="2">
-        <v>1750263341</v>
+        <v>1750220022</v>
       </c>
       <c r="D133" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B134">
-        <v>7920574</v>
+        <v>7921936</v>
       </c>
       <c r="C134" s="2">
-        <v>1750134478</v>
+        <v>1750220000</v>
       </c>
       <c r="D134" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B135">
-        <v>7920574</v>
+        <v>7921936</v>
       </c>
       <c r="C135" s="2">
         <v>1750200435</v>
       </c>
       <c r="D135" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B136">
-        <v>7921936</v>
-      </c>
-      <c r="C136" s="2">
-        <v>1750249441</v>
+        <v>7924355</v>
+      </c>
+      <c r="C136" t="s">
+        <v>5</v>
       </c>
       <c r="D136" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B137">
-        <v>7921936</v>
+        <v>7924902</v>
       </c>
       <c r="C137" s="2">
-        <v>1750220022</v>
+        <v>1750200435</v>
       </c>
       <c r="D137" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B138">
-        <v>7921936</v>
+        <v>7925113</v>
       </c>
       <c r="C138" s="2">
-        <v>1750220000</v>
+        <v>1750215295</v>
       </c>
       <c r="D138" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="B139">
-        <v>7921936</v>
+        <v>7925266</v>
       </c>
       <c r="C139" s="2">
-        <v>1750200435</v>
+        <v>1750222982</v>
       </c>
       <c r="D139" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="B140">
-        <v>7924355</v>
+        <v>7926268</v>
       </c>
       <c r="C140" t="s">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="D140" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B141">
-        <v>7924902</v>
-      </c>
-      <c r="C141" s="2">
-        <v>1750200435</v>
+        <v>7926496</v>
+      </c>
+      <c r="C141" t="s">
+        <v>92</v>
       </c>
       <c r="D141" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="B142">
-        <v>7925113</v>
+        <v>7926501</v>
       </c>
       <c r="C142" s="2">
-        <v>1750215295</v>
+        <v>1750110044</v>
       </c>
       <c r="D142" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="B143">
-        <v>7925266</v>
+        <v>7930608</v>
       </c>
       <c r="C143" s="2">
-        <v>1750222982</v>
+        <v>1750193275</v>
       </c>
       <c r="D143" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="B144">
-        <v>7926268</v>
-      </c>
-      <c r="C144" t="s">
-        <v>96</v>
+        <v>7930610</v>
+      </c>
+      <c r="C144" s="2">
+        <v>1750193276</v>
       </c>
       <c r="D144" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B145">
-        <v>7926496</v>
-      </c>
-      <c r="C145" t="s">
-        <v>98</v>
+        <v>7930610</v>
+      </c>
+      <c r="C145" s="2">
+        <v>1750220330</v>
       </c>
       <c r="D145" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B146">
-        <v>7926501</v>
+        <v>7930610</v>
       </c>
       <c r="C146" s="2">
-        <v>1750110044</v>
+        <v>1750248000</v>
       </c>
       <c r="D146" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="B147">
-        <v>7929932</v>
+        <v>7930610</v>
       </c>
       <c r="C147" s="2">
-        <v>1750188523</v>
+        <v>1750220022</v>
       </c>
       <c r="D147" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="B148">
-        <v>7929932</v>
+        <v>7931010</v>
       </c>
       <c r="C148" s="2">
-        <v>1750101956</v>
+        <v>1750188523</v>
       </c>
       <c r="D148" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B149">
-        <v>7930608</v>
+        <v>7931010</v>
       </c>
       <c r="C149" s="2">
-        <v>1750193275</v>
+        <v>1750263341</v>
       </c>
       <c r="D149" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B150">
-        <v>7930610</v>
+        <v>7931010</v>
       </c>
       <c r="C150" s="2">
-        <v>1750193276</v>
+        <v>1750245555</v>
       </c>
       <c r="D150" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B151">
-        <v>7930610</v>
+        <v>7942380</v>
       </c>
       <c r="C151" s="2">
-        <v>1750220330</v>
+        <v>1750109615</v>
       </c>
       <c r="D151" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B152">
-        <v>7930610</v>
+        <v>7942589</v>
       </c>
       <c r="C152" s="2">
-        <v>1750248000</v>
+        <v>1750100966</v>
       </c>
       <c r="D152" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B153">
-        <v>7930610</v>
+        <v>7943149</v>
       </c>
       <c r="C153" s="2">
-        <v>1750220022</v>
+        <v>1750200435</v>
       </c>
       <c r="D153" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B154">
-        <v>7931010</v>
+        <v>7945233</v>
       </c>
       <c r="C154" s="2">
-        <v>1750188523</v>
+        <v>1750215295</v>
       </c>
       <c r="D154" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B155">
-        <v>7931010</v>
+        <v>7945303</v>
       </c>
       <c r="C155" s="2">
-        <v>1750263341</v>
+        <v>1750193275</v>
       </c>
       <c r="D155" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B156">
-        <v>7931010</v>
+        <v>7946970</v>
       </c>
       <c r="C156" s="2">
-        <v>1750245555</v>
+        <v>1750200435</v>
       </c>
       <c r="D156" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="B157">
-        <v>7942380</v>
+        <v>7947736</v>
       </c>
       <c r="C157" s="2">
-        <v>1750109615</v>
+        <v>1750215294</v>
       </c>
       <c r="D157" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B158">
-        <v>7942589</v>
+        <v>7947847</v>
       </c>
       <c r="C158" s="2">
-        <v>1750100966</v>
+        <v>1750214647</v>
       </c>
       <c r="D158" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B159">
-        <v>7943149</v>
+        <v>7947847</v>
       </c>
       <c r="C159" s="2">
-        <v>1750200435</v>
+        <v>1750212682</v>
       </c>
       <c r="D159" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B160">
-        <v>7945233</v>
+        <v>7947847</v>
       </c>
       <c r="C160" s="2">
-        <v>1750215295</v>
+        <v>1750140781</v>
       </c>
       <c r="D160" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B161">
-        <v>7945303</v>
+        <v>7947866</v>
       </c>
       <c r="C161" s="2">
-        <v>1750193275</v>
+        <v>1750126457</v>
       </c>
       <c r="D161" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B162">
-        <v>7946970</v>
+        <v>7947866</v>
       </c>
       <c r="C162" s="2">
-        <v>1750200435</v>
+        <v>1750196174</v>
       </c>
       <c r="D162" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="B163">
-        <v>7947736</v>
+        <v>7947978</v>
       </c>
       <c r="C163" s="2">
-        <v>1750215294</v>
+        <v>1750105679</v>
       </c>
       <c r="D163" t="s">
-        <v>107</v>
+        <v>52</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B164">
-        <v>7947847</v>
+        <v>7947978</v>
       </c>
       <c r="C164" s="2">
-        <v>1750214647</v>
+        <v>1750109615</v>
       </c>
       <c r="D164" t="s">
-        <v>108</v>
+        <v>52</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B165">
-        <v>7947847</v>
+        <v>7949223</v>
       </c>
       <c r="C165" s="2">
-        <v>1750212682</v>
+        <v>1750193275</v>
       </c>
       <c r="D165" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B166">
-        <v>7947847</v>
+        <v>7949223</v>
       </c>
       <c r="C166" s="2">
-        <v>1750140781</v>
+        <v>1750200435</v>
       </c>
       <c r="D166" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B167">
-        <v>7947866</v>
-      </c>
-      <c r="C167" s="2">
-        <v>1750126457</v>
+        <v>7952640</v>
+      </c>
+      <c r="C167" t="s">
+        <v>57</v>
       </c>
       <c r="D167" t="s">
-        <v>109</v>
+        <v>52</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B168">
-        <v>7947866</v>
+        <v>7952699</v>
       </c>
       <c r="C168" s="2">
-        <v>1750196174</v>
+        <v>1750215295</v>
       </c>
       <c r="D168" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B169">
-        <v>7947978</v>
+        <v>7952699</v>
       </c>
       <c r="C169" s="2">
-        <v>1750105679</v>
+        <v>1750215294</v>
       </c>
       <c r="D169" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B170">
-        <v>7947978</v>
-      </c>
-      <c r="C170" s="2">
-        <v>1750109615</v>
+        <v>7952908</v>
+      </c>
+      <c r="C170" t="s">
+        <v>105</v>
       </c>
       <c r="D170" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B171">
-        <v>7949223</v>
+        <v>7952925</v>
       </c>
       <c r="C171" s="2">
-        <v>1750193275</v>
+        <v>1750200435</v>
       </c>
       <c r="D171" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B172">
-        <v>7949223</v>
+        <v>7955646</v>
       </c>
       <c r="C172" s="2">
         <v>1750200435</v>
       </c>
       <c r="D172" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B173">
-        <v>7952640</v>
-      </c>
-      <c r="C173" t="s">
-        <v>61</v>
+        <v>7956551</v>
+      </c>
+      <c r="C173" s="2">
+        <v>1750222982</v>
       </c>
       <c r="D173" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B174">
-        <v>7952699</v>
+        <v>7956807</v>
       </c>
       <c r="C174" s="2">
-        <v>1750215295</v>
+        <v>1750056193</v>
       </c>
       <c r="D174" t="s">
-        <v>111</v>
+        <v>52</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B175">
-        <v>7952699</v>
+        <v>7958425</v>
       </c>
       <c r="C175" s="2">
-        <v>1750215294</v>
+        <v>1750222982</v>
       </c>
       <c r="D175" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B176">
-        <v>7952908</v>
-      </c>
-      <c r="C176" t="s">
-        <v>112</v>
+        <v>7959985</v>
+      </c>
+      <c r="C176" s="2">
+        <v>1750215295</v>
       </c>
       <c r="D176" t="s">
-        <v>53</v>
+        <v>110</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B177">
-        <v>7952925</v>
+        <v>7960728</v>
       </c>
       <c r="C177" s="2">
-        <v>1750200435</v>
+        <v>1750189650</v>
       </c>
       <c r="D177" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B178">
-        <v>7955646</v>
+        <v>7960728</v>
       </c>
       <c r="C178" s="2">
-        <v>1750200435</v>
+        <v>1750053977</v>
       </c>
       <c r="D178" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B179">
-        <v>7956551</v>
+        <v>7960730</v>
       </c>
       <c r="C179" s="2">
-        <v>1750222982</v>
+        <v>1750200435</v>
       </c>
       <c r="D179" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B180">
-        <v>7956807</v>
+        <v>7960732</v>
       </c>
       <c r="C180" s="2">
-        <v>1750056193</v>
+        <v>1750193275</v>
       </c>
       <c r="D180" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B181">
-        <v>7958425</v>
+        <v>7960739</v>
       </c>
       <c r="C181" s="2">
-        <v>1750222982</v>
+        <v>1750193275</v>
       </c>
       <c r="D181" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B182">
-        <v>7959520</v>
+        <v>7961200</v>
       </c>
       <c r="C182" s="2">
-        <v>1750109641</v>
+        <v>1750200435</v>
       </c>
       <c r="D182" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B183">
-        <v>7959985</v>
-      </c>
-      <c r="C183" s="2">
-        <v>1750215295</v>
+        <v>7963480</v>
+      </c>
+      <c r="C183" t="s">
+        <v>5</v>
       </c>
       <c r="D183" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B184">
-        <v>7960728</v>
+        <v>7966435</v>
       </c>
       <c r="C184" s="2">
-        <v>1750189650</v>
+        <v>1750220000</v>
       </c>
       <c r="D184" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B185">
-        <v>7960728</v>
+        <v>7966435</v>
       </c>
       <c r="C185" s="2">
-        <v>1750053977</v>
+        <v>1750248000</v>
       </c>
       <c r="D185" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B186">
-        <v>7960730</v>
+        <v>7967194</v>
       </c>
       <c r="C186" s="2">
-        <v>1750200435</v>
+        <v>1750220000</v>
       </c>
       <c r="D186" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B187">
-        <v>7960732</v>
+        <v>7967194</v>
       </c>
       <c r="C187" s="2">
-        <v>1750193275</v>
+        <v>1750220022</v>
       </c>
       <c r="D187" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B188">
-        <v>7960739</v>
-      </c>
-      <c r="C188" s="2">
-        <v>1750193275</v>
+        <v>7967730</v>
+      </c>
+      <c r="C188" t="s">
+        <v>119</v>
       </c>
       <c r="D188" t="s">
-        <v>122</v>
+        <v>52</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B189">
-        <v>7961200</v>
-      </c>
-      <c r="C189" s="2">
-        <v>1750200435</v>
+        <v>7967730</v>
+      </c>
+      <c r="C189" t="s">
+        <v>56</v>
       </c>
       <c r="D189" t="s">
-        <v>123</v>
+        <v>52</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>47</v>
+        <v>120</v>
       </c>
       <c r="B190">
-        <v>7963480</v>
-      </c>
-      <c r="C190" t="s">
-        <v>5</v>
+        <v>7967825</v>
+      </c>
+      <c r="C190" s="2">
+        <v>1750304622</v>
       </c>
       <c r="D190" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="B191">
-        <v>7966435</v>
-      </c>
-      <c r="C191" s="2">
-        <v>1750220000</v>
+        <v>7967825</v>
+      </c>
+      <c r="C191" t="s">
+        <v>122</v>
       </c>
       <c r="D191" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B192">
-        <v>7966435</v>
+        <v>7968148</v>
       </c>
       <c r="C192" s="2">
-        <v>1750248000</v>
+        <v>1750109641</v>
       </c>
       <c r="D192" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B193">
-        <v>7967194</v>
+        <v>7968924</v>
       </c>
       <c r="C193" s="2">
-        <v>1750220000</v>
+        <v>1750109659</v>
       </c>
       <c r="D193" t="s">
-        <v>126</v>
+        <v>52</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B194">
-        <v>7967194</v>
+        <v>7969037</v>
       </c>
       <c r="C194" s="2">
-        <v>1750220022</v>
+        <v>1750215295</v>
       </c>
       <c r="D194" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B195">
-        <v>7967730</v>
-      </c>
-      <c r="C195" t="s">
-        <v>127</v>
+        <v>7969146</v>
+      </c>
+      <c r="C195" s="2">
+        <v>1750200435</v>
       </c>
       <c r="D195" t="s">
-        <v>53</v>
+        <v>125</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B196">
-        <v>7967730</v>
-      </c>
-      <c r="C196" t="s">
-        <v>59</v>
+        <v>7969146</v>
+      </c>
+      <c r="C196" s="2">
+        <v>1750200541</v>
       </c>
       <c r="D196" t="s">
-        <v>53</v>
+        <v>125</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>128</v>
+        <v>8</v>
       </c>
       <c r="B197">
-        <v>7967825</v>
+        <v>7969367</v>
       </c>
       <c r="C197" s="2">
-        <v>1750304622</v>
+        <v>1750188523</v>
       </c>
       <c r="D197" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>128</v>
+        <v>43</v>
       </c>
       <c r="B198">
-        <v>7967825</v>
-      </c>
-      <c r="C198" t="s">
-        <v>130</v>
+        <v>7969374</v>
+      </c>
+      <c r="C198" s="2">
+        <v>1750200435</v>
       </c>
       <c r="D198" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B199">
-        <v>7968148</v>
+        <v>7970595</v>
       </c>
       <c r="C199" s="2">
-        <v>1750109641</v>
+        <v>1750200541</v>
       </c>
       <c r="D199" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B200">
-        <v>7968924</v>
+        <v>7970595</v>
       </c>
       <c r="C200" s="2">
-        <v>1750109659</v>
+        <v>1750214647</v>
       </c>
       <c r="D200" t="s">
-        <v>53</v>
+        <v>128</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B201">
-        <v>7969037</v>
+        <v>7971383</v>
       </c>
       <c r="C201" s="2">
-        <v>1750215295</v>
+        <v>1750200435</v>
       </c>
       <c r="D201" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B202">
-        <v>7969146</v>
+        <v>7971741</v>
       </c>
       <c r="C202" s="2">
         <v>1750200435</v>
       </c>
       <c r="D202" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B203">
-        <v>7969146</v>
+        <v>7972029</v>
       </c>
       <c r="C203" s="2">
-        <v>1750200541</v>
+        <v>1750248000</v>
       </c>
       <c r="D203" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="B204">
-        <v>7969367</v>
+        <v>7972029</v>
       </c>
       <c r="C204" s="2">
-        <v>1750188523</v>
+        <v>1750220330</v>
       </c>
       <c r="D204" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B205">
-        <v>7969374</v>
+        <v>7973015</v>
       </c>
       <c r="C205" s="2">
-        <v>1750200435</v>
+        <v>1750200541</v>
       </c>
       <c r="D205" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B206">
-        <v>7970595</v>
+        <v>7973015</v>
       </c>
       <c r="C206" s="2">
-        <v>1750200541</v>
+        <v>1750245555</v>
       </c>
       <c r="D206" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B207">
-        <v>7970595</v>
+        <v>7973015</v>
       </c>
       <c r="C207" s="2">
-        <v>1750214647</v>
+        <v>1750134478</v>
       </c>
       <c r="D207" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B208">
-        <v>7971383</v>
+        <v>7973015</v>
       </c>
       <c r="C208" s="2">
-        <v>1750200435</v>
+        <v>1750263341</v>
       </c>
       <c r="D208" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B209">
-        <v>7971741</v>
+        <v>7973357</v>
       </c>
       <c r="C209" s="2">
-        <v>1750200435</v>
+        <v>1750220022</v>
       </c>
       <c r="D209" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B210">
-        <v>7972029</v>
+        <v>7973357</v>
       </c>
       <c r="C210" s="2">
-        <v>1750248000</v>
+        <v>1750220000</v>
       </c>
       <c r="D210" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B211">
-        <v>7972029</v>
+        <v>7973357</v>
       </c>
       <c r="C211" s="2">
-        <v>1750220330</v>
+        <v>1750200435</v>
       </c>
       <c r="D211" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B212">
-        <v>7973015</v>
+        <v>7973493</v>
       </c>
       <c r="C212" s="2">
-        <v>1750200541</v>
+        <v>1750101956</v>
       </c>
       <c r="D212" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B213">
-        <v>7973015</v>
+        <v>7973493</v>
       </c>
       <c r="C213" s="2">
-        <v>1750245555</v>
+        <v>1750188523</v>
       </c>
       <c r="D213" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B214">
-        <v>7973015</v>
+        <v>7973493</v>
       </c>
       <c r="C214" s="2">
-        <v>1750134478</v>
+        <v>1750101952</v>
       </c>
       <c r="D214" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B215">
-        <v>7973015</v>
+        <v>7973493</v>
       </c>
       <c r="C215" s="2">
-        <v>1750263341</v>
+        <v>1750188524</v>
       </c>
       <c r="D215" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B216">
-        <v>7973357</v>
-      </c>
-      <c r="C216" s="2">
-        <v>1750220022</v>
+        <v>7973493</v>
+      </c>
+      <c r="C216" t="s">
+        <v>135</v>
       </c>
       <c r="D216" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B217">
-        <v>7973357</v>
-      </c>
-      <c r="C217" s="2">
-        <v>1750220000</v>
+        <v>7973493</v>
+      </c>
+      <c r="C217" t="s">
+        <v>136</v>
       </c>
       <c r="D217" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B218">
-        <v>7973357</v>
-      </c>
-      <c r="C218" s="2">
-        <v>1750200435</v>
+        <v>7973493</v>
+      </c>
+      <c r="C218" t="s">
+        <v>136</v>
       </c>
       <c r="D218" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="B219">
-        <v>7973493</v>
+        <v>7974287</v>
       </c>
       <c r="C219" s="2">
-        <v>1750101956</v>
+        <v>1750130600</v>
       </c>
       <c r="D219" t="s">
-        <v>142</v>
+        <v>52</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="B220">
-        <v>7973493</v>
+        <v>7975982</v>
       </c>
       <c r="C220" s="2">
-        <v>1750188523</v>
+        <v>1750248000</v>
       </c>
       <c r="D220" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="B221">
-        <v>7973493</v>
+        <v>7975982</v>
       </c>
       <c r="C221" s="2">
-        <v>1750101952</v>
+        <v>1750220330</v>
       </c>
       <c r="D221" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B222">
-        <v>7973493</v>
+        <v>7976330</v>
       </c>
       <c r="C222" s="2">
-        <v>1750188524</v>
+        <v>1750222982</v>
       </c>
       <c r="D222" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B223">
-        <v>7973493</v>
-      </c>
-      <c r="C223" t="s">
-        <v>143</v>
+        <v>7976745</v>
+      </c>
+      <c r="C223" s="2">
+        <v>1750105988</v>
       </c>
       <c r="D223" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="B224">
-        <v>7973493</v>
-      </c>
-      <c r="C224" t="s">
-        <v>144</v>
+        <v>7977137</v>
+      </c>
+      <c r="C224" s="2">
+        <v>1750200435</v>
       </c>
       <c r="D224" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="B225">
-        <v>7973493</v>
-      </c>
-      <c r="C225" t="s">
-        <v>144</v>
+        <v>7978510</v>
+      </c>
+      <c r="C225" s="2">
+        <v>1750215294</v>
       </c>
       <c r="D225" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B226">
-        <v>7974287</v>
+        <v>7978510</v>
       </c>
       <c r="C226" s="2">
-        <v>1750130600</v>
+        <v>1750215295</v>
       </c>
       <c r="D226" t="s">
-        <v>53</v>
+        <v>141</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B227">
-        <v>7975982</v>
+        <v>7978655</v>
       </c>
       <c r="C227" s="2">
-        <v>1750248000</v>
+        <v>1750220022</v>
       </c>
       <c r="D227" t="s">
-        <v>145</v>
+        <v>52</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B228">
-        <v>7975982</v>
+        <v>7978655</v>
       </c>
       <c r="C228" s="2">
         <v>1750220330</v>
       </c>
       <c r="D228" t="s">
-        <v>145</v>
+        <v>52</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="B229">
-        <v>7976330</v>
+        <v>7978655</v>
       </c>
       <c r="C229" s="2">
-        <v>1750222982</v>
+        <v>1750239538</v>
       </c>
       <c r="D229" t="s">
-        <v>146</v>
+        <v>52</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B230">
-        <v>7976745</v>
+        <v>7978655</v>
       </c>
       <c r="C230" s="2">
-        <v>1750105988</v>
+        <v>1750289153</v>
       </c>
       <c r="D230" t="s">
-        <v>147</v>
+        <v>52</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B231">
-        <v>7977137</v>
+        <v>7979255</v>
       </c>
       <c r="C231" s="2">
-        <v>1750200435</v>
+        <v>1750105988</v>
       </c>
       <c r="D231" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B232">
-        <v>7978510</v>
+        <v>7979396</v>
       </c>
       <c r="C232" s="2">
-        <v>1750215294</v>
+        <v>1750053977</v>
       </c>
       <c r="D232" t="s">
-        <v>149</v>
+        <v>52</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B233">
-        <v>7978510</v>
+        <v>7979436</v>
       </c>
       <c r="C233" s="2">
-        <v>1750215295</v>
+        <v>1750200435</v>
       </c>
       <c r="D233" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B234">
-        <v>7978655</v>
+        <v>7979551</v>
       </c>
       <c r="C234" s="2">
-        <v>1750220022</v>
+        <v>1750134478</v>
       </c>
       <c r="D234" t="s">
-        <v>53</v>
+        <v>143</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B235">
-        <v>7978655</v>
+        <v>7979551</v>
       </c>
       <c r="C235" s="2">
-        <v>1750220330</v>
+        <v>1750214647</v>
       </c>
       <c r="D235" t="s">
-        <v>53</v>
+        <v>143</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B236">
-        <v>7978655</v>
+        <v>7979609</v>
       </c>
       <c r="C236" s="2">
-        <v>1750239538</v>
+        <v>1750200435</v>
       </c>
       <c r="D236" t="s">
-        <v>53</v>
+        <v>130</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B237">
-        <v>7978655</v>
+        <v>7979880</v>
       </c>
       <c r="C237" s="2">
-        <v>1750289153</v>
+        <v>1750105988</v>
       </c>
       <c r="D237" t="s">
-        <v>53</v>
+        <v>139</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="B238">
-        <v>7979255</v>
+        <v>7983248</v>
       </c>
       <c r="C238" s="2">
-        <v>1750105988</v>
+        <v>1750109615</v>
       </c>
       <c r="D238" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B239">
-        <v>7979396</v>
+        <v>7983283</v>
       </c>
       <c r="C239" s="2">
-        <v>1750053977</v>
+        <v>1750105679</v>
       </c>
       <c r="D239" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B240">
-        <v>7979436</v>
+        <v>7983301</v>
       </c>
       <c r="C240" s="2">
-        <v>1750200435</v>
+        <v>1750302850</v>
       </c>
       <c r="D240" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B241">
-        <v>7979551</v>
-      </c>
-      <c r="C241" s="2">
-        <v>1750134478</v>
+        <v>7983339</v>
+      </c>
+      <c r="C241">
+        <v>1750177464</v>
       </c>
       <c r="D241" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B242">
-        <v>7979551</v>
-      </c>
-      <c r="C242" s="2">
-        <v>1750214647</v>
+        <v>7983339</v>
+      </c>
+      <c r="C242">
+        <v>1750188523</v>
       </c>
       <c r="D242" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B243">
-        <v>7979609</v>
+        <v>7984027</v>
       </c>
       <c r="C243" s="2">
-        <v>1750200435</v>
+        <v>1750222982</v>
       </c>
       <c r="D243" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B244">
-        <v>7979880</v>
+        <v>7984086</v>
       </c>
       <c r="C244" s="2">
-        <v>1750105988</v>
+        <v>1750220330</v>
       </c>
       <c r="D244" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="B245">
-        <v>7983248</v>
+        <v>7984086</v>
       </c>
       <c r="C245" s="2">
-        <v>1750109615</v>
+        <v>1750248000</v>
       </c>
       <c r="D245" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B246">
-        <v>7983283</v>
+        <v>7984118</v>
       </c>
       <c r="C246" s="2">
-        <v>1750105679</v>
+        <v>1750109641</v>
       </c>
       <c r="D246" t="s">
-        <v>53</v>
+        <v>149</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B247">
-        <v>7983301</v>
+        <v>7984368</v>
       </c>
       <c r="C247" s="2">
-        <v>1750302850</v>
+        <v>1750263341</v>
       </c>
       <c r="D247" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B248">
-        <v>7983339</v>
-      </c>
-      <c r="C248">
-        <v>1750177464</v>
+        <v>7984368</v>
+      </c>
+      <c r="C248" s="2">
+        <v>1750291701</v>
       </c>
       <c r="D248" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B249">
-        <v>7983339</v>
-      </c>
-      <c r="C249">
-        <v>1750188523</v>
+        <v>7984368</v>
+      </c>
+      <c r="C249" s="2">
+        <v>1770041364</v>
       </c>
       <c r="D249" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="B250">
-        <v>7984027</v>
+        <v>7987111</v>
       </c>
       <c r="C250" s="2">
-        <v>1750222982</v>
+        <v>1750105988</v>
       </c>
       <c r="D250" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>44</v>
+        <v>152</v>
       </c>
       <c r="B251">
-        <v>7984086</v>
-      </c>
-      <c r="C251" s="2">
-        <v>1750220330</v>
+        <v>7987322</v>
+      </c>
+      <c r="C251" t="s">
+        <v>153</v>
       </c>
       <c r="D251" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>44</v>
+        <v>152</v>
       </c>
       <c r="B252">
-        <v>7984086</v>
-      </c>
-      <c r="C252" s="2">
-        <v>1750248000</v>
+        <v>7987322</v>
+      </c>
+      <c r="C252" t="s">
+        <v>155</v>
       </c>
       <c r="D252" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>47</v>
+        <v>152</v>
       </c>
       <c r="B253">
-        <v>7984118</v>
-      </c>
-      <c r="C253" s="2">
-        <v>1750109641</v>
+        <v>7987322</v>
+      </c>
+      <c r="C253" t="s">
+        <v>156</v>
       </c>
       <c r="D253" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B254">
-        <v>7984368</v>
+        <v>7987370</v>
       </c>
       <c r="C254" s="2">
-        <v>1750263341</v>
+        <v>1750188523</v>
       </c>
       <c r="D254" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B255">
-        <v>7984368</v>
+        <v>7987434</v>
       </c>
       <c r="C255" s="2">
-        <v>1750291701</v>
+        <v>1750105988</v>
       </c>
       <c r="D255" t="s">
         <v>158</v>
@@ -4830,27 +4841,27 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B256">
-        <v>7984368</v>
+        <v>7987462</v>
       </c>
       <c r="C256" s="2">
-        <v>1770041364</v>
+        <v>1750188523</v>
       </c>
       <c r="D256" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="B257">
-        <v>7987111</v>
+        <v>7987462</v>
       </c>
       <c r="C257" s="2">
-        <v>1750105988</v>
+        <v>1750177464</v>
       </c>
       <c r="D257" t="s">
         <v>159</v>
@@ -4858,13 +4869,13 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B258">
-        <v>7987370</v>
+        <v>7987578</v>
       </c>
       <c r="C258" s="2">
-        <v>1750188523</v>
+        <v>1750105988</v>
       </c>
       <c r="D258" t="s">
         <v>160</v>
@@ -4872,1808 +4883,1808 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="B259">
-        <v>7987434</v>
+        <v>7988124</v>
       </c>
       <c r="C259" s="2">
-        <v>1750105988</v>
+        <v>1750109615</v>
       </c>
       <c r="D259" t="s">
-        <v>161</v>
+        <v>52</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="B260">
-        <v>7987462</v>
+        <v>7989437</v>
       </c>
       <c r="C260" s="2">
-        <v>1750188523</v>
+        <v>1750101956</v>
       </c>
       <c r="D260" t="s">
-        <v>162</v>
+        <v>52</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="B261">
-        <v>7987462</v>
-      </c>
-      <c r="C261" s="2">
-        <v>1750177464</v>
+        <v>7991709</v>
+      </c>
+      <c r="C261">
+        <v>1750188523</v>
       </c>
       <c r="D261" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B262">
-        <v>7987578</v>
+        <v>7992146</v>
       </c>
       <c r="C262" s="2">
-        <v>1750105988</v>
+        <v>1750053977</v>
       </c>
       <c r="D262" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>164</v>
+        <v>46</v>
       </c>
       <c r="B263">
-        <v>7987999</v>
+        <v>7992146</v>
       </c>
       <c r="C263" s="2">
-        <v>1750346607</v>
+        <v>1750105988</v>
       </c>
       <c r="D263" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B264">
-        <v>7988124</v>
+        <v>7992155</v>
       </c>
       <c r="C264" s="2">
-        <v>1750109615</v>
+        <v>1750215295</v>
       </c>
       <c r="D264" t="s">
-        <v>53</v>
+        <v>162</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B265">
-        <v>7989437</v>
-      </c>
-      <c r="C265" s="2">
-        <v>1750101956</v>
+        <v>7992204</v>
+      </c>
+      <c r="C265" t="s">
+        <v>105</v>
       </c>
       <c r="D265" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B266">
-        <v>7991709</v>
-      </c>
-      <c r="C266">
-        <v>1750188523</v>
+        <v>7992231</v>
+      </c>
+      <c r="C266" s="2">
+        <v>1750109641</v>
       </c>
       <c r="D266" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="B267">
-        <v>7992146</v>
+        <v>7993496</v>
       </c>
       <c r="C267" s="2">
-        <v>1750053977</v>
+        <v>1750101956</v>
       </c>
       <c r="D267" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="B268">
-        <v>7992146</v>
+        <v>7993496</v>
       </c>
       <c r="C268" s="2">
-        <v>1750105988</v>
+        <v>1750188523</v>
       </c>
       <c r="D268" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B269">
-        <v>7992155</v>
+        <v>7993882</v>
       </c>
       <c r="C269" s="2">
-        <v>1750215295</v>
+        <v>1750245555</v>
       </c>
       <c r="D269" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B270">
-        <v>7992231</v>
+        <v>7993882</v>
       </c>
       <c r="C270" s="2">
-        <v>1750109641</v>
+        <v>1750200435</v>
       </c>
       <c r="D270" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="B271">
-        <v>7993496</v>
+        <v>7993882</v>
       </c>
       <c r="C271" s="2">
-        <v>1750101956</v>
+        <v>1750133348</v>
       </c>
       <c r="D271" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="B272">
-        <v>7993496</v>
+        <v>7993882</v>
       </c>
       <c r="C272" s="2">
-        <v>1750188523</v>
+        <v>1750214647</v>
       </c>
       <c r="D272" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B273">
-        <v>7993882</v>
+        <v>7994017</v>
       </c>
       <c r="C273" s="2">
-        <v>1750245555</v>
+        <v>1750193275</v>
       </c>
       <c r="D273" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B274">
-        <v>7993882</v>
+        <v>7994017</v>
       </c>
       <c r="C274" s="2">
         <v>1750200435</v>
       </c>
       <c r="D274" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B275">
-        <v>7993882</v>
+        <v>7996728</v>
       </c>
       <c r="C275" s="2">
-        <v>1750133348</v>
+        <v>1750245555</v>
       </c>
       <c r="D275" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B276">
-        <v>7993882</v>
+        <v>7996728</v>
       </c>
       <c r="C276" s="2">
-        <v>1750214647</v>
+        <v>1750289153</v>
       </c>
       <c r="D276" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>128</v>
+        <v>43</v>
       </c>
       <c r="B277">
-        <v>7993886</v>
-      </c>
-      <c r="C277" t="s">
-        <v>285</v>
+        <v>7996728</v>
+      </c>
+      <c r="C277" s="2">
+        <v>1750263341</v>
       </c>
       <c r="D277" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B278">
-        <v>7994017</v>
+        <v>7996728</v>
       </c>
       <c r="C278" s="2">
-        <v>1750193275</v>
+        <v>1750200435</v>
       </c>
       <c r="D278" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B279">
-        <v>7994017</v>
+        <v>8001964</v>
       </c>
       <c r="C279" s="2">
-        <v>1750200435</v>
+        <v>1750261447</v>
       </c>
       <c r="D279" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B280">
-        <v>7996728</v>
+        <v>8001995</v>
       </c>
       <c r="C280" s="2">
-        <v>1750245555</v>
+        <v>1750177464</v>
       </c>
       <c r="D280" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B281">
-        <v>7996728</v>
+        <v>8002016</v>
       </c>
       <c r="C281" s="2">
-        <v>1750289153</v>
+        <v>1750200435</v>
       </c>
       <c r="D281" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B282">
-        <v>7996728</v>
+        <v>8002044</v>
       </c>
       <c r="C282" s="2">
-        <v>1750263341</v>
+        <v>1750215295</v>
       </c>
       <c r="D282" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B283">
-        <v>7996728</v>
+        <v>8002373</v>
       </c>
       <c r="C283" s="2">
         <v>1750200435</v>
       </c>
       <c r="D283" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="B284">
-        <v>8001964</v>
-      </c>
-      <c r="C284" s="2">
-        <v>1750261447</v>
+        <v>8002614</v>
+      </c>
+      <c r="C284" t="s">
+        <v>5</v>
       </c>
       <c r="D284" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="B285">
-        <v>8001995</v>
+        <v>8002694</v>
       </c>
       <c r="C285" s="2">
-        <v>1750177464</v>
+        <v>1750173205</v>
       </c>
       <c r="D285" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B286">
-        <v>8002016</v>
+        <v>8002694</v>
       </c>
       <c r="C286" s="2">
-        <v>1750200435</v>
+        <v>1750193275</v>
       </c>
       <c r="D286" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B287">
-        <v>8002044</v>
+        <v>8002746</v>
       </c>
       <c r="C287" s="2">
-        <v>1750215295</v>
+        <v>1750109615</v>
       </c>
       <c r="D287" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B288">
-        <v>8002373</v>
+        <v>8002746</v>
       </c>
       <c r="C288" s="2">
-        <v>1750200435</v>
+        <v>1750109641</v>
       </c>
       <c r="D288" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B289">
-        <v>8002614</v>
-      </c>
-      <c r="C289" t="s">
-        <v>5</v>
+        <v>8002753</v>
+      </c>
+      <c r="C289" s="2">
+        <v>1750102901</v>
       </c>
       <c r="D289" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B290">
-        <v>8002694</v>
+        <v>8002883</v>
       </c>
       <c r="C290" s="2">
-        <v>1750173205</v>
+        <v>1750188523</v>
       </c>
       <c r="D290" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B291">
-        <v>8002694</v>
+        <v>8003159</v>
       </c>
       <c r="C291" s="2">
         <v>1750193275</v>
       </c>
       <c r="D291" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="B292">
-        <v>8002746</v>
+        <v>8003561</v>
       </c>
       <c r="C292" s="2">
-        <v>1750109615</v>
+        <v>1750177464</v>
       </c>
       <c r="D292" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B293">
-        <v>8002746</v>
+        <v>8003696</v>
       </c>
       <c r="C293" s="2">
-        <v>1750109641</v>
+        <v>1750188546</v>
       </c>
       <c r="D293" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B294">
-        <v>8002753</v>
+        <v>8004495</v>
       </c>
       <c r="C294" s="2">
-        <v>1750102901</v>
+        <v>1750222982</v>
       </c>
       <c r="D294" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>47</v>
+        <v>120</v>
       </c>
       <c r="B295">
-        <v>8002883</v>
+        <v>8004526</v>
       </c>
       <c r="C295" s="2">
-        <v>1750188523</v>
+        <v>1750304916</v>
       </c>
       <c r="D295" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B296">
-        <v>8003159</v>
+        <v>8004898</v>
       </c>
       <c r="C296" s="2">
-        <v>1750193275</v>
+        <v>1750130600</v>
       </c>
       <c r="D296" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B297">
-        <v>8003561</v>
+        <v>8006044</v>
       </c>
       <c r="C297" s="2">
-        <v>1750177464</v>
+        <v>1750105988</v>
       </c>
       <c r="D297" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="B298">
-        <v>8003696</v>
+        <v>8006280</v>
       </c>
       <c r="C298" s="2">
-        <v>1750188546</v>
+        <v>1750188523</v>
       </c>
       <c r="D298" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B299">
-        <v>8004495</v>
+        <v>8008936</v>
       </c>
       <c r="C299" s="2">
-        <v>1750222982</v>
+        <v>1750215294</v>
       </c>
       <c r="D299" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>128</v>
+        <v>51</v>
       </c>
       <c r="B300">
-        <v>8004526</v>
+        <v>8008945</v>
       </c>
       <c r="C300" s="2">
-        <v>1750304916</v>
+        <v>1750109659</v>
       </c>
       <c r="D300" t="s">
-        <v>188</v>
+        <v>52</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="B301">
-        <v>8004898</v>
+        <v>8009062</v>
       </c>
       <c r="C301" s="2">
-        <v>1750130600</v>
+        <v>1750177464</v>
       </c>
       <c r="D301" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B302">
-        <v>8006044</v>
+        <v>8009074</v>
       </c>
       <c r="C302" s="2">
-        <v>1750105988</v>
+        <v>1750200435</v>
       </c>
       <c r="D302" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B303">
-        <v>8006280</v>
-      </c>
-      <c r="C303" s="2">
-        <v>1750188523</v>
+        <v>8009161</v>
+      </c>
+      <c r="C303" t="s">
+        <v>40</v>
       </c>
       <c r="D303" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="B304">
-        <v>8008936</v>
+        <v>8009403</v>
       </c>
       <c r="C304" s="2">
-        <v>1750215294</v>
+        <v>1750102901</v>
       </c>
       <c r="D304" t="s">
-        <v>191</v>
+        <v>52</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="B305">
-        <v>8008945</v>
+        <v>8009485</v>
       </c>
       <c r="C305" s="2">
-        <v>1750109659</v>
+        <v>1750136011</v>
       </c>
       <c r="D305" t="s">
-        <v>53</v>
+        <v>188</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B306">
-        <v>8009062</v>
+        <v>8009490</v>
       </c>
       <c r="C306" s="2">
-        <v>1750177464</v>
+        <v>1750105988</v>
       </c>
       <c r="D306" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B307">
-        <v>8009074</v>
+        <v>8009740</v>
       </c>
       <c r="C307" s="2">
-        <v>1750200435</v>
+        <v>1750171419</v>
       </c>
       <c r="D307" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="B308">
-        <v>8009161</v>
-      </c>
-      <c r="C308" t="s">
-        <v>41</v>
+        <v>8009828</v>
+      </c>
+      <c r="C308" s="2">
+        <v>1750261447</v>
       </c>
       <c r="D308" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="B309">
-        <v>8009485</v>
+        <v>8009835</v>
       </c>
       <c r="C309" s="2">
-        <v>1750136011</v>
+        <v>1750105988</v>
       </c>
       <c r="D309" t="s">
-        <v>194</v>
+        <v>158</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B310">
-        <v>8009490</v>
+        <v>8009857</v>
       </c>
       <c r="C310" s="2">
-        <v>1750105988</v>
+        <v>1770031910</v>
       </c>
       <c r="D310" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>47</v>
+        <v>120</v>
       </c>
       <c r="B311">
-        <v>8009740</v>
+        <v>8009934</v>
       </c>
       <c r="C311" s="2">
-        <v>1750171419</v>
+        <v>1750105988</v>
       </c>
       <c r="D311" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>47</v>
+        <v>120</v>
       </c>
       <c r="B312">
-        <v>8009828</v>
-      </c>
-      <c r="C312" s="2">
-        <v>1750261447</v>
+        <v>8009937</v>
+      </c>
+      <c r="C312" t="s">
+        <v>285</v>
       </c>
       <c r="D312" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B313">
-        <v>8009835</v>
+        <v>8010058</v>
       </c>
       <c r="C313" s="2">
-        <v>1750105988</v>
+        <v>1750200435</v>
       </c>
       <c r="D313" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B314">
-        <v>8009857</v>
+        <v>8011156</v>
       </c>
       <c r="C314" s="2">
-        <v>1770031910</v>
+        <v>1750220000</v>
       </c>
       <c r="D314" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>128</v>
+        <v>43</v>
       </c>
       <c r="B315">
-        <v>8009934</v>
+        <v>8011156</v>
       </c>
       <c r="C315" s="2">
-        <v>1750105988</v>
+        <v>1750214647</v>
       </c>
       <c r="D315" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>128</v>
+        <v>43</v>
       </c>
       <c r="B316">
-        <v>8009937</v>
-      </c>
-      <c r="C316" t="s">
-        <v>283</v>
+        <v>8011156</v>
+      </c>
+      <c r="C316" s="2">
+        <v>1750200541</v>
       </c>
       <c r="D316" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B317">
-        <v>8010058</v>
+        <v>8012047</v>
       </c>
       <c r="C317" s="2">
-        <v>1750200435</v>
+        <v>1750101956</v>
       </c>
       <c r="D317" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="B318">
-        <v>8010648</v>
-      </c>
-      <c r="C318" s="2">
-        <v>1750109658</v>
+        <v>8012047</v>
+      </c>
+      <c r="C318" t="s">
+        <v>135</v>
       </c>
       <c r="D318" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B319">
-        <v>8010671</v>
-      </c>
-      <c r="C319" s="2">
-        <v>1750109615</v>
+        <v>8012047</v>
+      </c>
+      <c r="C319" t="s">
+        <v>136</v>
       </c>
       <c r="D319" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B320">
-        <v>8011156</v>
+        <v>8012047</v>
       </c>
       <c r="C320" s="2">
-        <v>1750220000</v>
+        <v>1750064500</v>
       </c>
       <c r="D320" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="B321">
-        <v>8011156</v>
+        <v>8012126</v>
       </c>
       <c r="C321" s="2">
-        <v>1750214647</v>
+        <v>1750109659</v>
       </c>
       <c r="D321" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B322">
-        <v>8011156</v>
-      </c>
-      <c r="C322" s="2">
-        <v>1750200541</v>
+        <v>8012317</v>
+      </c>
+      <c r="C322" t="s">
+        <v>155</v>
       </c>
       <c r="D322" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B323">
-        <v>8012047</v>
-      </c>
-      <c r="C323" s="2">
-        <v>1750101956</v>
+        <v>8012317</v>
+      </c>
+      <c r="C323" t="s">
+        <v>198</v>
       </c>
       <c r="D323" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B324">
-        <v>8012047</v>
-      </c>
-      <c r="C324" t="s">
-        <v>143</v>
+        <v>8012665</v>
+      </c>
+      <c r="C324" s="2">
+        <v>1750105988</v>
       </c>
       <c r="D324" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B325">
-        <v>8012047</v>
-      </c>
-      <c r="C325" t="s">
-        <v>144</v>
+        <v>8012665</v>
+      </c>
+      <c r="C325" s="2">
+        <v>1750109641</v>
       </c>
       <c r="D325" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>47</v>
+        <v>200</v>
       </c>
       <c r="B326">
-        <v>8012047</v>
+        <v>8012702</v>
       </c>
       <c r="C326" s="2">
-        <v>1750064500</v>
+        <v>1750222982</v>
       </c>
       <c r="D326" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="B327">
-        <v>8012126</v>
+        <v>8013156</v>
       </c>
       <c r="C327" s="2">
-        <v>1750109659</v>
+        <v>1750188523</v>
       </c>
       <c r="D327" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B328">
-        <v>8012267</v>
+        <v>8013231</v>
       </c>
       <c r="C328" s="2">
-        <v>1750200435</v>
+        <v>1750109615</v>
       </c>
       <c r="D328" t="s">
-        <v>205</v>
+        <v>52</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>47</v>
+        <v>120</v>
       </c>
       <c r="B329">
-        <v>8012317</v>
-      </c>
-      <c r="C329" t="s">
-        <v>206</v>
+        <v>8015313</v>
+      </c>
+      <c r="C329" s="2">
+        <v>1750100965</v>
       </c>
       <c r="D329" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B330">
-        <v>8012317</v>
-      </c>
-      <c r="C330" t="s">
-        <v>208</v>
+        <v>8016213</v>
+      </c>
+      <c r="C330" s="2">
+        <v>1750215294</v>
       </c>
       <c r="D330" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B331">
-        <v>8012665</v>
+        <v>8017631</v>
       </c>
       <c r="C331" s="2">
-        <v>1750105988</v>
+        <v>1750157444</v>
       </c>
       <c r="D331" t="s">
-        <v>209</v>
+        <v>52</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B332">
-        <v>8012665</v>
+        <v>8017651</v>
       </c>
       <c r="C332" s="2">
-        <v>1750109641</v>
+        <v>1750200435</v>
       </c>
       <c r="D332" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="B333">
-        <v>8012702</v>
+        <v>8017678</v>
       </c>
       <c r="C333" s="2">
-        <v>1750222982</v>
+        <v>1750200435</v>
       </c>
       <c r="D333" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="B334">
-        <v>8012775</v>
+        <v>8017955</v>
       </c>
       <c r="C334" t="s">
-        <v>80</v>
+        <v>206</v>
       </c>
       <c r="D334" t="s">
-        <v>53</v>
+        <v>207</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>47</v>
+        <v>120</v>
       </c>
       <c r="B335">
-        <v>8013156</v>
+        <v>8018004</v>
       </c>
       <c r="C335" s="2">
-        <v>1750188523</v>
+        <v>1750045330</v>
       </c>
       <c r="D335" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="B336">
-        <v>8013231</v>
+        <v>8018007</v>
       </c>
       <c r="C336" s="2">
-        <v>1750109615</v>
+        <v>1750105988</v>
       </c>
       <c r="D336" t="s">
-        <v>53</v>
+        <v>192</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>128</v>
+        <v>46</v>
       </c>
       <c r="B337">
-        <v>8015313</v>
+        <v>8018271</v>
       </c>
       <c r="C337" s="2">
-        <v>1750100965</v>
+        <v>1750188523</v>
       </c>
       <c r="D337" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B338">
-        <v>8016213</v>
+        <v>8018527</v>
       </c>
       <c r="C338" s="2">
-        <v>1750215294</v>
+        <v>1750134478</v>
       </c>
       <c r="D338" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B339">
-        <v>8017631</v>
+        <v>8018527</v>
       </c>
       <c r="C339" s="2">
-        <v>1750157444</v>
+        <v>1750193275</v>
       </c>
       <c r="D339" t="s">
-        <v>53</v>
+        <v>210</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B340">
-        <v>8017651</v>
+        <v>8018527</v>
       </c>
       <c r="C340" s="2">
-        <v>1750200435</v>
+        <v>1750200541</v>
       </c>
       <c r="D340" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B341">
-        <v>8017678</v>
-      </c>
-      <c r="C341" s="2">
-        <v>1750200435</v>
+        <v>8018599</v>
+      </c>
+      <c r="C341" t="s">
+        <v>92</v>
       </c>
       <c r="D341" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B342">
-        <v>8017955</v>
-      </c>
-      <c r="C342" t="s">
-        <v>215</v>
+        <v>8018768</v>
+      </c>
+      <c r="C342" s="2">
+        <v>1750105988</v>
       </c>
       <c r="D342" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>128</v>
+        <v>46</v>
       </c>
       <c r="B343">
-        <v>8018004</v>
+        <v>8019163</v>
       </c>
       <c r="C343" s="2">
-        <v>1750045330</v>
+        <v>1750109615</v>
       </c>
       <c r="D343" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B344">
-        <v>8018007</v>
+        <v>8019273</v>
       </c>
       <c r="C344" s="2">
-        <v>1750105988</v>
+        <v>1750188524</v>
       </c>
       <c r="D344" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="B345">
-        <v>8018041</v>
+        <v>8019273</v>
       </c>
       <c r="C345" s="2">
-        <v>1750173205</v>
+        <v>1750188523</v>
       </c>
       <c r="D345" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="B346">
-        <v>8018258</v>
+        <v>8019334</v>
       </c>
       <c r="C346" s="2">
-        <v>1750109615</v>
+        <v>1750173205</v>
       </c>
       <c r="D346" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B347">
-        <v>8018271</v>
+        <v>8019396</v>
       </c>
       <c r="C347" s="2">
-        <v>1750188523</v>
+        <v>1750200435</v>
       </c>
       <c r="D347" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B348">
-        <v>8018527</v>
+        <v>8019507</v>
       </c>
       <c r="C348" s="2">
-        <v>1750134478</v>
+        <v>1750109659</v>
       </c>
       <c r="D348" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B349">
-        <v>8018527</v>
+        <v>8021342</v>
       </c>
       <c r="C349" s="2">
-        <v>1750193275</v>
+        <v>1750053977</v>
       </c>
       <c r="D349" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B350">
-        <v>8018527</v>
+        <v>8021342</v>
       </c>
       <c r="C350" s="2">
-        <v>1750200541</v>
+        <v>1750109615</v>
       </c>
       <c r="D350" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B351">
-        <v>8018599</v>
-      </c>
-      <c r="C351" t="s">
-        <v>98</v>
+        <v>8021411</v>
+      </c>
+      <c r="C351" s="2">
+        <v>1750177464</v>
       </c>
       <c r="D351" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B352">
-        <v>8018669</v>
-      </c>
-      <c r="C352" t="s">
-        <v>223</v>
+        <v>8021411</v>
+      </c>
+      <c r="C352" s="2">
+        <v>1750101956</v>
       </c>
       <c r="D352" t="s">
-        <v>53</v>
+        <v>219</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>47</v>
+        <v>120</v>
       </c>
       <c r="B353">
-        <v>8018768</v>
+        <v>8021466</v>
       </c>
       <c r="C353" s="2">
-        <v>1750105988</v>
+        <v>1750041251</v>
       </c>
       <c r="D353" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>47</v>
+        <v>120</v>
       </c>
       <c r="B354">
-        <v>8019163</v>
+        <v>8021466</v>
       </c>
       <c r="C354" s="2">
-        <v>1750109615</v>
+        <v>1750045776</v>
       </c>
       <c r="D354" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>8</v>
+        <v>120</v>
       </c>
       <c r="B355">
-        <v>8019273</v>
+        <v>8021466</v>
       </c>
       <c r="C355" s="2">
-        <v>1750188524</v>
+        <v>1750020811</v>
       </c>
       <c r="D355" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>8</v>
+        <v>120</v>
       </c>
       <c r="B356">
-        <v>8019273</v>
+        <v>8021466</v>
       </c>
       <c r="C356" s="2">
-        <v>1750188523</v>
+        <v>1750035776</v>
       </c>
       <c r="D356" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="B357">
-        <v>8019334</v>
+        <v>8021466</v>
       </c>
       <c r="C357" s="2">
-        <v>1750173205</v>
+        <v>1750035762</v>
       </c>
       <c r="D357" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="B358">
-        <v>8019396</v>
+        <v>8021466</v>
       </c>
       <c r="C358" s="2">
-        <v>1750200435</v>
+        <v>1750053977</v>
       </c>
       <c r="D358" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>47</v>
+        <v>120</v>
       </c>
       <c r="B359">
-        <v>8021342</v>
+        <v>8021466</v>
       </c>
       <c r="C359" s="2">
-        <v>1750053977</v>
+        <v>1750044668</v>
       </c>
       <c r="D359" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B360">
-        <v>8021342</v>
+        <v>8021567</v>
       </c>
       <c r="C360" s="2">
-        <v>1750109615</v>
+        <v>1750105988</v>
       </c>
       <c r="D360" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B361">
-        <v>8021411</v>
+        <v>8021674</v>
       </c>
       <c r="C361" s="2">
-        <v>1750177464</v>
+        <v>1750220330</v>
       </c>
       <c r="D361" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B362">
-        <v>8021411</v>
+        <v>8021674</v>
       </c>
       <c r="C362" s="2">
-        <v>1750101956</v>
+        <v>1750248000</v>
       </c>
       <c r="D362" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>128</v>
+        <v>43</v>
       </c>
       <c r="B363">
-        <v>8021466</v>
+        <v>8021674</v>
       </c>
       <c r="C363" s="2">
-        <v>1750041251</v>
+        <v>1750143750</v>
       </c>
       <c r="D363" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>128</v>
+        <v>46</v>
       </c>
       <c r="B364">
-        <v>8021466</v>
+        <v>8021869</v>
       </c>
       <c r="C364" s="2">
-        <v>1750045776</v>
+        <v>1750109615</v>
       </c>
       <c r="D364" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>128</v>
+        <v>36</v>
       </c>
       <c r="B365">
-        <v>8021466</v>
-      </c>
-      <c r="C365" s="2">
-        <v>1750020811</v>
+        <v>8022461</v>
+      </c>
+      <c r="C365" t="s">
+        <v>224</v>
       </c>
       <c r="D365" t="s">
-        <v>231</v>
+        <v>52</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>128</v>
+        <v>43</v>
       </c>
       <c r="B366">
-        <v>8021466</v>
+        <v>8022650</v>
       </c>
       <c r="C366" s="2">
-        <v>1750035776</v>
+        <v>1750193275</v>
       </c>
       <c r="D366" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>128</v>
+        <v>39</v>
       </c>
       <c r="B367">
-        <v>8021466</v>
+        <v>8022692</v>
       </c>
       <c r="C367" s="2">
-        <v>1750035762</v>
+        <v>1750188546</v>
       </c>
       <c r="D367" t="s">
-        <v>231</v>
+        <v>180</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>128</v>
+        <v>43</v>
       </c>
       <c r="B368">
-        <v>8021466</v>
+        <v>8023616</v>
       </c>
       <c r="C368" s="2">
-        <v>1750053977</v>
+        <v>1750215295</v>
       </c>
       <c r="D368" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>128</v>
+        <v>43</v>
       </c>
       <c r="B369">
-        <v>8021466</v>
+        <v>8023616</v>
       </c>
       <c r="C369" s="2">
-        <v>1750044668</v>
+        <v>1750189650</v>
       </c>
       <c r="D369" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B370">
-        <v>8021567</v>
+        <v>8023616</v>
       </c>
       <c r="C370" s="2">
-        <v>1750105988</v>
+        <v>1750053977</v>
       </c>
       <c r="D370" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B371">
-        <v>8021674</v>
+        <v>8023621</v>
       </c>
       <c r="C371" s="2">
-        <v>1750220330</v>
+        <v>1750188523</v>
       </c>
       <c r="D371" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B372">
-        <v>8021674</v>
+        <v>8023656</v>
       </c>
       <c r="C372" s="2">
-        <v>1750248000</v>
+        <v>1750188523</v>
       </c>
       <c r="D372" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B373">
-        <v>8021674</v>
+        <v>8023656</v>
       </c>
       <c r="C373" s="2">
-        <v>1750143750</v>
+        <v>1750101956</v>
       </c>
       <c r="D373" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>10</v>
+        <v>229</v>
       </c>
       <c r="B374">
-        <v>8021686</v>
+        <v>8023689</v>
       </c>
       <c r="C374" s="2">
-        <v>1750109658</v>
+        <v>1750287366</v>
       </c>
       <c r="D374" t="s">
-        <v>234</v>
+        <v>52</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>47</v>
+        <v>229</v>
       </c>
       <c r="B375">
-        <v>8021869</v>
+        <v>8023689</v>
       </c>
       <c r="C375" s="2">
-        <v>1750109615</v>
+        <v>1750301247</v>
       </c>
       <c r="D375" t="s">
-        <v>235</v>
+        <v>52</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B376">
-        <v>8022457</v>
-      </c>
-      <c r="C376" t="s">
-        <v>236</v>
+        <v>8023882</v>
+      </c>
+      <c r="C376" s="2">
+        <v>1750109615</v>
       </c>
       <c r="D376" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="B377">
-        <v>8022457</v>
-      </c>
-      <c r="C377" t="s">
-        <v>50</v>
+        <v>8023994</v>
+      </c>
+      <c r="C377" s="2">
+        <v>1750105988</v>
       </c>
       <c r="D377" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B378">
-        <v>8022650</v>
+        <v>8024034</v>
       </c>
       <c r="C378" s="2">
-        <v>1750193275</v>
+        <v>1750109615</v>
       </c>
       <c r="D378" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B379">
-        <v>8023616</v>
+        <v>8024230</v>
       </c>
       <c r="C379" s="2">
-        <v>1750215295</v>
+        <v>1750200435</v>
       </c>
       <c r="D379" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B380">
-        <v>8023616</v>
+        <v>8024381</v>
       </c>
       <c r="C380" s="2">
-        <v>1750189650</v>
+        <v>1750064500</v>
       </c>
       <c r="D380" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>44</v>
+        <v>234</v>
       </c>
       <c r="B381">
-        <v>8023616</v>
+        <v>8024404</v>
       </c>
       <c r="C381" s="2">
-        <v>1750053977</v>
+        <v>1750053690</v>
       </c>
       <c r="D381" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B382">
-        <v>8023621</v>
-      </c>
-      <c r="C382" s="2">
-        <v>1750188523</v>
+        <v>8024427</v>
+      </c>
+      <c r="C382">
+        <v>1750100966</v>
       </c>
       <c r="D382" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B383">
-        <v>8023626</v>
+        <v>8024887</v>
       </c>
       <c r="C383" s="2">
-        <v>1750249441</v>
+        <v>1750105988</v>
       </c>
       <c r="D383" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="B384">
-        <v>8023626</v>
-      </c>
-      <c r="C384" s="2">
-        <v>1750220000</v>
+        <v>8024974</v>
+      </c>
+      <c r="C384" t="s">
+        <v>5</v>
       </c>
       <c r="D384" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="B385">
-        <v>8023656</v>
+        <v>8025025</v>
       </c>
       <c r="C385" s="2">
-        <v>1750188523</v>
+        <v>1750177464</v>
       </c>
       <c r="D385" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="B386">
-        <v>8023656</v>
+        <v>8025052</v>
       </c>
       <c r="C386" s="2">
-        <v>1750101956</v>
+        <v>1750200435</v>
       </c>
       <c r="D386" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B387">
-        <v>8023882</v>
+        <v>8025243</v>
       </c>
       <c r="C387" s="2">
-        <v>1750109615</v>
+        <v>1750126457</v>
       </c>
       <c r="D387" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.3">
@@ -6681,223 +6692,223 @@
         <v>8</v>
       </c>
       <c r="B388">
-        <v>8023994</v>
+        <v>8025293</v>
       </c>
       <c r="C388" s="2">
-        <v>1750105988</v>
+        <v>1750177464</v>
       </c>
       <c r="D388" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>44</v>
+        <v>152</v>
       </c>
       <c r="B389">
-        <v>8024230</v>
+        <v>8025447</v>
       </c>
       <c r="C389" s="2">
-        <v>1750200435</v>
+        <v>1750173205</v>
       </c>
       <c r="D389" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="B390">
-        <v>8024381</v>
+        <v>8026144</v>
       </c>
       <c r="C390" s="2">
-        <v>1750064500</v>
+        <v>1750177464</v>
       </c>
       <c r="D390" t="s">
-        <v>246</v>
+        <v>52</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>164</v>
+        <v>234</v>
       </c>
       <c r="B391">
-        <v>8024404</v>
+        <v>8026208</v>
       </c>
       <c r="C391" s="2">
-        <v>1750053690</v>
+        <v>1750045330</v>
       </c>
       <c r="D391" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="B392">
-        <v>8024748</v>
-      </c>
-      <c r="C392" t="s">
-        <v>248</v>
+        <v>8026553</v>
+      </c>
+      <c r="C392" s="2">
+        <v>1750177464</v>
       </c>
       <c r="D392" t="s">
-        <v>53</v>
+        <v>239</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="B393">
-        <v>8024771</v>
-      </c>
-      <c r="C393" s="2">
-        <v>1750092824</v>
+        <v>8026629</v>
+      </c>
+      <c r="C393" t="s">
+        <v>18</v>
       </c>
       <c r="D393" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B394">
-        <v>8024773</v>
+        <v>8026949</v>
       </c>
       <c r="C394" t="s">
-        <v>250</v>
+        <v>286</v>
       </c>
       <c r="D394" t="s">
-        <v>53</v>
+        <v>245</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B395">
-        <v>8024887</v>
+        <v>8027864</v>
       </c>
       <c r="C395" s="2">
-        <v>1750105988</v>
+        <v>1750200435</v>
       </c>
       <c r="D395" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B396">
-        <v>8024891</v>
-      </c>
-      <c r="C396" t="s">
-        <v>252</v>
+        <v>8028300</v>
+      </c>
+      <c r="C396" s="2">
+        <v>1750222982</v>
       </c>
       <c r="D396" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B397">
-        <v>8024891</v>
-      </c>
-      <c r="C397" t="s">
-        <v>254</v>
+        <v>8028300</v>
+      </c>
+      <c r="C397" s="2">
+        <v>1750059284</v>
       </c>
       <c r="D397" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>47</v>
+        <v>234</v>
       </c>
       <c r="B398">
-        <v>8024891</v>
-      </c>
-      <c r="C398" t="s">
-        <v>255</v>
+        <v>8028325</v>
+      </c>
+      <c r="C398" s="2">
+        <v>1750136010</v>
       </c>
       <c r="D398" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>4</v>
+        <v>120</v>
       </c>
       <c r="B399">
-        <v>8024974</v>
-      </c>
-      <c r="C399" t="s">
-        <v>5</v>
+        <v>8028381</v>
+      </c>
+      <c r="C399" s="2">
+        <v>1750053977</v>
       </c>
       <c r="D399" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B400">
-        <v>8025025</v>
+        <v>8028438</v>
       </c>
       <c r="C400" s="2">
-        <v>1750177464</v>
+        <v>1750109659</v>
       </c>
       <c r="D400" t="s">
-        <v>257</v>
+        <v>196</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B401">
-        <v>8025052</v>
+        <v>8028438</v>
       </c>
       <c r="C401" s="2">
-        <v>1750200435</v>
+        <v>1750053977</v>
       </c>
       <c r="D401" t="s">
-        <v>245</v>
+        <v>196</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B402">
-        <v>8025196</v>
+        <v>8028510</v>
       </c>
       <c r="C402" s="2">
-        <v>1750053977</v>
+        <v>1750154866</v>
       </c>
       <c r="D402" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B403">
-        <v>8025243</v>
+        <v>8028686</v>
       </c>
       <c r="C403" s="2">
-        <v>1750126457</v>
+        <v>1750200435</v>
       </c>
       <c r="D403" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.3">
@@ -6905,335 +6916,335 @@
         <v>8</v>
       </c>
       <c r="B404">
-        <v>8025293</v>
+        <v>8028925</v>
       </c>
       <c r="C404" s="2">
-        <v>1750177464</v>
+        <v>1750109615</v>
       </c>
       <c r="D404" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>261</v>
+        <v>43</v>
       </c>
       <c r="B405">
-        <v>8025447</v>
+        <v>8029118</v>
       </c>
       <c r="C405" s="2">
-        <v>1750173205</v>
+        <v>1750189650</v>
       </c>
       <c r="D405" t="s">
-        <v>53</v>
+        <v>251</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B406">
-        <v>8026068</v>
+        <v>8029118</v>
       </c>
       <c r="C406" s="2">
-        <v>1750200541</v>
+        <v>1750177464</v>
       </c>
       <c r="D406" t="s">
-        <v>53</v>
+        <v>251</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B407">
-        <v>8026144</v>
+        <v>8029118</v>
       </c>
       <c r="C407" s="2">
-        <v>1750177464</v>
+        <v>1750174768</v>
       </c>
       <c r="D407" t="s">
-        <v>53</v>
+        <v>251</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>164</v>
+        <v>8</v>
       </c>
       <c r="B408">
-        <v>8026208</v>
+        <v>8029310</v>
       </c>
       <c r="C408" s="2">
-        <v>1750045330</v>
+        <v>1750188523</v>
       </c>
       <c r="D408" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B409">
-        <v>8026553</v>
+        <v>8029315</v>
       </c>
       <c r="C409" s="2">
-        <v>1750177464</v>
+        <v>1750130744</v>
       </c>
       <c r="D409" t="s">
-        <v>257</v>
+        <v>52</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>8</v>
+        <v>120</v>
       </c>
       <c r="B410">
-        <v>8027721</v>
+        <v>8029393</v>
       </c>
       <c r="C410" s="2">
-        <v>1750256247</v>
+        <v>1750109641</v>
       </c>
       <c r="D410" t="s">
-        <v>53</v>
+        <v>253</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="B411">
-        <v>8027864</v>
+        <v>8029393</v>
       </c>
       <c r="C411" s="2">
-        <v>1750200435</v>
+        <v>1750109615</v>
       </c>
       <c r="D411" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B412">
-        <v>8028282</v>
+        <v>8029536</v>
       </c>
       <c r="C412" s="2">
-        <v>1750295447</v>
+        <v>1750109641</v>
       </c>
       <c r="D412" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="B413">
-        <v>8028282</v>
-      </c>
-      <c r="C413" s="2">
-        <v>1750288271</v>
+        <v>8029755</v>
+      </c>
+      <c r="C413" t="s">
+        <v>135</v>
       </c>
       <c r="D413" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>164</v>
+        <v>8</v>
       </c>
       <c r="B414">
-        <v>8028325</v>
-      </c>
-      <c r="C414" s="2">
-        <v>1750136010</v>
+        <v>8029755</v>
+      </c>
+      <c r="C414" t="s">
+        <v>136</v>
       </c>
       <c r="D414" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B415">
-        <v>8028387</v>
-      </c>
-      <c r="C415" t="s">
-        <v>265</v>
+        <v>8029818</v>
+      </c>
+      <c r="C415" s="2">
+        <v>1750188523</v>
       </c>
       <c r="D415" t="s">
-        <v>53</v>
+        <v>252</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>10</v>
+        <v>256</v>
       </c>
       <c r="B416">
-        <v>8028416</v>
+        <v>8033147</v>
       </c>
       <c r="C416" s="2">
-        <v>1750110044</v>
+        <v>1750109659</v>
       </c>
       <c r="D416" t="s">
-        <v>53</v>
+        <v>257</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>44</v>
+        <v>234</v>
       </c>
       <c r="B417">
-        <v>8028510</v>
+        <v>8033230</v>
       </c>
       <c r="C417" s="2">
-        <v>1750154866</v>
+        <v>1750261447</v>
       </c>
       <c r="D417" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B418">
-        <v>8028686</v>
-      </c>
-      <c r="C418" s="2">
-        <v>1750200435</v>
+        <v>8033236</v>
+      </c>
+      <c r="C418" t="s">
+        <v>258</v>
       </c>
       <c r="D418" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B419">
-        <v>8029118</v>
-      </c>
-      <c r="C419" s="2">
-        <v>1750189650</v>
+        <v>8033236</v>
+      </c>
+      <c r="C419" t="s">
+        <v>77</v>
       </c>
       <c r="D419" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B420">
-        <v>8029118</v>
+        <v>8033260</v>
       </c>
       <c r="C420" s="2">
-        <v>1750177464</v>
+        <v>1750105988</v>
       </c>
       <c r="D420" t="s">
-        <v>267</v>
+        <v>52</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>44</v>
+        <v>200</v>
       </c>
       <c r="B421">
-        <v>8029118</v>
+        <v>8033320</v>
       </c>
       <c r="C421" s="2">
-        <v>1750174768</v>
+        <v>1750109615</v>
       </c>
       <c r="D421" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="B422">
-        <v>8029194</v>
-      </c>
-      <c r="C422" t="s">
-        <v>65</v>
+        <v>8033355</v>
+      </c>
+      <c r="C422" s="2">
+        <v>1750053977</v>
       </c>
       <c r="D422" t="s">
-        <v>53</v>
+        <v>261</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B423">
-        <v>8029310</v>
+        <v>8033355</v>
       </c>
       <c r="C423" s="2">
-        <v>1750188523</v>
+        <v>1750109659</v>
       </c>
       <c r="D423" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>128</v>
+        <v>46</v>
       </c>
       <c r="B424">
-        <v>8029393</v>
+        <v>8033355</v>
       </c>
       <c r="C424" s="2">
-        <v>1750109641</v>
+        <v>1750109615</v>
       </c>
       <c r="D424" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="B425">
-        <v>8029393</v>
+        <v>8033430</v>
       </c>
       <c r="C425" s="2">
-        <v>1750109615</v>
+        <v>1750182347</v>
       </c>
       <c r="D425" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B426">
-        <v>8029536</v>
+        <v>8033438</v>
       </c>
       <c r="C426" s="2">
-        <v>1750109641</v>
+        <v>1750234950</v>
       </c>
       <c r="D426" t="s">
-        <v>270</v>
+        <v>52</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B427">
-        <v>8029541</v>
-      </c>
-      <c r="C427" s="2">
-        <v>1750173205</v>
+        <v>8033438</v>
+      </c>
+      <c r="C427" t="s">
+        <v>263</v>
       </c>
       <c r="D427" t="s">
-        <v>271</v>
+        <v>52</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.3">
@@ -7241,237 +7252,237 @@
         <v>8</v>
       </c>
       <c r="B428">
-        <v>8029755</v>
-      </c>
-      <c r="C428" t="s">
-        <v>143</v>
+        <v>8033541</v>
+      </c>
+      <c r="C428" s="2">
+        <v>1750177464</v>
       </c>
       <c r="D428" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="B429">
-        <v>8029755</v>
-      </c>
-      <c r="C429" t="s">
-        <v>144</v>
+        <v>8033588</v>
+      </c>
+      <c r="C429" s="2">
+        <v>1750200435</v>
       </c>
       <c r="D429" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="B430">
-        <v>8029818</v>
+        <v>8033588</v>
       </c>
       <c r="C430" s="2">
-        <v>1750188523</v>
+        <v>1750214647</v>
       </c>
       <c r="D430" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="B431">
-        <v>8030263</v>
+        <v>8033594</v>
       </c>
       <c r="C431" s="2">
-        <v>1750109659</v>
+        <v>1750261447</v>
       </c>
       <c r="D431" t="s">
-        <v>53</v>
+        <v>266</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B432">
-        <v>8033084</v>
-      </c>
-      <c r="C432" t="s">
-        <v>273</v>
+        <v>8033759</v>
+      </c>
+      <c r="C432" s="2">
+        <v>1750173205</v>
       </c>
       <c r="D432" t="s">
-        <v>53</v>
+        <v>267</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B433">
-        <v>8033084</v>
-      </c>
-      <c r="C433" t="s">
-        <v>274</v>
+        <v>8033867</v>
+      </c>
+      <c r="C433" s="2">
+        <v>1750053977</v>
       </c>
       <c r="D433" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B434">
-        <v>8033112</v>
+        <v>8033867</v>
       </c>
       <c r="C434" s="2">
-        <v>1750101956</v>
+        <v>1750109659</v>
       </c>
       <c r="D434" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>275</v>
+        <v>46</v>
       </c>
       <c r="B435">
-        <v>8033205</v>
+        <v>8033870</v>
       </c>
       <c r="C435" t="s">
-        <v>112</v>
+        <v>268</v>
       </c>
       <c r="D435" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>275</v>
+        <v>8</v>
       </c>
       <c r="B436">
-        <v>8033209</v>
+        <v>8033903</v>
       </c>
       <c r="C436" s="2">
-        <v>1750159523</v>
+        <v>1750108341</v>
       </c>
       <c r="D436" t="s">
-        <v>277</v>
+        <v>52</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="B437">
-        <v>8033215</v>
-      </c>
-      <c r="C437" s="2">
+        <v>8034034</v>
+      </c>
+      <c r="C437">
         <v>1750105988</v>
       </c>
       <c r="D437" t="s">
-        <v>53</v>
+        <v>270</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="B438">
-        <v>8033260</v>
-      </c>
-      <c r="C438" s="2">
-        <v>1750105988</v>
+        <v>8034062</v>
+      </c>
+      <c r="C438" t="s">
+        <v>271</v>
       </c>
       <c r="D438" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="B439">
-        <v>8033320</v>
+        <v>8034201</v>
       </c>
       <c r="C439" s="2">
-        <v>1750109615</v>
+        <v>1750256247</v>
       </c>
       <c r="D439" t="s">
-        <v>278</v>
+        <v>52</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="B440">
-        <v>8033430</v>
+        <v>8034218</v>
       </c>
       <c r="C440" s="2">
-        <v>1750182347</v>
+        <v>1750109615</v>
       </c>
       <c r="D440" t="s">
-        <v>53</v>
+        <v>272</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="B441">
-        <v>8033483</v>
+        <v>8034461</v>
       </c>
       <c r="C441" s="2">
-        <v>1750109615</v>
+        <v>1750109659</v>
       </c>
       <c r="D441" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="B442">
-        <v>8033528</v>
+        <v>8034599</v>
       </c>
       <c r="C442" s="2">
-        <v>1750173205</v>
+        <v>1750134478</v>
       </c>
       <c r="D442" t="s">
-        <v>279</v>
+        <v>52</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="B443">
-        <v>8033594</v>
+        <v>8034599</v>
       </c>
       <c r="C443" s="2">
-        <v>1750261447</v>
+        <v>1750263341</v>
       </c>
       <c r="D443" t="s">
-        <v>280</v>
+        <v>52</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B444">
-        <v>8033623</v>
-      </c>
-      <c r="C444" s="2">
-        <v>1750053977</v>
+        <v>8034615</v>
+      </c>
+      <c r="C444" t="s">
+        <v>64</v>
       </c>
       <c r="D444" t="s">
-        <v>53</v>
+        <v>273</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.3">
@@ -7479,45 +7490,269 @@
         <v>10</v>
       </c>
       <c r="B445">
-        <v>8033759</v>
+        <v>8034636</v>
       </c>
       <c r="C445" s="2">
-        <v>1750173205</v>
+        <v>1750169942</v>
       </c>
       <c r="D445" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B446">
-        <v>8034034</v>
+        <v>8034648</v>
       </c>
       <c r="C446">
-        <v>1750105988</v>
+        <v>1750177464</v>
       </c>
       <c r="D446" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
+        <v>43</v>
+      </c>
+      <c r="B447">
+        <v>8034648</v>
+      </c>
+      <c r="C447">
+        <v>1750188523</v>
+      </c>
+      <c r="D447" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A448" t="s">
+        <v>46</v>
+      </c>
+      <c r="B448">
+        <v>8034654</v>
+      </c>
+      <c r="C448" s="2">
+        <v>1750295079</v>
+      </c>
+      <c r="D448" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A449" t="s">
+        <v>46</v>
+      </c>
+      <c r="B449">
+        <v>8034660</v>
+      </c>
+      <c r="C449" s="2">
+        <v>1750105988</v>
+      </c>
+      <c r="D449" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A450" t="s">
+        <v>43</v>
+      </c>
+      <c r="B450">
+        <v>8034679</v>
+      </c>
+      <c r="C450" s="2">
+        <v>1750177464</v>
+      </c>
+      <c r="D450" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A451" t="s">
+        <v>43</v>
+      </c>
+      <c r="B451">
+        <v>8034714</v>
+      </c>
+      <c r="C451" s="2">
+        <v>1750200435</v>
+      </c>
+      <c r="D451" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A452" t="s">
+        <v>51</v>
+      </c>
+      <c r="B452">
+        <v>8035288</v>
+      </c>
+      <c r="C452" s="2">
+        <v>1750173205</v>
+      </c>
+      <c r="D452" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A453" t="s">
+        <v>43</v>
+      </c>
+      <c r="B453">
+        <v>8035362</v>
+      </c>
+      <c r="C453" s="2">
+        <v>1750101956</v>
+      </c>
+      <c r="D453" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A454" t="s">
         <v>10</v>
       </c>
-      <c r="B447">
-        <v>8034278</v>
-      </c>
-      <c r="C447" t="s">
-        <v>127</v>
-      </c>
-      <c r="D447" t="s">
+      <c r="B454">
+        <v>8035375</v>
+      </c>
+      <c r="C454" t="s">
+        <v>5</v>
+      </c>
+      <c r="D454" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A455" t="s">
+        <v>280</v>
+      </c>
+      <c r="B455">
+        <v>8035407</v>
+      </c>
+      <c r="C455" t="s">
+        <v>281</v>
+      </c>
+      <c r="D455" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A456" t="s">
+        <v>120</v>
+      </c>
+      <c r="B456">
+        <v>8035412</v>
+      </c>
+      <c r="C456" s="2">
+        <v>1750110039</v>
+      </c>
+      <c r="D456" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A457" t="s">
+        <v>10</v>
+      </c>
+      <c r="B457">
+        <v>8035630</v>
+      </c>
+      <c r="C457" s="2">
+        <v>1750130600</v>
+      </c>
+      <c r="D457" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A458" t="s">
+        <v>234</v>
+      </c>
+      <c r="B458">
+        <v>8035715</v>
+      </c>
+      <c r="C458" s="2">
+        <v>1750053977</v>
+      </c>
+      <c r="D458" t="s">
         <v>282</v>
       </c>
     </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A459" t="s">
+        <v>234</v>
+      </c>
+      <c r="B459">
+        <v>8035715</v>
+      </c>
+      <c r="C459" s="2">
+        <v>1750109659</v>
+      </c>
+      <c r="D459" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
+      <c r=